--- a/Comparison table updated 3.xlsx
+++ b/Comparison table updated 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -661,7 +661,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="186">
   <si>
     <t>Cloud server providers with GPU</t>
     <phoneticPr fontId="3"/>
@@ -1383,6 +1383,10 @@
     <t>SK M40x1 m.</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>per year USD</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -1789,7 +1793,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="567">
+  <cellStyleXfs count="573">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2365,8 +2369,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -2486,6 +2496,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="62" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2505,7 +2518,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="567">
+  <cellStyles count="573">
     <cellStyle name="Calculation" xfId="344" builtinId="22" hidden="1"/>
     <cellStyle name="Check Cell" xfId="346" builtinId="23" hidden="1"/>
     <cellStyle name="comment" xfId="120"/>
@@ -2784,6 +2797,9 @@
     <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 1 2" xfId="62"/>
     <cellStyle name="Heading 2" xfId="264" builtinId="17" customBuiltin="1"/>
@@ -3063,6 +3079,9 @@
     <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="571" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="342" builtinId="20" hidden="1"/>
     <cellStyle name="Linked Cell" xfId="345" builtinId="24" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3074,7 +3093,40 @@
     <cellStyle name="Style 1" xfId="55"/>
     <cellStyle name="Title" xfId="341" builtinId="15" hidden="1"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -3229,17 +3281,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEAF2F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
@@ -3456,8 +3497,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="70"/>
-        <c:axId val="-2125577592"/>
-        <c:axId val="-2125579704"/>
+        <c:axId val="2088531896"/>
+        <c:axId val="2088535352"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -3661,11 +3702,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="300"/>
-        <c:axId val="-2125587464"/>
-        <c:axId val="-2125582488"/>
+        <c:axId val="2088544824"/>
+        <c:axId val="2088539096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2125577592"/>
+        <c:axId val="2088531896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3686,7 +3727,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125579704"/>
+        <c:crossAx val="2088535352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3694,7 +3735,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125579704"/>
+        <c:axId val="2088535352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3738,12 +3779,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125577592"/>
+        <c:crossAx val="2088531896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2125582488"/>
+        <c:axId val="2088539096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3781,12 +3822,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125587464"/>
+        <c:crossAx val="2088544824"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2125587464"/>
+        <c:axId val="2088544824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3795,7 +3836,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125582488"/>
+        <c:crossAx val="2088539096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5942,8 +5983,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2130305976"/>
-        <c:axId val="-2142296712"/>
+        <c:axId val="2086761480"/>
+        <c:axId val="2086757720"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -8052,11 +8093,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2122992344"/>
-        <c:axId val="-2130339688"/>
+        <c:axId val="2086751240"/>
+        <c:axId val="2086754152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2130305976"/>
+        <c:axId val="2086761480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8640.0"/>
@@ -8080,14 +8121,14 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142296712"/>
+        <c:crossAx val="2086757720"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="480.0"/>
         <c:minorUnit val="48.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142296712"/>
+        <c:axId val="2086757720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200000.0"/>
@@ -8119,12 +8160,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2130305976"/>
+        <c:crossAx val="2086761480"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2130339688"/>
+        <c:axId val="2086754152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20000.0"/>
@@ -8157,13 +8198,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2122992344"/>
+        <c:crossAx val="2086751240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="400.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2122992344"/>
+        <c:axId val="2086751240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8173,7 +8214,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130339688"/>
+        <c:crossAx val="2086754152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8844,13 +8885,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EX33"/>
+  <dimension ref="A1:EY33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="U5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="U11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -8879,67 +8920,68 @@
     <col min="22" max="22" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.83203125" style="13" customWidth="1"/>
     <col min="24" max="24" width="20.83203125" customWidth="1"/>
-    <col min="25" max="25" width="28.1640625" customWidth="1"/>
-    <col min="26" max="26" width="22.1640625" customWidth="1"/>
-    <col min="27" max="27" width="28.1640625" customWidth="1"/>
-    <col min="28" max="28" width="21.5" customWidth="1"/>
+    <col min="25" max="25" width="20.83203125" style="13" customWidth="1"/>
+    <col min="26" max="26" width="28.1640625" customWidth="1"/>
+    <col min="27" max="27" width="22.1640625" customWidth="1"/>
+    <col min="28" max="28" width="28.1640625" customWidth="1"/>
+    <col min="29" max="29" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:154" s="4" customFormat="1" ht="26">
+    <row r="1" spans="1:155" s="4" customFormat="1" ht="26">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:154" s="6" customFormat="1" ht="46" customHeight="1" thickBot="1">
+    <row r="3" spans="1:155" s="6" customFormat="1" ht="46" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
       <c r="J3" s="31"/>
-      <c r="K3" s="58" t="s">
+      <c r="K3" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
       <c r="P3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="58" t="s">
+      <c r="Q3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
       <c r="U3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="58" t="s">
+      <c r="V3" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="1" t="s">
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AC3"/>
       <c r="AD3"/>
       <c r="AE3"/>
       <c r="AF3"/>
@@ -9065,8 +9107,9 @@
       <c r="EV3"/>
       <c r="EW3"/>
       <c r="EX3"/>
-    </row>
-    <row r="4" spans="1:154" s="13" customFormat="1" ht="42" customHeight="1" thickTop="1" thickBot="1">
+      <c r="EY3"/>
+    </row>
+    <row r="4" spans="1:155" s="13" customFormat="1" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23" t="s">
@@ -9135,18 +9178,21 @@
       <c r="X4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23" t="s">
+      <c r="Y4" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="AA4" s="23" t="s">
+      <c r="AB4" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="23" t="s">
+      <c r="AC4" s="23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:154" s="13" customFormat="1" ht="21" thickTop="1">
+    <row r="5" spans="1:155" s="13" customFormat="1" ht="21" thickTop="1">
       <c r="A5" s="29" t="s">
         <v>29</v>
       </c>
@@ -9207,23 +9253,24 @@
         <f>V5*720</f>
         <v>10368</v>
       </c>
-      <c r="Y5" s="16" t="s">
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="Z5" s="32">
+      <c r="AA5" s="32">
         <f>X5/(D5*F5)</f>
         <v>74.141876430205954</v>
       </c>
-      <c r="AA5" s="14">
+      <c r="AB5" s="14">
         <f>D5*F5*1000/X5</f>
         <v>13.487654320987655</v>
       </c>
-      <c r="AB5" s="32">
+      <c r="AC5" s="32">
         <f>X5/(L5*N5)</f>
         <v>14580</v>
       </c>
     </row>
-    <row r="6" spans="1:154">
+    <row r="6" spans="1:155">
       <c r="A6" s="15" t="s">
         <v>88</v>
       </c>
@@ -9284,23 +9331,24 @@
         <f t="shared" ref="X6:X8" si="1">V6*720</f>
         <v>5184</v>
       </c>
-      <c r="Y6" s="16" t="s">
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="Z6" s="32">
-        <f t="shared" ref="Z6:Z16" si="2">X6/(D6*F6)</f>
+      <c r="AA6" s="32">
+        <f t="shared" ref="AA6:AA16" si="2">X6/(D6*F6)</f>
         <v>74.141876430205954</v>
       </c>
-      <c r="AA6" s="5">
-        <f t="shared" ref="AA6:AA9" si="3">D6*F6*1000/X6</f>
+      <c r="AB6" s="5">
+        <f t="shared" ref="AB6:AB9" si="3">D6*F6*1000/X6</f>
         <v>13.487654320987655</v>
       </c>
-      <c r="AB6" s="32">
-        <f t="shared" ref="AB6:AB33" si="4">X6/(L6*N6)</f>
+      <c r="AC6" s="32">
+        <f t="shared" ref="AC6:AC33" si="4">X6/(L6*N6)</f>
         <v>14580</v>
       </c>
     </row>
-    <row r="7" spans="1:154">
+    <row r="7" spans="1:155">
       <c r="B7" s="30" t="s">
         <v>50</v>
       </c>
@@ -9356,23 +9404,24 @@
         <f t="shared" si="1"/>
         <v>648</v>
       </c>
-      <c r="Y7" s="16" t="s">
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="Z7" s="32">
+      <c r="AA7" s="32">
         <f t="shared" si="2"/>
         <v>74.141876430205954</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AB7" s="5">
         <f t="shared" si="3"/>
         <v>13.487654320987655</v>
       </c>
-      <c r="AB7" s="32">
+      <c r="AC7" s="32">
         <f t="shared" si="4"/>
         <v>14580</v>
       </c>
     </row>
-    <row r="8" spans="1:154">
+    <row r="8" spans="1:155">
       <c r="A8" s="16" t="s">
         <v>120</v>
       </c>
@@ -9428,23 +9477,24 @@
         <f t="shared" si="1"/>
         <v>11404.8</v>
       </c>
-      <c r="Y8" s="16" t="s">
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="Z8" s="32">
+      <c r="AA8" s="32">
         <f t="shared" si="2"/>
         <v>81.556064073226537</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AB8" s="5">
         <f t="shared" si="3"/>
         <v>12.261503928170596</v>
       </c>
-      <c r="AB8" s="32">
+      <c r="AC8" s="32">
         <f t="shared" si="4"/>
         <v>14255.999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:154">
+    <row r="9" spans="1:155">
       <c r="A9" s="16"/>
       <c r="B9" s="30" t="s">
         <v>130</v>
@@ -9491,28 +9541,32 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="10" t="str">
-        <f>USDOLLAR(X9/720,2)&amp;"?"</f>
-        <v>$12.21?</v>
+        <f>USDOLLAR(X9/730,2)&amp;"?"</f>
+        <v>$12.05?</v>
       </c>
       <c r="W9" s="32"/>
-      <c r="X9" s="32">
+      <c r="X9" s="10">
         <v>8793.81</v>
       </c>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="32">
+      <c r="Y9" s="32">
+        <f>$X9*12</f>
+        <v>105525.72</v>
+      </c>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="32">
         <f t="shared" si="2"/>
         <v>62.884796910755142</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="AB9" s="5">
         <f t="shared" si="3"/>
         <v>15.902094768934058</v>
       </c>
-      <c r="AB9" s="32">
+      <c r="AC9" s="32">
         <f t="shared" si="4"/>
         <v>10992.262499999999</v>
       </c>
     </row>
-    <row r="10" spans="1:154">
+    <row r="10" spans="1:155">
       <c r="A10" s="16"/>
       <c r="B10" s="30" t="s">
         <v>131</v>
@@ -9559,28 +9613,32 @@
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="10" t="str">
-        <f>USDOLLAR(X10/720,2)&amp;"?"</f>
-        <v>$10.23?</v>
+        <f>USDOLLAR(X10/730,2)&amp;"?"</f>
+        <v>$10.09?</v>
       </c>
       <c r="W10" s="32"/>
-      <c r="X10" s="32">
+      <c r="X10" s="10">
         <v>7365.75</v>
       </c>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="32">
-        <f t="shared" ref="Z10:Z11" si="5">X10/(D10*F10)</f>
+      <c r="Y10" s="32">
+        <f t="shared" ref="Y10:Y11" si="5">$X10*12</f>
+        <v>88389</v>
+      </c>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="32">
+        <f t="shared" ref="AA10:AA11" si="6">X10/(D10*F10)</f>
         <v>52.672697368421055</v>
       </c>
-      <c r="AA10" s="5">
-        <f t="shared" ref="AA10:AA11" si="6">D10*F10*1000/X10</f>
+      <c r="AB10" s="5">
+        <f t="shared" ref="AB10:AB11" si="7">D10*F10*1000/X10</f>
         <v>18.985167837626854</v>
       </c>
-      <c r="AB10" s="32">
-        <f t="shared" ref="AB10:AB11" si="7">X10/(L10*N10)</f>
+      <c r="AC10" s="32">
+        <f t="shared" ref="AC10:AC11" si="8">X10/(L10*N10)</f>
         <v>9207.1875</v>
       </c>
     </row>
-    <row r="11" spans="1:154">
+    <row r="11" spans="1:155">
       <c r="A11" s="16"/>
       <c r="B11" s="30" t="s">
         <v>132</v>
@@ -9627,28 +9685,33 @@
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="10" t="str">
-        <f>USDOLLAR(X11/720,2)&amp;"?"</f>
-        <v>$7.13?</v>
+        <f>USDOLLAR(X11/730,2)&amp;"?"</f>
+        <v>$7.03?</v>
       </c>
       <c r="W11" s="32"/>
-      <c r="X11" s="32">
-        <v>5132.7777777777701</v>
-      </c>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="32">
-        <f t="shared" si="5"/>
-        <v>36.704646580218608</v>
-      </c>
-      <c r="AA11" s="5">
+      <c r="X11" s="10">
+        <f>Y11/12</f>
+        <v>5132.7777777777783</v>
+      </c>
+      <c r="Y11" s="32">
+        <f>184780/3</f>
+        <v>61593.333333333336</v>
+      </c>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="32">
         <f t="shared" si="6"/>
-        <v>27.24450698127507</v>
-      </c>
-      <c r="AB11" s="32">
+        <v>36.704646580218665</v>
+      </c>
+      <c r="AB11" s="5">
         <f t="shared" si="7"/>
-        <v>6415.9722222222126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:154">
+        <v>27.244506981275027</v>
+      </c>
+      <c r="AC11" s="32">
+        <f t="shared" si="8"/>
+        <v>6415.9722222222226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:155">
       <c r="B12" s="30"/>
       <c r="C12" s="38"/>
       <c r="D12" s="5"/>
@@ -9672,12 +9735,13 @@
       <c r="V12" s="26"/>
       <c r="W12" s="32"/>
       <c r="X12" s="32"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="22"/>
-    </row>
-    <row r="13" spans="1:154" ht="20">
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="22"/>
+    </row>
+    <row r="13" spans="1:155" ht="20">
       <c r="A13" s="29" t="s">
         <v>28</v>
       </c>
@@ -9747,23 +9811,24 @@
         <f>V13*720</f>
         <v>3816</v>
       </c>
-      <c r="Y13" s="16" t="s">
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="Z13" s="32">
+      <c r="AA13" s="32">
         <f>X13/(D13*F13)</f>
         <v>436.61327231121282</v>
       </c>
-      <c r="AA13" s="53">
+      <c r="AB13" s="53">
         <f>D13*F13*1000/X13</f>
         <v>2.2903563941299789</v>
       </c>
-      <c r="AB13" s="32">
+      <c r="AC13" s="32">
         <f>X13/(L13*N13)</f>
         <v>9540</v>
       </c>
     </row>
-    <row r="14" spans="1:154" s="13" customFormat="1" ht="20">
+    <row r="14" spans="1:155" s="13" customFormat="1" ht="20">
       <c r="A14" s="29"/>
       <c r="B14" s="30" t="s">
         <v>133</v>
@@ -9828,23 +9893,24 @@
       <c r="X14" s="32">
         <v>2479</v>
       </c>
-      <c r="Y14" s="16" t="s">
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="Z14" s="32">
+      <c r="AA14" s="32">
         <f>X14/(D14*F14)</f>
         <v>283.63844393592677</v>
       </c>
-      <c r="AA14" s="53">
+      <c r="AB14" s="53">
         <f>D14*F14*1000/X14</f>
         <v>3.5256151674062122</v>
       </c>
-      <c r="AB14" s="32">
+      <c r="AC14" s="32">
         <f>X14/(L14*N14)</f>
         <v>6197.5</v>
       </c>
     </row>
-    <row r="15" spans="1:154">
+    <row r="15" spans="1:155">
       <c r="A15" s="16" t="s">
         <v>155</v>
       </c>
@@ -9903,30 +9969,31 @@
         <v>10</v>
       </c>
       <c r="V15" s="10" t="str">
-        <f t="shared" ref="V15:V16" si="8">USDOLLAR(X15/720,2)&amp;"?"</f>
-        <v>$2.12?</v>
+        <f>USDOLLAR(X15/730,2)&amp;"?"</f>
+        <v>$2.09?</v>
       </c>
       <c r="W15" s="32"/>
       <c r="X15" s="32">
         <v>1529</v>
       </c>
-      <c r="Y15" s="16" t="s">
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="Z15" s="32">
+      <c r="AA15" s="32">
         <f t="shared" si="2"/>
         <v>174.94279176201371</v>
       </c>
-      <c r="AA15" s="5">
+      <c r="AB15" s="5">
         <f>D15*F15*1000/X15</f>
         <v>5.7161543492478746</v>
       </c>
-      <c r="AB15" s="32">
+      <c r="AC15" s="32">
         <f t="shared" si="4"/>
         <v>2184.2857142857142</v>
       </c>
     </row>
-    <row r="16" spans="1:154">
+    <row r="16" spans="1:155">
       <c r="A16" s="16"/>
       <c r="B16" s="30" t="s">
         <v>101</v>
@@ -9983,30 +10050,31 @@
         <v>10</v>
       </c>
       <c r="V16" s="10" t="str">
-        <f t="shared" si="8"/>
-        <v>$2.61?</v>
+        <f>USDOLLAR(X16/730,2)&amp;"?"</f>
+        <v>$2.57?</v>
       </c>
       <c r="W16" s="32"/>
       <c r="X16" s="32">
         <v>1879</v>
       </c>
-      <c r="Y16" s="16" t="s">
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="Z16" s="32">
+      <c r="AA16" s="32">
         <f t="shared" si="2"/>
         <v>194.71502590673575</v>
       </c>
-      <c r="AA16" s="5">
+      <c r="AB16" s="5">
         <f>D16*F16*1000/X16</f>
         <v>5.1357104843001595</v>
       </c>
-      <c r="AB16" s="32">
+      <c r="AC16" s="32">
         <f t="shared" si="4"/>
         <v>2684.2857142857147</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:29">
       <c r="B17" s="30"/>
       <c r="C17" s="38"/>
       <c r="D17" s="5"/>
@@ -10030,12 +10098,13 @@
       <c r="V17" s="26"/>
       <c r="W17" s="32"/>
       <c r="X17" s="32"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="32"/>
-    </row>
-    <row r="18" spans="1:28" ht="20">
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="32"/>
+    </row>
+    <row r="18" spans="1:29" ht="20">
       <c r="A18" s="29" t="s">
         <v>44</v>
       </c>
@@ -10093,23 +10162,24 @@
         <f>V18*720</f>
         <v>3600</v>
       </c>
-      <c r="Y18" s="16" t="s">
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Z18" s="32">
-        <f t="shared" ref="Z18" si="9">X18/(D18*F18)</f>
+      <c r="AA18" s="32">
+        <f t="shared" ref="AA18" si="9">X18/(D18*F18)</f>
         <v>205.94965675057207</v>
       </c>
-      <c r="AA18" s="5">
+      <c r="AB18" s="5">
         <f>D18*F18*1000/X18</f>
         <v>4.8555555555555552</v>
       </c>
-      <c r="AB18" s="32">
+      <c r="AC18" s="32">
         <f t="shared" si="4"/>
         <v>4105.8394160583939</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:29">
       <c r="A19" s="16" t="s">
         <v>135</v>
       </c>
@@ -10160,12 +10230,13 @@
       <c r="V19" s="26"/>
       <c r="W19" s="32"/>
       <c r="X19" s="32"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="32"/>
-    </row>
-    <row r="20" spans="1:28">
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="32"/>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" s="16" t="s">
         <v>68</v>
       </c>
@@ -10190,12 +10261,13 @@
       <c r="V20" s="26"/>
       <c r="W20" s="32"/>
       <c r="X20" s="32"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="32"/>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="32"/>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" s="16" t="s">
         <v>69</v>
       </c>
@@ -10220,12 +10292,13 @@
       <c r="V21" s="26"/>
       <c r="W21" s="32"/>
       <c r="X21" s="32"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="32"/>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="32"/>
+    </row>
+    <row r="22" spans="1:29">
       <c r="B22" s="30"/>
       <c r="C22" s="38"/>
       <c r="E22" s="14"/>
@@ -10247,12 +10320,13 @@
       <c r="V22" s="26"/>
       <c r="W22" s="32"/>
       <c r="X22" s="32"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="32"/>
-    </row>
-    <row r="23" spans="1:28" ht="20">
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="32"/>
+    </row>
+    <row r="23" spans="1:29" ht="20">
       <c r="A23" s="29" t="s">
         <v>45</v>
       </c>
@@ -10313,8 +10387,8 @@
       </c>
       <c r="U23" s="5"/>
       <c r="V23" s="10" t="str">
-        <f t="shared" ref="V23:V30" si="10">USDOLLAR(X23/720,2)&amp;"?"</f>
-        <v>$10.42?</v>
+        <f>USDOLLAR(X23/730,2)&amp;"?"</f>
+        <v>$10.27?</v>
       </c>
       <c r="W23" s="32">
         <v>2649</v>
@@ -10322,21 +10396,22 @@
       <c r="X23" s="32">
         <v>7499</v>
       </c>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="32">
-        <f t="shared" ref="Z23:Z25" si="11">X23/(D23*F23)</f>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="32">
+        <f t="shared" ref="AA23:AA25" si="10">X23/(D23*F23)</f>
         <v>107.25114416475972</v>
       </c>
-      <c r="AA23" s="5">
-        <f t="shared" ref="AA23:AA25" si="12">D23*F23*1000/X23</f>
+      <c r="AB23" s="5">
+        <f t="shared" ref="AB23:AB25" si="11">D23*F23*1000/X23</f>
         <v>9.3239098546472867</v>
       </c>
-      <c r="AB23" s="32">
+      <c r="AC23" s="32">
         <f t="shared" si="4"/>
         <v>12498.333333333334</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:29">
       <c r="A24" s="16" t="s">
         <v>70</v>
       </c>
@@ -10397,8 +10472,8 @@
       </c>
       <c r="U24" s="5"/>
       <c r="V24" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>$8.33?</v>
+        <f>USDOLLAR(X24/730,2)&amp;"?"</f>
+        <v>$8.22?</v>
       </c>
       <c r="W24" s="32">
         <v>1829</v>
@@ -10406,21 +10481,22 @@
       <c r="X24" s="32">
         <v>5999</v>
       </c>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="32">
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="32">
+        <f t="shared" si="10"/>
+        <v>109.56677381648159</v>
+      </c>
+      <c r="AB24" s="5">
         <f t="shared" si="11"/>
-        <v>109.56677381648159</v>
-      </c>
-      <c r="AA24" s="5">
-        <f t="shared" si="12"/>
         <v>9.126854475745958</v>
       </c>
-      <c r="AB24" s="32">
+      <c r="AC24" s="32">
         <f t="shared" si="4"/>
         <v>14997.5</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:29">
       <c r="B25" s="30" t="s">
         <v>111</v>
       </c>
@@ -10478,8 +10554,8 @@
       </c>
       <c r="U25" s="5"/>
       <c r="V25" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>$5.28?</v>
+        <f>USDOLLAR(X25/730,2)&amp;"?"</f>
+        <v>$5.20?</v>
       </c>
       <c r="W25" s="32">
         <v>1329</v>
@@ -10487,21 +10563,22 @@
       <c r="X25" s="32">
         <v>3799</v>
       </c>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="32">
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="32">
+        <f t="shared" si="10"/>
+        <v>77.290852864583329</v>
+      </c>
+      <c r="AB25" s="5">
         <f t="shared" si="11"/>
-        <v>77.290852864583329</v>
-      </c>
-      <c r="AA25" s="5">
-        <f t="shared" si="12"/>
         <v>12.938141616214793</v>
       </c>
-      <c r="AB25" s="32">
+      <c r="AC25" s="32">
         <f t="shared" si="4"/>
         <v>9497.5</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:29">
       <c r="B26" s="30" t="s">
         <v>113</v>
       </c>
@@ -10559,8 +10636,8 @@
       </c>
       <c r="U26" s="5"/>
       <c r="V26" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>$2.92?</v>
+        <f>USDOLLAR(X26/730,2)&amp;"?"</f>
+        <v>$2.88?</v>
       </c>
       <c r="W26" s="32">
         <v>749</v>
@@ -10568,21 +10645,22 @@
       <c r="X26" s="32">
         <v>2099</v>
       </c>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="32">
-        <f t="shared" ref="Z26:Z30" si="13">X26/(D26*F26)</f>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="32">
+        <f t="shared" ref="AA26:AA30" si="12">X26/(D26*F26)</f>
         <v>85.408528645833329</v>
       </c>
-      <c r="AA26" s="5">
-        <f t="shared" ref="AA26:AA30" si="14">D26*F26*1000/X26</f>
+      <c r="AB26" s="5">
+        <f t="shared" ref="AB26:AB30" si="13">D26*F26*1000/X26</f>
         <v>11.708432586946165</v>
       </c>
-      <c r="AB26" s="32">
-        <f t="shared" ref="AB26:AB30" si="15">X26/(L26*N26)</f>
+      <c r="AC26" s="32">
+        <f t="shared" ref="AC26:AC30" si="14">X26/(L26*N26)</f>
         <v>5766.4835164835167</v>
       </c>
     </row>
-    <row r="27" spans="1:28" s="13" customFormat="1">
+    <row r="27" spans="1:29" s="13" customFormat="1">
       <c r="A27" s="2"/>
       <c r="B27" s="30" t="s">
         <v>139</v>
@@ -10641,8 +10719,8 @@
       </c>
       <c r="U27" s="5"/>
       <c r="V27" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>$9.72?</v>
+        <f>USDOLLAR(X27/730,2)&amp;"?"</f>
+        <v>$9.59?</v>
       </c>
       <c r="W27" s="32">
         <v>2049</v>
@@ -10650,21 +10728,22 @@
       <c r="X27" s="32">
         <v>6999</v>
       </c>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="32">
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="32">
+        <f t="shared" si="12"/>
+        <v>74.406786868515056</v>
+      </c>
+      <c r="AB27" s="5">
         <f t="shared" si="13"/>
-        <v>74.406786868515056</v>
-      </c>
-      <c r="AA27" s="5">
+        <v>13.439634233461923</v>
+      </c>
+      <c r="AC27" s="32">
         <f t="shared" si="14"/>
-        <v>13.439634233461923</v>
-      </c>
-      <c r="AB27" s="32">
-        <f t="shared" si="15"/>
         <v>17497.5</v>
       </c>
     </row>
-    <row r="28" spans="1:28" s="13" customFormat="1">
+    <row r="28" spans="1:29" s="13" customFormat="1">
       <c r="A28" s="2"/>
       <c r="B28" s="30" t="s">
         <v>140</v>
@@ -10723,8 +10802,8 @@
       </c>
       <c r="U28" s="5"/>
       <c r="V28" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>$11.94?</v>
+        <f>USDOLLAR(X28/730,2)&amp;"?"</f>
+        <v>$11.78?</v>
       </c>
       <c r="W28" s="32">
         <v>2599</v>
@@ -10732,21 +10811,22 @@
       <c r="X28" s="32">
         <v>8599</v>
       </c>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="32">
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="32">
+        <f t="shared" si="12"/>
+        <v>113.14473684210526</v>
+      </c>
+      <c r="AB28" s="5">
         <f t="shared" si="13"/>
-        <v>113.14473684210526</v>
-      </c>
-      <c r="AA28" s="5">
+        <v>8.838237004302826</v>
+      </c>
+      <c r="AC28" s="32">
         <f t="shared" si="14"/>
-        <v>8.838237004302826</v>
-      </c>
-      <c r="AB28" s="32">
-        <f t="shared" si="15"/>
         <v>21497.5</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:29">
       <c r="B29" s="30" t="s">
         <v>114</v>
       </c>
@@ -10802,8 +10882,8 @@
       <c r="T29" s="14"/>
       <c r="U29" s="5"/>
       <c r="V29" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>$10.35?</v>
+        <f>USDOLLAR(X29/730,2)&amp;"?"</f>
+        <v>$10.20?</v>
       </c>
       <c r="W29" s="32">
         <v>2259</v>
@@ -10811,23 +10891,24 @@
       <c r="X29" s="32">
         <v>7449</v>
       </c>
-      <c r="Y29" s="16" t="s">
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="Z29" s="32">
+      <c r="AA29" s="32">
+        <f t="shared" si="12"/>
+        <v>196.02631578947367</v>
+      </c>
+      <c r="AB29" s="5">
         <f t="shared" si="13"/>
-        <v>196.02631578947367</v>
-      </c>
-      <c r="AA29" s="5">
+        <v>5.1013558866962008</v>
+      </c>
+      <c r="AC29" s="32">
         <f t="shared" si="14"/>
-        <v>5.1013558866962008</v>
-      </c>
-      <c r="AB29" s="32">
-        <f t="shared" si="15"/>
         <v>6796.5328467153277</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:29">
       <c r="B30" s="30" t="s">
         <v>115</v>
       </c>
@@ -10883,8 +10964,8 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>$9.28?</v>
+        <f>USDOLLAR(X30/730,2)&amp;"?"</f>
+        <v>$9.15?</v>
       </c>
       <c r="W30" s="32">
         <v>1999</v>
@@ -10892,21 +10973,22 @@
       <c r="X30" s="32">
         <v>6679</v>
       </c>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="32">
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="32">
+        <f t="shared" si="12"/>
+        <v>175.76315789473685</v>
+      </c>
+      <c r="AB30" s="5">
         <f t="shared" si="13"/>
-        <v>175.76315789473685</v>
-      </c>
-      <c r="AA30" s="5">
+        <v>5.6894744722263813</v>
+      </c>
+      <c r="AC30" s="32">
         <f t="shared" si="14"/>
-        <v>5.6894744722263813</v>
-      </c>
-      <c r="AB30" s="32">
-        <f t="shared" si="15"/>
         <v>7617.4726277372265</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:29">
       <c r="B31" s="30"/>
       <c r="C31" s="38"/>
       <c r="E31" s="14"/>
@@ -10929,12 +11011,13 @@
       <c r="V31" s="26"/>
       <c r="W31" s="32"/>
       <c r="X31" s="32"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="32"/>
-    </row>
-    <row r="32" spans="1:28" ht="20">
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="32"/>
+    </row>
+    <row r="32" spans="1:29" ht="20">
       <c r="A32" s="29" t="s">
         <v>52</v>
       </c>
@@ -10997,30 +11080,31 @@
         <v>0.1</v>
       </c>
       <c r="V32" s="10" t="str">
-        <f t="shared" ref="V32:V33" si="16">USDOLLAR(X32/720,2)&amp;"?"</f>
-        <v>$2.11?</v>
+        <f>USDOLLAR(X32/730,2)&amp;"?"</f>
+        <v>$2.08?</v>
       </c>
       <c r="W32" s="32"/>
       <c r="X32" s="32">
         <v>1519</v>
       </c>
-      <c r="Y32" s="16" t="s">
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="Z32" s="32">
-        <f t="shared" ref="Z32" si="17">X32/(D32*F32)</f>
+      <c r="AA32" s="32">
+        <f t="shared" ref="AA32" si="15">X32/(D32*F32)</f>
         <v>61.808268229166664</v>
       </c>
-      <c r="AA32" s="5">
-        <f t="shared" ref="AA32" si="18">D32*F32*1000/X32</f>
+      <c r="AB32" s="5">
+        <f t="shared" ref="AB32" si="16">D32*F32*1000/X32</f>
         <v>16.179065174456881</v>
       </c>
-      <c r="AB32" s="32">
+      <c r="AC32" s="32">
         <f t="shared" si="4"/>
         <v>5063.3333333333339</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:29">
       <c r="A33" s="16" t="s">
         <v>71</v>
       </c>
@@ -11083,25 +11167,26 @@
         <v>0.1</v>
       </c>
       <c r="V33" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>$2.33?</v>
+        <f>USDOLLAR(X33/730,2)&amp;"?"</f>
+        <v>$2.29?</v>
       </c>
       <c r="W33" s="32"/>
       <c r="X33" s="32">
         <v>1675</v>
       </c>
-      <c r="Y33" s="16" t="s">
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="Z33" s="32">
-        <f t="shared" ref="Z33" si="19">X33/(D33*F33)</f>
+      <c r="AA33" s="32">
+        <f t="shared" ref="AA33" si="17">X33/(D33*F33)</f>
         <v>244.73991817650494</v>
       </c>
-      <c r="AA33" s="5">
-        <f t="shared" ref="AA33" si="20">D33*F33*1000/X33</f>
+      <c r="AB33" s="5">
+        <f t="shared" ref="AB33" si="18">D33*F33*1000/X33</f>
         <v>4.0859701492537317</v>
       </c>
-      <c r="AB33" s="32">
+      <c r="AC33" s="32">
         <f t="shared" si="4"/>
         <v>5583.3333333333339</v>
       </c>
@@ -11114,7 +11199,7 @@
     <mergeCell ref="V3:X3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="Z32">
+  <conditionalFormatting sqref="AA32">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -11126,7 +11211,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA32">
+  <conditionalFormatting sqref="AB32">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -11138,7 +11223,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z33">
+  <conditionalFormatting sqref="AA33">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -11150,7 +11235,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA33">
+  <conditionalFormatting sqref="AB33">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -11162,7 +11247,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z33">
+  <conditionalFormatting sqref="AA33">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -11174,7 +11259,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA33">
+  <conditionalFormatting sqref="AB33">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -11186,12 +11271,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:W13 A14:XFD27 A29:XFD33 A28:J28 P28:XFD28 Y13:XFD13 A5:XFD12">
-    <cfRule type="expression" dxfId="14" priority="13">
+  <conditionalFormatting sqref="A13:W13 A14:XFD27 A29:XFD33 A28:J28 P28:XFD28 Z13:XFD13 A5:XFD12">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z5:Z33">
+  <conditionalFormatting sqref="AA5:AA33">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -11203,7 +11288,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA5:AA33">
+  <conditionalFormatting sqref="AB5:AB33">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -11215,7 +11300,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z5:Z30">
+  <conditionalFormatting sqref="AA5:AA30">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -11227,7 +11312,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA5:AA30">
+  <conditionalFormatting sqref="AB5:AB30">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -11239,7 +11324,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z5:Z32">
+  <conditionalFormatting sqref="AA5:AA32">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -11251,7 +11336,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA5:AA32">
+  <conditionalFormatting sqref="AB5:AB32">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -11263,7 +11348,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB5:AB33">
+  <conditionalFormatting sqref="AC5:AC33">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -11275,7 +11360,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z5:Z33">
+  <conditionalFormatting sqref="AA5:AA33">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -11287,7 +11372,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB5:AB33">
+  <conditionalFormatting sqref="AC5:AC33">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -11299,7 +11384,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA5:AA33">
+  <conditionalFormatting sqref="AB5:AB33">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -11313,9 +11398,6 @@
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="56" fitToWidth="2" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <ignoredErrors>
-    <ignoredError sqref="V10" formula="1"/>
-  </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -11366,7 +11448,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1" thickTop="1">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="60" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="30" t="str">
@@ -11374,91 +11456,91 @@
         <v>p2.16xlarge on-demand</v>
       </c>
       <c r="C3" s="18">
-        <f>+Sheet1!Z5</f>
+        <f>+Sheet1!AA5</f>
         <v>74.141876430205954</v>
       </c>
       <c r="D3" s="17">
-        <f>+Sheet1!AB5</f>
+        <f>+Sheet1!AC5</f>
         <v>14580</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
-      <c r="A4" s="59"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="30" t="str">
         <f>+Sheet1!B6</f>
         <v>p2.8xlarge on-demand</v>
       </c>
       <c r="C4" s="18">
-        <f>+Sheet1!Z6</f>
+        <f>+Sheet1!AA6</f>
         <v>74.141876430205954</v>
       </c>
       <c r="D4" s="17">
-        <f>+Sheet1!AB6</f>
+        <f>+Sheet1!AC6</f>
         <v>14580</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
-      <c r="A5" s="59"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="30" t="str">
         <f>+Sheet1!B7</f>
         <v>p2.xlarge on-demand</v>
       </c>
       <c r="C5" s="18">
-        <f>+Sheet1!Z7</f>
+        <f>+Sheet1!AA7</f>
         <v>74.141876430205954</v>
       </c>
       <c r="D5" s="17">
-        <f>+Sheet1!AB7</f>
+        <f>+Sheet1!AC7</f>
         <v>14580</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
-      <c r="A6" s="59"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="30" t="str">
         <f>+Sheet1!B8</f>
         <v>p2 dedicated host On-demand</v>
       </c>
       <c r="C6" s="18">
-        <f>+Sheet1!Z8</f>
+        <f>+Sheet1!AA8</f>
         <v>81.556064073226537</v>
       </c>
       <c r="D6" s="17">
-        <f>+Sheet1!AB8</f>
+        <f>+Sheet1!AC8</f>
         <v>14255.999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
-      <c r="A7" s="59"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="30" t="str">
         <f>+Sheet1!B9</f>
         <v>p2 dedicated host 1y. no Up.</v>
       </c>
       <c r="C7" s="18">
-        <f>+Sheet1!Z9</f>
+        <f>+Sheet1!AA9</f>
         <v>62.884796910755142</v>
       </c>
       <c r="D7" s="17">
-        <f>+Sheet1!AB9</f>
+        <f>+Sheet1!AC9</f>
         <v>10992.262499999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
-      <c r="A8" s="59"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="30" t="str">
         <f>+Sheet1!B10</f>
         <v>p2 dedicated host 1y. Up.100%</v>
       </c>
       <c r="C8" s="18">
-        <f>+Sheet1!Z10</f>
+        <f>+Sheet1!AA10</f>
         <v>52.672697368421055</v>
       </c>
       <c r="D8" s="17">
-        <f>+Sheet1!AB10</f>
+        <f>+Sheet1!AC10</f>
         <v>9207.1875</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="60" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="30" t="str">
@@ -11466,41 +11548,41 @@
         <v>NVIDIA Tesla K80 hourly</v>
       </c>
       <c r="C9" s="18">
-        <f>+Sheet1!Z14</f>
+        <f>+Sheet1!AA14</f>
         <v>283.63844393592677</v>
       </c>
       <c r="D9" s="18">
-        <f>+Sheet1!AB14</f>
+        <f>+Sheet1!AC14</f>
         <v>6197.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="59"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="30" t="str">
         <f>+Sheet1!B15</f>
         <v>NVIDIA Tesla K80 2690v3</v>
       </c>
       <c r="C10" s="18">
-        <f>+Sheet1!Z15</f>
+        <f>+Sheet1!AA15</f>
         <v>174.94279176201371</v>
       </c>
       <c r="D10" s="18">
-        <f>+Sheet1!AB15</f>
+        <f>+Sheet1!AC15</f>
         <v>2184.2857142857142</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="59"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="30" t="str">
         <f>+Sheet1!B16</f>
         <v>NVIDIA Tesla M60 2690v3</v>
       </c>
       <c r="C11" s="18">
-        <f>+Sheet1!Z16</f>
+        <f>+Sheet1!AA16</f>
         <v>194.71502590673575</v>
       </c>
       <c r="D11" s="18">
-        <f>+Sheet1!AB16</f>
+        <f>+Sheet1!AC16</f>
         <v>2684.2857142857147</v>
       </c>
     </row>
@@ -11513,16 +11595,16 @@
         <v>NGD5</v>
       </c>
       <c r="C12" s="18">
-        <f>+Sheet1!Z18</f>
+        <f>+Sheet1!AA18</f>
         <v>205.94965675057207</v>
       </c>
       <c r="D12" s="18">
-        <f>+Sheet1!AB18</f>
+        <f>+Sheet1!AC18</f>
         <v>4105.8394160583939</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="60" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="30" t="str">
@@ -11530,121 +11612,121 @@
         <v>16-GPU x86 SERVER K80</v>
       </c>
       <c r="C13" s="18">
-        <f>+Sheet1!Z23</f>
+        <f>+Sheet1!AA23</f>
         <v>107.25114416475972</v>
       </c>
       <c r="D13" s="18">
-        <f>+Sheet1!AB23</f>
+        <f>+Sheet1!AC23</f>
         <v>12498.333333333334</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="59"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="30" t="str">
         <f>+Sheet1!B24</f>
         <v>8-GPU x86 SERVER M40</v>
       </c>
       <c r="C14" s="18">
-        <f>+Sheet1!Z24</f>
+        <f>+Sheet1!AA24</f>
         <v>109.56677381648159</v>
       </c>
       <c r="D14" s="18">
-        <f>+Sheet1!AB24</f>
+        <f>+Sheet1!AC24</f>
         <v>14997.5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="59"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="30" t="str">
         <f>+Sheet1!B25</f>
         <v>8-GPU x86 SERVER</v>
       </c>
       <c r="C15" s="18">
-        <f>+Sheet1!Z25</f>
+        <f>+Sheet1!AA25</f>
         <v>77.290852864583329</v>
       </c>
       <c r="D15" s="18">
-        <f>+Sheet1!AB25</f>
+        <f>+Sheet1!AC25</f>
         <v>9497.5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="59"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="30" t="str">
         <f>+Sheet1!B26</f>
         <v>4-GPU x86 SERVER</v>
       </c>
       <c r="C16" s="18">
-        <f>+Sheet1!Z26</f>
+        <f>+Sheet1!AA26</f>
         <v>85.408528645833329</v>
       </c>
       <c r="D16" s="18">
-        <f>+Sheet1!AB26</f>
+        <f>+Sheet1!AC26</f>
         <v>5766.4835164835167</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="13" customFormat="1">
-      <c r="A17" s="59"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="30" t="str">
         <f>+Sheet1!B27</f>
         <v>8-GPU x86 SERVER P40</v>
       </c>
       <c r="C17" s="18">
-        <f>+Sheet1!Z27</f>
+        <f>+Sheet1!AA27</f>
         <v>74.406786868515056</v>
       </c>
       <c r="D17" s="18">
-        <f>+Sheet1!AB27</f>
+        <f>+Sheet1!AC27</f>
         <v>17497.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="13" customFormat="1">
-      <c r="A18" s="59"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="30" t="str">
         <f>+Sheet1!B28</f>
         <v>8-GPU x86 SERVER P100</v>
       </c>
       <c r="C18" s="18">
-        <f>+Sheet1!Z28</f>
+        <f>+Sheet1!AA28</f>
         <v>113.14473684210526</v>
       </c>
       <c r="D18" s="18">
-        <f>+Sheet1!AB28</f>
+        <f>+Sheet1!AC28</f>
         <v>21497.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="59"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="30" t="str">
         <f>+Sheet1!B29</f>
         <v>4-GPU POWER8/10 SERVER</v>
       </c>
       <c r="C19" s="18">
-        <f>+Sheet1!Z29</f>
+        <f>+Sheet1!AA29</f>
         <v>196.02631578947367</v>
       </c>
       <c r="D19" s="18">
-        <f>+Sheet1!AB29</f>
+        <f>+Sheet1!AC29</f>
         <v>6796.5328467153277</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="59"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="30" t="str">
         <f>+Sheet1!B30</f>
         <v>4-GPU POWER8/8 SERVER</v>
       </c>
       <c r="C20" s="18">
-        <f>+Sheet1!Z30</f>
+        <f>+Sheet1!AA30</f>
         <v>175.76315789473685</v>
       </c>
       <c r="D20" s="18">
-        <f>+Sheet1!AB30</f>
+        <f>+Sheet1!AC30</f>
         <v>7617.4726277372265</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="60" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="30" t="str">
@@ -11652,26 +11734,26 @@
         <v>Quad GPU model</v>
       </c>
       <c r="C21" s="18">
-        <f>+Sheet1!Z32</f>
+        <f>+Sheet1!AA32</f>
         <v>61.808268229166664</v>
       </c>
       <c r="D21" s="18">
-        <f>+Sheet1!AB32</f>
+        <f>+Sheet1!AC32</f>
         <v>5063.3333333333339</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="59"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="30" t="str">
         <f>+Sheet1!B33</f>
         <v>Tesla model</v>
       </c>
       <c r="C22" s="18">
-        <f>+Sheet1!Z33</f>
+        <f>+Sheet1!AA33</f>
         <v>244.73991817650494</v>
       </c>
       <c r="D22" s="18">
-        <f>+Sheet1!AB33</f>
+        <f>+Sheet1!AC33</f>
         <v>5583.3333333333339</v>
       </c>
     </row>
@@ -11905,8 +11987,11 @@
   </sheetPr>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -11956,7 +12041,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" thickTop="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="30" t="str">
@@ -11990,7 +12075,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1">
-      <c r="A3" s="59"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="30" t="str">
         <f>Sheet1!B6</f>
         <v>p2.8xlarge on-demand</v>
@@ -12022,7 +12107,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1">
-      <c r="A4" s="59"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="30" t="str">
         <f>Sheet1!B7</f>
         <v>p2.xlarge on-demand</v>
@@ -12054,7 +12139,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1">
-      <c r="A5" s="59"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="30" t="str">
         <f>Sheet1!B8</f>
         <v>p2 dedicated host On-demand</v>
@@ -12086,7 +12171,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1">
-      <c r="A6" s="59"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="30" t="str">
         <f>Sheet1!B9</f>
         <v>p2 dedicated host 1y. no Up.</v>
@@ -12096,12 +12181,9 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
-      <c r="F6" s="27">
-        <f>Sheet1!X9</f>
-        <v>8793.81</v>
-      </c>
+      <c r="F6" s="27"/>
       <c r="G6" s="27">
-        <f>F6*12</f>
+        <f>Sheet1!$Y9</f>
         <v>105525.72</v>
       </c>
       <c r="H6" s="14">
@@ -12118,7 +12200,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1">
-      <c r="A7" s="59"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="30" t="str">
         <f>Sheet1!B10</f>
         <v>p2 dedicated host 1y. Up.100%</v>
@@ -12130,6 +12212,7 @@
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27">
+        <f>Sheet1!$Y10</f>
         <v>88389</v>
       </c>
       <c r="H7" s="14">
@@ -12146,7 +12229,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1">
-      <c r="A8" s="59" t="str">
+      <c r="A8" s="60" t="str">
         <f>Sheet1!$A$13</f>
         <v>Softlayer</v>
       </c>
@@ -12178,7 +12261,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A9" s="59"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="30" t="str">
         <f>Sheet1!B14</f>
         <v>NVIDIA Tesla K80 monthly</v>
@@ -12207,7 +12290,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1">
-      <c r="A10" s="59"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="30" t="str">
         <f>Sheet1!B15</f>
         <v>NVIDIA Tesla K80 2690v3</v>
@@ -12236,7 +12319,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="20" customHeight="1">
-      <c r="A11" s="59"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="30" t="str">
         <f>Sheet1!B16</f>
         <v>NVIDIA Tesla M60 2690v3</v>
@@ -12300,7 +12383,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="20" customHeight="1">
-      <c r="A13" s="59" t="str">
+      <c r="A13" s="60" t="str">
         <f>Sheet1!A23</f>
         <v>Cirrascale</v>
       </c>
@@ -12332,7 +12415,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A14" s="59"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="30" t="str">
         <f>Sheet1!B23&amp;" weekly"</f>
         <v>16-GPU x86 SERVER K80 weekly</v>
@@ -12361,7 +12444,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A15" s="59"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="30" t="str">
         <f>Sheet1!B24&amp;" monthly"</f>
         <v>8-GPU x86 SERVER M40 monthly</v>
@@ -12390,7 +12473,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="20" customHeight="1">
-      <c r="A16" s="59"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="30" t="str">
         <f>Sheet1!B24&amp;" weekly"</f>
         <v>8-GPU x86 SERVER M40 weekly</v>
@@ -12419,7 +12502,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A17" s="59"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="30" t="str">
         <f>Sheet1!B25&amp;" monthly"</f>
         <v>8-GPU x86 SERVER monthly</v>
@@ -12448,7 +12531,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="20" customHeight="1">
-      <c r="A18" s="59"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="30" t="str">
         <f>Sheet1!B25&amp;" weekly"</f>
         <v>8-GPU x86 SERVER weekly</v>
@@ -12477,7 +12560,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A19" s="59"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="30" t="str">
         <f>Sheet1!B26&amp;" monthly"</f>
         <v>4-GPU x86 SERVER monthly</v>
@@ -12506,7 +12589,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="20" customHeight="1">
-      <c r="A20" s="59"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="30" t="str">
         <f>Sheet1!B26&amp;" weekly"</f>
         <v>4-GPU x86 SERVER weekly</v>
@@ -12535,7 +12618,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A21" s="59"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="30" t="str">
         <f>Sheet1!B27&amp;" monthly"</f>
         <v>8-GPU x86 SERVER P40 monthly</v>
@@ -12564,7 +12647,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A22" s="59"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="30" t="str">
         <f>Sheet1!B27&amp;" weekly"</f>
         <v>8-GPU x86 SERVER P40 weekly</v>
@@ -12593,7 +12676,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A23" s="59"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="30" t="str">
         <f>Sheet1!B28&amp;" monthly"</f>
         <v>8-GPU x86 SERVER P100 monthly</v>
@@ -12622,7 +12705,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A24" s="59"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="30" t="str">
         <f>Sheet1!B28&amp;" weekly"</f>
         <v>8-GPU x86 SERVER P100 weekly</v>
@@ -12651,7 +12734,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A25" s="59"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="30" t="str">
         <f>Sheet1!B29&amp;" monthly"</f>
         <v>4-GPU POWER8/10 SERVER monthly</v>
@@ -12680,7 +12763,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="20" customHeight="1">
-      <c r="A26" s="59"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="30" t="str">
         <f>Sheet1!B29&amp;" weekly"</f>
         <v>4-GPU POWER8/10 SERVER weekly</v>
@@ -12709,7 +12792,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A27" s="59"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="30" t="str">
         <f>Sheet1!B30&amp;" monthly"</f>
         <v>4-GPU POWER8/8 SERVER monthly</v>
@@ -12738,7 +12821,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="20" customHeight="1">
-      <c r="A28" s="59"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="30" t="str">
         <f>Sheet1!B30&amp;" weekly"</f>
         <v>4-GPU POWER8/8 SERVER weekly</v>
@@ -12767,7 +12850,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="20" customHeight="1">
-      <c r="A29" s="59" t="str">
+      <c r="A29" s="60" t="str">
         <f>Sheet1!A32</f>
         <v>Sakura</v>
       </c>
@@ -12799,7 +12882,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="20" customHeight="1">
-      <c r="A30" s="59"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="30" t="str">
         <f>Sheet1!$B$33</f>
         <v>Tesla model</v>
@@ -12835,73 +12918,73 @@
     <mergeCell ref="A29:A30"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="B18:E18 G18:I18 B22:E22 G22:I22 B21:I21 B24 G24:I24 B26:E26 G26:I26 B29:I30 B28 G28:I28 F22:F28 B2:I17 B20 D20:I20 D24:E24 D28:E28">
-    <cfRule type="expression" dxfId="13" priority="14">
+  <conditionalFormatting sqref="B18:E18 G18:I18 B22:E22 G22:I22 B21:I21 B24 G24:I24 B26:E26 G26:I26 B29:I30 B28 G28:I28 F22:F28 B20 D20:I20 D24:E24 D28:E28 B2:I17">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:I19">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:E23 G23:I23">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:E25 G25:I25">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:E27 G27:I27">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J18 J20:J22 J24 J26 J28:J30">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="9" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12925,7 +13008,7 @@
   </sheetPr>
   <dimension ref="A1:CM338"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -13040,180 +13123,180 @@
       <c r="D1" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="64" t="str">
+      <c r="E1" s="65" t="str">
         <f>'cost-performance'!$A$2&amp;" "&amp;'cost-performance'!$B$2</f>
         <v>Amazon p2.16xlarge on-demand</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="62" t="str">
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="63" t="str">
         <f>'cost-performance'!$A$2&amp;" "&amp;'cost-performance'!$B$3</f>
         <v>Amazon p2.8xlarge on-demand</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="61" t="str">
+      <c r="I1" s="63"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="62" t="str">
         <f>'cost-performance'!$A$2&amp;" "&amp;'cost-performance'!$B$4</f>
         <v>Amazon p2.xlarge on-demand</v>
       </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="61" t="str">
+      <c r="L1" s="63"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="62" t="str">
         <f>'cost-performance'!$A$2&amp;" "&amp;'cost-performance'!$B$5</f>
         <v>Amazon p2 dedicated host On-demand</v>
       </c>
-      <c r="O1" s="62"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="61" t="str">
+      <c r="O1" s="63"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="62" t="str">
         <f>'cost-performance'!$A$2&amp;" "&amp;'cost-performance'!$B$6</f>
         <v>Amazon p2 dedicated host 1y. no Up.</v>
       </c>
-      <c r="R1" s="62"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="61" t="str">
+      <c r="R1" s="63"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="62" t="str">
         <f>'cost-performance'!A2&amp;" "&amp;'cost-performance'!B7</f>
         <v>Amazon p2 dedicated host 1y. Up.100%</v>
       </c>
-      <c r="U1" s="62"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="61" t="str">
+      <c r="U1" s="63"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="62" t="str">
         <f>'cost-performance'!$A$8&amp;" "&amp;'cost-performance'!$B$8</f>
         <v>Softlayer NVIDIA Tesla K80 hourly</v>
       </c>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="61" t="str">
+      <c r="X1" s="63"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="62" t="str">
         <f>'cost-performance'!$A$8&amp;" "&amp;'cost-performance'!$B$9</f>
         <v>Softlayer NVIDIA Tesla K80 monthly</v>
       </c>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="61" t="str">
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="62" t="str">
         <f>'cost-performance'!$A$8&amp;" "&amp;'cost-performance'!$B$10</f>
         <v>Softlayer NVIDIA Tesla K80 2690v3</v>
       </c>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="61" t="str">
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="62" t="str">
         <f>'cost-performance'!$A$8&amp;" "&amp;'cost-performance'!$B$11</f>
         <v>Softlayer NVIDIA Tesla M60 2690v3</v>
       </c>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="61" t="str">
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="62" t="str">
         <f>'cost-performance'!$A$12&amp;" "&amp;'cost-performance'!$B$12</f>
         <v>Nimbix NGD5</v>
       </c>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="61" t="str">
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="62" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$B$13</f>
         <v>Cirrascale 16-GPU x86 SERVER K80 monthly</v>
       </c>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="61" t="str">
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="62" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$B$14</f>
         <v>Cirrascale 16-GPU x86 SERVER K80 weekly</v>
       </c>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="61" t="str">
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="62" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$B$15</f>
         <v>Cirrascale 8-GPU x86 SERVER M40 monthly</v>
       </c>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="61" t="str">
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="62" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$B$16</f>
         <v>Cirrascale 8-GPU x86 SERVER M40 weekly</v>
       </c>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="61" t="str">
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="62" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$B$17</f>
         <v>Cirrascale 8-GPU x86 SERVER monthly</v>
       </c>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="63"/>
-      <c r="BA1" s="61" t="str">
+      <c r="AY1" s="63"/>
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="62" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$B$18</f>
         <v>Cirrascale 8-GPU x86 SERVER weekly</v>
       </c>
-      <c r="BB1" s="62"/>
-      <c r="BC1" s="63"/>
-      <c r="BD1" s="61" t="str">
+      <c r="BB1" s="63"/>
+      <c r="BC1" s="64"/>
+      <c r="BD1" s="62" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$B$19</f>
         <v>Cirrascale 4-GPU x86 SERVER monthly</v>
       </c>
-      <c r="BE1" s="62"/>
-      <c r="BF1" s="63"/>
-      <c r="BG1" s="61" t="str">
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="64"/>
+      <c r="BG1" s="62" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$B$20</f>
         <v>Cirrascale 4-GPU x86 SERVER weekly</v>
       </c>
-      <c r="BH1" s="62"/>
-      <c r="BI1" s="63"/>
-      <c r="BJ1" s="61" t="str">
+      <c r="BH1" s="63"/>
+      <c r="BI1" s="64"/>
+      <c r="BJ1" s="62" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$B$21</f>
         <v>Cirrascale 8-GPU x86 SERVER P40 monthly</v>
       </c>
-      <c r="BK1" s="62"/>
-      <c r="BL1" s="63"/>
-      <c r="BM1" s="61" t="str">
+      <c r="BK1" s="63"/>
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="62" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$B$22</f>
         <v>Cirrascale 8-GPU x86 SERVER P40 weekly</v>
       </c>
-      <c r="BN1" s="62"/>
-      <c r="BO1" s="63"/>
-      <c r="BP1" s="61" t="str">
+      <c r="BN1" s="63"/>
+      <c r="BO1" s="64"/>
+      <c r="BP1" s="62" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$B$23</f>
         <v>Cirrascale 8-GPU x86 SERVER P100 monthly</v>
       </c>
-      <c r="BQ1" s="62"/>
-      <c r="BR1" s="63"/>
-      <c r="BS1" s="61" t="str">
+      <c r="BQ1" s="63"/>
+      <c r="BR1" s="64"/>
+      <c r="BS1" s="62" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$B$24</f>
         <v>Cirrascale 8-GPU x86 SERVER P100 weekly</v>
       </c>
-      <c r="BT1" s="62"/>
-      <c r="BU1" s="63"/>
-      <c r="BV1" s="61" t="str">
+      <c r="BT1" s="63"/>
+      <c r="BU1" s="64"/>
+      <c r="BV1" s="62" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$B$25</f>
         <v>Cirrascale 4-GPU POWER8/10 SERVER monthly</v>
       </c>
-      <c r="BW1" s="62"/>
-      <c r="BX1" s="63"/>
-      <c r="BY1" s="61" t="str">
+      <c r="BW1" s="63"/>
+      <c r="BX1" s="64"/>
+      <c r="BY1" s="62" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$B$26</f>
         <v>Cirrascale 4-GPU POWER8/10 SERVER weekly</v>
       </c>
-      <c r="BZ1" s="62"/>
-      <c r="CA1" s="63"/>
-      <c r="CB1" s="61" t="str">
+      <c r="BZ1" s="63"/>
+      <c r="CA1" s="64"/>
+      <c r="CB1" s="62" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$B$27</f>
         <v>Cirrascale 4-GPU POWER8/8 SERVER monthly</v>
       </c>
-      <c r="CC1" s="62"/>
-      <c r="CD1" s="63"/>
-      <c r="CE1" s="61" t="str">
+      <c r="CC1" s="63"/>
+      <c r="CD1" s="64"/>
+      <c r="CE1" s="62" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$B$28</f>
         <v>Cirrascale 4-GPU POWER8/8 SERVER weekly</v>
       </c>
-      <c r="CF1" s="62"/>
-      <c r="CG1" s="63"/>
-      <c r="CH1" s="61" t="str">
+      <c r="CF1" s="63"/>
+      <c r="CG1" s="64"/>
+      <c r="CH1" s="62" t="str">
         <f>'cost-performance'!$A$29&amp;" "&amp;'cost-performance'!$B$29</f>
         <v>Sakura Quad GPU model</v>
       </c>
-      <c r="CI1" s="62"/>
-      <c r="CJ1" s="63"/>
-      <c r="CK1" s="61" t="str">
+      <c r="CI1" s="63"/>
+      <c r="CJ1" s="64"/>
+      <c r="CK1" s="62" t="str">
         <f>'cost-performance'!$A$29&amp;" "&amp;'cost-performance'!$B$30</f>
         <v>Sakura Tesla model</v>
       </c>
-      <c r="CL1" s="62"/>
-      <c r="CM1" s="63"/>
+      <c r="CL1" s="63"/>
+      <c r="CM1" s="64"/>
     </row>
     <row r="2" spans="1:91" ht="20" thickTop="1" thickBot="1">
       <c r="A2" s="23"/>
@@ -36089,6 +36172,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="CK1:CM1"/>
+    <mergeCell ref="BM1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="BG1:BI1"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AR1:AT1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
@@ -36098,26 +36201,6 @@
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="T1:V1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="AL1:AN1"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
-    <mergeCell ref="BG1:BI1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Comparison table updated 3.xlsx
+++ b/Comparison table updated 3.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="21160" yWindow="0" windowWidth="25980" windowHeight="26060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="28180" windowHeight="28260" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -661,7 +661,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="211">
   <si>
     <t>Cloud server providers with GPU</t>
     <phoneticPr fontId="3"/>
@@ -996,10 +996,6 @@
   </si>
   <si>
     <t>Xeon E5-2686 v4</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>See comments to performance cells.</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1438,6 +1434,54 @@
     <t>GPU model</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>CPU model</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CPUs</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Memory (GB)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HDD prim.Type</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HDD prim.GB</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HDD sec.Type</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HDD sec.GB</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Network</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Free Outbound Traffic = 1 GB/month. </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Free Outbound Traffic = 1 GB/month.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Free Outbound Traffic = 1 GB/month. </t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -1645,7 +1689,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1691,8 +1735,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1843,8 +1893,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF797B7E"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="576">
+  <cellStyleXfs count="588">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2429,8 +2488,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -2550,6 +2621,20 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="120" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="575"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="119" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2558,6 +2643,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="62" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="120" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="17" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2571,15 +2659,8 @@
     <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="120" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="120" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="575"/>
   </cellXfs>
-  <cellStyles count="576">
+  <cellStyles count="588">
     <cellStyle name="Calculation" xfId="344" builtinId="22" hidden="1"/>
     <cellStyle name="Check Cell" xfId="346" builtinId="23" hidden="1"/>
     <cellStyle name="comment" xfId="120"/>
@@ -2862,6 +2943,18 @@
     <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="579" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="581" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="583" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="587" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 1 2" xfId="62"/>
     <cellStyle name="Heading 2" xfId="264" builtinId="17" customBuiltin="1"/>
@@ -3157,7 +3250,73 @@
     <cellStyle name="Style 1" xfId="55"/>
     <cellStyle name="Title" xfId="341" builtinId="15" hidden="1"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -3715,8 +3874,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="70"/>
-        <c:axId val="2129529416"/>
-        <c:axId val="2129041800"/>
+        <c:axId val="-2077585032"/>
+        <c:axId val="-2077318712"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -3920,11 +4079,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="300"/>
-        <c:axId val="2129229336"/>
-        <c:axId val="2120270072"/>
+        <c:axId val="-2077881528"/>
+        <c:axId val="-2077427384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2129529416"/>
+        <c:axId val="-2077585032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3945,7 +4104,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129041800"/>
+        <c:crossAx val="-2077318712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3953,7 +4112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129041800"/>
+        <c:axId val="-2077318712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3997,12 +4156,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129529416"/>
+        <c:crossAx val="-2077585032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2120270072"/>
+        <c:axId val="-2077427384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4040,12 +4199,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129229336"/>
+        <c:crossAx val="-2077881528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2129229336"/>
+        <c:axId val="-2077881528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4054,7 +4213,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120270072"/>
+        <c:crossAx val="-2077427384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6201,8 +6360,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2128981080"/>
-        <c:axId val="2128984536"/>
+        <c:axId val="-2077355560"/>
+        <c:axId val="-2077352104"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -7962,7 +8121,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Softlayer NVIDIA Tesla K80 hourly GPU ($/Tflops)</c:v>
+                  <c:v>Softlayer NVIDIA Tesla K80 Dual Intel Xeon E5-2620 v4 hourly GPU ($/Tflops)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8311,11 +8470,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2128991144"/>
-        <c:axId val="2128987960"/>
+        <c:axId val="-2077345496"/>
+        <c:axId val="-2077348680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2128981080"/>
+        <c:axId val="-2077355560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8640.0"/>
@@ -8339,14 +8498,14 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128984536"/>
+        <c:crossAx val="-2077352104"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="480.0"/>
         <c:minorUnit val="48.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2128984536"/>
+        <c:axId val="-2077352104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200000.0"/>
@@ -8378,12 +8537,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2128981080"/>
+        <c:crossAx val="-2077355560"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2128987960"/>
+        <c:axId val="-2077348680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20000.0"/>
@@ -8416,13 +8575,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128991144"/>
+        <c:crossAx val="-2077345496"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="400.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2128991144"/>
+        <c:axId val="-2077345496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8432,7 +8591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128987960"/>
+        <c:crossAx val="-2077348680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9100,32 +9259,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:EY33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="T5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23" style="2" customWidth="1"/>
     <col min="2" max="2" width="38.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="13" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="5" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" customWidth="1"/>
     <col min="13" max="13" width="11.6640625" customWidth="1"/>
     <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.5" customWidth="1"/>
@@ -9153,40 +9312,40 @@
     <row r="3" spans="1:155" s="6" customFormat="1" ht="46" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
       <c r="J3" s="31"/>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
       <c r="P3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="59" t="s">
+      <c r="Q3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
       <c r="U3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="59" t="s">
+      <c r="V3" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
       <c r="Y3" s="58"/>
       <c r="Z3" s="1" t="s">
         <v>34</v>
@@ -9352,7 +9511,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K4" s="23" t="s">
         <v>4</v>
@@ -9391,13 +9550,13 @@
         <v>15</v>
       </c>
       <c r="W4" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X4" s="23" t="s">
         <v>24</v>
       </c>
       <c r="Y4" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z4" s="23"/>
       <c r="AA4" s="23" t="s">
@@ -9460,9 +9619,7 @@
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
-      <c r="U5" s="14">
-        <v>20</v>
-      </c>
+      <c r="U5" s="14"/>
       <c r="V5" s="32">
         <v>14.4</v>
       </c>
@@ -9473,7 +9630,7 @@
       </c>
       <c r="Y5" s="10"/>
       <c r="Z5" s="16" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="AA5" s="32">
         <f>X5/(D5*F5)</f>
@@ -9490,7 +9647,7 @@
     </row>
     <row r="6" spans="1:155">
       <c r="A6" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>49</v>
@@ -9520,7 +9677,7 @@
       <c r="K6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="14">
         <v>32</v>
       </c>
       <c r="M6" s="5">
@@ -9538,9 +9695,7 @@
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
-      <c r="U6" s="5">
-        <v>10</v>
-      </c>
+      <c r="U6" s="5"/>
       <c r="V6" s="32">
         <v>7.2</v>
       </c>
@@ -9551,7 +9706,7 @@
       </c>
       <c r="Y6" s="10"/>
       <c r="Z6" s="16" t="s">
-        <v>86</v>
+        <v>209</v>
       </c>
       <c r="AA6" s="32">
         <f t="shared" ref="AA6:AA16" si="2">X6/(D6*F6)</f>
@@ -9595,7 +9750,7 @@
       <c r="K7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="14">
         <v>4</v>
       </c>
       <c r="M7" s="5">
@@ -9624,7 +9779,7 @@
       </c>
       <c r="Y7" s="10"/>
       <c r="Z7" s="16" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="AA7" s="32">
         <f t="shared" si="2"/>
@@ -9641,10 +9796,10 @@
     </row>
     <row r="8" spans="1:155">
       <c r="A8" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>117</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>118</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>25</v>
@@ -9671,7 +9826,7 @@
       <c r="K8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="14">
         <v>2</v>
       </c>
       <c r="M8" s="5">
@@ -9697,7 +9852,7 @@
       </c>
       <c r="Y8" s="10"/>
       <c r="Z8" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AA8" s="32">
         <f t="shared" si="2"/>
@@ -9715,7 +9870,7 @@
     <row r="9" spans="1:155">
       <c r="A9" s="16"/>
       <c r="B9" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>17</v>
@@ -9787,7 +9942,7 @@
     <row r="10" spans="1:155">
       <c r="A10" s="16"/>
       <c r="B10" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>17</v>
@@ -9796,7 +9951,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F10" s="5">
         <v>8.74</v>
@@ -9805,14 +9960,14 @@
         <v>2.91</v>
       </c>
       <c r="H10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L10" s="5">
         <v>2</v>
@@ -9859,7 +10014,7 @@
     <row r="11" spans="1:155">
       <c r="A11" s="16"/>
       <c r="B11" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" s="38" t="s">
         <v>17</v>
@@ -9868,7 +10023,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F11" s="5">
         <v>8.74</v>
@@ -9877,14 +10032,14 @@
         <v>2.91</v>
       </c>
       <c r="H11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L11" s="5">
         <v>2</v>
@@ -9964,7 +10119,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C13" s="38" t="s">
         <v>30</v>
@@ -10049,7 +10204,7 @@
     <row r="14" spans="1:155" s="13" customFormat="1" ht="20">
       <c r="A14" s="29"/>
       <c r="B14" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C14" s="38" t="s">
         <v>17</v>
@@ -10113,7 +10268,7 @@
       </c>
       <c r="Y14" s="32"/>
       <c r="Z14" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA14" s="32">
         <f>X14/(D14*F14)</f>
@@ -10130,10 +10285,10 @@
     </row>
     <row r="15" spans="1:155">
       <c r="A15" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C15" s="38" t="s">
         <v>57</v>
@@ -10214,16 +10369,16 @@
     <row r="16" spans="1:155">
       <c r="A16" s="16"/>
       <c r="B16" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="9">
         <v>9.65</v>
@@ -10232,14 +10387,14 @@
         <v>0.3</v>
       </c>
       <c r="H16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L16" s="5">
         <v>2</v>
@@ -10257,7 +10412,7 @@
         <v>64</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R16" s="5">
         <v>1000</v>
@@ -10399,7 +10554,7 @@
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>80</v>
@@ -10549,7 +10704,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C23" s="38" t="s">
         <v>17</v>
@@ -10634,7 +10789,7 @@
         <v>70</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24" s="38" t="s">
         <v>43</v>
@@ -10716,7 +10871,7 @@
     </row>
     <row r="25" spans="1:29">
       <c r="B25" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" s="38" t="s">
         <v>67</v>
@@ -10798,7 +10953,7 @@
     </row>
     <row r="26" spans="1:29">
       <c r="B26" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" s="38" t="s">
         <v>54</v>
@@ -10823,7 +10978,7 @@
       </c>
       <c r="J26" s="14"/>
       <c r="K26" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L26" s="5">
         <v>2</v>
@@ -10841,13 +10996,13 @@
         <v>128</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R26" s="14">
         <v>256</v>
       </c>
       <c r="S26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T26" s="14">
         <v>4000</v>
@@ -10881,10 +11036,10 @@
     <row r="27" spans="1:29" s="13" customFormat="1">
       <c r="A27" s="2"/>
       <c r="B27" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D27" s="13">
         <v>8</v>
@@ -10924,13 +11079,13 @@
         <v>256</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R27" s="14">
         <v>1000</v>
       </c>
       <c r="S27" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T27" s="14">
         <v>4000</v>
@@ -10964,10 +11119,10 @@
     <row r="28" spans="1:29" s="13" customFormat="1">
       <c r="A28" s="2"/>
       <c r="B28" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D28" s="13">
         <v>8</v>
@@ -10989,7 +11144,7 @@
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L28" s="36">
         <v>2</v>
@@ -11007,13 +11162,13 @@
         <v>256</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R28" s="14">
         <v>1000</v>
       </c>
       <c r="S28" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T28" s="14">
         <v>4000</v>
@@ -11046,10 +11201,10 @@
     </row>
     <row r="29" spans="1:29">
       <c r="B29" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -11091,10 +11246,10 @@
         <v>1000</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R29" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
@@ -11111,7 +11266,7 @@
       </c>
       <c r="Y29" s="32"/>
       <c r="Z29" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA29" s="32">
         <f t="shared" si="13"/>
@@ -11128,10 +11283,10 @@
     </row>
     <row r="30" spans="1:29">
       <c r="B30" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -11173,10 +11328,10 @@
         <v>512</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R30" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
@@ -11490,7 +11645,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:W13 A14:XFD27 A29:XFD33 A28:J28 P28:XFD28 Z13:XFD13 A5:XFD12">
-    <cfRule type="expression" dxfId="30" priority="13">
+    <cfRule type="expression" dxfId="36" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11627,6 +11782,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11666,7 +11822,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1" thickTop="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="66" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="30" t="str">
@@ -11683,7 +11839,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
-      <c r="A4" s="60"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="30" t="str">
         <f>+Sheet1!B6</f>
         <v>p2.8xlarge on-demand</v>
@@ -11698,7 +11854,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
-      <c r="A5" s="60"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="30" t="str">
         <f>+Sheet1!B7</f>
         <v>p2.xlarge on-demand</v>
@@ -11713,7 +11869,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
-      <c r="A6" s="60"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="30" t="str">
         <f>+Sheet1!B8</f>
         <v>p2 dedicated host On-demand</v>
@@ -11728,7 +11884,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
-      <c r="A7" s="60"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="30" t="str">
         <f>+Sheet1!B9</f>
         <v>p2 dedicated host 1 year no Upfront</v>
@@ -11743,7 +11899,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
-      <c r="A8" s="60"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="30" t="str">
         <f>+Sheet1!B10</f>
         <v>p2 dedicated host 1 year 100% Upfront</v>
@@ -11758,7 +11914,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="66" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="30" t="str">
@@ -11775,7 +11931,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="60"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="30" t="str">
         <f>+Sheet1!B15</f>
         <v>NVIDIA Tesla K80 Dual Intel Xeon E5-2690 v3</v>
@@ -11790,7 +11946,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="60"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="30" t="str">
         <f>+Sheet1!B16</f>
         <v>NVIDIA Tesla M60 Dual Intel Xeon E5-2690 v3</v>
@@ -11822,7 +11978,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="66" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="30" t="str">
@@ -11839,7 +11995,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="60"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="30" t="str">
         <f>+Sheet1!B24</f>
         <v>8-GPU x86 SERVER M40</v>
@@ -11854,7 +12010,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="60"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="30" t="str">
         <f>+Sheet1!B25</f>
         <v>8-GPU x86 SERVER</v>
@@ -11869,7 +12025,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="60"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="30" t="str">
         <f>+Sheet1!B26</f>
         <v>4-GPU x86 SERVER</v>
@@ -11884,7 +12040,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" s="13" customFormat="1">
-      <c r="A17" s="60"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="30" t="str">
         <f>+Sheet1!B27</f>
         <v>8-GPU x86 SERVER P40</v>
@@ -11899,7 +12055,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" s="13" customFormat="1">
-      <c r="A18" s="60"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="30" t="str">
         <f>+Sheet1!B28</f>
         <v>8-GPU x86 SERVER P100</v>
@@ -11914,7 +12070,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="60"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="30" t="str">
         <f>+Sheet1!B29</f>
         <v>4-GPU POWER8/10 SERVER</v>
@@ -11929,7 +12085,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="60"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="30" t="str">
         <f>+Sheet1!B30</f>
         <v>4-GPU POWER8/8 SERVER</v>
@@ -11944,7 +12100,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="66" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="30" t="str">
@@ -11961,7 +12117,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="60"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="30" t="str">
         <f>+Sheet1!B33</f>
         <v>Tesla model</v>
@@ -12200,92 +12356,125 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:M30"/>
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="13"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="43.6640625" customWidth="1"/>
-    <col min="4" max="4" width="30" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="13" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" style="13" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" style="13" customWidth="1"/>
     <col min="8" max="8" width="13.1640625" customWidth="1"/>
     <col min="9" max="9" width="14" style="13" customWidth="1"/>
-    <col min="10" max="10" width="27.1640625" customWidth="1"/>
-    <col min="11" max="11" width="38" customWidth="1"/>
-    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" customWidth="1"/>
+    <col min="17" max="17" width="15.83203125" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" customWidth="1"/>
+    <col min="22" max="22" width="142.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" ht="21" thickBot="1">
+    <row r="1" spans="1:24" s="12" customFormat="1" ht="21" thickBot="1">
       <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="M1" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="N1" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="O1" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="P1" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q1" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="R1" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="S1" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="T1" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="U1" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="V1" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" ht="21" customHeight="1" thickTop="1">
+      <c r="A2" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="68" t="s">
         <v>179</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L1" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="M1" s="57" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="21" customHeight="1" thickTop="1">
-      <c r="A2" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>180</v>
       </c>
       <c r="C2" s="30" t="str">
         <f>Sheet1!B5</f>
         <v>p2.16xlarge on-demand</v>
       </c>
-      <c r="D2" s="68" t="s">
-        <v>186</v>
+      <c r="D2" s="60" t="s">
+        <v>185</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F2" s="27">
         <f>Sheet1!V5</f>
@@ -12305,27 +12494,66 @@
         <f>Sheet1!F5*Sheet1!D5</f>
         <v>139.84</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="14" t="str">
+        <f>Sheet1!$C5</f>
+        <v>K80</v>
+      </c>
+      <c r="M2" s="14">
         <f>Sheet1!$D5</f>
         <v>16</v>
       </c>
-      <c r="M2" s="14" t="str">
-        <f>Sheet1!$C5</f>
-        <v>K80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="20" customHeight="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="66"/>
+      <c r="N2" s="61" t="str">
+        <f>Sheet1!$K5</f>
+        <v>Xeon E5-2686 v4</v>
+      </c>
+      <c r="O2" s="61">
+        <f>Sheet1!$L5</f>
+        <v>64</v>
+      </c>
+      <c r="P2" s="61">
+        <f>Sheet1!$P5</f>
+        <v>732</v>
+      </c>
+      <c r="Q2" s="27" t="str">
+        <f>IF(Sheet1!$Q5="","",Sheet1!$Q5)</f>
+        <v/>
+      </c>
+      <c r="R2" s="27" t="str">
+        <f>IF(Sheet1!$Q5="","",Sheet1!$Q5)</f>
+        <v/>
+      </c>
+      <c r="S2" s="63" t="str">
+        <f>IF(Sheet1!$S5="","",Sheet1!$S5)</f>
+        <v/>
+      </c>
+      <c r="T2" s="63" t="str">
+        <f>IF(Sheet1!$T5="","",Sheet1!$T5)</f>
+        <v/>
+      </c>
+      <c r="U2" s="63" t="str">
+        <f>IF(Sheet1!$U5="","",Sheet1!$U5)</f>
+        <v/>
+      </c>
+      <c r="V2" s="63" t="str">
+        <f>IF(Sheet1!$Z5="","",Sheet1!$Z5) &amp; " CPU performance is approx. performance of Xeon E5-2690 v4 with 18 cores devided by 18 cores * 2 Hyper-threads = 36."</f>
+        <v>Free Outbound Traffic = 1 GB/month.  CPU performance is approx. performance of Xeon E5-2690 v4 with 18 cores devided by 18 cores * 2 Hyper-threads = 36.</v>
+      </c>
+      <c r="X2" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="20" customHeight="1">
+      <c r="A3" s="66"/>
+      <c r="B3" s="68"/>
       <c r="C3" s="30" t="str">
         <f>Sheet1!B6</f>
         <v>p2.8xlarge on-demand</v>
       </c>
-      <c r="D3" s="68" t="s">
-        <v>187</v>
+      <c r="D3" s="60" t="s">
+        <v>186</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F3" s="27">
         <f>Sheet1!V6</f>
@@ -12345,27 +12573,66 @@
         <f>Sheet1!F6*Sheet1!D6</f>
         <v>69.92</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="14" t="str">
+        <f>Sheet1!$C6</f>
+        <v>K80</v>
+      </c>
+      <c r="M3" s="14">
         <f>Sheet1!$D6</f>
         <v>8</v>
       </c>
-      <c r="M3" s="14" t="str">
-        <f>Sheet1!$C6</f>
-        <v>K80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="20" customHeight="1">
-      <c r="A4" s="60"/>
-      <c r="B4" s="66"/>
+      <c r="N3" s="61" t="str">
+        <f>Sheet1!$K6</f>
+        <v>Xeon E5-2686 v4</v>
+      </c>
+      <c r="O3" s="61">
+        <f>Sheet1!$L6</f>
+        <v>32</v>
+      </c>
+      <c r="P3" s="61">
+        <f>IF(Sheet1!$P6="","",Sheet1!$P6)</f>
+        <v>488</v>
+      </c>
+      <c r="Q3" s="27" t="str">
+        <f>IF(Sheet1!$Q6="","",Sheet1!$Q6)</f>
+        <v/>
+      </c>
+      <c r="R3" s="27" t="str">
+        <f>IF(Sheet1!$R6="","",Sheet1!$R6)</f>
+        <v/>
+      </c>
+      <c r="S3" s="64" t="str">
+        <f>IF(Sheet1!$S6="","",Sheet1!$S6)</f>
+        <v/>
+      </c>
+      <c r="T3" s="64" t="str">
+        <f>IF(Sheet1!$T6="","",Sheet1!$T6)</f>
+        <v/>
+      </c>
+      <c r="U3" s="64" t="str">
+        <f>IF(Sheet1!$U6="","",Sheet1!$U6)</f>
+        <v/>
+      </c>
+      <c r="V3" s="63" t="str">
+        <f>IF(Sheet1!$Z6="","",Sheet1!$Z6) &amp; " CPU performance is approx. performance of Xeon E5-2690 v4 with 18 cores devided by 18 cores * 2 Hyper-threads = 36."</f>
+        <v>Free Outbound Traffic = 1 GB/month. CPU performance is approx. performance of Xeon E5-2690 v4 with 18 cores devided by 18 cores * 2 Hyper-threads = 36.</v>
+      </c>
+      <c r="X3" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="20" customHeight="1">
+      <c r="A4" s="66"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="30" t="str">
         <f>Sheet1!B7</f>
         <v>p2.xlarge on-demand</v>
       </c>
-      <c r="D4" s="68" t="s">
-        <v>188</v>
+      <c r="D4" s="60" t="s">
+        <v>187</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F4" s="27">
         <f>Sheet1!V7</f>
@@ -12385,27 +12652,66 @@
         <f>Sheet1!F7*Sheet1!D7</f>
         <v>8.74</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="14" t="str">
+        <f>Sheet1!$C7</f>
+        <v>K80</v>
+      </c>
+      <c r="M4" s="14">
         <f>Sheet1!$D7</f>
         <v>1</v>
       </c>
-      <c r="M4" s="14" t="str">
-        <f>Sheet1!$C7</f>
-        <v>K80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="20" customHeight="1">
-      <c r="A5" s="60"/>
-      <c r="B5" s="66"/>
+      <c r="N4" s="61" t="str">
+        <f>Sheet1!$K7</f>
+        <v>Xeon E5-2686 v4</v>
+      </c>
+      <c r="O4" s="61">
+        <f>Sheet1!$L7</f>
+        <v>4</v>
+      </c>
+      <c r="P4" s="61">
+        <f>IF(Sheet1!$P7="","",Sheet1!$P7)</f>
+        <v>61</v>
+      </c>
+      <c r="Q4" s="27" t="str">
+        <f>IF(Sheet1!$Q7="","",Sheet1!$Q7)</f>
+        <v/>
+      </c>
+      <c r="R4" s="27" t="str">
+        <f>IF(Sheet1!$R7="","",Sheet1!$R7)</f>
+        <v/>
+      </c>
+      <c r="S4" s="63" t="str">
+        <f>IF(Sheet1!$S7="","",Sheet1!$S7)</f>
+        <v/>
+      </c>
+      <c r="T4" s="63" t="str">
+        <f>IF(Sheet1!$T7="","",Sheet1!$T7)</f>
+        <v/>
+      </c>
+      <c r="U4" s="63" t="str">
+        <f>IF(Sheet1!$U7="","",Sheet1!$U7)</f>
+        <v/>
+      </c>
+      <c r="V4" s="63" t="str">
+        <f>IF(Sheet1!$Z7="","",Sheet1!$Z7) &amp; " CPU performance is approx. performance of Xeon E5-2690 v4 with 18 cores devided by 18 cores * 2 Hyper-threads = 36."</f>
+        <v>Free Outbound Traffic = 1 GB/month.  CPU performance is approx. performance of Xeon E5-2690 v4 with 18 cores devided by 18 cores * 2 Hyper-threads = 36.</v>
+      </c>
+      <c r="X4" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="20" customHeight="1">
+      <c r="A5" s="66"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="30" t="str">
         <f>Sheet1!B8</f>
         <v>p2 dedicated host On-demand</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F5" s="27">
         <f>Sheet1!V8</f>
@@ -12425,27 +12731,66 @@
         <f>Sheet1!F8*Sheet1!D8</f>
         <v>139.84</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="14" t="str">
+        <f>Sheet1!$C8</f>
+        <v>K80</v>
+      </c>
+      <c r="M5" s="14">
         <f>Sheet1!$D8</f>
         <v>16</v>
       </c>
-      <c r="M5" s="14" t="str">
-        <f>Sheet1!$C8</f>
-        <v>K80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="20" customHeight="1">
-      <c r="A6" s="60"/>
-      <c r="B6" s="66"/>
+      <c r="N5" s="61" t="str">
+        <f>Sheet1!$K8</f>
+        <v>Xeon E5-2686 v4</v>
+      </c>
+      <c r="O5" s="61">
+        <f>Sheet1!$L8</f>
+        <v>2</v>
+      </c>
+      <c r="P5" s="61" t="str">
+        <f>IF(Sheet1!$P8="","",Sheet1!$P8)</f>
+        <v/>
+      </c>
+      <c r="Q5" s="27" t="str">
+        <f>IF(Sheet1!$Q8="","",Sheet1!$Q8)</f>
+        <v/>
+      </c>
+      <c r="R5" s="27" t="str">
+        <f>IF(Sheet1!$R8="","",Sheet1!$R8)</f>
+        <v/>
+      </c>
+      <c r="S5" s="64" t="str">
+        <f>IF(Sheet1!$S8="","",Sheet1!$S8)</f>
+        <v/>
+      </c>
+      <c r="T5" s="64" t="str">
+        <f>IF(Sheet1!$T8="","",Sheet1!$T8)</f>
+        <v/>
+      </c>
+      <c r="U5" s="64" t="str">
+        <f>IF(Sheet1!$U8="","",Sheet1!$U8)</f>
+        <v/>
+      </c>
+      <c r="V5" s="64" t="str">
+        <f>IF(Sheet1!$Z8="","",Sheet1!$Z8)</f>
+        <v>Up to 56% of savings for 1- and 3-year terms.</v>
+      </c>
+      <c r="X5" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="20" customHeight="1">
+      <c r="A6" s="66"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="30" t="str">
         <f>Sheet1!B9</f>
         <v>p2 dedicated host 1 year no Upfront</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
@@ -12462,27 +12807,66 @@
         <f>Sheet1!F9*Sheet1!D9</f>
         <v>139.84</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="14" t="str">
+        <f>Sheet1!$C9</f>
+        <v>K80</v>
+      </c>
+      <c r="M6" s="14">
         <f>Sheet1!$D9</f>
         <v>16</v>
       </c>
-      <c r="M6" s="14" t="str">
-        <f>Sheet1!$C9</f>
-        <v>K80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="20" customHeight="1">
-      <c r="A7" s="60"/>
-      <c r="B7" s="66"/>
+      <c r="N6" s="61" t="str">
+        <f>Sheet1!$K9</f>
+        <v>Xeon E5-2686 v4</v>
+      </c>
+      <c r="O6" s="61">
+        <f>Sheet1!$L9</f>
+        <v>2</v>
+      </c>
+      <c r="P6" s="61" t="str">
+        <f>IF(Sheet1!$P9="","",Sheet1!$P9)</f>
+        <v/>
+      </c>
+      <c r="Q6" s="27" t="str">
+        <f>IF(Sheet1!$Q9="","",Sheet1!$Q9)</f>
+        <v/>
+      </c>
+      <c r="R6" s="27" t="str">
+        <f>IF(Sheet1!$R9="","",Sheet1!$R9)</f>
+        <v/>
+      </c>
+      <c r="S6" s="63" t="str">
+        <f>IF(Sheet1!$S9="","",Sheet1!$S9)</f>
+        <v/>
+      </c>
+      <c r="T6" s="63" t="str">
+        <f>IF(Sheet1!$T9="","",Sheet1!$T9)</f>
+        <v/>
+      </c>
+      <c r="U6" s="63" t="str">
+        <f>IF(Sheet1!$U9="","",Sheet1!$U9)</f>
+        <v/>
+      </c>
+      <c r="V6" s="63" t="str">
+        <f>IF(Sheet1!$Z9="","",Sheet1!$Z9)</f>
+        <v/>
+      </c>
+      <c r="X6" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="20" customHeight="1">
+      <c r="A7" s="66"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="30" t="str">
         <f>Sheet1!B10</f>
         <v>p2 dedicated host 1 year 100% Upfront</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
@@ -12499,22 +12883,61 @@
         <f>Sheet1!F10*Sheet1!D10</f>
         <v>139.84</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="14" t="str">
+        <f>Sheet1!$C10</f>
+        <v>K80</v>
+      </c>
+      <c r="M7" s="14">
         <f>Sheet1!$D10</f>
         <v>16</v>
       </c>
-      <c r="M7" s="14" t="str">
-        <f>Sheet1!$C10</f>
-        <v>K80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="20" customHeight="1">
-      <c r="A8" s="60" t="str">
+      <c r="N7" s="14" t="str">
+        <f>Sheet1!$K10</f>
+        <v>Xeon E5-2686 v5</v>
+      </c>
+      <c r="O7" s="14">
+        <f>Sheet1!$L10</f>
+        <v>2</v>
+      </c>
+      <c r="P7" s="61" t="str">
+        <f>IF(Sheet1!$P10="","",Sheet1!$P10)</f>
+        <v/>
+      </c>
+      <c r="Q7" s="27" t="str">
+        <f>IF(Sheet1!$Q10="","",Sheet1!$Q10)</f>
+        <v/>
+      </c>
+      <c r="R7" s="27" t="str">
+        <f>IF(Sheet1!$R10="","",Sheet1!$R10)</f>
+        <v/>
+      </c>
+      <c r="S7" s="64" t="str">
+        <f>IF(Sheet1!$S10="","",Sheet1!$S10)</f>
+        <v/>
+      </c>
+      <c r="T7" s="64" t="str">
+        <f>IF(Sheet1!$T10="","",Sheet1!$T10)</f>
+        <v/>
+      </c>
+      <c r="U7" s="64" t="str">
+        <f>IF(Sheet1!$U10="","",Sheet1!$U10)</f>
+        <v/>
+      </c>
+      <c r="V7" s="64" t="str">
+        <f>IF(Sheet1!$Z10="","",Sheet1!$Z10)</f>
+        <v/>
+      </c>
+      <c r="X7" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="20" customHeight="1">
+      <c r="A8" s="66" t="str">
         <f>Sheet1!$A$13</f>
         <v>Softlayer</v>
       </c>
-      <c r="B8" s="66" t="s">
-        <v>181</v>
+      <c r="B8" s="68" t="s">
+        <v>180</v>
       </c>
       <c r="C8" s="30" t="str">
         <f>Sheet1!B13</f>
@@ -12522,7 +12945,7 @@
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F8" s="27">
         <f>Sheet1!V13</f>
@@ -12539,25 +12962,64 @@
         <f>Sheet1!F13*Sheet1!D13</f>
         <v>8.74</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="14" t="str">
+        <f>Sheet1!$C13</f>
+        <v>K80</v>
+      </c>
+      <c r="M8" s="14">
         <f>Sheet1!$D13</f>
         <v>1</v>
       </c>
-      <c r="M8" s="14" t="str">
-        <f>Sheet1!$C13</f>
-        <v>K80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A9" s="60"/>
-      <c r="B9" s="66"/>
+      <c r="N8" s="14" t="str">
+        <f>Sheet1!$K13</f>
+        <v>Xeon E5-2620 v4</v>
+      </c>
+      <c r="O8" s="14">
+        <f>Sheet1!$L13</f>
+        <v>2</v>
+      </c>
+      <c r="P8" s="14">
+        <f>IF(Sheet1!$P13="","",Sheet1!$P13)</f>
+        <v>128</v>
+      </c>
+      <c r="Q8" s="27" t="str">
+        <f>IF(Sheet1!$Q13="","",Sheet1!$Q13)</f>
+        <v>SSD</v>
+      </c>
+      <c r="R8" s="27">
+        <f>IF(Sheet1!$R13="","",Sheet1!$R13)</f>
+        <v>800</v>
+      </c>
+      <c r="S8" s="63" t="str">
+        <f>IF(Sheet1!$S13="","",Sheet1!$S13)</f>
+        <v>SSD</v>
+      </c>
+      <c r="T8" s="63">
+        <f>IF(Sheet1!$T13="","",Sheet1!$T13)</f>
+        <v>800</v>
+      </c>
+      <c r="U8" s="63">
+        <f>IF(Sheet1!$U13="","",Sheet1!$U13)</f>
+        <v>0.1</v>
+      </c>
+      <c r="V8" s="63" t="str">
+        <f>IF(Sheet1!$Z13="","",Sheet1!$Z13)</f>
+        <v>Traffic limited to 500GB.</v>
+      </c>
+      <c r="X8" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A9" s="66"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="30" t="str">
         <f>Sheet1!B14</f>
         <v>NVIDIA Tesla K80 Dual Intel Xeon E5-2620 v4 monthly</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
@@ -12574,25 +13036,64 @@
         <f>Sheet1!F14*Sheet1!D14</f>
         <v>8.74</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="14" t="str">
+        <f>Sheet1!$C14</f>
+        <v>K80</v>
+      </c>
+      <c r="M9" s="14">
         <f>Sheet1!$D14</f>
         <v>1</v>
       </c>
-      <c r="M9" s="14" t="str">
-        <f>Sheet1!$C14</f>
-        <v>K80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="20" customHeight="1">
-      <c r="A10" s="60"/>
-      <c r="B10" s="66"/>
+      <c r="N9" s="14" t="str">
+        <f>Sheet1!$K14</f>
+        <v>Xeon E5-2620 v4</v>
+      </c>
+      <c r="O9" s="14">
+        <f>Sheet1!$L14</f>
+        <v>2</v>
+      </c>
+      <c r="P9" s="14">
+        <f>IF(Sheet1!$P14="","",Sheet1!$P14)</f>
+        <v>128</v>
+      </c>
+      <c r="Q9" s="27" t="str">
+        <f>IF(Sheet1!$Q14="","",Sheet1!$Q14)</f>
+        <v>SSD</v>
+      </c>
+      <c r="R9" s="27">
+        <f>IF(Sheet1!$R14="","",Sheet1!$R14)</f>
+        <v>800</v>
+      </c>
+      <c r="S9" s="64" t="str">
+        <f>IF(Sheet1!$S14="","",Sheet1!$S14)</f>
+        <v>SSD</v>
+      </c>
+      <c r="T9" s="64">
+        <f>IF(Sheet1!$T14="","",Sheet1!$T14)</f>
+        <v>800</v>
+      </c>
+      <c r="U9" s="64">
+        <f>IF(Sheet1!$U14="","",Sheet1!$U14)</f>
+        <v>0.1</v>
+      </c>
+      <c r="V9" s="64" t="str">
+        <f>IF(Sheet1!$Z14="","",Sheet1!$Z14)</f>
+        <v>Traffic limited to 501GB.</v>
+      </c>
+      <c r="X9" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="20" customHeight="1">
+      <c r="A10" s="66"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="30" t="str">
         <f>Sheet1!B15</f>
         <v>NVIDIA Tesla K80 Dual Intel Xeon E5-2690 v3</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
@@ -12609,25 +13110,64 @@
         <f>Sheet1!F15*Sheet1!D15</f>
         <v>8.74</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="14" t="str">
+        <f>Sheet1!$C15</f>
+        <v>K80</v>
+      </c>
+      <c r="M10" s="14">
         <f>Sheet1!$D15</f>
         <v>1</v>
       </c>
-      <c r="M10" s="14" t="str">
-        <f>Sheet1!$C15</f>
-        <v>K80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="20" customHeight="1">
-      <c r="A11" s="60"/>
-      <c r="B11" s="66"/>
+      <c r="N10" s="14" t="str">
+        <f>Sheet1!$K15</f>
+        <v>Xeon E5-2690 v3</v>
+      </c>
+      <c r="O10" s="14">
+        <f>Sheet1!$L15</f>
+        <v>2</v>
+      </c>
+      <c r="P10" s="14">
+        <f>IF(Sheet1!$P15="","",Sheet1!$P15)</f>
+        <v>24</v>
+      </c>
+      <c r="Q10" s="27" t="str">
+        <f>IF(Sheet1!$Q15="","",Sheet1!$Q15)</f>
+        <v>SATA</v>
+      </c>
+      <c r="R10" s="27">
+        <f>IF(Sheet1!$R15="","",Sheet1!$R15)</f>
+        <v>1000</v>
+      </c>
+      <c r="S10" s="63" t="str">
+        <f>IF(Sheet1!$S15="","",Sheet1!$S15)</f>
+        <v/>
+      </c>
+      <c r="T10" s="63" t="str">
+        <f>IF(Sheet1!$T15="","",Sheet1!$T15)</f>
+        <v/>
+      </c>
+      <c r="U10" s="63">
+        <f>IF(Sheet1!$U15="","",Sheet1!$U15)</f>
+        <v>10</v>
+      </c>
+      <c r="V10" s="63" t="str">
+        <f>IF(Sheet1!$Z15="","",Sheet1!$Z15)</f>
+        <v>Traffic limited to 500GB.</v>
+      </c>
+      <c r="X10" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="20" customHeight="1">
+      <c r="A11" s="66"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="30" t="str">
         <f>Sheet1!B16</f>
         <v>NVIDIA Tesla M60 Dual Intel Xeon E5-2690 v3</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
@@ -12644,22 +13184,61 @@
         <f>Sheet1!F16*Sheet1!D16</f>
         <v>9.65</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="14" t="str">
+        <f>Sheet1!$C16</f>
+        <v>M60</v>
+      </c>
+      <c r="M11" s="14">
         <f>Sheet1!$D16</f>
         <v>1</v>
       </c>
-      <c r="M11" s="14" t="str">
-        <f>Sheet1!$C16</f>
-        <v>M60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="19">
+      <c r="N11" s="14" t="str">
+        <f>Sheet1!$K16</f>
+        <v>Xeon E5-2690 v3</v>
+      </c>
+      <c r="O11" s="14">
+        <f>Sheet1!$L16</f>
+        <v>2</v>
+      </c>
+      <c r="P11" s="14">
+        <f>IF(Sheet1!$P16="","",Sheet1!$P16)</f>
+        <v>64</v>
+      </c>
+      <c r="Q11" s="27" t="str">
+        <f>IF(Sheet1!$Q16="","",Sheet1!$Q16)</f>
+        <v>SATA</v>
+      </c>
+      <c r="R11" s="27">
+        <f>IF(Sheet1!$R16="","",Sheet1!$R16)</f>
+        <v>1000</v>
+      </c>
+      <c r="S11" s="64" t="str">
+        <f>IF(Sheet1!$S16="","",Sheet1!$S16)</f>
+        <v/>
+      </c>
+      <c r="T11" s="64" t="str">
+        <f>IF(Sheet1!$T16="","",Sheet1!$T16)</f>
+        <v/>
+      </c>
+      <c r="U11" s="64">
+        <f>IF(Sheet1!$U16="","",Sheet1!$U16)</f>
+        <v>10</v>
+      </c>
+      <c r="V11" s="64" t="str">
+        <f>IF(Sheet1!$Z16="","",Sheet1!$Z16)</f>
+        <v>Traffic limited to 500GB.</v>
+      </c>
+      <c r="X11" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="19">
       <c r="A12" s="33" t="str">
         <f>Sheet1!A18</f>
         <v>Nimbix</v>
       </c>
-      <c r="B12" s="67" t="s">
-        <v>182</v>
+      <c r="B12" s="59" t="s">
+        <v>181</v>
       </c>
       <c r="C12" s="30" t="str">
         <f>Sheet1!B18</f>
@@ -12667,17 +13246,14 @@
       </c>
       <c r="D12" s="30"/>
       <c r="E12" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F12" s="27">
         <f>Sheet1!V18</f>
         <v>5</v>
       </c>
       <c r="G12" s="27"/>
-      <c r="H12" s="27">
-        <f>Sheet1!X18</f>
-        <v>3600</v>
-      </c>
+      <c r="H12" s="27"/>
       <c r="I12" s="27"/>
       <c r="J12" s="14">
         <f>Sheet1!N18*Sheet1!L18</f>
@@ -12687,22 +13263,61 @@
         <f>Sheet1!F18*Sheet1!D18</f>
         <v>17.48</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="14" t="str">
+        <f>Sheet1!$C18</f>
+        <v>K80</v>
+      </c>
+      <c r="M12" s="14">
         <f>Sheet1!$D18</f>
         <v>2</v>
       </c>
-      <c r="M12" s="14" t="str">
-        <f>Sheet1!$C18</f>
-        <v>K80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="20" customHeight="1">
-      <c r="A13" s="60" t="str">
+      <c r="N12" s="14" t="str">
+        <f>Sheet1!$K18</f>
+        <v>POWER8?</v>
+      </c>
+      <c r="O12" s="14">
+        <f>Sheet1!$L18</f>
+        <v>2</v>
+      </c>
+      <c r="P12" s="61" t="str">
+        <f>IF(Sheet1!$P18="","",Sheet1!$P18)</f>
+        <v/>
+      </c>
+      <c r="Q12" s="27" t="str">
+        <f>IF(Sheet1!$Q18="","",Sheet1!$Q18)</f>
+        <v/>
+      </c>
+      <c r="R12" s="27" t="str">
+        <f>IF(Sheet1!$R18="","",Sheet1!$R18)</f>
+        <v/>
+      </c>
+      <c r="S12" s="63" t="str">
+        <f>IF(Sheet1!$S18="","",Sheet1!$S18)</f>
+        <v/>
+      </c>
+      <c r="T12" s="63" t="str">
+        <f>IF(Sheet1!$T18="","",Sheet1!$T18)</f>
+        <v/>
+      </c>
+      <c r="U12" s="63" t="str">
+        <f>IF(Sheet1!$U18="","",Sheet1!$U18)</f>
+        <v/>
+      </c>
+      <c r="V12" s="63" t="str">
+        <f>IF(Sheet1!$Z18="","",Sheet1!$Z18)</f>
+        <v xml:space="preserve"> http://www-01.ibm.com/common/ssi/cgi-bin/ssialias?htmlfid=POB03046USEN</v>
+      </c>
+      <c r="X12" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="20" customHeight="1">
+      <c r="A13" s="66" t="str">
         <f>Sheet1!A23</f>
         <v>Cirrascale</v>
       </c>
-      <c r="B13" s="66" t="s">
-        <v>183</v>
+      <c r="B13" s="68" t="s">
+        <v>182</v>
       </c>
       <c r="C13" s="30" t="str">
         <f>Sheet1!B23&amp;" monthly"</f>
@@ -12710,7 +13325,7 @@
       </c>
       <c r="D13" s="30"/>
       <c r="E13" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
@@ -12727,25 +13342,64 @@
         <f>Sheet1!F23*Sheet1!D23</f>
         <v>69.92</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="14" t="str">
+        <f>Sheet1!$C23</f>
+        <v>K80</v>
+      </c>
+      <c r="M13" s="14">
         <f>Sheet1!$D23</f>
         <v>8</v>
       </c>
-      <c r="M13" s="14" t="str">
-        <f>Sheet1!$C23</f>
-        <v>K80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A14" s="60"/>
-      <c r="B14" s="66"/>
+      <c r="N13" s="14" t="str">
+        <f>Sheet1!$K23</f>
+        <v>Xeon E5-2667 v3</v>
+      </c>
+      <c r="O13" s="14">
+        <f>Sheet1!$L23</f>
+        <v>2</v>
+      </c>
+      <c r="P13" s="14">
+        <f>IF(Sheet1!$P23="","",Sheet1!$P23)</f>
+        <v>512</v>
+      </c>
+      <c r="Q13" s="27" t="str">
+        <f>IF(Sheet1!$Q23="","",Sheet1!$Q23)</f>
+        <v>SSD</v>
+      </c>
+      <c r="R13" s="27">
+        <f>IF(Sheet1!$R23="","",Sheet1!$R23)</f>
+        <v>1000</v>
+      </c>
+      <c r="S13" s="64" t="str">
+        <f>IF(Sheet1!$S23="","",Sheet1!$S23)</f>
+        <v>SATA</v>
+      </c>
+      <c r="T13" s="64">
+        <f>IF(Sheet1!$T23="","",Sheet1!$T23)</f>
+        <v>4000</v>
+      </c>
+      <c r="U13" s="64" t="str">
+        <f>IF(Sheet1!$U23="","",Sheet1!$U23)</f>
+        <v/>
+      </c>
+      <c r="V13" s="64" t="str">
+        <f>IF(Sheet1!$Z23="","",Sheet1!$Z23)</f>
+        <v/>
+      </c>
+      <c r="X13" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A14" s="66"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="30" t="str">
         <f>Sheet1!B23&amp;" weekly"</f>
         <v>16-GPU x86 SERVER K80 weekly</v>
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="27">
@@ -12762,25 +13416,64 @@
         <f>Sheet1!F23*Sheet1!D23</f>
         <v>69.92</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="14" t="str">
+        <f>Sheet1!$C23</f>
+        <v>K80</v>
+      </c>
+      <c r="M14" s="14">
         <f>Sheet1!$D23</f>
         <v>8</v>
       </c>
-      <c r="M14" s="14" t="str">
-        <f>Sheet1!$C23</f>
-        <v>K80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="66"/>
+      <c r="N14" s="14" t="str">
+        <f>Sheet1!$K23</f>
+        <v>Xeon E5-2667 v3</v>
+      </c>
+      <c r="O14" s="14">
+        <f>Sheet1!$L23</f>
+        <v>2</v>
+      </c>
+      <c r="P14" s="14">
+        <f>IF(Sheet1!$P23="","",Sheet1!$P23)</f>
+        <v>512</v>
+      </c>
+      <c r="Q14" s="27" t="str">
+        <f>IF(Sheet1!$Q23="","",Sheet1!$Q23)</f>
+        <v>SSD</v>
+      </c>
+      <c r="R14" s="27">
+        <f>IF(Sheet1!$R23="","",Sheet1!$R23)</f>
+        <v>1000</v>
+      </c>
+      <c r="S14" s="63" t="str">
+        <f>IF(Sheet1!$S23="","",Sheet1!$S23)</f>
+        <v>SATA</v>
+      </c>
+      <c r="T14" s="63">
+        <f>IF(Sheet1!$T23="","",Sheet1!$T23)</f>
+        <v>4000</v>
+      </c>
+      <c r="U14" s="63" t="str">
+        <f>IF(Sheet1!$U23="","",Sheet1!$U23)</f>
+        <v/>
+      </c>
+      <c r="V14" s="63" t="str">
+        <f>IF(Sheet1!$Z23="","",Sheet1!$Z23)</f>
+        <v/>
+      </c>
+      <c r="X14" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A15" s="66"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="30" t="str">
         <f>Sheet1!B24&amp;" monthly"</f>
         <v>8-GPU x86 SERVER M40 monthly</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
@@ -12797,25 +13490,64 @@
         <f>Sheet1!F24*Sheet1!D24</f>
         <v>54.752000000000002</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="14" t="str">
+        <f>Sheet1!$C24</f>
+        <v>M40</v>
+      </c>
+      <c r="M15" s="14">
         <f>Sheet1!$D24</f>
         <v>8</v>
       </c>
-      <c r="M15" s="14" t="str">
-        <f>Sheet1!$C24</f>
-        <v>M40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="20" customHeight="1">
-      <c r="A16" s="60"/>
-      <c r="B16" s="66"/>
+      <c r="N15" s="14" t="str">
+        <f>Sheet1!$K24</f>
+        <v>Xeon E5-2630 v3</v>
+      </c>
+      <c r="O15" s="14">
+        <f>Sheet1!$L24</f>
+        <v>2</v>
+      </c>
+      <c r="P15" s="14">
+        <f>IF(Sheet1!$P24="","",Sheet1!$P24)</f>
+        <v>256</v>
+      </c>
+      <c r="Q15" s="27" t="str">
+        <f>IF(Sheet1!$Q24="","",Sheet1!$Q24)</f>
+        <v>SSD</v>
+      </c>
+      <c r="R15" s="27">
+        <f>IF(Sheet1!$R24="","",Sheet1!$R24)</f>
+        <v>1000</v>
+      </c>
+      <c r="S15" s="64" t="str">
+        <f>IF(Sheet1!$S24="","",Sheet1!$S24)</f>
+        <v>SATA</v>
+      </c>
+      <c r="T15" s="64">
+        <f>IF(Sheet1!$T24="","",Sheet1!$T24)</f>
+        <v>4000</v>
+      </c>
+      <c r="U15" s="64" t="str">
+        <f>IF(Sheet1!$U24="","",Sheet1!$U24)</f>
+        <v/>
+      </c>
+      <c r="V15" s="64" t="str">
+        <f>IF(Sheet1!$Z24="","",Sheet1!$Z24)</f>
+        <v/>
+      </c>
+      <c r="X15" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="20" customHeight="1">
+      <c r="A16" s="66"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="30" t="str">
         <f>Sheet1!B24&amp;" weekly"</f>
         <v>8-GPU x86 SERVER M40 weekly</v>
       </c>
       <c r="D16" s="30"/>
       <c r="E16" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="27">
@@ -12832,25 +13564,64 @@
         <f>Sheet1!F24*Sheet1!D24</f>
         <v>54.752000000000002</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="14" t="str">
+        <f>Sheet1!$C24</f>
+        <v>M40</v>
+      </c>
+      <c r="M16" s="14">
         <f>Sheet1!$D24</f>
         <v>8</v>
       </c>
-      <c r="M16" s="14" t="str">
-        <f>Sheet1!$C24</f>
-        <v>M40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A17" s="60"/>
-      <c r="B17" s="66"/>
+      <c r="N16" s="14" t="str">
+        <f>Sheet1!$K24</f>
+        <v>Xeon E5-2630 v3</v>
+      </c>
+      <c r="O16" s="14">
+        <f>Sheet1!$L24</f>
+        <v>2</v>
+      </c>
+      <c r="P16" s="14">
+        <f>IF(Sheet1!$P24="","",Sheet1!$P24)</f>
+        <v>256</v>
+      </c>
+      <c r="Q16" s="27" t="str">
+        <f>IF(Sheet1!$Q24="","",Sheet1!$Q24)</f>
+        <v>SSD</v>
+      </c>
+      <c r="R16" s="27">
+        <f>IF(Sheet1!$R24="","",Sheet1!$R24)</f>
+        <v>1000</v>
+      </c>
+      <c r="S16" s="63" t="str">
+        <f>IF(Sheet1!$S24="","",Sheet1!$S24)</f>
+        <v>SATA</v>
+      </c>
+      <c r="T16" s="63">
+        <f>IF(Sheet1!$T24="","",Sheet1!$T24)</f>
+        <v>4000</v>
+      </c>
+      <c r="U16" s="63" t="str">
+        <f>IF(Sheet1!$U24="","",Sheet1!$U24)</f>
+        <v/>
+      </c>
+      <c r="V16" s="63" t="str">
+        <f>IF(Sheet1!$Z24="","",Sheet1!$Z24)</f>
+        <v/>
+      </c>
+      <c r="X16" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A17" s="66"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="30" t="str">
         <f>Sheet1!B25&amp;" monthly"</f>
         <v>8-GPU x86 SERVER monthly</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -12867,25 +13638,64 @@
         <f>Sheet1!F25*Sheet1!D25</f>
         <v>49.152000000000001</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="14" t="str">
+        <f>Sheet1!$C25</f>
+        <v>GeForce GTX TITAN X</v>
+      </c>
+      <c r="M17" s="14">
         <f>Sheet1!$D25</f>
         <v>8</v>
       </c>
-      <c r="M17" s="14" t="str">
-        <f>Sheet1!$C25</f>
-        <v>GeForce GTX TITAN X</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="20" customHeight="1">
-      <c r="A18" s="60"/>
-      <c r="B18" s="66"/>
+      <c r="N17" s="14" t="str">
+        <f>Sheet1!$K25</f>
+        <v>Xeon E5-2630 v3</v>
+      </c>
+      <c r="O17" s="14">
+        <f>Sheet1!$L25</f>
+        <v>2</v>
+      </c>
+      <c r="P17" s="14">
+        <f>IF(Sheet1!$P25="","",Sheet1!$P25)</f>
+        <v>256</v>
+      </c>
+      <c r="Q17" s="27" t="str">
+        <f>IF(Sheet1!$Q25="","",Sheet1!$Q25)</f>
+        <v>SSD</v>
+      </c>
+      <c r="R17" s="27">
+        <f>IF(Sheet1!$R25="","",Sheet1!$R25)</f>
+        <v>1000</v>
+      </c>
+      <c r="S17" s="64" t="str">
+        <f>IF(Sheet1!$S25="","",Sheet1!$S25)</f>
+        <v>SATA</v>
+      </c>
+      <c r="T17" s="64">
+        <f>IF(Sheet1!$T25="","",Sheet1!$T25)</f>
+        <v>4000</v>
+      </c>
+      <c r="U17" s="64" t="str">
+        <f>IF(Sheet1!$U25="","",Sheet1!$U25)</f>
+        <v/>
+      </c>
+      <c r="V17" s="64" t="str">
+        <f>IF(Sheet1!$Z25="","",Sheet1!$Z25)</f>
+        <v/>
+      </c>
+      <c r="X17" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="20" customHeight="1">
+      <c r="A18" s="66"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="30" t="str">
         <f>Sheet1!B25&amp;" weekly"</f>
         <v>8-GPU x86 SERVER weekly</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="27">
@@ -12902,25 +13712,64 @@
         <f>Sheet1!F25*Sheet1!D25</f>
         <v>49.152000000000001</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="14" t="str">
+        <f>Sheet1!$C25</f>
+        <v>GeForce GTX TITAN X</v>
+      </c>
+      <c r="M18" s="14">
         <f>Sheet1!$D25</f>
         <v>8</v>
       </c>
-      <c r="M18" s="14" t="str">
-        <f>Sheet1!$C25</f>
-        <v>GeForce GTX TITAN X</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A19" s="60"/>
-      <c r="B19" s="66"/>
+      <c r="N18" s="14" t="str">
+        <f>Sheet1!$K25</f>
+        <v>Xeon E5-2630 v3</v>
+      </c>
+      <c r="O18" s="14">
+        <f>Sheet1!$L25</f>
+        <v>2</v>
+      </c>
+      <c r="P18" s="14">
+        <f>IF(Sheet1!$P25="","",Sheet1!$P25)</f>
+        <v>256</v>
+      </c>
+      <c r="Q18" s="27" t="str">
+        <f>IF(Sheet1!$Q25="","",Sheet1!$Q25)</f>
+        <v>SSD</v>
+      </c>
+      <c r="R18" s="27">
+        <f>IF(Sheet1!$R25="","",Sheet1!$R25)</f>
+        <v>1000</v>
+      </c>
+      <c r="S18" s="63" t="str">
+        <f>IF(Sheet1!$S25="","",Sheet1!$S25)</f>
+        <v>SATA</v>
+      </c>
+      <c r="T18" s="63">
+        <f>IF(Sheet1!$T25="","",Sheet1!$T25)</f>
+        <v>4000</v>
+      </c>
+      <c r="U18" s="63" t="str">
+        <f>IF(Sheet1!$U25="","",Sheet1!$U25)</f>
+        <v/>
+      </c>
+      <c r="V18" s="63" t="str">
+        <f>IF(Sheet1!$Z25="","",Sheet1!$Z25)</f>
+        <v/>
+      </c>
+      <c r="X18" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A19" s="66"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="30" t="str">
         <f>Sheet1!B26&amp;" monthly"</f>
         <v>4-GPU x86 SERVER monthly</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
@@ -12937,25 +13786,64 @@
         <f>Sheet1!F26*Sheet1!D26</f>
         <v>24.576000000000001</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="14" t="str">
+        <f>Sheet1!$C26</f>
+        <v>GeForce GTX TITAN X</v>
+      </c>
+      <c r="M19" s="14">
         <f>Sheet1!$D26</f>
         <v>4</v>
       </c>
-      <c r="M19" s="14" t="str">
-        <f>Sheet1!$C26</f>
-        <v>GeForce GTX TITAN X</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="20" customHeight="1">
-      <c r="A20" s="60"/>
-      <c r="B20" s="66"/>
+      <c r="N19" s="14" t="str">
+        <f>Sheet1!$K26</f>
+        <v>Xeon E5-2670 v2</v>
+      </c>
+      <c r="O19" s="14">
+        <f>Sheet1!$L26</f>
+        <v>2</v>
+      </c>
+      <c r="P19" s="14">
+        <f>IF(Sheet1!$P26="","",Sheet1!$P26)</f>
+        <v>128</v>
+      </c>
+      <c r="Q19" s="27" t="str">
+        <f>IF(Sheet1!$Q26="","",Sheet1!$Q26)</f>
+        <v>SSD</v>
+      </c>
+      <c r="R19" s="27">
+        <f>IF(Sheet1!$R26="","",Sheet1!$R26)</f>
+        <v>256</v>
+      </c>
+      <c r="S19" s="64" t="str">
+        <f>IF(Sheet1!$S26="","",Sheet1!$S26)</f>
+        <v>SATA</v>
+      </c>
+      <c r="T19" s="64">
+        <f>IF(Sheet1!$T26="","",Sheet1!$T26)</f>
+        <v>4000</v>
+      </c>
+      <c r="U19" s="64" t="str">
+        <f>IF(Sheet1!$U26="","",Sheet1!$U26)</f>
+        <v/>
+      </c>
+      <c r="V19" s="64" t="str">
+        <f>IF(Sheet1!$Z26="","",Sheet1!$Z26)</f>
+        <v/>
+      </c>
+      <c r="X19" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="20" customHeight="1">
+      <c r="A20" s="66"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="30" t="str">
         <f>Sheet1!B26&amp;" weekly"</f>
         <v>4-GPU x86 SERVER weekly</v>
       </c>
       <c r="D20" s="30"/>
       <c r="E20" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="27">
@@ -12972,25 +13860,64 @@
         <f>Sheet1!F26*Sheet1!D26</f>
         <v>24.576000000000001</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="14" t="str">
+        <f>Sheet1!$C26</f>
+        <v>GeForce GTX TITAN X</v>
+      </c>
+      <c r="M20" s="14">
         <f>Sheet1!$D26</f>
         <v>4</v>
       </c>
-      <c r="M20" s="14" t="str">
-        <f>Sheet1!$C26</f>
-        <v>GeForce GTX TITAN X</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A21" s="60"/>
-      <c r="B21" s="66"/>
+      <c r="N20" s="14" t="str">
+        <f>Sheet1!$K26</f>
+        <v>Xeon E5-2670 v2</v>
+      </c>
+      <c r="O20" s="14">
+        <f>Sheet1!$L26</f>
+        <v>2</v>
+      </c>
+      <c r="P20" s="14">
+        <f>IF(Sheet1!$P26="","",Sheet1!$P26)</f>
+        <v>128</v>
+      </c>
+      <c r="Q20" s="27" t="str">
+        <f>IF(Sheet1!$Q26="","",Sheet1!$Q26)</f>
+        <v>SSD</v>
+      </c>
+      <c r="R20" s="27">
+        <f>IF(Sheet1!$R26="","",Sheet1!$R26)</f>
+        <v>256</v>
+      </c>
+      <c r="S20" s="63" t="str">
+        <f>IF(Sheet1!$S26="","",Sheet1!$S26)</f>
+        <v>SATA</v>
+      </c>
+      <c r="T20" s="63">
+        <f>IF(Sheet1!$T26="","",Sheet1!$T26)</f>
+        <v>4000</v>
+      </c>
+      <c r="U20" s="63" t="str">
+        <f>IF(Sheet1!$U26="","",Sheet1!$U26)</f>
+        <v/>
+      </c>
+      <c r="V20" s="63" t="str">
+        <f>IF(Sheet1!$Z26="","",Sheet1!$Z26)</f>
+        <v/>
+      </c>
+      <c r="X20" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A21" s="66"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="30" t="str">
         <f>Sheet1!B27&amp;" monthly"</f>
         <v>8-GPU x86 SERVER P40 monthly</v>
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
@@ -13007,25 +13934,64 @@
         <f>Sheet1!F27*Sheet1!D27</f>
         <v>94.063999999999993</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="14" t="str">
+        <f>Sheet1!$C27</f>
+        <v>P40</v>
+      </c>
+      <c r="M21" s="14">
         <f>Sheet1!$D27</f>
         <v>8</v>
       </c>
-      <c r="M21" s="14" t="str">
-        <f>Sheet1!$C27</f>
-        <v>P40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A22" s="60"/>
-      <c r="B22" s="66"/>
+      <c r="N21" s="14" t="str">
+        <f>Sheet1!$K27</f>
+        <v>Xeon E5-2630 v3</v>
+      </c>
+      <c r="O21" s="14">
+        <f>Sheet1!$L27</f>
+        <v>2</v>
+      </c>
+      <c r="P21" s="14">
+        <f>IF(Sheet1!$P27="","",Sheet1!$P27)</f>
+        <v>256</v>
+      </c>
+      <c r="Q21" s="27" t="str">
+        <f>IF(Sheet1!$Q27="","",Sheet1!$Q27)</f>
+        <v>SSD</v>
+      </c>
+      <c r="R21" s="27">
+        <f>IF(Sheet1!$R27="","",Sheet1!$R27)</f>
+        <v>1000</v>
+      </c>
+      <c r="S21" s="64" t="str">
+        <f>IF(Sheet1!$S27="","",Sheet1!$S27)</f>
+        <v>SATA</v>
+      </c>
+      <c r="T21" s="64">
+        <f>IF(Sheet1!$T27="","",Sheet1!$T27)</f>
+        <v>4000</v>
+      </c>
+      <c r="U21" s="64" t="str">
+        <f>IF(Sheet1!$U27="","",Sheet1!$U27)</f>
+        <v/>
+      </c>
+      <c r="V21" s="64" t="str">
+        <f>IF(Sheet1!$Z27="","",Sheet1!$Z27)</f>
+        <v/>
+      </c>
+      <c r="X21" s="13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A22" s="66"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="30" t="str">
         <f>Sheet1!B27&amp;" weekly"</f>
         <v>8-GPU x86 SERVER P40 weekly</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="27">
@@ -13042,25 +14008,64 @@
         <f>Sheet1!F27*Sheet1!D27</f>
         <v>94.063999999999993</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="14" t="str">
+        <f>Sheet1!$C27</f>
+        <v>P40</v>
+      </c>
+      <c r="M22" s="14">
         <f>Sheet1!$D27</f>
         <v>8</v>
       </c>
-      <c r="M22" s="14" t="str">
-        <f>Sheet1!$C27</f>
-        <v>P40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A23" s="60"/>
-      <c r="B23" s="66"/>
+      <c r="N22" s="14" t="str">
+        <f>Sheet1!$K27</f>
+        <v>Xeon E5-2630 v3</v>
+      </c>
+      <c r="O22" s="14">
+        <f>Sheet1!$L27</f>
+        <v>2</v>
+      </c>
+      <c r="P22" s="14">
+        <f>IF(Sheet1!$P27="","",Sheet1!$P27)</f>
+        <v>256</v>
+      </c>
+      <c r="Q22" s="27" t="str">
+        <f>IF(Sheet1!$Q27="","",Sheet1!$Q27)</f>
+        <v>SSD</v>
+      </c>
+      <c r="R22" s="27">
+        <f>IF(Sheet1!$R27="","",Sheet1!$R27)</f>
+        <v>1000</v>
+      </c>
+      <c r="S22" s="63" t="str">
+        <f>IF(Sheet1!$S27="","",Sheet1!$S27)</f>
+        <v>SATA</v>
+      </c>
+      <c r="T22" s="63">
+        <f>IF(Sheet1!$T27="","",Sheet1!$T27)</f>
+        <v>4000</v>
+      </c>
+      <c r="U22" s="63" t="str">
+        <f>IF(Sheet1!$U27="","",Sheet1!$U27)</f>
+        <v/>
+      </c>
+      <c r="V22" s="63" t="str">
+        <f>IF(Sheet1!$Z27="","",Sheet1!$Z27)</f>
+        <v/>
+      </c>
+      <c r="X22" s="13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="30" t="str">
         <f>Sheet1!B28&amp;" monthly"</f>
         <v>8-GPU x86 SERVER P100 monthly</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
@@ -13077,25 +14082,64 @@
         <f>Sheet1!F28*Sheet1!D28</f>
         <v>76</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L23" s="14" t="str">
+        <f>Sheet1!$C28</f>
+        <v>P100</v>
+      </c>
+      <c r="M23" s="14">
         <f>Sheet1!$D28</f>
         <v>8</v>
       </c>
-      <c r="M23" s="14" t="str">
-        <f>Sheet1!$C28</f>
-        <v>P100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A24" s="60"/>
-      <c r="B24" s="66"/>
+      <c r="N23" s="14" t="str">
+        <f>Sheet1!$K28</f>
+        <v>Xeon E5-2630 v3</v>
+      </c>
+      <c r="O23" s="14">
+        <f>Sheet1!$L28</f>
+        <v>2</v>
+      </c>
+      <c r="P23" s="14">
+        <f>IF(Sheet1!$P28="","",Sheet1!$P28)</f>
+        <v>256</v>
+      </c>
+      <c r="Q23" s="27" t="str">
+        <f>IF(Sheet1!$Q28="","",Sheet1!$Q28)</f>
+        <v>SSD</v>
+      </c>
+      <c r="R23" s="27">
+        <f>IF(Sheet1!$R28="","",Sheet1!$R28)</f>
+        <v>1000</v>
+      </c>
+      <c r="S23" s="64" t="str">
+        <f>IF(Sheet1!$S28="","",Sheet1!$S28)</f>
+        <v>SATA</v>
+      </c>
+      <c r="T23" s="64">
+        <f>IF(Sheet1!$T28="","",Sheet1!$T28)</f>
+        <v>4000</v>
+      </c>
+      <c r="U23" s="64" t="str">
+        <f>IF(Sheet1!$U28="","",Sheet1!$U28)</f>
+        <v/>
+      </c>
+      <c r="V23" s="64" t="str">
+        <f>IF(Sheet1!$Z28="","",Sheet1!$Z28)</f>
+        <v/>
+      </c>
+      <c r="X23" s="13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A24" s="66"/>
+      <c r="B24" s="68"/>
       <c r="C24" s="30" t="str">
         <f>Sheet1!B28&amp;" weekly"</f>
         <v>8-GPU x86 SERVER P100 weekly</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="27">
@@ -13112,25 +14156,64 @@
         <f>Sheet1!F28*Sheet1!D28</f>
         <v>76</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="14" t="str">
+        <f>Sheet1!$C28</f>
+        <v>P100</v>
+      </c>
+      <c r="M24" s="14">
         <f>Sheet1!$D28</f>
         <v>8</v>
       </c>
-      <c r="M24" s="14" t="str">
-        <f>Sheet1!$C28</f>
-        <v>P100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A25" s="60"/>
-      <c r="B25" s="66"/>
+      <c r="N24" s="14" t="str">
+        <f>Sheet1!$K28</f>
+        <v>Xeon E5-2630 v3</v>
+      </c>
+      <c r="O24" s="14">
+        <f>Sheet1!$L28</f>
+        <v>2</v>
+      </c>
+      <c r="P24" s="14">
+        <f>IF(Sheet1!$P28="","",Sheet1!$P28)</f>
+        <v>256</v>
+      </c>
+      <c r="Q24" s="27" t="str">
+        <f>IF(Sheet1!$Q28="","",Sheet1!$Q28)</f>
+        <v>SSD</v>
+      </c>
+      <c r="R24" s="27">
+        <f>IF(Sheet1!$R28="","",Sheet1!$R28)</f>
+        <v>1000</v>
+      </c>
+      <c r="S24" s="63" t="str">
+        <f>IF(Sheet1!$S28="","",Sheet1!$S28)</f>
+        <v>SATA</v>
+      </c>
+      <c r="T24" s="63">
+        <f>IF(Sheet1!$T28="","",Sheet1!$T28)</f>
+        <v>4000</v>
+      </c>
+      <c r="U24" s="63" t="str">
+        <f>IF(Sheet1!$U28="","",Sheet1!$U28)</f>
+        <v/>
+      </c>
+      <c r="V24" s="63" t="str">
+        <f>IF(Sheet1!$Z28="","",Sheet1!$Z28)</f>
+        <v/>
+      </c>
+      <c r="X24" s="13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A25" s="66"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="30" t="str">
         <f>Sheet1!B29&amp;" monthly"</f>
         <v>4-GPU POWER8/10 SERVER monthly</v>
       </c>
       <c r="D25" s="30"/>
       <c r="E25" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
@@ -13147,25 +14230,64 @@
         <f>Sheet1!F29*Sheet1!D29</f>
         <v>38</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="14" t="str">
+        <f>Sheet1!$C29</f>
+        <v>P100</v>
+      </c>
+      <c r="M25" s="14">
         <f>Sheet1!$D29</f>
         <v>4</v>
       </c>
-      <c r="M25" s="14" t="str">
-        <f>Sheet1!$C29</f>
-        <v>P100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="20" customHeight="1">
-      <c r="A26" s="60"/>
-      <c r="B26" s="66"/>
+      <c r="N25" s="14" t="str">
+        <f>Sheet1!$K29</f>
+        <v>POWER8</v>
+      </c>
+      <c r="O25" s="14">
+        <f>Sheet1!$L29</f>
+        <v>2</v>
+      </c>
+      <c r="P25" s="14">
+        <f>IF(Sheet1!$P29="","",Sheet1!$P29)</f>
+        <v>1000</v>
+      </c>
+      <c r="Q25" s="27" t="str">
+        <f>IF(Sheet1!$Q29="","",Sheet1!$Q29)</f>
+        <v>SSD</v>
+      </c>
+      <c r="R25" s="27" t="str">
+        <f>IF(Sheet1!$R29="","",Sheet1!$R29)</f>
+        <v>4 x 960</v>
+      </c>
+      <c r="S25" s="64" t="str">
+        <f>IF(Sheet1!$S29="","",Sheet1!$S29)</f>
+        <v/>
+      </c>
+      <c r="T25" s="64" t="str">
+        <f>IF(Sheet1!$T29="","",Sheet1!$T29)</f>
+        <v/>
+      </c>
+      <c r="U25" s="64" t="str">
+        <f>IF(Sheet1!$U29="","",Sheet1!$U29)</f>
+        <v/>
+      </c>
+      <c r="V25" s="64" t="str">
+        <f>IF(Sheet1!$Z29="","",Sheet1!$Z29)</f>
+        <v>Infiniband EDR (24.24Gb/s)</v>
+      </c>
+      <c r="X25" s="13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="20" customHeight="1">
+      <c r="A26" s="66"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="30" t="str">
         <f>Sheet1!B29&amp;" weekly"</f>
         <v>4-GPU POWER8/10 SERVER weekly</v>
       </c>
       <c r="D26" s="30"/>
       <c r="E26" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27">
@@ -13182,25 +14304,64 @@
         <f>Sheet1!F29*Sheet1!D29</f>
         <v>38</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="14" t="str">
+        <f>Sheet1!$C29</f>
+        <v>P100</v>
+      </c>
+      <c r="M26" s="14">
         <f>Sheet1!$D29</f>
         <v>4</v>
       </c>
-      <c r="M26" s="14" t="str">
-        <f>Sheet1!$C29</f>
-        <v>P100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A27" s="60"/>
-      <c r="B27" s="66"/>
+      <c r="N26" s="14" t="str">
+        <f>Sheet1!$K29</f>
+        <v>POWER8</v>
+      </c>
+      <c r="O26" s="14">
+        <f>Sheet1!$L29</f>
+        <v>2</v>
+      </c>
+      <c r="P26" s="14">
+        <f>IF(Sheet1!$P29="","",Sheet1!$P29)</f>
+        <v>1000</v>
+      </c>
+      <c r="Q26" s="27" t="str">
+        <f>IF(Sheet1!$Q29="","",Sheet1!$Q29)</f>
+        <v>SSD</v>
+      </c>
+      <c r="R26" s="27" t="str">
+        <f>IF(Sheet1!$R29="","",Sheet1!$R29)</f>
+        <v>4 x 960</v>
+      </c>
+      <c r="S26" s="63" t="str">
+        <f>IF(Sheet1!$S29="","",Sheet1!$S29)</f>
+        <v/>
+      </c>
+      <c r="T26" s="63" t="str">
+        <f>IF(Sheet1!$T29="","",Sheet1!$T29)</f>
+        <v/>
+      </c>
+      <c r="U26" s="63" t="str">
+        <f>IF(Sheet1!$U29="","",Sheet1!$U29)</f>
+        <v/>
+      </c>
+      <c r="V26" s="63" t="str">
+        <f>IF(Sheet1!$Z29="","",Sheet1!$Z29)</f>
+        <v>Infiniband EDR (24.24Gb/s)</v>
+      </c>
+      <c r="X26" s="13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A27" s="66"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="30" t="str">
         <f>Sheet1!B30&amp;" monthly"</f>
         <v>4-GPU POWER8/8 SERVER monthly</v>
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
@@ -13217,25 +14378,64 @@
         <f>Sheet1!F30*Sheet1!D30</f>
         <v>38</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L27" s="14" t="str">
+        <f>Sheet1!$C30</f>
+        <v>P100</v>
+      </c>
+      <c r="M27" s="14">
         <f>Sheet1!$D30</f>
         <v>4</v>
       </c>
-      <c r="M27" s="14" t="str">
-        <f>Sheet1!$C30</f>
-        <v>P100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="20" customHeight="1">
-      <c r="A28" s="60"/>
-      <c r="B28" s="66"/>
+      <c r="N27" s="14" t="str">
+        <f>Sheet1!$K30</f>
+        <v>POWER8</v>
+      </c>
+      <c r="O27" s="14">
+        <f>Sheet1!$L30</f>
+        <v>2</v>
+      </c>
+      <c r="P27" s="14">
+        <f>IF(Sheet1!$P30="","",Sheet1!$P30)</f>
+        <v>512</v>
+      </c>
+      <c r="Q27" s="27" t="str">
+        <f>IF(Sheet1!$Q30="","",Sheet1!$Q30)</f>
+        <v>SSD</v>
+      </c>
+      <c r="R27" s="27" t="str">
+        <f>IF(Sheet1!$R30="","",Sheet1!$R30)</f>
+        <v>2 x 960</v>
+      </c>
+      <c r="S27" s="64" t="str">
+        <f>IF(Sheet1!$S30="","",Sheet1!$S30)</f>
+        <v/>
+      </c>
+      <c r="T27" s="64" t="str">
+        <f>IF(Sheet1!$T30="","",Sheet1!$T30)</f>
+        <v/>
+      </c>
+      <c r="U27" s="64" t="str">
+        <f>IF(Sheet1!$U30="","",Sheet1!$U30)</f>
+        <v/>
+      </c>
+      <c r="V27" s="64" t="str">
+        <f>IF(Sheet1!$Z30="","",Sheet1!$Z30)</f>
+        <v/>
+      </c>
+      <c r="X27" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="20" customHeight="1">
+      <c r="A28" s="66"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="30" t="str">
         <f>Sheet1!B30&amp;" weekly"</f>
         <v>4-GPU POWER8/8 SERVER weekly</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="27">
@@ -13252,22 +14452,61 @@
         <f>Sheet1!F30*Sheet1!D30</f>
         <v>38</v>
       </c>
-      <c r="L28" s="14">
+      <c r="L28" s="14" t="str">
+        <f>Sheet1!$C30</f>
+        <v>P100</v>
+      </c>
+      <c r="M28" s="14">
         <f>Sheet1!$D30</f>
         <v>4</v>
       </c>
-      <c r="M28" s="14" t="str">
-        <f>Sheet1!$C30</f>
-        <v>P100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="20" customHeight="1">
-      <c r="A29" s="60" t="str">
+      <c r="N28" s="14" t="str">
+        <f>Sheet1!$K30</f>
+        <v>POWER8</v>
+      </c>
+      <c r="O28" s="14">
+        <f>Sheet1!$L30</f>
+        <v>2</v>
+      </c>
+      <c r="P28" s="14">
+        <f>IF(Sheet1!$P30="","",Sheet1!$P30)</f>
+        <v>512</v>
+      </c>
+      <c r="Q28" s="27" t="str">
+        <f>IF(Sheet1!$Q30="","",Sheet1!$Q30)</f>
+        <v>SSD</v>
+      </c>
+      <c r="R28" s="27" t="str">
+        <f>IF(Sheet1!$R30="","",Sheet1!$R30)</f>
+        <v>2 x 960</v>
+      </c>
+      <c r="S28" s="63" t="str">
+        <f>IF(Sheet1!$S30="","",Sheet1!$S30)</f>
+        <v/>
+      </c>
+      <c r="T28" s="63" t="str">
+        <f>IF(Sheet1!$T30="","",Sheet1!$T30)</f>
+        <v/>
+      </c>
+      <c r="U28" s="63" t="str">
+        <f>IF(Sheet1!$U30="","",Sheet1!$U30)</f>
+        <v/>
+      </c>
+      <c r="V28" s="63" t="str">
+        <f>IF(Sheet1!$Z30="","",Sheet1!$Z30)</f>
+        <v/>
+      </c>
+      <c r="X28" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="20" customHeight="1">
+      <c r="A29" s="66" t="str">
         <f>Sheet1!A32</f>
         <v>Sakura</v>
       </c>
-      <c r="B29" s="66" t="s">
-        <v>184</v>
+      <c r="B29" s="68" t="s">
+        <v>183</v>
       </c>
       <c r="C29" s="30" t="str">
         <f>Sheet1!B32</f>
@@ -13275,7 +14514,7 @@
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
@@ -13292,25 +14531,64 @@
         <f>Sheet1!F32*Sheet1!D32</f>
         <v>24.576000000000001</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L29" s="14" t="str">
+        <f>Sheet1!$C32</f>
+        <v>GeForce GTX TITAN X</v>
+      </c>
+      <c r="M29" s="14">
         <f>Sheet1!$D32</f>
         <v>4</v>
       </c>
-      <c r="M29" s="14" t="str">
-        <f>Sheet1!$C32</f>
-        <v>GeForce GTX TITAN X</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="20" customHeight="1">
-      <c r="A30" s="60"/>
-      <c r="B30" s="66"/>
+      <c r="N29" s="14" t="str">
+        <f>Sheet1!$K32</f>
+        <v>Xeon E5-2623 v3</v>
+      </c>
+      <c r="O29" s="14">
+        <f>Sheet1!$L32</f>
+        <v>2</v>
+      </c>
+      <c r="P29" s="14">
+        <f>IF(Sheet1!$P32="","",Sheet1!$P32)</f>
+        <v>128</v>
+      </c>
+      <c r="Q29" s="27" t="str">
+        <f>IF(Sheet1!$Q32="","",Sheet1!$Q32)</f>
+        <v>SSD</v>
+      </c>
+      <c r="R29" s="27">
+        <f>IF(Sheet1!$R32="","",Sheet1!$R32)</f>
+        <v>480</v>
+      </c>
+      <c r="S29" s="64" t="str">
+        <f>IF(Sheet1!$S32="","",Sheet1!$S32)</f>
+        <v>SSD</v>
+      </c>
+      <c r="T29" s="64">
+        <f>IF(Sheet1!$T32="","",Sheet1!$T32)</f>
+        <v>480</v>
+      </c>
+      <c r="U29" s="64">
+        <f>IF(Sheet1!$U32="","",Sheet1!$U32)</f>
+        <v>0.1</v>
+      </c>
+      <c r="V29" s="64" t="str">
+        <f>IF(Sheet1!$Z32="","",Sheet1!$Z32)</f>
+        <v>Price includes one-time costs devided by 12 months.</v>
+      </c>
+      <c r="X29" s="13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="20" customHeight="1">
+      <c r="A30" s="66"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="30" t="str">
         <f>Sheet1!$B$33</f>
         <v>Tesla model</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
@@ -13327,13 +14605,52 @@
         <f>Sheet1!F33*Sheet1!D33</f>
         <v>6.8440000000000003</v>
       </c>
-      <c r="L30" s="14">
+      <c r="L30" s="14" t="str">
+        <f>Sheet1!$C33</f>
+        <v>M40</v>
+      </c>
+      <c r="M30" s="14">
         <f>Sheet1!$D33</f>
         <v>1</v>
       </c>
-      <c r="M30" s="14" t="str">
-        <f>Sheet1!$C33</f>
-        <v>M40</v>
+      <c r="N30" s="14" t="str">
+        <f>Sheet1!$K33</f>
+        <v>Xeon E5-2623 v3</v>
+      </c>
+      <c r="O30" s="14">
+        <f>Sheet1!$L33</f>
+        <v>2</v>
+      </c>
+      <c r="P30" s="14">
+        <f>IF(Sheet1!$P33="","",Sheet1!$P33)</f>
+        <v>128</v>
+      </c>
+      <c r="Q30" s="27" t="str">
+        <f>IF(Sheet1!$Q33="","",Sheet1!$Q33)</f>
+        <v>SSD</v>
+      </c>
+      <c r="R30" s="27">
+        <f>IF(Sheet1!$R33="","",Sheet1!$R33)</f>
+        <v>480</v>
+      </c>
+      <c r="S30" s="63" t="str">
+        <f>IF(Sheet1!$S33="","",Sheet1!$S33)</f>
+        <v>SSD</v>
+      </c>
+      <c r="T30" s="63">
+        <f>IF(Sheet1!$T33="","",Sheet1!$T33)</f>
+        <v>480</v>
+      </c>
+      <c r="U30" s="63">
+        <f>IF(Sheet1!$U33="","",Sheet1!$U33)</f>
+        <v>0.1</v>
+      </c>
+      <c r="V30" s="63" t="str">
+        <f>IF(Sheet1!$Z33="","",Sheet1!$Z33)</f>
+        <v>Price includes one-time costs devided by 12 months.</v>
+      </c>
+      <c r="X30" s="13">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -13349,97 +14666,182 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="C18:G18 I18:K18 C22:G22 I22:K22 C21:K21 C24:D24 I24:K24 C26:G26 I26:K26 C29:K30 C28:D28 I28:K28 H22:H28 C20:D20 F20:K20 F24:G24 F28:G28 C2:K17">
-    <cfRule type="expression" dxfId="29" priority="19">
+    <cfRule type="expression" dxfId="35" priority="51">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:K19">
-    <cfRule type="expression" dxfId="28" priority="18">
+    <cfRule type="expression" dxfId="34" priority="50">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:G23 I23:K23">
-    <cfRule type="expression" dxfId="27" priority="17">
+    <cfRule type="expression" dxfId="33" priority="49">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:G25 I25:K25">
-    <cfRule type="expression" dxfId="26" priority="16">
+    <cfRule type="expression" dxfId="32" priority="48">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:G27 I27:K27">
-    <cfRule type="expression" dxfId="25" priority="15">
+    <cfRule type="expression" dxfId="31" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="24" priority="14">
+    <cfRule type="expression" dxfId="30" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L27">
-    <cfRule type="expression" dxfId="23" priority="9">
+  <conditionalFormatting sqref="M27">
+    <cfRule type="expression" dxfId="29" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L18 L20:L22 L24 L26 L28:L30">
-    <cfRule type="expression" dxfId="22" priority="13">
+  <conditionalFormatting sqref="M2:M18 M20:M22 M24 M26 M28:M30">
+    <cfRule type="expression" dxfId="28" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19">
-    <cfRule type="expression" dxfId="21" priority="12">
+  <conditionalFormatting sqref="M19">
+    <cfRule type="expression" dxfId="27" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L23">
-    <cfRule type="expression" dxfId="20" priority="11">
+  <conditionalFormatting sqref="M23">
+    <cfRule type="expression" dxfId="26" priority="43">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
-    <cfRule type="expression" dxfId="19" priority="10">
+  <conditionalFormatting sqref="M25">
+    <cfRule type="expression" dxfId="25" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="18" priority="8">
+    <cfRule type="expression" dxfId="24" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="23" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="22" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M7">
-    <cfRule type="expression" dxfId="13" priority="5">
+  <conditionalFormatting sqref="L2:L7">
+    <cfRule type="expression" dxfId="21" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:M11">
-    <cfRule type="expression" dxfId="10" priority="4">
+  <conditionalFormatting sqref="L8:M11">
+    <cfRule type="expression" dxfId="20" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12">
-    <cfRule type="expression" dxfId="7" priority="3">
+  <conditionalFormatting sqref="L12:M12">
+    <cfRule type="expression" dxfId="19" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13:M28">
-    <cfRule type="expression" dxfId="5" priority="2">
+  <conditionalFormatting sqref="L13:M28">
+    <cfRule type="expression" dxfId="18" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M29:M30">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="L29:M30">
+    <cfRule type="expression" dxfId="17" priority="33">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N7">
+    <cfRule type="expression" dxfId="16" priority="27">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8:N11">
+    <cfRule type="expression" dxfId="15" priority="26">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12">
+    <cfRule type="expression" dxfId="14" priority="25">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13:N28">
+    <cfRule type="expression" dxfId="13" priority="24">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N29:N30">
+    <cfRule type="expression" dxfId="12" priority="23">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P7">
+    <cfRule type="expression" dxfId="11" priority="22">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8:P11">
+    <cfRule type="expression" dxfId="10" priority="21">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P13:P28">
+    <cfRule type="expression" dxfId="9" priority="19">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P29:P30">
+    <cfRule type="expression" dxfId="8" priority="18">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q30">
+    <cfRule type="expression" dxfId="7" priority="17">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P12">
+    <cfRule type="expression" dxfId="6" priority="12">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R30">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O7">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8:O11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13:O28">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O29:O30">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13451,13 +14853,14 @@
     <hyperlink ref="D3:D4" r:id="rId5" display="https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22240"/>
   </hyperlinks>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="73" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="J20:K20" formula="1"/>
+    <ignoredError sqref="Q2 R2:S4 Q3:Q4 Q5:Q7 R5:S7 P8:S28 P5:P7 T3:U3 T5:V28 T4:U4 T2:U2" emptyCellReference="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="70"/>
     </ext>
   </extLst>
 </worksheet>
@@ -13465,13 +14868,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:CM338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
@@ -13574,191 +14977,191 @@
   <sheetData>
     <row r="1" spans="1:91" s="14" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="A1" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="65" t="str">
+        <v>144</v>
+      </c>
+      <c r="E1" s="72" t="str">
         <f>'cost-performance'!$A$2&amp;" "&amp;'cost-performance'!$C$2</f>
         <v>Amazon p2.16xlarge on-demand</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="63" t="str">
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="70" t="str">
         <f>'cost-performance'!$A$2&amp;" "&amp;'cost-performance'!$C$3</f>
         <v>Amazon p2.8xlarge on-demand</v>
       </c>
-      <c r="I1" s="63"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="62" t="str">
+      <c r="I1" s="70"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="69" t="str">
         <f>'cost-performance'!$A$2&amp;" "&amp;'cost-performance'!$C$4</f>
         <v>Amazon p2.xlarge on-demand</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="62" t="str">
+      <c r="L1" s="70"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="69" t="str">
         <f>'cost-performance'!$A$2&amp;" "&amp;'cost-performance'!$C$5</f>
         <v>Amazon p2 dedicated host On-demand</v>
       </c>
-      <c r="O1" s="63"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="62" t="str">
+      <c r="O1" s="70"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="69" t="str">
         <f>'cost-performance'!$A$2&amp;" "&amp;'cost-performance'!$C$6</f>
         <v>Amazon p2 dedicated host 1 year no Upfront</v>
       </c>
-      <c r="R1" s="63"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="62" t="str">
+      <c r="R1" s="70"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="69" t="str">
         <f>'cost-performance'!A2&amp;" "&amp;'cost-performance'!C7</f>
         <v>Amazon p2 dedicated host 1 year 100% Upfront</v>
       </c>
-      <c r="U1" s="63"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="62" t="str">
+      <c r="U1" s="70"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="69" t="str">
         <f>'cost-performance'!$A$8&amp;" "&amp;'cost-performance'!$C$8</f>
         <v>Softlayer NVIDIA Tesla K80 Dual Intel Xeon E5-2620 v4 hourly</v>
       </c>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="62" t="str">
+      <c r="X1" s="70"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="69" t="str">
         <f>'cost-performance'!$A$8&amp;" "&amp;'cost-performance'!$C$9</f>
         <v>Softlayer NVIDIA Tesla K80 Dual Intel Xeon E5-2620 v4 monthly</v>
       </c>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="62" t="str">
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="69" t="str">
         <f>'cost-performance'!$A$8&amp;" "&amp;'cost-performance'!$C$10</f>
         <v>Softlayer NVIDIA Tesla K80 Dual Intel Xeon E5-2690 v3</v>
       </c>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="62" t="str">
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="69" t="str">
         <f>'cost-performance'!$A$8&amp;" "&amp;'cost-performance'!$C$11</f>
         <v>Softlayer NVIDIA Tesla M60 Dual Intel Xeon E5-2690 v3</v>
       </c>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="62" t="str">
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="69" t="str">
         <f>'cost-performance'!$A$12&amp;" "&amp;'cost-performance'!$C$12</f>
         <v>Nimbix NGD5</v>
       </c>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="62" t="str">
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="69" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$C$13</f>
         <v>Cirrascale 16-GPU x86 SERVER K80 monthly</v>
       </c>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="62" t="str">
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="69" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$C$14</f>
         <v>Cirrascale 16-GPU x86 SERVER K80 weekly</v>
       </c>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="62" t="str">
+      <c r="AP1" s="70"/>
+      <c r="AQ1" s="71"/>
+      <c r="AR1" s="69" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$C$15</f>
         <v>Cirrascale 8-GPU x86 SERVER M40 monthly</v>
       </c>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="62" t="str">
+      <c r="AS1" s="70"/>
+      <c r="AT1" s="71"/>
+      <c r="AU1" s="69" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$C$16</f>
         <v>Cirrascale 8-GPU x86 SERVER M40 weekly</v>
       </c>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="62" t="str">
+      <c r="AV1" s="70"/>
+      <c r="AW1" s="71"/>
+      <c r="AX1" s="69" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$C$17</f>
         <v>Cirrascale 8-GPU x86 SERVER monthly</v>
       </c>
-      <c r="AY1" s="63"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="62" t="str">
+      <c r="AY1" s="70"/>
+      <c r="AZ1" s="71"/>
+      <c r="BA1" s="69" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$C$18</f>
         <v>Cirrascale 8-GPU x86 SERVER weekly</v>
       </c>
-      <c r="BB1" s="63"/>
-      <c r="BC1" s="64"/>
-      <c r="BD1" s="62" t="str">
+      <c r="BB1" s="70"/>
+      <c r="BC1" s="71"/>
+      <c r="BD1" s="69" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$C$19</f>
         <v>Cirrascale 4-GPU x86 SERVER monthly</v>
       </c>
-      <c r="BE1" s="63"/>
-      <c r="BF1" s="64"/>
-      <c r="BG1" s="62" t="str">
+      <c r="BE1" s="70"/>
+      <c r="BF1" s="71"/>
+      <c r="BG1" s="69" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$C$20</f>
         <v>Cirrascale 4-GPU x86 SERVER weekly</v>
       </c>
-      <c r="BH1" s="63"/>
-      <c r="BI1" s="64"/>
-      <c r="BJ1" s="62" t="str">
+      <c r="BH1" s="70"/>
+      <c r="BI1" s="71"/>
+      <c r="BJ1" s="69" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$C$21</f>
         <v>Cirrascale 8-GPU x86 SERVER P40 monthly</v>
       </c>
-      <c r="BK1" s="63"/>
-      <c r="BL1" s="64"/>
-      <c r="BM1" s="62" t="str">
+      <c r="BK1" s="70"/>
+      <c r="BL1" s="71"/>
+      <c r="BM1" s="69" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$C$22</f>
         <v>Cirrascale 8-GPU x86 SERVER P40 weekly</v>
       </c>
-      <c r="BN1" s="63"/>
-      <c r="BO1" s="64"/>
-      <c r="BP1" s="62" t="str">
+      <c r="BN1" s="70"/>
+      <c r="BO1" s="71"/>
+      <c r="BP1" s="69" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$C$23</f>
         <v>Cirrascale 8-GPU x86 SERVER P100 monthly</v>
       </c>
-      <c r="BQ1" s="63"/>
-      <c r="BR1" s="64"/>
-      <c r="BS1" s="62" t="str">
+      <c r="BQ1" s="70"/>
+      <c r="BR1" s="71"/>
+      <c r="BS1" s="69" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$C$24</f>
         <v>Cirrascale 8-GPU x86 SERVER P100 weekly</v>
       </c>
-      <c r="BT1" s="63"/>
-      <c r="BU1" s="64"/>
-      <c r="BV1" s="62" t="str">
+      <c r="BT1" s="70"/>
+      <c r="BU1" s="71"/>
+      <c r="BV1" s="69" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$C$25</f>
         <v>Cirrascale 4-GPU POWER8/10 SERVER monthly</v>
       </c>
-      <c r="BW1" s="63"/>
-      <c r="BX1" s="64"/>
-      <c r="BY1" s="62" t="str">
+      <c r="BW1" s="70"/>
+      <c r="BX1" s="71"/>
+      <c r="BY1" s="69" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$C$26</f>
         <v>Cirrascale 4-GPU POWER8/10 SERVER weekly</v>
       </c>
-      <c r="BZ1" s="63"/>
-      <c r="CA1" s="64"/>
-      <c r="CB1" s="62" t="str">
+      <c r="BZ1" s="70"/>
+      <c r="CA1" s="71"/>
+      <c r="CB1" s="69" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$C$27</f>
         <v>Cirrascale 4-GPU POWER8/8 SERVER monthly</v>
       </c>
-      <c r="CC1" s="63"/>
-      <c r="CD1" s="64"/>
-      <c r="CE1" s="62" t="str">
+      <c r="CC1" s="70"/>
+      <c r="CD1" s="71"/>
+      <c r="CE1" s="69" t="str">
         <f>'cost-performance'!$A$13&amp;" "&amp;'cost-performance'!$C$28</f>
         <v>Cirrascale 4-GPU POWER8/8 SERVER weekly</v>
       </c>
-      <c r="CF1" s="63"/>
-      <c r="CG1" s="64"/>
-      <c r="CH1" s="62" t="str">
+      <c r="CF1" s="70"/>
+      <c r="CG1" s="71"/>
+      <c r="CH1" s="69" t="str">
         <f>'cost-performance'!$A$29&amp;" "&amp;'cost-performance'!$C$29</f>
         <v>Sakura Quad GPU model</v>
       </c>
-      <c r="CI1" s="63"/>
-      <c r="CJ1" s="64"/>
-      <c r="CK1" s="62" t="str">
+      <c r="CI1" s="70"/>
+      <c r="CJ1" s="71"/>
+      <c r="CK1" s="69" t="str">
         <f>'cost-performance'!$A$29&amp;" "&amp;'cost-performance'!$C$30</f>
         <v>Sakura Tesla model</v>
       </c>
-      <c r="CL1" s="63"/>
-      <c r="CM1" s="64"/>
+      <c r="CL1" s="70"/>
+      <c r="CM1" s="71"/>
     </row>
     <row r="2" spans="1:91" ht="20" thickTop="1" thickBot="1">
       <c r="A2" s="23"/>
@@ -13766,265 +15169,265 @@
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
       <c r="E2" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="H2" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="K2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="N2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="P2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="Q2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="S2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="S2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="T2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="V2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="V2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="W2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="Y2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="Z2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="AB2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="AC2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AD2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="AE2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="AF2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="AH2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="AI2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="AK2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="AL2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AM2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="AN2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="AO2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AP2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="AQ2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="AR2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AS2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="AT2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="AU2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AV2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="AW2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="AX2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AY2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="AZ2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="BA2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BB2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="BC2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="BD2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BE2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="BF2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="BF2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="BG2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BH2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="BI2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="BJ2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BK2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="BL2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="BM2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BN2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="BO2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="BO2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="BP2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BQ2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="BR2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="BR2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="BS2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BT2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="BU2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="BU2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="BV2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BW2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="BX2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="BY2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BZ2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="CA2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="CB2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CC2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="CD2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="CD2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="CE2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CF2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="CG2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="CH2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CI2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="CJ2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="CJ2" s="42" t="s">
-        <v>98</v>
-      </c>
       <c r="CK2" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="CL2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="CM2" s="42" t="s">
         <v>97</v>
-      </c>
-      <c r="CM2" s="42" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:91" ht="19" thickTop="1">
@@ -36634,6 +38037,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="CB1:CD1"/>
+    <mergeCell ref="CE1:CG1"/>
+    <mergeCell ref="CH1:CJ1"/>
+    <mergeCell ref="CK1:CM1"/>
+    <mergeCell ref="BM1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="BG1:BI1"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AR1:AT1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
@@ -36643,26 +38066,6 @@
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="T1:V1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="AL1:AN1"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
-    <mergeCell ref="BG1:BI1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Comparison table updated 3.xlsx
+++ b/Comparison table updated 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="28180" windowHeight="28260" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="33480" windowHeight="16560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3874,8 +3874,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="70"/>
-        <c:axId val="-2077585032"/>
-        <c:axId val="-2077318712"/>
+        <c:axId val="-2077452664"/>
+        <c:axId val="-2077458536"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -4079,11 +4079,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="300"/>
-        <c:axId val="-2077881528"/>
-        <c:axId val="-2077427384"/>
+        <c:axId val="-2077482424"/>
+        <c:axId val="-2077467960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2077585032"/>
+        <c:axId val="-2077452664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4104,7 +4104,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077318712"/>
+        <c:crossAx val="-2077458536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4112,7 +4112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2077318712"/>
+        <c:axId val="-2077458536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4156,12 +4156,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077585032"/>
+        <c:crossAx val="-2077452664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2077427384"/>
+        <c:axId val="-2077467960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4199,12 +4199,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077881528"/>
+        <c:crossAx val="-2077482424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2077881528"/>
+        <c:axId val="-2077482424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4213,7 +4213,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2077427384"/>
+        <c:crossAx val="-2077467960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6360,8 +6360,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2077355560"/>
-        <c:axId val="-2077352104"/>
+        <c:axId val="-2072218216"/>
+        <c:axId val="-2072442504"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -8470,11 +8470,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2077345496"/>
-        <c:axId val="-2077348680"/>
+        <c:axId val="2072236024"/>
+        <c:axId val="-2072439080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2077355560"/>
+        <c:axId val="-2072218216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8640.0"/>
@@ -8498,14 +8498,14 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2077352104"/>
+        <c:crossAx val="-2072442504"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="480.0"/>
         <c:minorUnit val="48.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2077352104"/>
+        <c:axId val="-2072442504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200000.0"/>
@@ -8537,12 +8537,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2077355560"/>
+        <c:crossAx val="-2072218216"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2077348680"/>
+        <c:axId val="-2072439080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20000.0"/>
@@ -8575,13 +8575,13 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077345496"/>
+        <c:crossAx val="2072236024"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="400.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2077345496"/>
+        <c:axId val="2072236024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8591,7 +8591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2077348680"/>
+        <c:crossAx val="-2072439080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9265,7 +9265,7 @@
   <dimension ref="A1:EY33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="T5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="S12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="Z8" sqref="Z8"/>
@@ -12360,10 +12360,10 @@
   <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -14874,10 +14874,10 @@
   <dimension ref="A1:CM338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AK19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
+      <selection pane="bottomRight" activeCell="AO35" sqref="AO35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -38037,6 +38037,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="AL1:AN1"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AR1:AT1"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="BG1:BI1"/>
+    <mergeCell ref="BJ1:BL1"/>
     <mergeCell ref="CB1:CD1"/>
     <mergeCell ref="CE1:CG1"/>
     <mergeCell ref="CH1:CJ1"/>
@@ -38046,26 +38066,6 @@
     <mergeCell ref="BS1:BU1"/>
     <mergeCell ref="BV1:BX1"/>
     <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
-    <mergeCell ref="BG1:BI1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="AL1:AN1"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Comparison table updated 3.xlsx
+++ b/Comparison table updated 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="48920" windowHeight="17320" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="48920" windowHeight="16360" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,9 @@
             <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
-Cost includes One-time cost (初期費用) divided by 12 month (793 800 / 12 = 66 150 yen/month) Yen monthly price is 157 950. Used Yen to USD rate  104 yen/USD.</t>
+Cost includes One-time cost (初期費用) divided by 12 months (880 200 / 12 = 73 350 yen/month) Yen Monthly price is 100 440. 
+Total monthly cost: 100 440 + 73 350 = 173 790￥ （税込）
+Used Yen to USD rate  118 yen/USD. (Rate on 2016/12/16)</t>
         </r>
       </text>
     </comment>
@@ -543,7 +545,41 @@
             <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
-Cost includes One-time cost (初期費用) divided by 12 month 868 600 / 12 = 71 550 yen/month) Montly sum in Yen: 174 150. Yen to USD rate  104 yen/USD.</t>
+Cost includes One-time cost (初期費用) divided by 12 months
+945 000 / 12 = 78 750 yen/month) 
+Montly price: 104 760.
+Montly sum: 104 760 + 78 750 = 183 510￥　（税込）. 
+Yen to USD rate  118 yen/USD on 2016/12/16.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Peter Bryzgalov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+Cost includes One-time cost (初期費用) divided by 12 months
+966 600 / 12 = 80 550 yen/month) 
+Montly price: 106 920.
+Montly sum: 106 920 + 80 550 = 187 470¥　（税込）. 
+Yen to USD rate  118 yen/USD on 2016/12/16.</t>
         </r>
       </text>
     </comment>
@@ -552,7 +588,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="220">
   <si>
     <t>Cloud server providers with GPU</t>
     <phoneticPr fontId="2"/>
@@ -765,10 +801,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>GeForce GTX TITAN X</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>processors/shaders xN</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -831,10 +863,6 @@
     <t>https://www.sakura.ad.jp/koukaryoku/specification/</t>
   </si>
   <si>
-    <t>Tesla model</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>SSD</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1087,10 +1115,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>SK M40x1 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>per year USD</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1396,6 +1420,34 @@
   </si>
   <si>
     <t>CR P100x2 P8/8 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NVIDIA TITAN X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tesla P40 model</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tesla P100 model</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SK P40x1 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Price includes one-time costs devided by 12 months.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SK P100x1 m.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1793,7 +1845,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="604">
+  <cellStyleXfs count="609">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2397,6 +2449,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2509,6 +2566,15 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="594"/>
     <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="594" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="119" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="594" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2527,17 +2593,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="120" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="119" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="594" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="604">
+  <cellStyles count="609">
     <cellStyle name="Calculation" xfId="343" builtinId="22" hidden="1"/>
     <cellStyle name="Check Cell" xfId="345" builtinId="23" hidden="1"/>
     <cellStyle name="comment" xfId="120"/>
@@ -2848,6 +2905,11 @@
     <cellStyle name="Followed Hyperlink" xfId="601" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="603" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="605" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="607" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 1 2" xfId="62"/>
     <cellStyle name="Heading 2" xfId="263" builtinId="17" customBuiltin="1"/>
@@ -3143,7 +3205,117 @@
     <cellStyle name="Style 1" xfId="55"/>
     <cellStyle name="Title" xfId="340" builtinId="15" hidden="1"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -3703,13 +3875,13 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EY32"/>
+  <dimension ref="A1:EY33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="K18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Z16" sqref="Z16"/>
+      <selection pane="bottomRight" activeCell="Z34" sqref="Z34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -3753,52 +3925,52 @@
     <row r="3" spans="1:155" s="6" customFormat="1" ht="46" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
       <c r="J3" s="25"/>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
       <c r="P3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="59" t="s">
+      <c r="Q3" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
       <c r="U3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="59" t="s">
+      <c r="V3" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
       <c r="Y3" s="34"/>
       <c r="Z3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AD3"/>
       <c r="AE3"/>
@@ -3937,13 +4109,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>21</v>
@@ -3952,7 +4124,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K4" s="18" t="s">
         <v>4</v>
@@ -3964,7 +4136,7 @@
         <v>6</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O4" s="18" t="s">
         <v>10</v>
@@ -3991,23 +4163,23 @@
         <v>15</v>
       </c>
       <c r="W4" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="X4" s="18" t="s">
         <v>24</v>
       </c>
       <c r="Y4" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Z4" s="18"/>
       <c r="AA4" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AB4" s="18" t="s">
         <v>47</v>
       </c>
       <c r="AC4" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:155" s="13" customFormat="1" ht="21" thickTop="1">
@@ -4040,7 +4212,7 @@
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L5" s="14">
         <v>64</v>
@@ -4071,7 +4243,7 @@
       </c>
       <c r="Y5" s="10"/>
       <c r="Z5" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AA5" s="26">
         <f>X5/(D5*F5)</f>
@@ -4088,7 +4260,7 @@
     </row>
     <row r="6" spans="1:155">
       <c r="A6" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>49</v>
@@ -4147,7 +4319,7 @@
       </c>
       <c r="Y6" s="10"/>
       <c r="Z6" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AA6" s="26">
         <f t="shared" ref="AA6:AA15" si="2">X6/(D6*F6)</f>
@@ -4220,7 +4392,7 @@
       </c>
       <c r="Y7" s="10"/>
       <c r="Z7" s="16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AA7" s="26">
         <f t="shared" si="2"/>
@@ -4237,10 +4409,10 @@
     </row>
     <row r="8" spans="1:155">
       <c r="A8" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>25</v>
@@ -4293,7 +4465,7 @@
       </c>
       <c r="Y8" s="10"/>
       <c r="Z8" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA8" s="26">
         <f t="shared" si="2"/>
@@ -4311,7 +4483,7 @@
     <row r="9" spans="1:155">
       <c r="A9" s="16"/>
       <c r="B9" s="24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>17</v>
@@ -4383,7 +4555,7 @@
     <row r="10" spans="1:155">
       <c r="A10" s="16"/>
       <c r="B10" s="24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>17</v>
@@ -4392,7 +4564,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F10" s="5">
         <v>8.74</v>
@@ -4401,10 +4573,10 @@
         <v>2.91</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="5" t="s">
@@ -4455,7 +4627,7 @@
     <row r="11" spans="1:155">
       <c r="A11" s="16"/>
       <c r="B11" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>17</v>
@@ -4464,7 +4636,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F11" s="5">
         <v>8.74</v>
@@ -4473,10 +4645,10 @@
         <v>2.91</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="5" t="s">
@@ -4560,7 +4732,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>30</v>
@@ -4626,7 +4798,7 @@
       </c>
       <c r="Y13" s="10"/>
       <c r="Z13" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AA13" s="26">
         <f>X13/(D13*F13)</f>
@@ -4643,13 +4815,13 @@
     </row>
     <row r="14" spans="1:155">
       <c r="A14" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
@@ -4671,7 +4843,7 @@
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L14" s="5">
         <v>2</v>
@@ -4689,7 +4861,7 @@
         <v>64</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R14" s="5">
         <v>1000</v>
@@ -4709,7 +4881,7 @@
       </c>
       <c r="Y14" s="26"/>
       <c r="Z14" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AA14" s="26">
         <f t="shared" si="2"/>
@@ -4727,16 +4899,16 @@
     <row r="15" spans="1:155">
       <c r="A15" s="16"/>
       <c r="B15" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F15" s="9">
         <v>9.65</v>
@@ -4745,14 +4917,14 @@
         <v>0.3</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L15" s="5">
         <v>2</v>
@@ -4770,7 +4942,7 @@
         <v>64</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R15" s="5">
         <v>1000</v>
@@ -4790,7 +4962,7 @@
       </c>
       <c r="Y15" s="26"/>
       <c r="Z15" s="16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AA15" s="26">
         <f t="shared" si="2"/>
@@ -4849,7 +5021,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F17" s="9">
         <v>8.74</v>
@@ -4858,7 +5030,7 @@
         <v>2.91</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>22</v>
@@ -4895,7 +5067,7 @@
       </c>
       <c r="Y17" s="10"/>
       <c r="Z17" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA17" s="26">
         <f>X17/(D17*F17)</f>
@@ -4913,10 +5085,10 @@
     <row r="18" spans="1:155" s="13" customFormat="1" ht="20">
       <c r="A18" s="40"/>
       <c r="B18" s="41" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D18" s="29">
         <v>2</v>
@@ -4938,7 +5110,7 @@
       </c>
       <c r="J18" s="30"/>
       <c r="K18" s="42" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L18" s="29">
         <v>2</v>
@@ -4968,7 +5140,7 @@
       </c>
       <c r="Y18" s="45"/>
       <c r="Z18" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA18" s="26">
         <f>X18/(D18*F18)</f>
@@ -5111,10 +5283,10 @@
     </row>
     <row r="19" spans="1:155">
       <c r="A19" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>37</v>
@@ -5168,7 +5340,7 @@
     </row>
     <row r="20" spans="1:155">
       <c r="A20" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="31"/>
@@ -5199,7 +5371,7 @@
     </row>
     <row r="21" spans="1:155">
       <c r="A21" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="31"/>
@@ -5261,7 +5433,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>17</v>
@@ -5343,10 +5515,10 @@
     </row>
     <row r="24" spans="1:155">
       <c r="A24" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>43</v>
@@ -5429,10 +5601,10 @@
     <row r="25" spans="1:155" s="13" customFormat="1">
       <c r="A25" s="2"/>
       <c r="B25" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="31" t="s">
         <v>112</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>114</v>
       </c>
       <c r="D25" s="13">
         <v>8</v>
@@ -5472,13 +5644,13 @@
         <v>256</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R25" s="14">
         <v>1000</v>
       </c>
       <c r="S25" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="T25" s="14">
         <v>4000</v>
@@ -5512,10 +5684,10 @@
     <row r="26" spans="1:155" s="13" customFormat="1">
       <c r="A26" s="2"/>
       <c r="B26" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="31" t="s">
         <v>113</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>115</v>
       </c>
       <c r="D26" s="13">
         <v>8</v>
@@ -5537,7 +5709,7 @@
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L26" s="5">
         <v>2</v>
@@ -5555,13 +5727,13 @@
         <v>256</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R26" s="14">
         <v>1000</v>
       </c>
       <c r="S26" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="T26" s="14">
         <v>4000</v>
@@ -5594,10 +5766,10 @@
     </row>
     <row r="27" spans="1:155">
       <c r="B27" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="31" t="s">
         <v>94</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>96</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -5639,10 +5811,10 @@
         <v>1000</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R27" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
@@ -5659,7 +5831,7 @@
       </c>
       <c r="Y27" s="26"/>
       <c r="Z27" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA27" s="26">
         <f t="shared" si="4"/>
@@ -5676,10 +5848,10 @@
     </row>
     <row r="28" spans="1:155">
       <c r="B28" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="31" t="s">
         <v>95</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>97</v>
       </c>
       <c r="D28">
         <v>4</v>
@@ -5724,7 +5896,7 @@
         <v>33</v>
       </c>
       <c r="R28" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
@@ -5757,10 +5929,10 @@
     <row r="29" spans="1:155" s="13" customFormat="1">
       <c r="A29" s="48"/>
       <c r="B29" s="49" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D29" s="51">
         <v>2</v>
@@ -5784,7 +5956,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="50" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L29" s="5">
         <v>2</v>
@@ -5995,29 +6167,29 @@
         <v>52</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>53</v>
+        <v>213</v>
       </c>
       <c r="D31">
         <v>4</v>
       </c>
       <c r="E31" s="14">
-        <v>3072</v>
+        <v>3584</v>
       </c>
       <c r="F31" s="21">
-        <v>6.1440000000000001</v>
+        <v>10.157</v>
       </c>
       <c r="G31" s="21">
-        <v>0.192</v>
+        <v>0.317</v>
       </c>
       <c r="H31" s="14">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="I31" s="14">
-        <v>336</v>
+        <v>480</v>
       </c>
       <c r="J31" s="14"/>
       <c r="K31" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L31" s="5">
         <v>2</v>
@@ -6035,13 +6207,13 @@
         <v>128</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R31" s="5">
         <v>480</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T31" s="5">
         <v>480</v>
@@ -6051,60 +6223,60 @@
       </c>
       <c r="V31" s="10" t="str">
         <f>USDOLLAR(X31/730,2)&amp;"?"</f>
-        <v>$2.08?</v>
+        <v>$2.02?</v>
       </c>
       <c r="W31" s="26"/>
       <c r="X31" s="26">
-        <v>1519</v>
+        <v>1472.8</v>
       </c>
       <c r="Y31" s="26"/>
       <c r="Z31" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AA31" s="26">
         <f>X31/(D31*F31)</f>
-        <v>61.808268229166664</v>
+        <v>36.250861474844932</v>
       </c>
       <c r="AB31" s="5">
         <f>D31*F31*1000/X31</f>
-        <v>16.179065174456881</v>
+        <v>27.585551330798481</v>
       </c>
       <c r="AC31" s="26">
         <f>X31/(L31*N31)</f>
-        <v>5063.3333333333339</v>
+        <v>4909.333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:155">
       <c r="A32" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>70</v>
+        <v>214</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" s="14">
-        <v>3072</v>
-      </c>
-      <c r="F32" s="5">
-        <v>6.8440000000000003</v>
-      </c>
-      <c r="G32" s="5">
-        <v>0.214</v>
-      </c>
-      <c r="H32" s="7">
-        <v>12.3</v>
-      </c>
-      <c r="I32" s="7">
-        <v>288</v>
+        <v>3840</v>
+      </c>
+      <c r="F32" s="21">
+        <v>11.757999999999999</v>
+      </c>
+      <c r="G32" s="21">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="H32" s="14">
+        <v>24.576000000000001</v>
+      </c>
+      <c r="I32" s="14">
+        <v>345.6</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L32" s="5">
         <v>2</v>
@@ -6122,7 +6294,7 @@
         <v>128</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R32" s="5">
         <v>480</v>
@@ -6138,27 +6310,108 @@
       </c>
       <c r="V32" s="10" t="str">
         <f>USDOLLAR(X32/730,2)&amp;"?"</f>
-        <v>$2.29?</v>
+        <v>$2.13?</v>
       </c>
       <c r="W32" s="26"/>
       <c r="X32" s="26">
-        <v>1675</v>
+        <v>1555</v>
       </c>
       <c r="Y32" s="26"/>
       <c r="Z32" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AA32" s="26">
         <f>X32/(D32*F32)</f>
-        <v>244.73991817650494</v>
+        <v>132.25038271814935</v>
       </c>
       <c r="AB32" s="5">
         <f>D32*F32*1000/X32</f>
-        <v>4.0859701492537317</v>
+        <v>7.5614147909967846</v>
       </c>
       <c r="AC32" s="26">
         <f>X32/(L32*N32)</f>
-        <v>5583.3333333333339</v>
+        <v>5183.3333333333339</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29">
+      <c r="B33" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="37">
+        <v>3584</v>
+      </c>
+      <c r="F33" s="50">
+        <v>9.5</v>
+      </c>
+      <c r="G33" s="50">
+        <v>4.7</v>
+      </c>
+      <c r="H33" s="50">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I33" s="50">
+        <v>720</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" s="5">
+        <v>2</v>
+      </c>
+      <c r="M33" s="5">
+        <v>4</v>
+      </c>
+      <c r="N33" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="O33" s="5">
+        <v>1866</v>
+      </c>
+      <c r="P33" s="5">
+        <v>128</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R33" s="5">
+        <v>480</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T33" s="5">
+        <v>480</v>
+      </c>
+      <c r="U33" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="V33" s="10" t="str">
+        <f>USDOLLAR(X33/730,2)&amp;"?"</f>
+        <v>$2.18?</v>
+      </c>
+      <c r="X33" s="26">
+        <v>1588.7</v>
+      </c>
+      <c r="Z33" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA33" s="26">
+        <f>X33/(D33*F33)</f>
+        <v>167.23157894736843</v>
+      </c>
+      <c r="AB33" s="5">
+        <f>D33*F33*1000/X33</f>
+        <v>5.9797318562346575</v>
+      </c>
+      <c r="AC33" s="26">
+        <f>X33/(L33*N33)</f>
+        <v>5295.666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -6170,7 +6423,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AA31">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6182,7 +6435,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB31">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6193,8 +6446,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA32">
-    <cfRule type="colorScale" priority="23">
+  <conditionalFormatting sqref="AA32:AA33">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6205,8 +6458,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB32">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="AB32:AB33">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6217,8 +6470,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA32">
-    <cfRule type="colorScale" priority="21">
+  <conditionalFormatting sqref="AA32:AA33">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6229,8 +6482,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB32">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="AB32:AB33">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6241,13 +6494,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:W13 Z13:XFD13 EZ18:XFD18 AA18:AC18 A19:XFD25 A30:XFD32 EZ29:XFD29 V29 V28:XFD28 S28:U29 R28 Q28:Q29 P28 O28:O29 N28 L26:M29 N26:XFD27 A26:K28 A5:XFD12 A14:XFD17">
-    <cfRule type="expression" dxfId="23" priority="14">
+  <conditionalFormatting sqref="A13:W13 Z13:XFD13 EZ18:XFD18 AA18:AC18 A19:XFD25 EZ29:XFD29 V29 V28:XFD28 S28:U29 R28 Q28:Q29 P28 O28:O29 N28 L26:M29 N26:XFD27 A26:K28 A5:XFD12 A14:XFD17 A30:XFD32 Z33:AC33 V33">
+    <cfRule type="expression" dxfId="33" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA30:AA32 AA5:AA28">
-    <cfRule type="colorScale" priority="69">
+  <conditionalFormatting sqref="AA5:AA28 AA30:AA33">
+    <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6258,8 +6511,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB30:AB32 AB5:AB28">
-    <cfRule type="colorScale" priority="71">
+  <conditionalFormatting sqref="AB5:AB28 AB30:AB33">
+    <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6271,7 +6524,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA30:AA31 AA5:AA28">
-    <cfRule type="colorScale" priority="84">
+    <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6283,7 +6536,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB30:AB31 AB5:AB28">
-    <cfRule type="colorScale" priority="86">
+    <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6294,8 +6547,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC30:AC32 AC5:AC28">
-    <cfRule type="colorScale" priority="88">
+  <conditionalFormatting sqref="AC5:AC28 AC30:AC33">
+    <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6307,12 +6560,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA5:AA28">
-    <cfRule type="colorScale" priority="94">
+    <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6324,7 +6577,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AB28">
-    <cfRule type="colorScale" priority="96">
+    <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6333,6 +6586,21 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="8" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:U33">
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X33">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6349,13 +6617,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -6383,148 +6651,148 @@
     <col min="23" max="23" width="7.33203125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="67" customFormat="1">
-      <c r="A1" s="65"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66" t="s">
+    <row r="1" spans="1:24" s="61" customFormat="1">
+      <c r="A1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="M1" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="N1" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="H1" s="66" t="s">
-        <v>182</v>
-      </c>
-      <c r="I1" s="66" t="s">
-        <v>181</v>
-      </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66" t="s">
+      <c r="O1" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="P1" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="Q1" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="R1" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="S1" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="T1" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="U1" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="S1" s="66" t="s">
+      <c r="V1" s="60" t="s">
         <v>192</v>
-      </c>
-      <c r="T1" s="66" t="s">
-        <v>193</v>
-      </c>
-      <c r="U1" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="V1" s="66" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="12" customFormat="1" ht="21" thickBot="1">
       <c r="A2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L2" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="P2" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="M2" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="N2" s="33" t="s">
+      <c r="Q2" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="R2" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="S2" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="T2" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="U2" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="S2" s="36" t="s">
+      <c r="V2" s="36" t="s">
         <v>162</v>
-      </c>
-      <c r="T2" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="U2" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="V2" s="36" t="s">
-        <v>165</v>
       </c>
       <c r="W2" s="13"/>
       <c r="X2" s="13"/>
     </row>
     <row r="3" spans="1:24" ht="21" customHeight="1" thickTop="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="62" t="s">
-        <v>139</v>
+      <c r="B3" s="65" t="s">
+        <v>136</v>
       </c>
       <c r="C3" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
         <v>p2.16xlarge on-demand</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F3" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
@@ -6593,17 +6861,17 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="20" customHeight="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="24" t="str">
         <f t="shared" ref="C4:C14" ca="1" si="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
         <v>p2.8xlarge on-demand</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F4" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
@@ -6616,15 +6884,15 @@
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="14">
-        <f t="shared" ref="J4:J30" ca="1" si="2">INDIRECT("Sheet1!N"&amp; INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("X"&amp;ROW()))</f>
+        <f t="shared" ref="J4:J31" ca="1" si="2">INDIRECT("Sheet1!N"&amp; INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("X"&amp;ROW()))</f>
         <v>0.35555555555555557</v>
       </c>
       <c r="K4" s="14">
-        <f t="shared" ref="K4:K30" ca="1" si="3">INDIRECT("Sheet1!F"&amp; INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("X"&amp;ROW()))</f>
+        <f t="shared" ref="K4:K31" ca="1" si="3">INDIRECT("Sheet1!F"&amp; INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("X"&amp;ROW()))</f>
         <v>69.92</v>
       </c>
       <c r="L4" s="14" t="str">
-        <f t="shared" ref="L4:T30" ca="1" si="4">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
+        <f t="shared" ref="L4:T31" ca="1" si="4">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
         <v>K80</v>
       </c>
       <c r="M4" s="14">
@@ -6672,17 +6940,17 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="20" customHeight="1">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="24" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>p2.xlarge on-demand</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F5" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
@@ -6751,17 +7019,17 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="20" customHeight="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="24" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>p2 dedicated host On-demand</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F6" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
@@ -6830,17 +7098,17 @@
       </c>
     </row>
     <row r="7" spans="1:24" ht="20" customHeight="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="62"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="24" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>p2 dedicated host 1 year no Upfront</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -6906,17 +7174,17 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="20" customHeight="1">
-      <c r="A8" s="61"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="24" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>p2 dedicated host 1 year 100% Upfront</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -6982,12 +7250,12 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="20" customHeight="1">
-      <c r="A9" s="61" t="str">
+      <c r="A9" s="64" t="str">
         <f>Sheet1!$A$13</f>
         <v>Softlayer</v>
       </c>
-      <c r="B9" s="62" t="s">
-        <v>140</v>
+      <c r="B9" s="65" t="s">
+        <v>137</v>
       </c>
       <c r="C9" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) &amp; " monthly"</f>
@@ -6995,7 +7263,7 @@
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -7061,15 +7329,15 @@
       </c>
     </row>
     <row r="10" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="62"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) &amp; " hourly"</f>
         <v>NVIDIA Tesla K80 Dual Intel Xeon E5-2620 v4 hourly</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F10" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
@@ -7135,15 +7403,15 @@
       </c>
     </row>
     <row r="11" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A11" s="61"/>
-      <c r="B11" s="62"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="24" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>NVIDIA Tesla K80 Dual Intel Xeon E5-2690 v3</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -7209,15 +7477,15 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="20" customHeight="1">
-      <c r="A12" s="61"/>
-      <c r="B12" s="62"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="24" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>NVIDIA Tesla M60 Dual Intel Xeon E5-2690 v3</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -7288,7 +7556,7 @@
         <v>Nimbix</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C13" s="24" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -7296,7 +7564,7 @@
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F13" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
@@ -7368,7 +7636,7 @@
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F14" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
@@ -7429,12 +7697,12 @@
       </c>
     </row>
     <row r="15" spans="1:24" s="13" customFormat="1">
-      <c r="A15" s="63" t="str">
+      <c r="A15" s="66" t="str">
         <f>Sheet1!A23</f>
         <v>Cirrascale</v>
       </c>
-      <c r="B15" s="64" t="s">
-        <v>142</v>
+      <c r="B15" s="67" t="s">
+        <v>139</v>
       </c>
       <c r="C15" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp; " monthly"</f>
@@ -7442,7 +7710,7 @@
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -7509,15 +7777,15 @@
       </c>
     </row>
     <row r="16" spans="1:24" s="13" customFormat="1" ht="19" customHeight="1">
-      <c r="A16" s="63"/>
-      <c r="B16" s="64"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp; " weekly"</f>
         <v>16-GPU x86 SERVER K80 weekly</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21">
@@ -7584,15 +7852,15 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="20" customHeight="1">
-      <c r="A17" s="63"/>
-      <c r="B17" s="64"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp; " monthly"</f>
         <v>8-GPU x86 SERVER M40 monthly</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -7659,15 +7927,15 @@
       </c>
     </row>
     <row r="18" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A18" s="63"/>
-      <c r="B18" s="64"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp;" weekly"</f>
         <v>8-GPU x86 SERVER M40 weekly</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21">
@@ -7734,15 +8002,15 @@
       </c>
     </row>
     <row r="19" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="64"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp; " monthly"</f>
         <v>8-GPU x86 SERVER P40 monthly</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -7809,15 +8077,15 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="20" customHeight="1">
-      <c r="A20" s="63"/>
-      <c r="B20" s="64"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp;" weekly"</f>
         <v>8-GPU x86 SERVER P40 weekly</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21">
@@ -7884,15 +8152,15 @@
       </c>
     </row>
     <row r="21" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A21" s="63"/>
-      <c r="B21" s="64"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp; " monthly"</f>
         <v>8-GPU x86 SERVER P100 monthly</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -7946,11 +8214,11 @@
         <v>4000</v>
       </c>
       <c r="U21" s="14">
-        <f t="shared" ref="U21:U30" ca="1" si="7">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
+        <f t="shared" ref="U21:U31" ca="1" si="7">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
         <v>0</v>
       </c>
       <c r="V21" s="16">
-        <f t="shared" ref="V21:V30" ca="1" si="8">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
+        <f t="shared" ref="V21:V31" ca="1" si="8">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
         <v>0</v>
       </c>
       <c r="W21" s="16"/>
@@ -7959,15 +8227,15 @@
       </c>
     </row>
     <row r="22" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A22" s="63"/>
-      <c r="B22" s="64"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp;" weekly"</f>
         <v>8-GPU x86 SERVER P100 weekly</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21">
@@ -8034,15 +8302,15 @@
       </c>
     </row>
     <row r="23" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A23" s="63"/>
-      <c r="B23" s="64"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp; " monthly"</f>
         <v>4-GPU POWER8/10 SERVER monthly</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -8109,15 +8377,15 @@
       </c>
     </row>
     <row r="24" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A24" s="63"/>
-      <c r="B24" s="64"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="67"/>
       <c r="C24" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp;" weekly"</f>
         <v>4-GPU POWER8/10 SERVER weekly</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21">
@@ -8184,15 +8452,15 @@
       </c>
     </row>
     <row r="25" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A25" s="63"/>
-      <c r="B25" s="64"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="67"/>
       <c r="C25" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp; " monthly"</f>
         <v>4-GPU POWER8/8 SERVER monthly</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
@@ -8259,15 +8527,15 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="20" customHeight="1">
-      <c r="A26" s="63"/>
-      <c r="B26" s="64"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="67"/>
       <c r="C26" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp;" weekly"</f>
         <v>4-GPU POWER8/8 SERVER weekly</v>
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21">
@@ -8334,15 +8602,15 @@
       </c>
     </row>
     <row r="27" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A27" s="63"/>
-      <c r="B27" s="64"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="67"/>
       <c r="C27" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp; " monthly"</f>
         <v>2-GPU POWER8/8 SERVER monthly</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="24" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -8409,15 +8677,15 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="20" customHeight="1">
-      <c r="A28" s="63"/>
-      <c r="B28" s="64"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp;" weekly"</f>
         <v>2-GPU POWER8/8 SERVER weekly</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21">
@@ -8484,12 +8752,12 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="20" customHeight="1">
-      <c r="A29" s="61" t="str">
+      <c r="A29" s="64" t="str">
         <f>Sheet1!A31</f>
         <v>Sakura</v>
       </c>
-      <c r="B29" s="62" t="s">
-        <v>143</v>
+      <c r="B29" s="65" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
@@ -8497,13 +8765,13 @@
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
       <c r="H29" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>1519</v>
+        <v>1472.8</v>
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="14">
@@ -8512,11 +8780,11 @@
       </c>
       <c r="K29" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>24.576000000000001</v>
+        <v>40.628</v>
       </c>
       <c r="L29" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>GeForce GTX TITAN X</v>
+        <v>NVIDIA TITAN X</v>
       </c>
       <c r="M29" s="14">
         <f t="shared" ca="1" si="4"/>
@@ -8564,21 +8832,21 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="20" customHeight="1">
-      <c r="A30" s="61"/>
-      <c r="B30" s="62"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>Tesla model</v>
+        <v>Tesla P40 model</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>1675</v>
+        <v>1555</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="14">
@@ -8587,11 +8855,11 @@
       </c>
       <c r="K30" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>6.8440000000000003</v>
+        <v>11.757999999999999</v>
       </c>
       <c r="L30" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M40</v>
+        <v>P40</v>
       </c>
       <c r="M30" s="14">
         <f t="shared" ca="1" si="4"/>
@@ -8636,6 +8904,79 @@
       <c r="W30" s="16"/>
       <c r="X30" s="57">
         <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="C31" s="24" t="str">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
+        <v>Tesla P100 model</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
+        <v>1588.7</v>
+      </c>
+      <c r="I31" s="21"/>
+      <c r="J31" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="K31" s="14">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.5</v>
+      </c>
+      <c r="L31" s="14" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>P100</v>
+      </c>
+      <c r="M31" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N31" s="14" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Xeon E5-2623 v3</v>
+      </c>
+      <c r="O31" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P31" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="Q31" s="14" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>SSD</v>
+      </c>
+      <c r="R31" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>480</v>
+      </c>
+      <c r="S31" s="14" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>SSD</v>
+      </c>
+      <c r="T31" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>480</v>
+      </c>
+      <c r="U31" s="14">
+        <f t="shared" ca="1" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="V31" s="16" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>Price includes one-time costs devided by 12 months.</v>
+      </c>
+      <c r="W31" s="16"/>
+      <c r="X31" s="57">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -8650,113 +8991,113 @@
     <mergeCell ref="B15:B28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="I22 D24 I24 I26 D28 I28 D21:I21 D22:G22 F24:G24 D26:G26 F28:G28 C29:I30 H21:H30 C3:M14 Q13:Q14 J17:M30 C17:I20">
-    <cfRule type="expression" dxfId="21" priority="79">
+  <conditionalFormatting sqref="I22 D24 I24 I26 D28 I28 D21:I21 D22:G22 F24:G24 D26:G26 F28:G28 C29:I30 H21:H30 C3:M14 Q13:Q14 J17:M30 C17:I20 C31:M31">
+    <cfRule type="expression" dxfId="31" priority="79">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23 I23 F23:G23">
-    <cfRule type="expression" dxfId="20" priority="77">
+    <cfRule type="expression" dxfId="30" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:G25 I25">
-    <cfRule type="expression" dxfId="19" priority="76">
+    <cfRule type="expression" dxfId="29" priority="76">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:G27 I27">
-    <cfRule type="expression" dxfId="18" priority="75">
+    <cfRule type="expression" dxfId="28" priority="75">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="17" priority="66">
+    <cfRule type="expression" dxfId="27" priority="66">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N14 N17:N30">
-    <cfRule type="expression" dxfId="16" priority="21">
+  <conditionalFormatting sqref="N3:N14 N17:N31">
+    <cfRule type="expression" dxfId="26" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P14 Q3:U3 R4:U12 R17:T30 P17:P30 V6:V30 R13:T14 U13:U30">
-    <cfRule type="expression" dxfId="15" priority="19">
+  <conditionalFormatting sqref="P3:P14 Q3:U3 R4:U12 R17:T30 V6:V30 R13:T14 U13:U30 P17:P31 R31:V31">
+    <cfRule type="expression" dxfId="25" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22">
-    <cfRule type="expression" dxfId="14" priority="28">
+    <cfRule type="expression" dxfId="24" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C24">
-    <cfRule type="expression" dxfId="13" priority="27">
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule type="expression" dxfId="12" priority="26">
+    <cfRule type="expression" dxfId="22" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C28">
-    <cfRule type="expression" dxfId="11" priority="25">
+    <cfRule type="expression" dxfId="21" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O14 O17:O30">
-    <cfRule type="expression" dxfId="10" priority="20">
+  <conditionalFormatting sqref="O3:O14 O17:O31">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:Q12">
-    <cfRule type="expression" dxfId="9" priority="18">
+    <cfRule type="expression" dxfId="19" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q17:Q30">
-    <cfRule type="expression" dxfId="8" priority="17">
+  <conditionalFormatting sqref="Q17:Q31">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:M15 C16:F16 H16:M16">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="17" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:N16">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15:T16 P15:P16">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15:O16">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="14" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15:Q16">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Comparison table updated 3.xlsx
+++ b/Comparison table updated 3.xlsx
@@ -1099,343 +1099,339 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>CR P100x4 P8/10 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x4 P8/10 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SK TitanXx4 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>per year USD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Provider link</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://aws.amazon.com</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.softlayer.com/gpu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.nimbix.net/nimbix-cloud-demand-pricing/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.cirrascale.com/cloud/plans.aspx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.sakura.ad.jp/koukaryoku/specification/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Offer link</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22240</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22241</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22242</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec3/dedicated-hosts/pricing/</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec4/dedicated-hosts/pricing/</t>
+  </si>
+  <si>
+    <t>p2 dedicated host 1 year no Upfront</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>p2 dedicated host 1 year 100% Upfront</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>p2 dedicated host 3 years  100% Upfront</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NVIDIA Tesla K80 Dual Intel Xeon E5-2690 v3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NVIDIA Tesla M60 Dual Intel Xeon E5-2690 v3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GPU model</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPU model</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPUs</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Memory (GB)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HDD prim.Type</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HDD prim.GB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HDD sec.Type</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HDD sec.GB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Network</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Free Outbound Traffic = 1 GB/month. </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Free Outbound Traffic = 1 GB/month.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Free Outbound Traffic = 1 GB/month. </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPU performance (TFlops)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GPU performance (TFlops singl.prec.)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>POWER8?</t>
+  </si>
+  <si>
+    <t>NGD4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>K40</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x 2496</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x 12.3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NM K40x2 h.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P100</t>
+  </si>
+  <si>
+    <t>POWER8</t>
+  </si>
+  <si>
+    <t>2-GPU POWER8/8 SERVER</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2630 v3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NVIDIA Tesla K80 Dual Intel Xeon E5-2620 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Outbound Traffic limited to 500GB.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Outbound Traffic limited to 500GB.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Outbound Traffic limited to 500GB.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SL K80x1 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SL K80x1 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SL M60x1 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SL K80x1 x86 h.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>CR K80x8 x86 m.</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>CR P100x4 P8/10 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x4 P8/10 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SK TitanXx4 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>per year USD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Provider link</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://aws.amazon.com</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.softlayer.com/gpu</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://www.nimbix.net/nimbix-cloud-demand-pricing/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.cirrascale.com/cloud/plans.aspx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://www.sakura.ad.jp/koukaryoku/specification/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Offer link</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22240</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22241</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22242</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec3/dedicated-hosts/pricing/</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec4/dedicated-hosts/pricing/</t>
-  </si>
-  <si>
-    <t>p2 dedicated host 1 year no Upfront</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>p2 dedicated host 1 year 100% Upfront</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>p2 dedicated host 3 years  100% Upfront</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NVIDIA Tesla K80 Dual Intel Xeon E5-2690 v3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NVIDIA Tesla M60 Dual Intel Xeon E5-2690 v3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GPU model</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CPU model</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CPUs</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Memory (GB)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HDD prim.Type</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HDD prim.GB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HDD sec.Type</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HDD sec.GB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Network</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Notes</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Free Outbound Traffic = 1 GB/month. </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Free Outbound Traffic = 1 GB/month.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Free Outbound Traffic = 1 GB/month. </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CPU performance (TFlops)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GPU performance (TFlops singl.prec.)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>POWER8?</t>
-  </si>
-  <si>
-    <t>NGD4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>K40</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x 2496</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x 12.3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NM K40x2 h.</t>
+    <t>CR M40x8 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CRM40x8 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P40x8 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P40x8 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x8 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x8 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x4 P8/8 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x4 P8/8 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x2 P8/8 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x2 P8/8 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NVIDIA TITAN X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tesla P40 model</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tesla P100 model</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>P100</t>
-  </si>
-  <si>
-    <t>POWER8</t>
-  </si>
-  <si>
-    <t>2-GPU POWER8/8 SERVER</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2630 v3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>W</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>K</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Q</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Z</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NVIDIA Tesla K80 Dual Intel Xeon E5-2620 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Outbound Traffic limited to 500GB.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Outbound Traffic limited to 500GB.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Outbound Traffic limited to 500GB.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SL K80x1 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SL K80x1 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SL M60x1 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SL K80x1 x86 h.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR K80x8 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR M40x8 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CRM40x8 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P40x8 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P40x8 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x8 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x8 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x4 P8/8 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x4 P8/8 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x2 P8/8 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x2 P8/8 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NVIDIA TITAN X</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Tesla P40 model</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Tesla P100 model</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>P100</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1448,6 +1444,10 @@
   </si>
   <si>
     <t>SK P100x1 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR K80x8 x86 w.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3205,7 +3205,7 @@
     <cellStyle name="Style 1" xfId="55"/>
     <cellStyle name="Title" xfId="340" builtinId="15" hidden="1"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="27">
     <dxf>
       <font>
         <color auto="1"/>
@@ -3214,105 +3214,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEAF2F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEAF2F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEAF2F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEAF2F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEAF2F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEAF2F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEAF2F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEAF2F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEAF2F7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3554,7 +3455,29 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4169,7 +4092,7 @@
         <v>24</v>
       </c>
       <c r="Y4" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Z4" s="18"/>
       <c r="AA4" s="18" t="s">
@@ -4243,7 +4166,7 @@
       </c>
       <c r="Y5" s="10"/>
       <c r="Z5" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA5" s="26">
         <f>X5/(D5*F5)</f>
@@ -4319,7 +4242,7 @@
       </c>
       <c r="Y6" s="10"/>
       <c r="Z6" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AA6" s="26">
         <f t="shared" ref="AA6:AA15" si="2">X6/(D6*F6)</f>
@@ -4392,7 +4315,7 @@
       </c>
       <c r="Y7" s="10"/>
       <c r="Z7" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AA7" s="26">
         <f t="shared" si="2"/>
@@ -4483,7 +4406,7 @@
     <row r="9" spans="1:155">
       <c r="A9" s="16"/>
       <c r="B9" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>17</v>
@@ -4555,7 +4478,7 @@
     <row r="10" spans="1:155">
       <c r="A10" s="16"/>
       <c r="B10" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>17</v>
@@ -4627,7 +4550,7 @@
     <row r="11" spans="1:155">
       <c r="A11" s="16"/>
       <c r="B11" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>17</v>
@@ -4732,7 +4655,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>30</v>
@@ -4798,7 +4721,7 @@
       </c>
       <c r="Y13" s="10"/>
       <c r="Z13" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AA13" s="26">
         <f>X13/(D13*F13)</f>
@@ -4818,7 +4741,7 @@
         <v>122</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>55</v>
@@ -4881,7 +4804,7 @@
       </c>
       <c r="Y14" s="26"/>
       <c r="Z14" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA14" s="26">
         <f t="shared" si="2"/>
@@ -4899,7 +4822,7 @@
     <row r="15" spans="1:155">
       <c r="A15" s="16"/>
       <c r="B15" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>84</v>
@@ -4962,7 +4885,7 @@
       </c>
       <c r="Y15" s="26"/>
       <c r="Z15" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AA15" s="26">
         <f t="shared" si="2"/>
@@ -5021,7 +4944,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F17" s="9">
         <v>8.74</v>
@@ -5030,7 +4953,7 @@
         <v>2.91</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>22</v>
@@ -5085,10 +5008,10 @@
     <row r="18" spans="1:155" s="13" customFormat="1" ht="20">
       <c r="A18" s="40"/>
       <c r="B18" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>169</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>170</v>
       </c>
       <c r="D18" s="29">
         <v>2</v>
@@ -5110,7 +5033,7 @@
       </c>
       <c r="J18" s="30"/>
       <c r="K18" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L18" s="29">
         <v>2</v>
@@ -5709,7 +5632,7 @@
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L26" s="5">
         <v>2</v>
@@ -5929,10 +5852,10 @@
     <row r="29" spans="1:155" s="13" customFormat="1">
       <c r="A29" s="48"/>
       <c r="B29" s="49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D29" s="51">
         <v>2</v>
@@ -5956,7 +5879,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L29" s="5">
         <v>2</v>
@@ -6167,7 +6090,7 @@
         <v>52</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -6251,7 +6174,7 @@
         <v>68</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C32" s="31" t="s">
         <v>112</v>
@@ -6335,10 +6258,10 @@
     </row>
     <row r="33" spans="2:29">
       <c r="B33" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="C33" t="s">
         <v>215</v>
-      </c>
-      <c r="C33" t="s">
-        <v>216</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -6399,7 +6322,7 @@
         <v>1588.7</v>
       </c>
       <c r="Z33" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AA33" s="26">
         <f>X33/(D33*F33)</f>
@@ -6495,7 +6418,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:W13 Z13:XFD13 EZ18:XFD18 AA18:AC18 A19:XFD25 EZ29:XFD29 V29 V28:XFD28 S28:U29 R28 Q28:Q29 P28 O28:O29 N28 L26:M29 N26:XFD27 A26:K28 A5:XFD12 A14:XFD17 A30:XFD32 Z33:AC33 V33">
-    <cfRule type="expression" dxfId="33" priority="17">
+    <cfRule type="expression" dxfId="26" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6560,7 +6483,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13">
-    <cfRule type="expression" dxfId="32" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6589,17 +6512,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:U33">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X33">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6620,10 +6543,10 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -6655,56 +6578,56 @@
       <c r="A1" s="59"/>
       <c r="B1" s="59"/>
       <c r="C1" s="60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D1" s="59"/>
       <c r="E1" s="59"/>
       <c r="F1" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="60" t="s">
-        <v>181</v>
-      </c>
       <c r="H1" s="60" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I1" s="60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
       <c r="L1" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="M1" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="N1" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="O1" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="O1" s="60" t="s">
+      <c r="P1" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="P1" s="60" t="s">
+      <c r="Q1" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="Q1" s="60" t="s">
+      <c r="R1" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="R1" s="60" t="s">
+      <c r="S1" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="S1" s="60" t="s">
+      <c r="T1" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="T1" s="60" t="s">
+      <c r="U1" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="U1" s="60" t="s">
+      <c r="V1" s="60" t="s">
         <v>191</v>
-      </c>
-      <c r="V1" s="60" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="12" customFormat="1" ht="21" thickBot="1">
@@ -6712,13 +6635,13 @@
         <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>121</v>
@@ -6736,43 +6659,43 @@
         <v>108</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="L2" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M2" s="33" t="s">
         <v>120</v>
       </c>
       <c r="N2" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="P2" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="Q2" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="R2" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="S2" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="S2" s="36" t="s">
+      <c r="T2" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="T2" s="36" t="s">
+      <c r="U2" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="U2" s="36" t="s">
+      <c r="V2" s="36" t="s">
         <v>161</v>
-      </c>
-      <c r="V2" s="36" t="s">
-        <v>162</v>
       </c>
       <c r="W2" s="13"/>
       <c r="X2" s="13"/>
@@ -6782,14 +6705,14 @@
         <v>29</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
         <v>p2.16xlarge on-demand</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>126</v>
@@ -6868,7 +6791,7 @@
         <v>p2.8xlarge on-demand</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>127</v>
@@ -6947,7 +6870,7 @@
         <v>p2.xlarge on-demand</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>128</v>
@@ -7026,7 +6949,7 @@
         <v>p2 dedicated host On-demand</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>123</v>
@@ -7105,7 +7028,7 @@
         <v>p2 dedicated host 1 year no Upfront</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>124</v>
@@ -7181,7 +7104,7 @@
         <v>p2 dedicated host 1 year 100% Upfront</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>125</v>
@@ -7255,7 +7178,7 @@
         <v>Softlayer</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) &amp; " monthly"</f>
@@ -7263,7 +7186,7 @@
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -7337,7 +7260,7 @@
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F10" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
@@ -7411,7 +7334,7 @@
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -7485,7 +7408,7 @@
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -7556,7 +7479,7 @@
         <v>Nimbix</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" s="24" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -7636,7 +7559,7 @@
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F14" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
@@ -7702,7 +7625,7 @@
         <v>Cirrascale</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C15" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp; " monthly"</f>
@@ -7710,7 +7633,7 @@
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -7785,7 +7708,7 @@
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24" t="s">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21">
@@ -7860,7 +7783,7 @@
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -7935,7 +7858,7 @@
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21">
@@ -8010,7 +7933,7 @@
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -8085,7 +8008,7 @@
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21">
@@ -8160,7 +8083,7 @@
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -8235,7 +8158,7 @@
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21">
@@ -8310,7 +8233,7 @@
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -8385,7 +8308,7 @@
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21">
@@ -8460,7 +8383,7 @@
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
@@ -8535,7 +8458,7 @@
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21">
@@ -8610,7 +8533,7 @@
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -8685,7 +8608,7 @@
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21">
@@ -8757,7 +8680,7 @@
         <v>Sakura</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C29" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
@@ -8765,7 +8688,7 @@
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -8840,7 +8763,7 @@
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
@@ -8913,7 +8836,7 @@
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
@@ -8992,112 +8915,112 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="I22 D24 I24 I26 D28 I28 D21:I21 D22:G22 F24:G24 D26:G26 F28:G28 C29:I30 H21:H30 C3:M14 Q13:Q14 J17:M30 C17:I20 C31:M31">
-    <cfRule type="expression" dxfId="31" priority="79">
+    <cfRule type="expression" dxfId="21" priority="79">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23 I23 F23:G23">
-    <cfRule type="expression" dxfId="30" priority="77">
+    <cfRule type="expression" dxfId="20" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:G25 I25">
-    <cfRule type="expression" dxfId="29" priority="76">
+    <cfRule type="expression" dxfId="19" priority="76">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:G27 I27">
-    <cfRule type="expression" dxfId="28" priority="75">
+    <cfRule type="expression" dxfId="18" priority="75">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="27" priority="66">
+    <cfRule type="expression" dxfId="17" priority="66">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N14 N17:N31">
-    <cfRule type="expression" dxfId="26" priority="21">
+    <cfRule type="expression" dxfId="16" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P14 Q3:U3 R4:U12 R17:T30 V6:V30 R13:T14 U13:U30 P17:P31 R31:V31">
-    <cfRule type="expression" dxfId="25" priority="19">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22">
-    <cfRule type="expression" dxfId="24" priority="28">
+    <cfRule type="expression" dxfId="14" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C24">
-    <cfRule type="expression" dxfId="23" priority="27">
+    <cfRule type="expression" dxfId="13" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule type="expression" dxfId="22" priority="26">
+    <cfRule type="expression" dxfId="12" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C28">
-    <cfRule type="expression" dxfId="21" priority="25">
+    <cfRule type="expression" dxfId="11" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O14 O17:O31">
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:Q12">
-    <cfRule type="expression" dxfId="19" priority="18">
+    <cfRule type="expression" dxfId="9" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17:Q31">
-    <cfRule type="expression" dxfId="18" priority="17">
+    <cfRule type="expression" dxfId="8" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:M15 C16:F16 H16:M16">
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:N16">
-    <cfRule type="expression" dxfId="16" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15:T16 P15:P16">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15:O16">
-    <cfRule type="expression" dxfId="14" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15:Q16">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Comparison table updated 3.xlsx
+++ b/Comparison table updated 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="48920" windowHeight="16360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="48920" windowHeight="16860" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X10" authorId="0">
+    <comment ref="Y10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X11" authorId="0">
+    <comment ref="Y11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -318,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K17" authorId="0">
+    <comment ref="K18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N17" authorId="0">
+    <comment ref="N18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -394,81 +394,12 @@
             <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
-S822LC for HPC server</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K27" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>Peter Bryzgalov:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-S822LC for HPC server</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N27" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">Peter Bryzgalov:
-http://excel.fit.vutbr.cz/submissions/2016/056/56.pdf
-See Table1.
+S822LC for HPC server. Page 5 of http://www-01.ibm.com/common/ssi/cgi-bin/ssialias?htmlfid=POB03046USEN
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="K28" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>Peter Bryzgalov:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-S822LC for HPC server</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N28" authorId="0">
+    <comment ref="N19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -495,7 +426,156 @@
         </r>
       </text>
     </comment>
-    <comment ref="X31" authorId="0">
+    <comment ref="K20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Peter Bryzgalov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+S822LC for HPC server</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Peter Bryzgalov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+S822LC for HPC server</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Peter Bryzgalov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+S822LC for HPC server</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">Peter Bryzgalov:
+http://excel.fit.vutbr.cz/submissions/2016/056/56.pdf
+See Table1.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Peter Bryzgalov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+S822LC for HPC server</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Peter Bryzgalov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+Derived from 0.548 Tfolps performance of 10 core POWER8:
+0.548 / 10 * 8 = 0.4384</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -523,7 +603,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X32" authorId="0">
+    <comment ref="Y34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -553,7 +633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X33" authorId="0">
+    <comment ref="Y35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -588,7 +668,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="227">
   <si>
     <t>Cloud server providers with GPU</t>
     <phoneticPr fontId="2"/>
@@ -879,10 +959,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Xeon E5-2623 v3</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1095,10 +1171,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>NM K80x2 h.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>CR P100x4 P8/10 m.</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1261,25 +1333,209 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>P100</t>
+  </si>
+  <si>
+    <t>POWER8</t>
+  </si>
+  <si>
+    <t>2-GPU POWER8/8 SERVER</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2630 v3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NVIDIA Tesla K80 Dual Intel Xeon E5-2620 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Outbound Traffic limited to 500GB.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Outbound Traffic limited to 500GB.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Outbound Traffic limited to 500GB.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SL K80x1 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SL K80x1 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SL M60x1 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SL K80x1 x86 h.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR K80x8 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR M40x8 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CRM40x8 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P40x8 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P40x8 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x8 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x8 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x4 P8/8 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x4 P8/8 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x2 P8/8 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x2 P8/8 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NVIDIA TITAN X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tesla P40 model</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tesla P100 model</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SK P40x1 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Price includes one-time costs devided by 12 months.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SK P100x1 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR K80x8 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NP8G1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NGQ7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NP8G4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M40</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Interconnect GB/s</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>NM K40x2 h.</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>P100</t>
-  </si>
-  <si>
-    <t>POWER8</t>
-  </si>
-  <si>
-    <t>2-GPU POWER8/8 SERVER</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2630 v3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>NM K80x4 h.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NM M40x4 h.</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1287,167 +1543,19 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>V</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>W</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>K</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Q</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Z</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NVIDIA Tesla K80 Dual Intel Xeon E5-2620 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Outbound Traffic limited to 500GB.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Outbound Traffic limited to 500GB.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Outbound Traffic limited to 500GB.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SL K80x1 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SL K80x1 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SL M60x1 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SL K80x1 x86 h.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR K80x8 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR M40x8 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CRM40x8 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P40x8 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P40x8 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x8 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x8 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x4 P8/8 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x4 P8/8 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x2 P8/8 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x2 P8/8 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NVIDIA TITAN X</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Tesla P40 model</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Tesla P100 model</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>P100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SK P40x1 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Price includes one-time costs devided by 12 months.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SK P100x1 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR K80x8 x86 w.</t>
+    <t>N</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>F</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1845,7 +1953,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="609">
+  <cellStyleXfs count="616">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2463,8 +2571,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -2575,6 +2690,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="62" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="120" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2594,7 +2715,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="609">
+  <cellStyles count="616">
     <cellStyle name="Calculation" xfId="343" builtinId="22" hidden="1"/>
     <cellStyle name="Check Cell" xfId="345" builtinId="23" hidden="1"/>
     <cellStyle name="comment" xfId="120"/>
@@ -2910,6 +3031,13 @@
     <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="607" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="609" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="611" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="613" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="615" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 1 2" xfId="62"/>
     <cellStyle name="Heading 2" xfId="263" builtinId="17" customBuiltin="1"/>
@@ -3205,7 +3333,7 @@
     <cellStyle name="Style 1" xfId="55"/>
     <cellStyle name="Title" xfId="340" builtinId="15" hidden="1"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="32">
     <dxf>
       <font>
         <color auto="1"/>
@@ -3445,6 +3573,61 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3798,13 +3981,13 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EY33"/>
+  <dimension ref="A1:EZ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="K18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Z34" sqref="Z34"/>
+      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -3829,73 +4012,74 @@
     <col min="18" max="18" width="9.83203125" customWidth="1"/>
     <col min="19" max="19" width="15.83203125" customWidth="1"/>
     <col min="20" max="20" width="9.83203125" customWidth="1"/>
-    <col min="21" max="21" width="12.1640625" customWidth="1"/>
-    <col min="22" max="22" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.83203125" style="13" customWidth="1"/>
-    <col min="24" max="24" width="20.83203125" customWidth="1"/>
-    <col min="25" max="25" width="20.83203125" style="13" customWidth="1"/>
-    <col min="26" max="26" width="28.1640625" customWidth="1"/>
-    <col min="27" max="27" width="22.1640625" customWidth="1"/>
-    <col min="28" max="28" width="28.1640625" customWidth="1"/>
-    <col min="29" max="29" width="21.5" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" style="13" customWidth="1"/>
+    <col min="22" max="22" width="11.83203125" customWidth="1"/>
+    <col min="23" max="23" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.83203125" style="13" customWidth="1"/>
+    <col min="25" max="25" width="20.83203125" customWidth="1"/>
+    <col min="26" max="26" width="20.83203125" style="13" customWidth="1"/>
+    <col min="27" max="27" width="28.1640625" customWidth="1"/>
+    <col min="28" max="28" width="22.1640625" customWidth="1"/>
+    <col min="29" max="29" width="28.1640625" customWidth="1"/>
+    <col min="30" max="30" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:155" s="4" customFormat="1" ht="26">
+    <row r="1" spans="1:156" s="4" customFormat="1" ht="26">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:155" s="6" customFormat="1" ht="46" customHeight="1" thickBot="1">
+    <row r="3" spans="1:156" s="6" customFormat="1" ht="46" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="25"/>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
       <c r="P3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="62" t="s">
+      <c r="Q3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="1" t="s">
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="62" t="s">
+      <c r="V3" s="64"/>
+      <c r="W3" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="1" t="s">
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AD3"/>
       <c r="AE3"/>
       <c r="AF3"/>
       <c r="AG3"/>
@@ -4021,8 +4205,9 @@
       <c r="EW3"/>
       <c r="EX3"/>
       <c r="EY3"/>
+      <c r="EZ3"/>
     </row>
-    <row r="4" spans="1:155" s="13" customFormat="1" ht="42" customHeight="1" thickTop="1" thickBot="1">
+    <row r="4" spans="1:156" s="13" customFormat="1" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18" t="s">
@@ -4047,7 +4232,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K4" s="18" t="s">
         <v>4</v>
@@ -4080,32 +4265,35 @@
         <v>9</v>
       </c>
       <c r="U4" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="V4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="W4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="X4" s="18" t="s">
+      <c r="X4" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18" t="s">
+      <c r="Z4" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AB4" s="18" t="s">
+      <c r="AC4" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="AC4" s="18" t="s">
+      <c r="AD4" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:155" s="13" customFormat="1" ht="21" thickTop="1">
+    <row r="5" spans="1:156" s="13" customFormat="1" ht="21" thickTop="1">
       <c r="A5" s="23" t="s">
         <v>29</v>
       </c>
@@ -4135,7 +4323,7 @@
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L5" s="14">
         <v>64</v>
@@ -4156,34 +4344,35 @@
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
-      <c r="V5" s="26">
+      <c r="V5" s="14"/>
+      <c r="W5" s="26">
         <v>14.4</v>
       </c>
-      <c r="W5" s="26"/>
-      <c r="X5" s="10">
-        <f>V5*720</f>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="10">
+        <f>W5*720</f>
         <v>10368</v>
       </c>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA5" s="26">
-        <f>X5/(D5*F5)</f>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB5" s="26">
+        <f>Y5/(D5*F5)</f>
         <v>74.141876430205954</v>
       </c>
-      <c r="AB5" s="14">
-        <f t="shared" ref="AB5:AB11" si="0">D5*F5*1000/X5</f>
+      <c r="AC5" s="14">
+        <f t="shared" ref="AC5:AC11" si="0">D5*F5*1000/Y5</f>
         <v>13.487654320987655</v>
       </c>
-      <c r="AC5" s="26">
-        <f t="shared" ref="AC5:AC11" si="1">X5/(L5*N5)</f>
+      <c r="AD5" s="26">
+        <f t="shared" ref="AD5:AD11" si="1">Y5/(L5*N5)</f>
         <v>14580</v>
       </c>
     </row>
-    <row r="6" spans="1:155">
+    <row r="6" spans="1:156">
       <c r="A6" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>49</v>
@@ -4232,32 +4421,33 @@
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
-      <c r="V6" s="26">
+      <c r="V6" s="5"/>
+      <c r="W6" s="26">
         <v>7.2</v>
       </c>
-      <c r="W6" s="26"/>
-      <c r="X6" s="10">
-        <f>V6*720</f>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="10">
+        <f>W6*720</f>
         <v>5184</v>
       </c>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA6" s="26">
-        <f t="shared" ref="AA6:AA15" si="2">X6/(D6*F6)</f>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB6" s="26">
+        <f t="shared" ref="AB6:AB15" si="2">Y6/(D6*F6)</f>
         <v>74.141876430205954</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AC6" s="5">
         <f t="shared" si="0"/>
         <v>13.487654320987655</v>
       </c>
-      <c r="AC6" s="26">
+      <c r="AD6" s="26">
         <f t="shared" si="1"/>
         <v>14580</v>
       </c>
     </row>
-    <row r="7" spans="1:155">
+    <row r="7" spans="1:156">
       <c r="B7" s="24" t="s">
         <v>50</v>
       </c>
@@ -4305,37 +4495,38 @@
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
-      <c r="V7" s="26">
+      <c r="V7" s="5"/>
+      <c r="W7" s="26">
         <v>0.9</v>
       </c>
-      <c r="W7" s="26"/>
-      <c r="X7" s="10">
-        <f>V7*720</f>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="10">
+        <f>W7*720</f>
         <v>648</v>
       </c>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA7" s="26">
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB7" s="26">
         <f t="shared" si="2"/>
         <v>74.141876430205954</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AC7" s="5">
         <f t="shared" si="0"/>
         <v>13.487654320987655</v>
       </c>
-      <c r="AC7" s="26">
+      <c r="AD7" s="26">
         <f t="shared" si="1"/>
         <v>14580</v>
       </c>
     </row>
-    <row r="8" spans="1:155">
+    <row r="8" spans="1:156">
       <c r="A8" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>98</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>99</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>25</v>
@@ -4378,35 +4569,36 @@
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
-      <c r="V8" s="26">
+      <c r="V8" s="5"/>
+      <c r="W8" s="26">
         <v>15.84</v>
       </c>
-      <c r="W8" s="26"/>
-      <c r="X8" s="10">
-        <f>V8*720</f>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="10">
+        <f>W8*720</f>
         <v>11404.8</v>
       </c>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA8" s="26">
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB8" s="26">
         <f t="shared" si="2"/>
         <v>81.556064073226537</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AC8" s="5">
         <f t="shared" si="0"/>
         <v>12.261503928170596</v>
       </c>
-      <c r="AC8" s="26">
+      <c r="AD8" s="26">
         <f t="shared" si="1"/>
         <v>14255.999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:155">
+    <row r="9" spans="1:156">
       <c r="A9" s="16"/>
       <c r="B9" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>17</v>
@@ -4449,36 +4641,37 @@
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
-      <c r="V9" s="10" t="str">
-        <f>USDOLLAR(X9/730,2)&amp;"?"</f>
+      <c r="V9" s="5"/>
+      <c r="W9" s="10" t="str">
+        <f>USDOLLAR(Y9/730,2)&amp;"?"</f>
         <v>$12.05?</v>
       </c>
-      <c r="W9" s="26"/>
-      <c r="X9" s="10">
+      <c r="X9" s="26"/>
+      <c r="Y9" s="10">
         <v>8793.81</v>
       </c>
-      <c r="Y9" s="26">
-        <f>$X9*12</f>
+      <c r="Z9" s="26">
+        <f>$Y9*12</f>
         <v>105525.72</v>
       </c>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="26">
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="26">
         <f t="shared" si="2"/>
         <v>62.884796910755142</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AC9" s="5">
         <f t="shared" si="0"/>
         <v>15.902094768934058</v>
       </c>
-      <c r="AC9" s="26">
+      <c r="AD9" s="26">
         <f t="shared" si="1"/>
         <v>10992.262499999999</v>
       </c>
     </row>
-    <row r="10" spans="1:155">
+    <row r="10" spans="1:156">
       <c r="A10" s="16"/>
       <c r="B10" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>17</v>
@@ -4487,7 +4680,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="5">
         <v>8.74</v>
@@ -4496,10 +4689,10 @@
         <v>2.91</v>
       </c>
       <c r="H10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="5" t="s">
@@ -4521,36 +4714,37 @@
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
-      <c r="V10" s="10" t="str">
-        <f>USDOLLAR(X10/730,2)&amp;"?"</f>
+      <c r="V10" s="5"/>
+      <c r="W10" s="10" t="str">
+        <f>USDOLLAR(Y10/730,2)&amp;"?"</f>
         <v>$10.09?</v>
       </c>
-      <c r="W10" s="26"/>
-      <c r="X10" s="10">
+      <c r="X10" s="26"/>
+      <c r="Y10" s="10">
         <v>7365.75</v>
       </c>
-      <c r="Y10" s="26">
-        <f>$X10*12</f>
+      <c r="Z10" s="26">
+        <f>$Y10*12</f>
         <v>88389</v>
       </c>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="26">
-        <f>X10/(D10*F10)</f>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="26">
+        <f>Y10/(D10*F10)</f>
         <v>52.672697368421055</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AC10" s="5">
         <f t="shared" si="0"/>
         <v>18.985167837626854</v>
       </c>
-      <c r="AC10" s="26">
+      <c r="AD10" s="26">
         <f t="shared" si="1"/>
         <v>9207.1875</v>
       </c>
     </row>
-    <row r="11" spans="1:155">
+    <row r="11" spans="1:156">
       <c r="A11" s="16"/>
       <c r="B11" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>17</v>
@@ -4559,7 +4753,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" s="5">
         <v>8.74</v>
@@ -4568,10 +4762,10 @@
         <v>2.91</v>
       </c>
       <c r="H11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="5" t="s">
@@ -4593,34 +4787,35 @@
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
-      <c r="V11" s="10" t="str">
-        <f>USDOLLAR(X11/730,2)&amp;"?"</f>
+      <c r="V11" s="5"/>
+      <c r="W11" s="10" t="str">
+        <f>USDOLLAR(Y11/730,2)&amp;"?"</f>
         <v>$7.03?</v>
       </c>
-      <c r="W11" s="26"/>
-      <c r="X11" s="10">
-        <f>Y11/12</f>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="10">
+        <f>Z11/12</f>
         <v>5132.7777777777783</v>
       </c>
-      <c r="Y11" s="26">
+      <c r="Z11" s="26">
         <f>184780/3</f>
         <v>61593.333333333336</v>
       </c>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="26">
-        <f>X11/(D11*F11)</f>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="26">
+        <f>Y11/(D11*F11)</f>
         <v>36.704646580218665</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AC11" s="5">
         <f t="shared" si="0"/>
         <v>27.244506981275027</v>
       </c>
-      <c r="AC11" s="26">
+      <c r="AD11" s="26">
         <f t="shared" si="1"/>
         <v>6415.9722222222226</v>
       </c>
     </row>
-    <row r="12" spans="1:155">
+    <row r="12" spans="1:156">
       <c r="B12" s="24"/>
       <c r="C12" s="31"/>
       <c r="D12" s="5"/>
@@ -4641,21 +4836,22 @@
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="26"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="20"/>
       <c r="X12" s="26"/>
       <c r="Y12" s="26"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="17"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="17"/>
     </row>
-    <row r="13" spans="1:155" ht="20">
+    <row r="13" spans="1:156" ht="20">
       <c r="A13" s="23" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>30</v>
@@ -4709,39 +4905,40 @@
       <c r="T13" s="5">
         <v>800</v>
       </c>
-      <c r="U13" s="5">
+      <c r="U13" s="5"/>
+      <c r="V13" s="5">
         <v>0.1</v>
       </c>
-      <c r="V13" s="26">
+      <c r="W13" s="26">
         <v>5.3</v>
       </c>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26">
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26">
         <v>2479</v>
       </c>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA13" s="26">
-        <f>X13/(D13*F13)</f>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB13" s="26">
+        <f>Y13/(D13*F13)</f>
         <v>283.63844393592677</v>
       </c>
-      <c r="AB13" s="32">
-        <f>D13*F13*1000/X13</f>
+      <c r="AC13" s="32">
+        <f>D13*F13*1000/Y13</f>
         <v>3.5256151674062122</v>
       </c>
-      <c r="AC13" s="26">
-        <f>X13/(L13*N13)</f>
+      <c r="AD13" s="26">
+        <f>Y13/(L13*N13)</f>
         <v>6197.5</v>
       </c>
     </row>
-    <row r="14" spans="1:155">
+    <row r="14" spans="1:156">
       <c r="A14" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>55</v>
@@ -4791,47 +4988,48 @@
       </c>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
-      <c r="U14" s="5">
+      <c r="U14" s="5"/>
+      <c r="V14" s="5">
         <v>10</v>
       </c>
-      <c r="V14" s="10" t="str">
-        <f>USDOLLAR(X14/730,2)&amp;"?"</f>
+      <c r="W14" s="10" t="str">
+        <f>USDOLLAR(Y14/730,2)&amp;"?"</f>
         <v>$2.09?</v>
       </c>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26">
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26">
         <v>1529</v>
       </c>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA14" s="26">
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB14" s="26">
         <f t="shared" si="2"/>
         <v>174.94279176201371</v>
       </c>
-      <c r="AB14" s="5">
-        <f>D14*F14*1000/X14</f>
+      <c r="AC14" s="5">
+        <f>D14*F14*1000/Y14</f>
         <v>5.7161543492478746</v>
       </c>
-      <c r="AC14" s="26">
-        <f>X14/(L14*N14)</f>
+      <c r="AD14" s="26">
+        <f>Y14/(L14*N14)</f>
         <v>2184.2857142857142</v>
       </c>
     </row>
-    <row r="15" spans="1:155">
+    <row r="15" spans="1:156">
       <c r="A15" s="16"/>
       <c r="B15" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="9">
         <v>9.65</v>
@@ -4840,14 +5038,14 @@
         <v>0.3</v>
       </c>
       <c r="H15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L15" s="5">
         <v>2</v>
@@ -4865,42 +5063,43 @@
         <v>64</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R15" s="5">
         <v>1000</v>
       </c>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="5">
+      <c r="U15" s="5"/>
+      <c r="V15" s="5">
         <v>10</v>
       </c>
-      <c r="V15" s="10" t="str">
-        <f>USDOLLAR(X15/730,2)&amp;"?"</f>
+      <c r="W15" s="10" t="str">
+        <f>USDOLLAR(Y15/730,2)&amp;"?"</f>
         <v>$2.57?</v>
       </c>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26">
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26">
         <v>1879</v>
       </c>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA15" s="26">
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB15" s="26">
         <f t="shared" si="2"/>
         <v>194.71502590673575</v>
       </c>
-      <c r="AB15" s="5">
-        <f>D15*F15*1000/X15</f>
+      <c r="AC15" s="5">
+        <f>D15*F15*1000/Y15</f>
         <v>5.1357104843001595</v>
       </c>
-      <c r="AC15" s="26">
-        <f>X15/(L15*N15)</f>
+      <c r="AD15" s="26">
+        <f>Y15/(L15*N15)</f>
         <v>2684.2857142857147</v>
       </c>
     </row>
-    <row r="16" spans="1:155">
+    <row r="16" spans="1:156">
       <c r="B16" s="24"/>
       <c r="C16" s="31"/>
       <c r="D16" s="5"/>
@@ -4921,318 +5120,207 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="26"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="20"/>
       <c r="X16" s="26"/>
       <c r="Y16" s="26"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="26"/>
     </row>
-    <row r="17" spans="1:155" ht="20">
+    <row r="17" spans="1:156" ht="20">
       <c r="A17" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="29">
+        <v>2</v>
+      </c>
+      <c r="E17" s="30">
+        <v>2880</v>
+      </c>
+      <c r="F17" s="29">
+        <v>5.04</v>
+      </c>
+      <c r="G17" s="29">
+        <v>1.68</v>
+      </c>
+      <c r="H17" s="30">
+        <v>12.3</v>
+      </c>
+      <c r="I17" s="30">
+        <v>288</v>
+      </c>
+      <c r="J17" s="30">
+        <v>1</v>
+      </c>
+      <c r="K17" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" s="29">
+        <v>2</v>
+      </c>
+      <c r="M17" s="29">
+        <v>8</v>
+      </c>
+      <c r="N17" s="30">
+        <v>0.43840000000000001</v>
+      </c>
+      <c r="O17" s="29">
+        <v>1333</v>
+      </c>
+      <c r="P17" s="29">
+        <v>128</v>
+      </c>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29">
+        <v>56</v>
+      </c>
+      <c r="W17" s="43">
+        <v>3.5</v>
+      </c>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="45">
+        <f>W17*720</f>
+        <v>2520</v>
+      </c>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB17" s="26">
+        <f>Y17/(D17*F17)</f>
+        <v>250</v>
+      </c>
+      <c r="AC17" s="5">
+        <f>D17*F17*1000/Y17</f>
+        <v>4</v>
+      </c>
+      <c r="AD17" s="26">
+        <f>Y17/(L17*N17)</f>
+        <v>2874.087591240876</v>
+      </c>
+    </row>
+    <row r="18" spans="1:156" s="13" customFormat="1" ht="20">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C18" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D18" s="5">
+        <v>4</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="9">
+        <v>8.74</v>
+      </c>
+      <c r="G18" s="9">
+        <v>2.91</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="30">
+        <v>1</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="5">
         <v>2</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="F17" s="9">
-        <v>8.74</v>
-      </c>
-      <c r="G17" s="9">
-        <v>2.91</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="11" t="s">
+      <c r="M18" s="5">
+        <v>8</v>
+      </c>
+      <c r="N18" s="14">
+        <v>0.43840000000000001</v>
+      </c>
+      <c r="O18" s="5">
+        <v>1333</v>
+      </c>
+      <c r="P18" s="5">
+        <v>128</v>
+      </c>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5">
+        <v>56</v>
+      </c>
+      <c r="W18" s="20">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="10">
+        <f>W18*720</f>
+        <v>3491.9999999999995</v>
+      </c>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB18" s="26">
+        <f>Y18/(D18*F18)</f>
+        <v>99.885583524027439</v>
+      </c>
+      <c r="AC18" s="5">
+        <f>D18*F18*1000/Y18</f>
+        <v>10.011454753722797</v>
+      </c>
+      <c r="AD18" s="26">
+        <f>Y18/(L18*N18)</f>
+        <v>3982.6642335766419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:156" s="13" customFormat="1" ht="20">
+      <c r="A19" s="40"/>
+      <c r="B19" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4</v>
+      </c>
+      <c r="E19" s="14">
+        <v>3072</v>
+      </c>
+      <c r="F19" s="5">
+        <v>6.8440000000000003</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.214</v>
+      </c>
+      <c r="H19" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="I19" s="7">
+        <v>288</v>
+      </c>
+      <c r="J19" s="30">
+        <v>1</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="L17" s="5">
-        <v>2</v>
-      </c>
-      <c r="M17" s="5">
-        <v>8</v>
-      </c>
-      <c r="N17" s="14">
-        <v>0.43840000000000001</v>
-      </c>
-      <c r="O17" s="5">
-        <v>1333</v>
-      </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="20">
-        <v>5</v>
-      </c>
-      <c r="W17" s="26"/>
-      <c r="X17" s="10">
-        <f>V17*720</f>
-        <v>3600</v>
-      </c>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA17" s="26">
-        <f>X17/(D17*F17)</f>
-        <v>205.94965675057207</v>
-      </c>
-      <c r="AB17" s="5">
-        <f>D17*F17*1000/X17</f>
-        <v>4.8555555555555552</v>
-      </c>
-      <c r="AC17" s="26">
-        <f>X17/(L17*N17)</f>
-        <v>4105.8394160583939</v>
-      </c>
-    </row>
-    <row r="18" spans="1:155" s="13" customFormat="1" ht="20">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18" s="29">
-        <v>2</v>
-      </c>
-      <c r="E18" s="30">
-        <v>2880</v>
-      </c>
-      <c r="F18" s="29">
-        <v>5.04</v>
-      </c>
-      <c r="G18" s="29">
-        <v>1.68</v>
-      </c>
-      <c r="H18" s="30">
-        <v>12.3</v>
-      </c>
-      <c r="I18" s="30">
-        <v>288</v>
-      </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="L18" s="29">
-        <v>2</v>
-      </c>
-      <c r="M18" s="29">
-        <v>8</v>
-      </c>
-      <c r="N18" s="30">
-        <v>0.43840000000000001</v>
-      </c>
-      <c r="O18" s="29">
-        <v>1333</v>
-      </c>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="43">
-        <v>3.5</v>
-      </c>
-      <c r="W18" s="44"/>
-      <c r="X18" s="45">
-        <f>V18*720</f>
-        <v>2520</v>
-      </c>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA18" s="26">
-        <f>X18/(D18*F18)</f>
-        <v>250</v>
-      </c>
-      <c r="AB18" s="5">
-        <f>D18*F18*1000/X18</f>
-        <v>4</v>
-      </c>
-      <c r="AC18" s="26">
-        <f>X18/(L18*N18)</f>
-        <v>2874.087591240876</v>
-      </c>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="47"/>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="47"/>
-      <c r="AJ18" s="47"/>
-      <c r="AK18" s="47"/>
-      <c r="AL18" s="47"/>
-      <c r="AM18" s="47"/>
-      <c r="AN18" s="47"/>
-      <c r="AO18" s="47"/>
-      <c r="AP18" s="47"/>
-      <c r="AQ18" s="47"/>
-      <c r="AR18" s="47"/>
-      <c r="AS18" s="47"/>
-      <c r="AT18" s="47"/>
-      <c r="AU18" s="47"/>
-      <c r="AV18" s="47"/>
-      <c r="AW18" s="47"/>
-      <c r="AX18" s="47"/>
-      <c r="AY18" s="47"/>
-      <c r="AZ18" s="47"/>
-      <c r="BA18" s="47"/>
-      <c r="BB18" s="47"/>
-      <c r="BC18" s="47"/>
-      <c r="BD18" s="47"/>
-      <c r="BE18" s="47"/>
-      <c r="BF18" s="47"/>
-      <c r="BG18" s="47"/>
-      <c r="BH18" s="47"/>
-      <c r="BI18" s="47"/>
-      <c r="BJ18" s="47"/>
-      <c r="BK18" s="47"/>
-      <c r="BL18" s="47"/>
-      <c r="BM18" s="47"/>
-      <c r="BN18" s="47"/>
-      <c r="BO18" s="47"/>
-      <c r="BP18" s="47"/>
-      <c r="BQ18" s="47"/>
-      <c r="BR18" s="47"/>
-      <c r="BS18" s="47"/>
-      <c r="BT18" s="47"/>
-      <c r="BU18" s="47"/>
-      <c r="BV18" s="47"/>
-      <c r="BW18" s="47"/>
-      <c r="BX18" s="47"/>
-      <c r="BY18" s="47"/>
-      <c r="BZ18" s="47"/>
-      <c r="CA18" s="47"/>
-      <c r="CB18" s="47"/>
-      <c r="CC18" s="47"/>
-      <c r="CD18" s="47"/>
-      <c r="CE18" s="47"/>
-      <c r="CF18" s="47"/>
-      <c r="CG18" s="47"/>
-      <c r="CH18" s="47"/>
-      <c r="CI18" s="47"/>
-      <c r="CJ18" s="47"/>
-      <c r="CK18" s="47"/>
-      <c r="CL18" s="47"/>
-      <c r="CM18" s="47"/>
-      <c r="CN18" s="47"/>
-      <c r="CO18" s="47"/>
-      <c r="CP18" s="47"/>
-      <c r="CQ18" s="47"/>
-      <c r="CR18" s="47"/>
-      <c r="CS18" s="47"/>
-      <c r="CT18" s="47"/>
-      <c r="CU18" s="47"/>
-      <c r="CV18" s="47"/>
-      <c r="CW18" s="47"/>
-      <c r="CX18" s="47"/>
-      <c r="CY18" s="47"/>
-      <c r="CZ18" s="47"/>
-      <c r="DA18" s="47"/>
-      <c r="DB18" s="47"/>
-      <c r="DC18" s="47"/>
-      <c r="DD18" s="47"/>
-      <c r="DE18" s="47"/>
-      <c r="DF18" s="47"/>
-      <c r="DG18" s="47"/>
-      <c r="DH18" s="47"/>
-      <c r="DI18" s="47"/>
-      <c r="DJ18" s="47"/>
-      <c r="DK18" s="47"/>
-      <c r="DL18" s="47"/>
-      <c r="DM18" s="47"/>
-      <c r="DN18" s="47"/>
-      <c r="DO18" s="47"/>
-      <c r="DP18" s="47"/>
-      <c r="DQ18" s="47"/>
-      <c r="DR18" s="47"/>
-      <c r="DS18" s="47"/>
-      <c r="DT18" s="47"/>
-      <c r="DU18" s="47"/>
-      <c r="DV18" s="47"/>
-      <c r="DW18" s="47"/>
-      <c r="DX18" s="47"/>
-      <c r="DY18" s="47"/>
-      <c r="DZ18" s="47"/>
-      <c r="EA18" s="47"/>
-      <c r="EB18" s="47"/>
-      <c r="EC18" s="47"/>
-      <c r="ED18" s="47"/>
-      <c r="EE18" s="47"/>
-      <c r="EF18" s="47"/>
-      <c r="EG18" s="47"/>
-      <c r="EH18" s="47"/>
-      <c r="EI18" s="47"/>
-      <c r="EJ18" s="47"/>
-      <c r="EK18" s="47"/>
-      <c r="EL18" s="47"/>
-      <c r="EM18" s="47"/>
-      <c r="EN18" s="47"/>
-      <c r="EO18" s="47"/>
-      <c r="EP18" s="47"/>
-      <c r="EQ18" s="47"/>
-      <c r="ER18" s="47"/>
-      <c r="ES18" s="47"/>
-      <c r="ET18" s="47"/>
-      <c r="EU18" s="47"/>
-      <c r="EV18" s="47"/>
-      <c r="EW18" s="47"/>
-      <c r="EX18" s="47"/>
-      <c r="EY18" s="47"/>
-    </row>
-    <row r="19" spans="1:155">
-      <c r="A19" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="14">
-        <v>3584</v>
-      </c>
-      <c r="F19" s="9">
-        <v>9.5</v>
-      </c>
-      <c r="G19" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="H19" s="5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I19" s="5">
-        <v>720</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="L19" s="5">
         <v>2</v>
@@ -5246,84 +5334,401 @@
       <c r="O19" s="5">
         <v>1333</v>
       </c>
-      <c r="P19" s="5"/>
+      <c r="P19" s="5">
+        <v>128</v>
+      </c>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="26"/>
+      <c r="U19" s="5">
+        <v>56</v>
+      </c>
+      <c r="W19" s="20">
+        <v>7.4</v>
+      </c>
       <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="26"/>
+      <c r="Y19" s="10">
+        <f>W19*720</f>
+        <v>5328</v>
+      </c>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB19" s="26">
+        <f>Y19/(D19*F19)</f>
+        <v>194.62302746931618</v>
+      </c>
+      <c r="AC19" s="5">
+        <f>D19*F19*1000/Y19</f>
+        <v>5.1381381381381379</v>
+      </c>
+      <c r="AD19" s="26">
+        <f>Y19/(L19*N19)</f>
+        <v>6076.6423357664235</v>
+      </c>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="47"/>
+      <c r="AH19" s="47"/>
+      <c r="AI19" s="47"/>
+      <c r="AJ19" s="47"/>
+      <c r="AK19" s="47"/>
+      <c r="AL19" s="47"/>
+      <c r="AM19" s="47"/>
+      <c r="AN19" s="47"/>
+      <c r="AO19" s="47"/>
+      <c r="AP19" s="47"/>
+      <c r="AQ19" s="47"/>
+      <c r="AR19" s="47"/>
+      <c r="AS19" s="47"/>
+      <c r="AT19" s="47"/>
+      <c r="AU19" s="47"/>
+      <c r="AV19" s="47"/>
+      <c r="AW19" s="47"/>
+      <c r="AX19" s="47"/>
+      <c r="AY19" s="47"/>
+      <c r="AZ19" s="47"/>
+      <c r="BA19" s="47"/>
+      <c r="BB19" s="47"/>
+      <c r="BC19" s="47"/>
+      <c r="BD19" s="47"/>
+      <c r="BE19" s="47"/>
+      <c r="BF19" s="47"/>
+      <c r="BG19" s="47"/>
+      <c r="BH19" s="47"/>
+      <c r="BI19" s="47"/>
+      <c r="BJ19" s="47"/>
+      <c r="BK19" s="47"/>
+      <c r="BL19" s="47"/>
+      <c r="BM19" s="47"/>
+      <c r="BN19" s="47"/>
+      <c r="BO19" s="47"/>
+      <c r="BP19" s="47"/>
+      <c r="BQ19" s="47"/>
+      <c r="BR19" s="47"/>
+      <c r="BS19" s="47"/>
+      <c r="BT19" s="47"/>
+      <c r="BU19" s="47"/>
+      <c r="BV19" s="47"/>
+      <c r="BW19" s="47"/>
+      <c r="BX19" s="47"/>
+      <c r="BY19" s="47"/>
+      <c r="BZ19" s="47"/>
+      <c r="CA19" s="47"/>
+      <c r="CB19" s="47"/>
+      <c r="CC19" s="47"/>
+      <c r="CD19" s="47"/>
+      <c r="CE19" s="47"/>
+      <c r="CF19" s="47"/>
+      <c r="CG19" s="47"/>
+      <c r="CH19" s="47"/>
+      <c r="CI19" s="47"/>
+      <c r="CJ19" s="47"/>
+      <c r="CK19" s="47"/>
+      <c r="CL19" s="47"/>
+      <c r="CM19" s="47"/>
+      <c r="CN19" s="47"/>
+      <c r="CO19" s="47"/>
+      <c r="CP19" s="47"/>
+      <c r="CQ19" s="47"/>
+      <c r="CR19" s="47"/>
+      <c r="CS19" s="47"/>
+      <c r="CT19" s="47"/>
+      <c r="CU19" s="47"/>
+      <c r="CV19" s="47"/>
+      <c r="CW19" s="47"/>
+      <c r="CX19" s="47"/>
+      <c r="CY19" s="47"/>
+      <c r="CZ19" s="47"/>
+      <c r="DA19" s="47"/>
+      <c r="DB19" s="47"/>
+      <c r="DC19" s="47"/>
+      <c r="DD19" s="47"/>
+      <c r="DE19" s="47"/>
+      <c r="DF19" s="47"/>
+      <c r="DG19" s="47"/>
+      <c r="DH19" s="47"/>
+      <c r="DI19" s="47"/>
+      <c r="DJ19" s="47"/>
+      <c r="DK19" s="47"/>
+      <c r="DL19" s="47"/>
+      <c r="DM19" s="47"/>
+      <c r="DN19" s="47"/>
+      <c r="DO19" s="47"/>
+      <c r="DP19" s="47"/>
+      <c r="DQ19" s="47"/>
+      <c r="DR19" s="47"/>
+      <c r="DS19" s="47"/>
+      <c r="DT19" s="47"/>
+      <c r="DU19" s="47"/>
+      <c r="DV19" s="47"/>
+      <c r="DW19" s="47"/>
+      <c r="DX19" s="47"/>
+      <c r="DY19" s="47"/>
+      <c r="DZ19" s="47"/>
+      <c r="EA19" s="47"/>
+      <c r="EB19" s="47"/>
+      <c r="EC19" s="47"/>
+      <c r="ED19" s="47"/>
+      <c r="EE19" s="47"/>
+      <c r="EF19" s="47"/>
+      <c r="EG19" s="47"/>
+      <c r="EH19" s="47"/>
+      <c r="EI19" s="47"/>
+      <c r="EJ19" s="47"/>
+      <c r="EK19" s="47"/>
+      <c r="EL19" s="47"/>
+      <c r="EM19" s="47"/>
+      <c r="EN19" s="47"/>
+      <c r="EO19" s="47"/>
+      <c r="EP19" s="47"/>
+      <c r="EQ19" s="47"/>
+      <c r="ER19" s="47"/>
+      <c r="ES19" s="47"/>
+      <c r="ET19" s="47"/>
+      <c r="EU19" s="47"/>
+      <c r="EV19" s="47"/>
+      <c r="EW19" s="47"/>
+      <c r="EX19" s="47"/>
+      <c r="EY19" s="47"/>
+      <c r="EZ19" s="47"/>
     </row>
-    <row r="20" spans="1:155">
-      <c r="A20" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="31"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="I20" s="5"/>
+    <row r="20" spans="1:156" s="13" customFormat="1" ht="20">
+      <c r="A20" s="40"/>
+      <c r="B20" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="14">
+        <v>3584</v>
+      </c>
+      <c r="F20" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="G20" s="9">
+        <v>4.7</v>
+      </c>
+      <c r="H20" s="5">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I20" s="5">
+        <v>720</v>
+      </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="N20" s="14"/>
       <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+      <c r="P20" s="5">
+        <v>128</v>
+      </c>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="26"/>
+      <c r="U20" s="5">
+        <v>56</v>
+      </c>
+      <c r="W20" s="20"/>
       <c r="X20" s="26"/>
       <c r="Y20" s="26"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="47"/>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="47"/>
+      <c r="AJ20" s="47"/>
+      <c r="AK20" s="47"/>
+      <c r="AL20" s="47"/>
+      <c r="AM20" s="47"/>
+      <c r="AN20" s="47"/>
+      <c r="AO20" s="47"/>
+      <c r="AP20" s="47"/>
+      <c r="AQ20" s="47"/>
+      <c r="AR20" s="47"/>
+      <c r="AS20" s="47"/>
+      <c r="AT20" s="47"/>
+      <c r="AU20" s="47"/>
+      <c r="AV20" s="47"/>
+      <c r="AW20" s="47"/>
+      <c r="AX20" s="47"/>
+      <c r="AY20" s="47"/>
+      <c r="AZ20" s="47"/>
+      <c r="BA20" s="47"/>
+      <c r="BB20" s="47"/>
+      <c r="BC20" s="47"/>
+      <c r="BD20" s="47"/>
+      <c r="BE20" s="47"/>
+      <c r="BF20" s="47"/>
+      <c r="BG20" s="47"/>
+      <c r="BH20" s="47"/>
+      <c r="BI20" s="47"/>
+      <c r="BJ20" s="47"/>
+      <c r="BK20" s="47"/>
+      <c r="BL20" s="47"/>
+      <c r="BM20" s="47"/>
+      <c r="BN20" s="47"/>
+      <c r="BO20" s="47"/>
+      <c r="BP20" s="47"/>
+      <c r="BQ20" s="47"/>
+      <c r="BR20" s="47"/>
+      <c r="BS20" s="47"/>
+      <c r="BT20" s="47"/>
+      <c r="BU20" s="47"/>
+      <c r="BV20" s="47"/>
+      <c r="BW20" s="47"/>
+      <c r="BX20" s="47"/>
+      <c r="BY20" s="47"/>
+      <c r="BZ20" s="47"/>
+      <c r="CA20" s="47"/>
+      <c r="CB20" s="47"/>
+      <c r="CC20" s="47"/>
+      <c r="CD20" s="47"/>
+      <c r="CE20" s="47"/>
+      <c r="CF20" s="47"/>
+      <c r="CG20" s="47"/>
+      <c r="CH20" s="47"/>
+      <c r="CI20" s="47"/>
+      <c r="CJ20" s="47"/>
+      <c r="CK20" s="47"/>
+      <c r="CL20" s="47"/>
+      <c r="CM20" s="47"/>
+      <c r="CN20" s="47"/>
+      <c r="CO20" s="47"/>
+      <c r="CP20" s="47"/>
+      <c r="CQ20" s="47"/>
+      <c r="CR20" s="47"/>
+      <c r="CS20" s="47"/>
+      <c r="CT20" s="47"/>
+      <c r="CU20" s="47"/>
+      <c r="CV20" s="47"/>
+      <c r="CW20" s="47"/>
+      <c r="CX20" s="47"/>
+      <c r="CY20" s="47"/>
+      <c r="CZ20" s="47"/>
+      <c r="DA20" s="47"/>
+      <c r="DB20" s="47"/>
+      <c r="DC20" s="47"/>
+      <c r="DD20" s="47"/>
+      <c r="DE20" s="47"/>
+      <c r="DF20" s="47"/>
+      <c r="DG20" s="47"/>
+      <c r="DH20" s="47"/>
+      <c r="DI20" s="47"/>
+      <c r="DJ20" s="47"/>
+      <c r="DK20" s="47"/>
+      <c r="DL20" s="47"/>
+      <c r="DM20" s="47"/>
+      <c r="DN20" s="47"/>
+      <c r="DO20" s="47"/>
+      <c r="DP20" s="47"/>
+      <c r="DQ20" s="47"/>
+      <c r="DR20" s="47"/>
+      <c r="DS20" s="47"/>
+      <c r="DT20" s="47"/>
+      <c r="DU20" s="47"/>
+      <c r="DV20" s="47"/>
+      <c r="DW20" s="47"/>
+      <c r="DX20" s="47"/>
+      <c r="DY20" s="47"/>
+      <c r="DZ20" s="47"/>
+      <c r="EA20" s="47"/>
+      <c r="EB20" s="47"/>
+      <c r="EC20" s="47"/>
+      <c r="ED20" s="47"/>
+      <c r="EE20" s="47"/>
+      <c r="EF20" s="47"/>
+      <c r="EG20" s="47"/>
+      <c r="EH20" s="47"/>
+      <c r="EI20" s="47"/>
+      <c r="EJ20" s="47"/>
+      <c r="EK20" s="47"/>
+      <c r="EL20" s="47"/>
+      <c r="EM20" s="47"/>
+      <c r="EN20" s="47"/>
+      <c r="EO20" s="47"/>
+      <c r="EP20" s="47"/>
+      <c r="EQ20" s="47"/>
+      <c r="ER20" s="47"/>
+      <c r="ES20" s="47"/>
+      <c r="ET20" s="47"/>
+      <c r="EU20" s="47"/>
+      <c r="EV20" s="47"/>
+      <c r="EW20" s="47"/>
+      <c r="EX20" s="47"/>
+      <c r="EY20" s="47"/>
+      <c r="EZ20" s="47"/>
     </row>
-    <row r="21" spans="1:155">
+    <row r="21" spans="1:156">
       <c r="A21" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="31"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="I21" s="5"/>
+        <v>105</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="5">
+        <v>4</v>
+      </c>
+      <c r="E21" s="14">
+        <v>3584</v>
+      </c>
+      <c r="F21" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="G21" s="9">
+        <v>4.7</v>
+      </c>
+      <c r="H21" s="5">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I21" s="5">
+        <v>720</v>
+      </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="N21" s="14"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
+      <c r="P21" s="5">
+        <v>512</v>
+      </c>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="26"/>
+      <c r="U21" s="5">
+        <v>56</v>
+      </c>
+      <c r="W21" s="20"/>
       <c r="X21" s="26"/>
       <c r="Y21" s="26"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="26"/>
     </row>
-    <row r="22" spans="1:155">
+    <row r="22" spans="1:156">
+      <c r="A22" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="B22" s="24"/>
       <c r="C22" s="31"/>
       <c r="E22" s="14"/>
@@ -5341,948 +5746,849 @@
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="26"/>
+      <c r="U22" s="5">
+        <v>56</v>
+      </c>
+      <c r="W22" s="20"/>
       <c r="X22" s="26"/>
       <c r="Y22" s="26"/>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="26"/>
     </row>
-    <row r="23" spans="1:155" ht="20">
-      <c r="A23" s="23" t="s">
+    <row r="23" spans="1:156">
+      <c r="A23" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="31"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="26"/>
+    </row>
+    <row r="24" spans="1:156">
+      <c r="B24" s="24"/>
+      <c r="C24" s="31"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="26"/>
+    </row>
+    <row r="25" spans="1:156" ht="20">
+      <c r="A25" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="31" t="s">
+      <c r="B25" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D23">
+      <c r="D25">
         <v>8</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E25" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F25" s="9">
         <v>8.74</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G25" s="9">
         <v>2.91</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8" t="s">
+      <c r="J25" s="7"/>
+      <c r="K25" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L25" s="5">
         <v>2</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M25" s="5">
         <v>8</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N25" s="14">
         <v>0.3</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O25" s="5">
         <v>1866</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P25" s="5">
         <v>512</v>
       </c>
-      <c r="Q23" s="5" t="s">
+      <c r="Q25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="R23" s="14">
+      <c r="R25" s="14">
         <v>1000</v>
       </c>
-      <c r="S23" t="s">
+      <c r="S25" t="s">
         <v>42</v>
       </c>
-      <c r="T23" s="14">
+      <c r="T25" s="14">
         <v>4000</v>
       </c>
-      <c r="U23" s="5"/>
-      <c r="V23" s="10" t="str">
-        <f t="shared" ref="V23:V29" si="3">USDOLLAR(X23/730,2)&amp;"?"</f>
+      <c r="U25" s="14"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="10" t="str">
+        <f t="shared" ref="W25:W31" si="3">USDOLLAR(Y25/730,2)&amp;"?"</f>
         <v>$10.27?</v>
       </c>
-      <c r="W23" s="26">
+      <c r="X25" s="26">
         <v>2649</v>
       </c>
-      <c r="X23" s="26">
+      <c r="Y25" s="26">
         <v>7499</v>
       </c>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="26">
-        <f t="shared" ref="AA23:AA28" si="4">X23/(D23*F23)</f>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="26">
+        <f t="shared" ref="AB25:AB30" si="4">Y25/(D25*F25)</f>
         <v>107.25114416475972</v>
       </c>
-      <c r="AB23" s="5">
-        <f t="shared" ref="AB23:AB28" si="5">D23*F23*1000/X23</f>
+      <c r="AC25" s="5">
+        <f t="shared" ref="AC25:AC30" si="5">D25*F25*1000/Y25</f>
         <v>9.3239098546472867</v>
       </c>
-      <c r="AC23" s="26">
-        <f t="shared" ref="AC23:AC28" si="6">X23/(L23*N23)</f>
+      <c r="AD25" s="26">
+        <f t="shared" ref="AD25:AD30" si="6">Y25/(L25*N25)</f>
         <v>12498.333333333334</v>
       </c>
     </row>
-    <row r="24" spans="1:155">
-      <c r="A24" s="16" t="s">
+    <row r="26" spans="1:156">
+      <c r="A26" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="31" t="s">
+      <c r="B26" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D24">
+      <c r="D26">
         <v>8</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E26" s="14">
         <v>3072</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F26" s="5">
         <v>6.8440000000000003</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G26" s="5">
         <v>0.214</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H26" s="7">
         <v>12.3</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I26" s="7">
         <v>288</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="8" t="s">
+      <c r="J26" s="7"/>
+      <c r="K26" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L26" s="5">
         <v>2</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M26" s="5">
         <v>8</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N26" s="14">
         <v>0.2</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O26" s="5">
         <v>1866</v>
       </c>
-      <c r="P24" s="5">
+      <c r="P26" s="5">
         <v>256</v>
       </c>
-      <c r="Q24" s="5" t="s">
+      <c r="Q26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="R24" s="14">
+      <c r="R26" s="14">
         <v>1000</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S26" t="s">
         <v>42</v>
       </c>
-      <c r="T24" s="14">
+      <c r="T26" s="14">
         <v>4000</v>
       </c>
-      <c r="U24" s="5"/>
-      <c r="V24" s="10" t="str">
+      <c r="U26" s="14"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="10" t="str">
         <f t="shared" si="3"/>
         <v>$8.22?</v>
       </c>
-      <c r="W24" s="26">
+      <c r="X26" s="26">
         <v>1829</v>
       </c>
-      <c r="X24" s="26">
+      <c r="Y26" s="26">
         <v>5999</v>
       </c>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="26">
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="26">
         <f t="shared" si="4"/>
         <v>109.56677381648159</v>
       </c>
-      <c r="AB24" s="5">
+      <c r="AC26" s="5">
         <f t="shared" si="5"/>
         <v>9.126854475745958</v>
       </c>
-      <c r="AC24" s="26">
+      <c r="AD26" s="26">
         <f t="shared" si="6"/>
         <v>14997.5</v>
       </c>
     </row>
-    <row r="25" spans="1:155" s="13" customFormat="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="13">
+    <row r="27" spans="1:156" s="13" customFormat="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="13">
         <v>8</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E27" s="14">
         <v>3840</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F27" s="21">
         <v>11.757999999999999</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G27" s="21">
         <v>0.36699999999999999</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H27" s="14">
         <v>24.576000000000001</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I27" s="14">
         <v>345.6</v>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="8" t="s">
+      <c r="J27" s="14"/>
+      <c r="K27" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L27" s="5">
         <v>2</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M27" s="5">
         <v>8</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N27" s="14">
         <v>0.2</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O27" s="5">
         <v>1866</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P27" s="5">
         <v>256</v>
       </c>
-      <c r="Q25" s="5" t="s">
+      <c r="Q27" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="R27" s="14">
+        <v>1000</v>
+      </c>
+      <c r="S27" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="R25" s="14">
-        <v>1000</v>
-      </c>
-      <c r="S25" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="T25" s="14">
+      <c r="T27" s="14">
         <v>4000</v>
       </c>
-      <c r="U25" s="5"/>
-      <c r="V25" s="10" t="str">
+      <c r="U27" s="14"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="10" t="str">
         <f t="shared" si="3"/>
         <v>$9.59?</v>
       </c>
-      <c r="W25" s="26">
+      <c r="X27" s="26">
         <v>2049</v>
       </c>
-      <c r="X25" s="26">
+      <c r="Y27" s="26">
         <v>6999</v>
       </c>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="26">
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="26">
         <f t="shared" si="4"/>
         <v>74.406786868515056</v>
       </c>
-      <c r="AB25" s="5">
+      <c r="AC27" s="5">
         <f t="shared" si="5"/>
         <v>13.439634233461923</v>
       </c>
-      <c r="AC25" s="26">
+      <c r="AD27" s="26">
         <f t="shared" si="6"/>
         <v>17497.5</v>
       </c>
     </row>
-    <row r="26" spans="1:155" s="13" customFormat="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="31" t="s">
+    <row r="28" spans="1:156" s="13" customFormat="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="13">
+        <v>8</v>
+      </c>
+      <c r="E28" s="14">
+        <v>3584</v>
+      </c>
+      <c r="F28" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="G28" s="9">
+        <v>4.7</v>
+      </c>
+      <c r="H28" s="5">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I28" s="5">
+        <v>720</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="L28" s="5">
+        <v>2</v>
+      </c>
+      <c r="M28" s="5">
+        <v>8</v>
+      </c>
+      <c r="N28" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="O28" s="5">
+        <v>1866</v>
+      </c>
+      <c r="P28" s="5">
+        <v>256</v>
+      </c>
+      <c r="Q28" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="13">
-        <v>8</v>
-      </c>
-      <c r="E26" s="14">
-        <v>3584</v>
-      </c>
-      <c r="F26" s="9">
-        <v>9.5</v>
-      </c>
-      <c r="G26" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="H26" s="5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I26" s="5">
-        <v>720</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="L26" s="5">
-        <v>2</v>
-      </c>
-      <c r="M26" s="5">
-        <v>8</v>
-      </c>
-      <c r="N26" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="O26" s="5">
-        <v>1866</v>
-      </c>
-      <c r="P26" s="5">
-        <v>256</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="R26" s="14">
+      <c r="R28" s="14">
         <v>1000</v>
       </c>
-      <c r="S26" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="T26" s="14">
+      <c r="S28" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="T28" s="14">
         <v>4000</v>
       </c>
-      <c r="U26" s="5"/>
-      <c r="V26" s="10" t="str">
+      <c r="U28" s="14"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="10" t="str">
         <f t="shared" si="3"/>
         <v>$11.78?</v>
       </c>
-      <c r="W26" s="26">
+      <c r="X28" s="26">
         <v>2599</v>
       </c>
-      <c r="X26" s="26">
+      <c r="Y28" s="26">
         <v>8599</v>
       </c>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="26">
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="26">
         <f t="shared" si="4"/>
         <v>113.14473684210526</v>
       </c>
-      <c r="AB26" s="5">
+      <c r="AC28" s="5">
         <f t="shared" si="5"/>
         <v>8.838237004302826</v>
       </c>
-      <c r="AC26" s="26">
+      <c r="AD28" s="26">
         <f t="shared" si="6"/>
         <v>21497.5</v>
       </c>
     </row>
-    <row r="27" spans="1:155">
-      <c r="B27" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27">
+    <row r="29" spans="1:156">
+      <c r="B29" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29">
         <v>4</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E29" s="14">
         <v>3584</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F29" s="9">
         <v>9.5</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G29" s="9">
         <v>4.7</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H29" s="5">
         <v>16.399999999999999</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I29" s="5">
         <v>720</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J29" s="5">
         <v>1</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L29" s="5">
         <v>2</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M29" s="5">
         <v>10</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N29" s="14">
         <v>0.54800000000000004</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O29" s="5">
         <v>1333</v>
       </c>
-      <c r="P27" s="5">
+      <c r="P29" s="5">
         <v>1000</v>
       </c>
-      <c r="Q27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="R27" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="10" t="str">
+      <c r="Q29" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="R29" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="10" t="str">
         <f t="shared" si="3"/>
         <v>$10.20?</v>
       </c>
-      <c r="W27" s="26">
+      <c r="X29" s="26">
         <v>2259</v>
       </c>
-      <c r="X27" s="26">
+      <c r="Y29" s="26">
         <v>7449</v>
       </c>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA27" s="26">
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB29" s="26">
         <f t="shared" si="4"/>
         <v>196.02631578947367</v>
       </c>
-      <c r="AB27" s="5">
+      <c r="AC29" s="5">
         <f t="shared" si="5"/>
         <v>5.1013558866962008</v>
       </c>
-      <c r="AC27" s="26">
+      <c r="AD29" s="26">
         <f t="shared" si="6"/>
         <v>6796.5328467153277</v>
       </c>
     </row>
-    <row r="28" spans="1:155">
-      <c r="B28" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28">
+    <row r="30" spans="1:156">
+      <c r="B30" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30">
         <v>4</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E30" s="14">
         <v>3584</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F30" s="9">
         <v>9.5</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G30" s="9">
         <v>4.7</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H30" s="5">
         <v>16.399999999999999</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I30" s="5">
         <v>720</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J30" s="5">
         <v>1</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="K30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L30" s="5">
         <v>2</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M30" s="5">
         <v>8</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N30" s="14">
         <v>0.43840000000000001</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O30" s="5">
         <v>1333</v>
       </c>
-      <c r="P28" s="5">
+      <c r="P30" s="5">
         <v>512</v>
       </c>
-      <c r="Q28" s="5" t="s">
+      <c r="Q30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R28" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="10" t="str">
+      <c r="R30" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="10" t="str">
         <f t="shared" si="3"/>
         <v>$9.15?</v>
       </c>
-      <c r="W28" s="26">
+      <c r="X30" s="26">
         <v>1999</v>
       </c>
-      <c r="X28" s="26">
+      <c r="Y30" s="26">
         <v>6679</v>
       </c>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="26">
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="26">
         <f t="shared" si="4"/>
         <v>175.76315789473685</v>
       </c>
-      <c r="AB28" s="5">
+      <c r="AC30" s="5">
         <f t="shared" si="5"/>
         <v>5.6894744722263813</v>
       </c>
-      <c r="AC28" s="26">
+      <c r="AD30" s="26">
         <f t="shared" si="6"/>
         <v>7617.4726277372265</v>
       </c>
     </row>
-    <row r="29" spans="1:155" s="13" customFormat="1">
-      <c r="A29" s="48"/>
-      <c r="B29" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="D29" s="51">
+    <row r="31" spans="1:156" s="13" customFormat="1">
+      <c r="A31" s="48"/>
+      <c r="B31" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="51">
         <v>2</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E31" s="37">
         <v>3584</v>
       </c>
-      <c r="F29" s="50">
+      <c r="F31" s="50">
         <v>9.5</v>
       </c>
-      <c r="G29" s="50">
+      <c r="G31" s="50">
         <v>4.7</v>
       </c>
-      <c r="H29" s="50">
+      <c r="H31" s="50">
         <v>16.399999999999999</v>
       </c>
-      <c r="I29" s="50">
+      <c r="I31" s="50">
         <v>720</v>
       </c>
-      <c r="J29" s="50">
+      <c r="J31" s="50">
         <v>1</v>
       </c>
-      <c r="K29" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="L29" s="5">
+      <c r="K31" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="L31" s="5">
         <v>2</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M31" s="5">
         <v>8</v>
       </c>
-      <c r="N29" s="37">
+      <c r="N31" s="37">
         <v>0.43840000000000001</v>
       </c>
-      <c r="O29" s="5">
+      <c r="O31" s="5">
         <v>1333</v>
       </c>
-      <c r="P29" s="50">
+      <c r="P31" s="50">
         <v>128</v>
       </c>
-      <c r="Q29" s="5" t="s">
+      <c r="Q31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R29" s="37">
+      <c r="R31" s="37">
         <v>960</v>
       </c>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="10" t="str">
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="10" t="str">
         <f t="shared" si="3"/>
         <v>$5.79?</v>
       </c>
-      <c r="W29" s="52">
+      <c r="X31" s="52">
         <v>1269</v>
       </c>
-      <c r="X29" s="52">
+      <c r="Y31" s="52">
         <v>4229</v>
       </c>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="54">
+      <c r="Z31" s="52"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="54">
         <v>175.76</v>
       </c>
-      <c r="AB29" s="55">
+      <c r="AC31" s="55">
         <v>5.6894744719999997</v>
       </c>
-      <c r="AC29" s="56">
+      <c r="AD31" s="56">
         <v>7617.47</v>
       </c>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="51"/>
-      <c r="AF29" s="51"/>
-      <c r="AG29" s="51"/>
-      <c r="AH29" s="51"/>
-      <c r="AI29" s="51"/>
-      <c r="AJ29" s="51"/>
-      <c r="AK29" s="51"/>
-      <c r="AL29" s="51"/>
-      <c r="AM29" s="51"/>
-      <c r="AN29" s="51"/>
-      <c r="AO29" s="51"/>
-      <c r="AP29" s="51"/>
-      <c r="AQ29" s="51"/>
-      <c r="AR29" s="51"/>
-      <c r="AS29" s="51"/>
-      <c r="AT29" s="51"/>
-      <c r="AU29" s="51"/>
-      <c r="AV29" s="51"/>
-      <c r="AW29" s="51"/>
-      <c r="AX29" s="51"/>
-      <c r="AY29" s="51"/>
-      <c r="AZ29" s="51"/>
-      <c r="BA29" s="51"/>
-      <c r="BB29" s="51"/>
-      <c r="BC29" s="51"/>
-      <c r="BD29" s="51"/>
-      <c r="BE29" s="51"/>
-      <c r="BF29" s="51"/>
-      <c r="BG29" s="51"/>
-      <c r="BH29" s="51"/>
-      <c r="BI29" s="51"/>
-      <c r="BJ29" s="51"/>
-      <c r="BK29" s="51"/>
-      <c r="BL29" s="51"/>
-      <c r="BM29" s="51"/>
-      <c r="BN29" s="51"/>
-      <c r="BO29" s="51"/>
-      <c r="BP29" s="51"/>
-      <c r="BQ29" s="51"/>
-      <c r="BR29" s="51"/>
-      <c r="BS29" s="51"/>
-      <c r="BT29" s="51"/>
-      <c r="BU29" s="51"/>
-      <c r="BV29" s="51"/>
-      <c r="BW29" s="51"/>
-      <c r="BX29" s="51"/>
-      <c r="BY29" s="51"/>
-      <c r="BZ29" s="51"/>
-      <c r="CA29" s="51"/>
-      <c r="CB29" s="51"/>
-      <c r="CC29" s="51"/>
-      <c r="CD29" s="51"/>
-      <c r="CE29" s="51"/>
-      <c r="CF29" s="51"/>
-      <c r="CG29" s="51"/>
-      <c r="CH29" s="51"/>
-      <c r="CI29" s="51"/>
-      <c r="CJ29" s="51"/>
-      <c r="CK29" s="51"/>
-      <c r="CL29" s="51"/>
-      <c r="CM29" s="51"/>
-      <c r="CN29" s="51"/>
-      <c r="CO29" s="51"/>
-      <c r="CP29" s="51"/>
-      <c r="CQ29" s="51"/>
-      <c r="CR29" s="51"/>
-      <c r="CS29" s="51"/>
-      <c r="CT29" s="51"/>
-      <c r="CU29" s="51"/>
-      <c r="CV29" s="51"/>
-      <c r="CW29" s="51"/>
-      <c r="CX29" s="51"/>
-      <c r="CY29" s="51"/>
-      <c r="CZ29" s="51"/>
-      <c r="DA29" s="51"/>
-      <c r="DB29" s="51"/>
-      <c r="DC29" s="51"/>
-      <c r="DD29" s="51"/>
-      <c r="DE29" s="51"/>
-      <c r="DF29" s="51"/>
-      <c r="DG29" s="51"/>
-      <c r="DH29" s="51"/>
-      <c r="DI29" s="51"/>
-      <c r="DJ29" s="51"/>
-      <c r="DK29" s="51"/>
-      <c r="DL29" s="51"/>
-      <c r="DM29" s="51"/>
-      <c r="DN29" s="51"/>
-      <c r="DO29" s="51"/>
-      <c r="DP29" s="51"/>
-      <c r="DQ29" s="51"/>
-      <c r="DR29" s="51"/>
-      <c r="DS29" s="51"/>
-      <c r="DT29" s="51"/>
-      <c r="DU29" s="51"/>
-      <c r="DV29" s="51"/>
-      <c r="DW29" s="51"/>
-      <c r="DX29" s="51"/>
-      <c r="DY29" s="51"/>
-      <c r="DZ29" s="51"/>
-      <c r="EA29" s="51"/>
-      <c r="EB29" s="51"/>
-      <c r="EC29" s="51"/>
-      <c r="ED29" s="51"/>
-      <c r="EE29" s="51"/>
-      <c r="EF29" s="51"/>
-      <c r="EG29" s="51"/>
-      <c r="EH29" s="51"/>
-      <c r="EI29" s="51"/>
-      <c r="EJ29" s="51"/>
-      <c r="EK29" s="51"/>
-      <c r="EL29" s="51"/>
-      <c r="EM29" s="51"/>
-      <c r="EN29" s="51"/>
-      <c r="EO29" s="51"/>
-      <c r="EP29" s="51"/>
-      <c r="EQ29" s="51"/>
-      <c r="ER29" s="51"/>
-      <c r="ES29" s="51"/>
-      <c r="ET29" s="51"/>
-      <c r="EU29" s="51"/>
-      <c r="EV29" s="51"/>
-      <c r="EW29" s="51"/>
-      <c r="EX29" s="51"/>
-      <c r="EY29" s="51"/>
+      <c r="AE31" s="51"/>
+      <c r="AF31" s="51"/>
+      <c r="AG31" s="51"/>
+      <c r="AH31" s="51"/>
+      <c r="AI31" s="51"/>
+      <c r="AJ31" s="51"/>
+      <c r="AK31" s="51"/>
+      <c r="AL31" s="51"/>
+      <c r="AM31" s="51"/>
+      <c r="AN31" s="51"/>
+      <c r="AO31" s="51"/>
+      <c r="AP31" s="51"/>
+      <c r="AQ31" s="51"/>
+      <c r="AR31" s="51"/>
+      <c r="AS31" s="51"/>
+      <c r="AT31" s="51"/>
+      <c r="AU31" s="51"/>
+      <c r="AV31" s="51"/>
+      <c r="AW31" s="51"/>
+      <c r="AX31" s="51"/>
+      <c r="AY31" s="51"/>
+      <c r="AZ31" s="51"/>
+      <c r="BA31" s="51"/>
+      <c r="BB31" s="51"/>
+      <c r="BC31" s="51"/>
+      <c r="BD31" s="51"/>
+      <c r="BE31" s="51"/>
+      <c r="BF31" s="51"/>
+      <c r="BG31" s="51"/>
+      <c r="BH31" s="51"/>
+      <c r="BI31" s="51"/>
+      <c r="BJ31" s="51"/>
+      <c r="BK31" s="51"/>
+      <c r="BL31" s="51"/>
+      <c r="BM31" s="51"/>
+      <c r="BN31" s="51"/>
+      <c r="BO31" s="51"/>
+      <c r="BP31" s="51"/>
+      <c r="BQ31" s="51"/>
+      <c r="BR31" s="51"/>
+      <c r="BS31" s="51"/>
+      <c r="BT31" s="51"/>
+      <c r="BU31" s="51"/>
+      <c r="BV31" s="51"/>
+      <c r="BW31" s="51"/>
+      <c r="BX31" s="51"/>
+      <c r="BY31" s="51"/>
+      <c r="BZ31" s="51"/>
+      <c r="CA31" s="51"/>
+      <c r="CB31" s="51"/>
+      <c r="CC31" s="51"/>
+      <c r="CD31" s="51"/>
+      <c r="CE31" s="51"/>
+      <c r="CF31" s="51"/>
+      <c r="CG31" s="51"/>
+      <c r="CH31" s="51"/>
+      <c r="CI31" s="51"/>
+      <c r="CJ31" s="51"/>
+      <c r="CK31" s="51"/>
+      <c r="CL31" s="51"/>
+      <c r="CM31" s="51"/>
+      <c r="CN31" s="51"/>
+      <c r="CO31" s="51"/>
+      <c r="CP31" s="51"/>
+      <c r="CQ31" s="51"/>
+      <c r="CR31" s="51"/>
+      <c r="CS31" s="51"/>
+      <c r="CT31" s="51"/>
+      <c r="CU31" s="51"/>
+      <c r="CV31" s="51"/>
+      <c r="CW31" s="51"/>
+      <c r="CX31" s="51"/>
+      <c r="CY31" s="51"/>
+      <c r="CZ31" s="51"/>
+      <c r="DA31" s="51"/>
+      <c r="DB31" s="51"/>
+      <c r="DC31" s="51"/>
+      <c r="DD31" s="51"/>
+      <c r="DE31" s="51"/>
+      <c r="DF31" s="51"/>
+      <c r="DG31" s="51"/>
+      <c r="DH31" s="51"/>
+      <c r="DI31" s="51"/>
+      <c r="DJ31" s="51"/>
+      <c r="DK31" s="51"/>
+      <c r="DL31" s="51"/>
+      <c r="DM31" s="51"/>
+      <c r="DN31" s="51"/>
+      <c r="DO31" s="51"/>
+      <c r="DP31" s="51"/>
+      <c r="DQ31" s="51"/>
+      <c r="DR31" s="51"/>
+      <c r="DS31" s="51"/>
+      <c r="DT31" s="51"/>
+      <c r="DU31" s="51"/>
+      <c r="DV31" s="51"/>
+      <c r="DW31" s="51"/>
+      <c r="DX31" s="51"/>
+      <c r="DY31" s="51"/>
+      <c r="DZ31" s="51"/>
+      <c r="EA31" s="51"/>
+      <c r="EB31" s="51"/>
+      <c r="EC31" s="51"/>
+      <c r="ED31" s="51"/>
+      <c r="EE31" s="51"/>
+      <c r="EF31" s="51"/>
+      <c r="EG31" s="51"/>
+      <c r="EH31" s="51"/>
+      <c r="EI31" s="51"/>
+      <c r="EJ31" s="51"/>
+      <c r="EK31" s="51"/>
+      <c r="EL31" s="51"/>
+      <c r="EM31" s="51"/>
+      <c r="EN31" s="51"/>
+      <c r="EO31" s="51"/>
+      <c r="EP31" s="51"/>
+      <c r="EQ31" s="51"/>
+      <c r="ER31" s="51"/>
+      <c r="ES31" s="51"/>
+      <c r="ET31" s="51"/>
+      <c r="EU31" s="51"/>
+      <c r="EV31" s="51"/>
+      <c r="EW31" s="51"/>
+      <c r="EX31" s="51"/>
+      <c r="EY31" s="51"/>
+      <c r="EZ31" s="51"/>
     </row>
-    <row r="30" spans="1:155">
-      <c r="B30" s="24"/>
-      <c r="C30" s="31"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="26"/>
-      <c r="Z30" s="16"/>
-      <c r="AA30" s="26"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="26"/>
+    <row r="32" spans="1:156">
+      <c r="B32" s="24"/>
+      <c r="C32" s="31"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="26"/>
     </row>
-    <row r="31" spans="1:155" ht="20">
-      <c r="A31" s="23" t="s">
+    <row r="33" spans="1:30" ht="20">
+      <c r="A33" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B33" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="D31">
+      <c r="C33" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="D33">
         <v>4</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E33" s="14">
         <v>3584</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F33" s="21">
         <v>10.157</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G33" s="21">
         <v>0.317</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H33" s="14">
         <v>12</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I33" s="14">
         <v>480</v>
       </c>
-      <c r="J31" s="14"/>
-      <c r="K31" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L31" s="5">
-        <v>2</v>
-      </c>
-      <c r="M31" s="5">
-        <v>4</v>
-      </c>
-      <c r="N31" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="O31" s="5">
-        <v>1866</v>
-      </c>
-      <c r="P31" s="5">
-        <v>128</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="R31" s="5">
-        <v>480</v>
-      </c>
-      <c r="S31" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="T31" s="5">
-        <v>480</v>
-      </c>
-      <c r="U31" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="V31" s="10" t="str">
-        <f>USDOLLAR(X31/730,2)&amp;"?"</f>
-        <v>$2.02?</v>
-      </c>
-      <c r="W31" s="26"/>
-      <c r="X31" s="26">
-        <v>1472.8</v>
-      </c>
-      <c r="Y31" s="26"/>
-      <c r="Z31" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA31" s="26">
-        <f>X31/(D31*F31)</f>
-        <v>36.250861474844932</v>
-      </c>
-      <c r="AB31" s="5">
-        <f>D31*F31*1000/X31</f>
-        <v>27.585551330798481</v>
-      </c>
-      <c r="AC31" s="26">
-        <f>X31/(L31*N31)</f>
-        <v>4909.333333333333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:155">
-      <c r="A32" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="14">
-        <v>3840</v>
-      </c>
-      <c r="F32" s="21">
-        <v>11.757999999999999</v>
-      </c>
-      <c r="G32" s="21">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="H32" s="14">
-        <v>24.576000000000001</v>
-      </c>
-      <c r="I32" s="14">
-        <v>345.6</v>
-      </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L32" s="5">
-        <v>2</v>
-      </c>
-      <c r="M32" s="5">
-        <v>4</v>
-      </c>
-      <c r="N32" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="O32" s="5">
-        <v>1866</v>
-      </c>
-      <c r="P32" s="5">
-        <v>128</v>
-      </c>
-      <c r="Q32" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="R32" s="5">
-        <v>480</v>
-      </c>
-      <c r="S32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T32" s="5">
-        <v>480</v>
-      </c>
-      <c r="U32" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="V32" s="10" t="str">
-        <f>USDOLLAR(X32/730,2)&amp;"?"</f>
-        <v>$2.13?</v>
-      </c>
-      <c r="W32" s="26"/>
-      <c r="X32" s="26">
-        <v>1555</v>
-      </c>
-      <c r="Y32" s="26"/>
-      <c r="Z32" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA32" s="26">
-        <f>X32/(D32*F32)</f>
-        <v>132.25038271814935</v>
-      </c>
-      <c r="AB32" s="5">
-        <f>D32*F32*1000/X32</f>
-        <v>7.5614147909967846</v>
-      </c>
-      <c r="AC32" s="26">
-        <f>X32/(L32*N32)</f>
-        <v>5183.3333333333339</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29">
-      <c r="B33" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="C33" t="s">
-        <v>215</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" s="37">
-        <v>3584</v>
-      </c>
-      <c r="F33" s="50">
-        <v>9.5</v>
-      </c>
-      <c r="G33" s="50">
-        <v>4.7</v>
-      </c>
-      <c r="H33" s="50">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I33" s="50">
-        <v>720</v>
-      </c>
+      <c r="J33" s="14"/>
       <c r="K33" s="5" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="L33" s="5">
         <v>2</v>
@@ -6300,53 +6606,227 @@
         <v>128</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="R33" s="5">
         <v>480</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="T33" s="5">
         <v>480</v>
       </c>
-      <c r="U33" s="5">
+      <c r="U33" s="5"/>
+      <c r="V33" s="5">
         <v>0.1</v>
       </c>
-      <c r="V33" s="10" t="str">
-        <f>USDOLLAR(X33/730,2)&amp;"?"</f>
+      <c r="W33" s="10" t="str">
+        <f>USDOLLAR(Y33/730,2)&amp;"?"</f>
+        <v>$2.02?</v>
+      </c>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26">
+        <v>1472.8</v>
+      </c>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB33" s="26">
+        <f>Y33/(D33*F33)</f>
+        <v>36.250861474844932</v>
+      </c>
+      <c r="AC33" s="5">
+        <f>D33*F33*1000/Y33</f>
+        <v>27.585551330798481</v>
+      </c>
+      <c r="AD33" s="26">
+        <f>Y33/(L33*N33)</f>
+        <v>4909.333333333333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
+      <c r="A34" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="14">
+        <v>3840</v>
+      </c>
+      <c r="F34" s="21">
+        <v>11.757999999999999</v>
+      </c>
+      <c r="G34" s="21">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="H34" s="14">
+        <v>24.576000000000001</v>
+      </c>
+      <c r="I34" s="14">
+        <v>345.6</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L34" s="5">
+        <v>2</v>
+      </c>
+      <c r="M34" s="5">
+        <v>4</v>
+      </c>
+      <c r="N34" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="O34" s="5">
+        <v>1866</v>
+      </c>
+      <c r="P34" s="5">
+        <v>128</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="R34" s="5">
+        <v>480</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T34" s="5">
+        <v>480</v>
+      </c>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="W34" s="10" t="str">
+        <f>USDOLLAR(Y34/730,2)&amp;"?"</f>
+        <v>$2.13?</v>
+      </c>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26">
+        <v>1555</v>
+      </c>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB34" s="26">
+        <f>Y34/(D34*F34)</f>
+        <v>132.25038271814935</v>
+      </c>
+      <c r="AC34" s="5">
+        <f>D34*F34*1000/Y34</f>
+        <v>7.5614147909967846</v>
+      </c>
+      <c r="AD34" s="26">
+        <f>Y34/(L34*N34)</f>
+        <v>5183.3333333333339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
+      <c r="B35" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" t="s">
+        <v>209</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="37">
+        <v>3584</v>
+      </c>
+      <c r="F35" s="50">
+        <v>9.5</v>
+      </c>
+      <c r="G35" s="50">
+        <v>4.7</v>
+      </c>
+      <c r="H35" s="50">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I35" s="50">
+        <v>720</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35" s="5">
+        <v>2</v>
+      </c>
+      <c r="M35" s="5">
+        <v>4</v>
+      </c>
+      <c r="N35" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="O35" s="5">
+        <v>1866</v>
+      </c>
+      <c r="P35" s="5">
+        <v>128</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R35" s="5">
+        <v>480</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T35" s="5">
+        <v>480</v>
+      </c>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="W35" s="10" t="str">
+        <f>USDOLLAR(Y35/730,2)&amp;"?"</f>
         <v>$2.18?</v>
       </c>
-      <c r="X33" s="26">
+      <c r="Y35" s="26">
         <v>1588.7</v>
       </c>
-      <c r="Z33" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA33" s="26">
-        <f>X33/(D33*F33)</f>
+      <c r="AA35" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB35" s="26">
+        <f>Y35/(D35*F35)</f>
         <v>167.23157894736843</v>
       </c>
-      <c r="AB33" s="5">
-        <f>D33*F33*1000/X33</f>
+      <c r="AC35" s="5">
+        <f>D35*F35*1000/Y35</f>
         <v>5.9797318562346575</v>
       </c>
-      <c r="AC33" s="26">
-        <f>X33/(L33*N33)</f>
+      <c r="AD35" s="26">
+        <f>Y35/(L35*N35)</f>
         <v>5295.666666666667</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="U3:V3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="AA31">
-    <cfRule type="colorScale" priority="31">
+  <conditionalFormatting sqref="AB33">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6357,8 +6837,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB31">
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="AC33">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6369,8 +6849,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA32:AA33">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="AB34:AB35">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6381,8 +6861,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB32:AB33">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="AC34:AC35">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6393,8 +6873,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA32:AA33">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="AB34:AB35">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6405,8 +6885,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB32:AB33">
-    <cfRule type="colorScale" priority="23">
+  <conditionalFormatting sqref="AC34:AC35">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6417,13 +6897,33 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:W13 Z13:XFD13 EZ18:XFD18 AA18:AC18 A19:XFD25 EZ29:XFD29 V29 V28:XFD28 S28:U29 R28 Q28:Q29 P28 O28:O29 N28 L26:M29 N26:XFD27 A26:K28 A5:XFD12 A14:XFD17 A30:XFD32 Z33:AC33 V33">
-    <cfRule type="expression" dxfId="26" priority="17">
+  <conditionalFormatting sqref="A13:X13 AA13:XFD13 FA19:XFD20 A23:XFD27 FA31:XFD31 W31 W30:XFD30 S30:V31 R30 Q30:Q31 P30 O30:O31 N30 L28:M31 N28:XFD29 A28:K30 A5:XFD12 A32:XFD34 AA35:AD35 W35 A14:XFD16 A17 AB17:XFD17 A18:I18 A21:O21 Q21:T21 K18:T18 A22:T22 W18:XFD18 W21:XFD22 W19:AD20 U18:U22">
+    <cfRule type="expression" dxfId="31" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA5:AA28 AA30:AA33">
-    <cfRule type="colorScale" priority="72">
+  <conditionalFormatting sqref="Y13">
+    <cfRule type="expression" dxfId="30" priority="21">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="expression" dxfId="29" priority="20">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:V35">
+    <cfRule type="expression" dxfId="28" priority="19">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y35">
+    <cfRule type="expression" dxfId="27" priority="18">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB32:AB35 AB21:AB30 AB5:AB18">
+    <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6434,8 +6934,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB5:AB28 AB30:AB33">
-    <cfRule type="colorScale" priority="74">
+  <conditionalFormatting sqref="AC32:AC35 AC21:AC30 AC5:AC18">
+    <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6446,8 +6946,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA30:AA31 AA5:AA28">
-    <cfRule type="colorScale" priority="87">
+  <conditionalFormatting sqref="AB32:AB33 AB21:AB30 AB5:AB18">
+    <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6458,8 +6958,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB30:AB31 AB5:AB28">
-    <cfRule type="colorScale" priority="89">
+  <conditionalFormatting sqref="AC32:AC33 AC21:AC30 AC5:AC18">
+    <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6470,8 +6970,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC5:AC28 AC30:AC33">
-    <cfRule type="colorScale" priority="91">
+  <conditionalFormatting sqref="AD32:AD35 AD21:AD30 AD5:AD18">
+    <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6482,13 +6982,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X13">
-    <cfRule type="expression" dxfId="25" priority="4">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA5:AA28">
-    <cfRule type="colorScale" priority="97">
+  <conditionalFormatting sqref="AB21:AB30 AB5:AB18">
+    <cfRule type="colorScale" priority="139">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6499,8 +6994,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB5:AB28">
-    <cfRule type="colorScale" priority="99">
+  <conditionalFormatting sqref="AC21:AC30 AC5:AC18">
+    <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6511,19 +7006,187 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="24" priority="3">
+  <conditionalFormatting sqref="B20:O20 Q20:T20">
+    <cfRule type="expression" dxfId="26" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:U33">
-    <cfRule type="expression" dxfId="23" priority="2">
+  <conditionalFormatting sqref="AB20">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC20">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB20">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC20">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD20">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB20">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC20">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:I19">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X33">
-    <cfRule type="expression" dxfId="22" priority="1">
+  <conditionalFormatting sqref="B19:D19 P20:P21 K19:T19">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB19">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD19">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB19">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC19">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6540,13 +7203,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -6578,157 +7241,156 @@
       <c r="A1" s="59"/>
       <c r="B1" s="59"/>
       <c r="C1" s="60" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D1" s="59"/>
       <c r="E1" s="59"/>
       <c r="F1" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="K1" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="L1" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="P1" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="I1" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60" t="s">
+      <c r="Q1" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="R1" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="S1" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="O1" s="60" t="s">
+      <c r="T1" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="P1" s="60" t="s">
+      <c r="U1" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="V1" s="60" t="s">
         <v>185</v>
-      </c>
-      <c r="Q1" s="60" t="s">
-        <v>186</v>
-      </c>
-      <c r="R1" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="S1" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="T1" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="U1" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="V1" s="60" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="12" customFormat="1" ht="21" thickBot="1">
       <c r="A2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L2" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="O2" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="M2" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="N2" s="33" t="s">
+      <c r="P2" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="Q2" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="R2" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="S2" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="T2" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="S2" s="36" t="s">
+      <c r="U2" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="T2" s="36" t="s">
+      <c r="V2" s="36" t="s">
         <v>159</v>
-      </c>
-      <c r="U2" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="V2" s="36" t="s">
-        <v>161</v>
       </c>
       <c r="W2" s="13"/>
       <c r="X2" s="13"/>
     </row>
-    <row r="3" spans="1:24" ht="21" customHeight="1" thickTop="1">
-      <c r="A3" s="63" t="s">
+    <row r="3" spans="1:24" ht="21" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A3" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="65" t="s">
-        <v>135</v>
+      <c r="B3" s="67" t="s">
+        <v>133</v>
       </c>
       <c r="C3" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
         <v>p2.16xlarge on-demand</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>141</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
         <v>14.4</v>
       </c>
       <c r="G3" s="21"/>
-      <c r="H3" s="21">
-        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>10368</v>
-      </c>
+      <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="14">
-        <f ca="1">INDIRECT("Sheet1!N"&amp; INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("X"&amp;ROW()))</f>
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("X"&amp;ROW()))</f>
         <v>0.71111111111111114</v>
       </c>
       <c r="K3" s="14">
@@ -6756,7 +7418,7 @@
         <v>732</v>
       </c>
       <c r="Q3" s="14">
-        <f t="shared" ref="Q3:V20" ca="1" si="0">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
+        <f t="shared" ref="Q3:V21" ca="1" si="0">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
         <v>0</v>
       </c>
       <c r="R3" s="14">
@@ -6777,37 +7439,34 @@
       </c>
       <c r="V3" s="16" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) &amp; " CPU performance is approx. performance of Xeon E5-2690 v4 with 18 cores devided by 18 cores * 2 Hyper-threads = 36."</f>
-        <v>Free Outbound Traffic = 1 GB/month.  CPU performance is approx. performance of Xeon E5-2690 v4 with 18 cores devided by 18 cores * 2 Hyper-threads = 36.</v>
+        <v xml:space="preserve"> CPU performance is approx. performance of Xeon E5-2690 v4 with 18 cores devided by 18 cores * 2 Hyper-threads = 36.</v>
       </c>
       <c r="X3" s="58">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="20" customHeight="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
+    <row r="4" spans="1:24" ht="20" customHeight="1" thickTop="1">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="24" t="str">
-        <f t="shared" ref="C4:C14" ca="1" si="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
+        <f t="shared" ref="C4:C15" ca="1" si="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
         <v>p2.8xlarge on-demand</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
         <v>7.2</v>
       </c>
       <c r="G4" s="21"/>
-      <c r="H4" s="21">
-        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>5184</v>
-      </c>
+      <c r="H4" s="21"/>
       <c r="I4" s="21"/>
       <c r="J4" s="14">
-        <f t="shared" ref="J4:J31" ca="1" si="2">INDIRECT("Sheet1!N"&amp; INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("X"&amp;ROW()))</f>
+        <f t="shared" ref="J4:J15" ca="1" si="2">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("X"&amp;ROW()))</f>
         <v>0.35555555555555557</v>
       </c>
       <c r="K4" s="14">
@@ -6815,7 +7474,7 @@
         <v>69.92</v>
       </c>
       <c r="L4" s="14" t="str">
-        <f t="shared" ref="L4:T31" ca="1" si="4">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
+        <f t="shared" ref="L4:T32" ca="1" si="4">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
         <v>K80</v>
       </c>
       <c r="M4" s="14">
@@ -6856,34 +7515,31 @@
       </c>
       <c r="V4" s="16" t="str">
         <f t="shared" ref="V4:V5" ca="1" si="5">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) &amp; " CPU performance is approx. performance of Xeon E5-2690 v4 with 18 cores devided by 18 cores * 2 Hyper-threads = 36."</f>
-        <v>Free Outbound Traffic = 1 GB/month. CPU performance is approx. performance of Xeon E5-2690 v4 with 18 cores devided by 18 cores * 2 Hyper-threads = 36.</v>
+        <v xml:space="preserve"> CPU performance is approx. performance of Xeon E5-2690 v4 with 18 cores devided by 18 cores * 2 Hyper-threads = 36.</v>
       </c>
       <c r="X4" s="57">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="20" customHeight="1">
-      <c r="A5" s="64"/>
-      <c r="B5" s="65"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="24" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>p2.xlarge on-demand</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
         <v>0.9</v>
       </c>
       <c r="G5" s="21"/>
-      <c r="H5" s="21">
-        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>648</v>
-      </c>
+      <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="14">
         <f t="shared" ca="1" si="2"/>
@@ -6935,37 +7591,34 @@
       </c>
       <c r="V5" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Free Outbound Traffic = 1 GB/month.  CPU performance is approx. performance of Xeon E5-2690 v4 with 18 cores devided by 18 cores * 2 Hyper-threads = 36.</v>
+        <v xml:space="preserve"> CPU performance is approx. performance of Xeon E5-2690 v4 with 18 cores devided by 18 cores * 2 Hyper-threads = 36.</v>
       </c>
       <c r="X5" s="57">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="20" customHeight="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="24" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>p2 dedicated host On-demand</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
         <v>15.84</v>
       </c>
       <c r="G6" s="21"/>
-      <c r="H6" s="21">
-        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>11404.8</v>
-      </c>
+      <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="14">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("X"&amp;ROW()))</f>
         <v>0.8</v>
       </c>
       <c r="K6" s="14">
@@ -7012,26 +7665,26 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="V6" s="16" t="str">
+      <c r="V6" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>Up to 56% of savings for 1- and 3-year terms.</v>
+        <v>0</v>
       </c>
       <c r="X6" s="57">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="20" customHeight="1">
-      <c r="A7" s="64"/>
-      <c r="B7" s="65"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="24" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>p2 dedicated host 1 year no Upfront</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -7090,24 +7743,24 @@
       </c>
       <c r="V7" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>105525.72</v>
       </c>
       <c r="X7" s="57">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="20" customHeight="1">
-      <c r="A8" s="64"/>
-      <c r="B8" s="65"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="24" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>p2 dedicated host 1 year 100% Upfront</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -7166,27 +7819,29 @@
       </c>
       <c r="V8" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>88389</v>
       </c>
       <c r="X8" s="57">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="20" customHeight="1">
-      <c r="A9" s="64" t="str">
+      <c r="A9" s="66" t="str">
         <f>Sheet1!$A$13</f>
         <v>Softlayer</v>
       </c>
-      <c r="B9" s="65" t="s">
-        <v>136</v>
+      <c r="B9" s="67" t="s">
+        <v>134</v>
       </c>
       <c r="C9" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) &amp; " monthly"</f>
         <v>NVIDIA Tesla K80 Dual Intel Xeon E5-2620 v4 monthly</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="16" t="s">
+        <v>144</v>
+      </c>
       <c r="E9" s="24" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -7243,24 +7898,24 @@
         <f t="shared" ca="1" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="V9" s="16" t="str">
+      <c r="V9" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>Outbound Traffic limited to 500GB.</v>
+        <v>0</v>
       </c>
       <c r="X9" s="57">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A10" s="64"/>
-      <c r="B10" s="65"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) &amp; " hourly"</f>
         <v>NVIDIA Tesla K80 Dual Intel Xeon E5-2620 v4 hourly</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F10" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
@@ -7274,7 +7929,7 @@
         <v>0.4</v>
       </c>
       <c r="K10" s="14">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("X"&amp;ROW()))</f>
         <v>8.74</v>
       </c>
       <c r="L10" s="14" t="str">
@@ -7317,24 +7972,24 @@
         <f t="shared" ca="1" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="V10" s="16" t="str">
+      <c r="V10" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>Outbound Traffic limited to 500GB.</v>
+        <v>0</v>
       </c>
       <c r="X10" s="57">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A11" s="64"/>
-      <c r="B11" s="65"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="24" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>NVIDIA Tesla K80 Dual Intel Xeon E5-2690 v3</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -7348,7 +8003,7 @@
         <v>0.7</v>
       </c>
       <c r="K11" s="14">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ref="K11:K15" ca="1" si="6">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("X"&amp;ROW()))</f>
         <v>8.74</v>
       </c>
       <c r="L11" s="14" t="str">
@@ -7391,24 +8046,24 @@
         <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
-      <c r="V11" s="16" t="str">
+      <c r="V11" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>Outbound Traffic limited to 500GB.</v>
+        <v>0</v>
       </c>
       <c r="X11" s="57">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="20" customHeight="1">
-      <c r="A12" s="64"/>
-      <c r="B12" s="65"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="24" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>NVIDIA Tesla M60 Dual Intel Xeon E5-2690 v3</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -7422,7 +8077,7 @@
         <v>0.7</v>
       </c>
       <c r="K12" s="14">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v>9.65</v>
       </c>
       <c r="L12" s="14" t="str">
@@ -7465,9 +8120,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
-      <c r="V12" s="16" t="str">
+      <c r="V12" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>Outbound Traffic limited to 500GB.</v>
+        <v>0</v>
       </c>
       <c r="X12" s="57">
         <v>15</v>
@@ -7479,19 +8134,19 @@
         <v>Nimbix</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C13" s="24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NGD5</v>
+        <v>NGD4</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="F13" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
@@ -7501,12 +8156,12 @@
         <v>0.87680000000000002</v>
       </c>
       <c r="K13" s="14">
-        <f t="shared" ca="1" si="3"/>
-        <v>17.48</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>10.08</v>
       </c>
       <c r="L13" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>K80</v>
+        <v>K40</v>
       </c>
       <c r="M13" s="14">
         <f t="shared" ca="1" si="4"/>
@@ -7520,9 +8175,12 @@
         <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-      <c r="P13" s="14"/>
+      <c r="P13" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>128</v>
+      </c>
       <c r="Q13" s="21" t="str">
-        <f>IF(Sheet1!$Q17="","",Sheet1!$Q17)</f>
+        <f>IF(Sheet1!$Q18="","",Sheet1!$Q18)</f>
         <v/>
       </c>
       <c r="R13" s="14">
@@ -7541,9 +8199,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="V13" s="16" t="str">
+      <c r="V13" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve"> http://www-01.ibm.com/common/ssi/cgi-bin/ssialias?htmlfid=POB03046USEN</v>
+        <v>0</v>
       </c>
       <c r="W13" s="16"/>
       <c r="X13" s="57">
@@ -7555,15 +8213,15 @@
       <c r="B14" s="39"/>
       <c r="C14" s="24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NGD4</v>
+        <v>NGD5</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="24" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="F14" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>3.5</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
@@ -7573,26 +8231,29 @@
         <v>0.87680000000000002</v>
       </c>
       <c r="K14" s="14">
-        <f t="shared" ca="1" si="3"/>
-        <v>10.08</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>34.96</v>
       </c>
       <c r="L14" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>K40</v>
+        <v>K80</v>
       </c>
       <c r="M14" s="14">
         <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N14" s="14" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>POWER8?</v>
+      </c>
+      <c r="O14" s="14">
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-      <c r="N14" s="14" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>POWER8?</v>
-      </c>
-      <c r="O14" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="P14" s="14"/>
+      <c r="P14" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>128</v>
+      </c>
       <c r="Q14" s="21"/>
       <c r="R14" s="14">
         <f t="shared" ca="1" si="0"/>
@@ -7610,115 +8271,97 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="V14" s="16" t="str">
+      <c r="V14" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v xml:space="preserve"> http://www-01.ibm.com/common/ssi/cgi-bin/ssialias?htmlfid=POB03046USEN</v>
+        <v>0</v>
       </c>
       <c r="W14" s="16"/>
       <c r="X14" s="57">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="13" customFormat="1">
-      <c r="A15" s="66" t="str">
-        <f>Sheet1!A23</f>
-        <v>Cirrascale</v>
-      </c>
-      <c r="B15" s="67" t="s">
-        <v>138</v>
-      </c>
+    <row r="15" spans="1:24" s="13" customFormat="1" ht="19">
+      <c r="A15" s="62"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="24" t="str">
-        <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp; " monthly"</f>
-        <v>16-GPU x86 SERVER K80 monthly</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>NGQ7</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="F15" s="21"/>
+        <v>221</v>
+      </c>
+      <c r="F15" s="21">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
+        <v>7.4</v>
+      </c>
       <c r="G15" s="21"/>
-      <c r="H15" s="21">
-        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>7499</v>
-      </c>
+      <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6</v>
+        <v>0.87680000000000002</v>
       </c>
       <c r="K15" s="14">
-        <f t="shared" ca="1" si="3"/>
-        <v>69.92</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>27.376000000000001</v>
       </c>
       <c r="L15" s="14" t="str">
-        <f t="shared" ref="L15:Q16" ca="1" si="6">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>K80</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>M40</v>
       </c>
       <c r="M15" s="14">
-        <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="N15" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Xeon E5-2667 v3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>POWER8?</v>
       </c>
       <c r="O15" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="P15" s="14">
-        <f t="shared" ca="1" si="6"/>
-        <v>512</v>
-      </c>
-      <c r="Q15" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>SSD</v>
-      </c>
-      <c r="R15" s="14">
-        <f t="shared" ca="1" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="S15" s="14" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>SATA</v>
-      </c>
-      <c r="T15" s="14">
-        <f t="shared" ca="1" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="U15" s="14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
+        <f t="shared" ca="1" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="16"/>
       <c r="W15" s="16"/>
       <c r="X15" s="57">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="13" customFormat="1" ht="19" customHeight="1">
-      <c r="A16" s="66"/>
-      <c r="B16" s="67"/>
+    <row r="16" spans="1:24" s="13" customFormat="1">
+      <c r="A16" s="68" t="str">
+        <f>Sheet1!A25</f>
+        <v>Cirrascale</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>136</v>
+      </c>
       <c r="C16" s="24" t="str">
-        <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp; " weekly"</f>
-        <v>16-GPU x86 SERVER K80 weekly</v>
+        <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp; " monthly"</f>
+        <v>16-GPU x86 SERVER K80 monthly</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="F16" s="21"/>
-      <c r="G16" s="21">
+      <c r="G16" s="21"/>
+      <c r="H16" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>2649</v>
-      </c>
-      <c r="H16" s="21"/>
+        <v>7499</v>
+      </c>
       <c r="I16" s="21"/>
       <c r="J16" s="14">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ref="J16:J31" ca="1" si="7">INDIRECT("Sheet1!N"&amp; INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("X"&amp;ROW()))</f>
         <v>0.6</v>
       </c>
       <c r="K16" s="14">
@@ -7726,27 +8369,27 @@
         <v>69.92</v>
       </c>
       <c r="L16" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="L16:Q17" ca="1" si="8">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
         <v>K80</v>
       </c>
       <c r="M16" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>8</v>
       </c>
       <c r="N16" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>Xeon E5-2667 v3</v>
       </c>
       <c r="O16" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
       <c r="P16" s="14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>512</v>
       </c>
       <c r="Q16" s="14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>SSD</v>
       </c>
       <c r="R16" s="14">
@@ -7771,57 +8414,57 @@
       </c>
       <c r="W16" s="16"/>
       <c r="X16" s="57">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="20" customHeight="1">
-      <c r="A17" s="66"/>
-      <c r="B17" s="67"/>
+    <row r="17" spans="1:24" s="13" customFormat="1" ht="19" customHeight="1">
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="24" t="str">
-        <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp; " monthly"</f>
-        <v>8-GPU x86 SERVER M40 monthly</v>
+        <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp; " weekly"</f>
+        <v>16-GPU x86 SERVER K80 weekly</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21">
+      <c r="G17" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>5999</v>
-      </c>
+        <v>2649</v>
+      </c>
+      <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="14">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.4</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.6</v>
       </c>
       <c r="K17" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>54.752000000000002</v>
+        <v>69.92</v>
       </c>
       <c r="L17" s="14" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>M40</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>K80</v>
       </c>
       <c r="M17" s="14">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="8"/>
         <v>8</v>
       </c>
       <c r="N17" s="14" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Xeon E5-2630 v3</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>Xeon E5-2667 v3</v>
       </c>
       <c r="O17" s="14">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
       <c r="P17" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>256</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>512</v>
       </c>
       <c r="Q17" s="14" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="8"/>
         <v>SSD</v>
       </c>
       <c r="R17" s="14">
@@ -7846,29 +8489,29 @@
       </c>
       <c r="W17" s="16"/>
       <c r="X17" s="57">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A18" s="66"/>
-      <c r="B18" s="67"/>
+    <row r="18" spans="1:24" ht="20" customHeight="1">
+      <c r="A18" s="68"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="24" t="str">
-        <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp;" weekly"</f>
-        <v>8-GPU x86 SERVER M40 weekly</v>
+        <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp; " monthly"</f>
+        <v>8-GPU x86 SERVER M40 monthly</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F18" s="21"/>
-      <c r="G18" s="21">
+      <c r="G18" s="21"/>
+      <c r="H18" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>1829</v>
-      </c>
-      <c r="H18" s="21"/>
+        <v>5999</v>
+      </c>
       <c r="I18" s="21"/>
       <c r="J18" s="14">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.4</v>
       </c>
       <c r="K18" s="14">
@@ -7921,38 +8564,38 @@
       </c>
       <c r="W18" s="16"/>
       <c r="X18" s="57">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A19" s="66"/>
-      <c r="B19" s="67"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
       <c r="C19" s="24" t="str">
-        <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp; " monthly"</f>
-        <v>8-GPU x86 SERVER P40 monthly</v>
+        <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp;" weekly"</f>
+        <v>8-GPU x86 SERVER M40 weekly</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="24" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21">
+      <c r="G19" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>6999</v>
-      </c>
+        <v>1829</v>
+      </c>
+      <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="14">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.4</v>
       </c>
       <c r="K19" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>94.063999999999993</v>
+        <v>54.752000000000002</v>
       </c>
       <c r="L19" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>P40</v>
+        <v>M40</v>
       </c>
       <c r="M19" s="14">
         <f t="shared" ca="1" si="4"/>
@@ -7996,33 +8639,33 @@
       </c>
       <c r="W19" s="16"/>
       <c r="X19" s="57">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="20" customHeight="1">
-      <c r="A20" s="66"/>
-      <c r="B20" s="67"/>
+    <row r="20" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A20" s="68"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="24" t="str">
-        <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp;" weekly"</f>
-        <v>8-GPU x86 SERVER P40 weekly</v>
+        <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp; " monthly"</f>
+        <v>8-GPU x86 SERVER P40 monthly</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F20" s="21"/>
-      <c r="G20" s="21">
+      <c r="G20" s="21"/>
+      <c r="H20" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>2049</v>
-      </c>
-      <c r="H20" s="21"/>
+        <v>6999</v>
+      </c>
       <c r="I20" s="21"/>
       <c r="J20" s="14">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("X"&amp;ROW()))</f>
         <v>0.4</v>
       </c>
       <c r="K20" s="14">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("X"&amp;ROW()))</f>
         <v>94.063999999999993</v>
       </c>
       <c r="L20" s="14" t="str">
@@ -8071,651 +8714,646 @@
       </c>
       <c r="W20" s="16"/>
       <c r="X20" s="57">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A21" s="66"/>
-      <c r="B21" s="67"/>
+    <row r="21" spans="1:24" ht="20" customHeight="1">
+      <c r="A21" s="68"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="24" t="str">
+        <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp;" weekly"</f>
+        <v>8-GPU x86 SERVER P40 weekly</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
+        <v>2049</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="14">
+        <f t="shared" ref="J21:J29" ca="1" si="9">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("X"&amp;ROW()))</f>
+        <v>0.4</v>
+      </c>
+      <c r="K21" s="14">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("X"&amp;ROW()))</f>
+        <v>94.063999999999993</v>
+      </c>
+      <c r="L21" s="14" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>P40</v>
+      </c>
+      <c r="M21" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="14" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Xeon E5-2630 v3</v>
+      </c>
+      <c r="O21" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P21" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>256</v>
+      </c>
+      <c r="Q21" s="14" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>SSD</v>
+      </c>
+      <c r="R21" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="S21" s="14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SATA</v>
+      </c>
+      <c r="T21" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="U21" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="16"/>
+      <c r="X21" s="57">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A22" s="68"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp; " monthly"</f>
         <v>8-GPU x86 SERVER P100 monthly</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
         <v>8599</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="14">
-        <f t="shared" ca="1" si="2"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="14">
+        <f t="shared" ca="1" si="9"/>
         <v>0.4</v>
       </c>
-      <c r="K21" s="14">
-        <f t="shared" ca="1" si="3"/>
+      <c r="K22" s="14">
+        <f t="shared" ref="K22:K25" ca="1" si="10">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("X"&amp;ROW()))</f>
         <v>76</v>
       </c>
-      <c r="L21" s="14" t="str">
+      <c r="L22" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>P100</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M22" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>8</v>
       </c>
-      <c r="N21" s="14" t="str">
+      <c r="N22" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>Xeon E5-2630 v3</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O22" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P22" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>256</v>
       </c>
-      <c r="Q21" s="14" t="str">
+      <c r="Q22" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>SSD</v>
       </c>
-      <c r="R21" s="14">
+      <c r="R22" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>1000</v>
       </c>
-      <c r="S21" s="14" t="str">
+      <c r="S22" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>SATA</v>
       </c>
-      <c r="T21" s="14">
+      <c r="T22" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>4000</v>
       </c>
-      <c r="U21" s="14">
-        <f t="shared" ref="U21:U31" ca="1" si="7">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
+      <c r="U22" s="14">
+        <f t="shared" ref="U22:U32" ca="1" si="11">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
         <v>0</v>
       </c>
-      <c r="V21" s="16">
-        <f t="shared" ref="V21:V31" ca="1" si="8">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
+      <c r="V22" s="16">
+        <f t="shared" ref="V22:V32" ca="1" si="12">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
         <v>0</v>
       </c>
-      <c r="W21" s="16"/>
-      <c r="X21" s="57">
-        <v>26</v>
+      <c r="W22" s="16"/>
+      <c r="X22" s="57">
+        <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A22" s="66"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="24" t="str">
+    <row r="23" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A23" s="68"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp;" weekly"</f>
         <v>8-GPU x86 SERVER P100 weekly</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
         <v>2599</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="14">
-        <f t="shared" ca="1" si="2"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="14">
+        <f t="shared" ca="1" si="9"/>
         <v>0.4</v>
       </c>
-      <c r="K22" s="14">
-        <f t="shared" ca="1" si="3"/>
+      <c r="K23" s="14">
+        <f t="shared" ca="1" si="10"/>
         <v>76</v>
       </c>
-      <c r="L22" s="14" t="str">
+      <c r="L23" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>P100</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M23" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>8</v>
       </c>
-      <c r="N22" s="14" t="str">
+      <c r="N23" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>Xeon E5-2630 v3</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O23" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P23" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>256</v>
       </c>
-      <c r="Q22" s="14" t="str">
+      <c r="Q23" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>SSD</v>
       </c>
-      <c r="R22" s="14">
+      <c r="R23" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>1000</v>
       </c>
-      <c r="S22" s="14" t="str">
+      <c r="S23" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>SATA</v>
       </c>
-      <c r="T22" s="14">
+      <c r="T23" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>4000</v>
       </c>
-      <c r="U22" s="14">
-        <f t="shared" ca="1" si="7"/>
+      <c r="U23" s="14">
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="V22" s="16">
-        <f t="shared" ca="1" si="8"/>
+      <c r="V23" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="W22" s="16"/>
-      <c r="X22" s="57">
-        <v>26</v>
+      <c r="W23" s="16"/>
+      <c r="X23" s="57">
+        <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A23" s="66"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="24" t="str">
+    <row r="24" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A24" s="68"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp; " monthly"</f>
         <v>4-GPU POWER8/10 SERVER monthly</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21">
+      <c r="D24" s="24"/>
+      <c r="E24" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
         <v>7449</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="14">
-        <f t="shared" ca="1" si="2"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="14">
+        <f t="shared" ca="1" si="9"/>
         <v>1.0960000000000001</v>
       </c>
-      <c r="K23" s="14">
-        <f t="shared" ca="1" si="3"/>
+      <c r="K24" s="14">
+        <f t="shared" ca="1" si="10"/>
         <v>38</v>
       </c>
-      <c r="L23" s="14" t="str">
+      <c r="L24" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>P100</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M24" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
-      <c r="N23" s="14" t="str">
+      <c r="N24" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>POWER8</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O24" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P24" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>1000</v>
       </c>
-      <c r="Q23" s="14" t="str">
+      <c r="Q24" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>SSD</v>
       </c>
-      <c r="R23" s="14" t="str">
+      <c r="R24" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>4 x 960</v>
       </c>
-      <c r="S23" s="14">
+      <c r="S24" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="T23" s="14">
+      <c r="T24" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="U23" s="14">
-        <f t="shared" ca="1" si="7"/>
+      <c r="U24" s="14">
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="V23" s="16" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Infiniband EDR (24.24Gb/s)</v>
-      </c>
-      <c r="W23" s="16"/>
-      <c r="X23" s="57">
-        <v>27</v>
+      <c r="V24" s="16">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="16"/>
+      <c r="X24" s="57">
+        <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A24" s="66"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="24" t="str">
+    <row r="25" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A25" s="68"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp;" weekly"</f>
         <v>4-GPU POWER8/10 SERVER weekly</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
         <v>2259</v>
       </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="14">
-        <f t="shared" ca="1" si="2"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="14">
+        <f t="shared" ca="1" si="9"/>
         <v>1.0960000000000001</v>
       </c>
-      <c r="K24" s="14">
-        <f t="shared" ca="1" si="3"/>
+      <c r="K25" s="14">
+        <f t="shared" ca="1" si="10"/>
         <v>38</v>
       </c>
-      <c r="L24" s="14" t="str">
+      <c r="L25" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>P100</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M25" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
-      <c r="N24" s="14" t="str">
+      <c r="N25" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>POWER8</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O25" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P25" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>1000</v>
       </c>
-      <c r="Q24" s="14" t="str">
+      <c r="Q25" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>SSD</v>
       </c>
-      <c r="R24" s="14" t="str">
+      <c r="R25" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>4 x 960</v>
       </c>
-      <c r="S24" s="14">
+      <c r="S25" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="T24" s="14">
+      <c r="T25" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="U24" s="14">
-        <f t="shared" ca="1" si="7"/>
+      <c r="U25" s="14">
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="V24" s="16" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Infiniband EDR (24.24Gb/s)</v>
-      </c>
-      <c r="W24" s="16"/>
-      <c r="X24" s="57">
-        <v>27</v>
+      <c r="V25" s="16">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="16"/>
+      <c r="X25" s="57">
+        <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A25" s="66"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="24" t="str">
+    <row r="26" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A26" s="68"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp; " monthly"</f>
         <v>4-GPU POWER8/8 SERVER monthly</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21">
+      <c r="D26" s="24"/>
+      <c r="E26" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
         <v>6679</v>
       </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="14">
-        <f t="shared" ca="1" si="2"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="14">
+        <f t="shared" ca="1" si="9"/>
         <v>0.87680000000000002</v>
       </c>
-      <c r="K25" s="14">
-        <f t="shared" ca="1" si="3"/>
+      <c r="K26" s="14">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("X"&amp;ROW()))</f>
         <v>38</v>
       </c>
-      <c r="L25" s="14" t="str">
+      <c r="L26" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>P100</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M26" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
-      <c r="N25" s="14" t="str">
+      <c r="N26" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>POWER8</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O26" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P26" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>512</v>
       </c>
-      <c r="Q25" s="14" t="str">
+      <c r="Q26" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>SSD</v>
       </c>
-      <c r="R25" s="14" t="str">
+      <c r="R26" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>2 x 960</v>
       </c>
-      <c r="S25" s="14">
+      <c r="S26" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="T25" s="14">
+      <c r="T26" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="U25" s="14">
-        <f t="shared" ca="1" si="7"/>
+      <c r="U26" s="14">
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="V25" s="16">
-        <f t="shared" ca="1" si="8"/>
+      <c r="V26" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="W25" s="16"/>
-      <c r="X25" s="57">
-        <v>28</v>
+      <c r="W26" s="16"/>
+      <c r="X26" s="57">
+        <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="20" customHeight="1">
-      <c r="A26" s="66"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="24" t="str">
+    <row r="27" spans="1:24" ht="20" customHeight="1">
+      <c r="A27" s="68"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp;" weekly"</f>
         <v>4-GPU POWER8/8 SERVER weekly</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
         <v>1999</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="14">
-        <f t="shared" ca="1" si="2"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="14">
+        <f t="shared" ca="1" si="9"/>
         <v>0.87680000000000002</v>
       </c>
-      <c r="K26" s="14">
-        <f t="shared" ca="1" si="3"/>
+      <c r="K27" s="14">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("X"&amp;ROW()))</f>
         <v>38</v>
       </c>
-      <c r="L26" s="14" t="str">
+      <c r="L27" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>P100</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M27" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
-      <c r="N26" s="14" t="str">
+      <c r="N27" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>POWER8</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O27" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-      <c r="P26" s="14">
+      <c r="P27" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>512</v>
       </c>
-      <c r="Q26" s="14" t="str">
+      <c r="Q27" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>SSD</v>
       </c>
-      <c r="R26" s="14" t="str">
+      <c r="R27" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>2 x 960</v>
       </c>
-      <c r="S26" s="14">
+      <c r="S27" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="T26" s="14">
+      <c r="T27" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="U26" s="14">
-        <f t="shared" ca="1" si="7"/>
+      <c r="U27" s="14">
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="V26" s="16">
-        <f t="shared" ca="1" si="8"/>
+      <c r="V27" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="W26" s="16"/>
-      <c r="X26" s="57">
-        <v>28</v>
+      <c r="W27" s="16"/>
+      <c r="X27" s="57">
+        <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A27" s="66"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="24" t="str">
+    <row r="28" spans="1:24" s="13" customFormat="1" ht="20" customHeight="1">
+      <c r="A28" s="68"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp; " monthly"</f>
         <v>2-GPU POWER8/8 SERVER monthly</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21">
+      <c r="D28" s="24"/>
+      <c r="E28" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
         <v>4229</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="14">
-        <f t="shared" ca="1" si="2"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="14">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("X"&amp;ROW()))</f>
         <v>0.87680000000000002</v>
       </c>
-      <c r="K27" s="14">
-        <f t="shared" ca="1" si="3"/>
+      <c r="K28" s="14">
+        <f t="shared" ref="K28:K30" ca="1" si="13">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("X"&amp;ROW()))</f>
         <v>19</v>
       </c>
-      <c r="L27" s="14" t="str">
+      <c r="L28" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>P100</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M28" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-      <c r="N27" s="14" t="str">
+      <c r="N28" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>POWER8</v>
       </c>
-      <c r="O27" s="14">
+      <c r="O28" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-      <c r="P27" s="14">
+      <c r="P28" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>128</v>
       </c>
-      <c r="Q27" s="14" t="str">
+      <c r="Q28" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>SSD</v>
       </c>
-      <c r="R27" s="14">
+      <c r="R28" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>960</v>
       </c>
-      <c r="S27" s="14">
+      <c r="S28" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="T27" s="14">
+      <c r="T28" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="U27" s="14">
-        <f t="shared" ca="1" si="7"/>
+      <c r="U28" s="14">
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="V27" s="16">
-        <f t="shared" ca="1" si="8"/>
+      <c r="V28" s="16">
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="W27" s="16"/>
-      <c r="X27" s="57">
-        <v>29</v>
+      <c r="W28" s="16"/>
+      <c r="X28" s="57">
+        <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="20" customHeight="1">
-      <c r="A28" s="66"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="24" t="str">
+    <row r="29" spans="1:24" ht="20" customHeight="1">
+      <c r="A29" s="68"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("X" &amp; ROW())) &amp;" weekly"</f>
         <v>2-GPU POWER8/8 SERVER weekly</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21">
+      <c r="D29" s="24"/>
+      <c r="E29" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
         <v>1269</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="14">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.87680000000000002</v>
-      </c>
-      <c r="K28" s="14">
-        <f t="shared" ca="1" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="L28" s="14" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>P100</v>
-      </c>
-      <c r="M28" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="N28" s="14" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>POWER8</v>
-      </c>
-      <c r="O28" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="P28" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>128</v>
-      </c>
-      <c r="Q28" s="14" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>SSD</v>
-      </c>
-      <c r="R28" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>960</v>
-      </c>
-      <c r="S28" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="14">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="16">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="16"/>
-      <c r="X28" s="57">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="20" customHeight="1">
-      <c r="A29" s="64" t="str">
-        <f>Sheet1!A31</f>
-        <v>Sakura</v>
-      </c>
-      <c r="B29" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="24" t="str">
-        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>Quad GPU model</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21">
-        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>1472.8</v>
-      </c>
+      <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="14">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.87680000000000002</v>
       </c>
       <c r="K29" s="14">
-        <f t="shared" ca="1" si="3"/>
-        <v>40.628</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>19</v>
       </c>
       <c r="L29" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>NVIDIA TITAN X</v>
+        <v>P100</v>
       </c>
       <c r="M29" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N29" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Xeon E5-2623 v3</v>
+        <v>POWER8</v>
       </c>
       <c r="O29" s="14">
         <f t="shared" ca="1" si="4"/>
@@ -8731,23 +9369,23 @@
       </c>
       <c r="R29" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>480</v>
-      </c>
-      <c r="S29" s="14" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>SSD</v>
+        <v>960</v>
+      </c>
+      <c r="S29" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="T29" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="U29" s="14">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.1</v>
-      </c>
-      <c r="V29" s="16" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Price includes one-time costs devided by 12 months.</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="16">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="W29" s="16"/>
       <c r="X29" s="57">
@@ -8755,38 +9393,43 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="20" customHeight="1">
-      <c r="A30" s="64"/>
-      <c r="B30" s="65"/>
+      <c r="A30" s="66" t="str">
+        <f>Sheet1!A33</f>
+        <v>Sakura</v>
+      </c>
+      <c r="B30" s="67" t="s">
+        <v>137</v>
+      </c>
       <c r="C30" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>Tesla P40 model</v>
+        <v>Quad GPU model</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24" t="s">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>1555</v>
+        <v>1472.8</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="14">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("X"&amp;ROW()))</f>
         <v>0.3</v>
       </c>
       <c r="K30" s="14">
-        <f t="shared" ca="1" si="3"/>
-        <v>11.757999999999999</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>40.628</v>
       </c>
       <c r="L30" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>P40</v>
+        <v>NVIDIA TITAN X</v>
       </c>
       <c r="M30" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N30" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8817,45 +9460,47 @@
         <v>480</v>
       </c>
       <c r="U30" s="14">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.1</v>
       </c>
-      <c r="V30" s="16" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Price includes one-time costs devided by 12 months.</v>
+      <c r="V30" s="16">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="W30" s="16"/>
       <c r="X30" s="57">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" ht="20" customHeight="1">
+      <c r="A31" s="66"/>
+      <c r="B31" s="67"/>
       <c r="C31" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>Tesla P100 model</v>
+        <v>Tesla P40 model</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>1588.7</v>
+        <v>1555</v>
       </c>
       <c r="I31" s="21"/>
       <c r="J31" s="14">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.3</v>
       </c>
       <c r="K31" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>9.5</v>
+        <v>11.757999999999999</v>
       </c>
       <c r="L31" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>P100</v>
+        <v>P40</v>
       </c>
       <c r="M31" s="14">
         <f t="shared" ca="1" si="4"/>
@@ -8890,151 +9535,232 @@
         <v>480</v>
       </c>
       <c r="U31" s="14">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.1</v>
       </c>
-      <c r="V31" s="16" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>Price includes one-time costs devided by 12 months.</v>
+      <c r="V31" s="16">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="W31" s="16"/>
       <c r="X31" s="57">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="C32" s="24" t="str">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
+        <v>Tesla P100 model</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
+        <v>1588.7</v>
+      </c>
+      <c r="I32" s="21"/>
+      <c r="J32" s="14">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("X"&amp;ROW()))</f>
+        <v>0.3</v>
+      </c>
+      <c r="K32" s="14">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("X"&amp;ROW()))</f>
+        <v>9.5</v>
+      </c>
+      <c r="L32" s="14" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>P100</v>
+      </c>
+      <c r="M32" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N32" s="14" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Xeon E5-2623 v3</v>
+      </c>
+      <c r="O32" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P32" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="Q32" s="14" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>SSD</v>
+      </c>
+      <c r="R32" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>480</v>
+      </c>
+      <c r="S32" s="14" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>SSD</v>
+      </c>
+      <c r="T32" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>480</v>
+      </c>
+      <c r="U32" s="14">
+        <f t="shared" ca="1" si="11"/>
+        <v>0.1</v>
+      </c>
+      <c r="V32" s="16">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="16"/>
+      <c r="X32" s="57">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A15:A28"/>
-    <mergeCell ref="B15:B28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A16:A29"/>
+    <mergeCell ref="B16:B29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="I22 D24 I24 I26 D28 I28 D21:I21 D22:G22 F24:G24 D26:G26 F28:G28 C29:I30 H21:H30 C3:M14 Q13:Q14 J17:M30 C17:I20 C31:M31">
-    <cfRule type="expression" dxfId="21" priority="79">
+  <conditionalFormatting sqref="I23 I25 I27 I29 F25:G25 F29:G29 H22:H31 Q13:Q15 E23:G23 E18:I22 C30:C32 E30:I32 E26:G28 D26:D33 C3:C21 E17:F17 D4:D24 J18:M31 K32:M32 E3:M16">
+    <cfRule type="expression" dxfId="23" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23 I23 F23:G23">
-    <cfRule type="expression" dxfId="20" priority="77">
+  <conditionalFormatting sqref="D25 I24 F24:G24">
+    <cfRule type="expression" dxfId="22" priority="78">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:G25 I25">
-    <cfRule type="expression" dxfId="19" priority="76">
+  <conditionalFormatting sqref="I26">
+    <cfRule type="expression" dxfId="21" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:G27 I27">
-    <cfRule type="expression" dxfId="18" priority="75">
+  <conditionalFormatting sqref="I28">
+    <cfRule type="expression" dxfId="20" priority="76">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="17" priority="66">
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="19" priority="67">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N14 N17:N31">
-    <cfRule type="expression" dxfId="16" priority="21">
+  <conditionalFormatting sqref="N18:N32 N3:N15">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P14 Q3:U3 R4:U12 R17:T30 V6:V30 R13:T14 U13:U30 P17:P31 R31:V31">
-    <cfRule type="expression" dxfId="15" priority="19">
+  <conditionalFormatting sqref="Q3:U3 R4:U12 R18:T31 V6:V31 R13:T15 U13:U31 P18:P32 R32:V32 P3:P15">
+    <cfRule type="expression" dxfId="17" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
-    <cfRule type="expression" dxfId="14" priority="28">
+  <conditionalFormatting sqref="C22:C23">
+    <cfRule type="expression" dxfId="16" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:C24">
-    <cfRule type="expression" dxfId="13" priority="27">
+  <conditionalFormatting sqref="C24:C25">
+    <cfRule type="expression" dxfId="15" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C26">
-    <cfRule type="expression" dxfId="12" priority="26">
+  <conditionalFormatting sqref="C26:C27">
+    <cfRule type="expression" dxfId="14" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C28">
-    <cfRule type="expression" dxfId="11" priority="25">
+  <conditionalFormatting sqref="C28:C29">
+    <cfRule type="expression" dxfId="13" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O14 O17:O31">
-    <cfRule type="expression" dxfId="10" priority="20">
+  <conditionalFormatting sqref="O18:O32 O3:O15">
+    <cfRule type="expression" dxfId="12" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:Q12">
-    <cfRule type="expression" dxfId="9" priority="18">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q17:Q31">
-    <cfRule type="expression" dxfId="8" priority="17">
+  <conditionalFormatting sqref="Q18:Q32">
+    <cfRule type="expression" dxfId="10" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:M15 C16:F16 H16:M16">
-    <cfRule type="expression" dxfId="7" priority="8">
+  <conditionalFormatting sqref="H17:M17">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N15:N16">
+  <conditionalFormatting sqref="N16:N17">
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16:T17 P16:P17">
+    <cfRule type="expression" dxfId="7" priority="6">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O16:O17">
     <cfRule type="expression" dxfId="6" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R15:T16 P15:P16">
+  <conditionalFormatting sqref="Q16:Q17">
     <cfRule type="expression" dxfId="5" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O15:O16">
-    <cfRule type="expression" dxfId="4" priority="6">
+  <conditionalFormatting sqref="G17">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q15:Q16">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="E25">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="J32">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
-    <hyperlink ref="B29" r:id="rId3"/>
-    <hyperlink ref="D3" r:id="rId4"/>
-    <hyperlink ref="D4:D5" r:id="rId5" display="https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22240"/>
+    <hyperlink ref="B16" r:id="rId2"/>
+    <hyperlink ref="B30" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="D5:D6" r:id="rId5" display="https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22240"/>
   </hyperlinks>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="C18 C20:C28" formula="1"/>
+    <ignoredError sqref="C19 C21:C29" formula="1"/>
     <ignoredError sqref="Q13" emptyCellReference="1"/>
   </ignoredErrors>
   <extLst>

--- a/Comparison table updated 3.xlsx
+++ b/Comparison table updated 3.xlsx
@@ -3333,18 +3333,7 @@
     <cellStyle name="Style 1" xfId="55"/>
     <cellStyle name="Title" xfId="340" builtinId="15" hidden="1"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <font>
         <color auto="1"/>
@@ -3984,7 +3973,7 @@
   <dimension ref="A1:EZ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="Q5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
@@ -6898,27 +6887,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:X13 AA13:XFD13 FA19:XFD20 A23:XFD27 FA31:XFD31 W31 W30:XFD30 S30:V31 R30 Q30:Q31 P30 O30:O31 N30 L28:M31 N28:XFD29 A28:K30 A5:XFD12 A32:XFD34 AA35:AD35 W35 A14:XFD16 A17 AB17:XFD17 A18:I18 A21:O21 Q21:T21 K18:T18 A22:T22 W18:XFD18 W21:XFD22 W19:AD20 U18:U22">
-    <cfRule type="expression" dxfId="31" priority="34">
+    <cfRule type="expression" dxfId="30" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13">
-    <cfRule type="expression" dxfId="30" priority="21">
+    <cfRule type="expression" dxfId="29" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="29" priority="20">
+    <cfRule type="expression" dxfId="28" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:V35">
-    <cfRule type="expression" dxfId="28" priority="19">
+    <cfRule type="expression" dxfId="27" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y35">
-    <cfRule type="expression" dxfId="27" priority="18">
+    <cfRule type="expression" dxfId="26" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7007,7 +6996,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:O20 Q20:T20">
-    <cfRule type="expression" dxfId="26" priority="10">
+    <cfRule type="expression" dxfId="25" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7096,12 +7085,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:I19">
-    <cfRule type="expression" dxfId="25" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:D19 P20:P21 K19:T19">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7206,10 +7195,10 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -7367,7 +7356,7 @@
       <c r="W2" s="13"/>
       <c r="X2" s="13"/>
     </row>
-    <row r="3" spans="1:24" ht="21" customHeight="1" thickTop="1" thickBot="1">
+    <row r="3" spans="1:24" ht="21" customHeight="1" thickTop="1">
       <c r="A3" s="65" t="s">
         <v>29</v>
       </c>
@@ -7378,7 +7367,9 @@
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
         <v>p2.16xlarge on-demand</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="16" t="s">
+        <v>139</v>
+      </c>
       <c r="E3" s="24" t="s">
         <v>125</v>
       </c>
@@ -7445,7 +7436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="20" customHeight="1" thickTop="1">
+    <row r="4" spans="1:24" ht="20" customHeight="1">
       <c r="A4" s="66"/>
       <c r="B4" s="67"/>
       <c r="C4" s="24" t="str">
@@ -7453,7 +7444,7 @@
         <v>p2.8xlarge on-demand</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>126</v>
@@ -7529,7 +7520,7 @@
         <v>p2.xlarge on-demand</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>127</v>
@@ -7605,7 +7596,7 @@
         <v>p2 dedicated host On-demand</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>122</v>
@@ -7681,7 +7672,7 @@
         <v>p2 dedicated host 1 year no Upfront</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>123</v>
@@ -7757,7 +7748,7 @@
         <v>p2 dedicated host 1 year 100% Upfront</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>124</v>
@@ -7836,9 +7827,6 @@
       <c r="C9" s="24" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) &amp; " monthly"</f>
         <v>NVIDIA Tesla K80 Dual Intel Xeon E5-2620 v4 monthly</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>144</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>191</v>
@@ -9635,118 +9623,118 @@
     <mergeCell ref="B16:B29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="I23 I25 I27 I29 F25:G25 F29:G29 H22:H31 Q13:Q15 E23:G23 E18:I22 C30:C32 E30:I32 E26:G28 D26:D33 C3:C21 E17:F17 D4:D24 J18:M31 K32:M32 E3:M16">
-    <cfRule type="expression" dxfId="23" priority="80">
+  <conditionalFormatting sqref="I23 I25 I27 I29 F25:G25 F29:G29 H22:H31 Q13:Q15 E23:G23 E18:I22 C30:C32 E30:I32 E26:G28 D26:D33 C3:C21 E17:F17 J18:M31 K32:M32 E3:M16 D10:D24 D3:D8">
+    <cfRule type="expression" dxfId="22" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25 I24 F24:G24">
-    <cfRule type="expression" dxfId="22" priority="78">
+    <cfRule type="expression" dxfId="21" priority="78">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="21" priority="77">
+    <cfRule type="expression" dxfId="20" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="20" priority="76">
+    <cfRule type="expression" dxfId="19" priority="76">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="19" priority="67">
+    <cfRule type="expression" dxfId="18" priority="67">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18:N32 N3:N15">
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="17" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:U3 R4:U12 R18:T31 V6:V31 R13:T15 U13:U31 P18:P32 R32:V32 P3:P15">
-    <cfRule type="expression" dxfId="17" priority="20">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C23">
-    <cfRule type="expression" dxfId="16" priority="29">
+    <cfRule type="expression" dxfId="15" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C25">
-    <cfRule type="expression" dxfId="15" priority="28">
+    <cfRule type="expression" dxfId="14" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C27">
-    <cfRule type="expression" dxfId="14" priority="27">
+    <cfRule type="expression" dxfId="13" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C29">
-    <cfRule type="expression" dxfId="13" priority="26">
+    <cfRule type="expression" dxfId="12" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18:O32 O3:O15">
-    <cfRule type="expression" dxfId="12" priority="21">
+    <cfRule type="expression" dxfId="11" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:Q12">
-    <cfRule type="expression" dxfId="11" priority="19">
+    <cfRule type="expression" dxfId="10" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18:Q32">
-    <cfRule type="expression" dxfId="10" priority="18">
+    <cfRule type="expression" dxfId="9" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:M17">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:N17">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16:T17 P16:P17">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16:O17">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16:Q17">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9754,8 +9742,8 @@
     <hyperlink ref="B13" r:id="rId1"/>
     <hyperlink ref="B16" r:id="rId2"/>
     <hyperlink ref="B30" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
-    <hyperlink ref="D5:D6" r:id="rId5" display="https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22240"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="D4:D5" r:id="rId5" display="https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22240"/>
   </hyperlinks>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Comparison table updated 3.xlsx
+++ b/Comparison table updated 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="48920" windowHeight="16860" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="48920" windowHeight="15400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <author>Peter Bryzgalov</author>
   </authors>
   <commentList>
-    <comment ref="N4" authorId="0">
+    <comment ref="P4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N5" authorId="0">
+    <comment ref="P5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N6" authorId="0">
+    <comment ref="P6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N8" authorId="0">
+    <comment ref="P8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N9" authorId="0">
+    <comment ref="P9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y10" authorId="0">
+    <comment ref="AA10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y11" authorId="0">
+    <comment ref="AA11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N18" authorId="0">
+    <comment ref="P18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -399,7 +399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N19" authorId="0">
+    <comment ref="P19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -504,7 +504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N29" authorId="0">
+    <comment ref="P29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -548,7 +548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N30" authorId="0">
+    <comment ref="P30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -575,7 +575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y33" authorId="0">
+    <comment ref="AA33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -603,7 +603,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y34" authorId="0">
+    <comment ref="AA34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -633,7 +633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y35" authorId="0">
+    <comment ref="AA35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -663,12 +663,39 @@
         </r>
       </text>
     </comment>
+    <comment ref="Y37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Peter Bryzgalov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+0.07 euro/min  = 4.2 euro/h = 4.49USD/h (2017/01/18)
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="241">
   <si>
     <t>Cloud server providers with GPU</t>
     <phoneticPr fontId="2"/>
@@ -1556,6 +1583,58 @@
   </si>
   <si>
     <t>F</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LeaderTelecom</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.leadergpu.com</t>
+  </si>
+  <si>
+    <t>4 x GeForce GTX 1080</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8 x GeForce GTX 1080</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x GeForce GTX 1080</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GeForce GTX 1080</t>
+  </si>
+  <si>
+    <t>GeForce GTX 1080</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2609 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GHz</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FLOPs per cycle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://en.wikichip.org/wiki/intel/xeon_e5/e5-2686_v4</t>
+  </si>
+  <si>
+    <t>Xeon E5-2609 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2630 v4</t>
+  </si>
+  <si>
+    <t>SSD</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1953,7 +2032,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="616">
+  <cellStyleXfs count="635">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2557,6 +2636,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2715,7 +2813,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="616">
+  <cellStyles count="635">
     <cellStyle name="Calculation" xfId="343" builtinId="22" hidden="1"/>
     <cellStyle name="Check Cell" xfId="345" builtinId="23" hidden="1"/>
     <cellStyle name="comment" xfId="120"/>
@@ -3038,6 +3136,25 @@
     <cellStyle name="Followed Hyperlink" xfId="613" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="615" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="617" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="619" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="621" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="623" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="625" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="627" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="629" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="631" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="633" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 1 2" xfId="62"/>
     <cellStyle name="Heading 2" xfId="263" builtinId="17" customBuiltin="1"/>
@@ -3333,7 +3450,216 @@
     <cellStyle name="Style 1" xfId="55"/>
     <cellStyle name="Title" xfId="340" builtinId="15" hidden="1"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="50">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -3970,13 +4296,13 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EZ35"/>
+  <dimension ref="A1:FB40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="Q5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="H20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomRight" activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -3994,31 +4320,33 @@
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="8.83203125" customWidth="1"/>
     <col min="13" max="13" width="11.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5" customWidth="1"/>
-    <col min="16" max="16" width="12.5" customWidth="1"/>
-    <col min="17" max="17" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.83203125" customWidth="1"/>
-    <col min="19" max="19" width="15.83203125" customWidth="1"/>
+    <col min="14" max="14" width="4.83203125" style="13" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="13" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5" customWidth="1"/>
+    <col min="18" max="18" width="12.5" customWidth="1"/>
+    <col min="19" max="19" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.83203125" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" style="13" customWidth="1"/>
-    <col min="22" max="22" width="11.83203125" customWidth="1"/>
-    <col min="23" max="23" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.83203125" style="13" customWidth="1"/>
-    <col min="25" max="25" width="20.83203125" customWidth="1"/>
-    <col min="26" max="26" width="20.83203125" style="13" customWidth="1"/>
-    <col min="27" max="27" width="28.1640625" customWidth="1"/>
-    <col min="28" max="28" width="22.1640625" customWidth="1"/>
+    <col min="21" max="21" width="15.83203125" customWidth="1"/>
+    <col min="22" max="22" width="9.83203125" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" style="13" customWidth="1"/>
+    <col min="24" max="24" width="11.83203125" customWidth="1"/>
+    <col min="25" max="25" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.83203125" style="13" customWidth="1"/>
+    <col min="27" max="27" width="20.83203125" customWidth="1"/>
+    <col min="28" max="28" width="20.83203125" style="13" customWidth="1"/>
     <col min="29" max="29" width="28.1640625" customWidth="1"/>
-    <col min="30" max="30" width="21.5" customWidth="1"/>
+    <col min="30" max="30" width="22.1640625" customWidth="1"/>
+    <col min="31" max="31" width="28.1640625" customWidth="1"/>
+    <col min="32" max="32" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:156" s="4" customFormat="1" ht="26">
+    <row r="1" spans="1:158" s="4" customFormat="1" ht="26">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:156" s="6" customFormat="1" ht="46" customHeight="1" thickBot="1">
+    <row r="3" spans="1:158" s="6" customFormat="1" ht="46" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="64" t="s">
@@ -4038,39 +4366,39 @@
       <c r="M3" s="64"/>
       <c r="N3" s="64"/>
       <c r="O3" s="64"/>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="64" t="s">
+      <c r="S3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
       <c r="T3" s="64"/>
-      <c r="U3" s="64" t="s">
-        <v>16</v>
-      </c>
+      <c r="U3" s="64"/>
       <c r="V3" s="64"/>
       <c r="W3" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="1" t="s">
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AE3"/>
-      <c r="AF3"/>
       <c r="AG3"/>
       <c r="AH3"/>
       <c r="AI3"/>
@@ -4195,8 +4523,10 @@
       <c r="EX3"/>
       <c r="EY3"/>
       <c r="EZ3"/>
+      <c r="FA3"/>
+      <c r="FB3"/>
     </row>
-    <row r="4" spans="1:156" s="13" customFormat="1" ht="42" customHeight="1" thickTop="1" thickBot="1">
+    <row r="4" spans="1:158" s="13" customFormat="1" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18" t="s">
@@ -4233,56 +4563,62 @@
         <v>6</v>
       </c>
       <c r="N4" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="P4" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="Q4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="R4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="S4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="T4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="U4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="18" t="s">
+      <c r="V4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="18" t="s">
+      <c r="W4" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="X4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="18" t="s">
+      <c r="Y4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="28" t="s">
+      <c r="Z4" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="18" t="s">
+      <c r="AA4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" s="18" t="s">
+      <c r="AB4" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18" t="s">
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AC4" s="18" t="s">
+      <c r="AE4" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="AD4" s="18" t="s">
+      <c r="AF4" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:156" s="13" customFormat="1" ht="21" thickTop="1">
+    <row r="5" spans="1:158" s="13" customFormat="1" ht="21" thickTop="1">
       <c r="A5" s="23" t="s">
         <v>29</v>
       </c>
@@ -4320,46 +4656,52 @@
       <c r="M5" s="14">
         <v>18</v>
       </c>
-      <c r="N5" s="14">
-        <f>0.4/36</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="O5" s="14"/>
+      <c r="N5" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O5" s="5">
+        <v>16</v>
+      </c>
       <c r="P5" s="14">
+        <f>P8/36</f>
+        <v>1.84E-2</v>
+      </c>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14">
         <v>732</v>
       </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
-      <c r="W5" s="26">
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="26">
         <v>14.4</v>
       </c>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="10">
-        <f>W5*720</f>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="10">
+        <f>Y5*720</f>
         <v>10368</v>
       </c>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="16" t="s">
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="AB5" s="26">
-        <f>Y5/(D5*F5)</f>
+      <c r="AD5" s="26">
+        <f>AA5/(D5*F5)</f>
         <v>74.141876430205954</v>
       </c>
-      <c r="AC5" s="14">
-        <f t="shared" ref="AC5:AC11" si="0">D5*F5*1000/Y5</f>
+      <c r="AE5" s="14">
+        <f t="shared" ref="AE5:AE11" si="0">D5*F5*1000/AA5</f>
         <v>13.487654320987655</v>
       </c>
-      <c r="AD5" s="26">
-        <f t="shared" ref="AD5:AD11" si="1">Y5/(L5*N5)</f>
-        <v>14580</v>
+      <c r="AF5" s="26">
+        <f t="shared" ref="AF5:AF11" si="1">AA5/(L5*P5)</f>
+        <v>8804.347826086956</v>
       </c>
     </row>
-    <row r="6" spans="1:156">
+    <row r="6" spans="1:158">
       <c r="A6" s="15" t="s">
         <v>78</v>
       </c>
@@ -4397,46 +4739,55 @@
       <c r="M6" s="5">
         <v>18</v>
       </c>
-      <c r="N6" s="14">
-        <f>0.4/36</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5">
+      <c r="N6" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O6" s="5">
+        <v>16</v>
+      </c>
+      <c r="P6" s="14">
+        <f>P8/36</f>
+        <v>1.84E-2</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5">
         <v>488</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="26">
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="26">
         <v>7.2</v>
       </c>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="10">
-        <f>W6*720</f>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="10">
+        <f>Y6*720</f>
         <v>5184</v>
       </c>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="16" t="s">
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="AB6" s="26">
-        <f t="shared" ref="AB6:AB15" si="2">Y6/(D6*F6)</f>
+      <c r="AD6" s="26">
+        <f t="shared" ref="AD6:AD15" si="2">AA6/(D6*F6)</f>
         <v>74.141876430205954</v>
       </c>
-      <c r="AC6" s="5">
+      <c r="AE6" s="5">
         <f t="shared" si="0"/>
         <v>13.487654320987655</v>
       </c>
-      <c r="AD6" s="26">
+      <c r="AF6" s="26">
         <f t="shared" si="1"/>
-        <v>14580</v>
+        <v>8804.347826086956</v>
       </c>
     </row>
-    <row r="7" spans="1:156">
+    <row r="7" spans="1:158">
+      <c r="A7" s="16" t="s">
+        <v>97</v>
+      </c>
       <c r="B7" s="24" t="s">
         <v>50</v>
       </c>
@@ -4471,48 +4822,54 @@
       <c r="M7" s="5">
         <v>18</v>
       </c>
-      <c r="N7" s="14">
-        <f>0.4/36</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5">
+      <c r="N7" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O7" s="5">
+        <v>16</v>
+      </c>
+      <c r="P7" s="14">
+        <f>P8/36</f>
+        <v>1.84E-2</v>
+      </c>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5">
         <v>61</v>
       </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="26">
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="26">
         <v>0.9</v>
       </c>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="10">
-        <f>W7*720</f>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="10">
+        <f>Y7*720</f>
         <v>648</v>
       </c>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="16" t="s">
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="AB7" s="26">
+      <c r="AD7" s="26">
         <f t="shared" si="2"/>
         <v>74.141876430205954</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="AE7" s="5">
         <f t="shared" si="0"/>
         <v>13.487654320987655</v>
       </c>
-      <c r="AD7" s="26">
+      <c r="AF7" s="26">
         <f t="shared" si="1"/>
-        <v>14580</v>
+        <v>8804.347826086956</v>
       </c>
     </row>
-    <row r="8" spans="1:156">
+    <row r="8" spans="1:158">
       <c r="A8" s="16" t="s">
-        <v>97</v>
+        <v>237</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>98</v>
@@ -4548,44 +4905,50 @@
       <c r="M8" s="5">
         <v>18</v>
       </c>
-      <c r="N8" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="N8" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O8" s="5">
+        <v>16</v>
+      </c>
+      <c r="P8" s="14">
+        <f>M8*N8*O8/1000</f>
+        <v>0.66239999999999999</v>
+      </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="26">
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="26">
         <v>15.84</v>
       </c>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="10">
-        <f>W8*720</f>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="10">
+        <f>Y8*720</f>
         <v>11404.8</v>
       </c>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="16" t="s">
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="AB8" s="26">
+      <c r="AD8" s="26">
         <f t="shared" si="2"/>
         <v>81.556064073226537</v>
       </c>
-      <c r="AC8" s="5">
+      <c r="AE8" s="5">
         <f t="shared" si="0"/>
         <v>12.261503928170596</v>
       </c>
-      <c r="AD8" s="26">
+      <c r="AF8" s="26">
         <f t="shared" si="1"/>
-        <v>14255.999999999998</v>
+        <v>8608.6956521739121</v>
       </c>
     </row>
-    <row r="9" spans="1:156">
-      <c r="A9" s="16"/>
+    <row r="9" spans="1:158">
       <c r="B9" s="24" t="s">
         <v>145</v>
       </c>
@@ -4620,44 +4983,51 @@
       <c r="M9" s="5">
         <v>18</v>
       </c>
-      <c r="N9" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
+      <c r="N9" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O9" s="5">
+        <v>16</v>
+      </c>
+      <c r="P9" s="14">
+        <f t="shared" ref="P9:P15" si="3">M9*N9*O9/1000</f>
+        <v>0.66239999999999999</v>
+      </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="10" t="str">
-        <f>USDOLLAR(Y9/730,2)&amp;"?"</f>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="10" t="str">
+        <f>USDOLLAR(AA9/730,2)&amp;"?"</f>
         <v>$12.05?</v>
       </c>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="10">
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="10">
         <v>8793.81</v>
       </c>
-      <c r="Z9" s="26">
-        <f>$Y9*12</f>
+      <c r="AB9" s="26">
+        <f>$AA9*12</f>
         <v>105525.72</v>
       </c>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="26">
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="26">
         <f t="shared" si="2"/>
         <v>62.884796910755142</v>
       </c>
-      <c r="AC9" s="5">
+      <c r="AE9" s="5">
         <f t="shared" si="0"/>
         <v>15.902094768934058</v>
       </c>
-      <c r="AD9" s="26">
+      <c r="AF9" s="26">
         <f t="shared" si="1"/>
-        <v>10992.262499999999</v>
+        <v>6637.839673913043</v>
       </c>
     </row>
-    <row r="10" spans="1:156">
+    <row r="10" spans="1:158">
       <c r="A10" s="16"/>
       <c r="B10" s="24" t="s">
         <v>146</v>
@@ -4693,44 +5063,51 @@
       <c r="M10" s="5">
         <v>18</v>
       </c>
-      <c r="N10" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
+      <c r="N10" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O10" s="5">
+        <v>16</v>
+      </c>
+      <c r="P10" s="14">
+        <f t="shared" si="3"/>
+        <v>0.66239999999999999</v>
+      </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="10" t="str">
-        <f>USDOLLAR(Y10/730,2)&amp;"?"</f>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="10" t="str">
+        <f>USDOLLAR(AA10/730,2)&amp;"?"</f>
         <v>$10.09?</v>
       </c>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="10">
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="10">
         <v>7365.75</v>
       </c>
-      <c r="Z10" s="26">
-        <f>$Y10*12</f>
+      <c r="AB10" s="26">
+        <f>$AA10*12</f>
         <v>88389</v>
       </c>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="26">
-        <f>Y10/(D10*F10)</f>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="26">
+        <f>AA10/(D10*F10)</f>
         <v>52.672697368421055</v>
       </c>
-      <c r="AC10" s="5">
+      <c r="AE10" s="5">
         <f t="shared" si="0"/>
         <v>18.985167837626854</v>
       </c>
-      <c r="AD10" s="26">
+      <c r="AF10" s="26">
         <f t="shared" si="1"/>
-        <v>9207.1875</v>
+        <v>5559.895833333333</v>
       </c>
     </row>
-    <row r="11" spans="1:156">
+    <row r="11" spans="1:158">
       <c r="A11" s="16"/>
       <c r="B11" s="24" t="s">
         <v>147</v>
@@ -4766,45 +5143,52 @@
       <c r="M11" s="5">
         <v>18</v>
       </c>
-      <c r="N11" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="N11" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O11" s="5">
+        <v>16</v>
+      </c>
+      <c r="P11" s="14">
+        <f t="shared" si="3"/>
+        <v>0.66239999999999999</v>
+      </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="10" t="str">
-        <f>USDOLLAR(Y11/730,2)&amp;"?"</f>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="10" t="str">
+        <f>USDOLLAR(AA11/730,2)&amp;"?"</f>
         <v>$7.03?</v>
       </c>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="10">
-        <f>Z11/12</f>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="10">
+        <f>AB11/12</f>
         <v>5132.7777777777783</v>
       </c>
-      <c r="Z11" s="26">
+      <c r="AB11" s="26">
         <f>184780/3</f>
         <v>61593.333333333336</v>
       </c>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="26">
-        <f>Y11/(D11*F11)</f>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="26">
+        <f>AA11/(D11*F11)</f>
         <v>36.704646580218665</v>
       </c>
-      <c r="AC11" s="5">
+      <c r="AE11" s="5">
         <f t="shared" si="0"/>
         <v>27.244506981275027</v>
       </c>
-      <c r="AD11" s="26">
+      <c r="AF11" s="26">
         <f t="shared" si="1"/>
-        <v>6415.9722222222226</v>
+        <v>3874.3793612453037</v>
       </c>
     </row>
-    <row r="12" spans="1:156">
+    <row r="12" spans="1:158">
       <c r="B12" s="24"/>
       <c r="C12" s="31"/>
       <c r="D12" s="5"/>
@@ -4826,16 +5210,18 @@
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="20"/>
       <c r="Z12" s="26"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="17"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="17"/>
     </row>
-    <row r="13" spans="1:156" ht="20">
+    <row r="13" spans="1:158" ht="20">
       <c r="A13" s="23" t="s">
         <v>28</v>
       </c>
@@ -4873,56 +5259,63 @@
       <c r="M13" s="5">
         <v>8</v>
       </c>
-      <c r="N13" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="O13" s="7">
+      <c r="N13" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="O13" s="5">
+        <v>16</v>
+      </c>
+      <c r="P13" s="14">
+        <f t="shared" si="3"/>
+        <v>0.26880000000000004</v>
+      </c>
+      <c r="Q13" s="7">
         <v>2133</v>
       </c>
-      <c r="P13" s="5">
+      <c r="R13" s="5">
         <v>128</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="S13" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="R13" s="5">
-        <v>800</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="T13" s="5">
         <v>800</v>
       </c>
-      <c r="U13" s="5"/>
+      <c r="U13" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="V13" s="5">
+        <v>800</v>
+      </c>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5">
         <v>0.1</v>
       </c>
-      <c r="W13" s="26">
+      <c r="Y13" s="26">
         <v>5.3</v>
       </c>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26">
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26">
         <v>2479</v>
       </c>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="16" t="s">
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="AB13" s="26">
-        <f>Y13/(D13*F13)</f>
+      <c r="AD13" s="26">
+        <f>AA13/(D13*F13)</f>
         <v>283.63844393592677</v>
       </c>
-      <c r="AC13" s="32">
-        <f>D13*F13*1000/Y13</f>
+      <c r="AE13" s="32">
+        <f>D13*F13*1000/AA13</f>
         <v>3.5256151674062122</v>
       </c>
-      <c r="AD13" s="26">
-        <f>Y13/(L13*N13)</f>
-        <v>6197.5</v>
+      <c r="AF13" s="26">
+        <f>AA13/(L13*P13)</f>
+        <v>4611.2351190476184</v>
       </c>
     </row>
-    <row r="14" spans="1:156">
+    <row r="14" spans="1:158">
       <c r="A14" s="16" t="s">
         <v>121</v>
       </c>
@@ -4960,53 +5353,60 @@
       <c r="M14" s="5">
         <v>12</v>
       </c>
-      <c r="N14" s="14">
-        <v>0.35</v>
+      <c r="N14" s="5">
+        <v>2.6</v>
       </c>
       <c r="O14" s="5">
+        <v>16</v>
+      </c>
+      <c r="P14" s="14">
+        <f t="shared" si="3"/>
+        <v>0.49920000000000003</v>
+      </c>
+      <c r="Q14" s="5">
         <v>2133</v>
       </c>
-      <c r="P14" s="5">
+      <c r="R14" s="5">
         <v>64</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="S14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="R14" s="5">
+      <c r="T14" s="5">
         <v>1000</v>
       </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
       <c r="U14" s="5"/>
-      <c r="V14" s="5">
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5">
         <v>10</v>
       </c>
-      <c r="W14" s="10" t="str">
-        <f>USDOLLAR(Y14/730,2)&amp;"?"</f>
+      <c r="Y14" s="10" t="str">
+        <f>USDOLLAR(AA14/730,2)&amp;"?"</f>
         <v>$2.09?</v>
       </c>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26">
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26">
         <v>1529</v>
       </c>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="16" t="s">
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="AB14" s="26">
+      <c r="AD14" s="26">
         <f t="shared" si="2"/>
         <v>174.94279176201371</v>
       </c>
-      <c r="AC14" s="5">
-        <f>D14*F14*1000/Y14</f>
+      <c r="AE14" s="5">
+        <f>D14*F14*1000/AA14</f>
         <v>5.7161543492478746</v>
       </c>
-      <c r="AD14" s="26">
-        <f>Y14/(L14*N14)</f>
-        <v>2184.2857142857142</v>
+      <c r="AF14" s="26">
+        <f>AA14/(L14*P14)</f>
+        <v>1531.4503205128203</v>
       </c>
     </row>
-    <row r="15" spans="1:156">
+    <row r="15" spans="1:158">
       <c r="A15" s="16"/>
       <c r="B15" s="24" t="s">
         <v>149</v>
@@ -5042,53 +5442,60 @@
       <c r="M15" s="5">
         <v>12</v>
       </c>
-      <c r="N15" s="14">
-        <v>0.35</v>
+      <c r="N15" s="5">
+        <v>2.6</v>
       </c>
       <c r="O15" s="5">
+        <v>16</v>
+      </c>
+      <c r="P15" s="14">
+        <f t="shared" si="3"/>
+        <v>0.49920000000000003</v>
+      </c>
+      <c r="Q15" s="5">
         <v>2133</v>
       </c>
-      <c r="P15" s="5">
+      <c r="R15" s="5">
         <v>64</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="S15" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="R15" s="5">
+      <c r="T15" s="5">
         <v>1000</v>
       </c>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
       <c r="U15" s="5"/>
-      <c r="V15" s="5">
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5">
         <v>10</v>
       </c>
-      <c r="W15" s="10" t="str">
-        <f>USDOLLAR(Y15/730,2)&amp;"?"</f>
+      <c r="Y15" s="10" t="str">
+        <f>USDOLLAR(AA15/730,2)&amp;"?"</f>
         <v>$2.57?</v>
       </c>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26">
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26">
         <v>1879</v>
       </c>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="16" t="s">
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="AB15" s="26">
+      <c r="AD15" s="26">
         <f t="shared" si="2"/>
         <v>194.71502590673575</v>
       </c>
-      <c r="AC15" s="5">
-        <f>D15*F15*1000/Y15</f>
+      <c r="AE15" s="5">
+        <f>D15*F15*1000/AA15</f>
         <v>5.1357104843001595</v>
       </c>
-      <c r="AD15" s="26">
-        <f>Y15/(L15*N15)</f>
-        <v>2684.2857142857147</v>
+      <c r="AF15" s="26">
+        <f>AA15/(L15*P15)</f>
+        <v>1882.0112179487178</v>
       </c>
     </row>
-    <row r="16" spans="1:156">
+    <row r="16" spans="1:158">
       <c r="B16" s="24"/>
       <c r="C16" s="31"/>
       <c r="D16" s="5"/>
@@ -5110,16 +5517,18 @@
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="20"/>
       <c r="Z16" s="26"/>
-      <c r="AA16" s="16"/>
+      <c r="AA16" s="26"/>
       <c r="AB16" s="26"/>
-      <c r="AC16" s="5"/>
+      <c r="AC16" s="16"/>
       <c r="AD16" s="26"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="26"/>
     </row>
-    <row r="17" spans="1:156" ht="20">
+    <row r="17" spans="1:158" ht="20">
       <c r="A17" s="23" t="s">
         <v>44</v>
       </c>
@@ -5159,48 +5568,50 @@
       <c r="M17" s="29">
         <v>8</v>
       </c>
-      <c r="N17" s="30">
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="30">
         <v>0.43840000000000001</v>
       </c>
-      <c r="O17" s="29">
+      <c r="Q17" s="29">
         <v>1333</v>
       </c>
-      <c r="P17" s="29">
+      <c r="R17" s="29">
         <v>128</v>
       </c>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
       <c r="S17" s="29"/>
       <c r="T17" s="29"/>
-      <c r="U17" s="29">
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29">
         <v>56</v>
       </c>
-      <c r="W17" s="43">
+      <c r="Y17" s="43">
         <v>3.5</v>
       </c>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="45">
-        <f>W17*720</f>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="45">
+        <f>Y17*720</f>
         <v>2520</v>
       </c>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="46" t="s">
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="AB17" s="26">
-        <f>Y17/(D17*F17)</f>
+      <c r="AD17" s="26">
+        <f>AA17/(D17*F17)</f>
         <v>250</v>
       </c>
-      <c r="AC17" s="5">
-        <f>D17*F17*1000/Y17</f>
+      <c r="AE17" s="5">
+        <f>D17*F17*1000/AA17</f>
         <v>4</v>
       </c>
-      <c r="AD17" s="26">
-        <f>Y17/(L17*N17)</f>
+      <c r="AF17" s="26">
+        <f>AA17/(L17*P17)</f>
         <v>2874.087591240876</v>
       </c>
     </row>
-    <row r="18" spans="1:156" s="13" customFormat="1" ht="20">
+    <row r="18" spans="1:158" s="13" customFormat="1" ht="20">
       <c r="A18" s="23"/>
       <c r="B18" s="24" t="s">
         <v>46</v>
@@ -5238,48 +5649,50 @@
       <c r="M18" s="5">
         <v>8</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="14">
         <v>0.43840000000000001</v>
       </c>
-      <c r="O18" s="5">
+      <c r="Q18" s="5">
         <v>1333</v>
       </c>
-      <c r="P18" s="5">
+      <c r="R18" s="5">
         <v>128</v>
       </c>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="5">
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5">
         <v>56</v>
       </c>
-      <c r="W18" s="20">
+      <c r="Y18" s="20">
         <v>4.8499999999999996</v>
       </c>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="10">
-        <f>W18*720</f>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="10">
+        <f>Y18*720</f>
         <v>3491.9999999999995</v>
       </c>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="16" t="s">
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AB18" s="26">
-        <f>Y18/(D18*F18)</f>
+      <c r="AD18" s="26">
+        <f>AA18/(D18*F18)</f>
         <v>99.885583524027439</v>
       </c>
-      <c r="AC18" s="5">
-        <f>D18*F18*1000/Y18</f>
+      <c r="AE18" s="5">
+        <f>D18*F18*1000/AA18</f>
         <v>10.011454753722797</v>
       </c>
-      <c r="AD18" s="26">
-        <f>Y18/(L18*N18)</f>
+      <c r="AF18" s="26">
+        <f>AA18/(L18*P18)</f>
         <v>3982.6642335766419</v>
       </c>
     </row>
-    <row r="19" spans="1:156" s="13" customFormat="1" ht="20">
+    <row r="19" spans="1:158" s="13" customFormat="1" ht="20">
       <c r="A19" s="40"/>
       <c r="B19" s="24" t="s">
         <v>215</v>
@@ -5317,48 +5730,48 @@
       <c r="M19" s="5">
         <v>8</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="14">
         <v>0.43840000000000001</v>
       </c>
-      <c r="O19" s="5">
+      <c r="Q19" s="5">
         <v>1333</v>
       </c>
-      <c r="P19" s="5">
+      <c r="R19" s="5">
         <v>128</v>
       </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="5">
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5">
         <v>56</v>
       </c>
-      <c r="W19" s="20">
+      <c r="Y19" s="20">
         <v>7.4</v>
       </c>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="10">
-        <f>W19*720</f>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="10">
+        <f>Y19*720</f>
         <v>5328</v>
       </c>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="16" t="s">
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AB19" s="26">
-        <f>Y19/(D19*F19)</f>
+      <c r="AD19" s="26">
+        <f>AA19/(D19*F19)</f>
         <v>194.62302746931618</v>
       </c>
-      <c r="AC19" s="5">
-        <f>D19*F19*1000/Y19</f>
+      <c r="AE19" s="5">
+        <f>D19*F19*1000/AA19</f>
         <v>5.1381381381381379</v>
       </c>
-      <c r="AD19" s="26">
-        <f>Y19/(L19*N19)</f>
+      <c r="AF19" s="26">
+        <f>AA19/(L19*P19)</f>
         <v>6076.6423357664235</v>
       </c>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
       <c r="AG19" s="47"/>
       <c r="AH19" s="47"/>
       <c r="AI19" s="47"/>
@@ -5483,8 +5896,10 @@
       <c r="EX19" s="47"/>
       <c r="EY19" s="47"/>
       <c r="EZ19" s="47"/>
+      <c r="FA19" s="47"/>
+      <c r="FB19" s="47"/>
     </row>
-    <row r="20" spans="1:156" s="13" customFormat="1" ht="20">
+    <row r="20" spans="1:158" s="13" customFormat="1" ht="20">
       <c r="A20" s="40"/>
       <c r="B20" s="24" t="s">
         <v>214</v>
@@ -5514,28 +5929,28 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="14"/>
+      <c r="N20" s="5"/>
       <c r="O20" s="5"/>
-      <c r="P20" s="5">
+      <c r="P20" s="14"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5">
         <v>128</v>
       </c>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="5">
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5">
         <v>56</v>
       </c>
-      <c r="W20" s="20"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
+      <c r="Y20" s="20"/>
       <c r="Z20" s="26"/>
-      <c r="AA20" s="16"/>
+      <c r="AA20" s="26"/>
       <c r="AB20" s="26"/>
-      <c r="AC20" s="5"/>
+      <c r="AC20" s="16"/>
       <c r="AD20" s="26"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="26"/>
       <c r="AG20" s="47"/>
       <c r="AH20" s="47"/>
       <c r="AI20" s="47"/>
@@ -5660,8 +6075,10 @@
       <c r="EX20" s="47"/>
       <c r="EY20" s="47"/>
       <c r="EZ20" s="47"/>
+      <c r="FA20" s="47"/>
+      <c r="FB20" s="47"/>
     </row>
-    <row r="21" spans="1:156">
+    <row r="21" spans="1:158">
       <c r="A21" s="16" t="s">
         <v>105</v>
       </c>
@@ -5693,28 +6110,30 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="14"/>
+      <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="5">
+      <c r="P21" s="14"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5">
         <v>512</v>
       </c>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="5">
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5">
         <v>56</v>
       </c>
-      <c r="W21" s="20"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
+      <c r="Y21" s="20"/>
       <c r="Z21" s="26"/>
-      <c r="AA21" s="16"/>
+      <c r="AA21" s="26"/>
       <c r="AB21" s="26"/>
-      <c r="AC21" s="5"/>
+      <c r="AC21" s="16"/>
       <c r="AD21" s="26"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="26"/>
     </row>
-    <row r="22" spans="1:156">
+    <row r="22" spans="1:158">
       <c r="A22" s="16" t="s">
         <v>65</v>
       </c>
@@ -5735,19 +6154,21 @@
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="5">
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5">
         <v>56</v>
       </c>
-      <c r="W22" s="20"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
+      <c r="Y22" s="20"/>
       <c r="Z22" s="26"/>
-      <c r="AA22" s="16"/>
+      <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
-      <c r="AC22" s="5"/>
+      <c r="AC22" s="16"/>
       <c r="AD22" s="26"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="26"/>
     </row>
-    <row r="23" spans="1:156">
+    <row r="23" spans="1:158">
       <c r="A23" s="16" t="s">
         <v>66</v>
       </c>
@@ -5770,16 +6191,18 @@
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="20"/>
       <c r="Z23" s="26"/>
-      <c r="AA23" s="16"/>
+      <c r="AA23" s="26"/>
       <c r="AB23" s="26"/>
-      <c r="AC23" s="5"/>
+      <c r="AC23" s="16"/>
       <c r="AD23" s="26"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="26"/>
     </row>
-    <row r="24" spans="1:156">
+    <row r="24" spans="1:158">
       <c r="B24" s="24"/>
       <c r="C24" s="31"/>
       <c r="E24" s="14"/>
@@ -5799,16 +6222,18 @@
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="20"/>
       <c r="Z24" s="26"/>
-      <c r="AA24" s="16"/>
+      <c r="AA24" s="26"/>
       <c r="AB24" s="26"/>
-      <c r="AC24" s="5"/>
+      <c r="AC24" s="16"/>
       <c r="AD24" s="26"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="26"/>
     </row>
-    <row r="25" spans="1:156" ht="20">
+    <row r="25" spans="1:158" ht="20">
       <c r="A25" s="23" t="s">
         <v>45</v>
       </c>
@@ -5846,55 +6271,62 @@
       <c r="M25" s="5">
         <v>8</v>
       </c>
-      <c r="N25" s="14">
-        <v>0.3</v>
+      <c r="N25" s="5">
+        <v>3.2</v>
       </c>
       <c r="O25" s="5">
+        <v>16</v>
+      </c>
+      <c r="P25" s="14">
+        <f t="shared" ref="P25:P28" si="4">M25*N25*O25/1000</f>
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="Q25" s="5">
         <v>1866</v>
       </c>
-      <c r="P25" s="5">
+      <c r="R25" s="5">
         <v>512</v>
       </c>
-      <c r="Q25" s="5" t="s">
+      <c r="S25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="R25" s="14">
+      <c r="T25" s="14">
         <v>1000</v>
       </c>
-      <c r="S25" t="s">
+      <c r="U25" t="s">
         <v>42</v>
       </c>
-      <c r="T25" s="14">
+      <c r="V25" s="14">
         <v>4000</v>
       </c>
-      <c r="U25" s="14"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="10" t="str">
-        <f t="shared" ref="W25:W31" si="3">USDOLLAR(Y25/730,2)&amp;"?"</f>
+      <c r="W25" s="14"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="10" t="str">
+        <f t="shared" ref="Y25:Y31" si="5">USDOLLAR(AA25/730,2)&amp;"?"</f>
         <v>$10.27?</v>
       </c>
-      <c r="X25" s="26">
+      <c r="Z25" s="26">
         <v>2649</v>
       </c>
-      <c r="Y25" s="26">
+      <c r="AA25" s="26">
         <v>7499</v>
       </c>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="26">
-        <f t="shared" ref="AB25:AB30" si="4">Y25/(D25*F25)</f>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="26">
+        <f t="shared" ref="AD25:AD30" si="6">AA25/(D25*F25)</f>
         <v>107.25114416475972</v>
       </c>
-      <c r="AC25" s="5">
-        <f t="shared" ref="AC25:AC30" si="5">D25*F25*1000/Y25</f>
+      <c r="AE25" s="5">
+        <f t="shared" ref="AE25:AE30" si="7">D25*F25*1000/AA25</f>
         <v>9.3239098546472867</v>
       </c>
-      <c r="AD25" s="26">
-        <f t="shared" ref="AD25:AD30" si="6">Y25/(L25*N25)</f>
-        <v>12498.333333333334</v>
+      <c r="AF25" s="26">
+        <f t="shared" ref="AF25:AF30" si="8">AA25/(L25*P25)</f>
+        <v>9154.052734375</v>
       </c>
     </row>
-    <row r="26" spans="1:156">
+    <row r="26" spans="1:158">
       <c r="A26" s="16" t="s">
         <v>67</v>
       </c>
@@ -5932,55 +6364,62 @@
       <c r="M26" s="5">
         <v>8</v>
       </c>
-      <c r="N26" s="14">
-        <v>0.2</v>
+      <c r="N26" s="5">
+        <v>2.4</v>
       </c>
       <c r="O26" s="5">
+        <v>16</v>
+      </c>
+      <c r="P26" s="14">
+        <f t="shared" si="4"/>
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="Q26" s="5">
         <v>1866</v>
       </c>
-      <c r="P26" s="5">
+      <c r="R26" s="5">
         <v>256</v>
       </c>
-      <c r="Q26" s="5" t="s">
+      <c r="S26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="R26" s="14">
+      <c r="T26" s="14">
         <v>1000</v>
       </c>
-      <c r="S26" t="s">
+      <c r="U26" t="s">
         <v>42</v>
       </c>
-      <c r="T26" s="14">
+      <c r="V26" s="14">
         <v>4000</v>
       </c>
-      <c r="U26" s="14"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="10" t="str">
-        <f t="shared" si="3"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="10" t="str">
+        <f t="shared" si="5"/>
         <v>$8.22?</v>
       </c>
-      <c r="X26" s="26">
+      <c r="Z26" s="26">
         <v>1829</v>
       </c>
-      <c r="Y26" s="26">
+      <c r="AA26" s="26">
         <v>5999</v>
       </c>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="26">
-        <f t="shared" si="4"/>
-        <v>109.56677381648159</v>
-      </c>
-      <c r="AC26" s="5">
-        <f t="shared" si="5"/>
-        <v>9.126854475745958</v>
-      </c>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="16"/>
       <c r="AD26" s="26">
         <f t="shared" si="6"/>
-        <v>14997.5</v>
+        <v>109.56677381648159</v>
+      </c>
+      <c r="AE26" s="5">
+        <f t="shared" si="7"/>
+        <v>9.126854475745958</v>
+      </c>
+      <c r="AF26" s="26">
+        <f t="shared" si="8"/>
+        <v>9763.9973958333339</v>
       </c>
     </row>
-    <row r="27" spans="1:156" s="13" customFormat="1">
+    <row r="27" spans="1:158" s="13" customFormat="1">
       <c r="A27" s="2"/>
       <c r="B27" s="24" t="s">
         <v>109</v>
@@ -6016,55 +6455,62 @@
       <c r="M27" s="5">
         <v>8</v>
       </c>
-      <c r="N27" s="14">
-        <v>0.2</v>
+      <c r="N27" s="5">
+        <v>2.4</v>
       </c>
       <c r="O27" s="5">
+        <v>16</v>
+      </c>
+      <c r="P27" s="14">
+        <f t="shared" si="4"/>
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="Q27" s="5">
         <v>1866</v>
       </c>
-      <c r="P27" s="5">
+      <c r="R27" s="5">
         <v>256</v>
       </c>
-      <c r="Q27" s="5" t="s">
+      <c r="S27" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="R27" s="14">
+      <c r="T27" s="14">
         <v>1000</v>
       </c>
-      <c r="S27" s="13" t="s">
+      <c r="U27" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="T27" s="14">
+      <c r="V27" s="14">
         <v>4000</v>
       </c>
-      <c r="U27" s="14"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="10" t="str">
-        <f t="shared" si="3"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="10" t="str">
+        <f t="shared" si="5"/>
         <v>$9.59?</v>
       </c>
-      <c r="X27" s="26">
+      <c r="Z27" s="26">
         <v>2049</v>
       </c>
-      <c r="Y27" s="26">
+      <c r="AA27" s="26">
         <v>6999</v>
       </c>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="26">
-        <f t="shared" si="4"/>
-        <v>74.406786868515056</v>
-      </c>
-      <c r="AC27" s="5">
-        <f t="shared" si="5"/>
-        <v>13.439634233461923</v>
-      </c>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="16"/>
       <c r="AD27" s="26">
         <f t="shared" si="6"/>
-        <v>17497.5</v>
+        <v>74.406786868515056</v>
+      </c>
+      <c r="AE27" s="5">
+        <f t="shared" si="7"/>
+        <v>13.439634233461923</v>
+      </c>
+      <c r="AF27" s="26">
+        <f t="shared" si="8"/>
+        <v>11391.601562500002</v>
       </c>
     </row>
-    <row r="28" spans="1:156" s="13" customFormat="1">
+    <row r="28" spans="1:158" s="13" customFormat="1">
       <c r="A28" s="2"/>
       <c r="B28" s="24" t="s">
         <v>110</v>
@@ -6100,55 +6546,62 @@
       <c r="M28" s="5">
         <v>8</v>
       </c>
-      <c r="N28" s="14">
-        <v>0.2</v>
+      <c r="N28" s="5">
+        <v>2.4</v>
       </c>
       <c r="O28" s="5">
+        <v>16</v>
+      </c>
+      <c r="P28" s="14">
+        <f t="shared" si="4"/>
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="Q28" s="5">
         <v>1866</v>
       </c>
-      <c r="P28" s="5">
+      <c r="R28" s="5">
         <v>256</v>
       </c>
-      <c r="Q28" s="5" t="s">
+      <c r="S28" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="R28" s="14">
+      <c r="T28" s="14">
         <v>1000</v>
       </c>
-      <c r="S28" s="13" t="s">
+      <c r="U28" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="T28" s="14">
+      <c r="V28" s="14">
         <v>4000</v>
       </c>
-      <c r="U28" s="14"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="10" t="str">
-        <f t="shared" si="3"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="10" t="str">
+        <f t="shared" si="5"/>
         <v>$11.78?</v>
       </c>
-      <c r="X28" s="26">
+      <c r="Z28" s="26">
         <v>2599</v>
       </c>
-      <c r="Y28" s="26">
+      <c r="AA28" s="26">
         <v>8599</v>
       </c>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="26">
-        <f t="shared" si="4"/>
-        <v>113.14473684210526</v>
-      </c>
-      <c r="AC28" s="5">
-        <f t="shared" si="5"/>
-        <v>8.838237004302826</v>
-      </c>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="16"/>
       <c r="AD28" s="26">
         <f t="shared" si="6"/>
-        <v>21497.5</v>
+        <v>113.14473684210526</v>
+      </c>
+      <c r="AE28" s="5">
+        <f t="shared" si="7"/>
+        <v>8.838237004302826</v>
+      </c>
+      <c r="AF28" s="26">
+        <f t="shared" si="8"/>
+        <v>13995.768229166668</v>
       </c>
     </row>
-    <row r="29" spans="1:156">
+    <row r="29" spans="1:158">
       <c r="B29" s="24" t="s">
         <v>91</v>
       </c>
@@ -6185,53 +6638,55 @@
       <c r="M29" s="5">
         <v>10</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="14">
         <v>0.54800000000000004</v>
       </c>
-      <c r="O29" s="5">
+      <c r="Q29" s="5">
         <v>1333</v>
       </c>
-      <c r="P29" s="5">
+      <c r="R29" s="5">
         <v>1000</v>
       </c>
-      <c r="Q29" s="5" t="s">
+      <c r="S29" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="R29" s="14" t="s">
+      <c r="T29" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
       <c r="U29" s="14"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="10" t="str">
-        <f t="shared" si="3"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="10" t="str">
+        <f t="shared" si="5"/>
         <v>$10.20?</v>
       </c>
-      <c r="X29" s="26">
+      <c r="Z29" s="26">
         <v>2259</v>
       </c>
-      <c r="Y29" s="26">
+      <c r="AA29" s="26">
         <v>7449</v>
       </c>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="16" t="s">
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="AB29" s="26">
-        <f t="shared" si="4"/>
-        <v>196.02631578947367</v>
-      </c>
-      <c r="AC29" s="5">
-        <f t="shared" si="5"/>
-        <v>5.1013558866962008</v>
       </c>
       <c r="AD29" s="26">
         <f t="shared" si="6"/>
+        <v>196.02631578947367</v>
+      </c>
+      <c r="AE29" s="5">
+        <f t="shared" si="7"/>
+        <v>5.1013558866962008</v>
+      </c>
+      <c r="AF29" s="26">
+        <f t="shared" si="8"/>
         <v>6796.5328467153277</v>
       </c>
     </row>
-    <row r="30" spans="1:156">
+    <row r="30" spans="1:158">
       <c r="B30" s="24" t="s">
         <v>92</v>
       </c>
@@ -6268,51 +6723,53 @@
       <c r="M30" s="5">
         <v>8</v>
       </c>
-      <c r="N30" s="14">
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="14">
         <v>0.43840000000000001</v>
       </c>
-      <c r="O30" s="5">
+      <c r="Q30" s="5">
         <v>1333</v>
       </c>
-      <c r="P30" s="5">
+      <c r="R30" s="5">
         <v>512</v>
       </c>
-      <c r="Q30" s="5" t="s">
+      <c r="S30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R30" s="14" t="s">
+      <c r="T30" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
       <c r="U30" s="14"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="10" t="str">
-        <f t="shared" si="3"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="10" t="str">
+        <f t="shared" si="5"/>
         <v>$9.15?</v>
       </c>
-      <c r="X30" s="26">
+      <c r="Z30" s="26">
         <v>1999</v>
       </c>
-      <c r="Y30" s="26">
+      <c r="AA30" s="26">
         <v>6679</v>
       </c>
-      <c r="Z30" s="26"/>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="26">
-        <f t="shared" si="4"/>
-        <v>175.76315789473685</v>
-      </c>
-      <c r="AC30" s="5">
-        <f t="shared" si="5"/>
-        <v>5.6894744722263813</v>
-      </c>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="16"/>
       <c r="AD30" s="26">
         <f t="shared" si="6"/>
+        <v>175.76315789473685</v>
+      </c>
+      <c r="AE30" s="5">
+        <f t="shared" si="7"/>
+        <v>5.6894744722263813</v>
+      </c>
+      <c r="AF30" s="26">
+        <f t="shared" si="8"/>
         <v>7617.4726277372265</v>
       </c>
     </row>
-    <row r="31" spans="1:156" s="13" customFormat="1">
+    <row r="31" spans="1:158" s="13" customFormat="1">
       <c r="A31" s="48"/>
       <c r="B31" s="49" t="s">
         <v>172</v>
@@ -6350,48 +6807,48 @@
       <c r="M31" s="5">
         <v>8</v>
       </c>
-      <c r="N31" s="37">
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="37">
         <v>0.43840000000000001</v>
       </c>
-      <c r="O31" s="5">
+      <c r="Q31" s="5">
         <v>1333</v>
       </c>
-      <c r="P31" s="50">
+      <c r="R31" s="50">
         <v>128</v>
       </c>
-      <c r="Q31" s="5" t="s">
+      <c r="S31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R31" s="37">
+      <c r="T31" s="37">
         <v>960</v>
       </c>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
       <c r="U31" s="14"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="10" t="str">
-        <f t="shared" si="3"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="10" t="str">
+        <f t="shared" si="5"/>
         <v>$5.79?</v>
       </c>
-      <c r="X31" s="52">
+      <c r="Z31" s="52">
         <v>1269</v>
       </c>
-      <c r="Y31" s="52">
+      <c r="AA31" s="52">
         <v>4229</v>
       </c>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="54">
+      <c r="AB31" s="52"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="54">
         <v>175.76</v>
       </c>
-      <c r="AC31" s="55">
+      <c r="AE31" s="55">
         <v>5.6894744719999997</v>
       </c>
-      <c r="AD31" s="56">
+      <c r="AF31" s="56">
         <v>7617.47</v>
       </c>
-      <c r="AE31" s="51"/>
-      <c r="AF31" s="51"/>
       <c r="AG31" s="51"/>
       <c r="AH31" s="51"/>
       <c r="AI31" s="51"/>
@@ -6516,8 +6973,10 @@
       <c r="EX31" s="51"/>
       <c r="EY31" s="51"/>
       <c r="EZ31" s="51"/>
+      <c r="FA31" s="51"/>
+      <c r="FB31" s="51"/>
     </row>
-    <row r="32" spans="1:156">
+    <row r="32" spans="1:158">
       <c r="B32" s="24"/>
       <c r="C32" s="31"/>
       <c r="E32" s="14"/>
@@ -6538,16 +6997,18 @@
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="26"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="20"/>
       <c r="Z32" s="26"/>
-      <c r="AA32" s="16"/>
+      <c r="AA32" s="26"/>
       <c r="AB32" s="26"/>
-      <c r="AC32" s="5"/>
+      <c r="AC32" s="16"/>
       <c r="AD32" s="26"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="26"/>
     </row>
-    <row r="33" spans="1:30" ht="20">
+    <row r="33" spans="1:32" ht="20">
       <c r="A33" s="23" t="s">
         <v>51</v>
       </c>
@@ -6557,85 +7018,92 @@
       <c r="C33" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="31">
         <v>4</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="31">
         <v>3584</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="31">
         <v>10.157</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="31">
         <v>0.317</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="31">
         <v>12</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="31">
         <v>480</v>
       </c>
-      <c r="J33" s="14"/>
-      <c r="K33" s="5" t="s">
+      <c r="J33" s="31"/>
+      <c r="K33" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="31">
         <v>2</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="31">
         <v>4</v>
       </c>
-      <c r="N33" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="O33" s="5">
+      <c r="N33" s="31">
+        <v>3</v>
+      </c>
+      <c r="O33" s="31">
+        <v>16</v>
+      </c>
+      <c r="P33" s="14">
+        <f t="shared" ref="P33" si="9">M33*N33*O33/1000</f>
+        <v>0.192</v>
+      </c>
+      <c r="Q33" s="31">
         <v>1866</v>
       </c>
-      <c r="P33" s="5">
+      <c r="R33" s="31">
         <v>128</v>
       </c>
-      <c r="Q33" s="5" t="s">
+      <c r="S33" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="R33" s="5">
+      <c r="T33" s="31">
         <v>480</v>
       </c>
-      <c r="S33" s="5" t="s">
+      <c r="U33" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="T33" s="5">
+      <c r="V33" s="31">
         <v>480</v>
       </c>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5">
+      <c r="W33" s="31"/>
+      <c r="X33" s="31">
         <v>0.1</v>
       </c>
-      <c r="W33" s="10" t="str">
-        <f>USDOLLAR(Y33/730,2)&amp;"?"</f>
+      <c r="Y33" s="10" t="str">
+        <f>USDOLLAR(AA33/730,2)&amp;"?"</f>
         <v>$2.02?</v>
       </c>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="26">
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26">
         <v>1472.8</v>
       </c>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="16" t="s">
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AB33" s="26">
-        <f>Y33/(D33*F33)</f>
+      <c r="AD33" s="26">
+        <f>AA33/(D33*F33)</f>
         <v>36.250861474844932</v>
       </c>
-      <c r="AC33" s="5">
-        <f>D33*F33*1000/Y33</f>
+      <c r="AE33" s="5">
+        <f>D33*F33*1000/AA33</f>
         <v>27.585551330798481</v>
       </c>
-      <c r="AD33" s="26">
-        <f>Y33/(L33*N33)</f>
-        <v>4909.333333333333</v>
+      <c r="AF33" s="26">
+        <f>AA33/(L33*P33)</f>
+        <v>3835.4166666666665</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:32">
       <c r="A34" s="16" t="s">
         <v>68</v>
       </c>
@@ -6645,177 +7113,441 @@
       <c r="C34" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="31">
         <v>1</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="31">
         <v>3840</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="31">
         <v>11.757999999999999</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="31">
         <v>0.36699999999999999</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="31">
         <v>24.576000000000001</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="31">
         <v>345.6</v>
       </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="5" t="s">
+      <c r="J34" s="31"/>
+      <c r="K34" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="31">
         <v>2</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="31">
         <v>4</v>
       </c>
-      <c r="N34" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="O34" s="5">
+      <c r="N34" s="31">
+        <v>3</v>
+      </c>
+      <c r="O34" s="31">
+        <v>16</v>
+      </c>
+      <c r="P34" s="14">
+        <f t="shared" ref="P34:P37" si="10">M34*N34*O34/1000</f>
+        <v>0.192</v>
+      </c>
+      <c r="Q34" s="31">
         <v>1866</v>
       </c>
-      <c r="P34" s="5">
+      <c r="R34" s="31">
         <v>128</v>
       </c>
-      <c r="Q34" s="5" t="s">
+      <c r="S34" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="R34" s="5">
+      <c r="T34" s="31">
         <v>480</v>
       </c>
-      <c r="S34" s="5" t="s">
+      <c r="U34" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="T34" s="5">
+      <c r="V34" s="31">
         <v>480</v>
       </c>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5">
+      <c r="W34" s="31"/>
+      <c r="X34" s="31">
         <v>0.1</v>
       </c>
-      <c r="W34" s="10" t="str">
-        <f>USDOLLAR(Y34/730,2)&amp;"?"</f>
+      <c r="Y34" s="10" t="str">
+        <f>USDOLLAR(AA34/730,2)&amp;"?"</f>
         <v>$2.13?</v>
       </c>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="26">
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26">
         <v>1555</v>
       </c>
-      <c r="Z34" s="26"/>
-      <c r="AA34" s="16" t="s">
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AB34" s="26">
-        <f>Y34/(D34*F34)</f>
+      <c r="AD34" s="26">
+        <f>AA34/(D34*F34)</f>
         <v>132.25038271814935</v>
       </c>
-      <c r="AC34" s="5">
-        <f>D34*F34*1000/Y34</f>
+      <c r="AE34" s="5">
+        <f>D34*F34*1000/AA34</f>
         <v>7.5614147909967846</v>
       </c>
-      <c r="AD34" s="26">
-        <f>Y34/(L34*N34)</f>
-        <v>5183.3333333333339</v>
+      <c r="AF34" s="26">
+        <f>AA34/(L34*P34)</f>
+        <v>4049.4791666666665</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:32">
       <c r="B35" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="31">
         <v>1</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="31">
         <v>3584</v>
       </c>
-      <c r="F35" s="50">
+      <c r="F35" s="31">
         <v>9.5</v>
       </c>
-      <c r="G35" s="50">
+      <c r="G35" s="31">
         <v>4.7</v>
       </c>
-      <c r="H35" s="50">
+      <c r="H35" s="31">
         <v>16.399999999999999</v>
       </c>
-      <c r="I35" s="50">
+      <c r="I35" s="31">
         <v>720</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="J35" s="31"/>
+      <c r="K35" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="31">
         <v>2</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="31">
         <v>4</v>
       </c>
-      <c r="N35" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="O35" s="5">
+      <c r="N35" s="31">
+        <v>3</v>
+      </c>
+      <c r="O35" s="31">
+        <v>16</v>
+      </c>
+      <c r="P35" s="14">
+        <f t="shared" si="10"/>
+        <v>0.192</v>
+      </c>
+      <c r="Q35" s="31">
         <v>1866</v>
       </c>
-      <c r="P35" s="5">
+      <c r="R35" s="31">
         <v>128</v>
       </c>
-      <c r="Q35" s="5" t="s">
+      <c r="S35" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="R35" s="5">
+      <c r="T35" s="31">
         <v>480</v>
       </c>
-      <c r="S35" s="5" t="s">
+      <c r="U35" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="T35" s="5">
+      <c r="V35" s="31">
         <v>480</v>
       </c>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5">
+      <c r="W35" s="31"/>
+      <c r="X35" s="31">
         <v>0.1</v>
       </c>
-      <c r="W35" s="10" t="str">
-        <f>USDOLLAR(Y35/730,2)&amp;"?"</f>
+      <c r="Y35" s="10" t="str">
+        <f>USDOLLAR(AA35/730,2)&amp;"?"</f>
         <v>$2.18?</v>
       </c>
-      <c r="Y35" s="26">
+      <c r="AA35" s="26">
         <v>1588.7</v>
       </c>
-      <c r="AA35" s="16" t="s">
+      <c r="AC35" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="AB35" s="26">
-        <f>Y35/(D35*F35)</f>
+      <c r="AD35" s="26">
+        <f>AA35/(D35*F35)</f>
         <v>167.23157894736843</v>
       </c>
-      <c r="AC35" s="5">
-        <f>D35*F35*1000/Y35</f>
+      <c r="AE35" s="5">
+        <f>D35*F35*1000/AA35</f>
         <v>5.9797318562346575</v>
       </c>
-      <c r="AD35" s="26">
-        <f>Y35/(L35*N35)</f>
-        <v>5295.666666666667</v>
-      </c>
+      <c r="AF35" s="26">
+        <f>AA35/(L35*P35)</f>
+        <v>4137.239583333333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32">
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
+    </row>
+    <row r="37" spans="1:32" ht="20">
+      <c r="A37" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="D37" s="31">
+        <v>2</v>
+      </c>
+      <c r="E37" s="31">
+        <v>2560</v>
+      </c>
+      <c r="F37" s="31">
+        <v>8.2279999999999998</v>
+      </c>
+      <c r="G37" s="31">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="H37" s="31">
+        <v>8</v>
+      </c>
+      <c r="I37" s="31">
+        <v>320</v>
+      </c>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="L37" s="31">
+        <v>2</v>
+      </c>
+      <c r="M37" s="31">
+        <v>8</v>
+      </c>
+      <c r="N37" s="31">
+        <v>1.7</v>
+      </c>
+      <c r="O37" s="31">
+        <v>16</v>
+      </c>
+      <c r="P37" s="14">
+        <f t="shared" si="10"/>
+        <v>0.21759999999999999</v>
+      </c>
+      <c r="Q37" s="31">
+        <v>1866</v>
+      </c>
+      <c r="R37" s="31">
+        <v>32</v>
+      </c>
+      <c r="S37" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="T37" s="31">
+        <v>480</v>
+      </c>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31">
+        <v>40</v>
+      </c>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="13">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32">
+      <c r="A38" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="D38" s="31">
+        <v>4</v>
+      </c>
+      <c r="E38" s="31">
+        <v>2560</v>
+      </c>
+      <c r="F38" s="31">
+        <v>8.2279999999999998</v>
+      </c>
+      <c r="G38" s="31">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="H38" s="31">
+        <v>8</v>
+      </c>
+      <c r="I38" s="31">
+        <v>320</v>
+      </c>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="L38" s="31">
+        <v>2</v>
+      </c>
+      <c r="M38" s="31">
+        <v>8</v>
+      </c>
+      <c r="N38" s="31">
+        <v>1.7</v>
+      </c>
+      <c r="O38" s="31">
+        <v>16</v>
+      </c>
+      <c r="P38" s="14">
+        <f t="shared" ref="P38:P39" si="11">M38*N38*O38/1000</f>
+        <v>0.21759999999999999</v>
+      </c>
+      <c r="Q38" s="31">
+        <v>1866</v>
+      </c>
+      <c r="R38" s="31">
+        <v>64</v>
+      </c>
+      <c r="S38" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="T38" s="31">
+        <v>480</v>
+      </c>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31">
+        <v>40</v>
+      </c>
+      <c r="X38" s="31"/>
+    </row>
+    <row r="39" spans="1:32">
+      <c r="B39" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="D39" s="31">
+        <v>8</v>
+      </c>
+      <c r="E39" s="31">
+        <v>2560</v>
+      </c>
+      <c r="F39" s="31">
+        <v>8.2279999999999998</v>
+      </c>
+      <c r="G39" s="31">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="H39" s="31">
+        <v>8</v>
+      </c>
+      <c r="I39" s="31">
+        <v>320</v>
+      </c>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="L39" s="31">
+        <v>2</v>
+      </c>
+      <c r="M39" s="31">
+        <v>10</v>
+      </c>
+      <c r="N39" s="31">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O39" s="31">
+        <v>16</v>
+      </c>
+      <c r="P39" s="14">
+        <f t="shared" si="11"/>
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="Q39" s="31">
+        <v>1866</v>
+      </c>
+      <c r="R39" s="31">
+        <v>128</v>
+      </c>
+      <c r="S39" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="T39" s="31">
+        <v>480</v>
+      </c>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31">
+        <v>40</v>
+      </c>
+      <c r="X39" s="31"/>
+    </row>
+    <row r="40" spans="1:32">
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C3:I3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="W3:X3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="AB33">
-    <cfRule type="colorScale" priority="48">
+  <conditionalFormatting sqref="AD33">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6826,8 +7558,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC33">
-    <cfRule type="colorScale" priority="47">
+  <conditionalFormatting sqref="AE33">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6838,8 +7570,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB34:AB35">
-    <cfRule type="colorScale" priority="43">
+  <conditionalFormatting sqref="AD34:AD35">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6850,8 +7582,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC34:AC35">
-    <cfRule type="colorScale" priority="42">
+  <conditionalFormatting sqref="AE34:AE35">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6862,8 +7594,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB34:AB35">
-    <cfRule type="colorScale" priority="41">
+  <conditionalFormatting sqref="AD34:AD35">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6874,8 +7606,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC34:AC35">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="AE34:AE35">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6886,33 +7618,33 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:X13 AA13:XFD13 FA19:XFD20 A23:XFD27 FA31:XFD31 W31 W30:XFD30 S30:V31 R30 Q30:Q31 P30 O30:O31 N30 L28:M31 N28:XFD29 A28:K30 A5:XFD12 A32:XFD34 AA35:AD35 W35 A14:XFD16 A17 AB17:XFD17 A18:I18 A21:O21 Q21:T21 K18:T18 A22:T22 W18:XFD18 W21:XFD22 W19:AD20 U18:U22">
-    <cfRule type="expression" dxfId="30" priority="34">
+  <conditionalFormatting sqref="AC13:XFD13 FC19:XFD20 FC31:XFD31 Y31 Y30:XFD30 U30:X31 T30 S30:S31 R30 Q30:Q31 P30 L29:O31 A28:K30 AC35:AF35 Y35 A17 AD17:XFD17 A18:I18 A21:Q21 S21:V21 K18:V18 A22:V22 Y18:XFD18 Y21:XFD22 Y19:AF20 W18:W22 A12:XFD12 B8:XFD8 A7:A8 A5:M6 B7:M7 B9:M9 A10:M11 N9:XFD11 N5:XFD7 A13:Z13 A14:XFD16 A23:XFD25 A27:M27 L28:M28 N27:O28 A26:O26 P26:XFD29 A32:XFD33 A34:M34 Q34:XFD34 N34:P35">
+    <cfRule type="expression" dxfId="49" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y13">
-    <cfRule type="expression" dxfId="29" priority="21">
+  <conditionalFormatting sqref="AA13">
+    <cfRule type="expression" dxfId="48" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="28" priority="20">
+    <cfRule type="expression" dxfId="47" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35:V35">
-    <cfRule type="expression" dxfId="27" priority="19">
+  <conditionalFormatting sqref="K35:M35 Q35:X35">
+    <cfRule type="expression" dxfId="46" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y35">
-    <cfRule type="expression" dxfId="26" priority="18">
+  <conditionalFormatting sqref="AA35">
+    <cfRule type="expression" dxfId="45" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB32:AB35 AB21:AB30 AB5:AB18">
-    <cfRule type="colorScale" priority="119">
+  <conditionalFormatting sqref="AD32:AD35 AD21:AD30 AD5:AD18">
+    <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6923,8 +7655,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC32:AC35 AC21:AC30 AC5:AC18">
-    <cfRule type="colorScale" priority="123">
+  <conditionalFormatting sqref="AE32:AE35 AE21:AE30 AE5:AE18">
+    <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6935,8 +7667,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB32:AB33 AB21:AB30 AB5:AB18">
-    <cfRule type="colorScale" priority="127">
+  <conditionalFormatting sqref="AD32:AD33 AD21:AD30 AD5:AD18">
+    <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6947,8 +7679,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC32:AC33 AC21:AC30 AC5:AC18">
-    <cfRule type="colorScale" priority="131">
+  <conditionalFormatting sqref="AE32:AE33 AE21:AE30 AE5:AE18">
+    <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6959,8 +7691,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD32:AD35 AD21:AD30 AD5:AD18">
-    <cfRule type="colorScale" priority="135">
+  <conditionalFormatting sqref="AF32:AF35 AF21:AF30 AF5:AF18">
+    <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6971,8 +7703,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB21:AB30 AB5:AB18">
-    <cfRule type="colorScale" priority="139">
+  <conditionalFormatting sqref="AD21:AD30 AD5:AD18">
+    <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6983,8 +7715,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC21:AC30 AC5:AC18">
-    <cfRule type="colorScale" priority="142">
+  <conditionalFormatting sqref="AE21:AE30 AE5:AE18">
+    <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6995,13 +7727,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:O20 Q20:T20">
-    <cfRule type="expression" dxfId="25" priority="10">
+  <conditionalFormatting sqref="B20:Q20 S20:V20">
+    <cfRule type="expression" dxfId="44" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB20">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="AD20">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7012,32 +7744,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC20">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB20">
+  <conditionalFormatting sqref="AE20">
     <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC20">
-    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7049,7 +7757,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD20">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7060,7 +7768,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB20">
+  <conditionalFormatting sqref="AE20">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF20">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -7072,8 +7792,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC20">
+  <conditionalFormatting sqref="AD20">
     <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE20">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7085,17 +7817,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:I19">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="43" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:D19 P20:P21 K19:T19">
-    <cfRule type="expression" dxfId="23" priority="2">
+  <conditionalFormatting sqref="B19:D19 R20:R21 K19:V19">
+    <cfRule type="expression" dxfId="42" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB19">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="AD19">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7106,32 +7838,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC19">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB19">
+  <conditionalFormatting sqref="AE19">
     <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC19">
-    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7143,7 +7851,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD19">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7154,7 +7862,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB19">
+  <conditionalFormatting sqref="AE19">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF19">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -7166,8 +7886,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC19">
+  <conditionalFormatting sqref="AD19">
     <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE19">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7178,8 +7910,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P37:P39">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="56" fitToWidth="2" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <ignoredErrors>
+    <ignoredError sqref="P6" formula="1"/>
+  </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -7194,11 +7934,11 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -7375,14 +8115,14 @@
       </c>
       <c r="F3" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="14">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("X"&amp;ROW()))</f>
-        <v>0.71111111111111114</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="K3" s="14">
         <f ca="1">INDIRECT("Sheet1!F"&amp; INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("X"&amp;ROW()))</f>
@@ -7406,7 +8146,7 @@
       </c>
       <c r="P3" s="14">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>732</v>
+        <v>1.84E-2</v>
       </c>
       <c r="Q3" s="14">
         <f t="shared" ref="Q3:V21" ca="1" si="0">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
@@ -7414,7 +8154,7 @@
       </c>
       <c r="R3" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>732</v>
       </c>
       <c r="S3" s="14">
         <f t="shared" ca="1" si="0"/>
@@ -7451,14 +8191,14 @@
       </c>
       <c r="F4" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
       <c r="J4" s="14">
         <f t="shared" ref="J4:J15" ca="1" si="2">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("X"&amp;ROW()))</f>
-        <v>0.35555555555555557</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="K4" s="14">
         <f t="shared" ref="K4:K31" ca="1" si="3">INDIRECT("Sheet1!F"&amp; INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("X"&amp;ROW()))</f>
@@ -7482,7 +8222,7 @@
       </c>
       <c r="P4" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>488</v>
+        <v>1.84E-2</v>
       </c>
       <c r="Q4" s="14">
         <f t="shared" ca="1" si="4"/>
@@ -7490,7 +8230,7 @@
       </c>
       <c r="R4" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="S4" s="14">
         <f t="shared" ca="1" si="0"/>
@@ -7527,14 +8267,14 @@
       </c>
       <c r="F5" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>4.4444444444444446E-2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K5" s="14">
         <f t="shared" ca="1" si="3"/>
@@ -7558,7 +8298,7 @@
       </c>
       <c r="P5" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>1.84E-2</v>
       </c>
       <c r="Q5" s="14">
         <f t="shared" ca="1" si="4"/>
@@ -7566,7 +8306,7 @@
       </c>
       <c r="R5" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="S5" s="14">
         <f t="shared" ca="1" si="0"/>
@@ -7603,14 +8343,14 @@
       </c>
       <c r="F6" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>15.84</v>
+        <v>0</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="14">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("X"&amp;ROW()))</f>
-        <v>0.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K6" s="14">
         <f t="shared" ca="1" si="3"/>
@@ -7634,7 +8374,7 @@
       </c>
       <c r="P6" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>0.66239999999999999</v>
       </c>
       <c r="Q6" s="14">
         <f t="shared" ca="1" si="4"/>
@@ -7682,11 +8422,11 @@
       <c r="H7" s="21"/>
       <c r="I7" s="21">
         <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C" &amp; COLUMN(), FALSE) &amp; INDIRECT("X" &amp; ROW()))</f>
-        <v>105525.72</v>
+        <v>0</v>
       </c>
       <c r="J7" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K7" s="14">
         <f t="shared" ca="1" si="3"/>
@@ -7710,7 +8450,7 @@
       </c>
       <c r="P7" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>0.66239999999999999</v>
       </c>
       <c r="Q7" s="14">
         <f t="shared" ca="1" si="4"/>
@@ -7734,7 +8474,7 @@
       </c>
       <c r="V7" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>105525.72</v>
+        <v>0</v>
       </c>
       <c r="X7" s="57">
         <v>9</v>
@@ -7758,11 +8498,11 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21">
         <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C" &amp; COLUMN(), FALSE) &amp; INDIRECT("X" &amp; ROW()))</f>
-        <v>88389</v>
+        <v>0</v>
       </c>
       <c r="J8" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K8" s="14">
         <f t="shared" ca="1" si="3"/>
@@ -7786,7 +8526,7 @@
       </c>
       <c r="P8" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>0.66239999999999999</v>
       </c>
       <c r="Q8" s="14">
         <f t="shared" ca="1" si="4"/>
@@ -7810,7 +8550,7 @@
       </c>
       <c r="V8" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>88389</v>
+        <v>0</v>
       </c>
       <c r="X8" s="57">
         <v>10</v>
@@ -7835,12 +8575,12 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>2479</v>
+        <v>5.3</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4</v>
+        <v>4.2</v>
       </c>
       <c r="K9" s="14">
         <f t="shared" ca="1" si="3"/>
@@ -7864,15 +8604,15 @@
       </c>
       <c r="P9" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>128</v>
-      </c>
-      <c r="Q9" s="14" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>SSD</v>
+        <v>0.26880000000000004</v>
+      </c>
+      <c r="Q9" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>2133</v>
       </c>
       <c r="R9" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>800</v>
+        <v>128</v>
       </c>
       <c r="S9" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -7884,7 +8624,7 @@
       </c>
       <c r="U9" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>800</v>
       </c>
       <c r="V9" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -7907,14 +8647,14 @@
       </c>
       <c r="F10" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4</v>
+        <v>4.2</v>
       </c>
       <c r="K10" s="14">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("X"&amp;ROW()))</f>
@@ -7938,15 +8678,15 @@
       </c>
       <c r="P10" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>128</v>
-      </c>
-      <c r="Q10" s="14" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>SSD</v>
+        <v>0.26880000000000004</v>
+      </c>
+      <c r="Q10" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>2133</v>
       </c>
       <c r="R10" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>800</v>
+        <v>128</v>
       </c>
       <c r="S10" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -7958,7 +8698,7 @@
       </c>
       <c r="U10" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>800</v>
       </c>
       <c r="V10" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -7981,14 +8721,14 @@
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
-      <c r="H11" s="21">
+      <c r="H11" s="21" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>1529</v>
+        <v>$2.09?</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7</v>
+        <v>5.2</v>
       </c>
       <c r="K11" s="14">
         <f t="shared" ref="K11:K15" ca="1" si="6">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("X"&amp;ROW()))</f>
@@ -8012,27 +8752,27 @@
       </c>
       <c r="P11" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
-      </c>
-      <c r="Q11" s="14" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>SATA</v>
+        <v>0.49920000000000003</v>
+      </c>
+      <c r="Q11" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>2133</v>
       </c>
       <c r="R11" s="14">
         <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="S11" s="14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SATA</v>
+      </c>
+      <c r="T11" s="14">
+        <f t="shared" ca="1" si="0"/>
         <v>1000</v>
       </c>
-      <c r="S11" s="14">
+      <c r="U11" s="14">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
-      </c>
-      <c r="T11" s="14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="14">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
       </c>
       <c r="V11" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -8055,14 +8795,14 @@
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="21">
+      <c r="H12" s="21" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>1879</v>
+        <v>$2.57?</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7</v>
+        <v>5.2</v>
       </c>
       <c r="K12" s="14">
         <f t="shared" ca="1" si="6"/>
@@ -8086,27 +8826,27 @@
       </c>
       <c r="P12" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
-      </c>
-      <c r="Q12" s="14" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>SATA</v>
+        <v>0.49920000000000003</v>
+      </c>
+      <c r="Q12" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>2133</v>
       </c>
       <c r="R12" s="14">
         <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="S12" s="14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>SATA</v>
+      </c>
+      <c r="T12" s="14">
+        <f t="shared" ca="1" si="0"/>
         <v>1000</v>
       </c>
-      <c r="S12" s="14">
+      <c r="U12" s="14">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
-      </c>
-      <c r="T12" s="14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="14">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
       </c>
       <c r="V12" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -8134,14 +8874,14 @@
       </c>
       <c r="F13" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>3.5</v>
+        <v>56</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87680000000000002</v>
+        <v>0</v>
       </c>
       <c r="K13" s="14">
         <f t="shared" ca="1" si="6"/>
@@ -8165,15 +8905,15 @@
       </c>
       <c r="P13" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>128</v>
+        <v>0.43840000000000001</v>
       </c>
       <c r="Q13" s="21" t="str">
-        <f>IF(Sheet1!$Q18="","",Sheet1!$Q18)</f>
+        <f>IF(Sheet1!$S18="","",Sheet1!$S18)</f>
         <v/>
       </c>
       <c r="R13" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="S13" s="14">
         <f t="shared" ca="1" si="0"/>
@@ -8209,14 +8949,14 @@
       </c>
       <c r="F14" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>4.8499999999999996</v>
+        <v>56</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87680000000000002</v>
+        <v>0</v>
       </c>
       <c r="K14" s="14">
         <f t="shared" ca="1" si="6"/>
@@ -8240,12 +8980,12 @@
       </c>
       <c r="P14" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>128</v>
+        <v>0.43840000000000001</v>
       </c>
       <c r="Q14" s="21"/>
       <c r="R14" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="S14" s="14">
         <f t="shared" ca="1" si="0"/>
@@ -8281,14 +9021,14 @@
       </c>
       <c r="F15" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>7.4</v>
+        <v>56</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87680000000000002</v>
+        <v>0</v>
       </c>
       <c r="K15" s="14">
         <f t="shared" ca="1" si="6"/>
@@ -8312,7 +9052,7 @@
       </c>
       <c r="P15" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>128</v>
+        <v>0.43840000000000001</v>
       </c>
       <c r="Q15" s="21"/>
       <c r="R15" s="14"/>
@@ -8343,14 +9083,14 @@
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
-      <c r="H16" s="21">
+      <c r="H16" s="21" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>7499</v>
+        <v>$10.27?</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="14">
         <f t="shared" ref="J16:J31" ca="1" si="7">INDIRECT("Sheet1!N"&amp; INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("X"&amp;ROW()))</f>
-        <v>0.6</v>
+        <v>6.4</v>
       </c>
       <c r="K16" s="14">
         <f t="shared" ca="1" si="3"/>
@@ -8374,31 +9114,31 @@
       </c>
       <c r="P16" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>512</v>
-      </c>
-      <c r="Q16" s="14" t="str">
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="Q16" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>SSD</v>
+        <v>1866</v>
       </c>
       <c r="R16" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1000</v>
+        <v>512</v>
       </c>
       <c r="S16" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SATA</v>
+        <v>SSD</v>
       </c>
       <c r="T16" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="U16" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="V16" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2649</v>
       </c>
       <c r="W16" s="16"/>
       <c r="X16" s="57">
@@ -8419,13 +9159,13 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>2649</v>
+        <v>0</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>0.6</v>
+        <v>6.4</v>
       </c>
       <c r="K17" s="14">
         <f t="shared" ca="1" si="3"/>
@@ -8449,31 +9189,31 @@
       </c>
       <c r="P17" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>512</v>
-      </c>
-      <c r="Q17" s="14" t="str">
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="Q17" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>SSD</v>
+        <v>1866</v>
       </c>
       <c r="R17" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1000</v>
+        <v>512</v>
       </c>
       <c r="S17" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SATA</v>
+        <v>SSD</v>
       </c>
       <c r="T17" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="U17" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="V17" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2649</v>
       </c>
       <c r="W17" s="16"/>
       <c r="X17" s="57">
@@ -8493,14 +9233,14 @@
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="21">
+      <c r="H18" s="21" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>5999</v>
+        <v>$8.22?</v>
       </c>
       <c r="I18" s="21"/>
       <c r="J18" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="K18" s="14">
         <f t="shared" ca="1" si="3"/>
@@ -8524,31 +9264,31 @@
       </c>
       <c r="P18" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>256</v>
-      </c>
-      <c r="Q18" s="14" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>SSD</v>
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="Q18" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>1866</v>
       </c>
       <c r="R18" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1000</v>
+        <v>256</v>
       </c>
       <c r="S18" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SATA</v>
+        <v>SSD</v>
       </c>
       <c r="T18" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="U18" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="V18" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1829</v>
       </c>
       <c r="W18" s="16"/>
       <c r="X18" s="57">
@@ -8569,13 +9309,13 @@
       <c r="F19" s="21"/>
       <c r="G19" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>1829</v>
+        <v>0</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="K19" s="14">
         <f t="shared" ca="1" si="3"/>
@@ -8599,31 +9339,31 @@
       </c>
       <c r="P19" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>256</v>
-      </c>
-      <c r="Q19" s="14" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>SSD</v>
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="Q19" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>1866</v>
       </c>
       <c r="R19" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1000</v>
+        <v>256</v>
       </c>
       <c r="S19" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SATA</v>
+        <v>SSD</v>
       </c>
       <c r="T19" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="U19" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="V19" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1829</v>
       </c>
       <c r="W19" s="16"/>
       <c r="X19" s="57">
@@ -8643,14 +9383,14 @@
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="21">
+      <c r="H20" s="21" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>6999</v>
+        <v>$9.59?</v>
       </c>
       <c r="I20" s="21"/>
       <c r="J20" s="14">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("X"&amp;ROW()))</f>
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="K20" s="14">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("X"&amp;ROW()))</f>
@@ -8674,31 +9414,31 @@
       </c>
       <c r="P20" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>256</v>
-      </c>
-      <c r="Q20" s="14" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>SSD</v>
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="Q20" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>1866</v>
       </c>
       <c r="R20" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1000</v>
+        <v>256</v>
       </c>
       <c r="S20" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SATA</v>
+        <v>SSD</v>
       </c>
       <c r="T20" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="U20" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="V20" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2049</v>
       </c>
       <c r="W20" s="16"/>
       <c r="X20" s="57">
@@ -8719,13 +9459,13 @@
       <c r="F21" s="21"/>
       <c r="G21" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>2049</v>
+        <v>0</v>
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="14">
         <f t="shared" ref="J21:J29" ca="1" si="9">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("X"&amp;ROW()))</f>
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="K21" s="14">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("X"&amp;ROW()))</f>
@@ -8749,31 +9489,31 @@
       </c>
       <c r="P21" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>256</v>
-      </c>
-      <c r="Q21" s="14" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>SSD</v>
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="Q21" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>1866</v>
       </c>
       <c r="R21" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1000</v>
+        <v>256</v>
       </c>
       <c r="S21" s="14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>SATA</v>
+        <v>SSD</v>
       </c>
       <c r="T21" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="U21" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="V21" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2049</v>
       </c>
       <c r="W21" s="16"/>
       <c r="X21" s="57">
@@ -8793,14 +9533,14 @@
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
-      <c r="H22" s="21">
+      <c r="H22" s="21" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>8599</v>
+        <v>$11.78?</v>
       </c>
       <c r="I22" s="21"/>
       <c r="J22" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="K22" s="14">
         <f t="shared" ref="K22:K25" ca="1" si="10">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("X"&amp;ROW()))</f>
@@ -8824,31 +9564,31 @@
       </c>
       <c r="P22" s="14">
         <f t="shared" ca="1" si="4"/>
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="Q22" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>1866</v>
+      </c>
+      <c r="R22" s="14">
+        <f t="shared" ca="1" si="4"/>
         <v>256</v>
       </c>
-      <c r="Q22" s="14" t="str">
+      <c r="S22" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>SSD</v>
       </c>
-      <c r="R22" s="14">
+      <c r="T22" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>1000</v>
-      </c>
-      <c r="S22" s="14" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>SATA</v>
-      </c>
-      <c r="T22" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>4000</v>
       </c>
       <c r="U22" s="14">
         <f t="shared" ref="U22:U32" ca="1" si="11">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="V22" s="16">
         <f t="shared" ref="V22:V32" ca="1" si="12">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>0</v>
+        <v>2599</v>
       </c>
       <c r="W22" s="16"/>
       <c r="X22" s="57">
@@ -8869,13 +9609,13 @@
       <c r="F23" s="21"/>
       <c r="G23" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>2599</v>
+        <v>0</v>
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="K23" s="14">
         <f t="shared" ca="1" si="10"/>
@@ -8899,31 +9639,31 @@
       </c>
       <c r="P23" s="14">
         <f t="shared" ca="1" si="4"/>
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="Q23" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>1866</v>
+      </c>
+      <c r="R23" s="14">
+        <f t="shared" ca="1" si="4"/>
         <v>256</v>
       </c>
-      <c r="Q23" s="14" t="str">
+      <c r="S23" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>SSD</v>
       </c>
-      <c r="R23" s="14">
+      <c r="T23" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>1000</v>
-      </c>
-      <c r="S23" s="14" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>SATA</v>
-      </c>
-      <c r="T23" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>4000</v>
       </c>
       <c r="U23" s="14">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="V23" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>2599</v>
       </c>
       <c r="W23" s="16"/>
       <c r="X23" s="57">
@@ -8943,14 +9683,14 @@
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
-      <c r="H24" s="21">
+      <c r="H24" s="21" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>7449</v>
+        <v>$10.20?</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0960000000000001</v>
+        <v>0</v>
       </c>
       <c r="K24" s="14">
         <f t="shared" ca="1" si="10"/>
@@ -8974,23 +9714,23 @@
       </c>
       <c r="P24" s="14">
         <f t="shared" ca="1" si="4"/>
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="Q24" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>1333</v>
+      </c>
+      <c r="R24" s="14">
+        <f t="shared" ca="1" si="4"/>
         <v>1000</v>
       </c>
-      <c r="Q24" s="14" t="str">
+      <c r="S24" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>SSD</v>
       </c>
-      <c r="R24" s="14" t="str">
+      <c r="T24" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>4 x 960</v>
-      </c>
-      <c r="S24" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
       </c>
       <c r="U24" s="14">
         <f t="shared" ca="1" si="11"/>
@@ -8998,7 +9738,7 @@
       </c>
       <c r="V24" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>2259</v>
       </c>
       <c r="W24" s="16"/>
       <c r="X24" s="57">
@@ -9019,13 +9759,13 @@
       <c r="F25" s="21"/>
       <c r="G25" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>2259</v>
+        <v>0</v>
       </c>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0960000000000001</v>
+        <v>0</v>
       </c>
       <c r="K25" s="14">
         <f t="shared" ca="1" si="10"/>
@@ -9049,23 +9789,23 @@
       </c>
       <c r="P25" s="14">
         <f t="shared" ca="1" si="4"/>
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="Q25" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>1333</v>
+      </c>
+      <c r="R25" s="14">
+        <f t="shared" ca="1" si="4"/>
         <v>1000</v>
       </c>
-      <c r="Q25" s="14" t="str">
+      <c r="S25" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>SSD</v>
       </c>
-      <c r="R25" s="14" t="str">
+      <c r="T25" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>4 x 960</v>
-      </c>
-      <c r="S25" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
       </c>
       <c r="U25" s="14">
         <f t="shared" ca="1" si="11"/>
@@ -9073,7 +9813,7 @@
       </c>
       <c r="V25" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>2259</v>
       </c>
       <c r="W25" s="16"/>
       <c r="X25" s="57">
@@ -9093,14 +9833,14 @@
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
-      <c r="H26" s="21">
+      <c r="H26" s="21" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>6679</v>
+        <v>$9.15?</v>
       </c>
       <c r="I26" s="21"/>
       <c r="J26" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>0.87680000000000002</v>
+        <v>0</v>
       </c>
       <c r="K26" s="14">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("X"&amp;ROW()))</f>
@@ -9124,23 +9864,23 @@
       </c>
       <c r="P26" s="14">
         <f t="shared" ca="1" si="4"/>
+        <v>0.43840000000000001</v>
+      </c>
+      <c r="Q26" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>1333</v>
+      </c>
+      <c r="R26" s="14">
+        <f t="shared" ca="1" si="4"/>
         <v>512</v>
       </c>
-      <c r="Q26" s="14" t="str">
+      <c r="S26" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>SSD</v>
       </c>
-      <c r="R26" s="14" t="str">
+      <c r="T26" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>2 x 960</v>
-      </c>
-      <c r="S26" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
       </c>
       <c r="U26" s="14">
         <f t="shared" ca="1" si="11"/>
@@ -9148,7 +9888,7 @@
       </c>
       <c r="V26" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1999</v>
       </c>
       <c r="W26" s="16"/>
       <c r="X26" s="57">
@@ -9169,13 +9909,13 @@
       <c r="F27" s="21"/>
       <c r="G27" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>1999</v>
+        <v>0</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>0.87680000000000002</v>
+        <v>0</v>
       </c>
       <c r="K27" s="14">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("X"&amp;ROW()))</f>
@@ -9199,23 +9939,23 @@
       </c>
       <c r="P27" s="14">
         <f t="shared" ca="1" si="4"/>
+        <v>0.43840000000000001</v>
+      </c>
+      <c r="Q27" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>1333</v>
+      </c>
+      <c r="R27" s="14">
+        <f t="shared" ca="1" si="4"/>
         <v>512</v>
       </c>
-      <c r="Q27" s="14" t="str">
+      <c r="S27" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>SSD</v>
       </c>
-      <c r="R27" s="14" t="str">
+      <c r="T27" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>2 x 960</v>
-      </c>
-      <c r="S27" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
       </c>
       <c r="U27" s="14">
         <f t="shared" ca="1" si="11"/>
@@ -9223,7 +9963,7 @@
       </c>
       <c r="V27" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1999</v>
       </c>
       <c r="W27" s="16"/>
       <c r="X27" s="57">
@@ -9243,14 +9983,14 @@
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="21">
+      <c r="H28" s="21" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>4229</v>
+        <v>$5.79?</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="14">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("X"&amp;ROW()))</f>
-        <v>0.87680000000000002</v>
+        <v>0</v>
       </c>
       <c r="K28" s="14">
         <f t="shared" ref="K28:K30" ca="1" si="13">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("X"&amp;ROW()))</f>
@@ -9274,23 +10014,23 @@
       </c>
       <c r="P28" s="14">
         <f t="shared" ca="1" si="4"/>
+        <v>0.43840000000000001</v>
+      </c>
+      <c r="Q28" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>1333</v>
+      </c>
+      <c r="R28" s="14">
+        <f t="shared" ca="1" si="4"/>
         <v>128</v>
       </c>
-      <c r="Q28" s="14" t="str">
+      <c r="S28" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>SSD</v>
       </c>
-      <c r="R28" s="14">
+      <c r="T28" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>960</v>
-      </c>
-      <c r="S28" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
       </c>
       <c r="U28" s="14">
         <f t="shared" ca="1" si="11"/>
@@ -9298,7 +10038,7 @@
       </c>
       <c r="V28" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1269</v>
       </c>
       <c r="W28" s="16"/>
       <c r="X28" s="57">
@@ -9319,13 +10059,13 @@
       <c r="F29" s="21"/>
       <c r="G29" s="21">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>1269</v>
+        <v>0</v>
       </c>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v>0.87680000000000002</v>
+        <v>0</v>
       </c>
       <c r="K29" s="14">
         <f t="shared" ca="1" si="13"/>
@@ -9349,23 +10089,23 @@
       </c>
       <c r="P29" s="14">
         <f t="shared" ca="1" si="4"/>
+        <v>0.43840000000000001</v>
+      </c>
+      <c r="Q29" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>1333</v>
+      </c>
+      <c r="R29" s="14">
+        <f t="shared" ca="1" si="4"/>
         <v>128</v>
       </c>
-      <c r="Q29" s="14" t="str">
+      <c r="S29" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>SSD</v>
       </c>
-      <c r="R29" s="14">
+      <c r="T29" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>960</v>
-      </c>
-      <c r="S29" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
       </c>
       <c r="U29" s="14">
         <f t="shared" ca="1" si="11"/>
@@ -9373,7 +10113,7 @@
       </c>
       <c r="V29" s="16">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1269</v>
       </c>
       <c r="W29" s="16"/>
       <c r="X29" s="57">
@@ -9398,14 +10138,14 @@
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
-      <c r="H30" s="21">
+      <c r="H30" s="21" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>1472.8</v>
+        <v>$2.02?</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="14">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("X"&amp;ROW()))</f>
-        <v>0.3</v>
+        <v>6</v>
       </c>
       <c r="K30" s="14">
         <f t="shared" ca="1" si="13"/>
@@ -9429,15 +10169,15 @@
       </c>
       <c r="P30" s="14">
         <f t="shared" ca="1" si="4"/>
+        <v>0.192</v>
+      </c>
+      <c r="Q30" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>1866</v>
+      </c>
+      <c r="R30" s="14">
+        <f t="shared" ca="1" si="4"/>
         <v>128</v>
-      </c>
-      <c r="Q30" s="14" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>SSD</v>
-      </c>
-      <c r="R30" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>480</v>
       </c>
       <c r="S30" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -9449,7 +10189,7 @@
       </c>
       <c r="U30" s="14">
         <f t="shared" ca="1" si="11"/>
-        <v>0.1</v>
+        <v>480</v>
       </c>
       <c r="V30" s="16">
         <f t="shared" ca="1" si="12"/>
@@ -9473,14 +10213,14 @@
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
-      <c r="H31" s="21">
+      <c r="H31" s="21" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>1555</v>
+        <v>$2.13?</v>
       </c>
       <c r="I31" s="21"/>
       <c r="J31" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>0.3</v>
+        <v>6</v>
       </c>
       <c r="K31" s="14">
         <f t="shared" ca="1" si="3"/>
@@ -9504,15 +10244,15 @@
       </c>
       <c r="P31" s="14">
         <f t="shared" ca="1" si="4"/>
+        <v>0.192</v>
+      </c>
+      <c r="Q31" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>1866</v>
+      </c>
+      <c r="R31" s="14">
+        <f t="shared" ca="1" si="4"/>
         <v>128</v>
-      </c>
-      <c r="Q31" s="14" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>SSD</v>
-      </c>
-      <c r="R31" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>480</v>
       </c>
       <c r="S31" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -9524,7 +10264,7 @@
       </c>
       <c r="U31" s="14">
         <f t="shared" ca="1" si="11"/>
-        <v>0.1</v>
+        <v>480</v>
       </c>
       <c r="V31" s="16">
         <f t="shared" ca="1" si="12"/>
@@ -9546,14 +10286,14 @@
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
-      <c r="H32" s="21">
+      <c r="H32" s="21" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW()))</f>
-        <v>1588.7</v>
+        <v>$2.18?</v>
       </c>
       <c r="I32" s="21"/>
       <c r="J32" s="14">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("X"&amp;ROW()))</f>
-        <v>0.3</v>
+        <v>6</v>
       </c>
       <c r="K32" s="14">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("X"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("X"&amp;ROW()))</f>
@@ -9577,15 +10317,15 @@
       </c>
       <c r="P32" s="14">
         <f t="shared" ca="1" si="4"/>
+        <v>0.192</v>
+      </c>
+      <c r="Q32" s="14">
+        <f t="shared" ca="1" si="4"/>
+        <v>1866</v>
+      </c>
+      <c r="R32" s="14">
+        <f t="shared" ca="1" si="4"/>
         <v>128</v>
-      </c>
-      <c r="Q32" s="14" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>SSD</v>
-      </c>
-      <c r="R32" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>480</v>
       </c>
       <c r="S32" s="14" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -9597,7 +10337,7 @@
       </c>
       <c r="U32" s="14">
         <f t="shared" ca="1" si="11"/>
-        <v>0.1</v>
+        <v>480</v>
       </c>
       <c r="V32" s="16">
         <f t="shared" ca="1" si="12"/>
@@ -9624,117 +10364,117 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="I23 I25 I27 I29 F25:G25 F29:G29 H22:H31 Q13:Q15 E23:G23 E18:I22 C30:C32 E30:I32 E26:G28 D26:D33 C3:C21 E17:F17 J18:M31 K32:M32 E3:M16 D10:D24 D3:D8">
-    <cfRule type="expression" dxfId="22" priority="80">
+    <cfRule type="expression" dxfId="41" priority="80">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25 I24 F24:G24">
-    <cfRule type="expression" dxfId="21" priority="78">
+    <cfRule type="expression" dxfId="40" priority="78">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="20" priority="77">
+    <cfRule type="expression" dxfId="39" priority="77">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="19" priority="76">
+    <cfRule type="expression" dxfId="38" priority="76">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="18" priority="67">
+    <cfRule type="expression" dxfId="37" priority="67">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18:N32 N3:N15">
-    <cfRule type="expression" dxfId="17" priority="22">
+    <cfRule type="expression" dxfId="36" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:U3 R4:U12 R18:T31 V6:V31 R13:T15 U13:U31 P18:P32 R32:V32 P3:P15">
-    <cfRule type="expression" dxfId="16" priority="20">
+    <cfRule type="expression" dxfId="35" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C23">
-    <cfRule type="expression" dxfId="15" priority="29">
+    <cfRule type="expression" dxfId="34" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C25">
-    <cfRule type="expression" dxfId="14" priority="28">
+    <cfRule type="expression" dxfId="33" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C27">
-    <cfRule type="expression" dxfId="13" priority="27">
+    <cfRule type="expression" dxfId="32" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C29">
-    <cfRule type="expression" dxfId="12" priority="26">
+    <cfRule type="expression" dxfId="31" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18:O32 O3:O15">
-    <cfRule type="expression" dxfId="11" priority="21">
+    <cfRule type="expression" dxfId="30" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:Q12">
-    <cfRule type="expression" dxfId="10" priority="19">
+    <cfRule type="expression" dxfId="29" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18:Q32">
-    <cfRule type="expression" dxfId="9" priority="18">
+    <cfRule type="expression" dxfId="28" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:M17">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:N17">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="26" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16:T17 P16:P17">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="25" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16:O17">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="24" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16:Q17">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Comparison table updated 3.xlsx
+++ b/Comparison table updated 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="48920" windowHeight="15940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="20" windowWidth="48920" windowHeight="15940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="259">
   <si>
     <t>Cloud server providers with GPU</t>
     <phoneticPr fontId="2"/>
@@ -964,12 +964,6 @@
     <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
   </si>
   <si>
-    <t>https://aws.amazon.com/ec3/dedicated-hosts/pricing/</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec4/dedicated-hosts/pricing/</t>
-  </si>
-  <si>
     <t>p2 dedicated host 1 year no Upfront</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1030,18 +1024,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">Free Outbound Traffic = 1 GB/month. </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Free Outbound Traffic = 1 GB/month.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Free Outbound Traffic = 1 GB/month. </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>POWER8?</t>
   </si>
   <si>
@@ -1091,360 +1073,391 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NVIDIA Tesla K80 Dual Intel Xeon E5-2620 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Outbound Traffic limited to 500GB.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Outbound Traffic limited to 500GB.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Outbound Traffic limited to 500GB.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SL K80x1 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SL K80x1 x86 h.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR K80x8 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR M40x8 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CRM40x8 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P40x8 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P40x8 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x8 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x8 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x4 P8/8 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x4 P8/8 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x2 P8/8 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x2 P8/8 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NVIDIA TITAN X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tesla P40 model</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tesla P100 model</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SK P40x1 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SK P100x1 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR K80x8 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NP8G1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NGQ7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NP8G4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M40</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Interconnect GB/s</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NM K40x2 h.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NM K80x4 h.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NM M40x4 h.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LeaderTelecom</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.leadergpu.com</t>
+  </si>
+  <si>
+    <t>4 x GeForce GTX 1080</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8 x GeForce GTX 1080</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x GeForce GTX 1080</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GeForce GTX 1080</t>
+  </si>
+  <si>
+    <t>GeForce GTX 1080</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2609 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GHz</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FLOPs per cycle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://en.wikichip.org/wiki/intel/xeon_e5/e5-2686_v4</t>
+  </si>
+  <si>
+    <t>Xeon E5-2609 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2630 v4</t>
+  </si>
+  <si>
+    <t>SSD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>setup price</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22240</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>This is the average monthly payment over the course of the Dedicated Host Reservation term. For each month, the actual monthly payment will equal the actual number of hours in that month multiplied by the hourly usage rate. The hourly usage rate is equivalent to the total average monthly payments over the term divided by the total number of hours (based on a 365 day year) over the term.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Setup price</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.sakura.ad.jp/koukaryoku/specification/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>P</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>T</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NVIDIA Tesla K80 Dual Intel Xeon E5-2620 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Outbound Traffic limited to 500GB.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Outbound Traffic limited to 500GB.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Outbound Traffic limited to 500GB.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SL K80x1 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SL K80x1 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SL M60x1 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SL K80x1 x86 h.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR K80x8 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR M40x8 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CRM40x8 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P40x8 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P40x8 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x8 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x8 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x4 P8/8 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x4 P8/8 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x2 P8/8 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x2 P8/8 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NVIDIA TITAN X</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Tesla P40 model</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Tesla P100 model</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>P100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SK P40x1 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SK P100x1 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR K80x8 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NP8G1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NGQ7</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NP8G4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>M40</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Interconnect GB/s</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NM K40x2 h.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NM K80x4 h.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NM M40x4 h.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LeaderTelecom</t>
+    <t>S</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Internal/External</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPU performance (Tflops DP)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GPU performance (TFlops SP)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JPY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EUR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 37.</t>
+  </si>
+  <si>
+    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 38.</t>
+  </si>
+  <si>
+    <t>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 €/Gb.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,10 €/Gb.</t>
+  </si>
+  <si>
+    <t>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,11 €/Gb.</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT 2GX1080 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT 2GX1080 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT 2GX1080 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT 4GX1080 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT 4GX1080 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT 4GX1080 m.</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.leadergpu.com</t>
-  </si>
-  <si>
-    <t>4 x GeForce GTX 1080</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8 x GeForce GTX 1080</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x GeForce GTX 1080</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GeForce GTX 1080</t>
-  </si>
-  <si>
-    <t>GeForce GTX 1080</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2609 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GHz</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FLOPs per cycle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://en.wikichip.org/wiki/intel/xeon_e5/e5-2686_v4</t>
-  </si>
-  <si>
-    <t>Xeon E5-2609 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2630 v4</t>
-  </si>
-  <si>
-    <t>SSD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Included internet traffic (monthly based payments): 10 Tb/month.
-Included internet traffic (weekly based payments): 2.5 Tb/week.
-Included internet traffic (minute/hourly based payments): 0 Gb.
-Additional 1Gb (not included): 0,09 €/Gb.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Currency</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>USD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Included internet traffic (monthly based payments): 10 Tb/month.
-Included internet traffic (weekly based payments): 2.5 Tb/week.
-Included internet traffic (minute/hourly based payments): 0 Gb.
-Additional 1Gb (not included): 0,10 €/Gb.</t>
-  </si>
-  <si>
-    <t>Included internet traffic (monthly based payments): 10 Tb/month.
-Included internet traffic (weekly based payments): 2.5 Tb/week.
-Included internet traffic (minute/hourly based payments): 0 Gb.
-Additional 1Gb (not included): 0,11 €/Gb.</t>
-  </si>
-  <si>
-    <t>setup price</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22240</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>This is the average monthly payment over the course of the Dedicated Host Reservation term. For each month, the actual monthly payment will equal the actual number of hours in that month multiplied by the hourly usage rate. The hourly usage rate is equivalent to the total average monthly payments over the term divided by the total number of hours (based on a 365 day year) over the term.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GX1080 w.</t>
-  </si>
-  <si>
-    <t>LT GX1080 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GX1080 min.</t>
-  </si>
-  <si>
-    <t>LT GX1080 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GX1080 m.</t>
-  </si>
-  <si>
-    <t>LT GX1080 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Z</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Setup price</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Currency</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://www.sakura.ad.jp/koukaryoku/specification/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x GeForce GTX 1080 minute</t>
-  </si>
-  <si>
-    <t>2 x GeForce GTX 1080 weekly</t>
-  </si>
-  <si>
-    <t>2 x GeForce GTX 1080 monthly</t>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Internal/External</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CPU performance (Tflops DP)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GPU performance (TFlops SP)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>JPY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>EUR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8 x GeForce GTX 1080 minute</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8 x GeForce GTX 1080 weekly</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8 x GeForce GTX 1080 monthly</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT 8GX1080 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT 8GX1080 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT 8GX1080 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SL M60x1 2690v3 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SL K80x1 2690v3 m.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1676,7 +1689,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1713,12 +1726,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1821,7 +1828,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="638">
+  <cellStyleXfs count="646">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2472,8 +2479,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -2515,9 +2530,6 @@
     <xf numFmtId="177" fontId="24" fillId="0" borderId="0" xfId="356">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="62" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="263" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2525,18 +2537,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="438"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="120" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="62" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="120" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2572,26 +2578,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="62" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="120" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="178" fontId="24" fillId="0" borderId="0" xfId="635">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="179" fontId="24" fillId="0" borderId="0" xfId="636">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="62" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="62" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="120" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2599,11 +2596,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="637" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="120" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="120" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="637"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="638">
+  <cellStyles count="646">
     <cellStyle name="$Normal" xfId="356"/>
     <cellStyle name="¥ Normal" xfId="636"/>
     <cellStyle name="€ Normal" xfId="635"/>
@@ -2948,6 +2949,14 @@
     <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="633" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="639" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="641" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="643" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="645" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 1 2" xfId="62"/>
     <cellStyle name="Heading 2" xfId="263" builtinId="17" customBuiltin="1"/>
@@ -3262,7 +3271,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFEAF2F7"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4070,10 +4079,10 @@
   <dimension ref="A1:FE40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="W19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AE39" sqref="AE39"/>
+      <selection pane="bottomRight" activeCell="AF41" sqref="AF41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -4126,47 +4135,47 @@
     <row r="3" spans="1:161" s="6" customFormat="1" ht="46" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
       <c r="J3" s="23"/>
-      <c r="K3" s="58" t="s">
+      <c r="K3" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
       <c r="R3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="58" t="s">
+      <c r="S3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58" t="s">
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58" t="s">
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
       <c r="AF3" s="1" t="s">
         <v>34</v>
       </c>
@@ -4337,10 +4346,10 @@
         <v>6</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="P4" s="17" t="s">
         <v>59</v>
@@ -4364,18 +4373,18 @@
         <v>9</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="X4" s="17" t="s">
         <v>13</v>
       </c>
       <c r="Y4" s="17" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="Z4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="AA4" s="26" t="s">
+      <c r="AA4" s="25" t="s">
         <v>98</v>
       </c>
       <c r="AB4" s="17" t="s">
@@ -4385,10 +4394,10 @@
         <v>121</v>
       </c>
       <c r="AD4" s="17" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AE4" s="17" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="AF4" s="17"/>
     </row>
@@ -4399,7 +4408,7 @@
       <c r="B5" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="14">
@@ -4421,7 +4430,7 @@
         <v>22</v>
       </c>
       <c r="J5" s="14"/>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="28" t="s">
         <v>68</v>
       </c>
       <c r="L5" s="14">
@@ -4459,20 +4468,20 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
       <c r="AE5" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AF5" s="16" t="s">
-        <v>149</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:161">
       <c r="A6" s="15" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="5">
@@ -4532,10 +4541,10 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
       <c r="AE6" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AF6" s="16" t="s">
-        <v>150</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:161">
@@ -4545,7 +4554,7 @@
       <c r="B7" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="5">
@@ -4605,20 +4614,20 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
       <c r="AE7" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AF7" s="16" t="s">
-        <v>151</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:161">
       <c r="A8" s="16" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="5">
@@ -4676,14 +4685,14 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="10"/>
       <c r="AE8" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:161">
       <c r="B9" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="5">
@@ -4741,18 +4750,18 @@
       <c r="AC9" s="24"/>
       <c r="AD9" s="24"/>
       <c r="AE9" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AF9" s="16" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:161">
       <c r="A10" s="16"/>
       <c r="B10" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="5">
@@ -4812,15 +4821,15 @@
         <v>88389</v>
       </c>
       <c r="AE10" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:161">
       <c r="A11" s="16"/>
       <c r="B11" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="5">
@@ -4880,12 +4889,12 @@
         <v>184780</v>
       </c>
       <c r="AE11" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:161">
       <c r="B12" s="22"/>
-      <c r="C12" s="29"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="5"/>
       <c r="E12" s="14"/>
       <c r="F12" s="5"/>
@@ -4920,9 +4929,9 @@
         <v>28</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="5">
@@ -4999,10 +5008,10 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
       <c r="AE13" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AF13" s="16" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:161">
@@ -5010,9 +5019,9 @@
         <v>111</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>54</v>
       </c>
       <c r="D14" s="5">
@@ -5086,18 +5095,18 @@
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AF14" s="16" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:161">
       <c r="A15" s="16"/>
       <c r="B15" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="5">
@@ -5171,15 +5180,15 @@
       <c r="AC15" s="24"/>
       <c r="AD15" s="24"/>
       <c r="AE15" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AF15" s="16" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:161">
       <c r="B16" s="22"/>
-      <c r="C16" s="29"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="5"/>
       <c r="E16" s="14"/>
       <c r="F16" s="9"/>
@@ -5213,76 +5222,76 @@
       <c r="A17" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="D17" s="27">
+      <c r="B17" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="26">
         <v>2</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="27">
         <v>2880</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="26">
         <v>5.04</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="26">
         <v>1.68</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="27">
         <v>12.3</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="27">
         <v>288</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="27">
         <v>1</v>
       </c>
-      <c r="K17" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="L17" s="27">
+      <c r="K17" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" s="26">
         <v>2</v>
       </c>
-      <c r="M17" s="27">
+      <c r="M17" s="26">
         <v>8</v>
       </c>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="28">
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="27">
         <v>0.43840000000000001</v>
       </c>
-      <c r="Q17" s="27">
+      <c r="Q17" s="26">
         <v>1333</v>
       </c>
-      <c r="R17" s="27">
+      <c r="R17" s="26">
         <v>128</v>
       </c>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27">
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26">
         <v>56</v>
       </c>
       <c r="Y17" s="14" t="str">
         <f>W17&amp;"/"&amp;X17</f>
         <v>56/</v>
       </c>
-      <c r="Z17" s="39">
+      <c r="Z17" s="36">
         <v>3.5</v>
       </c>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="41">
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="38">
         <f>Z17*720</f>
         <v>2520</v>
       </c>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="41"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
       <c r="AE17" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AF17" s="16" t="s">
         <v>57</v>
@@ -5293,14 +5302,14 @@
       <c r="B18" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="5">
         <v>4</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F18" s="9">
         <v>8.74</v>
@@ -5309,12 +5318,12 @@
         <v>2.91</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="27">
         <v>1</v>
       </c>
       <c r="K18" s="11" t="s">
@@ -5359,19 +5368,19 @@
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
       <c r="AE18" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AF18" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:161" s="13" customFormat="1" ht="20">
-      <c r="A19" s="36"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>197</v>
+        <v>187</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>189</v>
       </c>
       <c r="D19" s="5">
         <v>4</v>
@@ -5391,7 +5400,7 @@
       <c r="I19" s="7">
         <v>288</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="27">
         <v>1</v>
       </c>
       <c r="K19" s="11" t="s">
@@ -5436,144 +5445,144 @@
       <c r="AC19" s="10"/>
       <c r="AD19" s="10"/>
       <c r="AE19" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AF19" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AJ19" s="42"/>
-      <c r="AK19" s="42"/>
-      <c r="AL19" s="42"/>
-      <c r="AM19" s="42"/>
-      <c r="AN19" s="42"/>
-      <c r="AO19" s="42"/>
-      <c r="AP19" s="42"/>
-      <c r="AQ19" s="42"/>
-      <c r="AR19" s="42"/>
-      <c r="AS19" s="42"/>
-      <c r="AT19" s="42"/>
-      <c r="AU19" s="42"/>
-      <c r="AV19" s="42"/>
-      <c r="AW19" s="42"/>
-      <c r="AX19" s="42"/>
-      <c r="AY19" s="42"/>
-      <c r="AZ19" s="42"/>
-      <c r="BA19" s="42"/>
-      <c r="BB19" s="42"/>
-      <c r="BC19" s="42"/>
-      <c r="BD19" s="42"/>
-      <c r="BE19" s="42"/>
-      <c r="BF19" s="42"/>
-      <c r="BG19" s="42"/>
-      <c r="BH19" s="42"/>
-      <c r="BI19" s="42"/>
-      <c r="BJ19" s="42"/>
-      <c r="BK19" s="42"/>
-      <c r="BL19" s="42"/>
-      <c r="BM19" s="42"/>
-      <c r="BN19" s="42"/>
-      <c r="BO19" s="42"/>
-      <c r="BP19" s="42"/>
-      <c r="BQ19" s="42"/>
-      <c r="BR19" s="42"/>
-      <c r="BS19" s="42"/>
-      <c r="BT19" s="42"/>
-      <c r="BU19" s="42"/>
-      <c r="BV19" s="42"/>
-      <c r="BW19" s="42"/>
-      <c r="BX19" s="42"/>
-      <c r="BY19" s="42"/>
-      <c r="BZ19" s="42"/>
-      <c r="CA19" s="42"/>
-      <c r="CB19" s="42"/>
-      <c r="CC19" s="42"/>
-      <c r="CD19" s="42"/>
-      <c r="CE19" s="42"/>
-      <c r="CF19" s="42"/>
-      <c r="CG19" s="42"/>
-      <c r="CH19" s="42"/>
-      <c r="CI19" s="42"/>
-      <c r="CJ19" s="42"/>
-      <c r="CK19" s="42"/>
-      <c r="CL19" s="42"/>
-      <c r="CM19" s="42"/>
-      <c r="CN19" s="42"/>
-      <c r="CO19" s="42"/>
-      <c r="CP19" s="42"/>
-      <c r="CQ19" s="42"/>
-      <c r="CR19" s="42"/>
-      <c r="CS19" s="42"/>
-      <c r="CT19" s="42"/>
-      <c r="CU19" s="42"/>
-      <c r="CV19" s="42"/>
-      <c r="CW19" s="42"/>
-      <c r="CX19" s="42"/>
-      <c r="CY19" s="42"/>
-      <c r="CZ19" s="42"/>
-      <c r="DA19" s="42"/>
-      <c r="DB19" s="42"/>
-      <c r="DC19" s="42"/>
-      <c r="DD19" s="42"/>
-      <c r="DE19" s="42"/>
-      <c r="DF19" s="42"/>
-      <c r="DG19" s="42"/>
-      <c r="DH19" s="42"/>
-      <c r="DI19" s="42"/>
-      <c r="DJ19" s="42"/>
-      <c r="DK19" s="42"/>
-      <c r="DL19" s="42"/>
-      <c r="DM19" s="42"/>
-      <c r="DN19" s="42"/>
-      <c r="DO19" s="42"/>
-      <c r="DP19" s="42"/>
-      <c r="DQ19" s="42"/>
-      <c r="DR19" s="42"/>
-      <c r="DS19" s="42"/>
-      <c r="DT19" s="42"/>
-      <c r="DU19" s="42"/>
-      <c r="DV19" s="42"/>
-      <c r="DW19" s="42"/>
-      <c r="DX19" s="42"/>
-      <c r="DY19" s="42"/>
-      <c r="DZ19" s="42"/>
-      <c r="EA19" s="42"/>
-      <c r="EB19" s="42"/>
-      <c r="EC19" s="42"/>
-      <c r="ED19" s="42"/>
-      <c r="EE19" s="42"/>
-      <c r="EF19" s="42"/>
-      <c r="EG19" s="42"/>
-      <c r="EH19" s="42"/>
-      <c r="EI19" s="42"/>
-      <c r="EJ19" s="42"/>
-      <c r="EK19" s="42"/>
-      <c r="EL19" s="42"/>
-      <c r="EM19" s="42"/>
-      <c r="EN19" s="42"/>
-      <c r="EO19" s="42"/>
-      <c r="EP19" s="42"/>
-      <c r="EQ19" s="42"/>
-      <c r="ER19" s="42"/>
-      <c r="ES19" s="42"/>
-      <c r="ET19" s="42"/>
-      <c r="EU19" s="42"/>
-      <c r="EV19" s="42"/>
-      <c r="EW19" s="42"/>
-      <c r="EX19" s="42"/>
-      <c r="EY19" s="42"/>
-      <c r="EZ19" s="42"/>
-      <c r="FA19" s="42"/>
-      <c r="FB19" s="42"/>
-      <c r="FC19" s="42"/>
-      <c r="FD19" s="42"/>
-      <c r="FE19" s="42"/>
+      <c r="AJ19" s="39"/>
+      <c r="AK19" s="39"/>
+      <c r="AL19" s="39"/>
+      <c r="AM19" s="39"/>
+      <c r="AN19" s="39"/>
+      <c r="AO19" s="39"/>
+      <c r="AP19" s="39"/>
+      <c r="AQ19" s="39"/>
+      <c r="AR19" s="39"/>
+      <c r="AS19" s="39"/>
+      <c r="AT19" s="39"/>
+      <c r="AU19" s="39"/>
+      <c r="AV19" s="39"/>
+      <c r="AW19" s="39"/>
+      <c r="AX19" s="39"/>
+      <c r="AY19" s="39"/>
+      <c r="AZ19" s="39"/>
+      <c r="BA19" s="39"/>
+      <c r="BB19" s="39"/>
+      <c r="BC19" s="39"/>
+      <c r="BD19" s="39"/>
+      <c r="BE19" s="39"/>
+      <c r="BF19" s="39"/>
+      <c r="BG19" s="39"/>
+      <c r="BH19" s="39"/>
+      <c r="BI19" s="39"/>
+      <c r="BJ19" s="39"/>
+      <c r="BK19" s="39"/>
+      <c r="BL19" s="39"/>
+      <c r="BM19" s="39"/>
+      <c r="BN19" s="39"/>
+      <c r="BO19" s="39"/>
+      <c r="BP19" s="39"/>
+      <c r="BQ19" s="39"/>
+      <c r="BR19" s="39"/>
+      <c r="BS19" s="39"/>
+      <c r="BT19" s="39"/>
+      <c r="BU19" s="39"/>
+      <c r="BV19" s="39"/>
+      <c r="BW19" s="39"/>
+      <c r="BX19" s="39"/>
+      <c r="BY19" s="39"/>
+      <c r="BZ19" s="39"/>
+      <c r="CA19" s="39"/>
+      <c r="CB19" s="39"/>
+      <c r="CC19" s="39"/>
+      <c r="CD19" s="39"/>
+      <c r="CE19" s="39"/>
+      <c r="CF19" s="39"/>
+      <c r="CG19" s="39"/>
+      <c r="CH19" s="39"/>
+      <c r="CI19" s="39"/>
+      <c r="CJ19" s="39"/>
+      <c r="CK19" s="39"/>
+      <c r="CL19" s="39"/>
+      <c r="CM19" s="39"/>
+      <c r="CN19" s="39"/>
+      <c r="CO19" s="39"/>
+      <c r="CP19" s="39"/>
+      <c r="CQ19" s="39"/>
+      <c r="CR19" s="39"/>
+      <c r="CS19" s="39"/>
+      <c r="CT19" s="39"/>
+      <c r="CU19" s="39"/>
+      <c r="CV19" s="39"/>
+      <c r="CW19" s="39"/>
+      <c r="CX19" s="39"/>
+      <c r="CY19" s="39"/>
+      <c r="CZ19" s="39"/>
+      <c r="DA19" s="39"/>
+      <c r="DB19" s="39"/>
+      <c r="DC19" s="39"/>
+      <c r="DD19" s="39"/>
+      <c r="DE19" s="39"/>
+      <c r="DF19" s="39"/>
+      <c r="DG19" s="39"/>
+      <c r="DH19" s="39"/>
+      <c r="DI19" s="39"/>
+      <c r="DJ19" s="39"/>
+      <c r="DK19" s="39"/>
+      <c r="DL19" s="39"/>
+      <c r="DM19" s="39"/>
+      <c r="DN19" s="39"/>
+      <c r="DO19" s="39"/>
+      <c r="DP19" s="39"/>
+      <c r="DQ19" s="39"/>
+      <c r="DR19" s="39"/>
+      <c r="DS19" s="39"/>
+      <c r="DT19" s="39"/>
+      <c r="DU19" s="39"/>
+      <c r="DV19" s="39"/>
+      <c r="DW19" s="39"/>
+      <c r="DX19" s="39"/>
+      <c r="DY19" s="39"/>
+      <c r="DZ19" s="39"/>
+      <c r="EA19" s="39"/>
+      <c r="EB19" s="39"/>
+      <c r="EC19" s="39"/>
+      <c r="ED19" s="39"/>
+      <c r="EE19" s="39"/>
+      <c r="EF19" s="39"/>
+      <c r="EG19" s="39"/>
+      <c r="EH19" s="39"/>
+      <c r="EI19" s="39"/>
+      <c r="EJ19" s="39"/>
+      <c r="EK19" s="39"/>
+      <c r="EL19" s="39"/>
+      <c r="EM19" s="39"/>
+      <c r="EN19" s="39"/>
+      <c r="EO19" s="39"/>
+      <c r="EP19" s="39"/>
+      <c r="EQ19" s="39"/>
+      <c r="ER19" s="39"/>
+      <c r="ES19" s="39"/>
+      <c r="ET19" s="39"/>
+      <c r="EU19" s="39"/>
+      <c r="EV19" s="39"/>
+      <c r="EW19" s="39"/>
+      <c r="EX19" s="39"/>
+      <c r="EY19" s="39"/>
+      <c r="EZ19" s="39"/>
+      <c r="FA19" s="39"/>
+      <c r="FB19" s="39"/>
+      <c r="FC19" s="39"/>
+      <c r="FD19" s="39"/>
+      <c r="FE19" s="39"/>
     </row>
     <row r="20" spans="1:161" s="13" customFormat="1" ht="20">
-      <c r="A20" s="36"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="C20" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="5">
@@ -5622,144 +5631,144 @@
       <c r="AC20" s="24"/>
       <c r="AD20" s="24"/>
       <c r="AE20" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AF20" s="16"/>
-      <c r="AJ20" s="42"/>
-      <c r="AK20" s="42"/>
-      <c r="AL20" s="42"/>
-      <c r="AM20" s="42"/>
-      <c r="AN20" s="42"/>
-      <c r="AO20" s="42"/>
-      <c r="AP20" s="42"/>
-      <c r="AQ20" s="42"/>
-      <c r="AR20" s="42"/>
-      <c r="AS20" s="42"/>
-      <c r="AT20" s="42"/>
-      <c r="AU20" s="42"/>
-      <c r="AV20" s="42"/>
-      <c r="AW20" s="42"/>
-      <c r="AX20" s="42"/>
-      <c r="AY20" s="42"/>
-      <c r="AZ20" s="42"/>
-      <c r="BA20" s="42"/>
-      <c r="BB20" s="42"/>
-      <c r="BC20" s="42"/>
-      <c r="BD20" s="42"/>
-      <c r="BE20" s="42"/>
-      <c r="BF20" s="42"/>
-      <c r="BG20" s="42"/>
-      <c r="BH20" s="42"/>
-      <c r="BI20" s="42"/>
-      <c r="BJ20" s="42"/>
-      <c r="BK20" s="42"/>
-      <c r="BL20" s="42"/>
-      <c r="BM20" s="42"/>
-      <c r="BN20" s="42"/>
-      <c r="BO20" s="42"/>
-      <c r="BP20" s="42"/>
-      <c r="BQ20" s="42"/>
-      <c r="BR20" s="42"/>
-      <c r="BS20" s="42"/>
-      <c r="BT20" s="42"/>
-      <c r="BU20" s="42"/>
-      <c r="BV20" s="42"/>
-      <c r="BW20" s="42"/>
-      <c r="BX20" s="42"/>
-      <c r="BY20" s="42"/>
-      <c r="BZ20" s="42"/>
-      <c r="CA20" s="42"/>
-      <c r="CB20" s="42"/>
-      <c r="CC20" s="42"/>
-      <c r="CD20" s="42"/>
-      <c r="CE20" s="42"/>
-      <c r="CF20" s="42"/>
-      <c r="CG20" s="42"/>
-      <c r="CH20" s="42"/>
-      <c r="CI20" s="42"/>
-      <c r="CJ20" s="42"/>
-      <c r="CK20" s="42"/>
-      <c r="CL20" s="42"/>
-      <c r="CM20" s="42"/>
-      <c r="CN20" s="42"/>
-      <c r="CO20" s="42"/>
-      <c r="CP20" s="42"/>
-      <c r="CQ20" s="42"/>
-      <c r="CR20" s="42"/>
-      <c r="CS20" s="42"/>
-      <c r="CT20" s="42"/>
-      <c r="CU20" s="42"/>
-      <c r="CV20" s="42"/>
-      <c r="CW20" s="42"/>
-      <c r="CX20" s="42"/>
-      <c r="CY20" s="42"/>
-      <c r="CZ20" s="42"/>
-      <c r="DA20" s="42"/>
-      <c r="DB20" s="42"/>
-      <c r="DC20" s="42"/>
-      <c r="DD20" s="42"/>
-      <c r="DE20" s="42"/>
-      <c r="DF20" s="42"/>
-      <c r="DG20" s="42"/>
-      <c r="DH20" s="42"/>
-      <c r="DI20" s="42"/>
-      <c r="DJ20" s="42"/>
-      <c r="DK20" s="42"/>
-      <c r="DL20" s="42"/>
-      <c r="DM20" s="42"/>
-      <c r="DN20" s="42"/>
-      <c r="DO20" s="42"/>
-      <c r="DP20" s="42"/>
-      <c r="DQ20" s="42"/>
-      <c r="DR20" s="42"/>
-      <c r="DS20" s="42"/>
-      <c r="DT20" s="42"/>
-      <c r="DU20" s="42"/>
-      <c r="DV20" s="42"/>
-      <c r="DW20" s="42"/>
-      <c r="DX20" s="42"/>
-      <c r="DY20" s="42"/>
-      <c r="DZ20" s="42"/>
-      <c r="EA20" s="42"/>
-      <c r="EB20" s="42"/>
-      <c r="EC20" s="42"/>
-      <c r="ED20" s="42"/>
-      <c r="EE20" s="42"/>
-      <c r="EF20" s="42"/>
-      <c r="EG20" s="42"/>
-      <c r="EH20" s="42"/>
-      <c r="EI20" s="42"/>
-      <c r="EJ20" s="42"/>
-      <c r="EK20" s="42"/>
-      <c r="EL20" s="42"/>
-      <c r="EM20" s="42"/>
-      <c r="EN20" s="42"/>
-      <c r="EO20" s="42"/>
-      <c r="EP20" s="42"/>
-      <c r="EQ20" s="42"/>
-      <c r="ER20" s="42"/>
-      <c r="ES20" s="42"/>
-      <c r="ET20" s="42"/>
-      <c r="EU20" s="42"/>
-      <c r="EV20" s="42"/>
-      <c r="EW20" s="42"/>
-      <c r="EX20" s="42"/>
-      <c r="EY20" s="42"/>
-      <c r="EZ20" s="42"/>
-      <c r="FA20" s="42"/>
-      <c r="FB20" s="42"/>
-      <c r="FC20" s="42"/>
-      <c r="FD20" s="42"/>
-      <c r="FE20" s="42"/>
+      <c r="AJ20" s="39"/>
+      <c r="AK20" s="39"/>
+      <c r="AL20" s="39"/>
+      <c r="AM20" s="39"/>
+      <c r="AN20" s="39"/>
+      <c r="AO20" s="39"/>
+      <c r="AP20" s="39"/>
+      <c r="AQ20" s="39"/>
+      <c r="AR20" s="39"/>
+      <c r="AS20" s="39"/>
+      <c r="AT20" s="39"/>
+      <c r="AU20" s="39"/>
+      <c r="AV20" s="39"/>
+      <c r="AW20" s="39"/>
+      <c r="AX20" s="39"/>
+      <c r="AY20" s="39"/>
+      <c r="AZ20" s="39"/>
+      <c r="BA20" s="39"/>
+      <c r="BB20" s="39"/>
+      <c r="BC20" s="39"/>
+      <c r="BD20" s="39"/>
+      <c r="BE20" s="39"/>
+      <c r="BF20" s="39"/>
+      <c r="BG20" s="39"/>
+      <c r="BH20" s="39"/>
+      <c r="BI20" s="39"/>
+      <c r="BJ20" s="39"/>
+      <c r="BK20" s="39"/>
+      <c r="BL20" s="39"/>
+      <c r="BM20" s="39"/>
+      <c r="BN20" s="39"/>
+      <c r="BO20" s="39"/>
+      <c r="BP20" s="39"/>
+      <c r="BQ20" s="39"/>
+      <c r="BR20" s="39"/>
+      <c r="BS20" s="39"/>
+      <c r="BT20" s="39"/>
+      <c r="BU20" s="39"/>
+      <c r="BV20" s="39"/>
+      <c r="BW20" s="39"/>
+      <c r="BX20" s="39"/>
+      <c r="BY20" s="39"/>
+      <c r="BZ20" s="39"/>
+      <c r="CA20" s="39"/>
+      <c r="CB20" s="39"/>
+      <c r="CC20" s="39"/>
+      <c r="CD20" s="39"/>
+      <c r="CE20" s="39"/>
+      <c r="CF20" s="39"/>
+      <c r="CG20" s="39"/>
+      <c r="CH20" s="39"/>
+      <c r="CI20" s="39"/>
+      <c r="CJ20" s="39"/>
+      <c r="CK20" s="39"/>
+      <c r="CL20" s="39"/>
+      <c r="CM20" s="39"/>
+      <c r="CN20" s="39"/>
+      <c r="CO20" s="39"/>
+      <c r="CP20" s="39"/>
+      <c r="CQ20" s="39"/>
+      <c r="CR20" s="39"/>
+      <c r="CS20" s="39"/>
+      <c r="CT20" s="39"/>
+      <c r="CU20" s="39"/>
+      <c r="CV20" s="39"/>
+      <c r="CW20" s="39"/>
+      <c r="CX20" s="39"/>
+      <c r="CY20" s="39"/>
+      <c r="CZ20" s="39"/>
+      <c r="DA20" s="39"/>
+      <c r="DB20" s="39"/>
+      <c r="DC20" s="39"/>
+      <c r="DD20" s="39"/>
+      <c r="DE20" s="39"/>
+      <c r="DF20" s="39"/>
+      <c r="DG20" s="39"/>
+      <c r="DH20" s="39"/>
+      <c r="DI20" s="39"/>
+      <c r="DJ20" s="39"/>
+      <c r="DK20" s="39"/>
+      <c r="DL20" s="39"/>
+      <c r="DM20" s="39"/>
+      <c r="DN20" s="39"/>
+      <c r="DO20" s="39"/>
+      <c r="DP20" s="39"/>
+      <c r="DQ20" s="39"/>
+      <c r="DR20" s="39"/>
+      <c r="DS20" s="39"/>
+      <c r="DT20" s="39"/>
+      <c r="DU20" s="39"/>
+      <c r="DV20" s="39"/>
+      <c r="DW20" s="39"/>
+      <c r="DX20" s="39"/>
+      <c r="DY20" s="39"/>
+      <c r="DZ20" s="39"/>
+      <c r="EA20" s="39"/>
+      <c r="EB20" s="39"/>
+      <c r="EC20" s="39"/>
+      <c r="ED20" s="39"/>
+      <c r="EE20" s="39"/>
+      <c r="EF20" s="39"/>
+      <c r="EG20" s="39"/>
+      <c r="EH20" s="39"/>
+      <c r="EI20" s="39"/>
+      <c r="EJ20" s="39"/>
+      <c r="EK20" s="39"/>
+      <c r="EL20" s="39"/>
+      <c r="EM20" s="39"/>
+      <c r="EN20" s="39"/>
+      <c r="EO20" s="39"/>
+      <c r="EP20" s="39"/>
+      <c r="EQ20" s="39"/>
+      <c r="ER20" s="39"/>
+      <c r="ES20" s="39"/>
+      <c r="ET20" s="39"/>
+      <c r="EU20" s="39"/>
+      <c r="EV20" s="39"/>
+      <c r="EW20" s="39"/>
+      <c r="EX20" s="39"/>
+      <c r="EY20" s="39"/>
+      <c r="EZ20" s="39"/>
+      <c r="FA20" s="39"/>
+      <c r="FB20" s="39"/>
+      <c r="FC20" s="39"/>
+      <c r="FD20" s="39"/>
+      <c r="FE20" s="39"/>
     </row>
     <row r="21" spans="1:161">
       <c r="A21" s="16" t="s">
         <v>95</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="C21" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="5">
@@ -5808,7 +5817,7 @@
       <c r="AC21" s="24"/>
       <c r="AD21" s="24"/>
       <c r="AE21" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:161">
@@ -5816,7 +5825,7 @@
         <v>62</v>
       </c>
       <c r="B22" s="22"/>
-      <c r="C22" s="29"/>
+      <c r="C22" s="28"/>
       <c r="E22" s="14"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
@@ -5847,7 +5856,7 @@
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:161">
@@ -5855,7 +5864,7 @@
         <v>63</v>
       </c>
       <c r="B23" s="22"/>
-      <c r="C23" s="29"/>
+      <c r="C23" s="28"/>
       <c r="E23" s="14"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
@@ -5882,12 +5891,12 @@
       <c r="AC23" s="24"/>
       <c r="AD23" s="24"/>
       <c r="AE23" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:161">
       <c r="B24" s="22"/>
-      <c r="C24" s="29"/>
+      <c r="C24" s="28"/>
       <c r="E24" s="14"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
@@ -5922,7 +5931,7 @@
       <c r="B25" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="28" t="s">
         <v>17</v>
       </c>
       <c r="D25">
@@ -5997,7 +6006,7 @@
       <c r="AC25" s="24"/>
       <c r="AD25" s="24"/>
       <c r="AE25" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:161">
@@ -6007,7 +6016,7 @@
       <c r="B26" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="28" t="s">
         <v>43</v>
       </c>
       <c r="D26">
@@ -6082,7 +6091,7 @@
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:161" s="13" customFormat="1">
@@ -6090,7 +6099,7 @@
       <c r="B27" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="28" t="s">
         <v>101</v>
       </c>
       <c r="D27" s="13">
@@ -6165,7 +6174,7 @@
       <c r="AC27" s="24"/>
       <c r="AD27" s="24"/>
       <c r="AE27" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AF27" s="16"/>
     </row>
@@ -6174,7 +6183,7 @@
       <c r="B28" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="28" t="s">
         <v>102</v>
       </c>
       <c r="D28" s="13">
@@ -6197,7 +6206,7 @@
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L28" s="5">
         <v>2</v>
@@ -6249,7 +6258,7 @@
       <c r="AC28" s="24"/>
       <c r="AD28" s="24"/>
       <c r="AE28" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AF28" s="16"/>
     </row>
@@ -6257,7 +6266,7 @@
       <c r="B29" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="28" t="s">
         <v>83</v>
       </c>
       <c r="D29">
@@ -6330,7 +6339,7 @@
       <c r="AC29" s="24"/>
       <c r="AD29" s="24"/>
       <c r="AE29" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AF29" s="16" t="s">
         <v>107</v>
@@ -6340,7 +6349,7 @@
       <c r="B30" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="28" t="s">
         <v>84</v>
       </c>
       <c r="D30">
@@ -6408,40 +6417,40 @@
       <c r="AC30" s="24"/>
       <c r="AD30" s="24"/>
       <c r="AE30" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:161" s="13" customFormat="1">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="D31" s="46">
+      <c r="A31" s="40"/>
+      <c r="B31" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="43">
         <v>2</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E31" s="31">
         <v>3584</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="42">
         <v>9.5</v>
       </c>
-      <c r="G31" s="45">
+      <c r="G31" s="42">
         <v>4.7</v>
       </c>
-      <c r="H31" s="45">
+      <c r="H31" s="42">
         <v>16.399999999999999</v>
       </c>
-      <c r="I31" s="45">
+      <c r="I31" s="42">
         <v>720</v>
       </c>
-      <c r="J31" s="45">
+      <c r="J31" s="42">
         <v>1</v>
       </c>
-      <c r="K31" s="45" t="s">
-        <v>158</v>
+      <c r="K31" s="42" t="s">
+        <v>153</v>
       </c>
       <c r="L31" s="5">
         <v>2</v>
@@ -6451,19 +6460,19 @@
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
-      <c r="P31" s="33">
+      <c r="P31" s="31">
         <v>0.43840000000000001</v>
       </c>
       <c r="Q31" s="5">
         <v>1333</v>
       </c>
-      <c r="R31" s="45">
+      <c r="R31" s="42">
         <v>128</v>
       </c>
       <c r="S31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="T31" s="33">
+      <c r="T31" s="31">
         <v>960</v>
       </c>
       <c r="U31" s="14"/>
@@ -6475,148 +6484,148 @@
         <f t="shared" si="4"/>
         <v>$5.79?</v>
       </c>
-      <c r="AA31" s="47">
+      <c r="AA31" s="44">
         <v>1269</v>
       </c>
-      <c r="AB31" s="47">
+      <c r="AB31" s="44">
         <v>4229</v>
       </c>
-      <c r="AC31" s="47"/>
-      <c r="AD31" s="47"/>
+      <c r="AC31" s="44"/>
+      <c r="AD31" s="44"/>
       <c r="AE31" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AF31" s="16"/>
-      <c r="AJ31" s="46"/>
-      <c r="AK31" s="46"/>
-      <c r="AL31" s="46"/>
-      <c r="AM31" s="46"/>
-      <c r="AN31" s="46"/>
-      <c r="AO31" s="46"/>
-      <c r="AP31" s="46"/>
-      <c r="AQ31" s="46"/>
-      <c r="AR31" s="46"/>
-      <c r="AS31" s="46"/>
-      <c r="AT31" s="46"/>
-      <c r="AU31" s="46"/>
-      <c r="AV31" s="46"/>
-      <c r="AW31" s="46"/>
-      <c r="AX31" s="46"/>
-      <c r="AY31" s="46"/>
-      <c r="AZ31" s="46"/>
-      <c r="BA31" s="46"/>
-      <c r="BB31" s="46"/>
-      <c r="BC31" s="46"/>
-      <c r="BD31" s="46"/>
-      <c r="BE31" s="46"/>
-      <c r="BF31" s="46"/>
-      <c r="BG31" s="46"/>
-      <c r="BH31" s="46"/>
-      <c r="BI31" s="46"/>
-      <c r="BJ31" s="46"/>
-      <c r="BK31" s="46"/>
-      <c r="BL31" s="46"/>
-      <c r="BM31" s="46"/>
-      <c r="BN31" s="46"/>
-      <c r="BO31" s="46"/>
-      <c r="BP31" s="46"/>
-      <c r="BQ31" s="46"/>
-      <c r="BR31" s="46"/>
-      <c r="BS31" s="46"/>
-      <c r="BT31" s="46"/>
-      <c r="BU31" s="46"/>
-      <c r="BV31" s="46"/>
-      <c r="BW31" s="46"/>
-      <c r="BX31" s="46"/>
-      <c r="BY31" s="46"/>
-      <c r="BZ31" s="46"/>
-      <c r="CA31" s="46"/>
-      <c r="CB31" s="46"/>
-      <c r="CC31" s="46"/>
-      <c r="CD31" s="46"/>
-      <c r="CE31" s="46"/>
-      <c r="CF31" s="46"/>
-      <c r="CG31" s="46"/>
-      <c r="CH31" s="46"/>
-      <c r="CI31" s="46"/>
-      <c r="CJ31" s="46"/>
-      <c r="CK31" s="46"/>
-      <c r="CL31" s="46"/>
-      <c r="CM31" s="46"/>
-      <c r="CN31" s="46"/>
-      <c r="CO31" s="46"/>
-      <c r="CP31" s="46"/>
-      <c r="CQ31" s="46"/>
-      <c r="CR31" s="46"/>
-      <c r="CS31" s="46"/>
-      <c r="CT31" s="46"/>
-      <c r="CU31" s="46"/>
-      <c r="CV31" s="46"/>
-      <c r="CW31" s="46"/>
-      <c r="CX31" s="46"/>
-      <c r="CY31" s="46"/>
-      <c r="CZ31" s="46"/>
-      <c r="DA31" s="46"/>
-      <c r="DB31" s="46"/>
-      <c r="DC31" s="46"/>
-      <c r="DD31" s="46"/>
-      <c r="DE31" s="46"/>
-      <c r="DF31" s="46"/>
-      <c r="DG31" s="46"/>
-      <c r="DH31" s="46"/>
-      <c r="DI31" s="46"/>
-      <c r="DJ31" s="46"/>
-      <c r="DK31" s="46"/>
-      <c r="DL31" s="46"/>
-      <c r="DM31" s="46"/>
-      <c r="DN31" s="46"/>
-      <c r="DO31" s="46"/>
-      <c r="DP31" s="46"/>
-      <c r="DQ31" s="46"/>
-      <c r="DR31" s="46"/>
-      <c r="DS31" s="46"/>
-      <c r="DT31" s="46"/>
-      <c r="DU31" s="46"/>
-      <c r="DV31" s="46"/>
-      <c r="DW31" s="46"/>
-      <c r="DX31" s="46"/>
-      <c r="DY31" s="46"/>
-      <c r="DZ31" s="46"/>
-      <c r="EA31" s="46"/>
-      <c r="EB31" s="46"/>
-      <c r="EC31" s="46"/>
-      <c r="ED31" s="46"/>
-      <c r="EE31" s="46"/>
-      <c r="EF31" s="46"/>
-      <c r="EG31" s="46"/>
-      <c r="EH31" s="46"/>
-      <c r="EI31" s="46"/>
-      <c r="EJ31" s="46"/>
-      <c r="EK31" s="46"/>
-      <c r="EL31" s="46"/>
-      <c r="EM31" s="46"/>
-      <c r="EN31" s="46"/>
-      <c r="EO31" s="46"/>
-      <c r="EP31" s="46"/>
-      <c r="EQ31" s="46"/>
-      <c r="ER31" s="46"/>
-      <c r="ES31" s="46"/>
-      <c r="ET31" s="46"/>
-      <c r="EU31" s="46"/>
-      <c r="EV31" s="46"/>
-      <c r="EW31" s="46"/>
-      <c r="EX31" s="46"/>
-      <c r="EY31" s="46"/>
-      <c r="EZ31" s="46"/>
-      <c r="FA31" s="46"/>
-      <c r="FB31" s="46"/>
-      <c r="FC31" s="46"/>
-      <c r="FD31" s="46"/>
-      <c r="FE31" s="46"/>
+      <c r="AJ31" s="43"/>
+      <c r="AK31" s="43"/>
+      <c r="AL31" s="43"/>
+      <c r="AM31" s="43"/>
+      <c r="AN31" s="43"/>
+      <c r="AO31" s="43"/>
+      <c r="AP31" s="43"/>
+      <c r="AQ31" s="43"/>
+      <c r="AR31" s="43"/>
+      <c r="AS31" s="43"/>
+      <c r="AT31" s="43"/>
+      <c r="AU31" s="43"/>
+      <c r="AV31" s="43"/>
+      <c r="AW31" s="43"/>
+      <c r="AX31" s="43"/>
+      <c r="AY31" s="43"/>
+      <c r="AZ31" s="43"/>
+      <c r="BA31" s="43"/>
+      <c r="BB31" s="43"/>
+      <c r="BC31" s="43"/>
+      <c r="BD31" s="43"/>
+      <c r="BE31" s="43"/>
+      <c r="BF31" s="43"/>
+      <c r="BG31" s="43"/>
+      <c r="BH31" s="43"/>
+      <c r="BI31" s="43"/>
+      <c r="BJ31" s="43"/>
+      <c r="BK31" s="43"/>
+      <c r="BL31" s="43"/>
+      <c r="BM31" s="43"/>
+      <c r="BN31" s="43"/>
+      <c r="BO31" s="43"/>
+      <c r="BP31" s="43"/>
+      <c r="BQ31" s="43"/>
+      <c r="BR31" s="43"/>
+      <c r="BS31" s="43"/>
+      <c r="BT31" s="43"/>
+      <c r="BU31" s="43"/>
+      <c r="BV31" s="43"/>
+      <c r="BW31" s="43"/>
+      <c r="BX31" s="43"/>
+      <c r="BY31" s="43"/>
+      <c r="BZ31" s="43"/>
+      <c r="CA31" s="43"/>
+      <c r="CB31" s="43"/>
+      <c r="CC31" s="43"/>
+      <c r="CD31" s="43"/>
+      <c r="CE31" s="43"/>
+      <c r="CF31" s="43"/>
+      <c r="CG31" s="43"/>
+      <c r="CH31" s="43"/>
+      <c r="CI31" s="43"/>
+      <c r="CJ31" s="43"/>
+      <c r="CK31" s="43"/>
+      <c r="CL31" s="43"/>
+      <c r="CM31" s="43"/>
+      <c r="CN31" s="43"/>
+      <c r="CO31" s="43"/>
+      <c r="CP31" s="43"/>
+      <c r="CQ31" s="43"/>
+      <c r="CR31" s="43"/>
+      <c r="CS31" s="43"/>
+      <c r="CT31" s="43"/>
+      <c r="CU31" s="43"/>
+      <c r="CV31" s="43"/>
+      <c r="CW31" s="43"/>
+      <c r="CX31" s="43"/>
+      <c r="CY31" s="43"/>
+      <c r="CZ31" s="43"/>
+      <c r="DA31" s="43"/>
+      <c r="DB31" s="43"/>
+      <c r="DC31" s="43"/>
+      <c r="DD31" s="43"/>
+      <c r="DE31" s="43"/>
+      <c r="DF31" s="43"/>
+      <c r="DG31" s="43"/>
+      <c r="DH31" s="43"/>
+      <c r="DI31" s="43"/>
+      <c r="DJ31" s="43"/>
+      <c r="DK31" s="43"/>
+      <c r="DL31" s="43"/>
+      <c r="DM31" s="43"/>
+      <c r="DN31" s="43"/>
+      <c r="DO31" s="43"/>
+      <c r="DP31" s="43"/>
+      <c r="DQ31" s="43"/>
+      <c r="DR31" s="43"/>
+      <c r="DS31" s="43"/>
+      <c r="DT31" s="43"/>
+      <c r="DU31" s="43"/>
+      <c r="DV31" s="43"/>
+      <c r="DW31" s="43"/>
+      <c r="DX31" s="43"/>
+      <c r="DY31" s="43"/>
+      <c r="DZ31" s="43"/>
+      <c r="EA31" s="43"/>
+      <c r="EB31" s="43"/>
+      <c r="EC31" s="43"/>
+      <c r="ED31" s="43"/>
+      <c r="EE31" s="43"/>
+      <c r="EF31" s="43"/>
+      <c r="EG31" s="43"/>
+      <c r="EH31" s="43"/>
+      <c r="EI31" s="43"/>
+      <c r="EJ31" s="43"/>
+      <c r="EK31" s="43"/>
+      <c r="EL31" s="43"/>
+      <c r="EM31" s="43"/>
+      <c r="EN31" s="43"/>
+      <c r="EO31" s="43"/>
+      <c r="EP31" s="43"/>
+      <c r="EQ31" s="43"/>
+      <c r="ER31" s="43"/>
+      <c r="ES31" s="43"/>
+      <c r="ET31" s="43"/>
+      <c r="EU31" s="43"/>
+      <c r="EV31" s="43"/>
+      <c r="EW31" s="43"/>
+      <c r="EX31" s="43"/>
+      <c r="EY31" s="43"/>
+      <c r="EZ31" s="43"/>
+      <c r="FA31" s="43"/>
+      <c r="FB31" s="43"/>
+      <c r="FC31" s="43"/>
+      <c r="FD31" s="43"/>
+      <c r="FE31" s="43"/>
     </row>
     <row r="32" spans="1:161">
       <c r="B32" s="22"/>
-      <c r="C32" s="29"/>
+      <c r="C32" s="28"/>
       <c r="E32" s="14"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
@@ -6644,7 +6653,7 @@
       <c r="AC32" s="24"/>
       <c r="AD32" s="24"/>
       <c r="AE32" s="16" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="20">
@@ -6654,67 +6663,67 @@
       <c r="B33" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="D33" s="29">
+      <c r="C33" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" s="28">
         <v>4</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="28">
         <v>3584</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="28">
         <v>10.157</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G33" s="28">
         <v>0.317</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="28">
         <v>12</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I33" s="28">
         <v>480</v>
       </c>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29" t="s">
+      <c r="J33" s="28"/>
+      <c r="K33" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="L33" s="29">
+      <c r="L33" s="28">
         <v>2</v>
       </c>
-      <c r="M33" s="29">
+      <c r="M33" s="28">
         <v>4</v>
       </c>
-      <c r="N33" s="29">
+      <c r="N33" s="28">
         <v>3</v>
       </c>
-      <c r="O33" s="29">
+      <c r="O33" s="28">
         <v>16</v>
       </c>
       <c r="P33" s="14">
         <f>M33*N33*O33/1000</f>
         <v>0.192</v>
       </c>
-      <c r="Q33" s="29">
+      <c r="Q33" s="28">
         <v>1866</v>
       </c>
-      <c r="R33" s="29">
+      <c r="R33" s="28">
         <v>128</v>
       </c>
-      <c r="S33" s="29" t="s">
+      <c r="S33" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="T33" s="29">
+      <c r="T33" s="28">
         <v>480</v>
       </c>
-      <c r="U33" s="29" t="s">
+      <c r="U33" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="V33" s="29">
+      <c r="V33" s="28">
         <v>480</v>
       </c>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29">
+      <c r="W33" s="28"/>
+      <c r="X33" s="28">
         <v>0.1</v>
       </c>
       <c r="Y33" s="14" t="str">
@@ -6723,15 +6732,15 @@
       </c>
       <c r="Z33" s="10"/>
       <c r="AA33" s="24"/>
-      <c r="AB33" s="56">
+      <c r="AB33" s="52">
         <v>93000</v>
       </c>
       <c r="AC33" s="24"/>
-      <c r="AD33" s="56">
+      <c r="AD33" s="52">
         <v>815000</v>
       </c>
       <c r="AE33" s="16" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:32">
@@ -6739,69 +6748,69 @@
         <v>65</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C34" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="28">
         <v>1</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="28">
         <v>3840</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="28">
         <v>11.757999999999999</v>
       </c>
-      <c r="G34" s="29">
+      <c r="G34" s="28">
         <v>0.36699999999999999</v>
       </c>
-      <c r="H34" s="29">
+      <c r="H34" s="28">
         <v>24.576000000000001</v>
       </c>
-      <c r="I34" s="29">
+      <c r="I34" s="28">
         <v>345.6</v>
       </c>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29" t="s">
+      <c r="J34" s="28"/>
+      <c r="K34" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="L34" s="29">
+      <c r="L34" s="28">
         <v>2</v>
       </c>
-      <c r="M34" s="29">
+      <c r="M34" s="28">
         <v>4</v>
       </c>
-      <c r="N34" s="29">
+      <c r="N34" s="28">
         <v>3</v>
       </c>
-      <c r="O34" s="29">
+      <c r="O34" s="28">
         <v>16</v>
       </c>
       <c r="P34" s="14">
         <f>M34*N34*O34/1000</f>
         <v>0.192</v>
       </c>
-      <c r="Q34" s="29">
+      <c r="Q34" s="28">
         <v>1866</v>
       </c>
-      <c r="R34" s="29">
+      <c r="R34" s="28">
         <v>128</v>
       </c>
-      <c r="S34" s="29" t="s">
+      <c r="S34" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="T34" s="29">
+      <c r="T34" s="28">
         <v>480</v>
       </c>
-      <c r="U34" s="29" t="s">
+      <c r="U34" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="V34" s="29">
+      <c r="V34" s="28">
         <v>480</v>
       </c>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29">
+      <c r="W34" s="28"/>
+      <c r="X34" s="28">
         <v>0.1</v>
       </c>
       <c r="Y34" s="14" t="str">
@@ -6810,82 +6819,82 @@
       </c>
       <c r="Z34" s="10"/>
       <c r="AA34" s="24"/>
-      <c r="AB34" s="56">
+      <c r="AB34" s="52">
         <v>97000</v>
       </c>
       <c r="AC34" s="24"/>
-      <c r="AD34" s="56">
+      <c r="AD34" s="52">
         <v>875000</v>
       </c>
       <c r="AE34" s="16" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:32">
       <c r="B35" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="D35" s="29">
+        <v>181</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="28">
         <v>1</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="28">
         <v>3584</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="28">
         <v>9.5</v>
       </c>
-      <c r="G35" s="29">
+      <c r="G35" s="28">
         <v>4.7</v>
       </c>
-      <c r="H35" s="29">
+      <c r="H35" s="28">
         <v>16.399999999999999</v>
       </c>
-      <c r="I35" s="29">
+      <c r="I35" s="28">
         <v>720</v>
       </c>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29" t="s">
+      <c r="J35" s="28"/>
+      <c r="K35" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="29">
+      <c r="L35" s="28">
         <v>2</v>
       </c>
-      <c r="M35" s="29">
+      <c r="M35" s="28">
         <v>4</v>
       </c>
-      <c r="N35" s="29">
+      <c r="N35" s="28">
         <v>3</v>
       </c>
-      <c r="O35" s="29">
+      <c r="O35" s="28">
         <v>16</v>
       </c>
       <c r="P35" s="14">
         <f>M35*N35*O35/1000</f>
         <v>0.192</v>
       </c>
-      <c r="Q35" s="29">
+      <c r="Q35" s="28">
         <v>1866</v>
       </c>
-      <c r="R35" s="29">
+      <c r="R35" s="28">
         <v>128</v>
       </c>
-      <c r="S35" s="29" t="s">
+      <c r="S35" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T35" s="29">
+      <c r="T35" s="28">
         <v>480</v>
       </c>
-      <c r="U35" s="29" t="s">
+      <c r="U35" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="V35" s="29">
+      <c r="V35" s="28">
         <v>480</v>
       </c>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29">
+      <c r="W35" s="28"/>
+      <c r="X35" s="28">
         <v>0.1</v>
       </c>
       <c r="Y35" s="14" t="str">
@@ -6893,327 +6902,327 @@
         <v>/0.1</v>
       </c>
       <c r="Z35" s="10"/>
-      <c r="AB35" s="56">
+      <c r="AB35" s="52">
         <v>99000</v>
       </c>
-      <c r="AD35" s="56">
+      <c r="AD35" s="52">
         <v>895000</v>
       </c>
       <c r="AE35" s="16" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:32">
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="29"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
       <c r="AE36" s="16"/>
     </row>
     <row r="37" spans="1:32" ht="23" customHeight="1">
       <c r="A37" s="21" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="D37" s="29">
+        <v>199</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37" s="28">
         <v>2</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="28">
         <v>2560</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="28">
         <v>8.2279999999999998</v>
       </c>
-      <c r="G37" s="29">
+      <c r="G37" s="28">
         <v>0.25700000000000001</v>
       </c>
-      <c r="H37" s="29">
+      <c r="H37" s="28">
         <v>8</v>
       </c>
-      <c r="I37" s="29">
+      <c r="I37" s="28">
         <v>320</v>
       </c>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="L37" s="29">
+      <c r="J37" s="28"/>
+      <c r="K37" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="L37" s="28">
         <v>2</v>
       </c>
-      <c r="M37" s="29">
+      <c r="M37" s="28">
         <v>8</v>
       </c>
-      <c r="N37" s="29">
+      <c r="N37" s="28">
         <v>1.7</v>
       </c>
-      <c r="O37" s="29">
+      <c r="O37" s="28">
         <v>16</v>
       </c>
       <c r="P37" s="14">
         <f>M37*N37*O37/1000</f>
         <v>0.21759999999999999</v>
       </c>
-      <c r="Q37" s="29">
+      <c r="Q37" s="28">
         <v>1866</v>
       </c>
-      <c r="R37" s="29">
+      <c r="R37" s="28">
         <v>32</v>
       </c>
-      <c r="S37" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="T37" s="29">
+      <c r="S37" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="T37" s="28">
         <v>480</v>
       </c>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29">
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28">
         <v>40</v>
       </c>
-      <c r="X37" s="29">
+      <c r="X37" s="28">
         <v>1</v>
       </c>
       <c r="Y37" s="14" t="str">
         <f t="shared" si="6"/>
         <v>40/1</v>
       </c>
-      <c r="Z37" s="55">
+      <c r="Z37" s="51">
         <v>4.2</v>
       </c>
-      <c r="AA37" s="55">
+      <c r="AA37" s="51">
         <v>398.5</v>
       </c>
-      <c r="AB37" s="55">
+      <c r="AB37" s="51">
         <v>797</v>
       </c>
       <c r="AE37" s="16" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="AF37" s="16" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
       <c r="A38" s="16" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="D38" s="29">
+        <v>197</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" s="28">
         <v>4</v>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="28">
         <v>2560</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="28">
         <v>8.2279999999999998</v>
       </c>
-      <c r="G38" s="29">
+      <c r="G38" s="28">
         <v>0.25700000000000001</v>
       </c>
-      <c r="H38" s="29">
+      <c r="H38" s="28">
         <v>8</v>
       </c>
-      <c r="I38" s="29">
+      <c r="I38" s="28">
         <v>320</v>
       </c>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="L38" s="29">
+      <c r="J38" s="28"/>
+      <c r="K38" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="L38" s="28">
         <v>2</v>
       </c>
-      <c r="M38" s="29">
+      <c r="M38" s="28">
         <v>8</v>
       </c>
-      <c r="N38" s="29">
+      <c r="N38" s="28">
         <v>1.7</v>
       </c>
-      <c r="O38" s="29">
+      <c r="O38" s="28">
         <v>16</v>
       </c>
       <c r="P38" s="14">
         <f>M38*N38*O38/1000</f>
         <v>0.21759999999999999</v>
       </c>
-      <c r="Q38" s="29">
+      <c r="Q38" s="28">
         <v>1866</v>
       </c>
-      <c r="R38" s="29">
+      <c r="R38" s="28">
         <v>64</v>
       </c>
-      <c r="S38" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="T38" s="29">
+      <c r="S38" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="T38" s="28">
         <v>480</v>
       </c>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29">
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28">
         <v>40</v>
       </c>
-      <c r="X38" s="29">
+      <c r="X38" s="28">
         <v>1</v>
       </c>
       <c r="Y38" s="14" t="str">
         <f t="shared" si="6"/>
         <v>40/1</v>
       </c>
-      <c r="Z38" s="55">
+      <c r="Z38" s="51">
         <v>6</v>
       </c>
-      <c r="AA38" s="55">
+      <c r="AA38" s="51">
         <v>529.1</v>
       </c>
-      <c r="AB38" s="55">
+      <c r="AB38" s="51">
         <v>1058.33</v>
       </c>
       <c r="AE38" s="16" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="AF38" s="16" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="28" customHeight="1">
       <c r="B39" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="D39" s="29">
+        <v>198</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" s="28">
         <v>8</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="28">
         <v>2560</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="28">
         <v>8.2279999999999998</v>
       </c>
-      <c r="G39" s="29">
+      <c r="G39" s="28">
         <v>0.25700000000000001</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="28">
         <v>8</v>
       </c>
-      <c r="I39" s="29">
+      <c r="I39" s="28">
         <v>320</v>
       </c>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="L39" s="29">
+      <c r="J39" s="28"/>
+      <c r="K39" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="L39" s="28">
         <v>2</v>
       </c>
-      <c r="M39" s="29">
+      <c r="M39" s="28">
         <v>10</v>
       </c>
-      <c r="N39" s="29">
+      <c r="N39" s="28">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O39" s="29">
+      <c r="O39" s="28">
         <v>16</v>
       </c>
       <c r="P39" s="14">
         <f>M39*N39*O39/1000</f>
         <v>0.35199999999999998</v>
       </c>
-      <c r="Q39" s="29">
+      <c r="Q39" s="28">
         <v>1866</v>
       </c>
-      <c r="R39" s="29">
+      <c r="R39" s="28">
         <v>128</v>
       </c>
-      <c r="S39" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="T39" s="29">
+      <c r="S39" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="T39" s="28">
         <v>480</v>
       </c>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29">
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28">
         <v>40</v>
       </c>
-      <c r="X39" s="29">
+      <c r="X39" s="28">
         <v>1</v>
       </c>
       <c r="Y39" s="14" t="str">
         <f t="shared" si="6"/>
         <v>40/1</v>
       </c>
-      <c r="Z39" s="55">
+      <c r="Z39" s="51">
         <v>10.8</v>
       </c>
-      <c r="AA39" s="55">
+      <c r="AA39" s="51">
         <v>1008.5</v>
       </c>
-      <c r="AB39" s="55">
+      <c r="AB39" s="51">
         <v>2017</v>
       </c>
       <c r="AE39" s="16" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="AF39" s="16" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:32">
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29"/>
-      <c r="Y40" s="29"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7296,7 +7305,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FF19:XFD20 FF31:XFD31 Z31 U30:Y31 T30 S30:S31 R30 Q30:Q31 P30 L29:O31 A28:K30 Z35 A17 A18:I18 A21:Q21 S21:V21 K18:V18 A22:V22 Z18:AD22 W18:W22 A12:AD12 B8:AD8 A7:A8 A5:M6 B7:M7 B9:M9 A10:M11 N9:AD11 A23:AD25 A27:M27 L28:M28 N27:O28 A26:O26 P26:AD28 A32:AD32 A34:M34 N34:P35 AG32:XFD34 AG19:AI20 AG35:AI35 AG21:XFD30 AF32:AF35 AF6:AF16 AF18:AF30 AG5:XFD18 AE5:AF5 Q34:X34 AC34:AD34 AB35 A13:AA13 A14:AD16 P29:X29 Z29:AD30 A33:X33 Z33:AD33 Z34:AA34 N5:AD7 AE6:AE36">
+  <conditionalFormatting sqref="FF19:XFD20 FF31:XFD31 Z31 U30:Y31 T30 S30:S31 R30 Q30:Q31 P30 L29:O31 A28:K30 Z35 A17 A18:I18 A21:Q21 S21:V21 K18:V18 A22:V22 Z18:AD22 W18:W22 A12:AD12 B8:AD8 A7:A8 A5:M6 B7:M7 B9:M9 A10:M11 N9:AD11 A23:AD25 A27:M27 L28:M28 N27:O28 A26:O26 P26:AD28 A32:AD32 A34:M34 N34:P35 AG32:XFD34 AG19:AI20 AG35:AI35 AG21:XFD30 AF32:AF35 AF18:AF30 AG5:XFD18 AE5:AF5 Q34:X34 AC34:AD34 AB35 A13:AA13 A14:AD16 P29:X29 Z29:AD30 A33:X33 Z33:AD33 Z34:AA34 N5:AD7 AE6:AE36 AF6:AF16">
     <cfRule type="expression" dxfId="47" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -7630,10 +7639,10 @@
   <dimension ref="A1:AC41"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -7641,7 +7650,7 @@
     <col min="1" max="1" width="19.83203125" style="13" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" customWidth="1"/>
     <col min="3" max="3" width="37.1640625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="40.1640625" style="13" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" style="13" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="13" customWidth="1"/>
@@ -7661,72 +7670,72 @@
     <col min="25" max="25" width="7.33203125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="52" customFormat="1">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:29" s="49" customFormat="1">
+      <c r="A1" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="K1" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="P1" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q1" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="R1" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="S1" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="T1" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="U1" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="H1" s="51" t="s">
-        <v>234</v>
-      </c>
-      <c r="I1" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="J1" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="K1" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="L1" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="M1" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="N1" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="O1" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="P1" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q1" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="R1" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="S1" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="T1" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="U1" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="V1" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="W1" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="X1" s="51" t="s">
-        <v>250</v>
+      <c r="V1" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="W1" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="X1" s="48" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="12" customFormat="1" ht="21" thickBot="1">
@@ -7758,58 +7767,59 @@
         <v>97</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="N2" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q2" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="O2" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="P2" s="30" t="s">
+      <c r="R2" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="S2" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="T2" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="U2" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="V2" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="W2" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="X2" s="30" t="s">
         <v>146</v>
-      </c>
-      <c r="W2" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="X2" s="32" t="s">
-        <v>148</v>
       </c>
       <c r="Y2" s="13"/>
       <c r="AC2" s="13"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1" thickTop="1">
-      <c r="A3" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="61" t="s">
+      <c r="A3" s="53" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
+        <v>Amazon</v>
+      </c>
+      <c r="B3" s="57" t="s">
         <v>123</v>
       </c>
       <c r="C3" s="22" t="str">
@@ -7843,7 +7853,7 @@
         <v>139.84</v>
       </c>
       <c r="N3" s="14" t="str">
-        <f t="shared" ref="N3:W12" ca="1" si="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="N3:X12" ca="1" si="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>K80</v>
       </c>
       <c r="O3" s="14">
@@ -7860,7 +7870,7 @@
       </c>
       <c r="R3" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.84E-2</v>
+        <v>732</v>
       </c>
       <c r="S3" s="14">
         <f t="shared" ca="1" si="1"/>
@@ -7883,16 +7893,16 @@
         <v>0</v>
       </c>
       <c r="X3" s="16" t="str">
-        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) &amp; " CPU performance is approx. performance of Xeon E5-2690 v4 with 18 cores devided by 18 cores * 2 Hyper-threads = 36."</f>
-        <v>Free Outbound Traffic = 1 GB/month.  CPU performance is approx. performance of Xeon E5-2690 v4 with 18 cores devided by 18 cores * 2 Hyper-threads = 36.</v>
-      </c>
-      <c r="AC3" s="49">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</v>
+      </c>
+      <c r="AC3" s="46">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="20" customHeight="1">
-      <c r="A4" s="60"/>
-      <c r="B4" s="61"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="22" t="str">
         <f t="shared" ref="C4:C15" ca="1" si="2">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>p2.8xlarge on-demand</v>
@@ -7941,7 +7951,7 @@
       </c>
       <c r="R4" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.84E-2</v>
+        <v>488</v>
       </c>
       <c r="S4" s="14">
         <f t="shared" ca="1" si="1"/>
@@ -7964,16 +7974,16 @@
         <v>0</v>
       </c>
       <c r="X4" s="16" t="str">
-        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) &amp; " CPU performance is approx. performance of Xeon E5-2690 v4 with 18 cores devided by 18 cores * 2 Hyper-threads = 36."</f>
-        <v>Free Outbound Traffic = 1 GB/month. CPU performance is approx. performance of Xeon E5-2690 v4 with 18 cores devided by 18 cores * 2 Hyper-threads = 36.</v>
-      </c>
-      <c r="AC4" s="48">
+        <f t="shared" ca="1" si="1"/>
+        <v>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 37.</v>
+      </c>
+      <c r="AC4" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="20" customHeight="1">
-      <c r="A5" s="60"/>
-      <c r="B5" s="61"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="22" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>p2.xlarge on-demand</v>
@@ -8022,7 +8032,7 @@
       </c>
       <c r="R5" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.84E-2</v>
+        <v>61</v>
       </c>
       <c r="S5" s="14">
         <f t="shared" ca="1" si="1"/>
@@ -8045,16 +8055,16 @@
         <v>0</v>
       </c>
       <c r="X5" s="16" t="str">
-        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) &amp; " CPU performance is approx. performance of Xeon E5-2690 v4 with 18 cores devided by 18 cores * 2 Hyper-threads = 36."</f>
-        <v>Free Outbound Traffic = 1 GB/month.  CPU performance is approx. performance of Xeon E5-2690 v4 with 18 cores devided by 18 cores * 2 Hyper-threads = 36.</v>
-      </c>
-      <c r="AC5" s="48">
+        <f t="shared" ca="1" si="1"/>
+        <v>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 38.</v>
+      </c>
+      <c r="AC5" s="45">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="20" customHeight="1">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="22" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>p2 dedicated host On-demand</v>
@@ -8103,7 +8113,7 @@
       </c>
       <c r="R6" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66239999999999999</v>
+        <v>0</v>
       </c>
       <c r="S6" s="14">
         <f t="shared" ca="1" si="1"/>
@@ -8129,19 +8139,19 @@
         <f t="shared" ref="X6:X14" ca="1" si="5">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="48">
+      <c r="AC6" s="45">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="20" customHeight="1">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="22" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>p2 dedicated host 1 year no Upfront</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>132</v>
+        <v>242</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>113</v>
@@ -8190,7 +8200,7 @@
       </c>
       <c r="R7" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66239999999999999</v>
+        <v>0</v>
       </c>
       <c r="S7" s="14">
         <f t="shared" ca="1" si="1"/>
@@ -8216,19 +8226,19 @@
         <f t="shared" ca="1" si="5"/>
         <v>This is the average monthly payment over the course of the Dedicated Host Reservation term. For each month, the actual monthly payment will equal the actual number of hours in that month multiplied by the hourly usage rate. The hourly usage rate is equivalent to the total average monthly payments over the term divided by the total number of hours (based on a 365 day year) over the term.</v>
       </c>
-      <c r="AC7" s="48">
+      <c r="AC7" s="45">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="20" customHeight="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="22" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>p2 dedicated host 1 year 100% Upfront</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>133</v>
+        <v>243</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>114</v>
@@ -8274,7 +8284,7 @@
       </c>
       <c r="R8" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66239999999999999</v>
+        <v>0</v>
       </c>
       <c r="S8" s="14">
         <f t="shared" ca="1" si="1"/>
@@ -8300,24 +8310,25 @@
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="48">
+      <c r="AC8" s="45">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="20" customHeight="1">
-      <c r="A9" s="60" t="str">
-        <f>Sheet1!$A$13</f>
+      <c r="A9" s="54" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
         <v>Softlayer</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="55" t="s">
         <v>124</v>
       </c>
       <c r="C9" s="22" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>NVIDIA Tesla K80 Dual Intel Xeon E5-2620 v4</v>
       </c>
+      <c r="D9" s="16"/>
       <c r="E9" s="22" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -8357,7 +8368,7 @@
       </c>
       <c r="R9" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26880000000000004</v>
+        <v>128</v>
       </c>
       <c r="S9" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -8383,20 +8394,20 @@
         <f t="shared" ca="1" si="5"/>
         <v>Outbound Traffic limited to 500GB.</v>
       </c>
-      <c r="AC9" s="48">
+      <c r="AC9" s="45">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:29" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A10" s="60"/>
-      <c r="B10" s="61"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="22" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>NVIDIA Tesla K80 Dual Intel Xeon E5-2620 v4</v>
       </c>
-      <c r="D10" s="22"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="22" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F10" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -8436,7 +8447,7 @@
       </c>
       <c r="R10" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26880000000000004</v>
+        <v>128</v>
       </c>
       <c r="S10" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -8462,20 +8473,20 @@
         <f t="shared" ca="1" si="5"/>
         <v>Outbound Traffic limited to 500GB.</v>
       </c>
-      <c r="AC10" s="48">
+      <c r="AC10" s="45">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:29" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A11" s="60"/>
-      <c r="B11" s="61"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="22" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>NVIDIA Tesla K80 Dual Intel Xeon E5-2690 v3</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="22" t="s">
-        <v>173</v>
+        <v>258</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -8515,7 +8526,7 @@
       </c>
       <c r="R11" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49920000000000003</v>
+        <v>64</v>
       </c>
       <c r="S11" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -8541,20 +8552,20 @@
         <f t="shared" ca="1" si="5"/>
         <v>Outbound Traffic limited to 500GB.</v>
       </c>
-      <c r="AC11" s="48">
+      <c r="AC11" s="45">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="20" customHeight="1">
-      <c r="A12" s="60"/>
-      <c r="B12" s="61"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="22" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>NVIDIA Tesla M60 Dual Intel Xeon E5-2690 v3</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22" t="s">
-        <v>174</v>
+        <v>257</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -8594,7 +8605,7 @@
       </c>
       <c r="R12" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49920000000000003</v>
+        <v>64</v>
       </c>
       <c r="S12" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -8620,16 +8631,16 @@
         <f t="shared" ca="1" si="5"/>
         <v>Outbound Traffic limited to 500GB.</v>
       </c>
-      <c r="AC12" s="48">
+      <c r="AC12" s="45">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="19">
-      <c r="A13" s="25" t="str">
-        <f>Sheet1!A17</f>
+      <c r="A13" s="54" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
         <v>Nimbix</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="55" t="s">
         <v>125</v>
       </c>
       <c r="C13" s="22" t="str">
@@ -8638,7 +8649,7 @@
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F13" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -8678,7 +8689,7 @@
       </c>
       <c r="R13" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>0.43840000000000001</v>
+        <v>128</v>
       </c>
       <c r="S13" s="19" t="str">
         <f>IF(Sheet1!$S18="","",Sheet1!$S18)</f>
@@ -8705,20 +8716,20 @@
         <v xml:space="preserve"> http://www-01.ibm.com/common/ssi/cgi-bin/ssialias?htmlfid=POB03046USEN</v>
       </c>
       <c r="Y13" s="16"/>
-      <c r="AC13" s="48">
+      <c r="AC13" s="45">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:29" s="13" customFormat="1" ht="19">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="22" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>NGD5</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F14" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -8758,7 +8769,7 @@
       </c>
       <c r="R14" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>0.43840000000000001</v>
+        <v>128</v>
       </c>
       <c r="S14" s="19"/>
       <c r="T14" s="14">
@@ -8782,20 +8793,20 @@
         <v xml:space="preserve"> http://www-01.ibm.com/common/ssi/cgi-bin/ssialias?htmlfid=POB03046USEN</v>
       </c>
       <c r="Y14" s="16"/>
-      <c r="AC14" s="48">
+      <c r="AC14" s="45">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:29" s="13" customFormat="1" ht="19">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="22" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>NGQ7</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F15" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -8835,7 +8846,7 @@
       </c>
       <c r="R15" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>0.43840000000000001</v>
+        <v>128</v>
       </c>
       <c r="S15" s="19"/>
       <c r="T15" s="14"/>
@@ -8844,16 +8855,16 @@
       <c r="W15" s="14"/>
       <c r="X15" s="16"/>
       <c r="Y15" s="16"/>
-      <c r="AC15" s="48">
+      <c r="AC15" s="45">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="13" customFormat="1">
-      <c r="A16" s="60" t="str">
-        <f>Sheet1!A25</f>
+    <row r="16" spans="1:29" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="54" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
         <v>Cirrascale</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="55" t="s">
         <v>126</v>
       </c>
       <c r="C16" s="22" t="str">
@@ -8862,7 +8873,7 @@
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -8902,7 +8913,7 @@
       </c>
       <c r="R16" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>0.40960000000000002</v>
+        <v>512</v>
       </c>
       <c r="S16" s="14" t="str">
         <f t="shared" ref="S16:X26" ca="1" si="11">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -8929,20 +8940,20 @@
         <v>0</v>
       </c>
       <c r="Y16" s="16"/>
-      <c r="AC16" s="48">
+      <c r="AC16" s="45">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:29" s="13" customFormat="1" ht="19" customHeight="1">
-      <c r="A17" s="60"/>
-      <c r="B17" s="63"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("AC" &amp; ROW())) &amp; " weekly"</f>
         <v>16-GPU x86 SERVER K80 weekly</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19">
@@ -8982,7 +8993,7 @@
       </c>
       <c r="R17" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>0.40960000000000002</v>
+        <v>512</v>
       </c>
       <c r="S17" s="14" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -9009,20 +9020,20 @@
         <v>0</v>
       </c>
       <c r="Y17" s="16"/>
-      <c r="AC17" s="48">
+      <c r="AC17" s="45">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="20" customHeight="1">
-      <c r="A18" s="60"/>
-      <c r="B18" s="63"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("AC" &amp; ROW())) &amp; " monthly"</f>
         <v>8-GPU x86 SERVER M40 monthly</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -9062,7 +9073,7 @@
       </c>
       <c r="R18" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>0.30719999999999997</v>
+        <v>256</v>
       </c>
       <c r="S18" s="14" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -9089,20 +9100,20 @@
         <v>0</v>
       </c>
       <c r="Y18" s="16"/>
-      <c r="AC18" s="48">
+      <c r="AC18" s="45">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:29" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A19" s="60"/>
-      <c r="B19" s="63"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("AC" &amp; ROW())) &amp;" weekly"</f>
         <v>8-GPU x86 SERVER M40 weekly</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19">
@@ -9142,7 +9153,7 @@
       </c>
       <c r="R19" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>0.30719999999999997</v>
+        <v>256</v>
       </c>
       <c r="S19" s="14" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -9169,20 +9180,20 @@
         <v>0</v>
       </c>
       <c r="Y19" s="16"/>
-      <c r="AC19" s="48">
+      <c r="AC19" s="45">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:29" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A20" s="60"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("AC" &amp; ROW())) &amp; " monthly"</f>
         <v>8-GPU x86 SERVER P40 monthly</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -9222,7 +9233,7 @@
       </c>
       <c r="R20" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>0.30719999999999997</v>
+        <v>256</v>
       </c>
       <c r="S20" s="14" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -9249,20 +9260,20 @@
         <v>0</v>
       </c>
       <c r="Y20" s="16"/>
-      <c r="AC20" s="48">
+      <c r="AC20" s="45">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="20" customHeight="1">
-      <c r="A21" s="60"/>
-      <c r="B21" s="63"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("AC" &amp; ROW())) &amp;" weekly"</f>
         <v>8-GPU x86 SERVER P40 weekly</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19">
@@ -9302,7 +9313,7 @@
       </c>
       <c r="R21" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>0.30719999999999997</v>
+        <v>256</v>
       </c>
       <c r="S21" s="14" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -9329,20 +9340,20 @@
         <v>0</v>
       </c>
       <c r="Y21" s="16"/>
-      <c r="AC21" s="48">
+      <c r="AC21" s="45">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:29" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A22" s="60"/>
-      <c r="B22" s="63"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("AC" &amp; ROW())) &amp; " monthly"</f>
         <v>8-GPU x86 SERVER P100 monthly</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -9382,7 +9393,7 @@
       </c>
       <c r="R22" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>0.30719999999999997</v>
+        <v>256</v>
       </c>
       <c r="S22" s="14" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -9409,20 +9420,20 @@
         <v>0</v>
       </c>
       <c r="Y22" s="16"/>
-      <c r="AC22" s="48">
+      <c r="AC22" s="45">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:29" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A23" s="60"/>
-      <c r="B23" s="63"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("AC" &amp; ROW())) &amp;" weekly"</f>
         <v>8-GPU x86 SERVER P100 weekly</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19">
@@ -9462,7 +9473,7 @@
       </c>
       <c r="R23" s="14">
         <f t="shared" ca="1" si="13"/>
-        <v>0.30719999999999997</v>
+        <v>256</v>
       </c>
       <c r="S23" s="14" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -9489,13 +9500,13 @@
         <v>0</v>
       </c>
       <c r="Y23" s="16"/>
-      <c r="AC23" s="48">
+      <c r="AC23" s="45">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:29" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A24" s="60"/>
-      <c r="B24" s="63"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("AC" &amp; ROW())) &amp; " monthly"</f>
         <v>4-GPU POWER8/10 SERVER monthly</v>
@@ -9542,7 +9553,7 @@
       </c>
       <c r="R24" s="14">
         <f t="shared" ca="1" si="13"/>
-        <v>0.54800000000000004</v>
+        <v>1000</v>
       </c>
       <c r="S24" s="14" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -9569,13 +9580,13 @@
         <v>Infiniband EDR (24.24Gb/s)</v>
       </c>
       <c r="Y24" s="16"/>
-      <c r="AC24" s="48">
+      <c r="AC24" s="45">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:29" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A25" s="60"/>
-      <c r="B25" s="63"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("AC" &amp; ROW())) &amp;" weekly"</f>
         <v>4-GPU POWER8/10 SERVER weekly</v>
@@ -9622,7 +9633,7 @@
       </c>
       <c r="R25" s="14">
         <f t="shared" ca="1" si="13"/>
-        <v>0.54800000000000004</v>
+        <v>1000</v>
       </c>
       <c r="S25" s="14" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -9649,20 +9660,20 @@
         <v>Infiniband EDR (24.24Gb/s)</v>
       </c>
       <c r="Y25" s="16"/>
-      <c r="AC25" s="48">
+      <c r="AC25" s="45">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:29" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A26" s="60"/>
-      <c r="B26" s="63"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("AC" &amp; ROW())) &amp; " monthly"</f>
         <v>4-GPU POWER8/8 SERVER monthly</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -9702,7 +9713,7 @@
       </c>
       <c r="R26" s="14">
         <f t="shared" ca="1" si="13"/>
-        <v>0.43840000000000001</v>
+        <v>512</v>
       </c>
       <c r="S26" s="14" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -9729,20 +9740,20 @@
         <v>0</v>
       </c>
       <c r="Y26" s="16"/>
-      <c r="AC26" s="48">
+      <c r="AC26" s="45">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="20" customHeight="1">
-      <c r="A27" s="60"/>
-      <c r="B27" s="63"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("AC" &amp; ROW())) &amp;" weekly"</f>
         <v>4-GPU POWER8/8 SERVER weekly</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19">
@@ -9782,7 +9793,7 @@
       </c>
       <c r="R27" s="14">
         <f t="shared" ca="1" si="13"/>
-        <v>0.43840000000000001</v>
+        <v>512</v>
       </c>
       <c r="S27" s="14" t="str">
         <f t="shared" ref="S27:W32" ca="1" si="14">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -9809,20 +9820,20 @@
         <v>0</v>
       </c>
       <c r="Y27" s="16"/>
-      <c r="AC27" s="48">
+      <c r="AC27" s="45">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:29" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A28" s="60"/>
-      <c r="B28" s="63"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("AC" &amp; ROW())) &amp; " monthly"</f>
         <v>2-GPU POWER8/8 SERVER monthly</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
@@ -9862,7 +9873,7 @@
       </c>
       <c r="R28" s="14">
         <f t="shared" ca="1" si="13"/>
-        <v>0.43840000000000001</v>
+        <v>128</v>
       </c>
       <c r="S28" s="14" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -9889,20 +9900,20 @@
         <v>0</v>
       </c>
       <c r="Y28" s="16"/>
-      <c r="AC28" s="48">
+      <c r="AC28" s="45">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="20" customHeight="1">
-      <c r="A29" s="60"/>
-      <c r="B29" s="63"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("AC" &amp; ROW())) &amp;" weekly"</f>
         <v>2-GPU POWER8/8 SERVER weekly</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19">
@@ -9942,7 +9953,7 @@
       </c>
       <c r="R29" s="14">
         <f t="shared" ca="1" si="13"/>
-        <v>0.43840000000000001</v>
+        <v>128</v>
       </c>
       <c r="S29" s="14" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -9969,17 +9980,17 @@
         <v>0</v>
       </c>
       <c r="Y29" s="16"/>
-      <c r="AC29" s="48">
+      <c r="AC29" s="45">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="20" customHeight="1">
-      <c r="A30" s="60" t="str">
-        <f>Sheet1!A33</f>
+      <c r="A30" s="54" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
         <v>Sakura</v>
       </c>
-      <c r="B30" s="62" t="s">
-        <v>239</v>
+      <c r="B30" s="56" t="s">
+        <v>222</v>
       </c>
       <c r="C30" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -10030,7 +10041,7 @@
       </c>
       <c r="R30" s="14">
         <f t="shared" ca="1" si="13"/>
-        <v>0.192</v>
+        <v>128</v>
       </c>
       <c r="S30" s="14" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -10057,20 +10068,20 @@
         <v>0</v>
       </c>
       <c r="Y30" s="16"/>
-      <c r="AC30" s="48">
+      <c r="AC30" s="45">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="20" customHeight="1">
-      <c r="A31" s="60"/>
-      <c r="B31" s="61"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>Tesla P40 model</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
@@ -10113,7 +10124,7 @@
       </c>
       <c r="R31" s="14">
         <f t="shared" ca="1" si="13"/>
-        <v>0.192</v>
+        <v>128</v>
       </c>
       <c r="S31" s="14" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -10140,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="Y31" s="16"/>
-      <c r="AC31" s="48">
+      <c r="AC31" s="45">
         <v>34</v>
       </c>
     </row>
@@ -10151,7 +10162,7 @@
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
@@ -10194,7 +10205,7 @@
       </c>
       <c r="R32" s="14">
         <f t="shared" ca="1" si="13"/>
-        <v>0.192</v>
+        <v>128</v>
       </c>
       <c r="S32" s="14" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -10221,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="Y32" s="16"/>
-      <c r="AC32" s="48">
+      <c r="AC32" s="45">
         <v>35</v>
       </c>
     </row>
@@ -10230,8 +10241,8 @@
         <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
         <v>LeaderTelecom</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>204</v>
+      <c r="B33" s="58" t="s">
+        <v>250</v>
       </c>
       <c r="C33" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" minute"</f>
@@ -10239,7 +10250,7 @@
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F33" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -10275,7 +10286,7 @@
       </c>
       <c r="R33" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.21759999999999999</v>
+        <v>32</v>
       </c>
       <c r="S33" s="14" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -10298,10 +10309,10 @@
         <v>40/1</v>
       </c>
       <c r="X33" s="16" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>Included internet traffic (monthly based payments): 10 Tb/month._x000D_Included internet traffic (weekly based payments): 2.5 Tb/week._x000D_Included internet traffic (minute/hourly based payments): 0 Gb._x000D_Additional 1Gb (not included): 0,09 €/Gb.</v>
-      </c>
-      <c r="AC33" s="48">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 €/Gb.</v>
+      </c>
+      <c r="AC33" s="45">
         <v>37</v>
       </c>
     </row>
@@ -10311,7 +10322,7 @@
         <v>2 x GeForce GTX 1080 weekly</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="G34" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -10347,7 +10358,7 @@
       </c>
       <c r="R34" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.21759999999999999</v>
+        <v>32</v>
       </c>
       <c r="S34" s="14" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -10371,9 +10382,9 @@
       </c>
       <c r="X34" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Included internet traffic (monthly based payments): 10 Tb/month._x000D_Included internet traffic (weekly based payments): 2.5 Tb/week._x000D_Included internet traffic (minute/hourly based payments): 0 Gb._x000D_Additional 1Gb (not included): 0,09 €/Gb.</v>
-      </c>
-      <c r="AC34" s="48">
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 €/Gb.</v>
+      </c>
+      <c r="AC34" s="45">
         <v>37</v>
       </c>
     </row>
@@ -10383,7 +10394,7 @@
         <v>2 x GeForce GTX 1080 monthly</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="H35" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -10419,7 +10430,7 @@
       </c>
       <c r="R35" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.21759999999999999</v>
+        <v>32</v>
       </c>
       <c r="S35" s="14" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -10443,9 +10454,9 @@
       </c>
       <c r="X35" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Included internet traffic (monthly based payments): 10 Tb/month._x000D_Included internet traffic (weekly based payments): 2.5 Tb/week._x000D_Included internet traffic (minute/hourly based payments): 0 Gb._x000D_Additional 1Gb (not included): 0,09 €/Gb.</v>
-      </c>
-      <c r="AC35" s="48">
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 €/Gb.</v>
+      </c>
+      <c r="AC35" s="45">
         <v>37</v>
       </c>
     </row>
@@ -10456,7 +10467,7 @@
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="F36" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -10493,7 +10504,7 @@
       </c>
       <c r="R36" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.21759999999999999</v>
+        <v>64</v>
       </c>
       <c r="S36" s="14" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -10517,9 +10528,9 @@
       </c>
       <c r="X36" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Included internet traffic (monthly based payments): 10 Tb/month._x000D_Included internet traffic (weekly based payments): 2.5 Tb/week._x000D_Included internet traffic (minute/hourly based payments): 0 Gb._x000D_Additional 1Gb (not included): 0,10 €/Gb.</v>
-      </c>
-      <c r="AC36" s="48">
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,10 €/Gb.</v>
+      </c>
+      <c r="AC36" s="45">
         <v>38</v>
       </c>
     </row>
@@ -10529,7 +10540,7 @@
         <v>4 x GeForce GTX 1080 weekly</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="19">
@@ -10567,7 +10578,7 @@
       </c>
       <c r="R37" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.21759999999999999</v>
+        <v>64</v>
       </c>
       <c r="S37" s="14" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -10591,9 +10602,9 @@
       </c>
       <c r="X37" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Included internet traffic (monthly based payments): 10 Tb/month._x000D_Included internet traffic (weekly based payments): 2.5 Tb/week._x000D_Included internet traffic (minute/hourly based payments): 0 Gb._x000D_Additional 1Gb (not included): 0,10 €/Gb.</v>
-      </c>
-      <c r="AC37" s="48">
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,10 €/Gb.</v>
+      </c>
+      <c r="AC37" s="45">
         <v>38</v>
       </c>
     </row>
@@ -10603,7 +10614,7 @@
         <v>4 x GeForce GTX 1080 monthly</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="F38" s="13"/>
       <c r="H38" s="19">
@@ -10640,7 +10651,7 @@
       </c>
       <c r="R38" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.21759999999999999</v>
+        <v>64</v>
       </c>
       <c r="S38" s="14" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -10664,27 +10675,28 @@
       </c>
       <c r="X38" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Included internet traffic (monthly based payments): 10 Tb/month._x000D_Included internet traffic (weekly based payments): 2.5 Tb/week._x000D_Included internet traffic (minute/hourly based payments): 0 Gb._x000D_Additional 1Gb (not included): 0,10 €/Gb.</v>
-      </c>
-      <c r="AC38" s="48">
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,10 €/Gb.</v>
+      </c>
+      <c r="AC38" s="45">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:29">
-      <c r="C39" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="F39" s="46">
-        <v>4.2</v>
-      </c>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
+      <c r="C39" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="F39" s="13">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>10.8</v>
+      </c>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
       <c r="K39" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>EUR</v>
@@ -10715,7 +10727,7 @@
       </c>
       <c r="R39" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.35199999999999998</v>
+        <v>128</v>
       </c>
       <c r="S39" s="14" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -10739,27 +10751,28 @@
       </c>
       <c r="X39" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Included internet traffic (monthly based payments): 10 Tb/month._x000D_Included internet traffic (weekly based payments): 2.5 Tb/week._x000D_Included internet traffic (minute/hourly based payments): 0 Gb._x000D_Additional 1Gb (not included): 0,11 €/Gb.</v>
-      </c>
-      <c r="AC39" s="48">
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,11 €/Gb.</v>
+      </c>
+      <c r="AC39" s="45">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:29">
-      <c r="C40" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="D40" s="46"/>
-      <c r="E40" s="44" t="s">
-        <v>226</v>
-      </c>
-      <c r="F40" s="46"/>
-      <c r="G40" s="57">
-        <v>398.5</v>
-      </c>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
+      <c r="C40" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="D40" s="43"/>
+      <c r="E40" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="F40" s="43"/>
+      <c r="G40" s="19">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>1008.5</v>
+      </c>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
       <c r="K40" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>EUR</v>
@@ -10790,7 +10803,7 @@
       </c>
       <c r="R40" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.35199999999999998</v>
+        <v>128</v>
       </c>
       <c r="S40" s="14" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -10814,27 +10827,28 @@
       </c>
       <c r="X40" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Included internet traffic (monthly based payments): 10 Tb/month._x000D_Included internet traffic (weekly based payments): 2.5 Tb/week._x000D_Included internet traffic (minute/hourly based payments): 0 Gb._x000D_Additional 1Gb (not included): 0,11 €/Gb.</v>
-      </c>
-      <c r="AC40" s="48">
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,11 €/Gb.</v>
+      </c>
+      <c r="AC40" s="45">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:29">
-      <c r="C41" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="D41" s="46"/>
-      <c r="E41" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="33">
-        <v>797</v>
-      </c>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
+      <c r="C41" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="D41" s="43"/>
+      <c r="E41" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="19">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>2017</v>
+      </c>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
       <c r="K41" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>EUR</v>
@@ -10865,7 +10879,7 @@
       </c>
       <c r="R41" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>0.35199999999999998</v>
+        <v>128</v>
       </c>
       <c r="S41" s="14" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -10889,186 +10903,186 @@
       </c>
       <c r="X41" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Included internet traffic (monthly based payments): 10 Tb/month._x000D_Included internet traffic (weekly based payments): 2.5 Tb/week._x000D_Included internet traffic (minute/hourly based payments): 0 Gb._x000D_Additional 1Gb (not included): 0,11 €/Gb.</v>
-      </c>
-      <c r="AC41" s="48">
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,11 €/Gb.</v>
+      </c>
+      <c r="AC41" s="45">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A16:A29"/>
-    <mergeCell ref="B16:B29"/>
-  </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="I23:J23 I25:J25 I27:J27 I29:J29 F25:G25 F29:G29 H22:H31 S13:S15 E23:G23 E18:J22 C30:C32 E26:G28 D26:D33 E17:F17 D10:D24 D3:D8 C3:C21 E7:G7 E9:J16 E4:J6 K4:K35 E30:I32 M32:O41 N16:O16 L30:O31 E3:O3 L4:O15 M16:M17 L16:L29 M18:O29 E8:H8 J8">
-    <cfRule type="expression" dxfId="34" priority="94">
+    <cfRule type="expression" dxfId="34" priority="97">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25 I24:J24 F24:G24">
-    <cfRule type="expression" dxfId="33" priority="92">
+    <cfRule type="expression" dxfId="33" priority="95">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:J26">
-    <cfRule type="expression" dxfId="32" priority="91">
+    <cfRule type="expression" dxfId="32" priority="94">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:J28">
-    <cfRule type="expression" dxfId="31" priority="90">
+    <cfRule type="expression" dxfId="31" priority="93">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="30" priority="81">
+    <cfRule type="expression" dxfId="30" priority="84">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P15 P18:P41">
-    <cfRule type="expression" dxfId="29" priority="36">
+    <cfRule type="expression" dxfId="29" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:W3 T4:W12 T18:V31 T13:V15 W13:W31 R3:R15 R18:R41 T32:W41 X6:X41">
-    <cfRule type="expression" dxfId="28" priority="34">
+    <cfRule type="expression" dxfId="28" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C23">
-    <cfRule type="expression" dxfId="27" priority="43">
+    <cfRule type="expression" dxfId="27" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C25">
-    <cfRule type="expression" dxfId="26" priority="42">
+    <cfRule type="expression" dxfId="26" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C27">
-    <cfRule type="expression" dxfId="25" priority="41">
+    <cfRule type="expression" dxfId="25" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C29">
-    <cfRule type="expression" dxfId="24" priority="40">
+    <cfRule type="expression" dxfId="24" priority="43">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q15 Q18:Q41">
-    <cfRule type="expression" dxfId="23" priority="35">
+    <cfRule type="expression" dxfId="23" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S12">
-    <cfRule type="expression" dxfId="22" priority="33">
+    <cfRule type="expression" dxfId="22" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18:S41">
-    <cfRule type="expression" dxfId="21" priority="32">
+    <cfRule type="expression" dxfId="21" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:J17 N17:O17">
-    <cfRule type="expression" dxfId="20" priority="23">
+    <cfRule type="expression" dxfId="20" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:P17">
-    <cfRule type="expression" dxfId="19" priority="22">
+    <cfRule type="expression" dxfId="19" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16:V17 R16:R17">
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="18" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16:Q17">
-    <cfRule type="expression" dxfId="17" priority="21">
+    <cfRule type="expression" dxfId="17" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:S17">
-    <cfRule type="expression" dxfId="16" priority="19">
+    <cfRule type="expression" dxfId="16" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="15" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="14" priority="17">
+    <cfRule type="expression" dxfId="14" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="13" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:L41">
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="12" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="11" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="8" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:J32">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36 K36:K41">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="4" priority="9">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="H41">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11078,6 +11092,9 @@
     <hyperlink ref="B30" r:id="rId3"/>
     <hyperlink ref="D3" r:id="rId4"/>
     <hyperlink ref="D4:D5" r:id="rId5" display="https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22240"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="B33" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Comparison table updated 3.xlsx
+++ b/Comparison table updated 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20" windowWidth="48920" windowHeight="15940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="20" windowWidth="48920" windowHeight="13320" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,86 @@
             <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
-0.07 euro/min  = 4.2 euro/h
+0.02 euro/min  = 1.2 euro/h
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Peter Bryzgalov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+0.03 euro/min * 60 min</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Peter Bryzgalov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+0.04 euro/min * 60 min</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Peter Bryzgalov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+0.07 euro/min * 60 min
 </t>
         </r>
       </text>
@@ -447,7 +526,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="282">
   <si>
     <t>Cloud server providers with GPU</t>
     <phoneticPr fontId="2"/>
@@ -1383,16 +1462,6 @@
     <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 38.</t>
   </si>
   <si>
-    <t>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 €/Gb.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,10 €/Gb.</t>
-  </si>
-  <si>
-    <t>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,11 €/Gb.</t>
-  </si>
-  <si>
     <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1401,63 +1470,163 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>LT 2GX1080 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT 2GX1080 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT 2GX1080 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT 4GX1080 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT 4GX1080 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT 4GX1080 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>https://www.leadergpu.com</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>8 x GeForce GTX 1080 minute</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8 x GeForce GTX 1080 weekly</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8 x GeForce GTX 1080 monthly</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT 8GX1080 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT 8GX1080 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT 8GX1080 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>SL M60x1 2690v3 m.</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>SL K80x1 2690v3 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x2 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x2 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x2 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x4 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x4 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x4 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x8 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x8 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x8 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x Tesla P100</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>40/1</t>
+  </si>
+  <si>
+    <t>1 x Tesla P100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x Tesla P100 NVLink</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4 x Tesla P100 NVLink</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8 x Tesla P100 NVLink</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x FirePro S9300x2</t>
+  </si>
+  <si>
+    <t>2 x 4096</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x 4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x 512</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2609 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SSD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x1 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x1 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT S9300x2 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FirePro S9300x2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT S9300x2 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 NVL min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 NVL m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x4 NVL m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x8 NVL m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 NVL w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT S9300x2 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x1 w.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1828,7 +1997,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="646">
+  <cellStyleXfs count="659">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2487,8 +2656,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -2600,11 +2782,14 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="637"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="119" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="646">
+  <cellStyles count="659">
     <cellStyle name="$Normal" xfId="356"/>
     <cellStyle name="¥ Normal" xfId="636"/>
     <cellStyle name="€ Normal" xfId="635"/>
@@ -2957,6 +3142,19 @@
     <cellStyle name="Followed Hyperlink" xfId="643" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="645" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="647" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="649" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="651" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="653" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="655" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="657" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 1 2" xfId="62"/>
     <cellStyle name="Heading 2" xfId="263" builtinId="17" customBuiltin="1"/>
@@ -3252,7 +3450,106 @@
     <cellStyle name="Style 1" xfId="55"/>
     <cellStyle name="Title" xfId="340" builtinId="15" hidden="1"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -3781,6 +4078,61 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
@@ -4076,13 +4428,13 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:FE40"/>
+  <dimension ref="A1:FE45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AF41" sqref="AF41"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -4098,8 +4450,8 @@
     <col min="9" max="9" width="18.33203125" customWidth="1"/>
     <col min="10" max="10" width="7.33203125" style="13" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="3.83203125" customWidth="1"/>
+    <col min="13" max="13" width="8.5" customWidth="1"/>
     <col min="14" max="14" width="4.83203125" style="13" customWidth="1"/>
     <col min="15" max="15" width="14.5" style="13" customWidth="1"/>
     <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -4135,47 +4487,47 @@
     <row r="3" spans="1:161" s="6" customFormat="1" ht="46" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
       <c r="J3" s="23"/>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
       <c r="R3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="59" t="s">
+      <c r="S3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59" t="s">
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59" t="s">
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
       <c r="AF3" s="1" t="s">
         <v>34</v>
       </c>
@@ -6163,13 +6515,13 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>$9.59?</v>
+        <v>$10.82?</v>
       </c>
       <c r="AA27" s="24">
-        <v>2049</v>
+        <v>2369</v>
       </c>
       <c r="AB27" s="24">
-        <v>6999</v>
+        <v>7899</v>
       </c>
       <c r="AC27" s="24"/>
       <c r="AD27" s="24"/>
@@ -6247,13 +6599,13 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>$11.78?</v>
+        <v>$10.82?</v>
       </c>
       <c r="AA28" s="24">
-        <v>2599</v>
+        <v>2369</v>
       </c>
       <c r="AB28" s="24">
-        <v>8599</v>
+        <v>7899</v>
       </c>
       <c r="AC28" s="24"/>
       <c r="AD28" s="24"/>
@@ -6727,7 +7079,7 @@
         <v>0.1</v>
       </c>
       <c r="Y33" s="14" t="str">
-        <f t="shared" ref="Y33:Y39" si="6">W33&amp;"/"&amp;X33</f>
+        <f t="shared" ref="Y33:Y43" si="6">W33&amp;"/"&amp;X33</f>
         <v>/0.1</v>
       </c>
       <c r="Z33" s="10"/>
@@ -6753,7 +7105,7 @@
       <c r="C34" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="28">
+      <c r="D34" s="14">
         <v>1</v>
       </c>
       <c r="E34" s="28">
@@ -6837,7 +7189,7 @@
       <c r="C35" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D35" s="28">
+      <c r="D35" s="14">
         <v>1</v>
       </c>
       <c r="E35" s="28">
@@ -6914,7 +7266,7 @@
     </row>
     <row r="36" spans="1:32">
       <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
@@ -6948,7 +7300,7 @@
       <c r="C37" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="D37" s="28">
+      <c r="D37" s="14">
         <v>2</v>
       </c>
       <c r="E37" s="28">
@@ -7000,7 +7352,7 @@
       </c>
       <c r="U37" s="28"/>
       <c r="V37" s="28"/>
-      <c r="W37" s="28">
+      <c r="W37" s="14">
         <v>40</v>
       </c>
       <c r="X37" s="28">
@@ -7011,10 +7363,10 @@
         <v>40/1</v>
       </c>
       <c r="Z37" s="51">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="AA37" s="51">
-        <v>398.5</v>
+        <v>199.25</v>
       </c>
       <c r="AB37" s="51">
         <v>797</v>
@@ -7023,7 +7375,7 @@
         <v>234</v>
       </c>
       <c r="AF37" s="16" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
@@ -7036,7 +7388,7 @@
       <c r="C38" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="D38" s="28">
+      <c r="D38" s="14">
         <v>4</v>
       </c>
       <c r="E38" s="28">
@@ -7088,7 +7440,7 @@
       </c>
       <c r="U38" s="28"/>
       <c r="V38" s="28"/>
-      <c r="W38" s="28">
+      <c r="W38" s="14">
         <v>40</v>
       </c>
       <c r="X38" s="28">
@@ -7099,10 +7451,10 @@
         <v>40/1</v>
       </c>
       <c r="Z38" s="51">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="AA38" s="51">
-        <v>529.1</v>
+        <v>264.58</v>
       </c>
       <c r="AB38" s="51">
         <v>1058.33</v>
@@ -7111,7 +7463,7 @@
         <v>234</v>
       </c>
       <c r="AF38" s="16" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="28" customHeight="1">
@@ -7121,7 +7473,7 @@
       <c r="C39" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="D39" s="28">
+      <c r="D39" s="14">
         <v>8</v>
       </c>
       <c r="E39" s="28">
@@ -7169,11 +7521,11 @@
         <v>208</v>
       </c>
       <c r="T39" s="28">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="U39" s="28"/>
       <c r="V39" s="28"/>
-      <c r="W39" s="28">
+      <c r="W39" s="14">
         <v>40</v>
       </c>
       <c r="X39" s="28">
@@ -7184,10 +7536,10 @@
         <v>40/1</v>
       </c>
       <c r="Z39" s="51">
-        <v>10.8</v>
+        <v>3</v>
       </c>
       <c r="AA39" s="51">
-        <v>1008.5</v>
+        <v>504.25</v>
       </c>
       <c r="AB39" s="51">
         <v>2017</v>
@@ -7196,33 +7548,514 @@
         <v>234</v>
       </c>
       <c r="AF39" s="16" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="40" spans="1:32">
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
+    <row r="40" spans="1:32" s="13" customFormat="1" ht="28" customHeight="1">
+      <c r="A40" s="2"/>
+      <c r="B40" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="14">
+        <v>1</v>
+      </c>
+      <c r="E40" s="31">
+        <v>3584</v>
+      </c>
+      <c r="F40" s="42">
+        <v>9.5</v>
+      </c>
+      <c r="G40" s="42">
+        <v>4.7</v>
+      </c>
+      <c r="H40" s="42">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I40" s="42">
+        <v>720</v>
+      </c>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="L40" s="42">
+        <v>2</v>
+      </c>
+      <c r="M40" s="42">
+        <v>10</v>
+      </c>
+      <c r="N40" s="42">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O40" s="42">
+        <v>16</v>
+      </c>
+      <c r="P40" s="14">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="Q40" s="42">
+        <v>1866</v>
+      </c>
+      <c r="R40" s="42">
+        <v>32</v>
+      </c>
+      <c r="S40" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="T40" s="42">
+        <v>480</v>
+      </c>
+      <c r="U40" s="42"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="14">
+        <v>40</v>
+      </c>
+      <c r="X40" s="42">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z40" s="51">
+        <v>1.8</v>
+      </c>
+      <c r="AA40" s="51">
+        <v>322.18</v>
+      </c>
+      <c r="AB40" s="51">
+        <v>1288.7</v>
+      </c>
+      <c r="AE40" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF40" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" s="13" customFormat="1" ht="28" customHeight="1">
+      <c r="A41" s="2"/>
+      <c r="B41" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="C41" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="14">
+        <v>2</v>
+      </c>
+      <c r="E41" s="14">
+        <v>3584</v>
+      </c>
+      <c r="F41" s="42">
+        <v>9.5</v>
+      </c>
+      <c r="G41" s="42">
+        <v>4.7</v>
+      </c>
+      <c r="H41" s="42">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I41" s="42">
+        <v>720</v>
+      </c>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="L41" s="42">
+        <v>2</v>
+      </c>
+      <c r="M41" s="42">
+        <v>10</v>
+      </c>
+      <c r="N41" s="42">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O41" s="42">
+        <v>16</v>
+      </c>
+      <c r="P41" s="14">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="Q41" s="42">
+        <v>1866</v>
+      </c>
+      <c r="R41" s="42">
+        <v>32</v>
+      </c>
+      <c r="S41" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="T41" s="42">
+        <v>480</v>
+      </c>
+      <c r="U41" s="42"/>
+      <c r="V41" s="42"/>
+      <c r="W41" s="14">
+        <v>40</v>
+      </c>
+      <c r="X41" s="42">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z41" s="51">
+        <v>2.4</v>
+      </c>
+      <c r="AA41" s="51">
+        <v>439.68</v>
+      </c>
+      <c r="AB41" s="51">
+        <v>1758.7</v>
+      </c>
+      <c r="AE41" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF41" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32">
+      <c r="B42" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="C42" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="14">
+        <v>2</v>
+      </c>
+      <c r="E42" s="14">
+        <v>3584</v>
+      </c>
+      <c r="F42" s="42">
+        <v>9.5</v>
+      </c>
+      <c r="G42" s="42">
+        <v>4.7</v>
+      </c>
+      <c r="H42" s="42">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I42" s="42">
+        <v>720</v>
+      </c>
+      <c r="J42" s="28">
+        <v>1</v>
+      </c>
+      <c r="K42" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="L42" s="28">
+        <v>2</v>
+      </c>
+      <c r="M42" s="28">
+        <v>10</v>
+      </c>
+      <c r="N42" s="28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O42" s="28">
+        <v>16</v>
+      </c>
+      <c r="P42" s="14">
+        <f t="shared" ref="P42:P43" si="7">M42*N42*O42/1000</f>
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="Q42" s="28">
+        <v>1866</v>
+      </c>
+      <c r="R42" s="28">
+        <v>64</v>
+      </c>
+      <c r="S42" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="T42" s="28">
+        <v>960</v>
+      </c>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="14">
+        <v>40</v>
+      </c>
+      <c r="X42" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>40/1</v>
+      </c>
+      <c r="Z42" s="51">
+        <v>4.2</v>
+      </c>
+      <c r="AA42" s="51">
+        <v>786.25</v>
+      </c>
+      <c r="AB42" s="51">
+        <v>3145</v>
+      </c>
+      <c r="AE42" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF42" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32">
+      <c r="B43" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C43" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="14">
+        <v>4</v>
+      </c>
+      <c r="E43" s="14">
+        <v>3584</v>
+      </c>
+      <c r="F43" s="42">
+        <v>9.5</v>
+      </c>
+      <c r="G43" s="42">
+        <v>4.7</v>
+      </c>
+      <c r="H43" s="42">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I43" s="42">
+        <v>720</v>
+      </c>
+      <c r="J43" s="28">
+        <v>1</v>
+      </c>
+      <c r="K43" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="L43" s="28">
+        <v>2</v>
+      </c>
+      <c r="M43" s="28">
+        <v>10</v>
+      </c>
+      <c r="N43" s="28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O43" s="28">
+        <v>16</v>
+      </c>
+      <c r="P43" s="14">
+        <f t="shared" si="7"/>
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="Q43" s="28">
+        <v>1866</v>
+      </c>
+      <c r="R43" s="28">
+        <v>64</v>
+      </c>
+      <c r="S43" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="T43" s="28">
+        <v>1000</v>
+      </c>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="14">
+        <v>40</v>
+      </c>
+      <c r="X43" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v>40/1</v>
+      </c>
+      <c r="Z43" s="51"/>
+      <c r="AA43" s="51"/>
+      <c r="AB43" s="51">
+        <v>4362</v>
+      </c>
+      <c r="AE43" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF43" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32">
+      <c r="B44" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="C44" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="14">
+        <v>8</v>
+      </c>
+      <c r="E44" s="14">
+        <v>3584</v>
+      </c>
+      <c r="F44" s="42">
+        <v>9.5</v>
+      </c>
+      <c r="G44" s="42">
+        <v>4.7</v>
+      </c>
+      <c r="H44" s="42">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I44" s="42">
+        <v>720</v>
+      </c>
+      <c r="J44" s="28">
+        <v>1</v>
+      </c>
+      <c r="K44" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="L44" s="28">
+        <v>2</v>
+      </c>
+      <c r="M44" s="28">
+        <v>10</v>
+      </c>
+      <c r="N44" s="28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O44" s="28">
+        <v>16</v>
+      </c>
+      <c r="P44" s="14">
+        <f>M44*N44*O44/1000</f>
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="Q44" s="28">
+        <v>1866</v>
+      </c>
+      <c r="R44" s="28">
+        <v>128</v>
+      </c>
+      <c r="S44" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="T44" s="28">
+        <v>1000</v>
+      </c>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="14">
+        <v>40</v>
+      </c>
+      <c r="X44" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="14" t="str">
+        <f t="shared" ref="Y44:Y45" si="8">W44&amp;"/"&amp;X44</f>
+        <v>40/1</v>
+      </c>
+      <c r="Z44" s="51"/>
+      <c r="AA44" s="51"/>
+      <c r="AB44" s="51">
+        <v>7133</v>
+      </c>
+      <c r="AE44" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF44" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32">
+      <c r="B45" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="C45" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="D45" s="14">
+        <v>2</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="F45" s="14">
+        <v>13.9</v>
+      </c>
+      <c r="G45" s="14">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="J45" s="14"/>
+      <c r="K45" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="L45" s="14">
+        <v>2</v>
+      </c>
+      <c r="M45" s="14">
+        <v>8</v>
+      </c>
+      <c r="N45" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="O45" s="14">
+        <v>16</v>
+      </c>
+      <c r="P45" s="14">
+        <f>M45*N45*O45/1000</f>
+        <v>0.21759999999999999</v>
+      </c>
+      <c r="Q45" s="14">
+        <v>1866</v>
+      </c>
+      <c r="R45" s="14">
+        <v>32</v>
+      </c>
+      <c r="S45" s="59" t="s">
+        <v>266</v>
+      </c>
+      <c r="T45" s="14">
+        <v>480</v>
+      </c>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14">
+        <v>40</v>
+      </c>
+      <c r="X45" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>40/1</v>
+      </c>
+      <c r="Z45" s="51">
+        <v>2.4</v>
+      </c>
+      <c r="AA45" s="51">
+        <v>412.63</v>
+      </c>
+      <c r="AB45" s="51">
+        <v>1630.18</v>
+      </c>
+      <c r="AE45" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF45" s="16" t="s">
+        <v>244</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7234,6 +8067,30 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AG33">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH33">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG34:AG35">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -7245,7 +8102,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH33">
+  <conditionalFormatting sqref="AH34:AH35">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -7258,7 +8115,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG34:AG35">
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7270,31 +8127,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH34:AH35">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG34:AG35">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH34:AH35">
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7306,32 +8139,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF19:XFD20 FF31:XFD31 Z31 U30:Y31 T30 S30:S31 R30 Q30:Q31 P30 L29:O31 A28:K30 Z35 A17 A18:I18 A21:Q21 S21:V21 K18:V18 A22:V22 Z18:AD22 W18:W22 A12:AD12 B8:AD8 A7:A8 A5:M6 B7:M7 B9:M9 A10:M11 N9:AD11 A23:AD25 A27:M27 L28:M28 N27:O28 A26:O26 P26:AD28 A32:AD32 A34:M34 N34:P35 AG32:XFD34 AG19:AI20 AG35:AI35 AG21:XFD30 AF32:AF35 AF18:AF30 AG5:XFD18 AE5:AF5 Q34:X34 AC34:AD34 AB35 A13:AA13 A14:AD16 P29:X29 Z29:AD30 A33:X33 Z33:AD33 Z34:AA34 N5:AD7 AE6:AE36 AF6:AF16">
-    <cfRule type="expression" dxfId="47" priority="39">
+    <cfRule type="expression" dxfId="61" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13">
-    <cfRule type="expression" dxfId="46" priority="26">
+    <cfRule type="expression" dxfId="60" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="45" priority="25">
+    <cfRule type="expression" dxfId="59" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:M35 Q35:X35">
-    <cfRule type="expression" dxfId="44" priority="24">
+    <cfRule type="expression" dxfId="58" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB34">
-    <cfRule type="expression" dxfId="43" priority="23">
+    <cfRule type="expression" dxfId="57" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG32:AG35 AG21:AG30 AG5:AG18">
-    <cfRule type="colorScale" priority="124">
+    <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7343,7 +8176,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH32:AH35 AH21:AH30 AH5:AH18">
-    <cfRule type="colorScale" priority="128">
+    <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7355,7 +8188,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG32:AG33 AG21:AG30 AG5:AG18">
-    <cfRule type="colorScale" priority="132">
+    <cfRule type="colorScale" priority="137">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7367,7 +8200,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH32:AH33 AH21:AH30 AH5:AH18">
-    <cfRule type="colorScale" priority="136">
+    <cfRule type="colorScale" priority="141">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7379,7 +8212,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI32:AI35 AI21:AI30 AI5:AI18">
-    <cfRule type="colorScale" priority="140">
+    <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7391,7 +8224,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG21:AG30 AG5:AG18">
-    <cfRule type="colorScale" priority="144">
+    <cfRule type="colorScale" priority="149">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7403,7 +8236,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH21:AH30 AH5:AH18">
-    <cfRule type="colorScale" priority="147">
+    <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7415,68 +8248,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:Q20 S20:V20">
-    <cfRule type="expression" dxfId="42" priority="15">
+    <cfRule type="expression" dxfId="56" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG20">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH20">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG20">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH20">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI20">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG20">
@@ -7503,18 +8276,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:I19">
-    <cfRule type="expression" dxfId="41" priority="6">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:D19 R20:R21 K19:V19">
-    <cfRule type="expression" dxfId="40" priority="7">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG19">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="AG20">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7525,8 +8288,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH19">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="AH20">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7537,8 +8300,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG19">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="AI20">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7549,8 +8312,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH19">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="AG20">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH20">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7561,16 +8336,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI19">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
+  <conditionalFormatting sqref="E19:I19">
+    <cfRule type="expression" dxfId="55" priority="11">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:D19 R20:R21 K19:V19">
+    <cfRule type="expression" dxfId="54" priority="12">
+      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG19">
@@ -7597,28 +8370,113 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AG19">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH19">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI19">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG19">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH19">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P37:P39">
-    <cfRule type="expression" dxfId="39" priority="5">
+    <cfRule type="expression" dxfId="53" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y17:Y22">
-    <cfRule type="expression" dxfId="38" priority="4">
+    <cfRule type="expression" dxfId="52" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y29">
-    <cfRule type="expression" dxfId="37" priority="3">
+    <cfRule type="expression" dxfId="51" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y33:Y35">
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="50" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y37:Y39">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="49" priority="6">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P44">
+    <cfRule type="expression" dxfId="48" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y44:Y45">
+    <cfRule type="expression" dxfId="47" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P42:P43">
+    <cfRule type="expression" dxfId="46" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y42:Y43">
+    <cfRule type="expression" dxfId="45" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P45">
+    <cfRule type="expression" dxfId="44" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7636,13 +8494,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A1:AC55"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -7922,7 +8780,7 @@
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19" t="str">
-        <f t="shared" ref="K4:K41" ca="1" si="3">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="K4:K55" ca="1" si="3">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>USD</v>
       </c>
       <c r="L4" s="14">
@@ -8151,7 +9009,7 @@
         <v>p2 dedicated host 1 year no Upfront</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>113</v>
@@ -8238,7 +9096,7 @@
         <v>p2 dedicated host 1 year 100% Upfront</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>114</v>
@@ -8486,7 +9344,7 @@
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="22" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -8565,7 +9423,7 @@
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -9199,7 +10057,7 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>6999</v>
+        <v>7899</v>
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -9278,7 +10136,7 @@
       <c r="F21" s="19"/>
       <c r="G21" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>2049</v>
+        <v>2369</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -9359,7 +10217,7 @@
       <c r="G22" s="19"/>
       <c r="H22" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>8599</v>
+        <v>7899</v>
       </c>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
@@ -9438,7 +10296,7 @@
       <c r="F23" s="19"/>
       <c r="G23" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>2599</v>
+        <v>2369</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -9816,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="16">
-        <f t="shared" ref="X27:X41" ca="1" si="15">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="X27:X55" ca="1" si="15">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>0</v>
       </c>
       <c r="Y27" s="16"/>
@@ -10242,34 +11100,34 @@
         <v>LeaderTelecom</v>
       </c>
       <c r="B33" s="58" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C33" s="22" t="str">
-        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" minute"</f>
-        <v>2 x GeForce GTX 1080 minute</v>
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" minutely"</f>
+        <v>2 x GeForce GTX 1080 minutely</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F33" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="K33" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>EUR</v>
       </c>
       <c r="L33" s="14">
-        <f t="shared" ref="L33:L41" ca="1" si="17">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="L33:L55" ca="1" si="17">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("AC"&amp;ROW()))</f>
         <v>0.43519999999999998</v>
       </c>
       <c r="M33" s="14">
-        <f t="shared" ref="M33:M41" ca="1" si="18">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="M33:M55" ca="1" si="18">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("AC"&amp;ROW()))</f>
         <v>16.456</v>
       </c>
       <c r="N33" s="14" t="str">
-        <f t="shared" ref="N33:W41" ca="1" si="19">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="N33:W48" ca="1" si="19">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>GeForce GTX 1080</v>
       </c>
       <c r="O33" s="14">
@@ -10310,7 +11168,7 @@
       </c>
       <c r="X33" s="16" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 €/Gb.</v>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
       <c r="AC33" s="45">
         <v>37</v>
@@ -10322,11 +11180,11 @@
         <v>2 x GeForce GTX 1080 weekly</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G34" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>398.5</v>
+        <v>199.25</v>
       </c>
       <c r="K34" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10382,7 +11240,7 @@
       </c>
       <c r="X34" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 €/Gb.</v>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
       <c r="AC34" s="45">
         <v>37</v>
@@ -10394,7 +11252,7 @@
         <v>2 x GeForce GTX 1080 monthly</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H35" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -10454,7 +11312,7 @@
       </c>
       <c r="X35" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 €/Gb.</v>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
       <c r="AC35" s="45">
         <v>37</v>
@@ -10462,16 +11320,16 @@
     </row>
     <row r="36" spans="1:29">
       <c r="C36" s="22" t="str">
-        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" minute"</f>
-        <v>4 x GeForce GTX 1080 minute</v>
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" minutely"</f>
+        <v>4 x GeForce GTX 1080 minutely</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F36" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="H36" s="13"/>
       <c r="K36" s="19" t="str">
@@ -10528,7 +11386,7 @@
       </c>
       <c r="X36" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,10 €/Gb.</v>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
       <c r="AC36" s="45">
         <v>38</v>
@@ -10545,7 +11403,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>529.1</v>
+        <v>264.58</v>
       </c>
       <c r="H37" s="13"/>
       <c r="K37" s="19" t="str">
@@ -10602,7 +11460,7 @@
       </c>
       <c r="X37" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,10 €/Gb.</v>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
       <c r="AC37" s="45">
         <v>38</v>
@@ -10614,7 +11472,7 @@
         <v>4 x GeForce GTX 1080 monthly</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F38" s="13"/>
       <c r="H38" s="19">
@@ -10675,23 +11533,24 @@
       </c>
       <c r="X38" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,10 €/Gb.</v>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
       <c r="AC38" s="45">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:29">
-      <c r="C39" s="41" t="s">
-        <v>251</v>
+      <c r="C39" s="22" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" minutely"</f>
+        <v>8 x GeForce GTX 1080 minutely</v>
       </c>
       <c r="D39" s="41"/>
       <c r="E39" s="41" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F39" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>10.8</v>
+        <v>3</v>
       </c>
       <c r="G39" s="43"/>
       <c r="H39" s="43"/>
@@ -10735,7 +11594,7 @@
       </c>
       <c r="T39" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="U39" s="14">
         <f t="shared" ca="1" si="19"/>
@@ -10751,24 +11610,25 @@
       </c>
       <c r="X39" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,11 €/Gb.</v>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
       <c r="AC39" s="45">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:29">
-      <c r="C40" s="41" t="s">
-        <v>252</v>
+      <c r="C40" s="22" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" weekly"</f>
+        <v>8 x GeForce GTX 1080 weekly</v>
       </c>
       <c r="D40" s="43"/>
       <c r="E40" s="41" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F40" s="43"/>
       <c r="G40" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>1008.5</v>
+        <v>504.25</v>
       </c>
       <c r="H40" s="43"/>
       <c r="I40" s="43"/>
@@ -10811,7 +11671,7 @@
       </c>
       <c r="T40" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="U40" s="14">
         <f t="shared" ca="1" si="19"/>
@@ -10827,19 +11687,20 @@
       </c>
       <c r="X40" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,11 €/Gb.</v>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
       <c r="AC40" s="45">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:29">
-      <c r="C41" s="41" t="s">
-        <v>253</v>
+      <c r="C41" s="22" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" monthly"</f>
+        <v>8 x GeForce GTX 1080 monthly</v>
       </c>
       <c r="D41" s="43"/>
       <c r="E41" s="41" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
@@ -10887,7 +11748,7 @@
       </c>
       <c r="T41" s="14">
         <f t="shared" ca="1" si="19"/>
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="U41" s="14">
         <f t="shared" ca="1" si="19"/>
@@ -10903,185 +11764,1299 @@
       </c>
       <c r="X41" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,11 €/Gb.</v>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
       <c r="AC41" s="45">
         <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29">
+      <c r="C42" s="22" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" minutely"</f>
+        <v>1 x Tesla P100 minutely</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="F42" s="13">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>1.8</v>
+      </c>
+      <c r="H42" s="13"/>
+      <c r="K42" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>EUR</v>
+      </c>
+      <c r="L42" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="M42" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>9.5</v>
+      </c>
+      <c r="N42" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>P100</v>
+      </c>
+      <c r="O42" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="P42" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>Xeon E5-2630 v4</v>
+      </c>
+      <c r="Q42" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="R42" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>32</v>
+      </c>
+      <c r="S42" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>SSD</v>
+      </c>
+      <c r="T42" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>480</v>
+      </c>
+      <c r="U42" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>40/1</v>
+      </c>
+      <c r="X42" s="16" t="str">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
+      </c>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="13"/>
+      <c r="AC42" s="45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29">
+      <c r="C43" s="22" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" weekly"</f>
+        <v>1 x Tesla P100 weekly</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F43" s="13"/>
+      <c r="G43" s="19">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>322.18</v>
+      </c>
+      <c r="H43" s="13"/>
+      <c r="K43" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>EUR</v>
+      </c>
+      <c r="L43" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="M43" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>9.5</v>
+      </c>
+      <c r="N43" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>P100</v>
+      </c>
+      <c r="O43" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="P43" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>Xeon E5-2630 v4</v>
+      </c>
+      <c r="Q43" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="R43" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>32</v>
+      </c>
+      <c r="S43" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>SSD</v>
+      </c>
+      <c r="T43" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>480</v>
+      </c>
+      <c r="U43" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>40/1</v>
+      </c>
+      <c r="X43" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
+      </c>
+      <c r="Z43" s="13"/>
+      <c r="AA43" s="13"/>
+      <c r="AB43" s="13"/>
+      <c r="AC43" s="45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29">
+      <c r="C44" s="22" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" monthly"</f>
+        <v>1 x Tesla P100 monthly</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="F44" s="13"/>
+      <c r="H44" s="19">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>1288.7</v>
+      </c>
+      <c r="K44" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>EUR</v>
+      </c>
+      <c r="L44" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="M44" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>9.5</v>
+      </c>
+      <c r="N44" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>P100</v>
+      </c>
+      <c r="O44" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="P44" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>Xeon E5-2630 v4</v>
+      </c>
+      <c r="Q44" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="R44" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>32</v>
+      </c>
+      <c r="S44" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>SSD</v>
+      </c>
+      <c r="T44" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>480</v>
+      </c>
+      <c r="U44" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>40/1</v>
+      </c>
+      <c r="X44" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
+      </c>
+      <c r="Z44" s="13"/>
+      <c r="AA44" s="13"/>
+      <c r="AB44" s="13"/>
+      <c r="AC44" s="45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
+      <c r="C45" s="22" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" minutely"</f>
+        <v>2 x Tesla P100 minutely</v>
+      </c>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="F45" s="13">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>2.4</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="K45" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>EUR</v>
+      </c>
+      <c r="L45" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="M45" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>19</v>
+      </c>
+      <c r="N45" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>P100</v>
+      </c>
+      <c r="O45" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="P45" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>Xeon E5-2630 v4</v>
+      </c>
+      <c r="Q45" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="R45" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>32</v>
+      </c>
+      <c r="S45" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>SSD</v>
+      </c>
+      <c r="T45" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>480</v>
+      </c>
+      <c r="U45" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W45" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>40/1</v>
+      </c>
+      <c r="X45" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
+      </c>
+      <c r="Z45" s="13"/>
+      <c r="AA45" s="13"/>
+      <c r="AB45" s="13"/>
+      <c r="AC45" s="45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29">
+      <c r="C46" s="22" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" weekly"</f>
+        <v>2 x Tesla P100 weekly</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="F46" s="13"/>
+      <c r="G46" s="19">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>439.68</v>
+      </c>
+      <c r="H46" s="13"/>
+      <c r="K46" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>EUR</v>
+      </c>
+      <c r="L46" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="M46" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>19</v>
+      </c>
+      <c r="N46" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>P100</v>
+      </c>
+      <c r="O46" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="P46" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>Xeon E5-2630 v4</v>
+      </c>
+      <c r="Q46" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="R46" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>32</v>
+      </c>
+      <c r="S46" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>SSD</v>
+      </c>
+      <c r="T46" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>480</v>
+      </c>
+      <c r="U46" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>40/1</v>
+      </c>
+      <c r="X46" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
+      </c>
+      <c r="Z46" s="13"/>
+      <c r="AA46" s="13"/>
+      <c r="AB46" s="13"/>
+      <c r="AC46" s="45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29">
+      <c r="C47" s="22" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" monthly"</f>
+        <v>2 x Tesla P100 monthly</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="H47" s="19">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>1758.7</v>
+      </c>
+      <c r="K47" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>EUR</v>
+      </c>
+      <c r="L47" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="M47" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>19</v>
+      </c>
+      <c r="N47" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>P100</v>
+      </c>
+      <c r="O47" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="P47" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>Xeon E5-2630 v4</v>
+      </c>
+      <c r="Q47" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="R47" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>32</v>
+      </c>
+      <c r="S47" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>SSD</v>
+      </c>
+      <c r="T47" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>480</v>
+      </c>
+      <c r="U47" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V47" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W47" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>40/1</v>
+      </c>
+      <c r="X47" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
+      </c>
+      <c r="Z47" s="13"/>
+      <c r="AA47" s="13"/>
+      <c r="AB47" s="13"/>
+      <c r="AC47" s="45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29">
+      <c r="C48" s="22" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" minutely"</f>
+        <v>2 x Tesla P100 NVLink minutely</v>
+      </c>
+      <c r="D48" s="41"/>
+      <c r="E48" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="F48" s="13">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>4.2</v>
+      </c>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>EUR</v>
+      </c>
+      <c r="L48" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="M48" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>19</v>
+      </c>
+      <c r="N48" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>P100</v>
+      </c>
+      <c r="O48" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="P48" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>Xeon E5-2630 v4</v>
+      </c>
+      <c r="Q48" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="R48" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>64</v>
+      </c>
+      <c r="S48" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>SSD</v>
+      </c>
+      <c r="T48" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>960</v>
+      </c>
+      <c r="U48" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="14">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W48" s="14" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>40/1</v>
+      </c>
+      <c r="X48" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
+      </c>
+      <c r="Z48" s="13"/>
+      <c r="AA48" s="13"/>
+      <c r="AB48" s="13"/>
+      <c r="AC48" s="45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29">
+      <c r="C49" s="22" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" weekly"</f>
+        <v>2 x Tesla P100 NVLink weekly</v>
+      </c>
+      <c r="D49" s="43"/>
+      <c r="E49" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="F49" s="43"/>
+      <c r="G49" s="19">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>786.25</v>
+      </c>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>EUR</v>
+      </c>
+      <c r="L49" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="M49" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>19</v>
+      </c>
+      <c r="N49" s="14" t="str">
+        <f t="shared" ref="N49:W55" ca="1" si="20">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>P100</v>
+      </c>
+      <c r="O49" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="P49" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>Xeon E5-2630 v4</v>
+      </c>
+      <c r="Q49" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="R49" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>64</v>
+      </c>
+      <c r="S49" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>SSD</v>
+      </c>
+      <c r="T49" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>960</v>
+      </c>
+      <c r="U49" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V49" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W49" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>40/1</v>
+      </c>
+      <c r="X49" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
+      </c>
+      <c r="Z49" s="13"/>
+      <c r="AA49" s="13"/>
+      <c r="AB49" s="13"/>
+      <c r="AC49" s="45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29">
+      <c r="C50" s="22" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" monthly"</f>
+        <v>2 x Tesla P100 NVLink monthly</v>
+      </c>
+      <c r="D50" s="43"/>
+      <c r="E50" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="19">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>3145</v>
+      </c>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>EUR</v>
+      </c>
+      <c r="L50" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="M50" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>19</v>
+      </c>
+      <c r="N50" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>P100</v>
+      </c>
+      <c r="O50" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="P50" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>Xeon E5-2630 v4</v>
+      </c>
+      <c r="Q50" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="R50" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>64</v>
+      </c>
+      <c r="S50" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>SSD</v>
+      </c>
+      <c r="T50" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>960</v>
+      </c>
+      <c r="U50" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W50" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>40/1</v>
+      </c>
+      <c r="X50" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
+      </c>
+      <c r="Z50" s="13"/>
+      <c r="AA50" s="13"/>
+      <c r="AB50" s="13"/>
+      <c r="AC50" s="45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29">
+      <c r="C51" s="22" t="str">
+        <f t="shared" ref="C51:C55" ca="1" si="21">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" monthly"</f>
+        <v>4 x Tesla P100 NVLink monthly</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="19">
+        <f t="shared" ref="H51" ca="1" si="22">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>4362</v>
+      </c>
+      <c r="K51" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>EUR</v>
+      </c>
+      <c r="L51" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="M51" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>38</v>
+      </c>
+      <c r="N51" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>P100</v>
+      </c>
+      <c r="O51" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="P51" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>Xeon E5-2630 v4</v>
+      </c>
+      <c r="Q51" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="R51" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>64</v>
+      </c>
+      <c r="S51" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>SSD</v>
+      </c>
+      <c r="T51" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>1000</v>
+      </c>
+      <c r="U51" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V51" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W51" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>40/1</v>
+      </c>
+      <c r="X51" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
+      </c>
+      <c r="AC51" s="45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29">
+      <c r="C52" s="22" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>8 x Tesla P100 NVLink monthly</v>
+      </c>
+      <c r="E52" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="19">
+        <f t="shared" ref="H52" ca="1" si="23">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>7133</v>
+      </c>
+      <c r="K52" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>EUR</v>
+      </c>
+      <c r="L52" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="M52" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>76</v>
+      </c>
+      <c r="N52" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>P100</v>
+      </c>
+      <c r="O52" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="P52" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>Xeon E5-2630 v4</v>
+      </c>
+      <c r="Q52" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="R52" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>128</v>
+      </c>
+      <c r="S52" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>SSD</v>
+      </c>
+      <c r="T52" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>1000</v>
+      </c>
+      <c r="U52" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W52" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>40/1</v>
+      </c>
+      <c r="X52" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
+      </c>
+      <c r="AC52" s="45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29">
+      <c r="C53" s="22" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" minutely"</f>
+        <v>2 x FirePro S9300x2 minutely</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="F53" s="13">
+        <f t="shared" ref="F53" ca="1" si="24">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>2.4</v>
+      </c>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="K53" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>EUR</v>
+      </c>
+      <c r="L53" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.43519999999999998</v>
+      </c>
+      <c r="M53" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>27.8</v>
+      </c>
+      <c r="N53" s="14" t="str">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>FirePro S9300x2</v>
+      </c>
+      <c r="O53" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="P53" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>Xeon E5-2609 v4</v>
+      </c>
+      <c r="Q53" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="R53" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>32</v>
+      </c>
+      <c r="S53" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>SSD</v>
+      </c>
+      <c r="T53" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>480</v>
+      </c>
+      <c r="U53" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W53" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>40/1</v>
+      </c>
+      <c r="X53" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
+      </c>
+      <c r="AC53" s="45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29">
+      <c r="C54" s="22" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;"weekly"</f>
+        <v>2 x FirePro S9300x2weekly</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="F54" s="43"/>
+      <c r="G54" s="19">
+        <f t="shared" ref="G54" ca="1" si="25">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>412.63</v>
+      </c>
+      <c r="H54" s="43"/>
+      <c r="K54" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>EUR</v>
+      </c>
+      <c r="L54" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.43519999999999998</v>
+      </c>
+      <c r="M54" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>27.8</v>
+      </c>
+      <c r="N54" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>FirePro S9300x2</v>
+      </c>
+      <c r="O54" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="P54" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>Xeon E5-2609 v4</v>
+      </c>
+      <c r="Q54" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="R54" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>32</v>
+      </c>
+      <c r="S54" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>SSD</v>
+      </c>
+      <c r="T54" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>480</v>
+      </c>
+      <c r="U54" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W54" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>40/1</v>
+      </c>
+      <c r="X54" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
+      </c>
+      <c r="AC54" s="45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29">
+      <c r="C55" s="22" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>2 x FirePro S9300x2 monthly</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="19">
+        <f t="shared" ref="H55" ca="1" si="26">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>1630.18</v>
+      </c>
+      <c r="K55" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>EUR</v>
+      </c>
+      <c r="L55" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.43519999999999998</v>
+      </c>
+      <c r="M55" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>27.8</v>
+      </c>
+      <c r="N55" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>FirePro S9300x2</v>
+      </c>
+      <c r="O55" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="P55" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>Xeon E5-2609 v4</v>
+      </c>
+      <c r="Q55" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="R55" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>32</v>
+      </c>
+      <c r="S55" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>SSD</v>
+      </c>
+      <c r="T55" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>480</v>
+      </c>
+      <c r="U55" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V55" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W55" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>40/1</v>
+      </c>
+      <c r="X55" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
+      </c>
+      <c r="AC55" s="45">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="I23:J23 I25:J25 I27:J27 I29:J29 F25:G25 F29:G29 H22:H31 S13:S15 E23:G23 E18:J22 C30:C32 E26:G28 D26:D33 E17:F17 D10:D24 D3:D8 C3:C21 E7:G7 E9:J16 E4:J6 K4:K35 E30:I32 M32:O41 N16:O16 L30:O31 E3:O3 L4:O15 M16:M17 L16:L29 M18:O29 E8:H8 J8">
-    <cfRule type="expression" dxfId="34" priority="97">
+  <conditionalFormatting sqref="I23:J23 I25:J25 I27:J27 I29:J29 F25:G25 F29:G29 H22:H31 S13:S15 E23:G23 E18:J22 C30:C32 E26:G28 D26:D33 E17:F17 D10:D24 D3:D8 C3:C21 E7:G7 E9:J16 E4:J6 K4:K35 E30:I32 M32:O41 N16:O16 L30:O31 E3:O3 L4:O15 M16:M17 L16:L29 M18:O29 E8:H8 J8 L42:S55 T45:X55 K48:K55">
+    <cfRule type="expression" dxfId="43" priority="110">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25 I24:J24 F24:G24">
-    <cfRule type="expression" dxfId="33" priority="95">
+    <cfRule type="expression" dxfId="42" priority="108">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:J26">
-    <cfRule type="expression" dxfId="32" priority="94">
+    <cfRule type="expression" dxfId="41" priority="107">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:J28">
-    <cfRule type="expression" dxfId="31" priority="93">
+    <cfRule type="expression" dxfId="40" priority="106">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="30" priority="84">
+    <cfRule type="expression" dxfId="39" priority="97">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P15 P18:P41">
+    <cfRule type="expression" dxfId="38" priority="52">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:W3 T4:W12 T18:V31 T13:V15 W13:W31 R3:R15 R18:R41 X6:X41 T32:W38 U39:W41 T39:T44">
+    <cfRule type="expression" dxfId="37" priority="50">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C23">
+    <cfRule type="expression" dxfId="36" priority="59">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:C25">
+    <cfRule type="expression" dxfId="35" priority="58">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C27">
+    <cfRule type="expression" dxfId="34" priority="57">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:C29">
+    <cfRule type="expression" dxfId="33" priority="56">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q15 Q18:Q41">
+    <cfRule type="expression" dxfId="32" priority="51">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S4:S12">
+    <cfRule type="expression" dxfId="31" priority="49">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S18:S41">
+    <cfRule type="expression" dxfId="30" priority="48">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:J17 N17:O17">
     <cfRule type="expression" dxfId="29" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:W3 T4:W12 T18:V31 T13:V15 W13:W31 R3:R15 R18:R41 T32:W41 X6:X41">
-    <cfRule type="expression" dxfId="28" priority="37">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C23">
-    <cfRule type="expression" dxfId="27" priority="46">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C25">
-    <cfRule type="expression" dxfId="26" priority="45">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C27">
-    <cfRule type="expression" dxfId="25" priority="44">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C29">
-    <cfRule type="expression" dxfId="24" priority="43">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q15 Q18:Q41">
-    <cfRule type="expression" dxfId="23" priority="38">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S4:S12">
-    <cfRule type="expression" dxfId="22" priority="36">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S18:S41">
-    <cfRule type="expression" dxfId="21" priority="35">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17:J17 N17:O17">
-    <cfRule type="expression" dxfId="20" priority="26">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="P16:P17">
-    <cfRule type="expression" dxfId="19" priority="25">
+    <cfRule type="expression" dxfId="28" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16:V17 R16:R17">
-    <cfRule type="expression" dxfId="18" priority="23">
+    <cfRule type="expression" dxfId="27" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16:Q17">
-    <cfRule type="expression" dxfId="17" priority="24">
+    <cfRule type="expression" dxfId="26" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:S17">
-    <cfRule type="expression" dxfId="16" priority="22">
+    <cfRule type="expression" dxfId="25" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="15" priority="21">
+    <cfRule type="expression" dxfId="24" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="14" priority="20">
+    <cfRule type="expression" dxfId="23" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="13" priority="19">
+    <cfRule type="expression" dxfId="22" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:L41">
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="21" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="11" priority="17">
+    <cfRule type="expression" dxfId="20" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="10" priority="16">
+    <cfRule type="expression" dxfId="19" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="9" priority="15">
+    <cfRule type="expression" dxfId="18" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="17" priority="26">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J32">
+    <cfRule type="expression" dxfId="16" priority="25">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36 K36:K47">
+    <cfRule type="expression" dxfId="15" priority="24">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37">
+    <cfRule type="expression" dxfId="14" priority="23">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="expression" dxfId="13" priority="22">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="expression" dxfId="12" priority="17">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="expression" dxfId="11" priority="16">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="expression" dxfId="10" priority="15">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="expression" dxfId="9" priority="14">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
     <cfRule type="expression" dxfId="8" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J32">
-    <cfRule type="expression" dxfId="7" priority="12">
+  <conditionalFormatting sqref="U42:X44">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36 K36:K41">
-    <cfRule type="expression" dxfId="6" priority="11">
+  <conditionalFormatting sqref="G43">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
-    <cfRule type="expression" dxfId="5" priority="10">
+  <conditionalFormatting sqref="H44">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="4" priority="9">
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
+  <conditionalFormatting sqref="G46">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
+  <conditionalFormatting sqref="H47">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
+  <conditionalFormatting sqref="H50:H52 H55">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
+  <conditionalFormatting sqref="G49 G54">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>

--- a/Comparison table updated 3.xlsx
+++ b/Comparison table updated 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20" windowWidth="48920" windowHeight="13320" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="20" windowWidth="30940" windowHeight="22580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,7 @@
             <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
-0.02 euro/min  = 1.2 euro/h
+euro/min  * 60  =  euro/h
 </t>
         </r>
       </text>
@@ -464,7 +464,7 @@
             <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
-0.03 euro/min * 60 min</t>
+euro/min * 60 = eur/h</t>
         </r>
       </text>
     </comment>
@@ -490,7 +490,7 @@
             <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
-0.04 euro/min * 60 min</t>
+euro/min * 60 </t>
         </r>
       </text>
     </comment>
@@ -515,8 +515,7 @@
             <family val="2"/>
             <charset val="128"/>
           </rPr>
-          <t xml:space="preserve">
-0.07 euro/min * 60 min
+          <t xml:space="preserve"> euro/min * 60 min
 </t>
         </r>
       </text>
@@ -4431,10 +4430,10 @@
   <dimension ref="A1:FE45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="X20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="AA42" sqref="AA42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -7363,7 +7362,7 @@
         <v>40/1</v>
       </c>
       <c r="Z37" s="51">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="AA37" s="51">
         <v>199.25</v>
@@ -7451,7 +7450,7 @@
         <v>40/1</v>
       </c>
       <c r="Z38" s="51">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="AA38" s="51">
         <v>264.58</v>
@@ -7536,7 +7535,7 @@
         <v>40/1</v>
       </c>
       <c r="Z39" s="51">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="AA39" s="51">
         <v>504.25</v>
@@ -7620,7 +7619,7 @@
         <v>256</v>
       </c>
       <c r="Z40" s="51">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="AA40" s="51">
         <v>322.18</v>
@@ -7704,7 +7703,7 @@
         <v>256</v>
       </c>
       <c r="Z41" s="51">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="AA41" s="51">
         <v>439.68</v>
@@ -7791,7 +7790,7 @@
         <v>40/1</v>
       </c>
       <c r="Z42" s="51">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="AA42" s="51">
         <v>786.25</v>
@@ -8497,10 +8496,10 @@
   <dimension ref="A1:AC55"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -11112,7 +11111,7 @@
       </c>
       <c r="F33" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="K33" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -11329,7 +11328,7 @@
       </c>
       <c r="F36" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H36" s="13"/>
       <c r="K36" s="19" t="str">
@@ -11550,7 +11549,7 @@
       </c>
       <c r="F39" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="G39" s="43"/>
       <c r="H39" s="43"/>
@@ -11780,7 +11779,7 @@
       </c>
       <c r="F42" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H42" s="13"/>
       <c r="K42" s="19" t="str">
@@ -12010,7 +12009,7 @@
       </c>
       <c r="F45" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="H45" s="13"/>
       <c r="K45" s="19" t="str">
@@ -12240,7 +12239,7 @@
       </c>
       <c r="F48" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="G48" s="43"/>
       <c r="H48" s="43"/>
@@ -13074,7 +13073,7 @@
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="C22 C20" formula="1"/>
+    <ignoredError sqref="C21:C23 C20" formula="1"/>
     <ignoredError sqref="S13" emptyCellReference="1"/>
   </ignoredErrors>
   <extLst>

--- a/Comparison table updated 3.xlsx
+++ b/Comparison table updated 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20" windowWidth="30940" windowHeight="22580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="20" windowWidth="41440" windowHeight="24280" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -520,12 +520,64 @@
         </r>
       </text>
     </comment>
+    <comment ref="W47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Peter Bryzgalov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+54 Gbit/s *2 = 6.8175 GB/s *2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Peter Bryzgalov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+(¥200 000 税込 - 8%) / 4 nodes =46296.5 税抜き</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="301">
   <si>
     <t>Cloud server providers with GPU</t>
     <phoneticPr fontId="2"/>
@@ -587,10 +639,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>per hour USD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Net</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -622,10 +670,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>per month USD (30 days)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>K80</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -909,10 +953,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>per week USD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>8-GPU x86 SERVER P40</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1001,631 +1041,717 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>per year USD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Provider link</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>https://aws.amazon.com</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.softlayer.com/gpu</t>
+    <t>Offer link</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22240</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22241</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22242</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
+  </si>
+  <si>
+    <t>p2 dedicated host 1 year no Upfront</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>p2 dedicated host 1 year 100% Upfront</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>p2 dedicated host 3 years  100% Upfront</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NVIDIA Tesla K80 Dual Intel Xeon E5-2690 v3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NVIDIA Tesla M60 Dual Intel Xeon E5-2690 v3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GPU model</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPU model</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPUs</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Memory (GB)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HDD prim.Type</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HDD prim.GB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HDD sec.Type</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HDD sec.GB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Network</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>POWER8?</t>
+  </si>
+  <si>
+    <t>NGD4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>K40</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x 2496</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x 12.3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P100</t>
+  </si>
+  <si>
+    <t>POWER8</t>
+  </si>
+  <si>
+    <t>2-GPU POWER8/8 SERVER</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2630 v3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NVIDIA Tesla K80 Dual Intel Xeon E5-2620 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Outbound Traffic limited to 500GB.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Outbound Traffic limited to 500GB.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Outbound Traffic limited to 500GB.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SL K80x1 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SL K80x1 x86 h.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR K80x8 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR M40x8 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CRM40x8 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P40x8 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P40x8 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x8 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x8 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x4 P8/8 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x4 P8/8 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x2 P8/8 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x2 P8/8 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NVIDIA TITAN X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tesla P40 model</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tesla P100 model</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SK P40x1 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SK P100x1 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR K80x8 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NP8G1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NGQ7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NP8G4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M40</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Interconnect GB/s</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NM K40x2 h.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NM K80x4 h.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NM M40x4 h.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LeaderTelecom</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.leadergpu.com</t>
+  </si>
+  <si>
+    <t>4 x GeForce GTX 1080</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8 x GeForce GTX 1080</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x GeForce GTX 1080</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GeForce GTX 1080</t>
+  </si>
+  <si>
+    <t>GeForce GTX 1080</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2609 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GHz</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FLOPs per cycle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://en.wikichip.org/wiki/intel/xeon_e5/e5-2686_v4</t>
+  </si>
+  <si>
+    <t>Xeon E5-2609 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2630 v4</t>
+  </si>
+  <si>
+    <t>SSD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>setup price</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22240</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>This is the average monthly payment over the course of the Dedicated Host Reservation term. For each month, the actual monthly payment will equal the actual number of hours in that month multiplied by the hourly usage rate. The hourly usage rate is equivalent to the total average monthly payments over the term divided by the total number of hours (based on a 365 day year) over the term.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Setup price</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Internal/External</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPU performance (Tflops DP)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GPU performance (TFlops SP)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JPY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EUR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 37.</t>
+  </si>
+  <si>
+    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 38.</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SL M60x1 2690v3 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SL K80x1 2690v3 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x2 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x2 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x2 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x4 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x4 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x4 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x8 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x8 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x8 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x Tesla P100</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>40/1</t>
+  </si>
+  <si>
+    <t>1 x Tesla P100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x Tesla P100 NVLink</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4 x Tesla P100 NVLink</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8 x Tesla P100 NVLink</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x FirePro S9300x2</t>
+  </si>
+  <si>
+    <t>2 x 4096</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x 4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x 512</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2609 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SSD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x1 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x1 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT S9300x2 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FirePro S9300x2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT S9300x2 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 NVL min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 NVL m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x4 NVL m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x8 NVL m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 NVL w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT S9300x2 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x1 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The University of Tokyo</t>
+  </si>
+  <si>
+    <t>Reedbush-H Personal (educational)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2630 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Xeon E5-2695v4 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PFS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H Group 4 (educational)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H Group 4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H Group 8 (educational)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H Group 8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>per hour</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>per week</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>per month (30 days)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>per year</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.cc.u-tokyo.ac.jp/system/reedbush/index-e.html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.cc.u-tokyo.ac.jp/system/reedbush/reedbush_course.html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Max 128 nodes. Included 13824 node hours if 1 node is used, 6912 node hours if more than 1 node is used simultaneously.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Max 128 nodes. Included 27648 node hours if 2 nodes are used, 13824 node hours if more than 2 node are used simultaneously.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H Group 8 dedicated (educational)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H Group 8 dedicated</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Max16 nodes. Included (17280/2.5=)6912 node hours if 1 node is used, 3456 node hours if more than 1 node is used simulateously.</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://www.nimbix.net/nimbix-cloud-demand-pricing/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.cirrascale.com/cloud/plans.aspx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Offer link</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22240</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22241</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22242</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
-  </si>
-  <si>
-    <t>p2 dedicated host 1 year no Upfront</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>p2 dedicated host 1 year 100% Upfront</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>p2 dedicated host 3 years  100% Upfront</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NVIDIA Tesla K80 Dual Intel Xeon E5-2690 v3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NVIDIA Tesla M60 Dual Intel Xeon E5-2690 v3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GPU model</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CPU model</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CPUs</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Memory (GB)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HDD prim.Type</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HDD prim.GB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HDD sec.Type</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>HDD sec.GB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Network</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Notes</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>POWER8?</t>
-  </si>
-  <si>
-    <t>NGD4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>K40</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x 2496</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x 12.3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>P100</t>
-  </si>
-  <si>
-    <t>POWER8</t>
-  </si>
-  <si>
-    <t>2-GPU POWER8/8 SERVER</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2630 v3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>K</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NVIDIA Tesla K80 Dual Intel Xeon E5-2620 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Outbound Traffic limited to 500GB.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Outbound Traffic limited to 500GB.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Outbound Traffic limited to 500GB.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SL K80x1 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SL K80x1 x86 h.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR K80x8 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR M40x8 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CRM40x8 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P40x8 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P40x8 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x8 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x8 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x4 P8/8 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x4 P8/8 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x2 P8/8 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x2 P8/8 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NVIDIA TITAN X</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Tesla P40 model</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Tesla P100 model</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>P100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SK P40x1 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SK P100x1 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR K80x8 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NP8G1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NGQ7</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NP8G4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>M40</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Interconnect GB/s</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NM K40x2 h.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NM K80x4 h.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NM M40x4 h.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LeaderTelecom</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://www.leadergpu.com</t>
-  </si>
-  <si>
-    <t>4 x GeForce GTX 1080</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8 x GeForce GTX 1080</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x GeForce GTX 1080</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GeForce GTX 1080</t>
-  </si>
-  <si>
-    <t>GeForce GTX 1080</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2609 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GHz</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FLOPs per cycle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://en.wikichip.org/wiki/intel/xeon_e5/e5-2686_v4</t>
-  </si>
-  <si>
-    <t>Xeon E5-2609 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2630 v4</t>
-  </si>
-  <si>
-    <t>SSD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Currency</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>USD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>setup price</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22240</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>This is the average monthly payment over the course of the Dedicated Host Reservation term. For each month, the actual monthly payment will equal the actual number of hours in that month multiplied by the hourly usage rate. The hourly usage rate is equivalent to the total average monthly payments over the term divided by the total number of hours (based on a 365 day year) over the term.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Z</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Setup price</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Currency</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://www.sakura.ad.jp/koukaryoku/specification/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Internal/External</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CPU performance (Tflops DP)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GPU performance (TFlops SP)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>JPY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>EUR</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 37.</t>
-  </si>
-  <si>
-    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 38.</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://www.leadergpu.com</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SL M60x1 2690v3 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SL K80x1 2690v3 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x2 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x2 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x2 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x4 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x4 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x4 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x8 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x8 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x8 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x Tesla P100</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>40/1</t>
-  </si>
-  <si>
-    <t>1 x Tesla P100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x Tesla P100 NVLink</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4 x Tesla P100 NVLink</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8 x Tesla P100 NVLink</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x FirePro S9300x2</t>
-  </si>
-  <si>
-    <t>2 x 4096</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x 4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x 512</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2609 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SSD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x1 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x1 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT S9300x2 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FirePro S9300x2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT S9300x2 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 NVL min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 NVL m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x4 NVL m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x8 NVL m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 NVL w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT S9300x2 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x1 w.</t>
+  </si>
+  <si>
+    <t>TU personal</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU gr.4 edu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU gr.4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU gr.8 edu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU gr.8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU gr.8 ddc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU gr.8 ddc. edu</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1996,7 +2122,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="659">
+  <cellStyleXfs count="669">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2668,8 +2794,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -2777,10 +2913,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="637" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="120" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="637"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="119" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2788,7 +2920,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="659">
+  <cellStyles count="669">
     <cellStyle name="$Normal" xfId="356"/>
     <cellStyle name="¥ Normal" xfId="636"/>
     <cellStyle name="€ Normal" xfId="635"/>
@@ -3154,6 +3286,16 @@
     <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="657" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="659" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="661" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="663" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="665" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="667" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 1 2" xfId="62"/>
     <cellStyle name="Heading 2" xfId="263" builtinId="17" customBuiltin="1"/>
@@ -3449,7 +3591,172 @@
     <cellStyle name="Style 1" xfId="55"/>
     <cellStyle name="Title" xfId="340" builtinId="15" hidden="1"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="79">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -4132,6 +4439,28 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
@@ -4427,13 +4756,13 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:FE45"/>
+  <dimension ref="A1:FE53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="X20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="AB35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AA42" sqref="AA42"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -4466,9 +4795,10 @@
     <col min="26" max="26" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="16.83203125" style="13" customWidth="1"/>
     <col min="28" max="28" width="20.83203125" customWidth="1"/>
-    <col min="29" max="30" width="20.83203125" style="13" customWidth="1"/>
+    <col min="29" max="29" width="20.83203125" style="13" customWidth="1"/>
+    <col min="30" max="30" width="14.1640625" style="13" customWidth="1"/>
     <col min="31" max="31" width="8.83203125" style="13" customWidth="1"/>
-    <col min="32" max="32" width="67.33203125" style="16" customWidth="1"/>
+    <col min="32" max="32" width="93.6640625" style="16" customWidth="1"/>
     <col min="33" max="33" width="22.1640625" style="13" customWidth="1"/>
     <col min="34" max="34" width="28.1640625" style="13" customWidth="1"/>
     <col min="35" max="35" width="21.5" style="13" customWidth="1"/>
@@ -4486,49 +4816,49 @@
     <row r="3" spans="1:161" s="6" customFormat="1" ht="46" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
       <c r="R3" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60" t="s">
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
       <c r="AF3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG3" s="13"/>
       <c r="AH3" s="13"/>
@@ -4670,22 +5000,22 @@
         <v>2</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K4" s="17" t="s">
         <v>4</v>
@@ -4697,19 +5027,19 @@
         <v>6</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="17" t="s">
         <v>10</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S4" s="17" t="s">
         <v>8</v>
@@ -4724,49 +5054,49 @@
         <v>9</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="X4" s="17" t="s">
         <v>13</v>
       </c>
       <c r="Y4" s="17" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="Z4" s="17" t="s">
-        <v>15</v>
+        <v>282</v>
       </c>
       <c r="AA4" s="25" t="s">
-        <v>98</v>
+        <v>283</v>
       </c>
       <c r="AB4" s="17" t="s">
-        <v>24</v>
+        <v>284</v>
       </c>
       <c r="AC4" s="17" t="s">
-        <v>121</v>
+        <v>285</v>
       </c>
       <c r="AD4" s="17" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="AE4" s="17" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="AF4" s="17"/>
     </row>
     <row r="5" spans="1:161" s="13" customFormat="1" ht="21" thickTop="1">
       <c r="A5" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="14">
         <v>16</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="14">
         <v>8.74</v>
@@ -4775,14 +5105,14 @@
         <v>2.91</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L5" s="14">
         <v>64</v>
@@ -4819,27 +5149,27 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
       <c r="AE5" s="16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AF5" s="16" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:161">
       <c r="A6" s="15" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5">
         <v>8</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="5">
         <v>8.74</v>
@@ -4848,14 +5178,14 @@
         <v>2.91</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" s="14">
         <v>32</v>
@@ -4892,27 +5222,27 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
       <c r="AE6" s="16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AF6" s="16" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:161">
       <c r="A7" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="5">
         <v>8.74</v>
@@ -4921,14 +5251,14 @@
         <v>2.91</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7" s="14">
         <v>4</v>
@@ -4965,27 +5295,27 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
       <c r="AE7" s="16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AF7" s="16" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:161">
       <c r="A8" s="16" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5">
         <v>16</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="5">
         <v>8.74</v>
@@ -4994,14 +5324,14 @@
         <v>2.91</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L8" s="14">
         <v>2</v>
@@ -5036,21 +5366,21 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="10"/>
       <c r="AE8" s="16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:161">
       <c r="B9" s="22" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="5">
         <v>16</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="5">
         <v>8.74</v>
@@ -5059,14 +5389,14 @@
         <v>2.91</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="5">
         <v>2</v>
@@ -5101,25 +5431,25 @@
       <c r="AC9" s="24"/>
       <c r="AD9" s="24"/>
       <c r="AE9" s="16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AF9" s="16" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:161">
       <c r="A10" s="16"/>
       <c r="B10" s="22" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="5">
         <v>16</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F10" s="5">
         <v>8.74</v>
@@ -5128,14 +5458,14 @@
         <v>2.91</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L10" s="5">
         <v>2</v>
@@ -5172,22 +5502,22 @@
         <v>88389</v>
       </c>
       <c r="AE10" s="16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:161">
       <c r="A11" s="16"/>
       <c r="B11" s="22" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="5">
         <v>16</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F11" s="5">
         <v>8.74</v>
@@ -5196,14 +5526,14 @@
         <v>2.91</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L11" s="5">
         <v>2</v>
@@ -5240,7 +5570,7 @@
         <v>184780</v>
       </c>
       <c r="AE11" s="16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:161">
@@ -5277,19 +5607,19 @@
     </row>
     <row r="13" spans="1:161" ht="20">
       <c r="A13" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>28</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>30</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="5">
         <v>8.74</v>
@@ -5298,14 +5628,14 @@
         <v>2.91</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L13" s="5">
         <v>2</v>
@@ -5330,13 +5660,13 @@
         <v>128</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T13" s="5">
         <v>800</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="V13" s="5">
         <v>800</v>
@@ -5359,27 +5689,27 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
       <c r="AE13" s="16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AF13" s="16" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:161">
       <c r="A14" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="5">
         <v>8.74</v>
@@ -5388,14 +5718,14 @@
         <v>2.91</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L14" s="5">
         <v>2</v>
@@ -5420,7 +5750,7 @@
         <v>64</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T14" s="5">
         <v>1000</v>
@@ -5446,25 +5776,25 @@
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AF14" s="16" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:161">
       <c r="A15" s="16"/>
       <c r="B15" s="22" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F15" s="9">
         <v>9.65</v>
@@ -5473,14 +5803,14 @@
         <v>0.3</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L15" s="5">
         <v>2</v>
@@ -5505,7 +5835,7 @@
         <v>64</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="T15" s="5">
         <v>1000</v>
@@ -5531,10 +5861,10 @@
       <c r="AC15" s="24"/>
       <c r="AD15" s="24"/>
       <c r="AE15" s="16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AF15" s="16" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:161">
@@ -5571,13 +5901,13 @@
     </row>
     <row r="17" spans="1:161" ht="20">
       <c r="A17" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D17" s="26">
         <v>2</v>
@@ -5601,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="L17" s="26">
         <v>2</v>
@@ -5642,25 +5972,27 @@
       <c r="AC17" s="38"/>
       <c r="AD17" s="38"/>
       <c r="AE17" s="16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AF17" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:161" s="13" customFormat="1" ht="20">
-      <c r="A18" s="21"/>
+    <row r="18" spans="1:161" s="13" customFormat="1">
+      <c r="A18" s="56" t="s">
+        <v>293</v>
+      </c>
       <c r="B18" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="5">
         <v>4</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F18" s="9">
         <v>8.74</v>
@@ -5669,16 +6001,16 @@
         <v>2.91</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J18" s="27">
         <v>1</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L18" s="5">
         <v>2</v>
@@ -5719,19 +6051,19 @@
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
       <c r="AE18" s="16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AF18" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:161" s="13" customFormat="1" ht="20">
       <c r="A19" s="33"/>
       <c r="B19" s="22" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D19" s="5">
         <v>4</v>
@@ -5755,7 +6087,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L19" s="5">
         <v>2</v>
@@ -5796,10 +6128,10 @@
       <c r="AC19" s="10"/>
       <c r="AD19" s="10"/>
       <c r="AE19" s="16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AF19" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AJ19" s="39"/>
       <c r="AK19" s="39"/>
@@ -5931,10 +6263,10 @@
     <row r="20" spans="1:161" s="13" customFormat="1" ht="20">
       <c r="A20" s="33"/>
       <c r="B20" s="22" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
@@ -5982,7 +6314,7 @@
       <c r="AC20" s="24"/>
       <c r="AD20" s="24"/>
       <c r="AE20" s="16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AF20" s="16"/>
       <c r="AJ20" s="39"/>
@@ -6114,13 +6446,13 @@
     </row>
     <row r="21" spans="1:161">
       <c r="A21" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" s="5">
         <v>4</v>
@@ -6168,12 +6500,12 @@
       <c r="AC21" s="24"/>
       <c r="AD21" s="24"/>
       <c r="AE21" s="16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:161">
       <c r="A22" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="28"/>
@@ -6207,12 +6539,12 @@
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:161">
       <c r="A23" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="28"/>
@@ -6242,7 +6574,7 @@
       <c r="AC23" s="24"/>
       <c r="AD23" s="24"/>
       <c r="AE23" s="16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:161">
@@ -6277,19 +6609,19 @@
     </row>
     <row r="25" spans="1:161" ht="20">
       <c r="A25" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25">
         <v>8</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" s="9">
         <v>8.74</v>
@@ -6298,14 +6630,14 @@
         <v>2.91</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L25" s="5">
         <v>2</v>
@@ -6330,13 +6662,13 @@
         <v>512</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T25" s="14">
         <v>1000</v>
       </c>
       <c r="U25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V25" s="14">
         <v>4000</v>
@@ -6357,18 +6689,18 @@
       <c r="AC25" s="24"/>
       <c r="AD25" s="24"/>
       <c r="AE25" s="16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:161">
       <c r="A26" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D26">
         <v>8</v>
@@ -6390,7 +6722,7 @@
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L26" s="5">
         <v>2</v>
@@ -6415,13 +6747,13 @@
         <v>256</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T26" s="14">
         <v>1000</v>
       </c>
       <c r="U26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V26" s="14">
         <v>4000</v>
@@ -6442,16 +6774,16 @@
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:161" s="13" customFormat="1">
       <c r="A27" s="2"/>
       <c r="B27" s="22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D27" s="13">
         <v>8</v>
@@ -6473,7 +6805,7 @@
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L27" s="5">
         <v>2</v>
@@ -6498,13 +6830,13 @@
         <v>256</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T27" s="14">
         <v>1000</v>
       </c>
       <c r="U27" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="V27" s="14">
         <v>4000</v>
@@ -6525,17 +6857,17 @@
       <c r="AC27" s="24"/>
       <c r="AD27" s="24"/>
       <c r="AE27" s="16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AF27" s="16"/>
     </row>
     <row r="28" spans="1:161" s="13" customFormat="1">
       <c r="A28" s="2"/>
       <c r="B28" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D28" s="13">
         <v>8</v>
@@ -6557,7 +6889,7 @@
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="L28" s="5">
         <v>2</v>
@@ -6582,13 +6914,13 @@
         <v>256</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T28" s="14">
         <v>1000</v>
       </c>
       <c r="U28" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="V28" s="14">
         <v>4000</v>
@@ -6609,16 +6941,16 @@
       <c r="AC28" s="24"/>
       <c r="AD28" s="24"/>
       <c r="AE28" s="16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AF28" s="16"/>
     </row>
     <row r="29" spans="1:161">
       <c r="B29" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="28" t="s">
         <v>81</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>83</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -6642,7 +6974,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L29" s="5">
         <v>2</v>
@@ -6662,10 +6994,10 @@
         <v>1000</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="T29" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U29" s="14"/>
       <c r="V29" s="14"/>
@@ -6690,18 +7022,18 @@
       <c r="AC29" s="24"/>
       <c r="AD29" s="24"/>
       <c r="AE29" s="16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AF29" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:161">
       <c r="B30" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="28" t="s">
         <v>82</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>84</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -6725,7 +7057,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L30" s="5">
         <v>2</v>
@@ -6745,10 +7077,10 @@
         <v>512</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T30" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U30" s="14"/>
       <c r="V30" s="14"/>
@@ -6768,16 +7100,16 @@
       <c r="AC30" s="24"/>
       <c r="AD30" s="24"/>
       <c r="AE30" s="16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:161" s="13" customFormat="1">
       <c r="A31" s="40"/>
       <c r="B31" s="41" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D31" s="43">
         <v>2</v>
@@ -6801,7 +7133,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="42" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="L31" s="5">
         <v>2</v>
@@ -6821,7 +7153,7 @@
         <v>128</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T31" s="31">
         <v>960</v>
@@ -6844,7 +7176,7 @@
       <c r="AC31" s="44"/>
       <c r="AD31" s="44"/>
       <c r="AE31" s="16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AF31" s="16"/>
       <c r="AJ31" s="43"/>
@@ -7004,18 +7336,18 @@
       <c r="AC32" s="24"/>
       <c r="AD32" s="24"/>
       <c r="AE32" s="16" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="20">
       <c r="A33" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D33" s="28">
         <v>4</v>
@@ -7037,7 +7369,7 @@
       </c>
       <c r="J33" s="28"/>
       <c r="K33" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L33" s="28">
         <v>2</v>
@@ -7062,13 +7394,13 @@
         <v>128</v>
       </c>
       <c r="S33" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T33" s="28">
         <v>480</v>
       </c>
       <c r="U33" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V33" s="28">
         <v>480</v>
@@ -7091,18 +7423,18 @@
         <v>815000</v>
       </c>
       <c r="AE33" s="16" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:32">
       <c r="A34" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D34" s="14">
         <v>1</v>
@@ -7124,7 +7456,7 @@
       </c>
       <c r="J34" s="28"/>
       <c r="K34" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L34" s="28">
         <v>2</v>
@@ -7149,13 +7481,13 @@
         <v>128</v>
       </c>
       <c r="S34" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T34" s="28">
         <v>480</v>
       </c>
       <c r="U34" s="28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V34" s="28">
         <v>480</v>
@@ -7178,15 +7510,15 @@
         <v>875000</v>
       </c>
       <c r="AE34" s="16" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:32">
       <c r="B35" s="22" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D35" s="14">
         <v>1</v>
@@ -7208,7 +7540,7 @@
       </c>
       <c r="J35" s="28"/>
       <c r="K35" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L35" s="28">
         <v>2</v>
@@ -7233,13 +7565,13 @@
         <v>128</v>
       </c>
       <c r="S35" s="28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T35" s="28">
         <v>480</v>
       </c>
       <c r="U35" s="28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V35" s="28">
         <v>480</v>
@@ -7260,7 +7592,7 @@
         <v>895000</v>
       </c>
       <c r="AE35" s="16" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:32">
@@ -7291,13 +7623,13 @@
     </row>
     <row r="37" spans="1:32" ht="23" customHeight="1">
       <c r="A37" s="21" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D37" s="14">
         <v>2</v>
@@ -7319,7 +7651,7 @@
       </c>
       <c r="J37" s="28"/>
       <c r="K37" s="28" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="L37" s="28">
         <v>2</v>
@@ -7344,7 +7676,7 @@
         <v>32</v>
       </c>
       <c r="S37" s="28" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="T37" s="28">
         <v>480</v>
@@ -7371,21 +7703,21 @@
         <v>797</v>
       </c>
       <c r="AE37" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF37" s="16" t="s">
         <v>234</v>
-      </c>
-      <c r="AF37" s="16" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
       <c r="A38" s="16" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D38" s="14">
         <v>4</v>
@@ -7407,7 +7739,7 @@
       </c>
       <c r="J38" s="28"/>
       <c r="K38" s="28" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="L38" s="28">
         <v>2</v>
@@ -7432,7 +7764,7 @@
         <v>64</v>
       </c>
       <c r="S38" s="28" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="T38" s="28">
         <v>480</v>
@@ -7459,18 +7791,18 @@
         <v>1058.33</v>
       </c>
       <c r="AE38" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF38" s="16" t="s">
         <v>234</v>
-      </c>
-      <c r="AF38" s="16" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="28" customHeight="1">
       <c r="B39" s="22" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D39" s="14">
         <v>8</v>
@@ -7492,7 +7824,7 @@
       </c>
       <c r="J39" s="28"/>
       <c r="K39" s="28" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="L39" s="28">
         <v>2</v>
@@ -7511,13 +7843,13 @@
         <v>0.35199999999999998</v>
       </c>
       <c r="Q39" s="28">
-        <v>1866</v>
+        <v>2133</v>
       </c>
       <c r="R39" s="28">
         <v>128</v>
       </c>
       <c r="S39" s="28" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="T39" s="28">
         <v>960</v>
@@ -7544,19 +7876,19 @@
         <v>2017</v>
       </c>
       <c r="AE39" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF39" s="16" t="s">
         <v>234</v>
-      </c>
-      <c r="AF39" s="16" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:32" s="13" customFormat="1" ht="28" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="41" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D40" s="14">
         <v>1</v>
@@ -7578,7 +7910,7 @@
       </c>
       <c r="J40" s="42"/>
       <c r="K40" s="42" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="L40" s="42">
         <v>2</v>
@@ -7595,14 +7927,14 @@
       <c r="P40" s="14">
         <v>0.35199999999999998</v>
       </c>
-      <c r="Q40" s="42">
-        <v>1866</v>
+      <c r="Q40" s="28">
+        <v>2133</v>
       </c>
       <c r="R40" s="42">
         <v>32</v>
       </c>
       <c r="S40" s="42" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="T40" s="42">
         <v>480</v>
@@ -7616,7 +7948,7 @@
         <v>1</v>
       </c>
       <c r="Y40" s="14" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="Z40" s="51">
         <v>3.6</v>
@@ -7628,19 +7960,19 @@
         <v>1288.7</v>
       </c>
       <c r="AE40" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF40" s="16" t="s">
         <v>234</v>
-      </c>
-      <c r="AF40" s="16" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:32" s="13" customFormat="1" ht="28" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="C41" s="59" t="s">
-        <v>152</v>
+        <v>244</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>144</v>
       </c>
       <c r="D41" s="14">
         <v>2</v>
@@ -7662,7 +7994,7 @@
       </c>
       <c r="J41" s="42"/>
       <c r="K41" s="42" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="L41" s="42">
         <v>2</v>
@@ -7679,14 +8011,14 @@
       <c r="P41" s="14">
         <v>0.35199999999999998</v>
       </c>
-      <c r="Q41" s="42">
-        <v>1866</v>
+      <c r="Q41" s="28">
+        <v>2133</v>
       </c>
       <c r="R41" s="42">
         <v>32</v>
       </c>
       <c r="S41" s="42" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="T41" s="42">
         <v>480</v>
@@ -7700,7 +8032,7 @@
         <v>1</v>
       </c>
       <c r="Y41" s="14" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="Z41" s="51">
         <v>4.8</v>
@@ -7712,18 +8044,18 @@
         <v>1758.7</v>
       </c>
       <c r="AE41" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF41" s="16" t="s">
         <v>234</v>
-      </c>
-      <c r="AF41" s="16" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:32">
       <c r="B42" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="C42" s="59" t="s">
-        <v>152</v>
+        <v>248</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>144</v>
       </c>
       <c r="D42" s="14">
         <v>2</v>
@@ -7747,7 +8079,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="28" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="L42" s="28">
         <v>2</v>
@@ -7766,13 +8098,13 @@
         <v>0.35199999999999998</v>
       </c>
       <c r="Q42" s="28">
-        <v>1866</v>
+        <v>2133</v>
       </c>
       <c r="R42" s="28">
         <v>64</v>
       </c>
       <c r="S42" s="28" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="T42" s="28">
         <v>960</v>
@@ -7799,18 +8131,18 @@
         <v>3145</v>
       </c>
       <c r="AE42" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF42" s="16" t="s">
         <v>234</v>
-      </c>
-      <c r="AF42" s="16" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:32">
       <c r="B43" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="C43" s="59" t="s">
-        <v>152</v>
+        <v>249</v>
+      </c>
+      <c r="C43" s="57" t="s">
+        <v>144</v>
       </c>
       <c r="D43" s="14">
         <v>4</v>
@@ -7834,7 +8166,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="28" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="L43" s="28">
         <v>2</v>
@@ -7853,13 +8185,13 @@
         <v>0.35199999999999998</v>
       </c>
       <c r="Q43" s="28">
-        <v>1866</v>
+        <v>2133</v>
       </c>
       <c r="R43" s="28">
         <v>64</v>
       </c>
       <c r="S43" s="28" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="T43" s="28">
         <v>1000</v>
@@ -7882,18 +8214,18 @@
         <v>4362</v>
       </c>
       <c r="AE43" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF43" s="16" t="s">
         <v>234</v>
-      </c>
-      <c r="AF43" s="16" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:32">
       <c r="B44" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="C44" s="59" t="s">
-        <v>152</v>
+        <v>250</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>144</v>
       </c>
       <c r="D44" s="14">
         <v>8</v>
@@ -7917,7 +8249,7 @@
         <v>1</v>
       </c>
       <c r="K44" s="28" t="s">
-        <v>207</v>
+        <v>274</v>
       </c>
       <c r="L44" s="28">
         <v>2</v>
@@ -7936,13 +8268,13 @@
         <v>0.35199999999999998</v>
       </c>
       <c r="Q44" s="28">
-        <v>1866</v>
+        <v>2133</v>
       </c>
       <c r="R44" s="28">
         <v>128</v>
       </c>
       <c r="S44" s="28" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="T44" s="28">
         <v>1000</v>
@@ -7956,7 +8288,7 @@
         <v>1</v>
       </c>
       <c r="Y44" s="14" t="str">
-        <f t="shared" ref="Y44:Y45" si="8">W44&amp;"/"&amp;X44</f>
+        <f t="shared" ref="Y44:Y51" si="8">W44&amp;"/"&amp;X44</f>
         <v>40/1</v>
       </c>
       <c r="Z44" s="51"/>
@@ -7965,24 +8297,24 @@
         <v>7133</v>
       </c>
       <c r="AE44" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF44" s="16" t="s">
         <v>234</v>
-      </c>
-      <c r="AF44" s="16" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:32">
       <c r="B45" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="C45" s="59" t="s">
-        <v>272</v>
+        <v>251</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>262</v>
       </c>
       <c r="D45" s="14">
         <v>2</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F45" s="14">
         <v>13.9</v>
@@ -7991,14 +8323,14 @@
         <v>0.86799999999999999</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="J45" s="14"/>
-      <c r="K45" s="59" t="s">
-        <v>265</v>
+      <c r="K45" s="57" t="s">
+        <v>255</v>
       </c>
       <c r="L45" s="14">
         <v>2</v>
@@ -8022,8 +8354,8 @@
       <c r="R45" s="14">
         <v>32</v>
       </c>
-      <c r="S45" s="59" t="s">
-        <v>266</v>
+      <c r="S45" s="57" t="s">
+        <v>256</v>
       </c>
       <c r="T45" s="14">
         <v>480</v>
@@ -8050,10 +8382,570 @@
         <v>1630.18</v>
       </c>
       <c r="AE45" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF45" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="AF45" s="16" t="s">
-        <v>244</v>
+    </row>
+    <row r="47" spans="1:32" ht="20">
+      <c r="A47" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="C47" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="D47" s="14">
+        <v>2</v>
+      </c>
+      <c r="E47" s="14">
+        <v>3584</v>
+      </c>
+      <c r="F47" s="42">
+        <v>9.5</v>
+      </c>
+      <c r="G47" s="42">
+        <v>4.7</v>
+      </c>
+      <c r="H47" s="42">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I47" s="42">
+        <v>720</v>
+      </c>
+      <c r="J47" s="28">
+        <v>1</v>
+      </c>
+      <c r="K47" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="L47" s="14">
+        <v>2</v>
+      </c>
+      <c r="M47" s="14">
+        <v>18</v>
+      </c>
+      <c r="N47" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="O47" s="14">
+        <v>16</v>
+      </c>
+      <c r="P47" s="14">
+        <f>M47*N47*O47/1000</f>
+        <v>0.60480000000000012</v>
+      </c>
+      <c r="Q47" s="14">
+        <v>2400</v>
+      </c>
+      <c r="R47" s="14">
+        <v>256</v>
+      </c>
+      <c r="S47" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="T47" s="14">
+        <v>1000</v>
+      </c>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14">
+        <v>13.635</v>
+      </c>
+      <c r="Y47" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>13.635/</v>
+      </c>
+      <c r="AC47" s="52">
+        <f>200000/1.08 /4</f>
+        <v>46296.296296296292</v>
+      </c>
+      <c r="AE47" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF47" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32">
+      <c r="A48" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="C48" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="D48" s="14">
+        <v>2</v>
+      </c>
+      <c r="E48" s="14">
+        <v>3584</v>
+      </c>
+      <c r="F48" s="42">
+        <v>9.5</v>
+      </c>
+      <c r="G48" s="42">
+        <v>4.7</v>
+      </c>
+      <c r="H48" s="42">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I48" s="42">
+        <v>720</v>
+      </c>
+      <c r="J48" s="28">
+        <v>1</v>
+      </c>
+      <c r="K48" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="L48" s="14">
+        <v>2</v>
+      </c>
+      <c r="M48" s="14">
+        <v>18</v>
+      </c>
+      <c r="N48" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="O48" s="14">
+        <v>16</v>
+      </c>
+      <c r="P48" s="14">
+        <f t="shared" ref="P48:P51" si="9">M48*N48*O48/1000</f>
+        <v>0.60480000000000012</v>
+      </c>
+      <c r="Q48" s="14">
+        <v>2400</v>
+      </c>
+      <c r="R48" s="14">
+        <v>256</v>
+      </c>
+      <c r="S48" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="T48" s="14">
+        <v>4000</v>
+      </c>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14">
+        <v>13.635</v>
+      </c>
+      <c r="Y48" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>13.635/</v>
+      </c>
+      <c r="AC48" s="52">
+        <f>400000/1.08 /4</f>
+        <v>92592.592592592584</v>
+      </c>
+      <c r="AE48" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF48" s="16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32">
+      <c r="A49" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="C49" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="D49" s="14">
+        <v>2</v>
+      </c>
+      <c r="E49" s="14">
+        <v>3584</v>
+      </c>
+      <c r="F49" s="42">
+        <v>9.5</v>
+      </c>
+      <c r="G49" s="42">
+        <v>4.7</v>
+      </c>
+      <c r="H49" s="42">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I49" s="42">
+        <v>720</v>
+      </c>
+      <c r="J49" s="28">
+        <v>1</v>
+      </c>
+      <c r="K49" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="L49" s="14">
+        <v>2</v>
+      </c>
+      <c r="M49" s="14">
+        <v>18</v>
+      </c>
+      <c r="N49" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="O49" s="14">
+        <v>16</v>
+      </c>
+      <c r="P49" s="14">
+        <f t="shared" si="9"/>
+        <v>0.60480000000000012</v>
+      </c>
+      <c r="Q49" s="14">
+        <v>2400</v>
+      </c>
+      <c r="R49" s="14">
+        <v>256</v>
+      </c>
+      <c r="S49" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="T49" s="14">
+        <v>4000</v>
+      </c>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14">
+        <v>13.635</v>
+      </c>
+      <c r="Y49" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>13.635/</v>
+      </c>
+      <c r="AC49" s="52">
+        <f>480000/1.08 /4</f>
+        <v>111111.11111111111</v>
+      </c>
+      <c r="AE49" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF49" s="16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32">
+      <c r="B50" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C50" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="D50" s="14">
+        <v>2</v>
+      </c>
+      <c r="E50" s="14">
+        <v>3584</v>
+      </c>
+      <c r="F50" s="42">
+        <v>9.5</v>
+      </c>
+      <c r="G50" s="42">
+        <v>4.7</v>
+      </c>
+      <c r="H50" s="42">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I50" s="42">
+        <v>720</v>
+      </c>
+      <c r="J50" s="28">
+        <v>1</v>
+      </c>
+      <c r="K50" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="L50" s="14">
+        <v>2</v>
+      </c>
+      <c r="M50" s="14">
+        <v>18</v>
+      </c>
+      <c r="N50" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="O50" s="14">
+        <v>16</v>
+      </c>
+      <c r="P50" s="14">
+        <f t="shared" si="9"/>
+        <v>0.60480000000000012</v>
+      </c>
+      <c r="Q50" s="14">
+        <v>2400</v>
+      </c>
+      <c r="R50" s="14">
+        <v>256</v>
+      </c>
+      <c r="S50" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="T50" s="14">
+        <v>8000</v>
+      </c>
+      <c r="W50" s="14">
+        <v>13.635</v>
+      </c>
+      <c r="Y50" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>13.635/</v>
+      </c>
+      <c r="AC50" s="52">
+        <f>700000/1.08 /8</f>
+        <v>81018.518518518511</v>
+      </c>
+      <c r="AE50" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF50" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32">
+      <c r="B51" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="C51" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="D51" s="14">
+        <v>2</v>
+      </c>
+      <c r="E51" s="14">
+        <v>3584</v>
+      </c>
+      <c r="F51" s="42">
+        <v>9.5</v>
+      </c>
+      <c r="G51" s="42">
+        <v>4.7</v>
+      </c>
+      <c r="H51" s="42">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I51" s="42">
+        <v>720</v>
+      </c>
+      <c r="J51" s="28">
+        <v>1</v>
+      </c>
+      <c r="K51" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="L51" s="14">
+        <v>2</v>
+      </c>
+      <c r="M51" s="14">
+        <v>18</v>
+      </c>
+      <c r="N51" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="O51" s="14">
+        <v>16</v>
+      </c>
+      <c r="P51" s="14">
+        <f t="shared" si="9"/>
+        <v>0.60480000000000012</v>
+      </c>
+      <c r="Q51" s="14">
+        <v>2400</v>
+      </c>
+      <c r="R51" s="14">
+        <v>256</v>
+      </c>
+      <c r="S51" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="T51" s="14">
+        <v>8000</v>
+      </c>
+      <c r="W51" s="14">
+        <v>13.635</v>
+      </c>
+      <c r="Y51" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>13.635/</v>
+      </c>
+      <c r="AC51" s="52">
+        <f>840000/1.08 /8</f>
+        <v>97222.222222222219</v>
+      </c>
+      <c r="AE51" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF51" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32">
+      <c r="B52" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="C52" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="D52" s="14">
+        <v>2</v>
+      </c>
+      <c r="E52" s="14">
+        <v>3584</v>
+      </c>
+      <c r="F52" s="42">
+        <v>9.5</v>
+      </c>
+      <c r="G52" s="42">
+        <v>4.7</v>
+      </c>
+      <c r="H52" s="42">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I52" s="42">
+        <v>720</v>
+      </c>
+      <c r="J52" s="28">
+        <v>1</v>
+      </c>
+      <c r="K52" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="L52" s="14">
+        <v>2</v>
+      </c>
+      <c r="M52" s="14">
+        <v>18</v>
+      </c>
+      <c r="N52" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="O52" s="14">
+        <v>16</v>
+      </c>
+      <c r="P52" s="14">
+        <f t="shared" ref="P52:P53" si="10">M52*N52*O52/1000</f>
+        <v>0.60480000000000012</v>
+      </c>
+      <c r="Q52" s="14">
+        <v>2400</v>
+      </c>
+      <c r="R52" s="14">
+        <v>256</v>
+      </c>
+      <c r="S52" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="T52" s="14">
+        <v>8000</v>
+      </c>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="14">
+        <v>13.635</v>
+      </c>
+      <c r="X52" s="13"/>
+      <c r="Y52" s="14" t="str">
+        <f t="shared" ref="Y52:Y53" si="11">W52&amp;"/"&amp;X52</f>
+        <v>13.635/</v>
+      </c>
+      <c r="AC52" s="52">
+        <f>1000000/1.08 /8</f>
+        <v>115740.74074074073</v>
+      </c>
+      <c r="AE52" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF52" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32">
+      <c r="B53" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="C53" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="D53" s="14">
+        <v>2</v>
+      </c>
+      <c r="E53" s="14">
+        <v>3584</v>
+      </c>
+      <c r="F53" s="42">
+        <v>9.5</v>
+      </c>
+      <c r="G53" s="42">
+        <v>4.7</v>
+      </c>
+      <c r="H53" s="42">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I53" s="42">
+        <v>720</v>
+      </c>
+      <c r="J53" s="28">
+        <v>1</v>
+      </c>
+      <c r="K53" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="L53" s="14">
+        <v>2</v>
+      </c>
+      <c r="M53" s="14">
+        <v>18</v>
+      </c>
+      <c r="N53" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="O53" s="14">
+        <v>16</v>
+      </c>
+      <c r="P53" s="14">
+        <f t="shared" si="10"/>
+        <v>0.60480000000000012</v>
+      </c>
+      <c r="Q53" s="14">
+        <v>2400</v>
+      </c>
+      <c r="R53" s="14">
+        <v>256</v>
+      </c>
+      <c r="S53" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="T53" s="14">
+        <v>8000</v>
+      </c>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="14">
+        <v>13.635</v>
+      </c>
+      <c r="X53" s="13"/>
+      <c r="Y53" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>13.635/</v>
+      </c>
+      <c r="AC53" s="52">
+        <f>1200000/1.08 /8</f>
+        <v>138888.88888888888</v>
+      </c>
+      <c r="AE53" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF53" s="16" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -8066,6 +8958,30 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AG33">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH33">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG34:AG35">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -8077,7 +8993,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH33">
+  <conditionalFormatting sqref="AH34:AH35">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -8090,7 +9006,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG34:AG35">
-    <cfRule type="colorScale" priority="53">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8102,7 +9018,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH34:AH35">
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8113,57 +9029,33 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG34:AG35">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH34:AH35">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="FF19:XFD20 FF31:XFD31 Z31 U30:Y31 T30 S30:S31 R30 Q30:Q31 P30 L29:O31 A28:K30 Z35 A17 A18:I18 A21:Q21 S21:V21 K18:V18 A22:V22 Z18:AD22 W18:W22 A12:AD12 B8:AD8 A7:A8 A5:M6 B7:M7 B9:M9 A10:M11 N9:AD11 A23:AD25 A27:M27 L28:M28 N27:O28 A26:O26 P26:AD28 A32:AD32 A34:M34 N34:P35 AG32:XFD34 AG19:AI20 AG35:AI35 AG21:XFD30 AF32:AF35 AF18:AF30 AG5:XFD18 AE5:AF5 Q34:X34 AC34:AD34 AB35 A13:AA13 A14:AD16 P29:X29 Z29:AD30 A33:X33 Z33:AD33 Z34:AA34 N5:AD7 AE6:AE36 AF6:AF16">
-    <cfRule type="expression" dxfId="61" priority="44">
+  <conditionalFormatting sqref="FF19:XFD20 FF31:XFD31 Z31 U30:Y31 T30 S30:S31 R30 Q30:Q31 P30 L29:O31 A28:K30 Z35 A17 B18:I18 A21:Q21 S21:V21 K18:V18 A22:V22 Z18:AD22 W18:W22 A12:AD12 B8:AD8 A7:A8 A5:M6 B7:M7 B9:M9 A10:M11 N9:AD11 A23:AD25 A27:M27 L28:M28 N27:O28 A26:O26 P26:AD28 A32:AD32 A34:M34 N34:P35 AG32:XFD34 AG19:AI20 AG35:AI35 AG21:XFD30 AF32:AF35 AF18:AF30 AG5:XFD18 AE5:AF5 Q34:X34 AC34:AD34 AB35 A13:AA13 A14:AD16 P29:X29 Z29:AD30 A33:X33 Z33:AD33 Z34:AA34 N5:AD7 AE6:AE36 AF6:AF16">
+    <cfRule type="expression" dxfId="78" priority="49">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13">
-    <cfRule type="expression" dxfId="60" priority="31">
+    <cfRule type="expression" dxfId="77" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="59" priority="30">
+    <cfRule type="expression" dxfId="76" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:M35 Q35:X35">
-    <cfRule type="expression" dxfId="58" priority="29">
+    <cfRule type="expression" dxfId="75" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB34">
-    <cfRule type="expression" dxfId="57" priority="28">
+    <cfRule type="expression" dxfId="74" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG32:AG35 AG21:AG30 AG5:AG18">
-    <cfRule type="colorScale" priority="129">
+    <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8175,7 +9067,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH32:AH35 AH21:AH30 AH5:AH18">
-    <cfRule type="colorScale" priority="133">
+    <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8187,7 +9079,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG32:AG33 AG21:AG30 AG5:AG18">
-    <cfRule type="colorScale" priority="137">
+    <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8199,7 +9091,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH32:AH33 AH21:AH30 AH5:AH18">
-    <cfRule type="colorScale" priority="141">
+    <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8211,7 +9103,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI32:AI35 AI21:AI30 AI5:AI18">
-    <cfRule type="colorScale" priority="145">
+    <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8223,7 +9115,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG21:AG30 AG5:AG18">
-    <cfRule type="colorScale" priority="149">
+    <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8235,7 +9127,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH21:AH30 AH5:AH18">
-    <cfRule type="colorScale" priority="152">
+    <cfRule type="colorScale" priority="157">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8247,68 +9139,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:Q20 S20:V20">
-    <cfRule type="expression" dxfId="56" priority="20">
+    <cfRule type="expression" dxfId="73" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG20">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH20">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG20">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH20">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI20">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG20">
@@ -8335,18 +9167,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:I19">
-    <cfRule type="expression" dxfId="55" priority="11">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:D19 R20:R21 K19:V19">
-    <cfRule type="expression" dxfId="54" priority="12">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG19">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="AG20">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8357,8 +9179,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH19">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="AH20">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8369,8 +9191,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG19">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="AI20">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8381,8 +9203,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH19">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="AG20">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH20">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8393,16 +9227,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI19">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
+  <conditionalFormatting sqref="E19:I19">
+    <cfRule type="expression" dxfId="72" priority="16">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:D19 R20:R21 K19:V19">
+    <cfRule type="expression" dxfId="71" priority="17">
+      <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG19">
@@ -8429,59 +9261,150 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AG19">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH19">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI19">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG19">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH19">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P37:P39">
-    <cfRule type="expression" dxfId="53" priority="10">
+    <cfRule type="expression" dxfId="70" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y17:Y22">
-    <cfRule type="expression" dxfId="52" priority="9">
+    <cfRule type="expression" dxfId="69" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y29">
-    <cfRule type="expression" dxfId="51" priority="8">
+    <cfRule type="expression" dxfId="68" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y33:Y35">
-    <cfRule type="expression" dxfId="50" priority="7">
+    <cfRule type="expression" dxfId="67" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y37:Y39">
-    <cfRule type="expression" dxfId="49" priority="6">
+    <cfRule type="expression" dxfId="66" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44">
-    <cfRule type="expression" dxfId="48" priority="5">
+    <cfRule type="expression" dxfId="65" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y44:Y45">
-    <cfRule type="expression" dxfId="47" priority="4">
+    <cfRule type="expression" dxfId="64" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P42:P43">
-    <cfRule type="expression" dxfId="46" priority="3">
+    <cfRule type="expression" dxfId="63" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y42:Y43">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="62" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P45">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="61" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P47:P51">
+    <cfRule type="expression" dxfId="60" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y47:Y51">
+    <cfRule type="expression" dxfId="59" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE47:AE53">
+    <cfRule type="expression" dxfId="14" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P52:P53">
+    <cfRule type="expression" dxfId="13" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y52:Y53">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A18" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="56" fitToWidth="2" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="Y47:Y51" emptyCellReference="1"/>
+  </ignoredErrors>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -8493,20 +9416,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AC55"/>
+  <dimension ref="A1:AC63"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
+      <selection pane="bottomRight" activeCell="U59" sqref="U59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.83203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="37.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" customWidth="1"/>
     <col min="4" max="4" width="40.1640625" style="13" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" style="13" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" customWidth="1"/>
@@ -8529,144 +9452,144 @@
   <sheetData>
     <row r="1" spans="1:29" s="49" customFormat="1">
       <c r="A1" s="48" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="48" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D1" s="47"/>
       <c r="E1" s="47"/>
       <c r="F1" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="P1" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q1" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="R1" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="S1" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="T1" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="U1" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="V1" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="W1" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="X1" s="48" t="s">
         <v>221</v>
-      </c>
-      <c r="K1" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="L1" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="M1" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="N1" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="O1" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="P1" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q1" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="R1" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="S1" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="T1" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="U1" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="V1" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="W1" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="X1" s="48" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="12" customFormat="1" ht="21" thickBot="1">
       <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="N2" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="U2" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="V2" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="W2" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="O2" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="P2" s="29" t="s">
+      <c r="X2" s="30" t="s">
         <v>138</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="S2" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="T2" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="U2" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="V2" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="W2" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="X2" s="30" t="s">
-        <v>146</v>
       </c>
       <c r="Y2" s="13"/>
       <c r="AC2" s="13"/>
@@ -8676,18 +9599,19 @@
         <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
         <v>Amazon</v>
       </c>
-      <c r="B3" s="57" t="s">
-        <v>123</v>
+      <c r="B3" s="13" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C1",FALSE) &amp; (INDIRECT("AC" &amp; ROW())+1))</f>
+        <v>https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22240</v>
       </c>
       <c r="C3" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>p2.16xlarge on-demand</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F3" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -8765,10 +9689,10 @@
         <v>p2.8xlarge on-demand</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F4" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -8779,7 +9703,7 @@
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19" t="str">
-        <f t="shared" ref="K4:K55" ca="1" si="3">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="K4:K62" ca="1" si="3">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>USD</v>
       </c>
       <c r="L4" s="14">
@@ -8846,10 +9770,10 @@
         <v>p2.xlarge on-demand</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F5" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -8927,10 +9851,10 @@
         <v>p2 dedicated host On-demand</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F6" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -9008,10 +9932,10 @@
         <v>p2 dedicated host 1 year no Upfront</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -9095,10 +10019,10 @@
         <v>p2 dedicated host 1 year 100% Upfront</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -9176,8 +10100,9 @@
         <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
         <v>Softlayer</v>
       </c>
-      <c r="B9" s="55" t="s">
-        <v>124</v>
+      <c r="B9" s="13" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C1",FALSE) &amp; (INDIRECT("AC" &amp; ROW())+1))</f>
+        <v>http://www.softlayer.com/gpu</v>
       </c>
       <c r="C9" s="22" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9185,7 +10110,7 @@
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="22" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -9264,7 +10189,7 @@
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="22" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F10" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -9343,7 +10268,7 @@
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="22" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -9422,7 +10347,7 @@
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -9497,8 +10422,9 @@
         <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
         <v>Nimbix</v>
       </c>
-      <c r="B13" s="55" t="s">
-        <v>125</v>
+      <c r="B13" s="13" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C1",FALSE) &amp; (INDIRECT("AC" &amp; ROW())+1))</f>
+        <v>https://www.nimbix.net/nimbix-cloud-demand-pricing/</v>
       </c>
       <c r="C13" s="22" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -9506,7 +10432,7 @@
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F13" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -9586,7 +10512,7 @@
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F14" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -9663,7 +10589,7 @@
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F15" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -9721,8 +10647,9 @@
         <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
         <v>Cirrascale</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>126</v>
+      <c r="B16" s="13" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C1",FALSE) &amp; (INDIRECT("AC" &amp; ROW())+1))</f>
+        <v>http://www.cirrascale.com/cloud/plans.aspx</v>
       </c>
       <c r="C16" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!B" &amp; INDIRECT("AC" &amp; ROW())) &amp; " monthly"</f>
@@ -9730,7 +10657,7 @@
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -9810,7 +10737,7 @@
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19">
@@ -9890,7 +10817,7 @@
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -9970,7 +10897,7 @@
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19">
@@ -10050,7 +10977,7 @@
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -10130,7 +11057,7 @@
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19">
@@ -10210,7 +11137,7 @@
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -10290,7 +11217,7 @@
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19">
@@ -10370,7 +11297,7 @@
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -10450,7 +11377,7 @@
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19">
@@ -10530,7 +11457,7 @@
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -10610,7 +11537,7 @@
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19">
@@ -10673,7 +11600,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="16">
-        <f t="shared" ref="X27:X55" ca="1" si="15">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="X27:X62" ca="1" si="15">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>0</v>
       </c>
       <c r="Y27" s="16"/>
@@ -10690,7 +11617,7 @@
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
@@ -10770,7 +11697,7 @@
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19">
@@ -10846,8 +11773,9 @@
         <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
         <v>Sakura</v>
       </c>
-      <c r="B30" s="56" t="s">
-        <v>222</v>
+      <c r="B30" s="13" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C1",FALSE) &amp; (INDIRECT("AC" &amp; ROW())+1))</f>
+        <v>https://www.sakura.ad.jp/koukaryoku/specification/</v>
       </c>
       <c r="C30" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -10855,7 +11783,7 @@
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -10938,7 +11866,7 @@
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
@@ -11019,7 +11947,7 @@
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
@@ -11098,8 +12026,9 @@
         <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
         <v>LeaderTelecom</v>
       </c>
-      <c r="B33" s="58" t="s">
-        <v>241</v>
+      <c r="B33" s="13" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C1",FALSE) &amp; (INDIRECT("AC" &amp; ROW())+1))</f>
+        <v>https://www.leadergpu.com</v>
       </c>
       <c r="C33" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" minutely"</f>
@@ -11107,7 +12036,7 @@
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F33" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -11118,11 +12047,11 @@
         <v>EUR</v>
       </c>
       <c r="L33" s="14">
-        <f t="shared" ref="L33:L55" ca="1" si="17">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="L33:L62" ca="1" si="17">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("AC"&amp;ROW()))</f>
         <v>0.43519999999999998</v>
       </c>
       <c r="M33" s="14">
-        <f t="shared" ref="M33:M55" ca="1" si="18">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="M33:M62" ca="1" si="18">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("AC"&amp;ROW()))</f>
         <v>16.456</v>
       </c>
       <c r="N33" s="14" t="str">
@@ -11179,7 +12108,7 @@
         <v>2 x GeForce GTX 1080 weekly</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="G34" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -11251,7 +12180,7 @@
         <v>2 x GeForce GTX 1080 monthly</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H35" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -11324,7 +12253,7 @@
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F36" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -11397,7 +12326,7 @@
         <v>4 x GeForce GTX 1080 weekly</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="19">
@@ -11471,7 +12400,7 @@
         <v>4 x GeForce GTX 1080 monthly</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F38" s="13"/>
       <c r="H38" s="19">
@@ -11545,7 +12474,7 @@
       </c>
       <c r="D39" s="41"/>
       <c r="E39" s="41" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="F39" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -11622,7 +12551,7 @@
       </c>
       <c r="D40" s="43"/>
       <c r="E40" s="41" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="F40" s="43"/>
       <c r="G40" s="19">
@@ -11699,7 +12628,7 @@
       </c>
       <c r="D41" s="43"/>
       <c r="E41" s="41" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
@@ -11775,7 +12704,7 @@
         <v>1 x Tesla P100 minutely</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="F42" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -11851,7 +12780,7 @@
         <v>1 x Tesla P100 weekly</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="19">
@@ -11928,7 +12857,7 @@
         <v>1 x Tesla P100 monthly</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="F44" s="13"/>
       <c r="H44" s="19">
@@ -12005,7 +12934,7 @@
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="22" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F45" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -12081,7 +13010,7 @@
         <v>2 x Tesla P100 weekly</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="19">
@@ -12158,7 +13087,7 @@
         <v>2 x Tesla P100 monthly</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F47" s="13"/>
       <c r="H47" s="19">
@@ -12235,7 +13164,7 @@
       </c>
       <c r="D48" s="41"/>
       <c r="E48" s="22" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F48" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -12308,14 +13237,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="3:29">
+    <row r="49" spans="1:29">
       <c r="C49" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" weekly"</f>
         <v>2 x Tesla P100 NVLink weekly</v>
       </c>
       <c r="D49" s="43"/>
       <c r="E49" s="22" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F49" s="43"/>
       <c r="G49" s="19">
@@ -12338,7 +13267,7 @@
         <v>19</v>
       </c>
       <c r="N49" s="14" t="str">
-        <f t="shared" ref="N49:W55" ca="1" si="20">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="N49:W62" ca="1" si="20">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>P100</v>
       </c>
       <c r="O49" s="14">
@@ -12388,14 +13317,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="3:29">
+    <row r="50" spans="1:29">
       <c r="C50" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" monthly"</f>
         <v>2 x Tesla P100 NVLink monthly</v>
       </c>
       <c r="D50" s="43"/>
       <c r="E50" s="22" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F50" s="43"/>
       <c r="G50" s="43"/>
@@ -12468,13 +13397,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="3:29">
+    <row r="51" spans="1:29">
       <c r="C51" s="22" t="str">
-        <f t="shared" ref="C51:C55" ca="1" si="21">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" monthly"</f>
+        <f t="shared" ref="C51:C63" ca="1" si="21">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" monthly"</f>
         <v>4 x Tesla P100 NVLink monthly</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F51" s="43"/>
       <c r="G51" s="43"/>
@@ -12542,13 +13471,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="3:29">
+    <row r="52" spans="1:29">
       <c r="C52" s="22" t="str">
         <f t="shared" ca="1" si="21"/>
         <v>8 x Tesla P100 NVLink monthly</v>
       </c>
       <c r="E52" s="41" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="F52" s="43"/>
       <c r="G52" s="43"/>
@@ -12616,13 +13545,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="3:29">
+    <row r="53" spans="1:29">
       <c r="C53" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" minutely"</f>
         <v>2 x FirePro S9300x2 minutely</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F53" s="13">
         <f t="shared" ref="F53" ca="1" si="24">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -12690,13 +13619,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="3:29">
+    <row r="54" spans="1:29">
       <c r="C54" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;"weekly"</f>
         <v>2 x FirePro S9300x2weekly</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F54" s="43"/>
       <c r="G54" s="19">
@@ -12764,18 +13693,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="3:29">
+    <row r="55" spans="1:29">
       <c r="C55" s="22" t="str">
         <f t="shared" ca="1" si="21"/>
         <v>2 x FirePro S9300x2 monthly</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F55" s="43"/>
       <c r="G55" s="43"/>
       <c r="H55" s="19">
-        <f t="shared" ref="H55" ca="1" si="26">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="H55:I62" ca="1" si="26">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>1630.18</v>
       </c>
       <c r="K55" s="19" t="str">
@@ -12838,237 +13767,758 @@
         <v>45</v>
       </c>
     </row>
+    <row r="56" spans="1:29" ht="20">
+      <c r="A56" s="21" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
+        <v>The University of Tokyo</v>
+      </c>
+      <c r="B56" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C1",FALSE) &amp; (INDIRECT("AC" &amp; ROW())+1))</f>
+        <v>http://www.cc.u-tokyo.ac.jp/system/reedbush/index-e.html</v>
+      </c>
+      <c r="C56" s="22" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
+        <v>Reedbush-H Personal (educational)</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="I56" s="19">
+        <f t="shared" ca="1" si="26"/>
+        <v>46296.296296296292</v>
+      </c>
+      <c r="K56" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>JPY</v>
+      </c>
+      <c r="L56" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>1.2096000000000002</v>
+      </c>
+      <c r="M56" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>19</v>
+      </c>
+      <c r="N56" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>P100</v>
+      </c>
+      <c r="O56" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="P56" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v xml:space="preserve">Xeon E5-2695v4 </v>
+      </c>
+      <c r="Q56" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="R56" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>256</v>
+      </c>
+      <c r="S56" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>PFS</v>
+      </c>
+      <c r="T56" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>1000</v>
+      </c>
+      <c r="U56" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W56" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>13.635/</v>
+      </c>
+      <c r="X56" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Max16 nodes. Included (17280/2.5=)6912 node hours if 1 node is used, 3456 node hours if more than 1 node is used simulateously.</v>
+      </c>
+      <c r="AC56" s="45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29">
+      <c r="C57" s="22" t="str">
+        <f t="shared" ref="C57:C62" ca="1" si="27">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
+        <v>Reedbush-H Group 4 (educational)</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="I57" s="19">
+        <f t="shared" ca="1" si="26"/>
+        <v>92592.592592592584</v>
+      </c>
+      <c r="K57" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>JPY</v>
+      </c>
+      <c r="L57" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>1.2096000000000002</v>
+      </c>
+      <c r="M57" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>19</v>
+      </c>
+      <c r="N57" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>P100</v>
+      </c>
+      <c r="O57" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="P57" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v xml:space="preserve">Xeon E5-2695v4 </v>
+      </c>
+      <c r="Q57" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="R57" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>256</v>
+      </c>
+      <c r="S57" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>PFS</v>
+      </c>
+      <c r="T57" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>4000</v>
+      </c>
+      <c r="U57" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V57" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W57" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>13.635/</v>
+      </c>
+      <c r="X57" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Max 128 nodes. Included 13824 node hours if 1 node is used, 6912 node hours if more than 1 node is used simultaneously.</v>
+      </c>
+      <c r="AC57" s="45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29">
+      <c r="C58" s="22" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>Reedbush-H Group 4</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="I58" s="19">
+        <f t="shared" ca="1" si="26"/>
+        <v>111111.11111111111</v>
+      </c>
+      <c r="K58" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>JPY</v>
+      </c>
+      <c r="L58" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>1.2096000000000002</v>
+      </c>
+      <c r="M58" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>19</v>
+      </c>
+      <c r="N58" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>P100</v>
+      </c>
+      <c r="O58" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="P58" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v xml:space="preserve">Xeon E5-2695v4 </v>
+      </c>
+      <c r="Q58" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="R58" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>256</v>
+      </c>
+      <c r="S58" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>PFS</v>
+      </c>
+      <c r="T58" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>4000</v>
+      </c>
+      <c r="U58" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V58" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W58" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>13.635/</v>
+      </c>
+      <c r="X58" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Max 128 nodes. Included 13824 node hours if 1 node is used, 6912 node hours if more than 1 node is used simultaneously.</v>
+      </c>
+      <c r="AC58" s="45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29">
+      <c r="C59" s="22" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>Reedbush-H Group 8 (educational)</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="I59" s="19">
+        <f t="shared" ca="1" si="26"/>
+        <v>81018.518518518511</v>
+      </c>
+      <c r="K59" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>JPY</v>
+      </c>
+      <c r="L59" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>1.2096000000000002</v>
+      </c>
+      <c r="M59" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>19</v>
+      </c>
+      <c r="N59" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>P100</v>
+      </c>
+      <c r="O59" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="P59" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v xml:space="preserve">Xeon E5-2695v4 </v>
+      </c>
+      <c r="Q59" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="R59" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>256</v>
+      </c>
+      <c r="S59" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>PFS</v>
+      </c>
+      <c r="T59" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>8000</v>
+      </c>
+      <c r="U59" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V59" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W59" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>13.635/</v>
+      </c>
+      <c r="X59" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Max 128 nodes. Included 27648 node hours if 2 nodes are used, 13824 node hours if more than 2 node are used simultaneously.</v>
+      </c>
+      <c r="AC59" s="45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29">
+      <c r="C60" s="22" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>Reedbush-H Group 8</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="I60" s="19">
+        <f t="shared" ca="1" si="26"/>
+        <v>97222.222222222219</v>
+      </c>
+      <c r="K60" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>JPY</v>
+      </c>
+      <c r="L60" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>1.2096000000000002</v>
+      </c>
+      <c r="M60" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>19</v>
+      </c>
+      <c r="N60" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>P100</v>
+      </c>
+      <c r="O60" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="P60" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v xml:space="preserve">Xeon E5-2695v4 </v>
+      </c>
+      <c r="Q60" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="R60" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>256</v>
+      </c>
+      <c r="S60" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>PFS</v>
+      </c>
+      <c r="T60" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>8000</v>
+      </c>
+      <c r="U60" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V60" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W60" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>13.635/</v>
+      </c>
+      <c r="X60" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Max 128 nodes. Included 27648 node hours if 2 nodes are used, 13824 node hours if more than 2 node are used simultaneously.</v>
+      </c>
+      <c r="AC60" s="45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29">
+      <c r="C61" s="22" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>Reedbush-H Group 8 dedicated (educational)</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="I61" s="19">
+        <f t="shared" ca="1" si="26"/>
+        <v>115740.74074074073</v>
+      </c>
+      <c r="K61" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>JPY</v>
+      </c>
+      <c r="L61" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>1.2096000000000002</v>
+      </c>
+      <c r="M61" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>19</v>
+      </c>
+      <c r="N61" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>P100</v>
+      </c>
+      <c r="O61" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="P61" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v xml:space="preserve">Xeon E5-2695v4 </v>
+      </c>
+      <c r="Q61" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="R61" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>256</v>
+      </c>
+      <c r="S61" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>PFS</v>
+      </c>
+      <c r="T61" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>8000</v>
+      </c>
+      <c r="U61" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V61" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W61" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>13.635/</v>
+      </c>
+      <c r="X61" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Max 128 nodes. Included 27648 node hours if 2 nodes are used, 13824 node hours if more than 2 node are used simultaneously.</v>
+      </c>
+      <c r="AC61" s="45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29">
+      <c r="C62" s="22" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>Reedbush-H Group 8 dedicated</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="I62" s="19">
+        <f t="shared" ca="1" si="26"/>
+        <v>138888.88888888888</v>
+      </c>
+      <c r="K62" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>JPY</v>
+      </c>
+      <c r="L62" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>1.2096000000000002</v>
+      </c>
+      <c r="M62" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>19</v>
+      </c>
+      <c r="N62" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>P100</v>
+      </c>
+      <c r="O62" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="P62" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v xml:space="preserve">Xeon E5-2695v4 </v>
+      </c>
+      <c r="Q62" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="R62" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>256</v>
+      </c>
+      <c r="S62" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>PFS</v>
+      </c>
+      <c r="T62" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>8000</v>
+      </c>
+      <c r="U62" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V62" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W62" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>13.635/</v>
+      </c>
+      <c r="X62" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Max 128 nodes. Included 27648 node hours if 2 nodes are used, 13824 node hours if more than 2 node are used simultaneously.</v>
+      </c>
+      <c r="AC62" s="45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29">
+      <c r="C63" s="22"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="I23:J23 I25:J25 I27:J27 I29:J29 F25:G25 F29:G29 H22:H31 S13:S15 E23:G23 E18:J22 C30:C32 E26:G28 D26:D33 E17:F17 D10:D24 D3:D8 C3:C21 E7:G7 E9:J16 E4:J6 K4:K35 E30:I32 M32:O41 N16:O16 L30:O31 E3:O3 L4:O15 M16:M17 L16:L29 M18:O29 E8:H8 J8 L42:S55 T45:X55 K48:K55">
-    <cfRule type="expression" dxfId="43" priority="110">
+  <conditionalFormatting sqref="I23:J23 I25:J25 I27:J27 I29:J29 F25:G25 F29:G29 H22:H31 S13:S15 E23:G23 E18:J22 C30:C32 E26:G28 D26:D33 E17:F17 D10:D24 D3:D8 C3:C21 E7:G7 E9:J16 E4:J6 K4:K35 E30:I32 M32:O41 N16:O16 L30:O31 E3:O3 L4:O15 M16:M17 L16:L29 M18:O29 E8:H8 J8 K48:K55 L42:S62 T45:X62">
+    <cfRule type="expression" dxfId="58" priority="112">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25 I24:J24 F24:G24">
-    <cfRule type="expression" dxfId="42" priority="108">
+    <cfRule type="expression" dxfId="57" priority="110">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:J26">
-    <cfRule type="expression" dxfId="41" priority="107">
+    <cfRule type="expression" dxfId="56" priority="109">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:J28">
-    <cfRule type="expression" dxfId="40" priority="106">
+    <cfRule type="expression" dxfId="55" priority="108">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="39" priority="97">
+    <cfRule type="expression" dxfId="54" priority="99">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P15 P18:P41">
-    <cfRule type="expression" dxfId="38" priority="52">
+    <cfRule type="expression" dxfId="53" priority="54">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:W3 T4:W12 T18:V31 T13:V15 W13:W31 R3:R15 R18:R41 X6:X41 T32:W38 U39:W41 T39:T44">
-    <cfRule type="expression" dxfId="37" priority="50">
+    <cfRule type="expression" dxfId="52" priority="52">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C23">
-    <cfRule type="expression" dxfId="36" priority="59">
+    <cfRule type="expression" dxfId="51" priority="61">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C25">
-    <cfRule type="expression" dxfId="35" priority="58">
+    <cfRule type="expression" dxfId="50" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C27">
-    <cfRule type="expression" dxfId="34" priority="57">
+    <cfRule type="expression" dxfId="49" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C29">
-    <cfRule type="expression" dxfId="33" priority="56">
+    <cfRule type="expression" dxfId="48" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q15 Q18:Q41">
-    <cfRule type="expression" dxfId="32" priority="51">
+    <cfRule type="expression" dxfId="47" priority="53">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S12">
-    <cfRule type="expression" dxfId="31" priority="49">
+    <cfRule type="expression" dxfId="46" priority="51">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18:S41">
-    <cfRule type="expression" dxfId="30" priority="48">
+    <cfRule type="expression" dxfId="45" priority="50">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:J17 N17:O17">
-    <cfRule type="expression" dxfId="29" priority="39">
+    <cfRule type="expression" dxfId="44" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:P17">
-    <cfRule type="expression" dxfId="28" priority="38">
+    <cfRule type="expression" dxfId="43" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16:V17 R16:R17">
-    <cfRule type="expression" dxfId="27" priority="36">
+    <cfRule type="expression" dxfId="42" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16:Q17">
-    <cfRule type="expression" dxfId="26" priority="37">
+    <cfRule type="expression" dxfId="41" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:S17">
-    <cfRule type="expression" dxfId="25" priority="35">
+    <cfRule type="expression" dxfId="40" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="24" priority="34">
+    <cfRule type="expression" dxfId="39" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="23" priority="33">
+    <cfRule type="expression" dxfId="38" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="22" priority="32">
+    <cfRule type="expression" dxfId="37" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:L41">
-    <cfRule type="expression" dxfId="21" priority="31">
+    <cfRule type="expression" dxfId="36" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="20" priority="30">
+    <cfRule type="expression" dxfId="35" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="19" priority="29">
+    <cfRule type="expression" dxfId="34" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="18" priority="28">
+    <cfRule type="expression" dxfId="33" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="17" priority="26">
+    <cfRule type="expression" dxfId="32" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:J32">
-    <cfRule type="expression" dxfId="16" priority="25">
+    <cfRule type="expression" dxfId="31" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36 K36:K47">
-    <cfRule type="expression" dxfId="15" priority="24">
+    <cfRule type="expression" dxfId="30" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="expression" dxfId="14" priority="23">
+    <cfRule type="expression" dxfId="29" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="13" priority="22">
+    <cfRule type="expression" dxfId="28" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="12" priority="17">
+    <cfRule type="expression" dxfId="27" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="11" priority="16">
+    <cfRule type="expression" dxfId="26" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="expression" dxfId="10" priority="15">
+    <cfRule type="expression" dxfId="25" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="expression" dxfId="9" priority="14">
+    <cfRule type="expression" dxfId="24" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="8" priority="13">
+    <cfRule type="expression" dxfId="23" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U42:X44">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="22" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="20" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="19" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="17" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50:H52 H55">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49 G54">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="15" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56:I62">
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56:K62">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1"/>
-    <hyperlink ref="B16" r:id="rId2"/>
-    <hyperlink ref="B30" r:id="rId3"/>
-    <hyperlink ref="D3" r:id="rId4"/>
-    <hyperlink ref="D4:D5" r:id="rId5" display="https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22240"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="B33" r:id="rId8"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4:D5" r:id="rId2" display="https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22240"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="D8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Comparison table updated 3.xlsx
+++ b/Comparison table updated 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20" windowWidth="41440" windowHeight="24280" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="20" windowWidth="38780" windowHeight="18100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -572,12 +572,65 @@
         </r>
       </text>
     </comment>
+    <comment ref="D55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Peter Bryzgalov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+See notes.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB55" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Peter Bryzgalov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+Monthly prices are same as hourly ones counting 31 days in a month.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="319">
   <si>
     <t>Cloud server providers with GPU</t>
     <phoneticPr fontId="2"/>
@@ -1467,291 +1520,362 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SL M60x1 2690v3 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SL K80x1 2690v3 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x2 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x2 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x2 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x4 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x4 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x4 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x8 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x8 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x8 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x Tesla P100</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>40/1</t>
+  </si>
+  <si>
+    <t>1 x Tesla P100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x Tesla P100 NVLink</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4 x Tesla P100 NVLink</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8 x Tesla P100 NVLink</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x FirePro S9300x2</t>
+  </si>
+  <si>
+    <t>2 x 4096</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x 4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x 512</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2609 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SSD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x1 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x1 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT S9300x2 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FirePro S9300x2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT S9300x2 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 NVL min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 NVL m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x4 NVL m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x8 NVL m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 NVL w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT S9300x2 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x1 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The University of Tokyo</t>
+  </si>
+  <si>
+    <t>Reedbush-H Personal (educational)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2630 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Xeon E5-2695v4 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PFS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H Group 4 (educational)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H Group 4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H Group 8 (educational)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H Group 8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>per hour</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>per week</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>per month (30 days)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>per year</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.cc.u-tokyo.ac.jp/system/reedbush/index-e.html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.cc.u-tokyo.ac.jp/system/reedbush/reedbush_course.html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Max 128 nodes. Included 13824 node hours if 1 node is used, 6912 node hours if more than 1 node is used simultaneously.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Max 128 nodes. Included 27648 node hours if 2 nodes are used, 13824 node hours if more than 2 node are used simultaneously.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H Group 8 dedicated (educational)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H Group 8 dedicated</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Max16 nodes. Included (17280/2.5=)6912 node hours if 1 node is used, 3456 node hours if more than 1 node is used simulateously.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.nimbix.net/nimbix-cloud-demand-pricing/</t>
+  </si>
+  <si>
+    <t>TU personal</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU gr.4 edu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU gr.4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU gr.8 edu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU gr.8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU gr.8 ddc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU gr.8 ddc. edu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS Azure</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NC12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NC24</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NC24r</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>K80</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://venturebeat.com/2016/08/04/microsoft-azure-releases-n-series-gpu-instances-in-preview/</t>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/en-us/pricing/details/virtual-machines/linux/</t>
+  </si>
+  <si>
+    <t>NC6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2690v3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 37.</t>
-  </si>
-  <si>
-    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 38.</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SL M60x1 2690v3 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SL K80x1 2690v3 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x2 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x2 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x2 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x4 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x4 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x4 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x8 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x8 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x8 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x Tesla P100</t>
+    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RDMA capable</t>
   </si>
   <si>
     <t>SSD</t>
-  </si>
-  <si>
-    <t>40/1</t>
-  </si>
-  <si>
-    <t>1 x Tesla P100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x Tesla P100 NVLink</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4 x Tesla P100 NVLink</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8 x Tesla P100 NVLink</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x FirePro S9300x2</t>
-  </si>
-  <si>
-    <t>2 x 4096</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x 4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x 512</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2609 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SSD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x1 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x1 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT S9300x2 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FirePro S9300x2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT S9300x2 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 NVL min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 NVL m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x4 NVL m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x8 NVL m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 NVL w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT S9300x2 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x1 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>The University of Tokyo</t>
-  </si>
-  <si>
-    <t>Reedbush-H Personal (educational)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2630 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Xeon E5-2695v4 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>P100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PFS</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H Group 4 (educational)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H Group 4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H Group 8 (educational)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H Group 8</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>per hour</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>per week</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>per month (30 days)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>per year</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.cc.u-tokyo.ac.jp/system/reedbush/index-e.html</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.cc.u-tokyo.ac.jp/system/reedbush/reedbush_course.html</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Max 128 nodes. Included 13824 node hours if 1 node is used, 6912 node hours if more than 1 node is used simultaneously.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Max 128 nodes. Included 27648 node hours if 2 nodes are used, 13824 node hours if more than 2 node are used simultaneously.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H Group 8 dedicated (educational)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H Group 8 dedicated</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Max16 nodes. Included (17280/2.5=)6912 node hours if 1 node is used, 3456 node hours if more than 1 node is used simulateously.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://www.nimbix.net/nimbix-cloud-demand-pricing/</t>
-  </si>
-  <si>
-    <t>TU personal</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TU gr.4 edu</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TU gr.4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TU gr.8 edu</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TU gr.8</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TU gr.8 ddc</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TU gr.8 ddc. edu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Infiniband</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NC6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NC12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NC24</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NC24r</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 GPU in specification is 1/2 of K80 </t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1759,11 +1883,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$$-409]#,##0.00_);\([$$-409]#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="178" formatCode="[$€-2]\ #,##0.00"/>
     <numFmt numFmtId="179" formatCode="[$¥-411]#,##0.00"/>
+    <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -2122,7 +2247,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="669">
+  <cellStyleXfs count="680">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2804,8 +2929,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -2919,8 +3055,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="669">
+  <cellStyles count="680">
     <cellStyle name="$Normal" xfId="356"/>
     <cellStyle name="¥ Normal" xfId="636"/>
     <cellStyle name="€ Normal" xfId="635"/>
@@ -3296,6 +3433,17 @@
     <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="667" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="669" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="671" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="673" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="675" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="677" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="679" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 1 2" xfId="62"/>
     <cellStyle name="Heading 2" xfId="263" builtinId="17" customBuiltin="1"/>
@@ -3591,7 +3739,7 @@
     <cellStyle name="Style 1" xfId="55"/>
     <cellStyle name="Title" xfId="340" builtinId="15" hidden="1"/>
   </cellStyles>
-  <dxfs count="79">
+  <dxfs count="73">
     <dxf>
       <font>
         <color auto="1"/>
@@ -3611,149 +3759,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEAF2F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEAF2F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEAF2F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEAF2F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEAF2F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEAF2F7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4461,6 +4466,83 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
@@ -4756,13 +4838,13 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:FE53"/>
+  <dimension ref="A1:FE58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="AB35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="S35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="AB56" sqref="AB56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -5063,16 +5145,16 @@
         <v>218</v>
       </c>
       <c r="Z4" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA4" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB4" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC4" s="17" t="s">
         <v>282</v>
-      </c>
-      <c r="AA4" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB4" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="AC4" s="17" t="s">
-        <v>285</v>
       </c>
       <c r="AD4" s="17" t="s">
         <v>203</v>
@@ -5152,7 +5234,7 @@
         <v>202</v>
       </c>
       <c r="AF5" s="16" t="s">
-        <v>227</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:161">
@@ -5225,7 +5307,7 @@
         <v>202</v>
       </c>
       <c r="AF6" s="16" t="s">
-        <v>228</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:161">
@@ -5298,7 +5380,7 @@
         <v>202</v>
       </c>
       <c r="AF7" s="16" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:161">
@@ -5980,7 +6062,7 @@
     </row>
     <row r="18" spans="1:161" s="13" customFormat="1">
       <c r="A18" s="56" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>44</v>
@@ -7706,7 +7788,7 @@
         <v>225</v>
       </c>
       <c r="AF37" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="24" customHeight="1">
@@ -7794,7 +7876,7 @@
         <v>225</v>
       </c>
       <c r="AF38" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="28" customHeight="1">
@@ -7879,13 +7961,13 @@
         <v>225</v>
       </c>
       <c r="AF39" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:32" s="13" customFormat="1" ht="28" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="41" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C40" s="42" t="s">
         <v>144</v>
@@ -7934,7 +8016,7 @@
         <v>32</v>
       </c>
       <c r="S40" s="42" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="T40" s="42">
         <v>480</v>
@@ -7948,7 +8030,7 @@
         <v>1</v>
       </c>
       <c r="Y40" s="14" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Z40" s="51">
         <v>3.6</v>
@@ -7963,13 +8045,13 @@
         <v>225</v>
       </c>
       <c r="AF40" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:32" s="13" customFormat="1" ht="28" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="41" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C41" s="57" t="s">
         <v>144</v>
@@ -8018,7 +8100,7 @@
         <v>32</v>
       </c>
       <c r="S41" s="42" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="T41" s="42">
         <v>480</v>
@@ -8032,7 +8114,7 @@
         <v>1</v>
       </c>
       <c r="Y41" s="14" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Z41" s="51">
         <v>4.8</v>
@@ -8047,12 +8129,12 @@
         <v>225</v>
       </c>
       <c r="AF41" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:32">
       <c r="B42" s="22" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C42" s="57" t="s">
         <v>144</v>
@@ -8134,12 +8216,12 @@
         <v>225</v>
       </c>
       <c r="AF42" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:32">
       <c r="B43" s="22" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C43" s="57" t="s">
         <v>144</v>
@@ -8217,12 +8299,12 @@
         <v>225</v>
       </c>
       <c r="AF43" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:32">
       <c r="B44" s="22" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C44" s="57" t="s">
         <v>144</v>
@@ -8249,7 +8331,7 @@
         <v>1</v>
       </c>
       <c r="K44" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L44" s="28">
         <v>2</v>
@@ -8300,21 +8382,21 @@
         <v>225</v>
       </c>
       <c r="AF44" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:32">
       <c r="B45" s="22" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C45" s="57" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D45" s="14">
         <v>2</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F45" s="14">
         <v>13.9</v>
@@ -8323,14 +8405,14 @@
         <v>0.86799999999999999</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J45" s="14"/>
       <c r="K45" s="57" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L45" s="14">
         <v>2</v>
@@ -8355,7 +8437,7 @@
         <v>32</v>
       </c>
       <c r="S45" s="57" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="T45" s="14">
         <v>480</v>
@@ -8385,18 +8467,18 @@
         <v>225</v>
       </c>
       <c r="AF45" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="20">
       <c r="A47" s="21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B47" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="C47" s="57" t="s">
         <v>273</v>
-      </c>
-      <c r="C47" s="57" t="s">
-        <v>276</v>
       </c>
       <c r="D47" s="14">
         <v>2</v>
@@ -8420,7 +8502,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="57" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L47" s="14">
         <v>2</v>
@@ -8445,7 +8527,7 @@
         <v>256</v>
       </c>
       <c r="S47" s="57" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T47" s="14">
         <v>1000</v>
@@ -8467,18 +8549,18 @@
         <v>224</v>
       </c>
       <c r="AF47" s="16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:32">
       <c r="A48" s="16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C48" s="57" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D48" s="14">
         <v>2</v>
@@ -8502,7 +8584,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="57" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L48" s="14">
         <v>2</v>
@@ -8527,7 +8609,7 @@
         <v>256</v>
       </c>
       <c r="S48" s="57" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T48" s="14">
         <v>4000</v>
@@ -8549,18 +8631,18 @@
         <v>224</v>
       </c>
       <c r="AF48" s="16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:32">
       <c r="A49" s="16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C49" s="57" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D49" s="14">
         <v>2</v>
@@ -8584,7 +8666,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="57" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L49" s="14">
         <v>2</v>
@@ -8609,7 +8691,7 @@
         <v>256</v>
       </c>
       <c r="S49" s="57" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T49" s="14">
         <v>4000</v>
@@ -8631,15 +8713,15 @@
         <v>224</v>
       </c>
       <c r="AF49" s="16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:32">
       <c r="B50" s="22" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C50" s="57" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D50" s="14">
         <v>2</v>
@@ -8663,7 +8745,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="57" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L50" s="14">
         <v>2</v>
@@ -8688,7 +8770,7 @@
         <v>256</v>
       </c>
       <c r="S50" s="57" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T50" s="14">
         <v>8000</v>
@@ -8708,15 +8790,15 @@
         <v>224</v>
       </c>
       <c r="AF50" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:32">
       <c r="B51" s="22" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C51" s="57" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D51" s="14">
         <v>2</v>
@@ -8740,7 +8822,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="57" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L51" s="14">
         <v>2</v>
@@ -8765,7 +8847,7 @@
         <v>256</v>
       </c>
       <c r="S51" s="57" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T51" s="14">
         <v>8000</v>
@@ -8785,15 +8867,15 @@
         <v>224</v>
       </c>
       <c r="AF51" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:32">
       <c r="B52" s="22" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C52" s="57" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D52" s="14">
         <v>2</v>
@@ -8817,7 +8899,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="57" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L52" s="14">
         <v>2</v>
@@ -8842,7 +8924,7 @@
         <v>256</v>
       </c>
       <c r="S52" s="57" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T52" s="14">
         <v>8000</v>
@@ -8865,15 +8947,15 @@
         <v>224</v>
       </c>
       <c r="AF52" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:32">
       <c r="B53" s="22" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C53" s="57" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D53" s="14">
         <v>2</v>
@@ -8897,7 +8979,7 @@
         <v>1</v>
       </c>
       <c r="K53" s="57" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L53" s="14">
         <v>2</v>
@@ -8922,7 +9004,7 @@
         <v>256</v>
       </c>
       <c r="S53" s="57" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T53" s="14">
         <v>8000</v>
@@ -8945,7 +9027,311 @@
         <v>224</v>
       </c>
       <c r="AF53" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" ht="20">
+      <c r="A55" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="C55" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="D55" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="14">
+        <v>8.74</v>
+      </c>
+      <c r="G55" s="14">
+        <v>2.91</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" s="14"/>
+      <c r="K55" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="L55" s="14">
+        <v>1</v>
+      </c>
+      <c r="M55" s="14">
+        <v>6</v>
+      </c>
+      <c r="N55" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="O55" s="14">
+        <v>16</v>
+      </c>
+      <c r="P55" s="14">
+        <f t="shared" ref="P55" si="12">M55*N55*O55/1000</f>
+        <v>0.24960000000000002</v>
+      </c>
+      <c r="Q55" s="14">
+        <v>2133</v>
+      </c>
+      <c r="R55" s="14">
+        <v>56</v>
+      </c>
+      <c r="S55" s="57" t="s">
+        <v>312</v>
+      </c>
+      <c r="T55" s="14">
+        <v>380</v>
+      </c>
+      <c r="W55" s="14"/>
+      <c r="X55" s="14"/>
+      <c r="Y55" s="14"/>
+      <c r="Z55" s="24">
+        <v>1.08</v>
+      </c>
+      <c r="AB55" s="10">
+        <v>803.52</v>
+      </c>
+      <c r="AC55" s="59"/>
+      <c r="AE55" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF55" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32">
+      <c r="A56" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C56" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="D56" s="14">
+        <v>1</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="14">
+        <v>8.74</v>
+      </c>
+      <c r="G56" s="14">
+        <v>2.91</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" s="14"/>
+      <c r="K56" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="L56" s="14">
+        <v>1</v>
+      </c>
+      <c r="M56" s="14">
+        <v>12</v>
+      </c>
+      <c r="N56" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="O56" s="14">
+        <v>16</v>
+      </c>
+      <c r="P56" s="14">
+        <f t="shared" ref="P56:P58" si="13">M56*N56*O56/1000</f>
+        <v>0.49920000000000003</v>
+      </c>
+      <c r="Q56" s="14">
+        <v>2133</v>
+      </c>
+      <c r="R56" s="14">
+        <v>112</v>
+      </c>
+      <c r="S56" s="57" t="s">
+        <v>312</v>
+      </c>
+      <c r="T56" s="14">
+        <v>680</v>
+      </c>
+      <c r="W56" s="14"/>
+      <c r="X56" s="14"/>
+      <c r="Y56" s="14"/>
+      <c r="Z56" s="24">
+        <v>2.16</v>
+      </c>
+      <c r="AB56" s="10">
+        <v>1607.04</v>
+      </c>
+      <c r="AC56" s="59"/>
+      <c r="AE56" s="16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32">
+      <c r="A57" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="C57" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="D57" s="14">
+        <v>2</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="14">
+        <v>8.74</v>
+      </c>
+      <c r="G57" s="14">
+        <v>2.91</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" s="14"/>
+      <c r="K57" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="L57" s="14">
+        <v>1</v>
+      </c>
+      <c r="M57" s="14">
+        <v>24</v>
+      </c>
+      <c r="N57" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="O57" s="14">
+        <v>16</v>
+      </c>
+      <c r="P57" s="14">
+        <f t="shared" si="13"/>
+        <v>0.99840000000000007</v>
+      </c>
+      <c r="Q57" s="14">
+        <v>2133</v>
+      </c>
+      <c r="R57" s="14">
+        <v>224</v>
+      </c>
+      <c r="S57" s="57" t="s">
+        <v>312</v>
+      </c>
+      <c r="T57" s="14">
+        <v>1440</v>
+      </c>
+      <c r="W57" s="14"/>
+      <c r="X57" s="14"/>
+      <c r="Y57" s="14"/>
+      <c r="Z57" s="24">
+        <v>4.32</v>
+      </c>
+      <c r="AB57" s="10">
+        <v>3214.08</v>
+      </c>
+      <c r="AC57" s="59"/>
+      <c r="AE57" s="16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32">
+      <c r="B58" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="C58" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="D58" s="14">
+        <v>2</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="14">
+        <v>8.74</v>
+      </c>
+      <c r="G58" s="14">
+        <v>2.91</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" s="14"/>
+      <c r="K58" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="L58" s="14">
+        <v>1</v>
+      </c>
+      <c r="M58" s="14">
+        <v>24</v>
+      </c>
+      <c r="N58" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="O58" s="14">
+        <v>16</v>
+      </c>
+      <c r="P58" s="14">
+        <f t="shared" si="13"/>
+        <v>0.99840000000000007</v>
+      </c>
+      <c r="Q58" s="14">
+        <v>2133</v>
+      </c>
+      <c r="R58" s="14">
+        <v>224</v>
+      </c>
+      <c r="S58" s="57" t="s">
+        <v>312</v>
+      </c>
+      <c r="T58" s="14">
+        <v>1440</v>
+      </c>
+      <c r="W58" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="X58" s="14"/>
+      <c r="Y58" s="14" t="str">
+        <f t="shared" ref="Y58" si="14">W58&amp;"/"&amp;X58</f>
+        <v>Infiniband/</v>
+      </c>
+      <c r="Z58" s="24">
+        <v>4.7519999999999998</v>
+      </c>
+      <c r="AB58" s="10">
+        <v>3535.49</v>
+      </c>
+      <c r="AC58" s="59"/>
+      <c r="AE58" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF58" s="16" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -8958,7 +9344,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AG33">
-    <cfRule type="colorScale" priority="63">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8970,7 +9356,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH33">
-    <cfRule type="colorScale" priority="62">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8982,7 +9368,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG34:AG35">
-    <cfRule type="colorScale" priority="58">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8994,7 +9380,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH34:AH35">
-    <cfRule type="colorScale" priority="57">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9006,7 +9392,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG34:AG35">
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9018,7 +9404,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH34:AH35">
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9030,32 +9416,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FF19:XFD20 FF31:XFD31 Z31 U30:Y31 T30 S30:S31 R30 Q30:Q31 P30 L29:O31 A28:K30 Z35 A17 B18:I18 A21:Q21 S21:V21 K18:V18 A22:V22 Z18:AD22 W18:W22 A12:AD12 B8:AD8 A7:A8 A5:M6 B7:M7 B9:M9 A10:M11 N9:AD11 A23:AD25 A27:M27 L28:M28 N27:O28 A26:O26 P26:AD28 A32:AD32 A34:M34 N34:P35 AG32:XFD34 AG19:AI20 AG35:AI35 AG21:XFD30 AF32:AF35 AF18:AF30 AG5:XFD18 AE5:AF5 Q34:X34 AC34:AD34 AB35 A13:AA13 A14:AD16 P29:X29 Z29:AD30 A33:X33 Z33:AD33 Z34:AA34 N5:AD7 AE6:AE36 AF6:AF16">
-    <cfRule type="expression" dxfId="78" priority="49">
+    <cfRule type="expression" dxfId="72" priority="53">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13">
-    <cfRule type="expression" dxfId="77" priority="36">
+    <cfRule type="expression" dxfId="71" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="76" priority="35">
+    <cfRule type="expression" dxfId="70" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:M35 Q35:X35">
-    <cfRule type="expression" dxfId="75" priority="34">
+    <cfRule type="expression" dxfId="69" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB34">
-    <cfRule type="expression" dxfId="74" priority="33">
+    <cfRule type="expression" dxfId="68" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG32:AG35 AG21:AG30 AG5:AG18">
-    <cfRule type="colorScale" priority="134">
+    <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9067,7 +9453,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH32:AH35 AH21:AH30 AH5:AH18">
-    <cfRule type="colorScale" priority="138">
+    <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9079,7 +9465,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG32:AG33 AG21:AG30 AG5:AG18">
-    <cfRule type="colorScale" priority="142">
+    <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9091,7 +9477,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH32:AH33 AH21:AH30 AH5:AH18">
-    <cfRule type="colorScale" priority="146">
+    <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9103,7 +9489,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI32:AI35 AI21:AI30 AI5:AI18">
-    <cfRule type="colorScale" priority="150">
+    <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9115,7 +9501,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG21:AG30 AG5:AG18">
-    <cfRule type="colorScale" priority="154">
+    <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9127,7 +9513,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH21:AH30 AH5:AH18">
-    <cfRule type="colorScale" priority="157">
+    <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9139,11 +9525,153 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:Q20 S20:V20">
-    <cfRule type="expression" dxfId="73" priority="25">
+    <cfRule type="expression" dxfId="67" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG20">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH20">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG20">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH20">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI20">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG20">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH20">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:I19">
+    <cfRule type="expression" dxfId="66" priority="20">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:D19 R20:R21 K19:V19">
+    <cfRule type="expression" dxfId="65" priority="21">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG19">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH19">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG19">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH19">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI19">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -9155,90 +9683,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH20">
+  <conditionalFormatting sqref="AG19">
     <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG20">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH20">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI20">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG20">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH20">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19:I19">
-    <cfRule type="expression" dxfId="72" priority="16">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:D19 R20:R21 K19:V19">
-    <cfRule type="expression" dxfId="71" priority="17">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG19">
-    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9250,67 +9696,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH19">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG19">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH19">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI19">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG19">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH19">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9322,77 +9708,97 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P37:P39">
-    <cfRule type="expression" dxfId="70" priority="15">
+    <cfRule type="expression" dxfId="64" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y17:Y22">
-    <cfRule type="expression" dxfId="69" priority="14">
+    <cfRule type="expression" dxfId="63" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y29">
-    <cfRule type="expression" dxfId="68" priority="13">
+    <cfRule type="expression" dxfId="62" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y33:Y35">
-    <cfRule type="expression" dxfId="67" priority="12">
+    <cfRule type="expression" dxfId="61" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y37:Y39">
-    <cfRule type="expression" dxfId="66" priority="11">
+    <cfRule type="expression" dxfId="60" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44">
-    <cfRule type="expression" dxfId="65" priority="10">
+    <cfRule type="expression" dxfId="59" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y44:Y45">
-    <cfRule type="expression" dxfId="64" priority="9">
+    <cfRule type="expression" dxfId="58" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P42:P43">
-    <cfRule type="expression" dxfId="63" priority="8">
+    <cfRule type="expression" dxfId="57" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y42:Y43">
-    <cfRule type="expression" dxfId="62" priority="7">
+    <cfRule type="expression" dxfId="56" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P45">
-    <cfRule type="expression" dxfId="61" priority="6">
+    <cfRule type="expression" dxfId="55" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P47:P51">
-    <cfRule type="expression" dxfId="60" priority="5">
+    <cfRule type="expression" dxfId="54" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y47:Y51">
-    <cfRule type="expression" dxfId="59" priority="4">
+    <cfRule type="expression" dxfId="53" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE47:AE53">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="52" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52:P53">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="51" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y52:Y53">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="50" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M55:P55 N56:P58">
+    <cfRule type="expression" dxfId="49" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q55:Q58">
+    <cfRule type="expression" dxfId="48" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y58">
+    <cfRule type="expression" dxfId="47" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55:I58">
+    <cfRule type="expression" dxfId="46" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9416,13 +9822,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AC63"/>
+  <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U59" sqref="U59"/>
+      <selection pane="bottomRight" activeCell="R70" sqref="R70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -9703,7 +10109,7 @@
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19" t="str">
-        <f t="shared" ref="K4:K62" ca="1" si="3">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="K4:K66" ca="1" si="3">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>USD</v>
       </c>
       <c r="L4" s="14">
@@ -9756,7 +10162,7 @@
       </c>
       <c r="X4" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 37.</v>
+        <v>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</v>
       </c>
       <c r="AC4" s="45">
         <v>6</v>
@@ -9837,7 +10243,7 @@
       </c>
       <c r="X5" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 38.</v>
+        <v>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</v>
       </c>
       <c r="AC5" s="45">
         <v>7</v>
@@ -9932,7 +10338,7 @@
         <v>p2 dedicated host 1 year no Upfront</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>110</v>
@@ -10019,7 +10425,7 @@
         <v>p2 dedicated host 1 year 100% Upfront</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>111</v>
@@ -10268,7 +10674,7 @@
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -10347,7 +10753,7 @@
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -11600,7 +12006,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="16">
-        <f t="shared" ref="X27:X62" ca="1" si="15">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="X27:X66" ca="1" si="15">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>0</v>
       </c>
       <c r="Y27" s="16"/>
@@ -12036,7 +12442,7 @@
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F33" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -12047,11 +12453,11 @@
         <v>EUR</v>
       </c>
       <c r="L33" s="14">
-        <f t="shared" ref="L33:L62" ca="1" si="17">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="L33:L66" ca="1" si="17">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("AC"&amp;ROW()))</f>
         <v>0.43519999999999998</v>
       </c>
       <c r="M33" s="14">
-        <f t="shared" ref="M33:M62" ca="1" si="18">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="M33:M66" ca="1" si="18">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("AC"&amp;ROW()))</f>
         <v>16.456</v>
       </c>
       <c r="N33" s="14" t="str">
@@ -12108,7 +12514,7 @@
         <v>2 x GeForce GTX 1080 weekly</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G34" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -12180,7 +12586,7 @@
         <v>2 x GeForce GTX 1080 monthly</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H35" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -12253,7 +12659,7 @@
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F36" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -12326,7 +12732,7 @@
         <v>4 x GeForce GTX 1080 weekly</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="19">
@@ -12400,7 +12806,7 @@
         <v>4 x GeForce GTX 1080 monthly</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F38" s="13"/>
       <c r="H38" s="19">
@@ -12474,7 +12880,7 @@
       </c>
       <c r="D39" s="41"/>
       <c r="E39" s="41" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F39" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -12551,7 +12957,7 @@
       </c>
       <c r="D40" s="43"/>
       <c r="E40" s="41" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F40" s="43"/>
       <c r="G40" s="19">
@@ -12628,7 +13034,7 @@
       </c>
       <c r="D41" s="43"/>
       <c r="E41" s="41" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
@@ -12704,7 +13110,7 @@
         <v>1 x Tesla P100 minutely</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F42" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -12780,7 +13186,7 @@
         <v>1 x Tesla P100 weekly</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="19">
@@ -12857,7 +13263,7 @@
         <v>1 x Tesla P100 monthly</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F44" s="13"/>
       <c r="H44" s="19">
@@ -12934,7 +13340,7 @@
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="22" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F45" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -13010,7 +13416,7 @@
         <v>2 x Tesla P100 weekly</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="19">
@@ -13087,7 +13493,7 @@
         <v>2 x Tesla P100 monthly</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F47" s="13"/>
       <c r="H47" s="19">
@@ -13164,7 +13570,7 @@
       </c>
       <c r="D48" s="41"/>
       <c r="E48" s="22" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F48" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -13244,7 +13650,7 @@
       </c>
       <c r="D49" s="43"/>
       <c r="E49" s="22" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F49" s="43"/>
       <c r="G49" s="19">
@@ -13267,7 +13673,7 @@
         <v>19</v>
       </c>
       <c r="N49" s="14" t="str">
-        <f t="shared" ref="N49:W62" ca="1" si="20">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="N49:W64" ca="1" si="20">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>P100</v>
       </c>
       <c r="O49" s="14">
@@ -13324,7 +13730,7 @@
       </c>
       <c r="D50" s="43"/>
       <c r="E50" s="22" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F50" s="43"/>
       <c r="G50" s="43"/>
@@ -13399,11 +13805,11 @@
     </row>
     <row r="51" spans="1:29">
       <c r="C51" s="22" t="str">
-        <f t="shared" ref="C51:C63" ca="1" si="21">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" monthly"</f>
+        <f t="shared" ref="C51:C55" ca="1" si="21">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" monthly"</f>
         <v>4 x Tesla P100 NVLink monthly</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F51" s="43"/>
       <c r="G51" s="43"/>
@@ -13477,7 +13883,7 @@
         <v>8 x Tesla P100 NVLink monthly</v>
       </c>
       <c r="E52" s="41" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F52" s="43"/>
       <c r="G52" s="43"/>
@@ -13551,7 +13957,7 @@
         <v>2 x FirePro S9300x2 minutely</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F53" s="13">
         <f t="shared" ref="F53" ca="1" si="24">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -13625,7 +14031,7 @@
         <v>2 x FirePro S9300x2weekly</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F54" s="43"/>
       <c r="G54" s="19">
@@ -13699,7 +14105,7 @@
         <v>2 x FirePro S9300x2 monthly</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F55" s="43"/>
       <c r="G55" s="43"/>
@@ -13781,7 +14187,7 @@
         <v>Reedbush-H Personal (educational)</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I56" s="19">
         <f t="shared" ca="1" si="26"/>
@@ -13849,11 +14255,11 @@
     </row>
     <row r="57" spans="1:29">
       <c r="C57" s="22" t="str">
-        <f t="shared" ref="C57:C62" ca="1" si="27">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
+        <f t="shared" ref="C57:C66" ca="1" si="27">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
         <v>Reedbush-H Group 4 (educational)</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I57" s="19">
         <f t="shared" ca="1" si="26"/>
@@ -13925,7 +14331,7 @@
         <v>Reedbush-H Group 4</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I58" s="19">
         <f t="shared" ca="1" si="26"/>
@@ -13997,7 +14403,7 @@
         <v>Reedbush-H Group 8 (educational)</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I59" s="19">
         <f t="shared" ca="1" si="26"/>
@@ -14069,7 +14475,7 @@
         <v>Reedbush-H Group 8</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I60" s="19">
         <f t="shared" ca="1" si="26"/>
@@ -14141,7 +14547,7 @@
         <v>Reedbush-H Group 8 dedicated (educational)</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I61" s="19">
         <f t="shared" ca="1" si="26"/>
@@ -14213,7 +14619,7 @@
         <v>Reedbush-H Group 8 dedicated</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I62" s="19">
         <f t="shared" ca="1" si="26"/>
@@ -14279,238 +14685,534 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:29">
-      <c r="C63" s="22"/>
+    <row r="63" spans="1:29" ht="20">
+      <c r="A63" s="21" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
+        <v>MS Azure</v>
+      </c>
+      <c r="B63" s="13" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C1",FALSE) &amp; (INDIRECT("AC" &amp; ROW())+1))</f>
+        <v>https://azure.microsoft.com/en-us/pricing/details/virtual-machines/linux/</v>
+      </c>
+      <c r="C63" s="22" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
+        <v>NC6</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="F63" s="13">
+        <f t="shared" ref="F63:F66" ca="1" si="28">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>1.08</v>
+      </c>
+      <c r="K63" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>USD</v>
+      </c>
+      <c r="L63" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.24960000000000002</v>
+      </c>
+      <c r="M63" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>4.37</v>
+      </c>
+      <c r="N63" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>K80</v>
+      </c>
+      <c r="O63" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0.5</v>
+      </c>
+      <c r="P63" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>Xeon E5-2690v3</v>
+      </c>
+      <c r="Q63" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="R63" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>56</v>
+      </c>
+      <c r="S63" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>SSD</v>
+      </c>
+      <c r="T63" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>380</v>
+      </c>
+      <c r="U63" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V63" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W63" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X63" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">1 GPU in specification is 1/2 of K80 </v>
+      </c>
+      <c r="AC63" s="45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29">
+      <c r="B64" s="13"/>
+      <c r="C64" s="22" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>NC12</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="F64" s="13">
+        <f t="shared" ca="1" si="28"/>
+        <v>2.16</v>
+      </c>
+      <c r="K64" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>USD</v>
+      </c>
+      <c r="L64" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.49920000000000003</v>
+      </c>
+      <c r="M64" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>8.74</v>
+      </c>
+      <c r="N64" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>K80</v>
+      </c>
+      <c r="O64" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="P64" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>Xeon E5-2690v3</v>
+      </c>
+      <c r="Q64" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="R64" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>112</v>
+      </c>
+      <c r="S64" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>SSD</v>
+      </c>
+      <c r="T64" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>680</v>
+      </c>
+      <c r="U64" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V64" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W64" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X64" s="16">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC64" s="45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29">
+      <c r="B65" s="13"/>
+      <c r="C65" s="22" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>NC24</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="F65" s="13">
+        <f t="shared" ca="1" si="28"/>
+        <v>4.32</v>
+      </c>
+      <c r="K65" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>USD</v>
+      </c>
+      <c r="L65" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.99840000000000007</v>
+      </c>
+      <c r="M65" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>17.48</v>
+      </c>
+      <c r="N65" s="14" t="str">
+        <f t="shared" ref="N65:V66" ca="1" si="29">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>K80</v>
+      </c>
+      <c r="O65" s="14">
+        <f t="shared" ca="1" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="P65" s="14" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>Xeon E5-2690v3</v>
+      </c>
+      <c r="Q65" s="14">
+        <f t="shared" ca="1" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="R65" s="14">
+        <f t="shared" ca="1" si="29"/>
+        <v>224</v>
+      </c>
+      <c r="S65" s="14" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>SSD</v>
+      </c>
+      <c r="T65" s="14">
+        <f t="shared" ca="1" si="29"/>
+        <v>1440</v>
+      </c>
+      <c r="U65" s="14">
+        <f t="shared" ca="1" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="V65" s="14">
+        <f t="shared" ca="1" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="W65" s="14">
+        <f t="shared" ref="W65:W66" ca="1" si="30">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>0</v>
+      </c>
+      <c r="X65" s="16">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC65" s="45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29">
+      <c r="B66" s="13"/>
+      <c r="C66" s="22" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>NC24r</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="F66" s="13">
+        <f t="shared" ca="1" si="28"/>
+        <v>4.7519999999999998</v>
+      </c>
+      <c r="K66" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>USD</v>
+      </c>
+      <c r="L66" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.99840000000000007</v>
+      </c>
+      <c r="M66" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>17.48</v>
+      </c>
+      <c r="N66" s="14" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>K80</v>
+      </c>
+      <c r="O66" s="14">
+        <f t="shared" ca="1" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="P66" s="14" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>Xeon E5-2690v3</v>
+      </c>
+      <c r="Q66" s="14">
+        <f t="shared" ca="1" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="R66" s="14">
+        <f t="shared" ca="1" si="29"/>
+        <v>224</v>
+      </c>
+      <c r="S66" s="14" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>SSD</v>
+      </c>
+      <c r="T66" s="14">
+        <f t="shared" ca="1" si="29"/>
+        <v>1440</v>
+      </c>
+      <c r="U66" s="14">
+        <f t="shared" ca="1" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="V66" s="14">
+        <f t="shared" ca="1" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="W66" s="14" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v>Infiniband/</v>
+      </c>
+      <c r="X66" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>RDMA capable</v>
+      </c>
+      <c r="AC66" s="45">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="I23:J23 I25:J25 I27:J27 I29:J29 F25:G25 F29:G29 H22:H31 S13:S15 E23:G23 E18:J22 C30:C32 E26:G28 D26:D33 E17:F17 D10:D24 D3:D8 C3:C21 E7:G7 E9:J16 E4:J6 K4:K35 E30:I32 M32:O41 N16:O16 L30:O31 E3:O3 L4:O15 M16:M17 L16:L29 M18:O29 E8:H8 J8 K48:K55 L42:S62 T45:X62">
-    <cfRule type="expression" dxfId="58" priority="112">
+  <conditionalFormatting sqref="I23:J23 I25:J25 I27:J27 I29:J29 F25:G25 F29:G29 H22:H31 S13:S15 E23:G23 E18:J22 C30:C32 E26:G28 D26:D33 E17:F17 D10:D24 D3:D8 C3:C21 E7:G7 E9:J16 E4:J6 K4:K35 E30:I32 M32:O41 N16:O16 L30:O31 E3:O3 L4:O15 M16:M17 L16:L29 M18:O29 E8:H8 J8 K48:K55 L42:S62 T45:X62 L63:X66">
+    <cfRule type="expression" dxfId="45" priority="112">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25 I24:J24 F24:G24">
-    <cfRule type="expression" dxfId="57" priority="110">
+    <cfRule type="expression" dxfId="44" priority="110">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:J26">
-    <cfRule type="expression" dxfId="56" priority="109">
+    <cfRule type="expression" dxfId="43" priority="109">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:J28">
-    <cfRule type="expression" dxfId="55" priority="108">
+    <cfRule type="expression" dxfId="42" priority="108">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="54" priority="99">
+    <cfRule type="expression" dxfId="41" priority="99">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P15 P18:P41">
-    <cfRule type="expression" dxfId="53" priority="54">
+    <cfRule type="expression" dxfId="40" priority="54">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:W3 T4:W12 T18:V31 T13:V15 W13:W31 R3:R15 R18:R41 X6:X41 T32:W38 U39:W41 T39:T44">
-    <cfRule type="expression" dxfId="52" priority="52">
+    <cfRule type="expression" dxfId="39" priority="52">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C23">
-    <cfRule type="expression" dxfId="51" priority="61">
+    <cfRule type="expression" dxfId="38" priority="61">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C25">
-    <cfRule type="expression" dxfId="50" priority="60">
+    <cfRule type="expression" dxfId="37" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C27">
-    <cfRule type="expression" dxfId="49" priority="59">
+    <cfRule type="expression" dxfId="36" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C29">
-    <cfRule type="expression" dxfId="48" priority="58">
+    <cfRule type="expression" dxfId="35" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q15 Q18:Q41">
-    <cfRule type="expression" dxfId="47" priority="53">
+    <cfRule type="expression" dxfId="34" priority="53">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S12">
-    <cfRule type="expression" dxfId="46" priority="51">
+    <cfRule type="expression" dxfId="33" priority="51">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18:S41">
-    <cfRule type="expression" dxfId="45" priority="50">
+    <cfRule type="expression" dxfId="32" priority="50">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:J17 N17:O17">
-    <cfRule type="expression" dxfId="44" priority="41">
+    <cfRule type="expression" dxfId="31" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:P17">
-    <cfRule type="expression" dxfId="43" priority="40">
+    <cfRule type="expression" dxfId="30" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16:V17 R16:R17">
-    <cfRule type="expression" dxfId="42" priority="38">
+    <cfRule type="expression" dxfId="29" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16:Q17">
-    <cfRule type="expression" dxfId="41" priority="39">
+    <cfRule type="expression" dxfId="28" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:S17">
-    <cfRule type="expression" dxfId="40" priority="37">
+    <cfRule type="expression" dxfId="27" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="39" priority="36">
+    <cfRule type="expression" dxfId="26" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="38" priority="35">
+    <cfRule type="expression" dxfId="25" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="37" priority="34">
+    <cfRule type="expression" dxfId="24" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:L41">
-    <cfRule type="expression" dxfId="36" priority="33">
+    <cfRule type="expression" dxfId="23" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="35" priority="32">
+    <cfRule type="expression" dxfId="22" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="34" priority="31">
+    <cfRule type="expression" dxfId="21" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="33" priority="30">
+    <cfRule type="expression" dxfId="20" priority="30">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="32" priority="28">
+    <cfRule type="expression" dxfId="19" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:J32">
-    <cfRule type="expression" dxfId="31" priority="27">
+    <cfRule type="expression" dxfId="18" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36 K36:K47">
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="17" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="expression" dxfId="29" priority="25">
+    <cfRule type="expression" dxfId="16" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="28" priority="24">
+    <cfRule type="expression" dxfId="15" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="27" priority="19">
+    <cfRule type="expression" dxfId="14" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="26" priority="18">
+    <cfRule type="expression" dxfId="13" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="expression" dxfId="25" priority="17">
+    <cfRule type="expression" dxfId="12" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="expression" dxfId="24" priority="16">
+    <cfRule type="expression" dxfId="11" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="23" priority="15">
+    <cfRule type="expression" dxfId="10" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U42:X44">
-    <cfRule type="expression" dxfId="22" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="19" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="expression" dxfId="17" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50:H52 H55">
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49 G54">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56:I62">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56:K62">
-    <cfRule type="expression" dxfId="5" priority="1">
+  <conditionalFormatting sqref="K56:K66">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Comparison table updated 3.xlsx
+++ b/Comparison table updated 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20" windowWidth="38780" windowHeight="18100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="20" windowWidth="48820" windowHeight="16280" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W47" authorId="0">
+    <comment ref="W50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -546,7 +546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC47" authorId="0">
+    <comment ref="AC50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -568,11 +568,38 @@
             <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
-(¥200 000 税込 - 8%) / 4 nodes =46296.5 税抜き</t>
+(¥150 000 税込 - 8%) =46296.5 税抜き</t>
         </r>
       </text>
     </comment>
-    <comment ref="D55" authorId="0">
+    <comment ref="AF50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Peter Bryzgalov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+17280 n*h / 2.5 = 6912 nodes hours if used 1 node.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -599,7 +626,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB55" authorId="0">
+    <comment ref="AB58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -630,7 +657,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="331">
   <si>
     <t>Cloud server providers with GPU</t>
     <phoneticPr fontId="2"/>
@@ -1300,10 +1327,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>NVIDIA TITAN X</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Tesla P40 model</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1368,131 +1391,544 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>4 x GeForce GTX 1080</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8 x GeForce GTX 1080</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x GeForce GTX 1080</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GeForce GTX 1080</t>
+  </si>
+  <si>
+    <t>GeForce GTX 1080</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2609 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GHz</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FLOPs per cycle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://en.wikichip.org/wiki/intel/xeon_e5/e5-2686_v4</t>
+  </si>
+  <si>
+    <t>Xeon E5-2609 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2630 v4</t>
+  </si>
+  <si>
+    <t>SSD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>setup price</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22240</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>This is the average monthly payment over the course of the Dedicated Host Reservation term. For each month, the actual monthly payment will equal the actual number of hours in that month multiplied by the hourly usage rate. The hourly usage rate is equivalent to the total average monthly payments over the term divided by the total number of hours (based on a 365 day year) over the term.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Setup price</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Internal/External</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPU performance (Tflops DP)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GPU performance (TFlops SP)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JPY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EUR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SL M60x1 2690v3 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SL K80x1 2690v3 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x2 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x2 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x2 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x4 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x4 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x4 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x8 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x8 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x8 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x Tesla P100</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>40/1</t>
+  </si>
+  <si>
+    <t>1 x Tesla P100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x Tesla P100 NVLink</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4 x Tesla P100 NVLink</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8 x Tesla P100 NVLink</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x FirePro S9300x2</t>
+  </si>
+  <si>
+    <t>2 x 4096</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x 4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x 512</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2609 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SSD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x1 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x1 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT S9300x2 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FirePro S9300x2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT S9300x2 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 NVL min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 NVL m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x4 NVL m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x8 NVL m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 NVL w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT S9300x2 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x1 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The University of Tokyo</t>
+  </si>
+  <si>
+    <t>Reedbush-H Personal (educational)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2630 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Xeon E5-2695v4 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PFS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H Group 4 (educational)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H Group 4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H Group 8 (educational)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H Group 8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>per hour</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>per week</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>per month (30 days)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>per year</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.cc.u-tokyo.ac.jp/system/reedbush/index-e.html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Max 128 nodes. Included 13824 node hours if 1 node is used, 6912 node hours if more than 1 node is used simultaneously.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Max 128 nodes. Included 27648 node hours if 2 nodes are used, 13824 node hours if more than 2 node are used simultaneously.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H Group 8 dedicated (educational)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H Group 8 dedicated</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.nimbix.net/nimbix-cloud-demand-pricing/</t>
+  </si>
+  <si>
+    <t>TU personal</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU gr.4 edu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS Azure</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NC12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NC24</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NC24r</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>K80</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://venturebeat.com/2016/08/04/microsoft-azure-releases-n-series-gpu-instances-in-preview/</t>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/en-us/pricing/details/virtual-machines/linux/</t>
+  </si>
+  <si>
+    <t>NC6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2690v3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RDMA capable</t>
+  </si>
+  <si>
+    <t>SSD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Infiniband</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NC6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NC12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 GPU in specification is 1/2 of K80 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x Titan X</t>
+  </si>
+  <si>
+    <t>4 x Titan X</t>
+  </si>
+  <si>
+    <t>8 x Titan X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TITAN X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GeForce GTX Titan X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2609 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/en-us/pricing/details/virtual-machines/linux/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NC25r</t>
+  </si>
+  <si>
+    <t>MS NC24</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>https://www.leadergpu.com</t>
-  </si>
-  <si>
-    <t>4 x GeForce GTX 1080</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8 x GeForce GTX 1080</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x GeForce GTX 1080</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GeForce GTX 1080</t>
-  </si>
-  <si>
-    <t>GeForce GTX 1080</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2609 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GHz</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FLOPs per cycle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://en.wikichip.org/wiki/intel/xeon_e5/e5-2686_v4</t>
-  </si>
-  <si>
-    <t>Xeon E5-2609 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2630 v4</t>
-  </si>
-  <si>
-    <t>SSD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Currency</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>USD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>setup price</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22240</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>This is the average monthly payment over the course of the Dedicated Host Reservation term. For each month, the actual monthly payment will equal the actual number of hours in that month multiplied by the hourly usage rate. The hourly usage rate is equivalent to the total average monthly payments over the term divided by the total number of hours (based on a 365 day year) over the term.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Z</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Setup price</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Currency</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Internal/External</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx2 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx2 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx4 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx4 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx8 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx8 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nodes*hours limit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Max 2 nodes. Included (17280/2.5=)6912 node hours if 1 node is used, 3456 node hours if more than 1 node is used simulateously.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Included 13824 node hours if 1 node is used, 6912 node hours if more than 1 node is used simultaneously.</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1500,382 +1936,18 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>CPU performance (Tflops DP)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GPU performance (TFlops SP)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>JPY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>EUR</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SL M60x1 2690v3 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SL K80x1 2690v3 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x2 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x2 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x2 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x4 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x4 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x4 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x8 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x8 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x8 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x Tesla P100</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>40/1</t>
-  </si>
-  <si>
-    <t>1 x Tesla P100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x Tesla P100 NVLink</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4 x Tesla P100 NVLink</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8 x Tesla P100 NVLink</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x FirePro S9300x2</t>
-  </si>
-  <si>
-    <t>2 x 4096</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x 4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x 512</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2609 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SSD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x1 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x1 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT S9300x2 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FirePro S9300x2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT S9300x2 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 NVL min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 NVL m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x4 NVL m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x8 NVL m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 NVL w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT S9300x2 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x1 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>The University of Tokyo</t>
-  </si>
-  <si>
-    <t>Reedbush-H Personal (educational)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2630 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Xeon E5-2695v4 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>P100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PFS</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H Group 4 (educational)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H Group 4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H Group 8 (educational)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H Group 8</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>per hour</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>per week</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>per month (30 days)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>per year</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.cc.u-tokyo.ac.jp/system/reedbush/index-e.html</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.cc.u-tokyo.ac.jp/system/reedbush/reedbush_course.html</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Max 128 nodes. Included 13824 node hours if 1 node is used, 6912 node hours if more than 1 node is used simultaneously.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Max 128 nodes. Included 27648 node hours if 2 nodes are used, 13824 node hours if more than 2 node are used simultaneously.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H Group 8 dedicated (educational)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H Group 8 dedicated</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Max16 nodes. Included (17280/2.5=)6912 node hours if 1 node is used, 3456 node hours if more than 1 node is used simulateously.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://www.nimbix.net/nimbix-cloud-demand-pricing/</t>
-  </si>
-  <si>
-    <t>TU personal</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TU gr.4 edu</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TU gr.4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TU gr.8 edu</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TU gr.8</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TU gr.8 ddc</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TU gr.8 ddc. edu</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MS Azure</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NC12</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NC24</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NC24r</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>K80</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>USD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://venturebeat.com/2016/08/04/microsoft-azure-releases-n-series-gpu-instances-in-preview/</t>
-  </si>
-  <si>
-    <t>https://azure.microsoft.com/en-us/pricing/details/virtual-machines/linux/</t>
-  </si>
-  <si>
-    <t>NC6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2690v3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RDMA capable</t>
-  </si>
-  <si>
-    <t>SSD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Infiniband</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MS NC6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MS NC12</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MS NC24</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MS NC24r</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 GPU in specification is 1/2 of K80 </t>
+    <t>AG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Max hours</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.cc.u-tokyo.ac.jp/support/application/kitei/hyou5.pdf</t>
+  </si>
+  <si>
+    <t>http://www.cc.u-tokyo.ac.jp/support/application/kitei/hyou5.pdf</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1890,7 +1962,7 @@
     <numFmt numFmtId="179" formatCode="[$¥-411]#,##0.00"/>
     <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2107,6 +2179,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2247,7 +2328,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="680">
+  <cellStyleXfs count="690">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2940,8 +3021,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -3052,12 +3143,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="119" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="119" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="680">
+  <cellStyles count="690">
     <cellStyle name="$Normal" xfId="356"/>
     <cellStyle name="¥ Normal" xfId="636"/>
     <cellStyle name="€ Normal" xfId="635"/>
@@ -3444,6 +3540,16 @@
     <cellStyle name="Followed Hyperlink" xfId="677" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="679" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="681" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="683" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="685" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="687" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="689" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 1 2" xfId="62"/>
     <cellStyle name="Heading 2" xfId="263" builtinId="17" customBuiltin="1"/>
@@ -3739,18 +3845,7 @@
     <cellStyle name="Style 1" xfId="55"/>
     <cellStyle name="Title" xfId="340" builtinId="15" hidden="1"/>
   </cellStyles>
-  <dxfs count="73">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="76">
     <dxf>
       <font>
         <color auto="1"/>
@@ -4543,6 +4638,50 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
@@ -4838,13 +4977,13 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:FE58"/>
+  <dimension ref="A1:FF61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="S35" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="V43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AB56" sqref="AB56"/>
+      <selection pane="bottomRight" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -4879,73 +5018,75 @@
     <col min="28" max="28" width="20.83203125" customWidth="1"/>
     <col min="29" max="29" width="20.83203125" style="13" customWidth="1"/>
     <col min="30" max="30" width="14.1640625" style="13" customWidth="1"/>
-    <col min="31" max="31" width="8.83203125" style="13" customWidth="1"/>
-    <col min="32" max="32" width="93.6640625" style="16" customWidth="1"/>
-    <col min="33" max="33" width="22.1640625" style="13" customWidth="1"/>
-    <col min="34" max="34" width="28.1640625" style="13" customWidth="1"/>
-    <col min="35" max="35" width="21.5" style="13" customWidth="1"/>
+    <col min="31" max="32" width="8.83203125" style="13" customWidth="1"/>
+    <col min="33" max="33" width="93.6640625" style="16" customWidth="1"/>
+    <col min="34" max="34" width="22.1640625" style="13" customWidth="1"/>
+    <col min="35" max="35" width="28.1640625" style="13" customWidth="1"/>
+    <col min="36" max="36" width="21.5" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:161" s="4" customFormat="1" ht="26">
+    <row r="1" spans="1:162" s="4" customFormat="1" ht="26">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="13"/>
+      <c r="AG1" s="16"/>
       <c r="AH1" s="13"/>
       <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
     </row>
-    <row r="3" spans="1:161" s="6" customFormat="1" ht="46" customHeight="1" thickBot="1">
+    <row r="3" spans="1:162" s="6" customFormat="1" ht="46" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
       <c r="J3" s="23"/>
-      <c r="K3" s="58" t="s">
+      <c r="K3" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
       <c r="R3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="58" t="s">
+      <c r="S3" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58" t="s">
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58" t="s">
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="1" t="s">
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="AG3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AG3" s="13"/>
       <c r="AH3" s="13"/>
       <c r="AI3" s="13"/>
-      <c r="AJ3"/>
+      <c r="AJ3" s="13"/>
       <c r="AK3"/>
       <c r="AL3"/>
       <c r="AM3"/>
@@ -5071,8 +5212,9 @@
       <c r="FC3"/>
       <c r="FD3"/>
       <c r="FE3"/>
+      <c r="FF3"/>
     </row>
-    <row r="4" spans="1:161" s="13" customFormat="1" ht="42" customHeight="1" thickTop="1" thickBot="1">
+    <row r="4" spans="1:162" s="13" customFormat="1" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17" t="s">
@@ -5109,10 +5251,10 @@
         <v>6</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P4" s="17" t="s">
         <v>57</v>
@@ -5136,35 +5278,35 @@
         <v>9</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X4" s="17" t="s">
         <v>13</v>
       </c>
       <c r="Y4" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Z4" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA4" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB4" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="AC4" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="AA4" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="AB4" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="AC4" s="17" t="s">
-        <v>282</v>
-      </c>
       <c r="AD4" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AE4" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF4" s="17"/>
+        <v>199</v>
+      </c>
+      <c r="AG4" s="17"/>
     </row>
-    <row r="5" spans="1:161" s="13" customFormat="1" ht="21" thickTop="1">
+    <row r="5" spans="1:162" s="13" customFormat="1" ht="21" thickTop="1">
       <c r="A5" s="21" t="s">
         <v>27</v>
       </c>
@@ -5231,15 +5373,16 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
       <c r="AE5" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:162">
+      <c r="A6" s="15" t="s">
         <v>202</v>
-      </c>
-      <c r="AF5" s="16" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:161">
-      <c r="A6" s="15" t="s">
-        <v>204</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>46</v>
@@ -5304,13 +5447,14 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
       <c r="AE6" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF6" s="16" t="s">
-        <v>308</v>
+        <v>200</v>
+      </c>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16" t="s">
+        <v>298</v>
       </c>
     </row>
-    <row r="7" spans="1:161">
+    <row r="7" spans="1:162">
       <c r="A7" s="16" t="s">
         <v>85</v>
       </c>
@@ -5377,15 +5521,16 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
       <c r="AE7" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF7" s="16" t="s">
-        <v>309</v>
+        <v>200</v>
+      </c>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16" t="s">
+        <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:161">
+    <row r="8" spans="1:162">
       <c r="A8" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>86</v>
@@ -5448,10 +5593,11 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="10"/>
       <c r="AE8" s="16" t="s">
-        <v>202</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="AF8" s="16"/>
     </row>
-    <row r="9" spans="1:161">
+    <row r="9" spans="1:162">
       <c r="B9" s="22" t="s">
         <v>124</v>
       </c>
@@ -5513,13 +5659,14 @@
       <c r="AC9" s="24"/>
       <c r="AD9" s="24"/>
       <c r="AE9" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF9" s="16" t="s">
-        <v>205</v>
+        <v>200</v>
+      </c>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16" t="s">
+        <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:161">
+    <row r="10" spans="1:162">
       <c r="A10" s="16"/>
       <c r="B10" s="22" t="s">
         <v>125</v>
@@ -5578,16 +5725,14 @@
       <c r="AA10" s="24"/>
       <c r="AB10" s="10"/>
       <c r="AC10" s="24">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="24">
         <v>88389</v>
       </c>
       <c r="AE10" s="16" t="s">
-        <v>202</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="AF10" s="16"/>
     </row>
-    <row r="11" spans="1:161">
+    <row r="11" spans="1:162">
       <c r="A11" s="16"/>
       <c r="B11" s="22" t="s">
         <v>126</v>
@@ -5646,16 +5791,14 @@
       <c r="AA11" s="24"/>
       <c r="AB11" s="10"/>
       <c r="AC11" s="24">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="24">
         <v>184780</v>
       </c>
       <c r="AE11" s="16" t="s">
-        <v>202</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="AF11" s="16"/>
     </row>
-    <row r="12" spans="1:161">
+    <row r="12" spans="1:162">
       <c r="B12" s="22"/>
       <c r="C12" s="28"/>
       <c r="D12" s="5"/>
@@ -5686,8 +5829,9 @@
       <c r="AC12" s="24"/>
       <c r="AD12" s="24"/>
       <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
     </row>
-    <row r="13" spans="1:161" ht="20">
+    <row r="13" spans="1:162" ht="20">
       <c r="A13" s="21" t="s">
         <v>26</v>
       </c>
@@ -5771,13 +5915,14 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
       <c r="AE13" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF13" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:161">
+    <row r="14" spans="1:162">
       <c r="A14" s="16" t="s">
         <v>108</v>
       </c>
@@ -5858,13 +6003,14 @@
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF14" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:161">
+    <row r="15" spans="1:162">
       <c r="A15" s="16"/>
       <c r="B15" s="22" t="s">
         <v>128</v>
@@ -5943,13 +6089,14 @@
       <c r="AC15" s="24"/>
       <c r="AD15" s="24"/>
       <c r="AE15" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF15" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:161">
+    <row r="16" spans="1:162">
       <c r="B16" s="22"/>
       <c r="C16" s="28"/>
       <c r="D16" s="5"/>
@@ -5980,8 +6127,9 @@
       <c r="AC16" s="24"/>
       <c r="AD16" s="24"/>
       <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
     </row>
-    <row r="17" spans="1:161" ht="20">
+    <row r="17" spans="1:162" ht="20">
       <c r="A17" s="21" t="s">
         <v>42</v>
       </c>
@@ -6054,15 +6202,16 @@
       <c r="AC17" s="38"/>
       <c r="AD17" s="38"/>
       <c r="AE17" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF17" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:161" s="13" customFormat="1">
+    <row r="18" spans="1:162" s="13" customFormat="1">
       <c r="A18" s="56" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>44</v>
@@ -6133,19 +6282,20 @@
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
       <c r="AE18" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF18" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:161" s="13" customFormat="1" ht="20">
+    <row r="19" spans="1:162" s="13" customFormat="1" ht="20">
       <c r="A19" s="33"/>
       <c r="B19" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D19" s="5">
         <v>4</v>
@@ -6210,12 +6360,12 @@
       <c r="AC19" s="10"/>
       <c r="AD19" s="10"/>
       <c r="AE19" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF19" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="AJ19" s="39"/>
       <c r="AK19" s="39"/>
       <c r="AL19" s="39"/>
       <c r="AM19" s="39"/>
@@ -6341,11 +6491,12 @@
       <c r="FC19" s="39"/>
       <c r="FD19" s="39"/>
       <c r="FE19" s="39"/>
+      <c r="FF19" s="39"/>
     </row>
-    <row r="20" spans="1:161" s="13" customFormat="1" ht="20">
+    <row r="20" spans="1:162" s="13" customFormat="1" ht="20">
       <c r="A20" s="33"/>
       <c r="B20" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>35</v>
@@ -6396,10 +6547,10 @@
       <c r="AC20" s="24"/>
       <c r="AD20" s="24"/>
       <c r="AE20" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AF20" s="16"/>
-      <c r="AJ20" s="39"/>
+      <c r="AG20" s="16"/>
       <c r="AK20" s="39"/>
       <c r="AL20" s="39"/>
       <c r="AM20" s="39"/>
@@ -6525,13 +6676,14 @@
       <c r="FC20" s="39"/>
       <c r="FD20" s="39"/>
       <c r="FE20" s="39"/>
+      <c r="FF20" s="39"/>
     </row>
-    <row r="21" spans="1:161">
+    <row r="21" spans="1:162">
       <c r="A21" s="16" t="s">
         <v>93</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>35</v>
@@ -6582,10 +6734,11 @@
       <c r="AC21" s="24"/>
       <c r="AD21" s="24"/>
       <c r="AE21" s="16" t="s">
-        <v>202</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="AF21" s="16"/>
     </row>
-    <row r="22" spans="1:161">
+    <row r="22" spans="1:162">
       <c r="A22" s="16" t="s">
         <v>60</v>
       </c>
@@ -6621,10 +6774,11 @@
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="16" t="s">
-        <v>202</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="AF22" s="16"/>
     </row>
-    <row r="23" spans="1:161">
+    <row r="23" spans="1:162">
       <c r="A23" s="16" t="s">
         <v>61</v>
       </c>
@@ -6656,10 +6810,11 @@
       <c r="AC23" s="24"/>
       <c r="AD23" s="24"/>
       <c r="AE23" s="16" t="s">
-        <v>202</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="AF23" s="16"/>
     </row>
-    <row r="24" spans="1:161">
+    <row r="24" spans="1:162">
       <c r="B24" s="22"/>
       <c r="C24" s="28"/>
       <c r="E24" s="14"/>
@@ -6688,8 +6843,9 @@
       <c r="AC24" s="24"/>
       <c r="AD24" s="24"/>
       <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
     </row>
-    <row r="25" spans="1:161" ht="20">
+    <row r="25" spans="1:162" ht="20">
       <c r="A25" s="21" t="s">
         <v>43</v>
       </c>
@@ -6771,10 +6927,11 @@
       <c r="AC25" s="24"/>
       <c r="AD25" s="24"/>
       <c r="AE25" s="16" t="s">
-        <v>202</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="AF25" s="16"/>
     </row>
-    <row r="26" spans="1:161">
+    <row r="26" spans="1:162">
       <c r="A26" s="16" t="s">
         <v>62</v>
       </c>
@@ -6856,10 +7013,11 @@
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="16" t="s">
-        <v>202</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="AF26" s="16"/>
     </row>
-    <row r="27" spans="1:161" s="13" customFormat="1">
+    <row r="27" spans="1:162" s="13" customFormat="1">
       <c r="A27" s="2"/>
       <c r="B27" s="22" t="s">
         <v>96</v>
@@ -6939,11 +7097,12 @@
       <c r="AC27" s="24"/>
       <c r="AD27" s="24"/>
       <c r="AE27" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AF27" s="16"/>
+      <c r="AG27" s="16"/>
     </row>
-    <row r="28" spans="1:161" s="13" customFormat="1">
+    <row r="28" spans="1:162" s="13" customFormat="1">
       <c r="A28" s="2"/>
       <c r="B28" s="22" t="s">
         <v>97</v>
@@ -7023,11 +7182,12 @@
       <c r="AC28" s="24"/>
       <c r="AD28" s="24"/>
       <c r="AE28" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AF28" s="16"/>
+      <c r="AG28" s="16"/>
     </row>
-    <row r="29" spans="1:161">
+    <row r="29" spans="1:162">
       <c r="B29" s="22" t="s">
         <v>79</v>
       </c>
@@ -7104,13 +7264,14 @@
       <c r="AC29" s="24"/>
       <c r="AD29" s="24"/>
       <c r="AE29" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF29" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF29" s="16"/>
+      <c r="AG29" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:161">
+    <row r="30" spans="1:162">
       <c r="B30" s="22" t="s">
         <v>80</v>
       </c>
@@ -7182,10 +7343,11 @@
       <c r="AC30" s="24"/>
       <c r="AD30" s="24"/>
       <c r="AE30" s="16" t="s">
-        <v>202</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="AF30" s="16"/>
     </row>
-    <row r="31" spans="1:161" s="13" customFormat="1">
+    <row r="31" spans="1:162" s="13" customFormat="1">
       <c r="A31" s="40"/>
       <c r="B31" s="41" t="s">
         <v>146</v>
@@ -7258,10 +7420,10 @@
       <c r="AC31" s="44"/>
       <c r="AD31" s="44"/>
       <c r="AE31" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AF31" s="16"/>
-      <c r="AJ31" s="43"/>
+      <c r="AG31" s="16"/>
       <c r="AK31" s="43"/>
       <c r="AL31" s="43"/>
       <c r="AM31" s="43"/>
@@ -7387,8 +7549,9 @@
       <c r="FC31" s="43"/>
       <c r="FD31" s="43"/>
       <c r="FE31" s="43"/>
+      <c r="FF31" s="43"/>
     </row>
-    <row r="32" spans="1:161">
+    <row r="32" spans="1:162">
       <c r="B32" s="22"/>
       <c r="C32" s="28"/>
       <c r="E32" s="14"/>
@@ -7418,10 +7581,11 @@
       <c r="AC32" s="24"/>
       <c r="AD32" s="24"/>
       <c r="AE32" s="16" t="s">
-        <v>202</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="AF32" s="16"/>
     </row>
-    <row r="33" spans="1:32" ht="20">
+    <row r="33" spans="1:33" ht="20">
       <c r="A33" s="21" t="s">
         <v>48</v>
       </c>
@@ -7429,7 +7593,7 @@
         <v>49</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>171</v>
+        <v>310</v>
       </c>
       <c r="D33" s="28">
         <v>4</v>
@@ -7505,15 +7669,16 @@
         <v>815000</v>
       </c>
       <c r="AE33" s="16" t="s">
-        <v>224</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="AF33" s="16"/>
     </row>
-    <row r="34" spans="1:32">
+    <row r="34" spans="1:33">
       <c r="A34" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C34" s="28" t="s">
         <v>98</v>
@@ -7592,15 +7757,16 @@
         <v>875000</v>
       </c>
       <c r="AE34" s="16" t="s">
-        <v>224</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="AF34" s="16"/>
     </row>
-    <row r="35" spans="1:32">
+    <row r="35" spans="1:33">
       <c r="B35" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="28" t="s">
         <v>173</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>174</v>
       </c>
       <c r="D35" s="14">
         <v>1</v>
@@ -7674,10 +7840,11 @@
         <v>895000</v>
       </c>
       <c r="AE35" s="16" t="s">
-        <v>224</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="AF35" s="16"/>
     </row>
-    <row r="36" spans="1:32">
+    <row r="36" spans="1:33">
       <c r="C36" s="28"/>
       <c r="D36" s="14"/>
       <c r="E36" s="28"/>
@@ -7702,16 +7869,17 @@
       <c r="X36" s="28"/>
       <c r="Y36" s="28"/>
       <c r="AE36" s="16"/>
+      <c r="AF36" s="16"/>
     </row>
-    <row r="37" spans="1:32" ht="23" customHeight="1">
+    <row r="37" spans="1:33" ht="23" customHeight="1">
       <c r="A37" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D37" s="14">
         <v>2</v>
@@ -7733,7 +7901,7 @@
       </c>
       <c r="J37" s="28"/>
       <c r="K37" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L37" s="28">
         <v>2</v>
@@ -7758,7 +7926,7 @@
         <v>32</v>
       </c>
       <c r="S37" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T37" s="28">
         <v>480</v>
@@ -7785,21 +7953,22 @@
         <v>797</v>
       </c>
       <c r="AE37" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF37" s="16" t="s">
-        <v>231</v>
+        <v>222</v>
+      </c>
+      <c r="AF37" s="16"/>
+      <c r="AG37" s="16" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="24" customHeight="1">
+    <row r="38" spans="1:33" ht="24" customHeight="1">
       <c r="A38" s="16" t="s">
-        <v>188</v>
+        <v>316</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D38" s="14">
         <v>4</v>
@@ -7821,7 +7990,7 @@
       </c>
       <c r="J38" s="28"/>
       <c r="K38" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L38" s="28">
         <v>2</v>
@@ -7846,7 +8015,7 @@
         <v>64</v>
       </c>
       <c r="S38" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T38" s="28">
         <v>480</v>
@@ -7873,18 +8042,19 @@
         <v>1058.33</v>
       </c>
       <c r="AE38" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF38" s="16" t="s">
-        <v>231</v>
+        <v>222</v>
+      </c>
+      <c r="AF38" s="16"/>
+      <c r="AG38" s="16" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="28" customHeight="1">
+    <row r="39" spans="1:33" ht="28" customHeight="1">
       <c r="B39" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D39" s="14">
         <v>8</v>
@@ -7906,7 +8076,7 @@
       </c>
       <c r="J39" s="28"/>
       <c r="K39" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L39" s="28">
         <v>2</v>
@@ -7931,7 +8101,7 @@
         <v>128</v>
       </c>
       <c r="S39" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T39" s="28">
         <v>960</v>
@@ -7958,16 +8128,17 @@
         <v>2017</v>
       </c>
       <c r="AE39" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF39" s="16" t="s">
-        <v>231</v>
+        <v>222</v>
+      </c>
+      <c r="AF39" s="16"/>
+      <c r="AG39" s="16" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:32" s="13" customFormat="1" ht="28" customHeight="1">
+    <row r="40" spans="1:33" s="13" customFormat="1" ht="28" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="41" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C40" s="42" t="s">
         <v>144</v>
@@ -7992,7 +8163,7 @@
       </c>
       <c r="J40" s="42"/>
       <c r="K40" s="42" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L40" s="42">
         <v>2</v>
@@ -8016,7 +8187,7 @@
         <v>32</v>
       </c>
       <c r="S40" s="42" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="T40" s="42">
         <v>480</v>
@@ -8030,7 +8201,7 @@
         <v>1</v>
       </c>
       <c r="Y40" s="14" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Z40" s="51">
         <v>3.6</v>
@@ -8042,16 +8213,17 @@
         <v>1288.7</v>
       </c>
       <c r="AE40" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF40" s="16" t="s">
-        <v>231</v>
+        <v>222</v>
+      </c>
+      <c r="AF40" s="16"/>
+      <c r="AG40" s="16" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="41" spans="1:32" s="13" customFormat="1" ht="28" customHeight="1">
+    <row r="41" spans="1:33" s="13" customFormat="1" ht="28" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="41" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C41" s="57" t="s">
         <v>144</v>
@@ -8076,7 +8248,7 @@
       </c>
       <c r="J41" s="42"/>
       <c r="K41" s="42" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L41" s="42">
         <v>2</v>
@@ -8100,7 +8272,7 @@
         <v>32</v>
       </c>
       <c r="S41" s="42" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="T41" s="42">
         <v>480</v>
@@ -8114,7 +8286,7 @@
         <v>1</v>
       </c>
       <c r="Y41" s="14" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Z41" s="51">
         <v>4.8</v>
@@ -8126,15 +8298,16 @@
         <v>1758.7</v>
       </c>
       <c r="AE41" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF41" s="16" t="s">
-        <v>231</v>
+        <v>222</v>
+      </c>
+      <c r="AF41" s="16"/>
+      <c r="AG41" s="16" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="42" spans="1:32">
+    <row r="42" spans="1:33">
       <c r="B42" s="22" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C42" s="57" t="s">
         <v>144</v>
@@ -8161,7 +8334,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L42" s="28">
         <v>2</v>
@@ -8186,7 +8359,7 @@
         <v>64</v>
       </c>
       <c r="S42" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T42" s="28">
         <v>960</v>
@@ -8213,15 +8386,16 @@
         <v>3145</v>
       </c>
       <c r="AE42" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF42" s="16" t="s">
-        <v>231</v>
+        <v>222</v>
+      </c>
+      <c r="AF42" s="16"/>
+      <c r="AG42" s="16" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:32">
+    <row r="43" spans="1:33">
       <c r="B43" s="22" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C43" s="57" t="s">
         <v>144</v>
@@ -8248,7 +8422,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L43" s="28">
         <v>2</v>
@@ -8273,7 +8447,7 @@
         <v>64</v>
       </c>
       <c r="S43" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T43" s="28">
         <v>1000</v>
@@ -8296,15 +8470,16 @@
         <v>4362</v>
       </c>
       <c r="AE43" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF43" s="16" t="s">
-        <v>231</v>
+        <v>222</v>
+      </c>
+      <c r="AF43" s="16"/>
+      <c r="AG43" s="16" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:32">
+    <row r="44" spans="1:33">
       <c r="B44" s="22" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C44" s="57" t="s">
         <v>144</v>
@@ -8331,7 +8506,7 @@
         <v>1</v>
       </c>
       <c r="K44" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L44" s="28">
         <v>2</v>
@@ -8356,7 +8531,7 @@
         <v>128</v>
       </c>
       <c r="S44" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T44" s="28">
         <v>1000</v>
@@ -8370,7 +8545,7 @@
         <v>1</v>
       </c>
       <c r="Y44" s="14" t="str">
-        <f t="shared" ref="Y44:Y51" si="8">W44&amp;"/"&amp;X44</f>
+        <f t="shared" ref="Y44:Y54" si="8">W44&amp;"/"&amp;X44</f>
         <v>40/1</v>
       </c>
       <c r="Z44" s="51"/>
@@ -8379,75 +8554,77 @@
         <v>7133</v>
       </c>
       <c r="AE44" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF44" s="16" t="s">
-        <v>231</v>
+        <v>222</v>
+      </c>
+      <c r="AF44" s="16"/>
+      <c r="AG44" s="16" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="45" spans="1:32">
-      <c r="B45" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="C45" s="57" t="s">
-        <v>259</v>
+    <row r="45" spans="1:33" s="13" customFormat="1">
+      <c r="A45" s="2"/>
+      <c r="B45" s="59" t="s">
+        <v>307</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>311</v>
       </c>
       <c r="D45" s="14">
         <v>2</v>
       </c>
-      <c r="E45" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="F45" s="14">
-        <v>13.9</v>
-      </c>
-      <c r="G45" s="14">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="I45" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="J45" s="14"/>
-      <c r="K45" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="L45" s="14">
+      <c r="E45" s="28">
+        <v>3072</v>
+      </c>
+      <c r="F45" s="28">
+        <v>6.1440000000000001</v>
+      </c>
+      <c r="G45" s="28">
+        <v>0.192</v>
+      </c>
+      <c r="H45" s="28">
+        <v>12</v>
+      </c>
+      <c r="I45" s="28">
+        <v>336</v>
+      </c>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="L45" s="28">
         <v>2</v>
       </c>
-      <c r="M45" s="14">
+      <c r="M45" s="28">
         <v>8</v>
       </c>
-      <c r="N45" s="14">
+      <c r="N45" s="28">
         <v>1.7</v>
       </c>
-      <c r="O45" s="14">
+      <c r="O45" s="28">
         <v>16</v>
       </c>
       <c r="P45" s="14">
         <f>M45*N45*O45/1000</f>
         <v>0.21759999999999999</v>
       </c>
-      <c r="Q45" s="14">
+      <c r="Q45" s="28">
         <v>1866</v>
       </c>
-      <c r="R45" s="14">
+      <c r="R45" s="28">
         <v>32</v>
       </c>
-      <c r="S45" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="T45" s="14">
+      <c r="S45" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="T45" s="28">
         <v>480</v>
       </c>
-      <c r="U45" s="14"/>
-      <c r="V45" s="14"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
       <c r="W45" s="14">
         <v>40</v>
       </c>
-      <c r="X45" s="14">
+      <c r="X45" s="28">
         <v>1</v>
       </c>
       <c r="Y45" s="14" t="str">
@@ -8455,273 +8632,288 @@
         <v>40/1</v>
       </c>
       <c r="Z45" s="51">
-        <v>2.4</v>
-      </c>
-      <c r="AA45" s="51">
-        <v>412.63</v>
-      </c>
+        <f>0.07*60</f>
+        <v>4.2</v>
+      </c>
+      <c r="AA45" s="51"/>
       <c r="AB45" s="51">
-        <v>1630.18</v>
+        <v>1492.7</v>
       </c>
       <c r="AE45" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF45" s="16" t="s">
-        <v>231</v>
+        <v>222</v>
+      </c>
+      <c r="AF45" s="16"/>
+      <c r="AG45" s="16" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="20">
-      <c r="A47" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="C47" s="57" t="s">
-        <v>273</v>
+    <row r="46" spans="1:33" s="13" customFormat="1">
+      <c r="A46" s="2"/>
+      <c r="B46" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="D46" s="14">
+        <v>4</v>
+      </c>
+      <c r="E46" s="28">
+        <v>3072</v>
+      </c>
+      <c r="F46" s="28">
+        <v>6.1440000000000001</v>
+      </c>
+      <c r="G46" s="28">
+        <v>0.192</v>
+      </c>
+      <c r="H46" s="28">
+        <v>12</v>
+      </c>
+      <c r="I46" s="28">
+        <v>336</v>
+      </c>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="L46" s="28">
+        <v>2</v>
+      </c>
+      <c r="M46" s="28">
+        <v>8</v>
+      </c>
+      <c r="N46" s="28">
+        <v>1.7</v>
+      </c>
+      <c r="O46" s="28">
+        <v>16</v>
+      </c>
+      <c r="P46" s="14">
+        <f>M46*N46*O46/1000</f>
+        <v>0.21759999999999999</v>
+      </c>
+      <c r="Q46" s="28">
+        <v>1866</v>
+      </c>
+      <c r="R46" s="28">
+        <v>64</v>
+      </c>
+      <c r="S46" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="T46" s="28">
+        <v>480</v>
+      </c>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="14">
+        <v>40</v>
+      </c>
+      <c r="X46" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>40/1</v>
+      </c>
+      <c r="Z46" s="51">
+        <f>0.1*60</f>
+        <v>6</v>
+      </c>
+      <c r="AA46" s="51"/>
+      <c r="AB46" s="51">
+        <v>2131.4</v>
+      </c>
+      <c r="AE46" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF46" s="16"/>
+      <c r="AG46" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" s="13" customFormat="1">
+      <c r="A47" s="2"/>
+      <c r="B47" s="59" t="s">
+        <v>309</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>311</v>
       </c>
       <c r="D47" s="14">
+        <v>8</v>
+      </c>
+      <c r="E47" s="28">
+        <v>3072</v>
+      </c>
+      <c r="F47" s="28">
+        <v>6.1440000000000001</v>
+      </c>
+      <c r="G47" s="28">
+        <v>0.192</v>
+      </c>
+      <c r="H47" s="28">
+        <v>12</v>
+      </c>
+      <c r="I47" s="28">
+        <v>336</v>
+      </c>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="L47" s="28">
         <v>2</v>
       </c>
-      <c r="E47" s="14">
-        <v>3584</v>
-      </c>
-      <c r="F47" s="42">
-        <v>9.5</v>
-      </c>
-      <c r="G47" s="42">
-        <v>4.7</v>
-      </c>
-      <c r="H47" s="42">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I47" s="42">
-        <v>720</v>
-      </c>
-      <c r="J47" s="28">
-        <v>1</v>
-      </c>
-      <c r="K47" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="L47" s="14">
-        <v>2</v>
-      </c>
-      <c r="M47" s="14">
-        <v>18</v>
-      </c>
-      <c r="N47" s="14">
-        <v>2.1</v>
-      </c>
-      <c r="O47" s="14">
+      <c r="M47" s="28">
+        <v>10</v>
+      </c>
+      <c r="N47" s="28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O47" s="28">
         <v>16</v>
       </c>
       <c r="P47" s="14">
         <f>M47*N47*O47/1000</f>
-        <v>0.60480000000000012</v>
-      </c>
-      <c r="Q47" s="14">
-        <v>2400</v>
-      </c>
-      <c r="R47" s="14">
-        <v>256</v>
-      </c>
-      <c r="S47" s="57" t="s">
-        <v>274</v>
-      </c>
-      <c r="T47" s="14">
-        <v>1000</v>
-      </c>
-      <c r="U47" s="14"/>
-      <c r="V47" s="14"/>
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="Q47" s="28">
+        <v>2133</v>
+      </c>
+      <c r="R47" s="28">
+        <v>128</v>
+      </c>
+      <c r="S47" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="T47" s="28">
+        <v>960</v>
+      </c>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
       <c r="W47" s="14">
-        <v>13.635</v>
+        <v>40</v>
+      </c>
+      <c r="X47" s="28">
+        <v>1</v>
       </c>
       <c r="Y47" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>13.635/</v>
-      </c>
-      <c r="AC47" s="52">
-        <f>200000/1.08 /4</f>
-        <v>46296.296296296292</v>
+        <v>40/1</v>
+      </c>
+      <c r="Z47" s="51">
+        <f>0.16*60</f>
+        <v>9.6</v>
+      </c>
+      <c r="AA47" s="51"/>
+      <c r="AB47" s="51">
+        <v>3408.81</v>
       </c>
       <c r="AE47" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF47" s="16" t="s">
-        <v>289</v>
+        <v>222</v>
+      </c>
+      <c r="AF47" s="16"/>
+      <c r="AG47" s="16" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:32">
-      <c r="A48" s="16" t="s">
-        <v>283</v>
-      </c>
+    <row r="48" spans="1:33">
       <c r="B48" s="22" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="C48" s="57" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="D48" s="14">
         <v>2</v>
       </c>
-      <c r="E48" s="14">
-        <v>3584</v>
-      </c>
-      <c r="F48" s="42">
-        <v>9.5</v>
-      </c>
-      <c r="G48" s="42">
-        <v>4.7</v>
-      </c>
-      <c r="H48" s="42">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I48" s="42">
-        <v>720</v>
-      </c>
-      <c r="J48" s="28">
-        <v>1</v>
-      </c>
+      <c r="E48" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="F48" s="14">
+        <v>13.9</v>
+      </c>
+      <c r="G48" s="14">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="J48" s="14"/>
       <c r="K48" s="57" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="L48" s="14">
         <v>2</v>
       </c>
       <c r="M48" s="14">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N48" s="14">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O48" s="14">
         <v>16</v>
       </c>
       <c r="P48" s="14">
-        <f t="shared" ref="P48:P51" si="9">M48*N48*O48/1000</f>
-        <v>0.60480000000000012</v>
+        <f>M48*N48*O48/1000</f>
+        <v>0.21759999999999999</v>
       </c>
       <c r="Q48" s="14">
-        <v>2400</v>
+        <v>1866</v>
       </c>
       <c r="R48" s="14">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="S48" s="57" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="T48" s="14">
-        <v>4000</v>
+        <v>480</v>
       </c>
       <c r="U48" s="14"/>
       <c r="V48" s="14"/>
       <c r="W48" s="14">
-        <v>13.635</v>
+        <v>40</v>
+      </c>
+      <c r="X48" s="14">
+        <v>1</v>
       </c>
       <c r="Y48" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>13.635/</v>
-      </c>
-      <c r="AC48" s="52">
-        <f>400000/1.08 /4</f>
-        <v>92592.592592592584</v>
+        <v>40/1</v>
+      </c>
+      <c r="Z48" s="51">
+        <v>2.4</v>
+      </c>
+      <c r="AA48" s="51">
+        <v>412.63</v>
+      </c>
+      <c r="AB48" s="51">
+        <v>1630.18</v>
       </c>
       <c r="AE48" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF48" s="16" t="s">
-        <v>285</v>
+        <v>222</v>
+      </c>
+      <c r="AF48" s="16"/>
+      <c r="AG48" s="16" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="49" spans="1:32">
-      <c r="A49" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="C49" s="57" t="s">
-        <v>273</v>
-      </c>
-      <c r="D49" s="14">
-        <v>2</v>
-      </c>
-      <c r="E49" s="14">
-        <v>3584</v>
-      </c>
-      <c r="F49" s="42">
-        <v>9.5</v>
-      </c>
-      <c r="G49" s="42">
-        <v>4.7</v>
-      </c>
-      <c r="H49" s="42">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I49" s="42">
-        <v>720</v>
-      </c>
-      <c r="J49" s="28">
-        <v>1</v>
-      </c>
-      <c r="K49" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="L49" s="14">
-        <v>2</v>
-      </c>
-      <c r="M49" s="14">
-        <v>18</v>
-      </c>
-      <c r="N49" s="14">
-        <v>2.1</v>
-      </c>
-      <c r="O49" s="14">
-        <v>16</v>
-      </c>
-      <c r="P49" s="14">
-        <f t="shared" si="9"/>
-        <v>0.60480000000000012</v>
-      </c>
-      <c r="Q49" s="14">
-        <v>2400</v>
-      </c>
-      <c r="R49" s="14">
-        <v>256</v>
-      </c>
-      <c r="S49" s="57" t="s">
-        <v>274</v>
-      </c>
-      <c r="T49" s="14">
-        <v>4000</v>
-      </c>
-      <c r="U49" s="14"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14">
-        <v>13.635</v>
-      </c>
-      <c r="Y49" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>13.635/</v>
-      </c>
-      <c r="AC49" s="52">
-        <f>480000/1.08 /4</f>
-        <v>111111.11111111111</v>
-      </c>
-      <c r="AE49" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF49" s="16" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="50" spans="1:32">
+    <row r="50" spans="1:33" ht="20">
+      <c r="A50" s="21" t="s">
+        <v>266</v>
+      </c>
       <c r="B50" s="22" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C50" s="57" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D50" s="14">
         <v>2</v>
@@ -8745,7 +8937,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="57" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L50" s="14">
         <v>2</v>
@@ -8760,7 +8952,7 @@
         <v>16</v>
       </c>
       <c r="P50" s="14">
-        <f t="shared" si="9"/>
+        <f>M50*N50*O50/1000</f>
         <v>0.60480000000000012</v>
       </c>
       <c r="Q50" s="14">
@@ -8770,11 +8962,13 @@
         <v>256</v>
       </c>
       <c r="S50" s="57" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="T50" s="14">
-        <v>8000</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
       <c r="W50" s="14">
         <v>13.635</v>
       </c>
@@ -8783,22 +8977,29 @@
         <v>13.635/</v>
       </c>
       <c r="AC50" s="52">
-        <f>700000/1.08 /8</f>
-        <v>81018.518518518511</v>
+        <f>150000/1.08</f>
+        <v>138888.88888888888</v>
       </c>
       <c r="AE50" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF50" s="16" t="s">
-        <v>286</v>
+        <v>221</v>
+      </c>
+      <c r="AF50" s="16">
+        <f>17280/2.5</f>
+        <v>6912</v>
+      </c>
+      <c r="AG50" s="16" t="s">
+        <v>324</v>
       </c>
     </row>
-    <row r="51" spans="1:32">
+    <row r="51" spans="1:33">
+      <c r="A51" s="16" t="s">
+        <v>280</v>
+      </c>
       <c r="B51" s="22" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C51" s="57" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D51" s="14">
         <v>2</v>
@@ -8822,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="57" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L51" s="14">
         <v>2</v>
@@ -8837,7 +9038,7 @@
         <v>16</v>
       </c>
       <c r="P51" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="P51:P54" si="9">M51*N51*O51/1000</f>
         <v>0.60480000000000012</v>
       </c>
       <c r="Q51" s="14">
@@ -8847,11 +9048,13 @@
         <v>256</v>
       </c>
       <c r="S51" s="57" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="T51" s="14">
-        <v>8000</v>
-      </c>
+        <v>4000</v>
+      </c>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
       <c r="W51" s="14">
         <v>13.635</v>
       </c>
@@ -8860,478 +9063,727 @@
         <v>13.635/</v>
       </c>
       <c r="AC51" s="52">
+        <f>300000/1.08</f>
+        <v>277777.77777777775</v>
+      </c>
+      <c r="AE51" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF51" s="16">
+        <f>34560/2.5</f>
+        <v>13824</v>
+      </c>
+      <c r="AG51" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33">
+      <c r="A52" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="C52" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="D52" s="14">
+        <v>2</v>
+      </c>
+      <c r="E52" s="14">
+        <v>3584</v>
+      </c>
+      <c r="F52" s="42">
+        <v>9.5</v>
+      </c>
+      <c r="G52" s="42">
+        <v>4.7</v>
+      </c>
+      <c r="H52" s="42">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I52" s="42">
+        <v>720</v>
+      </c>
+      <c r="J52" s="28">
+        <v>1</v>
+      </c>
+      <c r="K52" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="L52" s="14">
+        <v>2</v>
+      </c>
+      <c r="M52" s="14">
+        <v>18</v>
+      </c>
+      <c r="N52" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="O52" s="14">
+        <v>16</v>
+      </c>
+      <c r="P52" s="14">
+        <f t="shared" si="9"/>
+        <v>0.60480000000000012</v>
+      </c>
+      <c r="Q52" s="14">
+        <v>2400</v>
+      </c>
+      <c r="R52" s="14">
+        <v>256</v>
+      </c>
+      <c r="S52" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="T52" s="14">
+        <v>4000</v>
+      </c>
+      <c r="U52" s="14"/>
+      <c r="V52" s="14"/>
+      <c r="W52" s="14">
+        <v>13.635</v>
+      </c>
+      <c r="Y52" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>13.635/</v>
+      </c>
+      <c r="AC52" s="52">
+        <f>480000/1.08 /4</f>
+        <v>111111.11111111111</v>
+      </c>
+      <c r="AE52" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF52" s="16"/>
+      <c r="AG52" s="16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33">
+      <c r="B53" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="D53" s="14">
+        <v>2</v>
+      </c>
+      <c r="E53" s="14">
+        <v>3584</v>
+      </c>
+      <c r="F53" s="42">
+        <v>9.5</v>
+      </c>
+      <c r="G53" s="42">
+        <v>4.7</v>
+      </c>
+      <c r="H53" s="42">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I53" s="42">
+        <v>720</v>
+      </c>
+      <c r="J53" s="28">
+        <v>1</v>
+      </c>
+      <c r="K53" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="L53" s="14">
+        <v>2</v>
+      </c>
+      <c r="M53" s="14">
+        <v>18</v>
+      </c>
+      <c r="N53" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="O53" s="14">
+        <v>16</v>
+      </c>
+      <c r="P53" s="14">
+        <f t="shared" si="9"/>
+        <v>0.60480000000000012</v>
+      </c>
+      <c r="Q53" s="14">
+        <v>2400</v>
+      </c>
+      <c r="R53" s="14">
+        <v>256</v>
+      </c>
+      <c r="S53" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="T53" s="14">
+        <v>8000</v>
+      </c>
+      <c r="W53" s="14">
+        <v>13.635</v>
+      </c>
+      <c r="Y53" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>13.635/</v>
+      </c>
+      <c r="AC53" s="52">
+        <f>700000/1.08 /8</f>
+        <v>81018.518518518511</v>
+      </c>
+      <c r="AE53" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF53" s="16"/>
+      <c r="AG53" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33">
+      <c r="B54" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="C54" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="D54" s="14">
+        <v>2</v>
+      </c>
+      <c r="E54" s="14">
+        <v>3584</v>
+      </c>
+      <c r="F54" s="42">
+        <v>9.5</v>
+      </c>
+      <c r="G54" s="42">
+        <v>4.7</v>
+      </c>
+      <c r="H54" s="42">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I54" s="42">
+        <v>720</v>
+      </c>
+      <c r="J54" s="28">
+        <v>1</v>
+      </c>
+      <c r="K54" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="L54" s="14">
+        <v>2</v>
+      </c>
+      <c r="M54" s="14">
+        <v>18</v>
+      </c>
+      <c r="N54" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="O54" s="14">
+        <v>16</v>
+      </c>
+      <c r="P54" s="14">
+        <f t="shared" si="9"/>
+        <v>0.60480000000000012</v>
+      </c>
+      <c r="Q54" s="14">
+        <v>2400</v>
+      </c>
+      <c r="R54" s="14">
+        <v>256</v>
+      </c>
+      <c r="S54" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="T54" s="14">
+        <v>8000</v>
+      </c>
+      <c r="W54" s="14">
+        <v>13.635</v>
+      </c>
+      <c r="Y54" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>13.635/</v>
+      </c>
+      <c r="AC54" s="52">
         <f>840000/1.08 /8</f>
         <v>97222.222222222219</v>
       </c>
-      <c r="AE51" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF51" s="16" t="s">
-        <v>286</v>
+      <c r="AE54" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF54" s="16"/>
+      <c r="AG54" s="16" t="s">
+        <v>282</v>
       </c>
     </row>
-    <row r="52" spans="1:32">
-      <c r="B52" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="C52" s="57" t="s">
-        <v>273</v>
-      </c>
-      <c r="D52" s="14">
+    <row r="55" spans="1:33">
+      <c r="B55" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="C55" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="D55" s="14">
         <v>2</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E55" s="14">
         <v>3584</v>
       </c>
-      <c r="F52" s="42">
+      <c r="F55" s="42">
         <v>9.5</v>
       </c>
-      <c r="G52" s="42">
+      <c r="G55" s="42">
         <v>4.7</v>
       </c>
-      <c r="H52" s="42">
+      <c r="H55" s="42">
         <v>16.399999999999999</v>
       </c>
-      <c r="I52" s="42">
+      <c r="I55" s="42">
         <v>720</v>
       </c>
-      <c r="J52" s="28">
+      <c r="J55" s="28">
         <v>1</v>
       </c>
-      <c r="K52" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="L52" s="14">
+      <c r="K55" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="L55" s="14">
         <v>2</v>
       </c>
-      <c r="M52" s="14">
+      <c r="M55" s="14">
         <v>18</v>
       </c>
-      <c r="N52" s="14">
+      <c r="N55" s="14">
         <v>2.1</v>
       </c>
-      <c r="O52" s="14">
+      <c r="O55" s="14">
         <v>16</v>
       </c>
-      <c r="P52" s="14">
-        <f t="shared" ref="P52:P53" si="10">M52*N52*O52/1000</f>
+      <c r="P55" s="14">
+        <f t="shared" ref="P55:P56" si="10">M55*N55*O55/1000</f>
         <v>0.60480000000000012</v>
       </c>
-      <c r="Q52" s="14">
+      <c r="Q55" s="14">
         <v>2400</v>
       </c>
-      <c r="R52" s="14">
+      <c r="R55" s="14">
         <v>256</v>
       </c>
-      <c r="S52" s="57" t="s">
-        <v>274</v>
-      </c>
-      <c r="T52" s="14">
+      <c r="S55" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="T55" s="14">
         <v>8000</v>
       </c>
-      <c r="U52" s="13"/>
-      <c r="V52" s="13"/>
-      <c r="W52" s="14">
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="14">
         <v>13.635</v>
       </c>
-      <c r="X52" s="13"/>
-      <c r="Y52" s="14" t="str">
-        <f t="shared" ref="Y52:Y53" si="11">W52&amp;"/"&amp;X52</f>
+      <c r="X55" s="13"/>
+      <c r="Y55" s="14" t="str">
+        <f t="shared" ref="Y55:Y56" si="11">W55&amp;"/"&amp;X55</f>
         <v>13.635/</v>
       </c>
-      <c r="AC52" s="52">
+      <c r="AC55" s="52">
         <f>1000000/1.08 /8</f>
         <v>115740.74074074073</v>
       </c>
-      <c r="AE52" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF52" s="16" t="s">
-        <v>286</v>
+      <c r="AE55" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF55" s="16"/>
+      <c r="AG55" s="16" t="s">
+        <v>282</v>
       </c>
     </row>
-    <row r="53" spans="1:32">
-      <c r="B53" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="C53" s="57" t="s">
-        <v>273</v>
-      </c>
-      <c r="D53" s="14">
+    <row r="56" spans="1:33">
+      <c r="B56" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="C56" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="D56" s="14">
         <v>2</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E56" s="14">
         <v>3584</v>
       </c>
-      <c r="F53" s="42">
+      <c r="F56" s="42">
         <v>9.5</v>
       </c>
-      <c r="G53" s="42">
+      <c r="G56" s="42">
         <v>4.7</v>
       </c>
-      <c r="H53" s="42">
+      <c r="H56" s="42">
         <v>16.399999999999999</v>
       </c>
-      <c r="I53" s="42">
+      <c r="I56" s="42">
         <v>720</v>
       </c>
-      <c r="J53" s="28">
+      <c r="J56" s="28">
         <v>1</v>
       </c>
-      <c r="K53" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="L53" s="14">
+      <c r="K56" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="L56" s="14">
         <v>2</v>
       </c>
-      <c r="M53" s="14">
+      <c r="M56" s="14">
         <v>18</v>
       </c>
-      <c r="N53" s="14">
+      <c r="N56" s="14">
         <v>2.1</v>
       </c>
-      <c r="O53" s="14">
+      <c r="O56" s="14">
         <v>16</v>
       </c>
-      <c r="P53" s="14">
+      <c r="P56" s="14">
         <f t="shared" si="10"/>
         <v>0.60480000000000012</v>
       </c>
-      <c r="Q53" s="14">
+      <c r="Q56" s="14">
         <v>2400</v>
       </c>
-      <c r="R53" s="14">
+      <c r="R56" s="14">
         <v>256</v>
       </c>
-      <c r="S53" s="57" t="s">
-        <v>274</v>
-      </c>
-      <c r="T53" s="14">
+      <c r="S56" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="T56" s="14">
         <v>8000</v>
       </c>
-      <c r="U53" s="13"/>
-      <c r="V53" s="13"/>
-      <c r="W53" s="14">
+      <c r="U56" s="13"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="14">
         <v>13.635</v>
       </c>
-      <c r="X53" s="13"/>
-      <c r="Y53" s="14" t="str">
+      <c r="X56" s="13"/>
+      <c r="Y56" s="14" t="str">
         <f t="shared" si="11"/>
         <v>13.635/</v>
       </c>
-      <c r="AC53" s="52">
+      <c r="AC56" s="52">
         <f>1200000/1.08 /8</f>
         <v>138888.88888888888</v>
       </c>
-      <c r="AE53" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF53" s="16" t="s">
-        <v>286</v>
+      <c r="AE56" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF56" s="16"/>
+      <c r="AG56" s="16" t="s">
+        <v>282</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="20">
-      <c r="A55" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="B55" s="22" t="s">
+    <row r="58" spans="1:33" ht="20">
+      <c r="A58" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="C58" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="D58" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="14">
+        <v>8.74</v>
+      </c>
+      <c r="G58" s="14">
+        <v>2.91</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" s="14"/>
+      <c r="K58" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="L58" s="14">
+        <v>1</v>
+      </c>
+      <c r="M58" s="14">
+        <v>6</v>
+      </c>
+      <c r="N58" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="O58" s="14">
+        <v>16</v>
+      </c>
+      <c r="P58" s="14">
+        <f t="shared" ref="P58" si="12">M58*N58*O58/1000</f>
+        <v>0.24960000000000002</v>
+      </c>
+      <c r="Q58" s="14">
+        <v>2133</v>
+      </c>
+      <c r="R58" s="14">
+        <v>56</v>
+      </c>
+      <c r="S58" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="T58" s="14">
+        <v>380</v>
+      </c>
+      <c r="W58" s="14"/>
+      <c r="X58" s="14"/>
+      <c r="Y58" s="14"/>
+      <c r="Z58" s="24">
+        <v>1.08</v>
+      </c>
+      <c r="AB58" s="10">
+        <v>803.52</v>
+      </c>
+      <c r="AC58" s="58"/>
+      <c r="AE58" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="AF58" s="16"/>
+      <c r="AG58" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="C55" s="57" t="s">
+    </row>
+    <row r="59" spans="1:33">
+      <c r="A59" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="C59" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="D59" s="14">
+        <v>1</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="14">
+        <v>8.74</v>
+      </c>
+      <c r="G59" s="14">
+        <v>2.91</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" s="14"/>
+      <c r="K59" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="L59" s="14">
+        <v>1</v>
+      </c>
+      <c r="M59" s="14">
+        <v>12</v>
+      </c>
+      <c r="N59" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="O59" s="14">
+        <v>16</v>
+      </c>
+      <c r="P59" s="14">
+        <f t="shared" ref="P59:P61" si="13">M59*N59*O59/1000</f>
+        <v>0.49920000000000003</v>
+      </c>
+      <c r="Q59" s="14">
+        <v>2133</v>
+      </c>
+      <c r="R59" s="14">
+        <v>112</v>
+      </c>
+      <c r="S59" s="57" t="s">
         <v>302</v>
       </c>
-      <c r="D55" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="E55" s="14" t="s">
+      <c r="T59" s="14">
+        <v>680</v>
+      </c>
+      <c r="W59" s="14"/>
+      <c r="X59" s="14"/>
+      <c r="Y59" s="14"/>
+      <c r="Z59" s="24">
+        <v>2.16</v>
+      </c>
+      <c r="AB59" s="10">
+        <v>1607.04</v>
+      </c>
+      <c r="AC59" s="58"/>
+      <c r="AE59" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="AF59" s="16"/>
+    </row>
+    <row r="60" spans="1:33">
+      <c r="A60" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="C60" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="D60" s="14">
+        <v>2</v>
+      </c>
+      <c r="E60" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F60" s="14">
         <v>8.74</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G60" s="14">
         <v>2.91</v>
       </c>
-      <c r="H55" s="14" t="s">
+      <c r="H60" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I55" s="14" t="s">
+      <c r="I60" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J55" s="14"/>
-      <c r="K55" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="L55" s="14">
+      <c r="J60" s="14"/>
+      <c r="K60" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="L60" s="14">
         <v>1</v>
       </c>
-      <c r="M55" s="14">
-        <v>6</v>
-      </c>
-      <c r="N55" s="14">
+      <c r="M60" s="14">
+        <v>24</v>
+      </c>
+      <c r="N60" s="14">
         <v>2.6</v>
       </c>
-      <c r="O55" s="14">
+      <c r="O60" s="14">
         <v>16</v>
       </c>
-      <c r="P55" s="14">
-        <f t="shared" ref="P55" si="12">M55*N55*O55/1000</f>
-        <v>0.24960000000000002</v>
-      </c>
-      <c r="Q55" s="14">
-        <v>2133</v>
-      </c>
-      <c r="R55" s="14">
-        <v>56</v>
-      </c>
-      <c r="S55" s="57" t="s">
-        <v>312</v>
-      </c>
-      <c r="T55" s="14">
-        <v>380</v>
-      </c>
-      <c r="W55" s="14"/>
-      <c r="X55" s="14"/>
-      <c r="Y55" s="14"/>
-      <c r="Z55" s="24">
-        <v>1.08</v>
-      </c>
-      <c r="AB55" s="10">
-        <v>803.52</v>
-      </c>
-      <c r="AC55" s="59"/>
-      <c r="AE55" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="AF55" s="16" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="56" spans="1:32">
-      <c r="A56" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="C56" s="57" t="s">
-        <v>302</v>
-      </c>
-      <c r="D56" s="14">
-        <v>1</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="14">
-        <v>8.74</v>
-      </c>
-      <c r="G56" s="14">
-        <v>2.91</v>
-      </c>
-      <c r="H56" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I56" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J56" s="14"/>
-      <c r="K56" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="L56" s="14">
-        <v>1</v>
-      </c>
-      <c r="M56" s="14">
-        <v>12</v>
-      </c>
-      <c r="N56" s="14">
-        <v>2.6</v>
-      </c>
-      <c r="O56" s="14">
-        <v>16</v>
-      </c>
-      <c r="P56" s="14">
-        <f t="shared" ref="P56:P58" si="13">M56*N56*O56/1000</f>
-        <v>0.49920000000000003</v>
-      </c>
-      <c r="Q56" s="14">
-        <v>2133</v>
-      </c>
-      <c r="R56" s="14">
-        <v>112</v>
-      </c>
-      <c r="S56" s="57" t="s">
-        <v>312</v>
-      </c>
-      <c r="T56" s="14">
-        <v>680</v>
-      </c>
-      <c r="W56" s="14"/>
-      <c r="X56" s="14"/>
-      <c r="Y56" s="14"/>
-      <c r="Z56" s="24">
-        <v>2.16</v>
-      </c>
-      <c r="AB56" s="10">
-        <v>1607.04</v>
-      </c>
-      <c r="AC56" s="59"/>
-      <c r="AE56" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="57" spans="1:32">
-      <c r="A57" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="C57" s="57" t="s">
-        <v>302</v>
-      </c>
-      <c r="D57" s="14">
-        <v>2</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F57" s="14">
-        <v>8.74</v>
-      </c>
-      <c r="G57" s="14">
-        <v>2.91</v>
-      </c>
-      <c r="H57" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I57" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J57" s="14"/>
-      <c r="K57" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="L57" s="14">
-        <v>1</v>
-      </c>
-      <c r="M57" s="14">
-        <v>24</v>
-      </c>
-      <c r="N57" s="14">
-        <v>2.6</v>
-      </c>
-      <c r="O57" s="14">
-        <v>16</v>
-      </c>
-      <c r="P57" s="14">
+      <c r="P60" s="14">
         <f t="shared" si="13"/>
         <v>0.99840000000000007</v>
       </c>
-      <c r="Q57" s="14">
+      <c r="Q60" s="14">
         <v>2133</v>
       </c>
-      <c r="R57" s="14">
+      <c r="R60" s="14">
         <v>224</v>
       </c>
-      <c r="S57" s="57" t="s">
-        <v>312</v>
-      </c>
-      <c r="T57" s="14">
+      <c r="S60" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="T60" s="14">
         <v>1440</v>
       </c>
-      <c r="W57" s="14"/>
-      <c r="X57" s="14"/>
-      <c r="Y57" s="14"/>
-      <c r="Z57" s="24">
+      <c r="W60" s="14"/>
+      <c r="X60" s="14"/>
+      <c r="Y60" s="14"/>
+      <c r="Z60" s="24">
         <v>4.32</v>
       </c>
-      <c r="AB57" s="10">
+      <c r="AB60" s="10">
         <v>3214.08</v>
       </c>
-      <c r="AC57" s="59"/>
-      <c r="AE57" s="16" t="s">
-        <v>303</v>
-      </c>
+      <c r="AC60" s="58"/>
+      <c r="AE60" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="AF60" s="16"/>
     </row>
-    <row r="58" spans="1:32">
-      <c r="B58" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="C58" s="57" t="s">
-        <v>302</v>
-      </c>
-      <c r="D58" s="14">
+    <row r="61" spans="1:33">
+      <c r="B61" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="C61" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="D61" s="14">
         <v>2</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E61" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F61" s="14">
         <v>8.74</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G61" s="14">
         <v>2.91</v>
       </c>
-      <c r="H58" s="14" t="s">
+      <c r="H61" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I58" s="14" t="s">
+      <c r="I61" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J58" s="14"/>
-      <c r="K58" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="L58" s="14">
+      <c r="J61" s="14"/>
+      <c r="K61" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="L61" s="14">
         <v>1</v>
       </c>
-      <c r="M58" s="14">
+      <c r="M61" s="14">
         <v>24</v>
       </c>
-      <c r="N58" s="14">
+      <c r="N61" s="14">
         <v>2.6</v>
       </c>
-      <c r="O58" s="14">
+      <c r="O61" s="14">
         <v>16</v>
       </c>
-      <c r="P58" s="14">
+      <c r="P61" s="14">
         <f t="shared" si="13"/>
         <v>0.99840000000000007</v>
       </c>
-      <c r="Q58" s="14">
+      <c r="Q61" s="14">
         <v>2133</v>
       </c>
-      <c r="R58" s="14">
+      <c r="R61" s="14">
         <v>224</v>
       </c>
-      <c r="S58" s="57" t="s">
-        <v>312</v>
-      </c>
-      <c r="T58" s="14">
+      <c r="S61" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="T61" s="14">
         <v>1440</v>
       </c>
-      <c r="W58" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="X58" s="14"/>
-      <c r="Y58" s="14" t="str">
-        <f t="shared" ref="Y58" si="14">W58&amp;"/"&amp;X58</f>
+      <c r="W61" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="X61" s="14"/>
+      <c r="Y61" s="14" t="str">
+        <f t="shared" ref="Y61" si="14">W61&amp;"/"&amp;X61</f>
         <v>Infiniband/</v>
       </c>
-      <c r="Z58" s="24">
+      <c r="Z61" s="24">
         <v>4.7519999999999998</v>
       </c>
-      <c r="AB58" s="10">
+      <c r="AB61" s="10">
         <v>3535.49</v>
       </c>
-      <c r="AC58" s="59"/>
-      <c r="AE58" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="AF58" s="16" t="s">
-        <v>311</v>
+      <c r="AC61" s="58"/>
+      <c r="AE61" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="AF61" s="16"/>
+      <c r="AG61" s="16" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -9343,8 +9795,8 @@
     <mergeCell ref="W3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="AG33">
-    <cfRule type="colorScale" priority="67">
+  <conditionalFormatting sqref="AH33">
+    <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9355,8 +9807,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH33">
-    <cfRule type="colorScale" priority="66">
+  <conditionalFormatting sqref="AI33">
+    <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9367,8 +9819,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG34:AG35">
-    <cfRule type="colorScale" priority="62">
+  <conditionalFormatting sqref="AH34:AH35">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9379,8 +9831,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH34:AH35">
-    <cfRule type="colorScale" priority="61">
+  <conditionalFormatting sqref="AI34:AI35">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9391,8 +9843,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG34:AG35">
-    <cfRule type="colorScale" priority="60">
+  <conditionalFormatting sqref="AH34:AH35">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9403,8 +9855,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH34:AH35">
-    <cfRule type="colorScale" priority="59">
+  <conditionalFormatting sqref="AI34:AI35">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9415,33 +9867,33 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FF19:XFD20 FF31:XFD31 Z31 U30:Y31 T30 S30:S31 R30 Q30:Q31 P30 L29:O31 A28:K30 Z35 A17 B18:I18 A21:Q21 S21:V21 K18:V18 A22:V22 Z18:AD22 W18:W22 A12:AD12 B8:AD8 A7:A8 A5:M6 B7:M7 B9:M9 A10:M11 N9:AD11 A23:AD25 A27:M27 L28:M28 N27:O28 A26:O26 P26:AD28 A32:AD32 A34:M34 N34:P35 AG32:XFD34 AG19:AI20 AG35:AI35 AG21:XFD30 AF32:AF35 AF18:AF30 AG5:XFD18 AE5:AF5 Q34:X34 AC34:AD34 AB35 A13:AA13 A14:AD16 P29:X29 Z29:AD30 A33:X33 Z33:AD33 Z34:AA34 N5:AD7 AE6:AE36 AF6:AF16">
-    <cfRule type="expression" dxfId="72" priority="53">
+  <conditionalFormatting sqref="FG19:XFD20 FG31:XFD31 Z31 U30:Y31 T30 S30:S31 R30 Q30:Q31 P30 L29:O31 A28:K30 Z35 A17 B18:I18 A21:Q21 S21:V21 K18:V18 A22:V22 Z18:AD22 W18:W22 A12:AD12 A7:A8 A5:M6 B7:M7 B8:AD9 A23:AD25 A27:M27 L28:M28 N27:O28 A26:O26 P26:AD28 A32:AD32 A34:M34 N34:P35 AH32:XFD34 AH19:AJ20 AH35:AJ35 AH21:XFD30 AG32:AG35 AG18:AG30 AH5:XFD18 AE5:AG5 Q34:X34 AC34:AD34 AB35 A13:AA13 A14:AD16 P29:X29 Z29:AD30 A33:X33 Z33:AD33 Z34:AA34 N5:AD7 AE6:AF36 AG6:AG16 A10:AC11">
+    <cfRule type="expression" dxfId="75" priority="57">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13">
-    <cfRule type="expression" dxfId="71" priority="40">
+    <cfRule type="expression" dxfId="74" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="expression" dxfId="70" priority="39">
+    <cfRule type="expression" dxfId="73" priority="43">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:M35 Q35:X35">
-    <cfRule type="expression" dxfId="69" priority="38">
+    <cfRule type="expression" dxfId="72" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB34">
-    <cfRule type="expression" dxfId="68" priority="37">
+    <cfRule type="expression" dxfId="71" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG32:AG35 AG21:AG30 AG5:AG18">
-    <cfRule type="colorScale" priority="138">
+  <conditionalFormatting sqref="AH32:AH35 AH21:AH30 AH5:AH18">
+    <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9452,8 +9904,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH32:AH35 AH21:AH30 AH5:AH18">
-    <cfRule type="colorScale" priority="142">
+  <conditionalFormatting sqref="AI32:AI35 AI21:AI30 AI5:AI18">
+    <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9464,8 +9916,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG32:AG33 AG21:AG30 AG5:AG18">
-    <cfRule type="colorScale" priority="146">
+  <conditionalFormatting sqref="AH32:AH33 AH21:AH30 AH5:AH18">
+    <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9476,8 +9928,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH32:AH33 AH21:AH30 AH5:AH18">
-    <cfRule type="colorScale" priority="150">
+  <conditionalFormatting sqref="AI32:AI33 AI21:AI30 AI5:AI18">
+    <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9488,19 +9940,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI32:AI35 AI21:AI30 AI5:AI18">
-    <cfRule type="colorScale" priority="154">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG21:AG30 AG5:AG18">
+  <conditionalFormatting sqref="AJ32:AJ35 AJ21:AJ30 AJ5:AJ18">
     <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="min"/>
@@ -9513,7 +9953,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH21:AH30 AH5:AH18">
-    <cfRule type="colorScale" priority="161">
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI21:AI30 AI5:AI18">
+    <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9525,11 +9977,153 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:Q20 S20:V20">
-    <cfRule type="expression" dxfId="67" priority="29">
+    <cfRule type="expression" dxfId="70" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG20">
+  <conditionalFormatting sqref="AH20">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI20">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH20">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI20">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ20">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH20">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI20">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:I19">
+    <cfRule type="expression" dxfId="69" priority="24">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:D19 R20:R21 K19:V19">
+    <cfRule type="expression" dxfId="68" priority="25">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH19">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI19">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH19">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI19">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ19">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -9541,20 +10135,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH20">
+  <conditionalFormatting sqref="AH19">
     <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG20">
-    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9565,138 +10147,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH20">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI20">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG20">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH20">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19:I19">
-    <cfRule type="expression" dxfId="66" priority="20">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:D19 R20:R21 K19:V19">
-    <cfRule type="expression" dxfId="65" priority="21">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG19">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH19">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG19">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH19">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AI19">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG19">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH19">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9708,109 +10160,130 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P37:P39">
-    <cfRule type="expression" dxfId="64" priority="19">
+    <cfRule type="expression" dxfId="67" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y17:Y22">
-    <cfRule type="expression" dxfId="63" priority="18">
+    <cfRule type="expression" dxfId="66" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y29">
-    <cfRule type="expression" dxfId="62" priority="17">
+    <cfRule type="expression" dxfId="65" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y33:Y35">
-    <cfRule type="expression" dxfId="61" priority="16">
+    <cfRule type="expression" dxfId="64" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y37:Y39">
-    <cfRule type="expression" dxfId="60" priority="15">
+    <cfRule type="expression" dxfId="63" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44">
-    <cfRule type="expression" dxfId="59" priority="14">
+    <cfRule type="expression" dxfId="62" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y44:Y45">
-    <cfRule type="expression" dxfId="58" priority="13">
+  <conditionalFormatting sqref="Y44:Y48">
+    <cfRule type="expression" dxfId="61" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P42:P43">
-    <cfRule type="expression" dxfId="57" priority="12">
+    <cfRule type="expression" dxfId="60" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y42:Y43">
-    <cfRule type="expression" dxfId="56" priority="11">
+    <cfRule type="expression" dxfId="59" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P45">
-    <cfRule type="expression" dxfId="55" priority="10">
+  <conditionalFormatting sqref="P48">
+    <cfRule type="expression" dxfId="58" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P47:P51">
-    <cfRule type="expression" dxfId="54" priority="9">
+  <conditionalFormatting sqref="P50:P54">
+    <cfRule type="expression" dxfId="57" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y47:Y51">
-    <cfRule type="expression" dxfId="53" priority="8">
+  <conditionalFormatting sqref="Y50:Y54">
+    <cfRule type="expression" dxfId="56" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE47:AE53">
-    <cfRule type="expression" dxfId="52" priority="7">
+  <conditionalFormatting sqref="AE50:AF56">
+    <cfRule type="expression" dxfId="55" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P52:P53">
-    <cfRule type="expression" dxfId="51" priority="6">
+  <conditionalFormatting sqref="P55:P56">
+    <cfRule type="expression" dxfId="54" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y52:Y53">
-    <cfRule type="expression" dxfId="50" priority="5">
+  <conditionalFormatting sqref="Y55:Y56">
+    <cfRule type="expression" dxfId="53" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M55:P55 N56:P58">
-    <cfRule type="expression" dxfId="49" priority="4">
+  <conditionalFormatting sqref="M58:P58 N59:P61">
+    <cfRule type="expression" dxfId="52" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q55:Q58">
-    <cfRule type="expression" dxfId="48" priority="3">
+  <conditionalFormatting sqref="Q58:Q61">
+    <cfRule type="expression" dxfId="51" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y58">
-    <cfRule type="expression" dxfId="47" priority="2">
+  <conditionalFormatting sqref="Y61">
+    <cfRule type="expression" dxfId="50" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55:I58">
-    <cfRule type="expression" dxfId="46" priority="1">
+  <conditionalFormatting sqref="E58:I61">
+    <cfRule type="expression" dxfId="49" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45:C47">
+    <cfRule type="expression" dxfId="48" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:I47">
+    <cfRule type="expression" dxfId="47" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P45:P46">
+    <cfRule type="expression" dxfId="46" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P47">
+    <cfRule type="expression" dxfId="45" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A18" r:id="rId1"/>
+    <hyperlink ref="A52" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="56" fitToWidth="2" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="Y47:Y51" emptyCellReference="1"/>
+    <ignoredError sqref="Y50:Y54" emptyCellReference="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -9822,13 +10295,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AC66"/>
+  <dimension ref="A1:AC67"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F38" activePane="bottomRight" state="frozen"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R70" sqref="R70"/>
+      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -9852,13 +10325,14 @@
     <col min="20" max="20" width="15" customWidth="1"/>
     <col min="21" max="21" width="15.6640625" customWidth="1"/>
     <col min="22" max="22" width="14.1640625" customWidth="1"/>
-    <col min="24" max="24" width="93.1640625" customWidth="1"/>
-    <col min="25" max="25" width="7.33203125" style="13" customWidth="1"/>
+    <col min="24" max="24" width="12" style="13" customWidth="1"/>
+    <col min="25" max="25" width="93.1640625" customWidth="1"/>
+    <col min="26" max="26" width="7.33203125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="49" customFormat="1">
       <c r="A1" s="48" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="48" t="s">
@@ -9867,28 +10341,28 @@
       <c r="D1" s="47"/>
       <c r="E1" s="47"/>
       <c r="F1" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="H1" s="48" t="s">
+      <c r="I1" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="J1" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="J1" s="48" t="s">
-        <v>213</v>
-      </c>
       <c r="K1" s="48" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L1" s="48" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N1" s="48" t="s">
         <v>148</v>
@@ -9903,25 +10377,28 @@
         <v>151</v>
       </c>
       <c r="R1" s="48" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="S1" s="48" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="T1" s="48" t="s">
         <v>152</v>
       </c>
       <c r="U1" s="48" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="V1" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="W1" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="W1" s="48" t="s">
-        <v>219</v>
-      </c>
       <c r="X1" s="48" t="s">
-        <v>221</v>
+        <v>326</v>
+      </c>
+      <c r="Y1" s="48" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="12" customFormat="1" ht="21" thickBot="1">
@@ -9953,16 +10430,16 @@
         <v>95</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="N2" s="29" t="s">
         <v>129</v>
@@ -9995,9 +10472,12 @@
         <v>137</v>
       </c>
       <c r="X2" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y2" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
       <c r="AC2" s="13"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1" thickTop="1">
@@ -10040,7 +10520,7 @@
         <v>139.84</v>
       </c>
       <c r="N3" s="14" t="str">
-        <f t="shared" ref="N3:X12" ca="1" si="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="N3:Y12" ca="1" si="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>K80</v>
       </c>
       <c r="O3" s="14">
@@ -10079,7 +10559,8 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="X3" s="16" t="str">
+      <c r="X3" s="14"/>
+      <c r="Y3" s="16" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</v>
       </c>
@@ -10109,7 +10590,7 @@
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19" t="str">
-        <f t="shared" ref="K4:K66" ca="1" si="3">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="K4:K67" ca="1" si="3">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>USD</v>
       </c>
       <c r="L4" s="14">
@@ -10160,7 +10641,8 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="X4" s="16" t="str">
+      <c r="X4" s="14"/>
+      <c r="Y4" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</v>
       </c>
@@ -10241,7 +10723,8 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="X5" s="16" t="str">
+      <c r="X5" s="14"/>
+      <c r="Y5" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</v>
       </c>
@@ -10322,8 +10805,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="X6" s="16">
-        <f t="shared" ref="X6:X14" ca="1" si="5">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16">
+        <f t="shared" ref="Y6:Y14" ca="1" si="5">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>0</v>
       </c>
       <c r="AC6" s="45">
@@ -10338,7 +10822,7 @@
         <v>p2 dedicated host 1 year no Upfront</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>110</v>
@@ -10409,7 +10893,8 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="X7" s="16" t="str">
+      <c r="X7" s="14"/>
+      <c r="Y7" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>This is the average monthly payment over the course of the Dedicated Host Reservation term. For each month, the actual monthly payment will equal the actual number of hours in that month multiplied by the hourly usage rate. The hourly usage rate is equivalent to the total average monthly payments over the term divided by the total number of hours (based on a 365 day year) over the term.</v>
       </c>
@@ -10425,7 +10910,7 @@
         <v>p2 dedicated host 1 year 100% Upfront</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>111</v>
@@ -10435,11 +10920,11 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>0</v>
+        <v>88389</v>
       </c>
       <c r="J8" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>88389</v>
+        <v>0</v>
       </c>
       <c r="K8" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10493,7 +10978,8 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="X8" s="16">
+      <c r="X8" s="14"/>
+      <c r="Y8" s="16">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
@@ -10578,7 +11064,8 @@
         <f t="shared" ca="1" si="1"/>
         <v>/0.1</v>
       </c>
-      <c r="X9" s="16" t="str">
+      <c r="X9" s="14"/>
+      <c r="Y9" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Outbound Traffic limited to 500GB.</v>
       </c>
@@ -10657,7 +11144,8 @@
         <f t="shared" ca="1" si="1"/>
         <v>/0.1</v>
       </c>
-      <c r="X10" s="16" t="str">
+      <c r="X10" s="14"/>
+      <c r="Y10" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Outbound Traffic limited to 500GB.</v>
       </c>
@@ -10674,7 +11162,7 @@
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="22" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -10736,7 +11224,8 @@
         <f t="shared" ca="1" si="1"/>
         <v>/10</v>
       </c>
-      <c r="X11" s="16" t="str">
+      <c r="X11" s="14"/>
+      <c r="Y11" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Outbound Traffic limited to 500GB.</v>
       </c>
@@ -10753,7 +11242,7 @@
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -10815,7 +11304,8 @@
         <f t="shared" ca="1" si="1"/>
         <v>/10</v>
       </c>
-      <c r="X12" s="16" t="str">
+      <c r="X12" s="14"/>
+      <c r="Y12" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Outbound Traffic limited to 500GB.</v>
       </c>
@@ -10838,7 +11328,7 @@
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F13" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -10900,11 +11390,12 @@
         <f t="shared" ca="1" si="8"/>
         <v>56/</v>
       </c>
-      <c r="X13" s="16" t="str">
+      <c r="X13" s="14"/>
+      <c r="Y13" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
         <v xml:space="preserve"> http://www-01.ibm.com/common/ssi/cgi-bin/ssialias?htmlfid=POB03046USEN</v>
       </c>
-      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
       <c r="AC13" s="45">
         <v>17</v>
       </c>
@@ -10918,7 +11409,7 @@
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F14" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -10977,11 +11468,12 @@
         <f t="shared" ca="1" si="8"/>
         <v>56/</v>
       </c>
-      <c r="X14" s="16" t="str">
+      <c r="X14" s="14"/>
+      <c r="Y14" s="16" t="str">
         <f t="shared" ca="1" si="5"/>
         <v xml:space="preserve"> http://www-01.ibm.com/common/ssi/cgi-bin/ssialias?htmlfid=POB03046USEN</v>
       </c>
-      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
       <c r="AC14" s="45">
         <v>18</v>
       </c>
@@ -10995,7 +11487,7 @@
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F15" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -11042,8 +11534,9 @@
       <c r="U15" s="14"/>
       <c r="V15" s="14"/>
       <c r="W15" s="14"/>
-      <c r="X15" s="16"/>
+      <c r="X15" s="14"/>
       <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
       <c r="AC15" s="45">
         <v>19</v>
       </c>
@@ -11106,7 +11599,7 @@
         <v>512</v>
       </c>
       <c r="S16" s="14" t="str">
-        <f t="shared" ref="S16:X26" ca="1" si="11">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="S16:Y26" ca="1" si="11">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>SSD</v>
       </c>
       <c r="T16" s="14">
@@ -11125,11 +11618,12 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="X16" s="16">
+      <c r="X16" s="14"/>
+      <c r="Y16" s="16">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
       <c r="AC16" s="45">
         <v>25</v>
       </c>
@@ -11143,7 +11637,7 @@
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19">
@@ -11205,11 +11699,12 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="X17" s="16">
+      <c r="X17" s="14"/>
+      <c r="Y17" s="16">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
       <c r="AC17" s="45">
         <v>25</v>
       </c>
@@ -11285,11 +11780,12 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="X18" s="16">
+      <c r="X18" s="14"/>
+      <c r="Y18" s="16">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
       <c r="AC18" s="45">
         <v>26</v>
       </c>
@@ -11365,11 +11861,12 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="X19" s="16">
+      <c r="X19" s="14"/>
+      <c r="Y19" s="16">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
       <c r="AC19" s="45">
         <v>26</v>
       </c>
@@ -11445,11 +11942,12 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="X20" s="16">
+      <c r="X20" s="14"/>
+      <c r="Y20" s="16">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
       <c r="AC20" s="45">
         <v>27</v>
       </c>
@@ -11525,11 +12023,12 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="X21" s="16">
+      <c r="X21" s="14"/>
+      <c r="Y21" s="16">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
       <c r="AC21" s="45">
         <v>27</v>
       </c>
@@ -11605,11 +12104,12 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="X22" s="16">
+      <c r="X22" s="14"/>
+      <c r="Y22" s="16">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
       <c r="AC22" s="45">
         <v>28</v>
       </c>
@@ -11685,11 +12185,12 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="X23" s="16">
+      <c r="X23" s="14"/>
+      <c r="Y23" s="16">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
       <c r="AC23" s="45">
         <v>28</v>
       </c>
@@ -11765,11 +12266,12 @@
         <f t="shared" ca="1" si="11"/>
         <v>24.24/</v>
       </c>
-      <c r="X24" s="16" t="str">
+      <c r="X24" s="14"/>
+      <c r="Y24" s="16" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>Infiniband EDR (24.24Gb/s)</v>
       </c>
-      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
       <c r="AC24" s="45">
         <v>29</v>
       </c>
@@ -11845,11 +12347,12 @@
         <f t="shared" ca="1" si="11"/>
         <v>24.24/</v>
       </c>
-      <c r="X25" s="16" t="str">
+      <c r="X25" s="14"/>
+      <c r="Y25" s="16" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>Infiniband EDR (24.24Gb/s)</v>
       </c>
-      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
       <c r="AC25" s="45">
         <v>29</v>
       </c>
@@ -11925,11 +12428,12 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="X26" s="16">
+      <c r="X26" s="14"/>
+      <c r="Y26" s="16">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
       <c r="AC26" s="45">
         <v>30</v>
       </c>
@@ -12005,11 +12509,12 @@
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="X27" s="16">
-        <f t="shared" ref="X27:X66" ca="1" si="15">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="16">
+        <f t="shared" ref="Y27:Y67" ca="1" si="15">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>0</v>
       </c>
-      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
       <c r="AC27" s="45">
         <v>30</v>
       </c>
@@ -12085,11 +12590,12 @@
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="X28" s="16">
+      <c r="X28" s="14"/>
+      <c r="Y28" s="16">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
       <c r="AC28" s="45">
         <v>31</v>
       </c>
@@ -12165,11 +12671,12 @@
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="X29" s="16">
+      <c r="X29" s="14"/>
+      <c r="Y29" s="16">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
       <c r="AC29" s="45">
         <v>31</v>
       </c>
@@ -12216,7 +12723,7 @@
       </c>
       <c r="N30" s="14" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>NVIDIA TITAN X</v>
+        <v>TITAN X</v>
       </c>
       <c r="O30" s="14">
         <f t="shared" ca="1" si="13"/>
@@ -12254,11 +12761,12 @@
         <f t="shared" ca="1" si="14"/>
         <v>/0.1</v>
       </c>
-      <c r="X30" s="16">
+      <c r="X30" s="14"/>
+      <c r="Y30" s="16">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
       <c r="AC30" s="45">
         <v>33</v>
       </c>
@@ -12272,7 +12780,7 @@
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
@@ -12337,11 +12845,12 @@
         <f t="shared" ca="1" si="14"/>
         <v>/0.1</v>
       </c>
-      <c r="X31" s="16">
+      <c r="X31" s="14"/>
+      <c r="Y31" s="16">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
       <c r="AC31" s="45">
         <v>34</v>
       </c>
@@ -12353,7 +12862,7 @@
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
@@ -12418,11 +12927,12 @@
         <f t="shared" ca="1" si="14"/>
         <v>/0.1</v>
       </c>
-      <c r="X32" s="16">
+      <c r="X32" s="14"/>
+      <c r="Y32" s="16">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
       <c r="AC32" s="45">
         <v>35</v>
       </c>
@@ -12442,7 +12952,7 @@
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F33" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -12453,11 +12963,11 @@
         <v>EUR</v>
       </c>
       <c r="L33" s="14">
-        <f t="shared" ref="L33:L66" ca="1" si="17">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="L33:L67" ca="1" si="17">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("AC"&amp;ROW()))</f>
         <v>0.43519999999999998</v>
       </c>
       <c r="M33" s="14">
-        <f t="shared" ref="M33:M66" ca="1" si="18">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="M33:M67" ca="1" si="18">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("AC"&amp;ROW()))</f>
         <v>16.456</v>
       </c>
       <c r="N33" s="14" t="str">
@@ -12500,7 +13010,8 @@
         <f t="shared" ca="1" si="19"/>
         <v>40/1</v>
       </c>
-      <c r="X33" s="16" t="str">
+      <c r="X33" s="14"/>
+      <c r="Y33" s="16" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
@@ -12514,7 +13025,7 @@
         <v>2 x GeForce GTX 1080 weekly</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G34" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -12572,7 +13083,8 @@
         <f t="shared" ca="1" si="19"/>
         <v>40/1</v>
       </c>
-      <c r="X34" s="16" t="str">
+      <c r="X34" s="14"/>
+      <c r="Y34" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
@@ -12586,7 +13098,7 @@
         <v>2 x GeForce GTX 1080 monthly</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H35" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -12644,7 +13156,8 @@
         <f t="shared" ca="1" si="19"/>
         <v>40/1</v>
       </c>
-      <c r="X35" s="16" t="str">
+      <c r="X35" s="14"/>
+      <c r="Y35" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
@@ -12659,7 +13172,7 @@
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F36" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -12718,7 +13231,8 @@
         <f t="shared" ca="1" si="19"/>
         <v>40/1</v>
       </c>
-      <c r="X36" s="16" t="str">
+      <c r="X36" s="14"/>
+      <c r="Y36" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
@@ -12732,7 +13246,7 @@
         <v>4 x GeForce GTX 1080 weekly</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="19">
@@ -12792,7 +13306,8 @@
         <f t="shared" ca="1" si="19"/>
         <v>40/1</v>
       </c>
-      <c r="X37" s="16" t="str">
+      <c r="X37" s="14"/>
+      <c r="Y37" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
@@ -12806,7 +13321,7 @@
         <v>4 x GeForce GTX 1080 monthly</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F38" s="13"/>
       <c r="H38" s="19">
@@ -12865,7 +13380,8 @@
         <f t="shared" ca="1" si="19"/>
         <v>40/1</v>
       </c>
-      <c r="X38" s="16" t="str">
+      <c r="X38" s="14"/>
+      <c r="Y38" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
@@ -12880,7 +13396,7 @@
       </c>
       <c r="D39" s="41"/>
       <c r="E39" s="41" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F39" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -12942,7 +13458,8 @@
         <f t="shared" ca="1" si="19"/>
         <v>40/1</v>
       </c>
-      <c r="X39" s="16" t="str">
+      <c r="X39" s="14"/>
+      <c r="Y39" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
@@ -12957,7 +13474,7 @@
       </c>
       <c r="D40" s="43"/>
       <c r="E40" s="41" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F40" s="43"/>
       <c r="G40" s="19">
@@ -13019,7 +13536,8 @@
         <f t="shared" ca="1" si="19"/>
         <v>40/1</v>
       </c>
-      <c r="X40" s="16" t="str">
+      <c r="X40" s="14"/>
+      <c r="Y40" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
@@ -13034,7 +13552,7 @@
       </c>
       <c r="D41" s="43"/>
       <c r="E41" s="41" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
@@ -13096,7 +13614,8 @@
         <f t="shared" ca="1" si="19"/>
         <v>40/1</v>
       </c>
-      <c r="X41" s="16" t="str">
+      <c r="X41" s="14"/>
+      <c r="Y41" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
@@ -13110,7 +13629,7 @@
         <v>1 x Tesla P100 minutely</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F42" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -13169,11 +13688,11 @@
         <f t="shared" ca="1" si="19"/>
         <v>40/1</v>
       </c>
-      <c r="X42" s="16" t="str">
+      <c r="X42" s="14"/>
+      <c r="Y42" s="16" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
-      <c r="Z42" s="13"/>
       <c r="AA42" s="13"/>
       <c r="AB42" s="13"/>
       <c r="AC42" s="45">
@@ -13186,7 +13705,7 @@
         <v>1 x Tesla P100 weekly</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="19">
@@ -13246,11 +13765,11 @@
         <f t="shared" ca="1" si="19"/>
         <v>40/1</v>
       </c>
-      <c r="X43" s="16" t="str">
+      <c r="X43" s="14"/>
+      <c r="Y43" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
-      <c r="Z43" s="13"/>
       <c r="AA43" s="13"/>
       <c r="AB43" s="13"/>
       <c r="AC43" s="45">
@@ -13263,7 +13782,7 @@
         <v>1 x Tesla P100 monthly</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F44" s="13"/>
       <c r="H44" s="19">
@@ -13322,11 +13841,11 @@
         <f t="shared" ca="1" si="19"/>
         <v>40/1</v>
       </c>
-      <c r="X44" s="16" t="str">
+      <c r="X44" s="14"/>
+      <c r="Y44" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
-      <c r="Z44" s="13"/>
       <c r="AA44" s="13"/>
       <c r="AB44" s="13"/>
       <c r="AC44" s="45">
@@ -13340,7 +13859,7 @@
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="22" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F45" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -13399,11 +13918,11 @@
         <f t="shared" ca="1" si="19"/>
         <v>40/1</v>
       </c>
-      <c r="X45" s="16" t="str">
+      <c r="X45" s="14"/>
+      <c r="Y45" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
-      <c r="Z45" s="13"/>
       <c r="AA45" s="13"/>
       <c r="AB45" s="13"/>
       <c r="AC45" s="45">
@@ -13416,7 +13935,7 @@
         <v>2 x Tesla P100 weekly</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="19">
@@ -13476,11 +13995,11 @@
         <f t="shared" ca="1" si="19"/>
         <v>40/1</v>
       </c>
-      <c r="X46" s="16" t="str">
+      <c r="X46" s="14"/>
+      <c r="Y46" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
-      <c r="Z46" s="13"/>
       <c r="AA46" s="13"/>
       <c r="AB46" s="13"/>
       <c r="AC46" s="45">
@@ -13493,7 +14012,7 @@
         <v>2 x Tesla P100 monthly</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F47" s="13"/>
       <c r="H47" s="19">
@@ -13552,11 +14071,11 @@
         <f t="shared" ca="1" si="19"/>
         <v>40/1</v>
       </c>
-      <c r="X47" s="16" t="str">
+      <c r="X47" s="14"/>
+      <c r="Y47" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
-      <c r="Z47" s="13"/>
       <c r="AA47" s="13"/>
       <c r="AB47" s="13"/>
       <c r="AC47" s="45">
@@ -13570,7 +14089,7 @@
       </c>
       <c r="D48" s="41"/>
       <c r="E48" s="22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F48" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -13632,11 +14151,11 @@
         <f t="shared" ca="1" si="19"/>
         <v>40/1</v>
       </c>
-      <c r="X48" s="16" t="str">
+      <c r="X48" s="14"/>
+      <c r="Y48" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
-      <c r="Z48" s="13"/>
       <c r="AA48" s="13"/>
       <c r="AB48" s="13"/>
       <c r="AC48" s="45">
@@ -13650,7 +14169,7 @@
       </c>
       <c r="D49" s="43"/>
       <c r="E49" s="22" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F49" s="43"/>
       <c r="G49" s="19">
@@ -13673,7 +14192,7 @@
         <v>19</v>
       </c>
       <c r="N49" s="14" t="str">
-        <f t="shared" ref="N49:W64" ca="1" si="20">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="N49:X64" ca="1" si="20">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>P100</v>
       </c>
       <c r="O49" s="14">
@@ -13712,11 +14231,11 @@
         <f t="shared" ca="1" si="20"/>
         <v>40/1</v>
       </c>
-      <c r="X49" s="16" t="str">
+      <c r="X49" s="14"/>
+      <c r="Y49" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
-      <c r="Z49" s="13"/>
       <c r="AA49" s="13"/>
       <c r="AB49" s="13"/>
       <c r="AC49" s="45">
@@ -13730,7 +14249,7 @@
       </c>
       <c r="D50" s="43"/>
       <c r="E50" s="22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F50" s="43"/>
       <c r="G50" s="43"/>
@@ -13792,11 +14311,11 @@
         <f t="shared" ca="1" si="20"/>
         <v>40/1</v>
       </c>
-      <c r="X50" s="16" t="str">
+      <c r="X50" s="14"/>
+      <c r="Y50" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
-      <c r="Z50" s="13"/>
       <c r="AA50" s="13"/>
       <c r="AB50" s="13"/>
       <c r="AC50" s="45">
@@ -13805,11 +14324,11 @@
     </row>
     <row r="51" spans="1:29">
       <c r="C51" s="22" t="str">
-        <f t="shared" ref="C51:C55" ca="1" si="21">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" monthly"</f>
+        <f t="shared" ref="C51:C56" ca="1" si="21">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" monthly"</f>
         <v>4 x Tesla P100 NVLink monthly</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F51" s="43"/>
       <c r="G51" s="43"/>
@@ -13869,7 +14388,8 @@
         <f t="shared" ca="1" si="20"/>
         <v>40/1</v>
       </c>
-      <c r="X51" s="16" t="str">
+      <c r="X51" s="14"/>
+      <c r="Y51" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
@@ -13882,13 +14402,13 @@
         <f t="shared" ca="1" si="21"/>
         <v>8 x Tesla P100 NVLink monthly</v>
       </c>
-      <c r="E52" s="41" t="s">
-        <v>264</v>
+      <c r="E52" s="22" t="s">
+        <v>261</v>
       </c>
       <c r="F52" s="43"/>
       <c r="G52" s="43"/>
       <c r="H52" s="19">
-        <f t="shared" ref="H52" ca="1" si="23">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="H52:H54" ca="1" si="23">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>7133</v>
       </c>
       <c r="K52" s="19" t="str">
@@ -13943,7 +14463,8 @@
         <f t="shared" ca="1" si="20"/>
         <v>40/1</v>
       </c>
-      <c r="X52" s="16" t="str">
+      <c r="X52" s="14"/>
+      <c r="Y52" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
@@ -13954,14 +14475,14 @@
     <row r="53" spans="1:29">
       <c r="C53" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" minutely"</f>
-        <v>2 x FirePro S9300x2 minutely</v>
+        <v>2 x Titan X minutely</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>260</v>
+        <v>318</v>
       </c>
       <c r="F53" s="13">
         <f t="shared" ref="F53" ca="1" si="24">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="G53" s="43"/>
       <c r="H53" s="43"/>
@@ -13975,11 +14496,11 @@
       </c>
       <c r="M53" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>27.8</v>
+        <v>12.288</v>
       </c>
       <c r="N53" s="14" t="str">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>FirePro S9300x2</v>
+        <v>GeForce GTX Titan X</v>
       </c>
       <c r="O53" s="14">
         <f t="shared" ca="1" si="20"/>
@@ -14017,7 +14538,8 @@
         <f t="shared" ca="1" si="20"/>
         <v>40/1</v>
       </c>
-      <c r="X53" s="16" t="str">
+      <c r="X53" s="14"/>
+      <c r="Y53" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
@@ -14027,18 +14549,21 @@
     </row>
     <row r="54" spans="1:29">
       <c r="C54" s="22" t="str">
-        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;"weekly"</f>
-        <v>2 x FirePro S9300x2weekly</v>
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;"  monthly"</f>
+        <v>2 x Titan X  monthly</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="F54" s="43"/>
       <c r="G54" s="19">
         <f t="shared" ref="G54" ca="1" si="25">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>412.63</v>
-      </c>
-      <c r="H54" s="43"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="19">
+        <f t="shared" ca="1" si="23"/>
+        <v>1492.7</v>
+      </c>
       <c r="K54" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>EUR</v>
@@ -14049,11 +14574,11 @@
       </c>
       <c r="M54" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>27.8</v>
+        <v>12.288</v>
       </c>
       <c r="N54" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>FirePro S9300x2</v>
+        <v>GeForce GTX Titan X</v>
       </c>
       <c r="O54" s="14">
         <f t="shared" ca="1" si="20"/>
@@ -14091,7 +14616,8 @@
         <f t="shared" ca="1" si="20"/>
         <v>40/1</v>
       </c>
-      <c r="X54" s="16" t="str">
+      <c r="X54" s="14"/>
+      <c r="Y54" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
@@ -14101,18 +14627,18 @@
     </row>
     <row r="55" spans="1:29">
       <c r="C55" s="22" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v>2 x FirePro S9300x2 monthly</v>
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" minutely"</f>
+        <v>4 x Titan X minutely</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="F55" s="43"/>
+        <v>319</v>
+      </c>
+      <c r="F55" s="43">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>6</v>
+      </c>
       <c r="G55" s="43"/>
-      <c r="H55" s="19">
-        <f t="shared" ref="H55:I62" ca="1" si="26">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>1630.18</v>
-      </c>
+      <c r="H55" s="19"/>
       <c r="K55" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>EUR</v>
@@ -14123,15 +14649,15 @@
       </c>
       <c r="M55" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>27.8</v>
+        <v>24.576000000000001</v>
       </c>
       <c r="N55" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>FirePro S9300x2</v>
+        <v>GeForce GTX Titan X</v>
       </c>
       <c r="O55" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P55" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
@@ -14143,7 +14669,7 @@
       </c>
       <c r="R55" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="S55" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
@@ -14165,57 +14691,52 @@
         <f t="shared" ca="1" si="20"/>
         <v>40/1</v>
       </c>
-      <c r="X55" s="16" t="str">
+      <c r="X55" s="14"/>
+      <c r="Y55" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
       <c r="AC55" s="45">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="20">
-      <c r="A56" s="21" t="str">
-        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
-        <v>The University of Tokyo</v>
-      </c>
-      <c r="B56" t="str">
-        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C1",FALSE) &amp; (INDIRECT("AC" &amp; ROW())+1))</f>
-        <v>http://www.cc.u-tokyo.ac.jp/system/reedbush/index-e.html</v>
-      </c>
+    <row r="56" spans="1:29" s="13" customFormat="1">
       <c r="C56" s="22" t="str">
-        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
-        <v>Reedbush-H Personal (educational)</v>
+        <f t="shared" ca="1" si="21"/>
+        <v>4 x Titan X monthly</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="I56" s="19">
-        <f t="shared" ca="1" si="26"/>
-        <v>46296.296296296292</v>
+        <v>320</v>
+      </c>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="19">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>2131.4</v>
       </c>
       <c r="K56" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>JPY</v>
+        <v>EUR</v>
       </c>
       <c r="L56" s="14">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2096000000000002</v>
+        <v>0.43519999999999998</v>
       </c>
       <c r="M56" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>19</v>
+        <v>24.576000000000001</v>
       </c>
       <c r="N56" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>P100</v>
+        <v>GeForce GTX Titan X</v>
       </c>
       <c r="O56" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P56" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v xml:space="preserve">Xeon E5-2695v4 </v>
+        <v>Xeon E5-2609 v4</v>
       </c>
       <c r="Q56" s="14">
         <f t="shared" ca="1" si="20"/>
@@ -14223,71 +14744,68 @@
       </c>
       <c r="R56" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="S56" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>PFS</v>
+        <v>SSD</v>
       </c>
       <c r="T56" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>1000</v>
-      </c>
-      <c r="U56" s="14">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V56" s="14">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="U56" s="14"/>
+      <c r="V56" s="14"/>
       <c r="W56" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>13.635/</v>
-      </c>
-      <c r="X56" s="16" t="str">
+        <v>40/1</v>
+      </c>
+      <c r="X56" s="14"/>
+      <c r="Y56" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Max16 nodes. Included (17280/2.5=)6912 node hours if 1 node is used, 3456 node hours if more than 1 node is used simulateously.</v>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
       <c r="AC56" s="45">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:29">
+    <row r="57" spans="1:29" s="13" customFormat="1">
       <c r="C57" s="22" t="str">
-        <f t="shared" ref="C57:C66" ca="1" si="27">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
-        <v>Reedbush-H Group 4 (educational)</v>
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" minutely"</f>
+        <v>8 x Titan X minutely</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="I57" s="19">
-        <f t="shared" ca="1" si="26"/>
-        <v>92592.592592592584</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F57" s="43">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>9.6</v>
+      </c>
+      <c r="G57" s="43"/>
+      <c r="H57" s="19"/>
       <c r="K57" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>JPY</v>
+        <v>EUR</v>
       </c>
       <c r="L57" s="14">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2096000000000002</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="M57" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>19</v>
+        <v>49.152000000000001</v>
       </c>
       <c r="N57" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>P100</v>
+        <v>GeForce GTX Titan X</v>
       </c>
       <c r="O57" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P57" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v xml:space="preserve">Xeon E5-2695v4 </v>
+        <v>Xeon E5-2630 v4</v>
       </c>
       <c r="Q57" s="14">
         <f t="shared" ca="1" si="20"/>
@@ -14295,71 +14813,74 @@
       </c>
       <c r="R57" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="S57" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>PFS</v>
+        <v>SSD</v>
       </c>
       <c r="T57" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>4000</v>
-      </c>
-      <c r="U57" s="14">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V57" s="14">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
-      </c>
+        <v>960</v>
+      </c>
+      <c r="U57" s="14"/>
+      <c r="V57" s="14"/>
       <c r="W57" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>13.635/</v>
-      </c>
-      <c r="X57" s="16" t="str">
+        <v>40/1</v>
+      </c>
+      <c r="X57" s="14"/>
+      <c r="Y57" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Max 128 nodes. Included 13824 node hours if 1 node is used, 6912 node hours if more than 1 node is used simultaneously.</v>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
       <c r="AC57" s="45">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:29">
+    <row r="58" spans="1:29" ht="20">
+      <c r="A58" s="21">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
+        <v>0</v>
+      </c>
       <c r="C58" s="22" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>Reedbush-H Group 4</v>
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" monthly"</f>
+        <v>8 x Titan X monthly</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>293</v>
+        <v>322</v>
+      </c>
+      <c r="H58">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>3408.81</v>
       </c>
       <c r="I58" s="19">
-        <f t="shared" ca="1" si="26"/>
-        <v>111111.11111111111</v>
+        <f t="shared" ref="I58:I63" ca="1" si="26">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>0</v>
       </c>
       <c r="K58" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>JPY</v>
+        <v>EUR</v>
       </c>
       <c r="L58" s="14">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2096000000000002</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="M58" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>19</v>
+        <v>49.152000000000001</v>
       </c>
       <c r="N58" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>P100</v>
+        <v>GeForce GTX Titan X</v>
       </c>
       <c r="O58" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P58" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v xml:space="preserve">Xeon E5-2695v4 </v>
+        <v>Xeon E5-2630 v4</v>
       </c>
       <c r="Q58" s="14">
         <f t="shared" ca="1" si="20"/>
@@ -14367,15 +14888,15 @@
       </c>
       <c r="R58" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="S58" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>PFS</v>
+        <v>SSD</v>
       </c>
       <c r="T58" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>4000</v>
+        <v>960</v>
       </c>
       <c r="U58" s="14">
         <f t="shared" ca="1" si="20"/>
@@ -14387,43 +14908,48 @@
       </c>
       <c r="W58" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>13.635/</v>
-      </c>
-      <c r="X58" s="16" t="str">
+        <v>40/1</v>
+      </c>
+      <c r="X58" s="14"/>
+      <c r="Y58" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Max 128 nodes. Included 13824 node hours if 1 node is used, 6912 node hours if more than 1 node is used simultaneously.</v>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
       <c r="AC58" s="45">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:29">
       <c r="C59" s="22" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>Reedbush-H Group 8 (educational)</v>
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" minutely"</f>
+        <v>2 x FirePro S9300x2 minutely</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>294</v>
+        <v>257</v>
+      </c>
+      <c r="F59">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>2.4</v>
       </c>
       <c r="I59" s="19">
         <f t="shared" ca="1" si="26"/>
-        <v>81018.518518518511</v>
+        <v>0</v>
       </c>
       <c r="K59" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>JPY</v>
+        <v>EUR</v>
       </c>
       <c r="L59" s="14">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2096000000000002</v>
+        <v>0.43519999999999998</v>
       </c>
       <c r="M59" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>19</v>
+        <v>27.8</v>
       </c>
       <c r="N59" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>P100</v>
+        <v>FirePro S9300x2</v>
       </c>
       <c r="O59" s="14">
         <f t="shared" ca="1" si="20"/>
@@ -14431,7 +14957,7 @@
       </c>
       <c r="P59" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v xml:space="preserve">Xeon E5-2695v4 </v>
+        <v>Xeon E5-2609 v4</v>
       </c>
       <c r="Q59" s="14">
         <f t="shared" ca="1" si="20"/>
@@ -14439,15 +14965,15 @@
       </c>
       <c r="R59" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="S59" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>PFS</v>
+        <v>SSD</v>
       </c>
       <c r="T59" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>8000</v>
+        <v>480</v>
       </c>
       <c r="U59" s="14">
         <f t="shared" ca="1" si="20"/>
@@ -14459,43 +14985,45 @@
       </c>
       <c r="W59" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>13.635/</v>
-      </c>
-      <c r="X59" s="16" t="str">
+        <v>40/1</v>
+      </c>
+      <c r="X59" s="14"/>
+      <c r="Y59" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Max 128 nodes. Included 27648 node hours if 2 nodes are used, 13824 node hours if more than 2 node are used simultaneously.</v>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
       <c r="AC59" s="45">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:29">
+    <row r="60" spans="1:29" s="13" customFormat="1">
       <c r="C60" s="22" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>Reedbush-H Group 8</v>
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" weekly"</f>
+        <v>2 x FirePro S9300x2 weekly</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="I60" s="19">
-        <f t="shared" ca="1" si="26"/>
-        <v>97222.222222222219</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="G60" s="13">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>412.63</v>
+      </c>
+      <c r="I60" s="19"/>
       <c r="K60" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>JPY</v>
+        <v>EUR</v>
       </c>
       <c r="L60" s="14">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2096000000000002</v>
+        <v>0.43519999999999998</v>
       </c>
       <c r="M60" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>19</v>
+        <v>27.8</v>
       </c>
       <c r="N60" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>P100</v>
+        <v>FirePro S9300x2</v>
       </c>
       <c r="O60" s="14">
         <f t="shared" ca="1" si="20"/>
@@ -14503,7 +15031,7 @@
       </c>
       <c r="P60" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v xml:space="preserve">Xeon E5-2695v4 </v>
+        <v>Xeon E5-2609 v4</v>
       </c>
       <c r="Q60" s="14">
         <f t="shared" ca="1" si="20"/>
@@ -14511,63 +15039,59 @@
       </c>
       <c r="R60" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="S60" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>PFS</v>
+        <v>SSD</v>
       </c>
       <c r="T60" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>8000</v>
-      </c>
-      <c r="U60" s="14">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V60" s="14">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="U60" s="14"/>
+      <c r="V60" s="14"/>
       <c r="W60" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>13.635/</v>
-      </c>
-      <c r="X60" s="16" t="str">
+        <v>40/1</v>
+      </c>
+      <c r="X60" s="14"/>
+      <c r="Y60" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Max 128 nodes. Included 27648 node hours if 2 nodes are used, 13824 node hours if more than 2 node are used simultaneously.</v>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
       <c r="AC60" s="45">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:29">
+    <row r="61" spans="1:29" s="13" customFormat="1">
       <c r="C61" s="22" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>Reedbush-H Group 8 dedicated (educational)</v>
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))  &amp;" monthly"</f>
+        <v>2 x FirePro S9300x2 monthly</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="I61" s="19">
-        <f t="shared" ca="1" si="26"/>
-        <v>115740.74074074073</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="H61" s="13">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>1630.18</v>
+      </c>
+      <c r="I61" s="19"/>
       <c r="K61" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>JPY</v>
+        <v>EUR</v>
       </c>
       <c r="L61" s="14">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2096000000000002</v>
+        <v>0.43519999999999998</v>
       </c>
       <c r="M61" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>19</v>
+        <v>27.8</v>
       </c>
       <c r="N61" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>P100</v>
+        <v>FirePro S9300x2</v>
       </c>
       <c r="O61" s="14">
         <f t="shared" ca="1" si="20"/>
@@ -14575,7 +15099,7 @@
       </c>
       <c r="P61" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v xml:space="preserve">Xeon E5-2695v4 </v>
+        <v>Xeon E5-2609 v4</v>
       </c>
       <c r="Q61" s="14">
         <f t="shared" ca="1" si="20"/>
@@ -14583,43 +15107,45 @@
       </c>
       <c r="R61" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="S61" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>PFS</v>
+        <v>SSD</v>
       </c>
       <c r="T61" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>8000</v>
-      </c>
-      <c r="U61" s="14">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V61" s="14">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="U61" s="14"/>
+      <c r="V61" s="14"/>
       <c r="W61" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>13.635/</v>
-      </c>
-      <c r="X61" s="16" t="str">
+        <v>40/1</v>
+      </c>
+      <c r="X61" s="14"/>
+      <c r="Y61" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Max 128 nodes. Included 27648 node hours if 2 nodes are used, 13824 node hours if more than 2 node are used simultaneously.</v>
+        <v>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</v>
       </c>
       <c r="AC61" s="45">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:29">
+    <row r="62" spans="1:29" ht="20">
+      <c r="A62" s="21" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
+        <v>The University of Tokyo</v>
+      </c>
+      <c r="B62" t="s">
+        <v>329</v>
+      </c>
       <c r="C62" s="22" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>Reedbush-H Group 8 dedicated</v>
+        <f t="shared" ref="C62:C67" ca="1" si="27">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
+        <v>Reedbush-H Personal (educational)</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I62" s="19">
         <f t="shared" ca="1" si="26"/>
@@ -14663,7 +15189,7 @@
       </c>
       <c r="T62" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="U62" s="14">
         <f t="shared" ca="1" si="20"/>
@@ -14677,73 +15203,69 @@
         <f t="shared" ca="1" si="20"/>
         <v>13.635/</v>
       </c>
-      <c r="X62" s="16" t="str">
+      <c r="X62" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>6912</v>
+      </c>
+      <c r="Y62" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Max 128 nodes. Included 27648 node hours if 2 nodes are used, 13824 node hours if more than 2 node are used simultaneously.</v>
+        <v>Max 2 nodes. Included (17280/2.5=)6912 node hours if 1 node is used, 3456 node hours if more than 1 node is used simulateously.</v>
       </c>
       <c r="AC62" s="45">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="20">
-      <c r="A63" s="21" t="str">
-        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
-        <v>MS Azure</v>
-      </c>
-      <c r="B63" s="13" t="str">
-        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C1",FALSE) &amp; (INDIRECT("AC" &amp; ROW())+1))</f>
-        <v>https://azure.microsoft.com/en-us/pricing/details/virtual-machines/linux/</v>
-      </c>
+    <row r="63" spans="1:29">
       <c r="C63" s="22" t="str">
-        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
-        <v>NC6</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>Reedbush-H Group 4 (educational)</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="F63" s="13">
-        <f t="shared" ref="F63:F66" ca="1" si="28">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>1.08</v>
+        <v>287</v>
+      </c>
+      <c r="I63" s="19">
+        <f t="shared" ca="1" si="26"/>
+        <v>277777.77777777775</v>
       </c>
       <c r="K63" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>USD</v>
+        <v>JPY</v>
       </c>
       <c r="L63" s="14">
         <f t="shared" ca="1" si="17"/>
-        <v>0.24960000000000002</v>
+        <v>1.2096000000000002</v>
       </c>
       <c r="M63" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>4.37</v>
+        <v>19</v>
       </c>
       <c r="N63" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>K80</v>
+        <v>P100</v>
       </c>
       <c r="O63" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="P63" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>Xeon E5-2690v3</v>
+        <v xml:space="preserve">Xeon E5-2695v4 </v>
       </c>
       <c r="Q63" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R63" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>56</v>
+        <v>256</v>
       </c>
       <c r="S63" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>SSD</v>
+        <v>PFS</v>
       </c>
       <c r="T63" s="14">
         <f t="shared" ca="1" si="20"/>
-        <v>380</v>
+        <v>4000</v>
       </c>
       <c r="U63" s="14">
         <f t="shared" ca="1" si="20"/>
@@ -14753,30 +15275,40 @@
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="W63" s="14">
+      <c r="W63" s="14" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X63" s="16" t="str">
+        <v>13.635/</v>
+      </c>
+      <c r="X63" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>13824</v>
+      </c>
+      <c r="Y63" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">1 GPU in specification is 1/2 of K80 </v>
+        <v>Included 13824 node hours if 1 node is used, 6912 node hours if more than 1 node is used simultaneously.</v>
       </c>
       <c r="AC63" s="45">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:29">
-      <c r="B64" s="13"/>
+    <row r="64" spans="1:29" ht="20">
+      <c r="A64" s="60" t="str">
+        <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
+        <v>MS Azure</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>295</v>
+      </c>
       <c r="C64" s="22" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>NC12</v>
+        <v>NC6</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="F64" s="13">
-        <f t="shared" ca="1" si="28"/>
-        <v>2.16</v>
+        <f t="shared" ref="F64:F67" ca="1" si="28">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>1.08</v>
       </c>
       <c r="K64" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -14784,72 +15316,72 @@
       </c>
       <c r="L64" s="14">
         <f t="shared" ca="1" si="17"/>
-        <v>0.49920000000000003</v>
+        <v>0.24960000000000002</v>
       </c>
       <c r="M64" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>8.74</v>
+        <v>4.37</v>
       </c>
       <c r="N64" s="14" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ref="N64:V67" ca="1" si="29">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>K80</v>
       </c>
       <c r="O64" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
+        <v>0.5</v>
+      </c>
+      <c r="P64" s="61" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>Xeon E5-2690v3</v>
+      </c>
+      <c r="Q64" s="14">
+        <f t="shared" ca="1" si="29"/>
         <v>1</v>
       </c>
-      <c r="P64" s="14" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>Xeon E5-2690v3</v>
-      </c>
-      <c r="Q64" s="14">
-        <f t="shared" ca="1" si="20"/>
-        <v>1</v>
-      </c>
       <c r="R64" s="14">
-        <f t="shared" ca="1" si="20"/>
-        <v>112</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>56</v>
       </c>
       <c r="S64" s="14" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v>SSD</v>
       </c>
       <c r="T64" s="14">
-        <f t="shared" ca="1" si="20"/>
-        <v>680</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>380</v>
       </c>
       <c r="U64" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="V64" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="W64" s="14">
         <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
-      <c r="X64" s="16">
+      <c r="X64" s="14"/>
+      <c r="Y64" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v xml:space="preserve">1 GPU in specification is 1/2 of K80 </v>
       </c>
       <c r="AC64" s="45">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="65" spans="2:29">
-      <c r="B65" s="13"/>
+    <row r="65" spans="3:29">
       <c r="C65" s="22" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>NC24</v>
+        <v>NC12</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="F65" s="13">
         <f t="shared" ca="1" si="28"/>
-        <v>4.32</v>
+        <v>2.16</v>
       </c>
       <c r="K65" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -14857,21 +15389,21 @@
       </c>
       <c r="L65" s="14">
         <f t="shared" ca="1" si="17"/>
-        <v>0.99840000000000007</v>
+        <v>0.49920000000000003</v>
       </c>
       <c r="M65" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>17.48</v>
+        <v>8.74</v>
       </c>
       <c r="N65" s="14" t="str">
-        <f t="shared" ref="N65:V66" ca="1" si="29">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ca="1" si="29"/>
         <v>K80</v>
       </c>
       <c r="O65" s="14">
         <f t="shared" ca="1" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="P65" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="P65" s="61" t="str">
         <f t="shared" ca="1" si="29"/>
         <v>Xeon E5-2690v3</v>
       </c>
@@ -14881,7 +15413,7 @@
       </c>
       <c r="R65" s="14">
         <f t="shared" ca="1" si="29"/>
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="S65" s="14" t="str">
         <f t="shared" ca="1" si="29"/>
@@ -14889,40 +15421,32 @@
       </c>
       <c r="T65" s="14">
         <f t="shared" ca="1" si="29"/>
-        <v>1440</v>
-      </c>
-      <c r="U65" s="14">
-        <f t="shared" ca="1" si="29"/>
+        <v>680</v>
+      </c>
+      <c r="W65" s="14">
+        <f t="shared" ref="W65:W67" ca="1" si="30">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>0</v>
       </c>
-      <c r="V65" s="14">
-        <f t="shared" ca="1" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="W65" s="14">
-        <f t="shared" ref="W65:W66" ca="1" si="30">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>0</v>
-      </c>
-      <c r="X65" s="16">
+      <c r="X65" s="14"/>
+      <c r="Y65" s="16">
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="AC65" s="45">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:29">
-      <c r="B66" s="13"/>
+    <row r="66" spans="3:29">
       <c r="C66" s="22" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>NC24r</v>
+        <v>NC24</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F66" s="13">
         <f t="shared" ca="1" si="28"/>
-        <v>4.7519999999999998</v>
+        <v>4.32</v>
       </c>
       <c r="K66" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -14944,7 +15468,7 @@
         <f t="shared" ca="1" si="29"/>
         <v>2</v>
       </c>
-      <c r="P66" s="14" t="str">
+      <c r="P66" s="61" t="str">
         <f t="shared" ca="1" si="29"/>
         <v>Xeon E5-2690v3</v>
       </c>
@@ -14964,254 +15488,307 @@
         <f t="shared" ca="1" si="29"/>
         <v>1440</v>
       </c>
-      <c r="U66" s="14">
+      <c r="W66" s="14">
+        <f t="shared" ca="1" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="X66" s="14"/>
+      <c r="Y66" s="16">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC66" s="45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="3:29">
+      <c r="C67" s="22" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>NC24r</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="F67" s="13">
+        <f t="shared" ca="1" si="28"/>
+        <v>4.7519999999999998</v>
+      </c>
+      <c r="K67" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>USD</v>
+      </c>
+      <c r="L67" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.99840000000000007</v>
+      </c>
+      <c r="M67" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>17.48</v>
+      </c>
+      <c r="N67" s="14" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="V66" s="14">
+        <v>K80</v>
+      </c>
+      <c r="O67" s="14">
         <f t="shared" ca="1" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="W66" s="14" t="str">
+        <v>2</v>
+      </c>
+      <c r="P67" s="61" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>Xeon E5-2690v3</v>
+      </c>
+      <c r="Q67" s="14">
+        <f t="shared" ca="1" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="R67" s="14">
+        <f t="shared" ca="1" si="29"/>
+        <v>224</v>
+      </c>
+      <c r="S67" s="14" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>SSD</v>
+      </c>
+      <c r="T67" s="14">
+        <f t="shared" ca="1" si="29"/>
+        <v>1440</v>
+      </c>
+      <c r="W67" s="14" t="str">
         <f t="shared" ca="1" si="30"/>
         <v>Infiniband/</v>
       </c>
-      <c r="X66" s="16" t="str">
+      <c r="X67" s="14"/>
+      <c r="Y67" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>RDMA capable</v>
       </c>
-      <c r="AC66" s="45">
-        <v>58</v>
+      <c r="AC67" s="45">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="I23:J23 I25:J25 I27:J27 I29:J29 F25:G25 F29:G29 H22:H31 S13:S15 E23:G23 E18:J22 C30:C32 E26:G28 D26:D33 E17:F17 D10:D24 D3:D8 C3:C21 E7:G7 E9:J16 E4:J6 K4:K35 E30:I32 M32:O41 N16:O16 L30:O31 E3:O3 L4:O15 M16:M17 L16:L29 M18:O29 E8:H8 J8 K48:K55 L42:S62 T45:X62 L63:X66">
-    <cfRule type="expression" dxfId="45" priority="112">
+  <conditionalFormatting sqref="I23:J23 I25:J25 I27:J27 I29:J29 F25:G25 F29:G29 H22:H31 S13:S15 E23:G23 E18:J22 C30:C32 E26:G28 D26:D33 E17:F17 D10:D24 D3:D8 C3:C21 E7:G7 E9:J16 E4:J6 K4:K35 E30:I32 M32:O41 N16:O16 L30:O31 E3:O3 L4:O15 M16:M17 L16:L29 M18:O29 E8:H8 J8 I58:I63 H50:H52 L42:S61 T45:Y61 K48:K64 K65:T67 L64:V64 L62:Y63 W64:Y67">
+    <cfRule type="expression" dxfId="44" priority="113">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25 I24:J24 F24:G24">
-    <cfRule type="expression" dxfId="44" priority="110">
+    <cfRule type="expression" dxfId="43" priority="111">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:J26">
-    <cfRule type="expression" dxfId="43" priority="109">
+    <cfRule type="expression" dxfId="42" priority="110">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:J28">
-    <cfRule type="expression" dxfId="42" priority="108">
+    <cfRule type="expression" dxfId="41" priority="109">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="41" priority="99">
+    <cfRule type="expression" dxfId="40" priority="100">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P15 P18:P41">
-    <cfRule type="expression" dxfId="40" priority="54">
+    <cfRule type="expression" dxfId="39" priority="55">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:W3 T4:W12 T18:V31 T13:V15 W13:W31 R3:R15 R18:R41 X6:X41 T32:W38 U39:W41 T39:T44">
-    <cfRule type="expression" dxfId="39" priority="52">
+  <conditionalFormatting sqref="S3:X3 T4:X12 T18:V31 T13:V15 W13:X31 R3:R15 R18:R41 Y6:Y41 T32:X38 U39:X41 T39:T44">
+    <cfRule type="expression" dxfId="38" priority="53">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C23">
-    <cfRule type="expression" dxfId="38" priority="61">
+    <cfRule type="expression" dxfId="37" priority="62">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C25">
-    <cfRule type="expression" dxfId="37" priority="60">
+    <cfRule type="expression" dxfId="36" priority="61">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C27">
-    <cfRule type="expression" dxfId="36" priority="59">
+    <cfRule type="expression" dxfId="35" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C29">
-    <cfRule type="expression" dxfId="35" priority="58">
+    <cfRule type="expression" dxfId="34" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q15 Q18:Q41">
-    <cfRule type="expression" dxfId="34" priority="53">
+    <cfRule type="expression" dxfId="33" priority="54">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S12">
-    <cfRule type="expression" dxfId="33" priority="51">
+    <cfRule type="expression" dxfId="32" priority="52">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18:S41">
-    <cfRule type="expression" dxfId="32" priority="50">
+    <cfRule type="expression" dxfId="31" priority="51">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:J17 N17:O17">
-    <cfRule type="expression" dxfId="31" priority="41">
+    <cfRule type="expression" dxfId="30" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:P17">
-    <cfRule type="expression" dxfId="30" priority="40">
+    <cfRule type="expression" dxfId="29" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16:V17 R16:R17">
-    <cfRule type="expression" dxfId="29" priority="38">
+    <cfRule type="expression" dxfId="28" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16:Q17">
-    <cfRule type="expression" dxfId="28" priority="39">
+    <cfRule type="expression" dxfId="27" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:S17">
-    <cfRule type="expression" dxfId="27" priority="37">
+    <cfRule type="expression" dxfId="26" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="26" priority="36">
+    <cfRule type="expression" dxfId="25" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="25" priority="35">
+    <cfRule type="expression" dxfId="24" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="24" priority="34">
+    <cfRule type="expression" dxfId="23" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:L41">
-    <cfRule type="expression" dxfId="23" priority="33">
+    <cfRule type="expression" dxfId="22" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="22" priority="32">
+    <cfRule type="expression" dxfId="21" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="21" priority="31">
+    <cfRule type="expression" dxfId="20" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="20" priority="30">
+    <cfRule type="expression" dxfId="19" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="19" priority="28">
+    <cfRule type="expression" dxfId="18" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:J32">
-    <cfRule type="expression" dxfId="18" priority="27">
+    <cfRule type="expression" dxfId="17" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36 K36:K47">
-    <cfRule type="expression" dxfId="17" priority="26">
+    <cfRule type="expression" dxfId="16" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="expression" dxfId="16" priority="25">
+    <cfRule type="expression" dxfId="15" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="15" priority="24">
+    <cfRule type="expression" dxfId="14" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="14" priority="19">
+    <cfRule type="expression" dxfId="13" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="13" priority="18">
+    <cfRule type="expression" dxfId="12" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="expression" dxfId="12" priority="17">
+    <cfRule type="expression" dxfId="11" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="expression" dxfId="11" priority="16">
+    <cfRule type="expression" dxfId="10" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="10" priority="15">
+    <cfRule type="expression" dxfId="9" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U42:X44">
-    <cfRule type="expression" dxfId="9" priority="12">
+  <conditionalFormatting sqref="U42:Y44">
+    <cfRule type="expression" dxfId="8" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50:H52 H55">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="H55:H57">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49 G54">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:I62">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K56:K66">
+  <conditionalFormatting sqref="H54">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -15225,7 +15802,7 @@
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="C21:C23 C20" formula="1"/>
+    <ignoredError sqref="C21:C23 C20 C56" formula="1"/>
     <ignoredError sqref="S13" emptyCellReference="1"/>
   </ignoredErrors>
   <extLst>

--- a/Comparison table updated 3.xlsx
+++ b/Comparison table updated 3.xlsx
@@ -599,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D58" authorId="0">
+    <comment ref="D55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -626,7 +626,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB58" authorId="0">
+    <comment ref="AB55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -657,7 +657,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="328">
   <si>
     <t>Cloud server providers with GPU</t>
     <phoneticPr fontId="2"/>
@@ -1723,22 +1723,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Reedbush-H Group 4 (educational)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H Group 4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H Group 8 (educational)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H Group 8</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>per hour</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1755,26 +1739,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>http://www.cc.u-tokyo.ac.jp/system/reedbush/index-e.html</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Max 128 nodes. Included 13824 node hours if 1 node is used, 6912 node hours if more than 1 node is used simultaneously.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Max 128 nodes. Included 27648 node hours if 2 nodes are used, 13824 node hours if more than 2 node are used simultaneously.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H Group 8 dedicated (educational)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H Group 8 dedicated</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>https://www.nimbix.net/nimbix-cloud-demand-pricing/</t>
   </si>
   <si>
@@ -1782,10 +1746,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>TU gr.4 edu</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>MS Azure</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1924,14 +1884,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Max 2 nodes. Included (17280/2.5=)6912 node hours if 1 node is used, 3456 node hours if more than 1 node is used simulateously.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Included 13824 node hours if 1 node is used, 6912 node hours if more than 1 node is used simultaneously.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>AF</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1948,6 +1900,42 @@
   </si>
   <si>
     <t>http://www.cc.u-tokyo.ac.jp/support/application/kitei/hyou5.pdf</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Max 2 nodes. Included (17280/2.5=)6912 node hours if 1 node is used, 3456 node hours if more than 1 node is used by a parallel job.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Included 13824 node hours if 1 node is used, 6912 node hours if 2-4 nodes are used by a parallel job.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Included 8640 node hours. 4320 node hours if a parallel job used more nodes than applied for.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H (educational)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H reviewed (educational)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H reviewed</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU gen edu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU rev</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU rev edu</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1962,7 +1950,7 @@
     <numFmt numFmtId="179" formatCode="[$¥-411]#,##0.00"/>
     <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2188,6 +2176,11 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Abadi MT Condensed Light"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -3032,7 +3025,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -3152,6 +3145,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="690">
     <cellStyle name="$Normal" xfId="356"/>
@@ -3845,7 +3839,40 @@
     <cellStyle name="Style 1" xfId="55"/>
     <cellStyle name="Title" xfId="340" builtinId="15" hidden="1"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="78">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -4671,17 +4698,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEAF2F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
@@ -4977,13 +4993,13 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:FF61"/>
+  <dimension ref="A1:FF58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="V43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="Q42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A53" sqref="A53"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -5079,7 +5095,7 @@
       <c r="AD3" s="62"/>
       <c r="AE3" s="62"/>
       <c r="AF3" s="17" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>32</v>
@@ -5287,16 +5303,16 @@
         <v>216</v>
       </c>
       <c r="Z4" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AA4" s="25" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AB4" s="17" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AC4" s="17" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AD4" s="17" t="s">
         <v>201</v>
@@ -5377,7 +5393,7 @@
       </c>
       <c r="AF5" s="16"/>
       <c r="AG5" s="16" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:162">
@@ -5451,7 +5467,7 @@
       </c>
       <c r="AF6" s="16"/>
       <c r="AG6" s="16" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:162">
@@ -5525,7 +5541,7 @@
       </c>
       <c r="AF7" s="16"/>
       <c r="AG7" s="16" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:162">
@@ -6211,7 +6227,7 @@
     </row>
     <row r="18" spans="1:162" s="13" customFormat="1">
       <c r="A18" s="56" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>44</v>
@@ -7593,7 +7609,7 @@
         <v>49</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D33" s="28">
         <v>4</v>
@@ -7962,7 +7978,7 @@
     </row>
     <row r="38" spans="1:33" ht="24" customHeight="1">
       <c r="A38" s="16" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B38" s="22" t="s">
         <v>187</v>
@@ -8545,7 +8561,7 @@
         <v>1</v>
       </c>
       <c r="Y44" s="14" t="str">
-        <f t="shared" ref="Y44:Y54" si="8">W44&amp;"/"&amp;X44</f>
+        <f t="shared" ref="Y44:Y53" si="8">W44&amp;"/"&amp;X44</f>
         <v>40/1</v>
       </c>
       <c r="Z44" s="51"/>
@@ -8564,10 +8580,10 @@
     <row r="45" spans="1:33" s="13" customFormat="1">
       <c r="A45" s="2"/>
       <c r="B45" s="59" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D45" s="14">
         <v>2</v>
@@ -8650,10 +8666,10 @@
     <row r="46" spans="1:33" s="13" customFormat="1">
       <c r="A46" s="2"/>
       <c r="B46" s="59" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D46" s="14">
         <v>4</v>
@@ -8675,7 +8691,7 @@
       </c>
       <c r="J46" s="28"/>
       <c r="K46" s="28" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="L46" s="28">
         <v>2</v>
@@ -8736,10 +8752,10 @@
     <row r="47" spans="1:33" s="13" customFormat="1">
       <c r="A47" s="2"/>
       <c r="B47" s="59" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D47" s="14">
         <v>8</v>
@@ -8988,15 +9004,15 @@
         <v>6912</v>
       </c>
       <c r="AG50" s="16" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:33">
       <c r="A51" s="16" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="C51" s="57" t="s">
         <v>270</v>
@@ -9038,7 +9054,7 @@
         <v>16</v>
       </c>
       <c r="P51" s="14">
-        <f t="shared" ref="P51:P54" si="9">M51*N51*O51/1000</f>
+        <f t="shared" ref="P51:P53" si="9">M51*N51*O51/1000</f>
         <v>0.60480000000000012</v>
       </c>
       <c r="Q51" s="14">
@@ -9074,15 +9090,12 @@
         <v>13824</v>
       </c>
       <c r="AG51" s="16" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:33">
-      <c r="A52" s="16" t="s">
-        <v>330</v>
-      </c>
       <c r="B52" s="22" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="C52" s="57" t="s">
         <v>270</v>
@@ -9139,8 +9152,6 @@
       <c r="T52" s="14">
         <v>4000</v>
       </c>
-      <c r="U52" s="14"/>
-      <c r="V52" s="14"/>
       <c r="W52" s="14">
         <v>13.635</v>
       </c>
@@ -9149,20 +9160,23 @@
         <v>13.635/</v>
       </c>
       <c r="AC52" s="52">
-        <f>480000/1.08 /4</f>
-        <v>111111.11111111111</v>
+        <f>180000/1.08</f>
+        <v>166666.66666666666</v>
       </c>
       <c r="AE52" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="AF52" s="16"/>
-      <c r="AG52" s="16" t="s">
-        <v>281</v>
+      <c r="AF52" s="16">
+        <f>21600/2.5</f>
+        <v>8640</v>
+      </c>
+      <c r="AG52" s="63" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:33">
       <c r="B53" s="22" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
       <c r="C53" s="57" t="s">
         <v>270</v>
@@ -9217,7 +9231,7 @@
         <v>271</v>
       </c>
       <c r="T53" s="14">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="W53" s="14">
         <v>13.635</v>
@@ -9227,269 +9241,257 @@
         <v>13.635/</v>
       </c>
       <c r="AC53" s="52">
-        <f>700000/1.08 /8</f>
-        <v>81018.518518518511</v>
+        <f>216000/1.08</f>
+        <v>200000</v>
       </c>
       <c r="AE53" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="AF53" s="16"/>
-      <c r="AG53" s="16" t="s">
+      <c r="AF53" s="16">
+        <f>21600/2.5</f>
+        <v>8640</v>
+      </c>
+      <c r="AG53" s="63" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" ht="20">
+      <c r="A55" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="C55" s="57" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="54" spans="1:33">
-      <c r="B54" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="C54" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="D54" s="14">
-        <v>2</v>
-      </c>
-      <c r="E54" s="14">
-        <v>3584</v>
-      </c>
-      <c r="F54" s="42">
-        <v>9.5</v>
-      </c>
-      <c r="G54" s="42">
-        <v>4.7</v>
-      </c>
-      <c r="H54" s="42">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I54" s="42">
-        <v>720</v>
-      </c>
-      <c r="J54" s="28">
+      <c r="D55" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="14">
+        <v>8.74</v>
+      </c>
+      <c r="G55" s="14">
+        <v>2.91</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" s="14"/>
+      <c r="K55" s="57" t="s">
+        <v>287</v>
+      </c>
+      <c r="L55" s="14">
         <v>1</v>
       </c>
-      <c r="K54" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="L54" s="14">
-        <v>2</v>
-      </c>
-      <c r="M54" s="14">
-        <v>18</v>
-      </c>
-      <c r="N54" s="14">
-        <v>2.1</v>
-      </c>
-      <c r="O54" s="14">
-        <v>16</v>
-      </c>
-      <c r="P54" s="14">
-        <f t="shared" si="9"/>
-        <v>0.60480000000000012</v>
-      </c>
-      <c r="Q54" s="14">
-        <v>2400</v>
-      </c>
-      <c r="R54" s="14">
-        <v>256</v>
-      </c>
-      <c r="S54" s="57" t="s">
-        <v>271</v>
-      </c>
-      <c r="T54" s="14">
-        <v>8000</v>
-      </c>
-      <c r="W54" s="14">
-        <v>13.635</v>
-      </c>
-      <c r="Y54" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>13.635/</v>
-      </c>
-      <c r="AC54" s="52">
-        <f>840000/1.08 /8</f>
-        <v>97222.222222222219</v>
-      </c>
-      <c r="AE54" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="AF54" s="16"/>
-      <c r="AG54" s="16" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33">
-      <c r="B55" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="C55" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="D55" s="14">
-        <v>2</v>
-      </c>
-      <c r="E55" s="14">
-        <v>3584</v>
-      </c>
-      <c r="F55" s="42">
-        <v>9.5</v>
-      </c>
-      <c r="G55" s="42">
-        <v>4.7</v>
-      </c>
-      <c r="H55" s="42">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I55" s="42">
-        <v>720</v>
-      </c>
-      <c r="J55" s="28">
-        <v>1</v>
-      </c>
-      <c r="K55" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="L55" s="14">
-        <v>2</v>
-      </c>
       <c r="M55" s="14">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="N55" s="14">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="O55" s="14">
         <v>16</v>
       </c>
       <c r="P55" s="14">
-        <f t="shared" ref="P55:P56" si="10">M55*N55*O55/1000</f>
-        <v>0.60480000000000012</v>
+        <f t="shared" ref="P55" si="10">M55*N55*O55/1000</f>
+        <v>0.24960000000000002</v>
       </c>
       <c r="Q55" s="14">
-        <v>2400</v>
+        <v>2133</v>
       </c>
       <c r="R55" s="14">
-        <v>256</v>
+        <v>56</v>
       </c>
       <c r="S55" s="57" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="T55" s="14">
-        <v>8000</v>
-      </c>
-      <c r="U55" s="13"/>
-      <c r="V55" s="13"/>
-      <c r="W55" s="14">
-        <v>13.635</v>
-      </c>
-      <c r="X55" s="13"/>
-      <c r="Y55" s="14" t="str">
-        <f t="shared" ref="Y55:Y56" si="11">W55&amp;"/"&amp;X55</f>
-        <v>13.635/</v>
-      </c>
-      <c r="AC55" s="52">
-        <f>1000000/1.08 /8</f>
-        <v>115740.74074074073</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="W55" s="14"/>
+      <c r="X55" s="14"/>
+      <c r="Y55" s="14"/>
+      <c r="Z55" s="24">
+        <v>1.08</v>
+      </c>
+      <c r="AB55" s="10">
+        <v>803.52</v>
+      </c>
+      <c r="AC55" s="58"/>
       <c r="AE55" s="16" t="s">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="AF55" s="16"/>
       <c r="AG55" s="16" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:33">
+      <c r="A56" s="16" t="s">
+        <v>303</v>
+      </c>
       <c r="B56" s="22" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C56" s="57" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="D56" s="14">
-        <v>2</v>
-      </c>
-      <c r="E56" s="14">
-        <v>3584</v>
-      </c>
-      <c r="F56" s="42">
-        <v>9.5</v>
-      </c>
-      <c r="G56" s="42">
-        <v>4.7</v>
-      </c>
-      <c r="H56" s="42">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I56" s="42">
-        <v>720</v>
-      </c>
-      <c r="J56" s="28">
         <v>1</v>
       </c>
+      <c r="E56" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="14">
+        <v>8.74</v>
+      </c>
+      <c r="G56" s="14">
+        <v>2.91</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" s="14"/>
       <c r="K56" s="57" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="L56" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M56" s="14">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N56" s="14">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="O56" s="14">
         <v>16</v>
       </c>
       <c r="P56" s="14">
-        <f t="shared" si="10"/>
-        <v>0.60480000000000012</v>
+        <f t="shared" ref="P56:P58" si="11">M56*N56*O56/1000</f>
+        <v>0.49920000000000003</v>
       </c>
       <c r="Q56" s="14">
-        <v>2400</v>
+        <v>2133</v>
       </c>
       <c r="R56" s="14">
-        <v>256</v>
+        <v>112</v>
       </c>
       <c r="S56" s="57" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="T56" s="14">
-        <v>8000</v>
-      </c>
-      <c r="U56" s="13"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="14">
-        <v>13.635</v>
-      </c>
-      <c r="X56" s="13"/>
-      <c r="Y56" s="14" t="str">
+        <v>680</v>
+      </c>
+      <c r="W56" s="14"/>
+      <c r="X56" s="14"/>
+      <c r="Y56" s="14"/>
+      <c r="Z56" s="24">
+        <v>2.16</v>
+      </c>
+      <c r="AB56" s="10">
+        <v>1607.04</v>
+      </c>
+      <c r="AC56" s="58"/>
+      <c r="AE56" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="AF56" s="16"/>
+    </row>
+    <row r="57" spans="1:33">
+      <c r="A57" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C57" s="57" t="s">
+        <v>282</v>
+      </c>
+      <c r="D57" s="14">
+        <v>2</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="14">
+        <v>8.74</v>
+      </c>
+      <c r="G57" s="14">
+        <v>2.91</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" s="14"/>
+      <c r="K57" s="57" t="s">
+        <v>287</v>
+      </c>
+      <c r="L57" s="14">
+        <v>1</v>
+      </c>
+      <c r="M57" s="14">
+        <v>24</v>
+      </c>
+      <c r="N57" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="O57" s="14">
+        <v>16</v>
+      </c>
+      <c r="P57" s="14">
         <f t="shared" si="11"/>
-        <v>13.635/</v>
-      </c>
-      <c r="AC56" s="52">
-        <f>1200000/1.08 /8</f>
-        <v>138888.88888888888</v>
-      </c>
-      <c r="AE56" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="AF56" s="16"/>
-      <c r="AG56" s="16" t="s">
+        <v>0.99840000000000007</v>
+      </c>
+      <c r="Q57" s="14">
+        <v>2133</v>
+      </c>
+      <c r="R57" s="14">
+        <v>224</v>
+      </c>
+      <c r="S57" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="T57" s="14">
+        <v>1440</v>
+      </c>
+      <c r="W57" s="14"/>
+      <c r="X57" s="14"/>
+      <c r="Y57" s="14"/>
+      <c r="Z57" s="24">
+        <v>4.32</v>
+      </c>
+      <c r="AB57" s="10">
+        <v>3214.08</v>
+      </c>
+      <c r="AC57" s="58"/>
+      <c r="AE57" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="AF57" s="16"/>
+    </row>
+    <row r="58" spans="1:33">
+      <c r="B58" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="C58" s="57" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="58" spans="1:33" ht="20">
-      <c r="A58" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="C58" s="57" t="s">
-        <v>292</v>
-      </c>
       <c r="D58" s="14">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E58" s="14" t="s">
         <v>17</v>
@@ -9508,13 +9510,13 @@
       </c>
       <c r="J58" s="14"/>
       <c r="K58" s="57" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="L58" s="14">
         <v>1</v>
       </c>
       <c r="M58" s="14">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="N58" s="14">
         <v>2.6</v>
@@ -9523,267 +9525,42 @@
         <v>16</v>
       </c>
       <c r="P58" s="14">
-        <f t="shared" ref="P58" si="12">M58*N58*O58/1000</f>
-        <v>0.24960000000000002</v>
+        <f t="shared" si="11"/>
+        <v>0.99840000000000007</v>
       </c>
       <c r="Q58" s="14">
         <v>2133</v>
       </c>
       <c r="R58" s="14">
-        <v>56</v>
+        <v>224</v>
       </c>
       <c r="S58" s="57" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="T58" s="14">
-        <v>380</v>
-      </c>
-      <c r="W58" s="14"/>
+        <v>1440</v>
+      </c>
+      <c r="W58" s="14" t="s">
+        <v>293</v>
+      </c>
       <c r="X58" s="14"/>
-      <c r="Y58" s="14"/>
+      <c r="Y58" s="14" t="str">
+        <f t="shared" ref="Y58" si="12">W58&amp;"/"&amp;X58</f>
+        <v>Infiniband/</v>
+      </c>
       <c r="Z58" s="24">
-        <v>1.08</v>
+        <v>4.7519999999999998</v>
       </c>
       <c r="AB58" s="10">
-        <v>803.52</v>
+        <v>3535.49</v>
       </c>
       <c r="AC58" s="58"/>
       <c r="AE58" s="16" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AF58" s="16"/>
       <c r="AG58" s="16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="59" spans="1:33">
-      <c r="A59" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="C59" s="57" t="s">
-        <v>292</v>
-      </c>
-      <c r="D59" s="14">
-        <v>1</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" s="14">
-        <v>8.74</v>
-      </c>
-      <c r="G59" s="14">
-        <v>2.91</v>
-      </c>
-      <c r="H59" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I59" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J59" s="14"/>
-      <c r="K59" s="57" t="s">
-        <v>297</v>
-      </c>
-      <c r="L59" s="14">
-        <v>1</v>
-      </c>
-      <c r="M59" s="14">
-        <v>12</v>
-      </c>
-      <c r="N59" s="14">
-        <v>2.6</v>
-      </c>
-      <c r="O59" s="14">
-        <v>16</v>
-      </c>
-      <c r="P59" s="14">
-        <f t="shared" ref="P59:P61" si="13">M59*N59*O59/1000</f>
-        <v>0.49920000000000003</v>
-      </c>
-      <c r="Q59" s="14">
-        <v>2133</v>
-      </c>
-      <c r="R59" s="14">
-        <v>112</v>
-      </c>
-      <c r="S59" s="57" t="s">
-        <v>302</v>
-      </c>
-      <c r="T59" s="14">
-        <v>680</v>
-      </c>
-      <c r="W59" s="14"/>
-      <c r="X59" s="14"/>
-      <c r="Y59" s="14"/>
-      <c r="Z59" s="24">
-        <v>2.16</v>
-      </c>
-      <c r="AB59" s="10">
-        <v>1607.04</v>
-      </c>
-      <c r="AC59" s="58"/>
-      <c r="AE59" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="AF59" s="16"/>
-    </row>
-    <row r="60" spans="1:33">
-      <c r="A60" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="C60" s="57" t="s">
-        <v>292</v>
-      </c>
-      <c r="D60" s="14">
-        <v>2</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F60" s="14">
-        <v>8.74</v>
-      </c>
-      <c r="G60" s="14">
-        <v>2.91</v>
-      </c>
-      <c r="H60" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I60" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J60" s="14"/>
-      <c r="K60" s="57" t="s">
-        <v>297</v>
-      </c>
-      <c r="L60" s="14">
-        <v>1</v>
-      </c>
-      <c r="M60" s="14">
-        <v>24</v>
-      </c>
-      <c r="N60" s="14">
-        <v>2.6</v>
-      </c>
-      <c r="O60" s="14">
-        <v>16</v>
-      </c>
-      <c r="P60" s="14">
-        <f t="shared" si="13"/>
-        <v>0.99840000000000007</v>
-      </c>
-      <c r="Q60" s="14">
-        <v>2133</v>
-      </c>
-      <c r="R60" s="14">
-        <v>224</v>
-      </c>
-      <c r="S60" s="57" t="s">
-        <v>302</v>
-      </c>
-      <c r="T60" s="14">
-        <v>1440</v>
-      </c>
-      <c r="W60" s="14"/>
-      <c r="X60" s="14"/>
-      <c r="Y60" s="14"/>
-      <c r="Z60" s="24">
-        <v>4.32</v>
-      </c>
-      <c r="AB60" s="10">
-        <v>3214.08</v>
-      </c>
-      <c r="AC60" s="58"/>
-      <c r="AE60" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="AF60" s="16"/>
-    </row>
-    <row r="61" spans="1:33">
-      <c r="B61" s="22" t="s">
         <v>291</v>
-      </c>
-      <c r="C61" s="57" t="s">
-        <v>292</v>
-      </c>
-      <c r="D61" s="14">
-        <v>2</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F61" s="14">
-        <v>8.74</v>
-      </c>
-      <c r="G61" s="14">
-        <v>2.91</v>
-      </c>
-      <c r="H61" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I61" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J61" s="14"/>
-      <c r="K61" s="57" t="s">
-        <v>297</v>
-      </c>
-      <c r="L61" s="14">
-        <v>1</v>
-      </c>
-      <c r="M61" s="14">
-        <v>24</v>
-      </c>
-      <c r="N61" s="14">
-        <v>2.6</v>
-      </c>
-      <c r="O61" s="14">
-        <v>16</v>
-      </c>
-      <c r="P61" s="14">
-        <f t="shared" si="13"/>
-        <v>0.99840000000000007</v>
-      </c>
-      <c r="Q61" s="14">
-        <v>2133</v>
-      </c>
-      <c r="R61" s="14">
-        <v>224</v>
-      </c>
-      <c r="S61" s="57" t="s">
-        <v>302</v>
-      </c>
-      <c r="T61" s="14">
-        <v>1440</v>
-      </c>
-      <c r="W61" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="X61" s="14"/>
-      <c r="Y61" s="14" t="str">
-        <f t="shared" ref="Y61" si="14">W61&amp;"/"&amp;X61</f>
-        <v>Infiniband/</v>
-      </c>
-      <c r="Z61" s="24">
-        <v>4.7519999999999998</v>
-      </c>
-      <c r="AB61" s="10">
-        <v>3535.49</v>
-      </c>
-      <c r="AC61" s="58"/>
-      <c r="AE61" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="AF61" s="16"/>
-      <c r="AG61" s="16" t="s">
-        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -9796,7 +9573,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AH33">
-    <cfRule type="colorScale" priority="71">
+    <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9808,7 +9585,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI33">
-    <cfRule type="colorScale" priority="70">
+    <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9820,7 +9597,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH34:AH35">
-    <cfRule type="colorScale" priority="66">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9832,7 +9609,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI34:AI35">
-    <cfRule type="colorScale" priority="65">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9844,7 +9621,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH34:AH35">
-    <cfRule type="colorScale" priority="64">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9856,7 +9633,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI34:AI35">
-    <cfRule type="colorScale" priority="63">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9867,33 +9644,33 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FG19:XFD20 FG31:XFD31 Z31 U30:Y31 T30 S30:S31 R30 Q30:Q31 P30 L29:O31 A28:K30 Z35 A17 B18:I18 A21:Q21 S21:V21 K18:V18 A22:V22 Z18:AD22 W18:W22 A12:AD12 A7:A8 A5:M6 B7:M7 B8:AD9 A23:AD25 A27:M27 L28:M28 N27:O28 A26:O26 P26:AD28 A32:AD32 A34:M34 N34:P35 AH32:XFD34 AH19:AJ20 AH35:AJ35 AH21:XFD30 AG32:AG35 AG18:AG30 AH5:XFD18 AE5:AG5 Q34:X34 AC34:AD34 AB35 A13:AA13 A14:AD16 P29:X29 Z29:AD30 A33:X33 Z33:AD33 Z34:AA34 N5:AD7 AE6:AF36 AG6:AG16 A10:AC11">
-    <cfRule type="expression" dxfId="75" priority="57">
+  <conditionalFormatting sqref="FG19:XFD20 FG31:XFD31 Z31 U30:Y31 T30 S30:S31 R30 Q30:Q31 P30 L29:O31 A28:K30 Z35 A17 B18:I18 A21:Q21 S21:V21 K18:V18 A22:V22 Z18:AD22 W18:W22 A12:AD12 A7:A8 A5:M6 B7:M7 B8:AD9 A23:AD25 A27:M27 L28:M28 N27:O28 A26:O26 P26:AD28 A32:AD32 A34:M34 N34:P35 AH32:XFD34 AH19:AJ20 AH35:AJ35 AH21:XFD30 AG32:AG35 AG18:AG30 AH5:XFD18 AE5:AG5 Q34:X34 AC34:AD34 AB35 A13:AA13 A14:AD16 P29:X29 Z29:AD30 A33:X33 Z33:AD33 Z34:AA34 N5:AD7 AE6:AF36 AG6:AG16 A10:AC11 P50:P53 Y50:Y53 AE50:AF52 AE53">
+    <cfRule type="expression" dxfId="76" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13">
+    <cfRule type="expression" dxfId="75" priority="45">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
     <cfRule type="expression" dxfId="74" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
+  <conditionalFormatting sqref="K35:M35 Q35:X35">
     <cfRule type="expression" dxfId="73" priority="43">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35:M35 Q35:X35">
+  <conditionalFormatting sqref="AB34">
     <cfRule type="expression" dxfId="72" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB34">
-    <cfRule type="expression" dxfId="71" priority="41">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AH32:AH35 AH21:AH30 AH5:AH18">
-    <cfRule type="colorScale" priority="142">
+    <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9905,7 +9682,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI32:AI35 AI21:AI30 AI5:AI18">
-    <cfRule type="colorScale" priority="146">
+    <cfRule type="colorScale" priority="147">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9917,7 +9694,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH32:AH33 AH21:AH30 AH5:AH18">
-    <cfRule type="colorScale" priority="150">
+    <cfRule type="colorScale" priority="151">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9929,7 +9706,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI32:AI33 AI21:AI30 AI5:AI18">
-    <cfRule type="colorScale" priority="154">
+    <cfRule type="colorScale" priority="155">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9941,7 +9718,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ32:AJ35 AJ21:AJ30 AJ5:AJ18">
-    <cfRule type="colorScale" priority="158">
+    <cfRule type="colorScale" priority="159">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9953,7 +9730,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH21:AH30 AH5:AH18">
-    <cfRule type="colorScale" priority="162">
+    <cfRule type="colorScale" priority="163">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9965,7 +9742,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI21:AI30 AI5:AI18">
-    <cfRule type="colorScale" priority="165">
+    <cfRule type="colorScale" priority="166">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9977,12 +9754,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:Q20 S20:V20">
-    <cfRule type="expression" dxfId="70" priority="33">
+    <cfRule type="expression" dxfId="71" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH20">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9994,7 +9771,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI20">
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10006,7 +9783,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH20">
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10018,7 +9795,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI20">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10030,7 +9807,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ20">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10042,7 +9819,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH20">
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10054,7 +9831,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI20">
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10066,17 +9843,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:I19">
-    <cfRule type="expression" dxfId="69" priority="24">
+    <cfRule type="expression" dxfId="70" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:D19 R20:R21 K19:V19">
-    <cfRule type="expression" dxfId="68" priority="25">
+    <cfRule type="expression" dxfId="69" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH19">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10088,7 +9865,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI19">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10100,7 +9877,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH19">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10112,7 +9889,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI19">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10124,7 +9901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ19">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10136,7 +9913,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH19">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10148,7 +9925,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI19">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10160,128 +9937,108 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P37:P39">
+    <cfRule type="expression" dxfId="68" priority="24">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y17:Y22">
     <cfRule type="expression" dxfId="67" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y17:Y22">
+  <conditionalFormatting sqref="Y29">
     <cfRule type="expression" dxfId="66" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y29">
+  <conditionalFormatting sqref="Y33:Y35">
     <cfRule type="expression" dxfId="65" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y33:Y35">
+  <conditionalFormatting sqref="Y37:Y39">
     <cfRule type="expression" dxfId="64" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y37:Y39">
+  <conditionalFormatting sqref="P44">
     <cfRule type="expression" dxfId="63" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P44">
+  <conditionalFormatting sqref="Y44:Y48">
     <cfRule type="expression" dxfId="62" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y44:Y48">
+  <conditionalFormatting sqref="P42:P43">
     <cfRule type="expression" dxfId="61" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P42:P43">
+  <conditionalFormatting sqref="Y42:Y43">
     <cfRule type="expression" dxfId="60" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y42:Y43">
+  <conditionalFormatting sqref="P48">
     <cfRule type="expression" dxfId="59" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P48">
-    <cfRule type="expression" dxfId="58" priority="14">
+  <conditionalFormatting sqref="M55:P55 N56:P58">
+    <cfRule type="expression" dxfId="57" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P50:P54">
-    <cfRule type="expression" dxfId="57" priority="13">
+  <conditionalFormatting sqref="Q55:Q58">
+    <cfRule type="expression" dxfId="55" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y50:Y54">
-    <cfRule type="expression" dxfId="56" priority="12">
+  <conditionalFormatting sqref="Y58">
+    <cfRule type="expression" dxfId="54" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE50:AF56">
-    <cfRule type="expression" dxfId="55" priority="11">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P55:P56">
-    <cfRule type="expression" dxfId="54" priority="10">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y55:Y56">
-    <cfRule type="expression" dxfId="53" priority="9">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M58:P58 N59:P61">
-    <cfRule type="expression" dxfId="52" priority="8">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q58:Q61">
-    <cfRule type="expression" dxfId="51" priority="7">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y61">
-    <cfRule type="expression" dxfId="50" priority="6">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58:I61">
-    <cfRule type="expression" dxfId="49" priority="5">
+  <conditionalFormatting sqref="E55:I58">
+    <cfRule type="expression" dxfId="53" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C47">
-    <cfRule type="expression" dxfId="48" priority="4">
+    <cfRule type="expression" dxfId="52" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:I47">
-    <cfRule type="expression" dxfId="47" priority="3">
+    <cfRule type="expression" dxfId="51" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P45:P46">
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="50" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P47">
-    <cfRule type="expression" dxfId="45" priority="1">
+    <cfRule type="expression" dxfId="49" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF53">
+    <cfRule type="expression" dxfId="48" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A18" r:id="rId1"/>
-    <hyperlink ref="A52" r:id="rId2"/>
+    <hyperlink ref="A51" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="56" fitToWidth="2" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="Y50:Y54" emptyCellReference="1"/>
+    <ignoredError sqref="Y50:Y51 Y52:Y53" emptyCellReference="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId3"/>
   <extLst>
@@ -10295,13 +10052,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AC67"/>
+  <dimension ref="A1:AC69"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="R46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomRight" activeCell="V63" sqref="V63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -10395,10 +10152,10 @@
         <v>217</v>
       </c>
       <c r="X1" s="48" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="Y1" s="48" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="12" customFormat="1" ht="21" thickBot="1">
@@ -10472,7 +10229,7 @@
         <v>137</v>
       </c>
       <c r="X2" s="30" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="Y2" s="30" t="s">
         <v>138</v>
@@ -10590,7 +10347,7 @@
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19" t="str">
-        <f t="shared" ref="K4:K67" ca="1" si="3">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="K4:K69" ca="1" si="3">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>USD</v>
       </c>
       <c r="L4" s="14">
@@ -12511,7 +12268,7 @@
       </c>
       <c r="X27" s="14"/>
       <c r="Y27" s="16">
-        <f t="shared" ref="Y27:Y67" ca="1" si="15">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="Y27:Y69" ca="1" si="15">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>0</v>
       </c>
       <c r="Z27" s="16"/>
@@ -12963,11 +12720,11 @@
         <v>EUR</v>
       </c>
       <c r="L33" s="14">
-        <f t="shared" ref="L33:L67" ca="1" si="17">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="L33:L69" ca="1" si="17">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("AC"&amp;ROW()))</f>
         <v>0.43519999999999998</v>
       </c>
       <c r="M33" s="14">
-        <f t="shared" ref="M33:M67" ca="1" si="18">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="M33:M69" ca="1" si="18">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("AC"&amp;ROW()))</f>
         <v>16.456</v>
       </c>
       <c r="N33" s="14" t="str">
@@ -14192,7 +13949,7 @@
         <v>19</v>
       </c>
       <c r="N49" s="14" t="str">
-        <f t="shared" ref="N49:X64" ca="1" si="20">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="N49:X66" ca="1" si="20">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>P100</v>
       </c>
       <c r="O49" s="14">
@@ -14478,7 +14235,7 @@
         <v>2 x Titan X minutely</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F53" s="13">
         <f t="shared" ref="F53" ca="1" si="24">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -14553,7 +14310,7 @@
         <v>2 x Titan X  monthly</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F54" s="43"/>
       <c r="G54" s="19">
@@ -14631,7 +14388,7 @@
         <v>4 x Titan X minutely</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F55" s="43">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -14706,7 +14463,7 @@
         <v>4 x Titan X monthly</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F56" s="43"/>
       <c r="G56" s="43"/>
@@ -14775,7 +14532,7 @@
         <v>8 x Titan X minutely</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F57" s="43">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -14848,14 +14605,14 @@
         <v>8 x Titan X monthly</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="H58">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>3408.81</v>
       </c>
       <c r="I58" s="19">
-        <f t="shared" ref="I58:I63" ca="1" si="26">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="I58:I65" ca="1" si="26">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>0</v>
       </c>
       <c r="K58" s="19" t="str">
@@ -15138,14 +14895,14 @@
         <v>The University of Tokyo</v>
       </c>
       <c r="B62" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C62" s="22" t="str">
-        <f t="shared" ref="C62:C67" ca="1" si="27">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
+        <f t="shared" ref="C62:C69" ca="1" si="27">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
         <v>Reedbush-H Personal (educational)</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="I62" s="19">
         <f t="shared" ca="1" si="26"/>
@@ -15209,7 +14966,7 @@
       </c>
       <c r="Y62" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Max 2 nodes. Included (17280/2.5=)6912 node hours if 1 node is used, 3456 node hours if more than 1 node is used simulateously.</v>
+        <v>Max 2 nodes. Included (17280/2.5=)6912 node hours if 1 node is used, 3456 node hours if more than 1 node is used by a parallel job.</v>
       </c>
       <c r="AC62" s="45">
         <v>50</v>
@@ -15218,10 +14975,10 @@
     <row r="63" spans="1:29">
       <c r="C63" s="22" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Reedbush-H Group 4 (educational)</v>
+        <v>Reedbush-H (educational)</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="I63" s="19">
         <f t="shared" ca="1" si="26"/>
@@ -15285,168 +15042,182 @@
       </c>
       <c r="Y63" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Included 13824 node hours if 1 node is used, 6912 node hours if more than 1 node is used simultaneously.</v>
+        <v>Included 13824 node hours if 1 node is used, 6912 node hours if 2-4 nodes are used by a parallel job.</v>
       </c>
       <c r="AC63" s="45">
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="20">
-      <c r="A64" s="60" t="str">
+    <row r="64" spans="1:29" s="13" customFormat="1">
+      <c r="C64" s="22" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>Reedbush-H reviewed (educational)</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="I64" s="19">
+        <f t="shared" ca="1" si="26"/>
+        <v>166666.66666666666</v>
+      </c>
+      <c r="K64" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>JPY</v>
+      </c>
+      <c r="L64" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>1.2096000000000002</v>
+      </c>
+      <c r="M64" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>19</v>
+      </c>
+      <c r="N64" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>P100</v>
+      </c>
+      <c r="O64" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="P64" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v xml:space="preserve">Xeon E5-2695v4 </v>
+      </c>
+      <c r="Q64" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="R64" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>256</v>
+      </c>
+      <c r="S64" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>PFS</v>
+      </c>
+      <c r="T64" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>4000</v>
+      </c>
+      <c r="U64" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V64" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W64" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>13.635/</v>
+      </c>
+      <c r="X64" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>8640</v>
+      </c>
+      <c r="Y64" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Included 8640 node hours. 4320 node hours if a parallel job used more nodes than applied for.</v>
+      </c>
+      <c r="AC64" s="45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" s="13" customFormat="1">
+      <c r="C65" s="22" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>Reedbush-H reviewed</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="I65" s="19">
+        <f t="shared" ca="1" si="26"/>
+        <v>200000</v>
+      </c>
+      <c r="K65" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>JPY</v>
+      </c>
+      <c r="L65" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>1.2096000000000002</v>
+      </c>
+      <c r="M65" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>19</v>
+      </c>
+      <c r="N65" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>P100</v>
+      </c>
+      <c r="O65" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="P65" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v xml:space="preserve">Xeon E5-2695v4 </v>
+      </c>
+      <c r="Q65" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="R65" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>256</v>
+      </c>
+      <c r="S65" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>PFS</v>
+      </c>
+      <c r="T65" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>4000</v>
+      </c>
+      <c r="U65" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V65" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W65" s="14" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>13.635/</v>
+      </c>
+      <c r="X65" s="14">
+        <f t="shared" ca="1" si="20"/>
+        <v>8640</v>
+      </c>
+      <c r="Y65" s="16" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>Included 8640 node hours. 4320 node hours if a parallel job used more nodes than applied for.</v>
+      </c>
+      <c r="AC65" s="45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" ht="20">
+      <c r="A66" s="60" t="str">
         <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
         <v>MS Azure</v>
       </c>
-      <c r="B64" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="C64" s="22" t="str">
+      <c r="B66" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C66" s="22" t="str">
         <f t="shared" ca="1" si="27"/>
         <v>NC6</v>
       </c>
-      <c r="E64" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="F64" s="13">
-        <f t="shared" ref="F64:F67" ca="1" si="28">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+      <c r="E66" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="F66" s="13">
+        <f t="shared" ref="F66:F69" ca="1" si="28">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>1.08</v>
-      </c>
-      <c r="K64" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>USD</v>
-      </c>
-      <c r="L64" s="14">
-        <f t="shared" ca="1" si="17"/>
-        <v>0.24960000000000002</v>
-      </c>
-      <c r="M64" s="14">
-        <f t="shared" ca="1" si="18"/>
-        <v>4.37</v>
-      </c>
-      <c r="N64" s="14" t="str">
-        <f t="shared" ref="N64:V67" ca="1" si="29">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>K80</v>
-      </c>
-      <c r="O64" s="14">
-        <f t="shared" ca="1" si="29"/>
-        <v>0.5</v>
-      </c>
-      <c r="P64" s="61" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v>Xeon E5-2690v3</v>
-      </c>
-      <c r="Q64" s="14">
-        <f t="shared" ca="1" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="R64" s="14">
-        <f t="shared" ca="1" si="29"/>
-        <v>56</v>
-      </c>
-      <c r="S64" s="14" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v>SSD</v>
-      </c>
-      <c r="T64" s="14">
-        <f t="shared" ca="1" si="29"/>
-        <v>380</v>
-      </c>
-      <c r="U64" s="14">
-        <f t="shared" ca="1" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="V64" s="14">
-        <f t="shared" ca="1" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="W64" s="14">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X64" s="14"/>
-      <c r="Y64" s="16" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v xml:space="preserve">1 GPU in specification is 1/2 of K80 </v>
-      </c>
-      <c r="AC64" s="45">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="3:29">
-      <c r="C65" s="22" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>NC12</v>
-      </c>
-      <c r="E65" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="F65" s="13">
-        <f t="shared" ca="1" si="28"/>
-        <v>2.16</v>
-      </c>
-      <c r="K65" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>USD</v>
-      </c>
-      <c r="L65" s="14">
-        <f t="shared" ca="1" si="17"/>
-        <v>0.49920000000000003</v>
-      </c>
-      <c r="M65" s="14">
-        <f t="shared" ca="1" si="18"/>
-        <v>8.74</v>
-      </c>
-      <c r="N65" s="14" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v>K80</v>
-      </c>
-      <c r="O65" s="14">
-        <f t="shared" ca="1" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="P65" s="61" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v>Xeon E5-2690v3</v>
-      </c>
-      <c r="Q65" s="14">
-        <f t="shared" ca="1" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="R65" s="14">
-        <f t="shared" ca="1" si="29"/>
-        <v>112</v>
-      </c>
-      <c r="S65" s="14" t="str">
-        <f t="shared" ca="1" si="29"/>
-        <v>SSD</v>
-      </c>
-      <c r="T65" s="14">
-        <f t="shared" ca="1" si="29"/>
-        <v>680</v>
-      </c>
-      <c r="W65" s="14">
-        <f t="shared" ref="W65:W67" ca="1" si="30">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>0</v>
-      </c>
-      <c r="X65" s="14"/>
-      <c r="Y65" s="16">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AC65" s="45">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="3:29">
-      <c r="C66" s="22" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>NC24</v>
-      </c>
-      <c r="E66" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="F66" s="13">
-        <f t="shared" ca="1" si="28"/>
-        <v>4.32</v>
       </c>
       <c r="K66" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -15454,19 +15225,19 @@
       </c>
       <c r="L66" s="14">
         <f t="shared" ca="1" si="17"/>
-        <v>0.99840000000000007</v>
+        <v>0.24960000000000002</v>
       </c>
       <c r="M66" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>17.48</v>
+        <v>4.37</v>
       </c>
       <c r="N66" s="14" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ref="N66:V69" ca="1" si="29">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>K80</v>
       </c>
       <c r="O66" s="14">
         <f t="shared" ca="1" si="29"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="P66" s="61" t="str">
         <f t="shared" ca="1" si="29"/>
@@ -15478,7 +15249,7 @@
       </c>
       <c r="R66" s="14">
         <f t="shared" ca="1" si="29"/>
-        <v>224</v>
+        <v>56</v>
       </c>
       <c r="S66" s="14" t="str">
         <f t="shared" ca="1" si="29"/>
@@ -15486,32 +15257,40 @@
       </c>
       <c r="T66" s="14">
         <f t="shared" ca="1" si="29"/>
-        <v>1440</v>
+        <v>380</v>
+      </c>
+      <c r="U66" s="14">
+        <f t="shared" ca="1" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="V66" s="14">
+        <f t="shared" ca="1" si="29"/>
+        <v>0</v>
       </c>
       <c r="W66" s="14">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="X66" s="14"/>
-      <c r="Y66" s="16">
+      <c r="Y66" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v xml:space="preserve">1 GPU in specification is 1/2 of K80 </v>
       </c>
       <c r="AC66" s="45">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="67" spans="3:29">
+    <row r="67" spans="1:29">
       <c r="C67" s="22" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>NC24r</v>
+        <v>NC12</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="F67" s="13">
         <f t="shared" ca="1" si="28"/>
-        <v>4.7519999999999998</v>
+        <v>2.16</v>
       </c>
       <c r="K67" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -15519,11 +15298,11 @@
       </c>
       <c r="L67" s="14">
         <f t="shared" ca="1" si="17"/>
-        <v>0.99840000000000007</v>
+        <v>0.49920000000000003</v>
       </c>
       <c r="M67" s="14">
         <f t="shared" ca="1" si="18"/>
-        <v>17.48</v>
+        <v>8.74</v>
       </c>
       <c r="N67" s="14" t="str">
         <f t="shared" ca="1" si="29"/>
@@ -15531,7 +15310,7 @@
       </c>
       <c r="O67" s="14">
         <f t="shared" ca="1" si="29"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P67" s="61" t="str">
         <f t="shared" ca="1" si="29"/>
@@ -15543,7 +15322,7 @@
       </c>
       <c r="R67" s="14">
         <f t="shared" ca="1" si="29"/>
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="S67" s="14" t="str">
         <f t="shared" ca="1" si="29"/>
@@ -15551,245 +15330,375 @@
       </c>
       <c r="T67" s="14">
         <f t="shared" ca="1" si="29"/>
+        <v>680</v>
+      </c>
+      <c r="W67" s="14">
+        <f t="shared" ref="W67:W69" ca="1" si="30">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>0</v>
+      </c>
+      <c r="X67" s="14"/>
+      <c r="Y67" s="16">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC67" s="45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29">
+      <c r="C68" s="22" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>NC24</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="F68" s="13">
+        <f t="shared" ca="1" si="28"/>
+        <v>4.32</v>
+      </c>
+      <c r="K68" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>USD</v>
+      </c>
+      <c r="L68" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.99840000000000007</v>
+      </c>
+      <c r="M68" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>17.48</v>
+      </c>
+      <c r="N68" s="14" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>K80</v>
+      </c>
+      <c r="O68" s="14">
+        <f t="shared" ca="1" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="P68" s="61" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>Xeon E5-2690v3</v>
+      </c>
+      <c r="Q68" s="14">
+        <f t="shared" ca="1" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="R68" s="14">
+        <f t="shared" ca="1" si="29"/>
+        <v>224</v>
+      </c>
+      <c r="S68" s="14" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>SSD</v>
+      </c>
+      <c r="T68" s="14">
+        <f t="shared" ca="1" si="29"/>
         <v>1440</v>
       </c>
-      <c r="W67" s="14" t="str">
+      <c r="W68" s="14">
+        <f t="shared" ca="1" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="X68" s="14"/>
+      <c r="Y68" s="16">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC68" s="45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29">
+      <c r="C69" s="22" t="str">
+        <f t="shared" ca="1" si="27"/>
+        <v>NC24r</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="F69" s="13">
+        <f t="shared" ca="1" si="28"/>
+        <v>4.7519999999999998</v>
+      </c>
+      <c r="K69" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>USD</v>
+      </c>
+      <c r="L69" s="14">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.99840000000000007</v>
+      </c>
+      <c r="M69" s="14">
+        <f t="shared" ca="1" si="18"/>
+        <v>17.48</v>
+      </c>
+      <c r="N69" s="14" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>K80</v>
+      </c>
+      <c r="O69" s="14">
+        <f t="shared" ca="1" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="P69" s="61" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>Xeon E5-2690v3</v>
+      </c>
+      <c r="Q69" s="14">
+        <f t="shared" ca="1" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="R69" s="14">
+        <f t="shared" ca="1" si="29"/>
+        <v>224</v>
+      </c>
+      <c r="S69" s="14" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>SSD</v>
+      </c>
+      <c r="T69" s="14">
+        <f t="shared" ca="1" si="29"/>
+        <v>1440</v>
+      </c>
+      <c r="W69" s="14" t="str">
         <f t="shared" ca="1" si="30"/>
         <v>Infiniband/</v>
       </c>
-      <c r="X67" s="14"/>
-      <c r="Y67" s="16" t="str">
+      <c r="X69" s="14"/>
+      <c r="Y69" s="16" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>RDMA capable</v>
       </c>
-      <c r="AC67" s="45">
-        <v>61</v>
+      <c r="AC69" s="45">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="I23:J23 I25:J25 I27:J27 I29:J29 F25:G25 F29:G29 H22:H31 S13:S15 E23:G23 E18:J22 C30:C32 E26:G28 D26:D33 E17:F17 D10:D24 D3:D8 C3:C21 E7:G7 E9:J16 E4:J6 K4:K35 E30:I32 M32:O41 N16:O16 L30:O31 E3:O3 L4:O15 M16:M17 L16:L29 M18:O29 E8:H8 J8 I58:I63 H50:H52 L42:S61 T45:Y61 K48:K64 K65:T67 L64:V64 L62:Y63 W64:Y67">
-    <cfRule type="expression" dxfId="44" priority="113">
+  <conditionalFormatting sqref="I23:J23 I25:J25 I27:J27 I29:J29 F25:G25 F29:G29 H22:H31 S13:S15 E23:G23 E18:J22 C30:C32 E26:G28 D26:D33 E17:F17 D10:D24 D3:D8 C3:C21 E7:G7 E9:J16 E4:J6 K4:K35 E30:I32 M32:O41 N16:O16 L30:O31 E3:O3 L4:O15 M16:M17 L16:L29 M18:O29 E8:H8 J8 H50:H52 L42:S61 T45:Y61 K67:T69 L66:V66 W66:Y69 I58:I65 K48:K66 L62:Y65">
+    <cfRule type="expression" dxfId="47" priority="113">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25 I24:J24 F24:G24">
-    <cfRule type="expression" dxfId="43" priority="111">
+    <cfRule type="expression" dxfId="46" priority="111">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:J26">
-    <cfRule type="expression" dxfId="42" priority="110">
+    <cfRule type="expression" dxfId="45" priority="110">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:J28">
-    <cfRule type="expression" dxfId="41" priority="109">
+    <cfRule type="expression" dxfId="44" priority="109">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="40" priority="100">
+    <cfRule type="expression" dxfId="43" priority="100">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P15 P18:P41">
-    <cfRule type="expression" dxfId="39" priority="55">
+    <cfRule type="expression" dxfId="42" priority="55">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:X3 T4:X12 T18:V31 T13:V15 W13:X31 R3:R15 R18:R41 Y6:Y41 T32:X38 U39:X41 T39:T44">
-    <cfRule type="expression" dxfId="38" priority="53">
+    <cfRule type="expression" dxfId="41" priority="53">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C23">
-    <cfRule type="expression" dxfId="37" priority="62">
+    <cfRule type="expression" dxfId="40" priority="62">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C25">
-    <cfRule type="expression" dxfId="36" priority="61">
+    <cfRule type="expression" dxfId="39" priority="61">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C27">
-    <cfRule type="expression" dxfId="35" priority="60">
+    <cfRule type="expression" dxfId="38" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C29">
-    <cfRule type="expression" dxfId="34" priority="59">
+    <cfRule type="expression" dxfId="37" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q15 Q18:Q41">
-    <cfRule type="expression" dxfId="33" priority="54">
+    <cfRule type="expression" dxfId="36" priority="54">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S12">
-    <cfRule type="expression" dxfId="32" priority="52">
+    <cfRule type="expression" dxfId="35" priority="52">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18:S41">
-    <cfRule type="expression" dxfId="31" priority="51">
+    <cfRule type="expression" dxfId="34" priority="51">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:J17 N17:O17">
-    <cfRule type="expression" dxfId="30" priority="42">
+    <cfRule type="expression" dxfId="33" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:P17">
-    <cfRule type="expression" dxfId="29" priority="41">
+    <cfRule type="expression" dxfId="32" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16:V17 R16:R17">
-    <cfRule type="expression" dxfId="28" priority="39">
+    <cfRule type="expression" dxfId="31" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16:Q17">
-    <cfRule type="expression" dxfId="27" priority="40">
+    <cfRule type="expression" dxfId="30" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:S17">
-    <cfRule type="expression" dxfId="26" priority="38">
+    <cfRule type="expression" dxfId="29" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="25" priority="37">
+    <cfRule type="expression" dxfId="28" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="24" priority="36">
+    <cfRule type="expression" dxfId="27" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="23" priority="35">
+    <cfRule type="expression" dxfId="26" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:L41">
-    <cfRule type="expression" dxfId="22" priority="34">
+    <cfRule type="expression" dxfId="25" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="21" priority="33">
+    <cfRule type="expression" dxfId="24" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="20" priority="32">
+    <cfRule type="expression" dxfId="23" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="19" priority="31">
+    <cfRule type="expression" dxfId="22" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="18" priority="29">
+    <cfRule type="expression" dxfId="21" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:J32">
-    <cfRule type="expression" dxfId="17" priority="28">
+    <cfRule type="expression" dxfId="20" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36 K36:K47">
-    <cfRule type="expression" dxfId="16" priority="27">
+    <cfRule type="expression" dxfId="19" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="expression" dxfId="15" priority="26">
+    <cfRule type="expression" dxfId="18" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="14" priority="25">
+    <cfRule type="expression" dxfId="17" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="13" priority="20">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="12" priority="19">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="expression" dxfId="11" priority="18">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="expression" dxfId="10" priority="17">
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="9" priority="16">
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U42:Y44">
-    <cfRule type="expression" dxfId="8" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:H57">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49 G54">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Comparison table updated 3.xlsx
+++ b/Comparison table updated 3.xlsx
@@ -1343,658 +1343,658 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>8 x GeForce GTX 1080</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x GeForce GTX 1080</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GeForce GTX 1080</t>
+  </si>
+  <si>
+    <t>GeForce GTX 1080</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2609 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GHz</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FLOPs per cycle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://en.wikichip.org/wiki/intel/xeon_e5/e5-2686_v4</t>
+  </si>
+  <si>
+    <t>Xeon E5-2609 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2630 v4</t>
+  </si>
+  <si>
+    <t>SSD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>setup price</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22240</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>This is the average monthly payment over the course of the Dedicated Host Reservation term. For each month, the actual monthly payment will equal the actual number of hours in that month multiplied by the hourly usage rate. The hourly usage rate is equivalent to the total average monthly payments over the term divided by the total number of hours (based on a 365 day year) over the term.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Setup price</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Internal/External</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPU performance (Tflops DP)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GPU performance (TFlops SP)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JPY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EUR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SL M60x1 2690v3 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SL K80x1 2690v3 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x2 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x2 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x2 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x8 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x8 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x8 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x Tesla P100</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>40/1</t>
+  </si>
+  <si>
+    <t>1 x Tesla P100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x Tesla P100 NVLink</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4 x Tesla P100 NVLink</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8 x Tesla P100 NVLink</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x FirePro S9300x2</t>
+  </si>
+  <si>
+    <t>2 x 4096</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x 4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x 512</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2609 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SSD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x1 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x1 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT S9300x2 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FirePro S9300x2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT S9300x2 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 NVL min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 NVL m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x4 NVL m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x8 NVL m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 NVL w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT S9300x2 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x1 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The University of Tokyo</t>
+  </si>
+  <si>
+    <t>Reedbush-H Personal (educational)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2630 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Xeon E5-2695v4 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PFS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>per hour</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>per week</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>per month (30 days)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>per year</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.nimbix.net/nimbix-cloud-demand-pricing/</t>
+  </si>
+  <si>
+    <t>TU personal</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS Azure</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NC12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NC24</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NC24r</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>K80</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://venturebeat.com/2016/08/04/microsoft-azure-releases-n-series-gpu-instances-in-preview/</t>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/en-us/pricing/details/virtual-machines/linux/</t>
+  </si>
+  <si>
+    <t>NC6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2690v3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RDMA capable</t>
+  </si>
+  <si>
+    <t>SSD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Infiniband</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NC6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NC12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 GPU in specification is 1/2 of K80 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x Titan X</t>
+  </si>
+  <si>
+    <t>4 x Titan X</t>
+  </si>
+  <si>
+    <t>8 x Titan X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TITAN X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GeForce GTX Titan X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2609 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/en-us/pricing/details/virtual-machines/linux/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NC25r</t>
+  </si>
+  <si>
+    <t>MS NC24</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.leadergpu.com</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx2 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx2 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx4 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx4 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx8 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx8 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nodes*hours limit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Max hours</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.cc.u-tokyo.ac.jp/support/application/kitei/hyou5.pdf</t>
+  </si>
+  <si>
+    <t>http://www.cc.u-tokyo.ac.jp/support/application/kitei/hyou5.pdf</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Max 2 nodes. Included (17280/2.5=)6912 node hours if 1 node is used, 3456 node hours if more than 1 node is used by a parallel job.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Included 13824 node hours if 1 node is used, 6912 node hours if 2-4 nodes are used by a parallel job.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Included 8640 node hours. 4320 node hours if a parallel job used more nodes than applied for.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H (educational)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H reviewed (educational)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H reviewed</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU gen edu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU rev</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU rev edu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Limited quantity available at this price</t>
+  </si>
+  <si>
+    <t>8-GPU x86 P40</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8-GPU x86 P100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8-GPU x86 Quadro P6000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4-GPU x86 P40</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4-GPU x86 P100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4-GPU x86 Quadro P6000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Quadro P600</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-1650 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4-GPU POWER8/10 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4-GPU POWER8/8 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2-GPU POWER8/8 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P40x4 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P40x4 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x4 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x4 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P6000x4 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P6000x4 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P6000x8 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P6000x8 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>16-GPU x86 K80 ltd.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8-GPU x86 M40 ltd.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR K80x8 x86 ltd m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR K80x8 x86 ltd w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR M40x8 ltd x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR M40x8 ltd x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>LeaderTelecom</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>4 x GeForce GTX 1080</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8 x GeForce GTX 1080</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x GeForce GTX 1080</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GeForce GTX 1080</t>
-  </si>
-  <si>
-    <t>GeForce GTX 1080</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2609 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GHz</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FLOPs per cycle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://en.wikichip.org/wiki/intel/xeon_e5/e5-2686_v4</t>
-  </si>
-  <si>
-    <t>Xeon E5-2609 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2630 v4</t>
-  </si>
-  <si>
-    <t>SSD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Currency</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>USD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>setup price</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22240</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>This is the average monthly payment over the course of the Dedicated Host Reservation term. For each month, the actual monthly payment will equal the actual number of hours in that month multiplied by the hourly usage rate. The hourly usage rate is equivalent to the total average monthly payments over the term divided by the total number of hours (based on a 365 day year) over the term.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Z</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Setup price</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Currency</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Internal/External</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CPU performance (Tflops DP)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GPU performance (TFlops SP)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>JPY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>EUR</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SL M60x1 2690v3 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SL K80x1 2690v3 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x2 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x2 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x2 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x4 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x4 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x4 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x8 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x8 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x8 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x Tesla P100</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>40/1</t>
-  </si>
-  <si>
-    <t>1 x Tesla P100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x Tesla P100 NVLink</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4 x Tesla P100 NVLink</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8 x Tesla P100 NVLink</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x FirePro S9300x2</t>
-  </si>
-  <si>
-    <t>2 x 4096</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x 4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x 512</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2609 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SSD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x1 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x1 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT S9300x2 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FirePro S9300x2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT S9300x2 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 NVL min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 NVL m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x4 NVL m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x8 NVL m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 NVL w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT S9300x2 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x1 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>The University of Tokyo</t>
-  </si>
-  <si>
-    <t>Reedbush-H Personal (educational)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2630 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Xeon E5-2695v4 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>P100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PFS</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>per hour</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>per week</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>per month (30 days)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>per year</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://www.nimbix.net/nimbix-cloud-demand-pricing/</t>
-  </si>
-  <si>
-    <t>TU personal</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MS Azure</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NC12</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NC24</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NC24r</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>K80</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>USD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://venturebeat.com/2016/08/04/microsoft-azure-releases-n-series-gpu-instances-in-preview/</t>
-  </si>
-  <si>
-    <t>https://azure.microsoft.com/en-us/pricing/details/virtual-machines/linux/</t>
-  </si>
-  <si>
-    <t>NC6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2690v3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RDMA capable</t>
-  </si>
-  <si>
-    <t>SSD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Infiniband</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MS NC6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MS NC12</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 GPU in specification is 1/2 of K80 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x Titan X</t>
-  </si>
-  <si>
-    <t>4 x Titan X</t>
-  </si>
-  <si>
-    <t>8 x Titan X</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TITAN X</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GeForce GTX Titan X</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2609 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://azure.microsoft.com/en-us/pricing/details/virtual-machines/linux/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MS NC25r</t>
-  </si>
-  <si>
-    <t>MS NC24</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://www.leadergpu.com</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTXTXx2 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTXTXx2 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTXTXx4 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTXTXx4 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTXTXx8 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTXTXx8 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nodes*hours limit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AG</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Max hours</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.cc.u-tokyo.ac.jp/support/application/kitei/hyou5.pdf</t>
-  </si>
-  <si>
-    <t>http://www.cc.u-tokyo.ac.jp/support/application/kitei/hyou5.pdf</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Max 2 nodes. Included (17280/2.5=)6912 node hours if 1 node is used, 3456 node hours if more than 1 node is used by a parallel job.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Included 13824 node hours if 1 node is used, 6912 node hours if 2-4 nodes are used by a parallel job.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Included 8640 node hours. 4320 node hours if a parallel job used more nodes than applied for.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H (educational)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H reviewed (educational)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H reviewed</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TU gen edu</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TU rev</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TU rev edu</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Limited quantity available at this price</t>
-  </si>
-  <si>
-    <t>8-GPU x86 P40</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8-GPU x86 P100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8-GPU x86 Quadro P6000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4-GPU x86 P40</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4-GPU x86 P100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4-GPU x86 Quadro P6000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Quadro P600</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-1650 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4-GPU POWER8/10 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4-GPU POWER8/8 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2-GPU POWER8/8 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P40x4 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P40x4 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x4 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x4 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P6000x4 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P6000x4 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P6000x8 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P6000x8 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>16-GPU x86 K80 ltd.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8-GPU x86 M40 ltd.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR K80x8 x86 ltd m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR K80x8 x86 ltd w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR M40x8 ltd x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR M40x8 ltd x86 w.</t>
+    <t>4 x GeForce GTX 1080 ltd.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x4 ltd w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x4 ltd min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x4 ltd m.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2380,7 +2380,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="705">
+  <cellStyleXfs count="706">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3031,6 +3031,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3221,7 +3222,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="705">
+  <cellStyles count="706">
     <cellStyle name="$Normal" xfId="356"/>
     <cellStyle name="¥ Normal" xfId="636"/>
     <cellStyle name="€ Normal" xfId="635"/>
@@ -3633,6 +3634,7 @@
     <cellStyle name="Followed Hyperlink" xfId="702" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="703" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="705" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 1 2" xfId="62"/>
     <cellStyle name="Heading 2" xfId="263" builtinId="17" customBuiltin="1"/>
@@ -3928,128 +3930,7 @@
     <cellStyle name="Style 1" xfId="55"/>
     <cellStyle name="Title" xfId="340" builtinId="15" hidden="1"/>
   </cellStyles>
-  <dxfs count="98">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="79">
     <dxf>
       <font>
         <color auto="1"/>
@@ -4919,94 +4800,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEAF2F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEAF2F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEAF2F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEAF2F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEAF2F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEAF2F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
@@ -5305,10 +5098,10 @@
   <dimension ref="A1:FF62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="L15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="L24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -5404,7 +5197,7 @@
       <c r="AD3" s="63"/>
       <c r="AE3" s="63"/>
       <c r="AF3" s="17" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>32</v>
@@ -5576,10 +5369,10 @@
         <v>6</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P4" s="17" t="s">
         <v>57</v>
@@ -5609,25 +5402,25 @@
         <v>13</v>
       </c>
       <c r="Y4" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Z4" s="17" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AA4" s="25" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AB4" s="17" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AC4" s="17" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="AD4" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AE4" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AG4" s="17"/>
     </row>
@@ -5698,16 +5491,16 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
       <c r="AE5" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF5" s="16"/>
       <c r="AG5" s="16" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:162">
       <c r="A6" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>46</v>
@@ -5772,11 +5565,11 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
       <c r="AE6" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF6" s="16"/>
       <c r="AG6" s="16" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:162">
@@ -5846,16 +5639,16 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
       <c r="AE7" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF7" s="16"/>
       <c r="AG7" s="16" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:162">
       <c r="A8" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>83</v>
@@ -5918,7 +5711,7 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="10"/>
       <c r="AE8" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF8" s="16"/>
     </row>
@@ -5984,11 +5777,11 @@
       <c r="AC9" s="24"/>
       <c r="AD9" s="24"/>
       <c r="AE9" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF9" s="16"/>
       <c r="AG9" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:162">
@@ -6053,7 +5846,7 @@
         <v>88389</v>
       </c>
       <c r="AE10" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF10" s="16"/>
     </row>
@@ -6119,7 +5912,7 @@
         <v>184780</v>
       </c>
       <c r="AE11" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF11" s="16"/>
     </row>
@@ -6240,7 +6033,7 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
       <c r="AE13" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF13" s="16"/>
       <c r="AG13" s="16" t="s">
@@ -6328,7 +6121,7 @@
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
       <c r="AE14" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF14" s="16"/>
       <c r="AG14" s="16" t="s">
@@ -6414,7 +6207,7 @@
       <c r="AC15" s="24"/>
       <c r="AD15" s="24"/>
       <c r="AE15" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF15" s="16"/>
       <c r="AG15" s="16" t="s">
@@ -6527,7 +6320,7 @@
       <c r="AC17" s="38"/>
       <c r="AD17" s="38"/>
       <c r="AE17" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF17" s="16"/>
       <c r="AG17" s="16" t="s">
@@ -6536,7 +6329,7 @@
     </row>
     <row r="18" spans="1:162" s="13" customFormat="1">
       <c r="A18" s="56" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>44</v>
@@ -6607,7 +6400,7 @@
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
       <c r="AE18" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF18" s="16"/>
       <c r="AG18" s="16" t="s">
@@ -6685,7 +6478,7 @@
       <c r="AC19" s="10"/>
       <c r="AD19" s="10"/>
       <c r="AE19" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF19" s="16"/>
       <c r="AG19" s="16" t="s">
@@ -6872,7 +6665,7 @@
       <c r="AC20" s="24"/>
       <c r="AD20" s="24"/>
       <c r="AE20" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF20" s="16"/>
       <c r="AG20" s="16"/>
@@ -7059,7 +6852,7 @@
       <c r="AC21" s="24"/>
       <c r="AD21" s="24"/>
       <c r="AE21" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF21" s="16"/>
     </row>
@@ -7099,7 +6892,7 @@
       <c r="AC22" s="24"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF22" s="16"/>
     </row>
@@ -7135,7 +6928,7 @@
       <c r="AC23" s="24"/>
       <c r="AD23" s="24"/>
       <c r="AE23" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF23" s="16"/>
     </row>
@@ -7175,7 +6968,7 @@
         <v>43</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C25" s="28" t="s">
         <v>16</v>
@@ -7215,7 +7008,7 @@
         <v>16</v>
       </c>
       <c r="P25" s="14">
-        <f>M25*N25*O25/1000</f>
+        <f t="shared" ref="P25:P30" si="4">M25*N25*O25/1000</f>
         <v>0.40960000000000002</v>
       </c>
       <c r="Q25" s="5">
@@ -7240,7 +7033,7 @@
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="10" t="str">
-        <f t="shared" ref="Z25:Z35" si="4">USDOLLAR(AB25/730,2)&amp;"?"</f>
+        <f t="shared" ref="Z25:Z35" si="5">USDOLLAR(AB25/730,2)&amp;"?"</f>
         <v>$6.85?</v>
       </c>
       <c r="AA25" s="24">
@@ -7252,11 +7045,11 @@
       <c r="AC25" s="24"/>
       <c r="AD25" s="24"/>
       <c r="AE25" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF25" s="16"/>
       <c r="AG25" s="16" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:162">
@@ -7264,7 +7057,7 @@
         <v>62</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>41</v>
@@ -7304,7 +7097,7 @@
         <v>16</v>
       </c>
       <c r="P26" s="14">
-        <f>M26*N26*O26/1000</f>
+        <f t="shared" si="4"/>
         <v>0.30719999999999997</v>
       </c>
       <c r="Q26" s="5">
@@ -7329,7 +7122,7 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$6.85?</v>
       </c>
       <c r="AA26" s="24">
@@ -7341,17 +7134,17 @@
       <c r="AC26" s="24"/>
       <c r="AD26" s="24"/>
       <c r="AE26" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF26" s="16"/>
       <c r="AG26" s="16" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:162" s="13" customFormat="1">
       <c r="A27" s="2"/>
       <c r="B27" s="22" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C27" s="28" t="s">
         <v>93</v>
@@ -7391,7 +7184,7 @@
         <v>16</v>
       </c>
       <c r="P27" s="14">
-        <f>M27*N27*O27/1000</f>
+        <f t="shared" si="4"/>
         <v>0.30719999999999997</v>
       </c>
       <c r="Q27" s="5">
@@ -7416,7 +7209,7 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$10.82?</v>
       </c>
       <c r="AA27" s="24">
@@ -7428,7 +7221,7 @@
       <c r="AC27" s="24"/>
       <c r="AD27" s="24"/>
       <c r="AE27" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF27" s="16"/>
       <c r="AG27" s="16"/>
@@ -7436,7 +7229,7 @@
     <row r="28" spans="1:162" s="13" customFormat="1">
       <c r="A28" s="2"/>
       <c r="B28" s="22" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>94</v>
@@ -7476,7 +7269,7 @@
         <v>16</v>
       </c>
       <c r="P28" s="14">
-        <f>M28*N28*O28/1000</f>
+        <f t="shared" si="4"/>
         <v>0.30719999999999997</v>
       </c>
       <c r="Q28" s="5">
@@ -7501,7 +7294,7 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$10.82?</v>
       </c>
       <c r="AA28" s="24">
@@ -7513,7 +7306,7 @@
       <c r="AC28" s="24"/>
       <c r="AD28" s="24"/>
       <c r="AE28" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF28" s="16"/>
       <c r="AG28" s="16"/>
@@ -7521,10 +7314,10 @@
     <row r="29" spans="1:162" s="13" customFormat="1">
       <c r="A29" s="2"/>
       <c r="B29" s="22" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D29" s="13">
         <v>8</v>
@@ -7561,7 +7354,7 @@
         <v>16</v>
       </c>
       <c r="P29" s="14">
-        <f>M29*N29*O29/1000</f>
+        <f t="shared" si="4"/>
         <v>0.30719999999999997</v>
       </c>
       <c r="Q29" s="5">
@@ -7595,7 +7388,7 @@
       <c r="AC29" s="24"/>
       <c r="AD29" s="24"/>
       <c r="AE29" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF29" s="16"/>
       <c r="AG29" s="16"/>
@@ -7603,7 +7396,7 @@
     <row r="30" spans="1:162" s="13" customFormat="1">
       <c r="A30" s="2"/>
       <c r="B30" s="22" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C30" s="28" t="s">
         <v>93</v>
@@ -7628,7 +7421,7 @@
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="8" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L30" s="5">
         <v>1</v>
@@ -7643,7 +7436,7 @@
         <v>16</v>
       </c>
       <c r="P30" s="14">
-        <f>M30*N30*O30/1000</f>
+        <f t="shared" si="4"/>
         <v>0.34560000000000002</v>
       </c>
       <c r="Q30" s="5">
@@ -7677,7 +7470,7 @@
       <c r="AC30" s="24"/>
       <c r="AD30" s="24"/>
       <c r="AE30" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF30" s="16"/>
       <c r="AG30" s="16"/>
@@ -7685,7 +7478,7 @@
     <row r="31" spans="1:162" s="13" customFormat="1">
       <c r="A31" s="2"/>
       <c r="B31" s="22" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C31" s="28" t="s">
         <v>35</v>
@@ -7710,7 +7503,7 @@
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="8" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L31" s="5">
         <v>1</v>
@@ -7725,7 +7518,7 @@
         <v>16</v>
       </c>
       <c r="P31" s="14">
-        <f t="shared" ref="P31:P32" si="5">M31*N31*O31/1000</f>
+        <f t="shared" ref="P31:P32" si="6">M31*N31*O31/1000</f>
         <v>0.34560000000000002</v>
       </c>
       <c r="Q31" s="5">
@@ -7759,7 +7552,7 @@
       <c r="AC31" s="24"/>
       <c r="AD31" s="24"/>
       <c r="AE31" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF31" s="16"/>
       <c r="AG31" s="16"/>
@@ -7767,10 +7560,10 @@
     <row r="32" spans="1:162" s="13" customFormat="1">
       <c r="A32" s="2"/>
       <c r="B32" s="22" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D32" s="13">
         <v>4</v>
@@ -7792,7 +7585,7 @@
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="8" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L32" s="5">
         <v>1</v>
@@ -7807,7 +7600,7 @@
         <v>16</v>
       </c>
       <c r="P32" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.34560000000000002</v>
       </c>
       <c r="Q32" s="5">
@@ -7841,14 +7634,14 @@
       <c r="AC32" s="24"/>
       <c r="AD32" s="24"/>
       <c r="AE32" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF32" s="16"/>
       <c r="AG32" s="16"/>
     </row>
     <row r="33" spans="1:162">
       <c r="B33" s="22" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>78</v>
@@ -7907,11 +7700,11 @@
       </c>
       <c r="X33" s="5"/>
       <c r="Y33" s="14" t="str">
-        <f t="shared" ref="Y33" si="6">W33&amp;"/"&amp;X33</f>
+        <f t="shared" ref="Y33" si="7">W33&amp;"/"&amp;X33</f>
         <v>24.24/</v>
       </c>
       <c r="Z33" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$10.20?</v>
       </c>
       <c r="AA33" s="24">
@@ -7923,7 +7716,7 @@
       <c r="AC33" s="24"/>
       <c r="AD33" s="24"/>
       <c r="AE33" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF33" s="16"/>
       <c r="AG33" s="16" t="s">
@@ -7932,7 +7725,7 @@
     </row>
     <row r="34" spans="1:162">
       <c r="B34" s="22" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C34" s="28" t="s">
         <v>79</v>
@@ -7990,7 +7783,7 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$9.15?</v>
       </c>
       <c r="AA34" s="24">
@@ -8002,14 +7795,14 @@
       <c r="AC34" s="24"/>
       <c r="AD34" s="24"/>
       <c r="AE34" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF34" s="16"/>
     </row>
     <row r="35" spans="1:162" s="13" customFormat="1">
       <c r="A35" s="40"/>
       <c r="B35" s="41" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C35" s="42" t="s">
         <v>138</v>
@@ -8067,7 +7860,7 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$5.79?</v>
       </c>
       <c r="AA35" s="44">
@@ -8079,7 +7872,7 @@
       <c r="AC35" s="44"/>
       <c r="AD35" s="44"/>
       <c r="AE35" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF35" s="16"/>
       <c r="AG35" s="16"/>
@@ -8240,7 +8033,7 @@
       <c r="AC36" s="24"/>
       <c r="AD36" s="24"/>
       <c r="AE36" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AF36" s="16"/>
     </row>
@@ -8252,7 +8045,7 @@
         <v>49</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D37" s="28">
         <v>4</v>
@@ -8315,7 +8108,7 @@
         <v>0.1</v>
       </c>
       <c r="Y37" s="14" t="str">
-        <f t="shared" ref="Y37:Y47" si="7">W37&amp;"/"&amp;X37</f>
+        <f t="shared" ref="Y37:Y47" si="8">W37&amp;"/"&amp;X37</f>
         <v>/0.1</v>
       </c>
       <c r="Z37" s="10"/>
@@ -8328,7 +8121,7 @@
         <v>815000</v>
       </c>
       <c r="AE37" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AF37" s="16"/>
     </row>
@@ -8403,7 +8196,7 @@
         <v>0.1</v>
       </c>
       <c r="Y38" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>/0.1</v>
       </c>
       <c r="Z38" s="10"/>
@@ -8416,7 +8209,7 @@
         <v>875000</v>
       </c>
       <c r="AE38" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AF38" s="16"/>
     </row>
@@ -8488,7 +8281,7 @@
         <v>0.1</v>
       </c>
       <c r="Y39" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>/0.1</v>
       </c>
       <c r="Z39" s="10"/>
@@ -8499,7 +8292,7 @@
         <v>895000</v>
       </c>
       <c r="AE39" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AF39" s="16"/>
     </row>
@@ -8532,13 +8325,13 @@
     </row>
     <row r="41" spans="1:162" ht="23" customHeight="1">
       <c r="A41" s="21" t="s">
-        <v>175</v>
+        <v>338</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D41" s="14">
         <v>2</v>
@@ -8560,7 +8353,7 @@
       </c>
       <c r="J41" s="28"/>
       <c r="K41" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L41" s="28">
         <v>2</v>
@@ -8585,7 +8378,7 @@
         <v>32</v>
       </c>
       <c r="S41" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T41" s="28">
         <v>480</v>
@@ -8599,35 +8392,36 @@
         <v>1</v>
       </c>
       <c r="Y41" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40/1</v>
       </c>
       <c r="Z41" s="51">
-        <v>2.4</v>
+        <f>0.02*60</f>
+        <v>1.2</v>
       </c>
       <c r="AA41" s="51">
-        <v>199.25</v>
+        <v>91.11</v>
       </c>
       <c r="AB41" s="51">
-        <v>797</v>
+        <v>364.45</v>
       </c>
       <c r="AE41" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AF41" s="16"/>
       <c r="AG41" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:162" ht="24" customHeight="1">
       <c r="A42" s="16" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>176</v>
+        <v>339</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D42" s="14">
         <v>4</v>
@@ -8649,7 +8443,7 @@
       </c>
       <c r="J42" s="28"/>
       <c r="K42" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L42" s="28">
         <v>2</v>
@@ -8674,7 +8468,7 @@
         <v>64</v>
       </c>
       <c r="S42" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T42" s="28">
         <v>480</v>
@@ -8688,32 +8482,33 @@
         <v>1</v>
       </c>
       <c r="Y42" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40/1</v>
       </c>
       <c r="Z42" s="51">
-        <v>3.6</v>
+        <f>0.02*60</f>
+        <v>1.2</v>
       </c>
       <c r="AA42" s="51">
-        <v>264.58</v>
+        <v>179</v>
       </c>
       <c r="AB42" s="51">
-        <v>1058.33</v>
+        <v>699</v>
       </c>
       <c r="AE42" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AF42" s="16"/>
       <c r="AG42" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:162" ht="28" customHeight="1">
       <c r="B43" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D43" s="14">
         <v>8</v>
@@ -8735,7 +8530,7 @@
       </c>
       <c r="J43" s="28"/>
       <c r="K43" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L43" s="28">
         <v>2</v>
@@ -8760,7 +8555,7 @@
         <v>128</v>
       </c>
       <c r="S43" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T43" s="28">
         <v>960</v>
@@ -8774,7 +8569,7 @@
         <v>1</v>
       </c>
       <c r="Y43" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40/1</v>
       </c>
       <c r="Z43" s="51">
@@ -8787,17 +8582,17 @@
         <v>2017</v>
       </c>
       <c r="AE43" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AF43" s="16"/>
       <c r="AG43" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:162" s="13" customFormat="1" ht="28" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="41" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C44" s="42" t="s">
         <v>138</v>
@@ -8822,7 +8617,7 @@
       </c>
       <c r="J44" s="42"/>
       <c r="K44" s="42" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L44" s="42">
         <v>2</v>
@@ -8846,7 +8641,7 @@
         <v>32</v>
       </c>
       <c r="S44" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="T44" s="42">
         <v>480</v>
@@ -8860,7 +8655,7 @@
         <v>1</v>
       </c>
       <c r="Y44" s="14" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Z44" s="51">
         <v>3.6</v>
@@ -8872,17 +8667,17 @@
         <v>1288.7</v>
       </c>
       <c r="AE44" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AF44" s="16"/>
       <c r="AG44" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:162" s="13" customFormat="1" ht="28" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="41" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C45" s="57" t="s">
         <v>138</v>
@@ -8907,7 +8702,7 @@
       </c>
       <c r="J45" s="42"/>
       <c r="K45" s="42" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L45" s="42">
         <v>2</v>
@@ -8931,7 +8726,7 @@
         <v>32</v>
       </c>
       <c r="S45" s="42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="T45" s="42">
         <v>480</v>
@@ -8945,7 +8740,7 @@
         <v>1</v>
       </c>
       <c r="Y45" s="14" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Z45" s="51">
         <v>4.8</v>
@@ -8957,16 +8752,16 @@
         <v>1758.7</v>
       </c>
       <c r="AE45" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AF45" s="16"/>
       <c r="AG45" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:162">
       <c r="B46" s="22" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C46" s="57" t="s">
         <v>138</v>
@@ -8993,7 +8788,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L46" s="28">
         <v>2</v>
@@ -9008,7 +8803,7 @@
         <v>16</v>
       </c>
       <c r="P46" s="14">
-        <f t="shared" ref="P46:P47" si="8">M46*N46*O46/1000</f>
+        <f t="shared" ref="P46:P47" si="9">M46*N46*O46/1000</f>
         <v>0.35199999999999998</v>
       </c>
       <c r="Q46" s="28">
@@ -9018,7 +8813,7 @@
         <v>64</v>
       </c>
       <c r="S46" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T46" s="28">
         <v>960</v>
@@ -9032,7 +8827,7 @@
         <v>1</v>
       </c>
       <c r="Y46" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40/1</v>
       </c>
       <c r="Z46" s="51">
@@ -9045,16 +8840,16 @@
         <v>3145</v>
       </c>
       <c r="AE46" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AF46" s="16"/>
       <c r="AG46" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:162">
       <c r="B47" s="22" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C47" s="57" t="s">
         <v>138</v>
@@ -9081,7 +8876,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L47" s="28">
         <v>2</v>
@@ -9096,7 +8891,7 @@
         <v>16</v>
       </c>
       <c r="P47" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.35199999999999998</v>
       </c>
       <c r="Q47" s="28">
@@ -9106,7 +8901,7 @@
         <v>64</v>
       </c>
       <c r="S47" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T47" s="28">
         <v>1000</v>
@@ -9120,7 +8915,7 @@
         <v>1</v>
       </c>
       <c r="Y47" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40/1</v>
       </c>
       <c r="Z47" s="51"/>
@@ -9129,16 +8924,16 @@
         <v>4362</v>
       </c>
       <c r="AE47" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AF47" s="16"/>
       <c r="AG47" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:162">
       <c r="B48" s="22" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C48" s="57" t="s">
         <v>138</v>
@@ -9165,7 +8960,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="28" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L48" s="28">
         <v>2</v>
@@ -9190,7 +8985,7 @@
         <v>128</v>
       </c>
       <c r="S48" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T48" s="28">
         <v>1000</v>
@@ -9204,7 +8999,7 @@
         <v>1</v>
       </c>
       <c r="Y48" s="14" t="str">
-        <f t="shared" ref="Y48:Y57" si="9">W48&amp;"/"&amp;X48</f>
+        <f t="shared" ref="Y48:Y57" si="10">W48&amp;"/"&amp;X48</f>
         <v>40/1</v>
       </c>
       <c r="Z48" s="51"/>
@@ -9213,20 +9008,20 @@
         <v>7133</v>
       </c>
       <c r="AE48" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AF48" s="16"/>
       <c r="AG48" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:33" s="13" customFormat="1">
       <c r="A49" s="2"/>
       <c r="B49" s="59" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D49" s="14">
         <v>2</v>
@@ -9248,7 +9043,7 @@
       </c>
       <c r="J49" s="28"/>
       <c r="K49" s="28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L49" s="28">
         <v>2</v>
@@ -9273,7 +9068,7 @@
         <v>32</v>
       </c>
       <c r="S49" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T49" s="28">
         <v>480</v>
@@ -9287,7 +9082,7 @@
         <v>1</v>
       </c>
       <c r="Y49" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>40/1</v>
       </c>
       <c r="Z49" s="51">
@@ -9299,20 +9094,20 @@
         <v>1492.7</v>
       </c>
       <c r="AE49" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AF49" s="16"/>
       <c r="AG49" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:33" s="13" customFormat="1">
       <c r="A50" s="2"/>
       <c r="B50" s="59" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D50" s="14">
         <v>4</v>
@@ -9334,7 +9129,7 @@
       </c>
       <c r="J50" s="28"/>
       <c r="K50" s="28" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L50" s="28">
         <v>2</v>
@@ -9359,7 +9154,7 @@
         <v>64</v>
       </c>
       <c r="S50" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T50" s="28">
         <v>480</v>
@@ -9373,7 +9168,7 @@
         <v>1</v>
       </c>
       <c r="Y50" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>40/1</v>
       </c>
       <c r="Z50" s="51">
@@ -9385,20 +9180,20 @@
         <v>2131.4</v>
       </c>
       <c r="AE50" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AF50" s="16"/>
       <c r="AG50" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:33" s="13" customFormat="1">
       <c r="A51" s="2"/>
       <c r="B51" s="59" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D51" s="14">
         <v>8</v>
@@ -9420,7 +9215,7 @@
       </c>
       <c r="J51" s="28"/>
       <c r="K51" s="28" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L51" s="28">
         <v>2</v>
@@ -9445,7 +9240,7 @@
         <v>128</v>
       </c>
       <c r="S51" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T51" s="28">
         <v>960</v>
@@ -9459,7 +9254,7 @@
         <v>1</v>
       </c>
       <c r="Y51" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>40/1</v>
       </c>
       <c r="Z51" s="51">
@@ -9471,25 +9266,25 @@
         <v>3408.81</v>
       </c>
       <c r="AE51" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AF51" s="16"/>
       <c r="AG51" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:33">
       <c r="B52" s="22" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C52" s="57" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D52" s="14">
         <v>2</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F52" s="14">
         <v>13.9</v>
@@ -9498,14 +9293,14 @@
         <v>0.86799999999999999</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J52" s="14"/>
       <c r="K52" s="57" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L52" s="14">
         <v>2</v>
@@ -9530,7 +9325,7 @@
         <v>32</v>
       </c>
       <c r="S52" s="57" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="T52" s="14">
         <v>480</v>
@@ -9544,7 +9339,7 @@
         <v>1</v>
       </c>
       <c r="Y52" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>40/1</v>
       </c>
       <c r="Z52" s="51">
@@ -9557,22 +9352,22 @@
         <v>1630.18</v>
       </c>
       <c r="AE52" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AF52" s="16"/>
       <c r="AG52" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:33" ht="20">
       <c r="A54" s="21" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C54" s="57" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D54" s="14">
         <v>2</v>
@@ -9596,7 +9391,7 @@
         <v>1</v>
       </c>
       <c r="K54" s="57" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L54" s="14">
         <v>2</v>
@@ -9621,7 +9416,7 @@
         <v>256</v>
       </c>
       <c r="S54" s="57" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="T54" s="14">
         <v>1000</v>
@@ -9632,7 +9427,7 @@
         <v>13.635</v>
       </c>
       <c r="Y54" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13.635/</v>
       </c>
       <c r="AC54" s="52">
@@ -9640,25 +9435,25 @@
         <v>138888.88888888888</v>
       </c>
       <c r="AE54" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AF54" s="16">
         <f>17280/2.5</f>
         <v>6912</v>
       </c>
       <c r="AG54" s="16" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="55" spans="1:33">
       <c r="A55" s="16" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C55" s="57" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D55" s="14">
         <v>2</v>
@@ -9682,7 +9477,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="57" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L55" s="14">
         <v>2</v>
@@ -9697,7 +9492,7 @@
         <v>16</v>
       </c>
       <c r="P55" s="14">
-        <f t="shared" ref="P55:P57" si="10">M55*N55*O55/1000</f>
+        <f t="shared" ref="P55:P57" si="11">M55*N55*O55/1000</f>
         <v>0.60480000000000012</v>
       </c>
       <c r="Q55" s="14">
@@ -9707,7 +9502,7 @@
         <v>256</v>
       </c>
       <c r="S55" s="57" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="T55" s="14">
         <v>4000</v>
@@ -9718,7 +9513,7 @@
         <v>13.635</v>
       </c>
       <c r="Y55" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13.635/</v>
       </c>
       <c r="AC55" s="52">
@@ -9726,22 +9521,22 @@
         <v>277777.77777777775</v>
       </c>
       <c r="AE55" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AF55" s="16">
         <f>34560/2.5</f>
         <v>13824</v>
       </c>
       <c r="AG55" s="16" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="1:33">
       <c r="B56" s="22" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C56" s="57" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D56" s="14">
         <v>2</v>
@@ -9765,7 +9560,7 @@
         <v>1</v>
       </c>
       <c r="K56" s="57" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L56" s="14">
         <v>2</v>
@@ -9780,7 +9575,7 @@
         <v>16</v>
       </c>
       <c r="P56" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.60480000000000012</v>
       </c>
       <c r="Q56" s="14">
@@ -9790,7 +9585,7 @@
         <v>256</v>
       </c>
       <c r="S56" s="57" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="T56" s="14">
         <v>4000</v>
@@ -9799,7 +9594,7 @@
         <v>13.635</v>
       </c>
       <c r="Y56" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13.635/</v>
       </c>
       <c r="AC56" s="52">
@@ -9807,22 +9602,22 @@
         <v>166666.66666666666</v>
       </c>
       <c r="AE56" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AF56" s="16">
         <f>21600/2.5</f>
         <v>8640</v>
       </c>
       <c r="AG56" s="62" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="57" spans="1:33">
       <c r="B57" s="22" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C57" s="57" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D57" s="14">
         <v>2</v>
@@ -9846,7 +9641,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="57" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L57" s="14">
         <v>2</v>
@@ -9861,7 +9656,7 @@
         <v>16</v>
       </c>
       <c r="P57" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.60480000000000012</v>
       </c>
       <c r="Q57" s="14">
@@ -9871,7 +9666,7 @@
         <v>256</v>
       </c>
       <c r="S57" s="57" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="T57" s="14">
         <v>4000</v>
@@ -9880,7 +9675,7 @@
         <v>13.635</v>
       </c>
       <c r="Y57" s="14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13.635/</v>
       </c>
       <c r="AC57" s="52">
@@ -9888,25 +9683,25 @@
         <v>200000</v>
       </c>
       <c r="AE57" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AF57" s="16">
         <f>21600/2.5</f>
         <v>8640</v>
       </c>
       <c r="AG57" s="62" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:33" ht="20">
       <c r="A59" s="21" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C59" s="57" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D59" s="14">
         <v>0.5</v>
@@ -9928,7 +9723,7 @@
       </c>
       <c r="J59" s="14"/>
       <c r="K59" s="57" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L59" s="14">
         <v>1</v>
@@ -9943,7 +9738,7 @@
         <v>16</v>
       </c>
       <c r="P59" s="14">
-        <f t="shared" ref="P59" si="11">M59*N59*O59/1000</f>
+        <f t="shared" ref="P59" si="12">M59*N59*O59/1000</f>
         <v>0.24960000000000002</v>
       </c>
       <c r="Q59" s="14">
@@ -9953,7 +9748,7 @@
         <v>56</v>
       </c>
       <c r="S59" s="57" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="T59" s="14">
         <v>380</v>
@@ -9969,22 +9764,22 @@
       </c>
       <c r="AC59" s="58"/>
       <c r="AE59" s="16" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AF59" s="16"/>
       <c r="AG59" s="16" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="60" spans="1:33">
       <c r="A60" s="16" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C60" s="57" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D60" s="14">
         <v>1</v>
@@ -10006,7 +9801,7 @@
       </c>
       <c r="J60" s="14"/>
       <c r="K60" s="57" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L60" s="14">
         <v>1</v>
@@ -10021,7 +9816,7 @@
         <v>16</v>
       </c>
       <c r="P60" s="14">
-        <f t="shared" ref="P60:P62" si="12">M60*N60*O60/1000</f>
+        <f t="shared" ref="P60:P62" si="13">M60*N60*O60/1000</f>
         <v>0.49920000000000003</v>
       </c>
       <c r="Q60" s="14">
@@ -10031,7 +9826,7 @@
         <v>112</v>
       </c>
       <c r="S60" s="57" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="T60" s="14">
         <v>680</v>
@@ -10047,19 +9842,19 @@
       </c>
       <c r="AC60" s="58"/>
       <c r="AE60" s="16" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AF60" s="16"/>
     </row>
     <row r="61" spans="1:33">
       <c r="A61" s="16" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C61" s="57" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D61" s="14">
         <v>2</v>
@@ -10081,7 +9876,7 @@
       </c>
       <c r="J61" s="14"/>
       <c r="K61" s="57" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L61" s="14">
         <v>1</v>
@@ -10096,7 +9891,7 @@
         <v>16</v>
       </c>
       <c r="P61" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99840000000000007</v>
       </c>
       <c r="Q61" s="14">
@@ -10106,7 +9901,7 @@
         <v>224</v>
       </c>
       <c r="S61" s="57" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="T61" s="14">
         <v>1440</v>
@@ -10122,16 +9917,16 @@
       </c>
       <c r="AC61" s="58"/>
       <c r="AE61" s="16" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AF61" s="16"/>
     </row>
     <row r="62" spans="1:33">
       <c r="B62" s="22" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C62" s="57" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D62" s="14">
         <v>2</v>
@@ -10153,7 +9948,7 @@
       </c>
       <c r="J62" s="14"/>
       <c r="K62" s="57" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L62" s="14">
         <v>1</v>
@@ -10168,7 +9963,7 @@
         <v>16</v>
       </c>
       <c r="P62" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99840000000000007</v>
       </c>
       <c r="Q62" s="14">
@@ -10178,17 +9973,17 @@
         <v>224</v>
       </c>
       <c r="S62" s="57" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="T62" s="14">
         <v>1440</v>
       </c>
       <c r="W62" s="14" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="X62" s="14"/>
       <c r="Y62" s="14" t="str">
-        <f t="shared" ref="Y62" si="13">W62&amp;"/"&amp;X62</f>
+        <f t="shared" ref="Y62" si="14">W62&amp;"/"&amp;X62</f>
         <v>Infiniband/</v>
       </c>
       <c r="Z62" s="24">
@@ -10199,11 +9994,11 @@
       </c>
       <c r="AC62" s="58"/>
       <c r="AE62" s="16" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AF62" s="16"/>
       <c r="AG62" s="16" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -10288,27 +10083,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG19:XFD20 FG35:XFD35 Z35 U34:Y35 T34 S34:S35 R34 Q34:Q35 P34 Z39 A17 B18:I18 A21:Q21 S21:V21 K18:V18 A22:V22 Z18:AD22 W18:W22 A12:AD12 A7:A8 A5:M6 B7:M7 B8:AD9 A36:AD36 A38:M38 N38:P39 AH36:XFD38 AH19:AJ20 AH39:AJ39 AH21:XFD34 AG36:AG39 AG18:AG24 AH5:XFD18 AE5:AG5 Q38:X38 AC38:AD38 AB39 A13:AA13 A14:AD16 P33:X33 Z33:AD34 A37:X37 Z37:AD37 Z38:AA38 N5:AD7 AG6:AG16 A10:AC11 P54:P57 Y54:Y57 AE54:AF56 AE57 AG27:AG34 L33:O35 A33:K34 A23:AD29 A30:B32 J30:AD32 AE6:AF40">
-    <cfRule type="expression" dxfId="89" priority="59">
+    <cfRule type="expression" dxfId="78" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13">
-    <cfRule type="expression" dxfId="88" priority="46">
+    <cfRule type="expression" dxfId="77" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="87" priority="45">
+    <cfRule type="expression" dxfId="76" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:M39 Q39:X39">
-    <cfRule type="expression" dxfId="86" priority="44">
+    <cfRule type="expression" dxfId="75" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB38">
-    <cfRule type="expression" dxfId="85" priority="43">
+    <cfRule type="expression" dxfId="74" priority="43">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10397,7 +10192,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:Q20 S20:V20">
-    <cfRule type="expression" dxfId="84" priority="35">
+    <cfRule type="expression" dxfId="73" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10486,12 +10281,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:I19">
-    <cfRule type="expression" dxfId="83" priority="26">
+    <cfRule type="expression" dxfId="72" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:D19 R20:R21 K19:V19">
-    <cfRule type="expression" dxfId="82" priority="27">
+    <cfRule type="expression" dxfId="71" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10580,102 +10375,102 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41:P43">
-    <cfRule type="expression" dxfId="81" priority="25">
+    <cfRule type="expression" dxfId="70" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y17:Y22">
-    <cfRule type="expression" dxfId="80" priority="24">
+    <cfRule type="expression" dxfId="69" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y33">
-    <cfRule type="expression" dxfId="79" priority="23">
+    <cfRule type="expression" dxfId="68" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y37:Y39">
-    <cfRule type="expression" dxfId="78" priority="22">
+    <cfRule type="expression" dxfId="67" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y41:Y43">
-    <cfRule type="expression" dxfId="77" priority="21">
+    <cfRule type="expression" dxfId="66" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P48">
-    <cfRule type="expression" dxfId="76" priority="20">
+    <cfRule type="expression" dxfId="65" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y48:Y52">
-    <cfRule type="expression" dxfId="75" priority="19">
+    <cfRule type="expression" dxfId="64" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P46:P47">
-    <cfRule type="expression" dxfId="74" priority="18">
+    <cfRule type="expression" dxfId="63" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y46:Y47">
-    <cfRule type="expression" dxfId="73" priority="17">
+    <cfRule type="expression" dxfId="62" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52">
-    <cfRule type="expression" dxfId="72" priority="16">
+    <cfRule type="expression" dxfId="61" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M59:P59 N60:P62">
-    <cfRule type="expression" dxfId="71" priority="10">
+    <cfRule type="expression" dxfId="60" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q59:Q62">
-    <cfRule type="expression" dxfId="70" priority="9">
+    <cfRule type="expression" dxfId="59" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y62">
-    <cfRule type="expression" dxfId="69" priority="8">
+    <cfRule type="expression" dxfId="58" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59:I62">
-    <cfRule type="expression" dxfId="68" priority="7">
+    <cfRule type="expression" dxfId="57" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C51">
-    <cfRule type="expression" dxfId="67" priority="6">
+    <cfRule type="expression" dxfId="56" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:I51">
-    <cfRule type="expression" dxfId="66" priority="5">
+    <cfRule type="expression" dxfId="55" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49:P50">
-    <cfRule type="expression" dxfId="65" priority="4">
+    <cfRule type="expression" dxfId="54" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P51">
-    <cfRule type="expression" dxfId="64" priority="3">
+    <cfRule type="expression" dxfId="53" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF57">
-    <cfRule type="expression" dxfId="63" priority="2">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:I32">
-    <cfRule type="expression" dxfId="62" priority="1">
+    <cfRule type="expression" dxfId="51" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10703,10 +10498,10 @@
   <dimension ref="A1:AC77"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -10737,7 +10532,7 @@
   <sheetData>
     <row r="1" spans="1:29" s="49" customFormat="1">
       <c r="A1" s="48" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="48" t="s">
@@ -10746,25 +10541,25 @@
       <c r="D1" s="47"/>
       <c r="E1" s="47"/>
       <c r="F1" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="G1" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="H1" s="48" t="s">
+      <c r="I1" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="J1" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="J1" s="48" t="s">
-        <v>200</v>
-      </c>
       <c r="K1" s="48" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L1" s="48" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M1" s="48" t="s">
         <v>174</v>
@@ -10782,28 +10577,28 @@
         <v>144</v>
       </c>
       <c r="R1" s="48" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="S1" s="48" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="T1" s="48" t="s">
         <v>145</v>
       </c>
       <c r="U1" s="48" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="V1" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="W1" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="W1" s="48" t="s">
-        <v>206</v>
-      </c>
       <c r="X1" s="48" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="Y1" s="48" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="12" customFormat="1" ht="21" thickBot="1">
@@ -10835,16 +10630,16 @@
         <v>92</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N2" s="29" t="s">
         <v>123</v>
@@ -10877,7 +10672,7 @@
         <v>131</v>
       </c>
       <c r="X2" s="30" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="Y2" s="30" t="s">
         <v>132</v>
@@ -11227,7 +11022,7 @@
         <v>p2 dedicated host 1 year no Upfront</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>104</v>
@@ -11315,7 +11110,7 @@
         <v>p2 dedicated host 1 year 100% Upfront</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>105</v>
@@ -11567,7 +11362,7 @@
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -11647,7 +11442,7 @@
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -11961,7 +11756,7 @@
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -12042,7 +11837,7 @@
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19">
@@ -12123,7 +11918,7 @@
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -12204,7 +11999,7 @@
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19">
@@ -12609,7 +12404,7 @@
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -12690,7 +12485,7 @@
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19">
@@ -12771,7 +12566,7 @@
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -12852,7 +12647,7 @@
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19">
@@ -12933,7 +12728,7 @@
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
@@ -13014,7 +12809,7 @@
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19">
@@ -13101,7 +12896,7 @@
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -13185,7 +12980,7 @@
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="19">
@@ -13745,7 +13540,10 @@
         <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C1",FALSE) &amp; (INDIRECT("AC" &amp; ROW())+1))</f>
         <v>https://www.sakura.ad.jp/koukaryoku/specification/</v>
       </c>
-      <c r="C38" s="22"/>
+      <c r="C38" s="22" t="str">
+        <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) &amp;" weekly"</f>
+        <v>Quad GPU model weekly</v>
+      </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22" t="s">
         <v>111</v>
@@ -13830,7 +13628,10 @@
       </c>
     </row>
     <row r="39" spans="1:29" s="13" customFormat="1">
-      <c r="C39" s="22"/>
+      <c r="C39" s="22" t="str">
+        <f t="shared" ref="C39:C40" ca="1" si="18">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) &amp;" weekly"</f>
+        <v>Tesla P40 model weekly</v>
+      </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22" t="s">
         <v>164</v>
@@ -13838,7 +13639,7 @@
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
       <c r="H39" s="19">
-        <f t="shared" ref="H39:H40" ca="1" si="18">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="H39:H40" ca="1" si="19">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>97000</v>
       </c>
       <c r="I39" s="19"/>
@@ -13856,23 +13657,23 @@
         <v>11.757999999999999</v>
       </c>
       <c r="N39" s="14" t="str">
-        <f t="shared" ref="N39:R40" ca="1" si="19">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="N39:R40" ca="1" si="20">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>P40</v>
       </c>
       <c r="O39" s="14">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="P39" s="14" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>Xeon E5-2623 v3</v>
       </c>
       <c r="Q39" s="14">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>2</v>
       </c>
       <c r="R39" s="14">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>128</v>
       </c>
       <c r="S39" s="14" t="str">
@@ -13906,7 +13707,10 @@
       </c>
     </row>
     <row r="40" spans="1:29" s="13" customFormat="1">
-      <c r="C40" s="22"/>
+      <c r="C40" s="22" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>Tesla P100 model weekly</v>
+      </c>
       <c r="D40" s="22"/>
       <c r="E40" s="22" t="s">
         <v>165</v>
@@ -13914,7 +13718,7 @@
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
       <c r="H40" s="19">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>99000</v>
       </c>
       <c r="I40" s="19"/>
@@ -13932,23 +13736,23 @@
         <v>9.5</v>
       </c>
       <c r="N40" s="14" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>P100</v>
       </c>
       <c r="O40" s="14">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="P40" s="14" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>Xeon E5-2623 v3</v>
       </c>
       <c r="Q40" s="14">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>2</v>
       </c>
       <c r="R40" s="14">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>128</v>
       </c>
       <c r="S40" s="14" t="str">
@@ -13996,62 +13800,62 @@
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F41" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="K41" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>EUR</v>
       </c>
       <c r="L41" s="14">
-        <f t="shared" ref="L41:L77" ca="1" si="20">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="L41:L77" ca="1" si="21">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("AC"&amp;ROW()))</f>
         <v>0.43519999999999998</v>
       </c>
       <c r="M41" s="14">
-        <f t="shared" ref="M41:M77" ca="1" si="21">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="M41:M77" ca="1" si="22">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("AC"&amp;ROW()))</f>
         <v>16.456</v>
       </c>
       <c r="N41" s="14" t="str">
-        <f t="shared" ref="N41:W56" ca="1" si="22">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="N41:W56" ca="1" si="23">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>GeForce GTX 1080</v>
       </c>
       <c r="O41" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2</v>
       </c>
       <c r="P41" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>Xeon E5-2609 v4</v>
       </c>
       <c r="Q41" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2</v>
       </c>
       <c r="R41" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>32</v>
       </c>
       <c r="S41" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>SSD</v>
       </c>
       <c r="T41" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>480</v>
       </c>
       <c r="U41" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="V41" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="W41" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>40/1</v>
       </c>
       <c r="X41" s="14"/>
@@ -14069,62 +13873,62 @@
         <v>2 x GeForce GTX 1080 weekly</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G42" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>199.25</v>
+        <v>91.11</v>
       </c>
       <c r="K42" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>EUR</v>
       </c>
       <c r="L42" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.43519999999999998</v>
       </c>
       <c r="M42" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>16.456</v>
       </c>
       <c r="N42" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>GeForce GTX 1080</v>
       </c>
       <c r="O42" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2</v>
       </c>
       <c r="P42" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>Xeon E5-2609 v4</v>
       </c>
       <c r="Q42" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2</v>
       </c>
       <c r="R42" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>32</v>
       </c>
       <c r="S42" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>SSD</v>
       </c>
       <c r="T42" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>480</v>
       </c>
       <c r="U42" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="V42" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="W42" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>40/1</v>
       </c>
       <c r="X42" s="14"/>
@@ -14142,62 +13946,62 @@
         <v>2 x GeForce GTX 1080 monthly</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H43" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>797</v>
+        <v>364.45</v>
       </c>
       <c r="K43" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>EUR</v>
       </c>
       <c r="L43" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.43519999999999998</v>
       </c>
       <c r="M43" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>16.456</v>
       </c>
       <c r="N43" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>GeForce GTX 1080</v>
       </c>
       <c r="O43" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2</v>
       </c>
       <c r="P43" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>Xeon E5-2609 v4</v>
       </c>
       <c r="Q43" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2</v>
       </c>
       <c r="R43" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>32</v>
       </c>
       <c r="S43" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>SSD</v>
       </c>
       <c r="T43" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>480</v>
       </c>
       <c r="U43" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="V43" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="W43" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>40/1</v>
       </c>
       <c r="X43" s="14"/>
@@ -14212,15 +14016,15 @@
     <row r="44" spans="1:29">
       <c r="C44" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" minutely"</f>
-        <v>4 x GeForce GTX 1080 minutely</v>
+        <v>4 x GeForce GTX 1080 ltd. minutely</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="22" t="s">
-        <v>222</v>
+        <v>341</v>
       </c>
       <c r="F44" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H44" s="13"/>
       <c r="K44" s="19" t="str">
@@ -14228,51 +14032,51 @@
         <v>EUR</v>
       </c>
       <c r="L44" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.43519999999999998</v>
       </c>
       <c r="M44" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>32.911999999999999</v>
       </c>
       <c r="N44" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>GeForce GTX 1080</v>
       </c>
       <c r="O44" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>4</v>
       </c>
       <c r="P44" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>Xeon E5-2609 v4</v>
       </c>
       <c r="Q44" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2</v>
       </c>
       <c r="R44" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>64</v>
       </c>
       <c r="S44" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>SSD</v>
       </c>
       <c r="T44" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>480</v>
       </c>
       <c r="U44" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="V44" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="W44" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>40/1</v>
       </c>
       <c r="X44" s="14"/>
@@ -14287,15 +14091,15 @@
     <row r="45" spans="1:29">
       <c r="C45" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" weekly"</f>
-        <v>4 x GeForce GTX 1080 weekly</v>
+        <v>4 x GeForce GTX 1080 ltd. weekly</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>221</v>
+        <v>340</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>264.58</v>
+        <v>179</v>
       </c>
       <c r="H45" s="13"/>
       <c r="K45" s="19" t="str">
@@ -14303,51 +14107,51 @@
         <v>EUR</v>
       </c>
       <c r="L45" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.43519999999999998</v>
       </c>
       <c r="M45" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>32.911999999999999</v>
       </c>
       <c r="N45" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>GeForce GTX 1080</v>
       </c>
       <c r="O45" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>4</v>
       </c>
       <c r="P45" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>Xeon E5-2609 v4</v>
       </c>
       <c r="Q45" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2</v>
       </c>
       <c r="R45" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>64</v>
       </c>
       <c r="S45" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>SSD</v>
       </c>
       <c r="T45" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>480</v>
       </c>
       <c r="U45" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="V45" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="W45" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>40/1</v>
       </c>
       <c r="X45" s="14"/>
@@ -14362,66 +14166,66 @@
     <row r="46" spans="1:29">
       <c r="C46" s="22" t="str">
         <f ca="1">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" monthly"</f>
-        <v>4 x GeForce GTX 1080 monthly</v>
+        <v>4 x GeForce GTX 1080 ltd. monthly</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>223</v>
+        <v>342</v>
       </c>
       <c r="F46" s="13"/>
       <c r="H46" s="19">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>1058.33</v>
+        <v>699</v>
       </c>
       <c r="K46" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>EUR</v>
       </c>
       <c r="L46" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.43519999999999998</v>
       </c>
       <c r="M46" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>32.911999999999999</v>
       </c>
       <c r="N46" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>GeForce GTX 1080</v>
       </c>
       <c r="O46" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>4</v>
       </c>
       <c r="P46" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>Xeon E5-2609 v4</v>
       </c>
       <c r="Q46" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2</v>
       </c>
       <c r="R46" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>64</v>
       </c>
       <c r="S46" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>SSD</v>
       </c>
       <c r="T46" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>480</v>
       </c>
       <c r="U46" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="V46" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="W46" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>40/1</v>
       </c>
       <c r="X46" s="14"/>
@@ -14440,7 +14244,7 @@
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="41" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F47" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -14455,51 +14259,51 @@
         <v>EUR</v>
       </c>
       <c r="L47" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.70399999999999996</v>
       </c>
       <c r="M47" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>65.823999999999998</v>
       </c>
       <c r="N47" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>GeForce GTX 1080</v>
       </c>
       <c r="O47" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>8</v>
       </c>
       <c r="P47" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>Xeon E5-2630 v4</v>
       </c>
       <c r="Q47" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2</v>
       </c>
       <c r="R47" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>128</v>
       </c>
       <c r="S47" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>SSD</v>
       </c>
       <c r="T47" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>960</v>
       </c>
       <c r="U47" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="V47" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="W47" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>40/1</v>
       </c>
       <c r="X47" s="14"/>
@@ -14518,7 +14322,7 @@
       </c>
       <c r="D48" s="43"/>
       <c r="E48" s="41" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F48" s="43"/>
       <c r="G48" s="19">
@@ -14533,51 +14337,51 @@
         <v>EUR</v>
       </c>
       <c r="L48" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.70399999999999996</v>
       </c>
       <c r="M48" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>65.823999999999998</v>
       </c>
       <c r="N48" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>GeForce GTX 1080</v>
       </c>
       <c r="O48" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>8</v>
       </c>
       <c r="P48" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>Xeon E5-2630 v4</v>
       </c>
       <c r="Q48" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2</v>
       </c>
       <c r="R48" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>128</v>
       </c>
       <c r="S48" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>SSD</v>
       </c>
       <c r="T48" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>960</v>
       </c>
       <c r="U48" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="V48" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="W48" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>40/1</v>
       </c>
       <c r="X48" s="14"/>
@@ -14596,7 +14400,7 @@
       </c>
       <c r="D49" s="43"/>
       <c r="E49" s="41" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F49" s="43"/>
       <c r="G49" s="43"/>
@@ -14611,51 +14415,51 @@
         <v>EUR</v>
       </c>
       <c r="L49" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.70399999999999996</v>
       </c>
       <c r="M49" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>65.823999999999998</v>
       </c>
       <c r="N49" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>GeForce GTX 1080</v>
       </c>
       <c r="O49" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>8</v>
       </c>
       <c r="P49" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>Xeon E5-2630 v4</v>
       </c>
       <c r="Q49" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2</v>
       </c>
       <c r="R49" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>128</v>
       </c>
       <c r="S49" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>SSD</v>
       </c>
       <c r="T49" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>960</v>
       </c>
       <c r="U49" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="V49" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="W49" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>40/1</v>
       </c>
       <c r="X49" s="14"/>
@@ -14673,7 +14477,7 @@
         <v>1 x Tesla P100 minutely</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F50" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -14685,51 +14489,51 @@
         <v>EUR</v>
       </c>
       <c r="L50" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.70399999999999996</v>
       </c>
       <c r="M50" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>9.5</v>
       </c>
       <c r="N50" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>P100</v>
       </c>
       <c r="O50" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>1</v>
       </c>
       <c r="P50" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>Xeon E5-2630 v4</v>
       </c>
       <c r="Q50" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2</v>
       </c>
       <c r="R50" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>32</v>
       </c>
       <c r="S50" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>SSD</v>
       </c>
       <c r="T50" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>480</v>
       </c>
       <c r="U50" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="V50" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="W50" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>40/1</v>
       </c>
       <c r="X50" s="14"/>
@@ -14749,7 +14553,7 @@
         <v>1 x Tesla P100 weekly</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="19">
@@ -14762,51 +14566,51 @@
         <v>EUR</v>
       </c>
       <c r="L51" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.70399999999999996</v>
       </c>
       <c r="M51" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>9.5</v>
       </c>
       <c r="N51" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>P100</v>
       </c>
       <c r="O51" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>1</v>
       </c>
       <c r="P51" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>Xeon E5-2630 v4</v>
       </c>
       <c r="Q51" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2</v>
       </c>
       <c r="R51" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>32</v>
       </c>
       <c r="S51" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>SSD</v>
       </c>
       <c r="T51" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>480</v>
       </c>
       <c r="U51" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="V51" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="W51" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>40/1</v>
       </c>
       <c r="X51" s="14"/>
@@ -14826,7 +14630,7 @@
         <v>1 x Tesla P100 monthly</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F52" s="13"/>
       <c r="H52" s="19">
@@ -14838,51 +14642,51 @@
         <v>EUR</v>
       </c>
       <c r="L52" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.70399999999999996</v>
       </c>
       <c r="M52" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>9.5</v>
       </c>
       <c r="N52" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>P100</v>
       </c>
       <c r="O52" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>1</v>
       </c>
       <c r="P52" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>Xeon E5-2630 v4</v>
       </c>
       <c r="Q52" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2</v>
       </c>
       <c r="R52" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>32</v>
       </c>
       <c r="S52" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>SSD</v>
       </c>
       <c r="T52" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>480</v>
       </c>
       <c r="U52" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="V52" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="W52" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>40/1</v>
       </c>
       <c r="X52" s="14"/>
@@ -14903,7 +14707,7 @@
       </c>
       <c r="D53" s="22"/>
       <c r="E53" s="22" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F53" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -14915,51 +14719,51 @@
         <v>EUR</v>
       </c>
       <c r="L53" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.70399999999999996</v>
       </c>
       <c r="M53" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>19</v>
       </c>
       <c r="N53" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>P100</v>
       </c>
       <c r="O53" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2</v>
       </c>
       <c r="P53" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>Xeon E5-2630 v4</v>
       </c>
       <c r="Q53" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2</v>
       </c>
       <c r="R53" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>32</v>
       </c>
       <c r="S53" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>SSD</v>
       </c>
       <c r="T53" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>480</v>
       </c>
       <c r="U53" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="V53" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="W53" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>40/1</v>
       </c>
       <c r="X53" s="14"/>
@@ -14979,7 +14783,7 @@
         <v>2 x Tesla P100 weekly</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="19">
@@ -14992,51 +14796,51 @@
         <v>EUR</v>
       </c>
       <c r="L54" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.70399999999999996</v>
       </c>
       <c r="M54" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>19</v>
       </c>
       <c r="N54" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>P100</v>
       </c>
       <c r="O54" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2</v>
       </c>
       <c r="P54" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>Xeon E5-2630 v4</v>
       </c>
       <c r="Q54" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2</v>
       </c>
       <c r="R54" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>32</v>
       </c>
       <c r="S54" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>SSD</v>
       </c>
       <c r="T54" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>480</v>
       </c>
       <c r="U54" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="V54" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="W54" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>40/1</v>
       </c>
       <c r="X54" s="14"/>
@@ -15056,7 +14860,7 @@
         <v>2 x Tesla P100 monthly</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F55" s="13"/>
       <c r="H55" s="19">
@@ -15068,51 +14872,51 @@
         <v>EUR</v>
       </c>
       <c r="L55" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.70399999999999996</v>
       </c>
       <c r="M55" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>19</v>
       </c>
       <c r="N55" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>P100</v>
       </c>
       <c r="O55" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2</v>
       </c>
       <c r="P55" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>Xeon E5-2630 v4</v>
       </c>
       <c r="Q55" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2</v>
       </c>
       <c r="R55" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>32</v>
       </c>
       <c r="S55" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>SSD</v>
       </c>
       <c r="T55" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>480</v>
       </c>
       <c r="U55" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="V55" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="W55" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>40/1</v>
       </c>
       <c r="X55" s="14"/>
@@ -15133,7 +14937,7 @@
       </c>
       <c r="D56" s="41"/>
       <c r="E56" s="22" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F56" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -15148,51 +14952,51 @@
         <v>EUR</v>
       </c>
       <c r="L56" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.70399999999999996</v>
       </c>
       <c r="M56" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>19</v>
       </c>
       <c r="N56" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>P100</v>
       </c>
       <c r="O56" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2</v>
       </c>
       <c r="P56" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>Xeon E5-2630 v4</v>
       </c>
       <c r="Q56" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2</v>
       </c>
       <c r="R56" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>64</v>
       </c>
       <c r="S56" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>SSD</v>
       </c>
       <c r="T56" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>960</v>
       </c>
       <c r="U56" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="V56" s="14">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="W56" s="14" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>40/1</v>
       </c>
       <c r="X56" s="14"/>
@@ -15213,7 +15017,7 @@
       </c>
       <c r="D57" s="43"/>
       <c r="E57" s="22" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F57" s="43"/>
       <c r="G57" s="19">
@@ -15228,51 +15032,51 @@
         <v>EUR</v>
       </c>
       <c r="L57" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.70399999999999996</v>
       </c>
       <c r="M57" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>19</v>
       </c>
       <c r="N57" s="14" t="str">
-        <f t="shared" ref="N57:X74" ca="1" si="23">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="N57:X74" ca="1" si="24">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>P100</v>
       </c>
       <c r="O57" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="P57" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>Xeon E5-2630 v4</v>
       </c>
       <c r="Q57" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="R57" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>64</v>
       </c>
       <c r="S57" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>SSD</v>
       </c>
       <c r="T57" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>960</v>
       </c>
       <c r="U57" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="V57" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="W57" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>40/1</v>
       </c>
       <c r="X57" s="14"/>
@@ -15293,7 +15097,7 @@
       </c>
       <c r="D58" s="43"/>
       <c r="E58" s="22" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F58" s="43"/>
       <c r="G58" s="43"/>
@@ -15308,51 +15112,51 @@
         <v>EUR</v>
       </c>
       <c r="L58" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.70399999999999996</v>
       </c>
       <c r="M58" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>19</v>
       </c>
       <c r="N58" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>P100</v>
       </c>
       <c r="O58" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="P58" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>Xeon E5-2630 v4</v>
       </c>
       <c r="Q58" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="R58" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>64</v>
       </c>
       <c r="S58" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>SSD</v>
       </c>
       <c r="T58" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>960</v>
       </c>
       <c r="U58" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="V58" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="W58" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>40/1</v>
       </c>
       <c r="X58" s="14"/>
@@ -15368,16 +15172,16 @@
     </row>
     <row r="59" spans="3:29">
       <c r="C59" s="22" t="str">
-        <f t="shared" ref="C59:C64" ca="1" si="24">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" monthly"</f>
+        <f t="shared" ref="C59:C64" ca="1" si="25">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW())) &amp;" monthly"</f>
         <v>4 x Tesla P100 NVLink monthly</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F59" s="43"/>
       <c r="G59" s="43"/>
       <c r="H59" s="19">
-        <f t="shared" ref="H59" ca="1" si="25">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="H59" ca="1" si="26">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>4362</v>
       </c>
       <c r="K59" s="19" t="str">
@@ -15385,51 +15189,51 @@
         <v>EUR</v>
       </c>
       <c r="L59" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.70399999999999996</v>
       </c>
       <c r="M59" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>38</v>
       </c>
       <c r="N59" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>P100</v>
       </c>
       <c r="O59" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>4</v>
       </c>
       <c r="P59" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>Xeon E5-2630 v4</v>
       </c>
       <c r="Q59" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="R59" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>64</v>
       </c>
       <c r="S59" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>SSD</v>
       </c>
       <c r="T59" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>1000</v>
       </c>
       <c r="U59" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="V59" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="W59" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>40/1</v>
       </c>
       <c r="X59" s="14"/>
@@ -15443,16 +15247,16 @@
     </row>
     <row r="60" spans="3:29">
       <c r="C60" s="22" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>8 x Tesla P100 NVLink monthly</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F60" s="43"/>
       <c r="G60" s="43"/>
       <c r="H60" s="19">
-        <f t="shared" ref="H60:H62" ca="1" si="26">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="H60:H62" ca="1" si="27">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>7133</v>
       </c>
       <c r="K60" s="19" t="str">
@@ -15460,51 +15264,51 @@
         <v>EUR</v>
       </c>
       <c r="L60" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.70399999999999996</v>
       </c>
       <c r="M60" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>76</v>
       </c>
       <c r="N60" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>P100</v>
       </c>
       <c r="O60" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>8</v>
       </c>
       <c r="P60" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>Xeon E5-2630 v4</v>
       </c>
       <c r="Q60" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="R60" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>128</v>
       </c>
       <c r="S60" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>SSD</v>
       </c>
       <c r="T60" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>1000</v>
       </c>
       <c r="U60" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="V60" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="W60" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>40/1</v>
       </c>
       <c r="X60" s="14"/>
@@ -15522,10 +15326,10 @@
         <v>2 x Titan X minutely</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F61" s="13">
-        <f t="shared" ref="F61" ca="1" si="27">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="F61" ca="1" si="28">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>4.2</v>
       </c>
       <c r="G61" s="43"/>
@@ -15535,11 +15339,11 @@
         <v>EUR</v>
       </c>
       <c r="L61" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.43519999999999998</v>
       </c>
       <c r="M61" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>12.288</v>
       </c>
       <c r="N61" s="14" t="str">
@@ -15547,39 +15351,39 @@
         <v>GeForce GTX Titan X</v>
       </c>
       <c r="O61" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="P61" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>Xeon E5-2609 v4</v>
       </c>
       <c r="Q61" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="R61" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>32</v>
       </c>
       <c r="S61" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>SSD</v>
       </c>
       <c r="T61" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>480</v>
       </c>
       <c r="U61" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="V61" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="W61" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>40/1</v>
       </c>
       <c r="X61" s="14"/>
@@ -15597,15 +15401,15 @@
         <v>2 x Titan X  monthly</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F62" s="43"/>
       <c r="G62" s="19">
-        <f t="shared" ref="G62" ca="1" si="28">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="G62" ca="1" si="29">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>0</v>
       </c>
       <c r="H62" s="19">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>1492.7</v>
       </c>
       <c r="K62" s="19" t="str">
@@ -15613,51 +15417,51 @@
         <v>EUR</v>
       </c>
       <c r="L62" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.43519999999999998</v>
       </c>
       <c r="M62" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>12.288</v>
       </c>
       <c r="N62" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>GeForce GTX Titan X</v>
       </c>
       <c r="O62" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="P62" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>Xeon E5-2609 v4</v>
       </c>
       <c r="Q62" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="R62" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>32</v>
       </c>
       <c r="S62" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>SSD</v>
       </c>
       <c r="T62" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>480</v>
       </c>
       <c r="U62" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="V62" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="W62" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>40/1</v>
       </c>
       <c r="X62" s="14"/>
@@ -15675,7 +15479,7 @@
         <v>4 x Titan X minutely</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F63" s="43">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -15688,51 +15492,51 @@
         <v>EUR</v>
       </c>
       <c r="L63" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.43519999999999998</v>
       </c>
       <c r="M63" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>24.576000000000001</v>
       </c>
       <c r="N63" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>GeForce GTX Titan X</v>
       </c>
       <c r="O63" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>4</v>
       </c>
       <c r="P63" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>Xeon E5-2609 v4</v>
       </c>
       <c r="Q63" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="R63" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>64</v>
       </c>
       <c r="S63" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>SSD</v>
       </c>
       <c r="T63" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>480</v>
       </c>
       <c r="U63" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="V63" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="W63" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>40/1</v>
       </c>
       <c r="X63" s="14"/>
@@ -15746,11 +15550,11 @@
     </row>
     <row r="64" spans="3:29" s="13" customFormat="1">
       <c r="C64" s="22" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>4 x Titan X monthly</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F64" s="43"/>
       <c r="G64" s="43"/>
@@ -15763,45 +15567,45 @@
         <v>EUR</v>
       </c>
       <c r="L64" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.43519999999999998</v>
       </c>
       <c r="M64" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>24.576000000000001</v>
       </c>
       <c r="N64" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>GeForce GTX Titan X</v>
       </c>
       <c r="O64" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>4</v>
       </c>
       <c r="P64" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>Xeon E5-2609 v4</v>
       </c>
       <c r="Q64" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="R64" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>64</v>
       </c>
       <c r="S64" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>SSD</v>
       </c>
       <c r="T64" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>480</v>
       </c>
       <c r="U64" s="14"/>
       <c r="V64" s="14"/>
       <c r="W64" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>40/1</v>
       </c>
       <c r="X64" s="14"/>
@@ -15819,7 +15623,7 @@
         <v>8 x Titan X minutely</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F65" s="43">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -15832,45 +15636,45 @@
         <v>EUR</v>
       </c>
       <c r="L65" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.70399999999999996</v>
       </c>
       <c r="M65" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>49.152000000000001</v>
       </c>
       <c r="N65" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>GeForce GTX Titan X</v>
       </c>
       <c r="O65" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>8</v>
       </c>
       <c r="P65" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>Xeon E5-2630 v4</v>
       </c>
       <c r="Q65" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="R65" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>128</v>
       </c>
       <c r="S65" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>SSD</v>
       </c>
       <c r="T65" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>960</v>
       </c>
       <c r="U65" s="14"/>
       <c r="V65" s="14"/>
       <c r="W65" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>40/1</v>
       </c>
       <c r="X65" s="14"/>
@@ -15892,14 +15696,14 @@
         <v>8 x Titan X monthly</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H66">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>3408.81</v>
       </c>
       <c r="I66" s="19">
-        <f t="shared" ref="I66:I73" ca="1" si="29">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="I66:I73" ca="1" si="30">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>0</v>
       </c>
       <c r="K66" s="19" t="str">
@@ -15907,51 +15711,51 @@
         <v>EUR</v>
       </c>
       <c r="L66" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.70399999999999996</v>
       </c>
       <c r="M66" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>49.152000000000001</v>
       </c>
       <c r="N66" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>GeForce GTX Titan X</v>
       </c>
       <c r="O66" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>8</v>
       </c>
       <c r="P66" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>Xeon E5-2630 v4</v>
       </c>
       <c r="Q66" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="R66" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>128</v>
       </c>
       <c r="S66" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>SSD</v>
       </c>
       <c r="T66" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>960</v>
       </c>
       <c r="U66" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="V66" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="W66" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>40/1</v>
       </c>
       <c r="X66" s="14"/>
@@ -15969,14 +15773,14 @@
         <v>2 x FirePro S9300x2 minutely</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F67">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>2.4</v>
       </c>
       <c r="I67" s="19">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="K67" s="19" t="str">
@@ -15984,51 +15788,51 @@
         <v>EUR</v>
       </c>
       <c r="L67" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.43519999999999998</v>
       </c>
       <c r="M67" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>27.8</v>
       </c>
       <c r="N67" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>FirePro S9300x2</v>
       </c>
       <c r="O67" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="P67" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>Xeon E5-2609 v4</v>
       </c>
       <c r="Q67" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="R67" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>32</v>
       </c>
       <c r="S67" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>SSD</v>
       </c>
       <c r="T67" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>480</v>
       </c>
       <c r="U67" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="V67" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="W67" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>40/1</v>
       </c>
       <c r="X67" s="14"/>
@@ -16046,7 +15850,7 @@
         <v>2 x FirePro S9300x2 weekly</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G68" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -16058,45 +15862,45 @@
         <v>EUR</v>
       </c>
       <c r="L68" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.43519999999999998</v>
       </c>
       <c r="M68" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>27.8</v>
       </c>
       <c r="N68" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>FirePro S9300x2</v>
       </c>
       <c r="O68" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="P68" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>Xeon E5-2609 v4</v>
       </c>
       <c r="Q68" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="R68" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>32</v>
       </c>
       <c r="S68" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>SSD</v>
       </c>
       <c r="T68" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>480</v>
       </c>
       <c r="U68" s="14"/>
       <c r="V68" s="14"/>
       <c r="W68" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>40/1</v>
       </c>
       <c r="X68" s="14"/>
@@ -16114,7 +15918,7 @@
         <v>2 x FirePro S9300x2 monthly</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H69" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -16126,45 +15930,45 @@
         <v>EUR</v>
       </c>
       <c r="L69" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.43519999999999998</v>
       </c>
       <c r="M69" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>27.8</v>
       </c>
       <c r="N69" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>FirePro S9300x2</v>
       </c>
       <c r="O69" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="P69" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>Xeon E5-2609 v4</v>
       </c>
       <c r="Q69" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="R69" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>32</v>
       </c>
       <c r="S69" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>SSD</v>
       </c>
       <c r="T69" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>480</v>
       </c>
       <c r="U69" s="14"/>
       <c r="V69" s="14"/>
       <c r="W69" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>40/1</v>
       </c>
       <c r="X69" s="14"/>
@@ -16182,17 +15986,17 @@
         <v>The University of Tokyo</v>
       </c>
       <c r="B70" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C70" s="22" t="str">
-        <f t="shared" ref="C70:C77" ca="1" si="30">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
+        <f t="shared" ref="C70:C77" ca="1" si="31">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
         <v>Reedbush-H Personal (educational)</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I70" s="19">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>138888.88888888888</v>
       </c>
       <c r="K70" s="19" t="str">
@@ -16200,55 +16004,55 @@
         <v>JPY</v>
       </c>
       <c r="L70" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.2096000000000002</v>
       </c>
       <c r="M70" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>19</v>
       </c>
       <c r="N70" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>P100</v>
       </c>
       <c r="O70" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="P70" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v xml:space="preserve">Xeon E5-2695v4 </v>
       </c>
       <c r="Q70" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="R70" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>256</v>
       </c>
       <c r="S70" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>PFS</v>
       </c>
       <c r="T70" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>1000</v>
       </c>
       <c r="U70" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="V70" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="W70" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>13.635/</v>
       </c>
       <c r="X70" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>6912</v>
       </c>
       <c r="Y70" s="16" t="str">
@@ -16261,14 +16065,14 @@
     </row>
     <row r="71" spans="1:29">
       <c r="C71" s="22" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>Reedbush-H (educational)</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="I71" s="19">
         <f t="shared" ca="1" si="30"/>
-        <v>Reedbush-H (educational)</v>
-      </c>
-      <c r="E71" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="I71" s="19">
-        <f t="shared" ca="1" si="29"/>
         <v>277777.77777777775</v>
       </c>
       <c r="K71" s="19" t="str">
@@ -16276,55 +16080,55 @@
         <v>JPY</v>
       </c>
       <c r="L71" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.2096000000000002</v>
       </c>
       <c r="M71" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>19</v>
       </c>
       <c r="N71" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>P100</v>
       </c>
       <c r="O71" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="P71" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v xml:space="preserve">Xeon E5-2695v4 </v>
       </c>
       <c r="Q71" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="R71" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>256</v>
       </c>
       <c r="S71" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>PFS</v>
       </c>
       <c r="T71" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>4000</v>
       </c>
       <c r="U71" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="V71" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="W71" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>13.635/</v>
       </c>
       <c r="X71" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>13824</v>
       </c>
       <c r="Y71" s="16" t="str">
@@ -16337,14 +16141,14 @@
     </row>
     <row r="72" spans="1:29" s="13" customFormat="1">
       <c r="C72" s="22" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>Reedbush-H reviewed (educational)</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="I72" s="19">
         <f t="shared" ca="1" si="30"/>
-        <v>Reedbush-H reviewed (educational)</v>
-      </c>
-      <c r="E72" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="I72" s="19">
-        <f t="shared" ca="1" si="29"/>
         <v>166666.66666666666</v>
       </c>
       <c r="K72" s="19" t="str">
@@ -16352,55 +16156,55 @@
         <v>JPY</v>
       </c>
       <c r="L72" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.2096000000000002</v>
       </c>
       <c r="M72" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>19</v>
       </c>
       <c r="N72" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>P100</v>
       </c>
       <c r="O72" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="P72" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v xml:space="preserve">Xeon E5-2695v4 </v>
       </c>
       <c r="Q72" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="R72" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>256</v>
       </c>
       <c r="S72" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>PFS</v>
       </c>
       <c r="T72" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>4000</v>
       </c>
       <c r="U72" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="V72" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="W72" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>13.635/</v>
       </c>
       <c r="X72" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>8640</v>
       </c>
       <c r="Y72" s="16" t="str">
@@ -16413,14 +16217,14 @@
     </row>
     <row r="73" spans="1:29" s="13" customFormat="1">
       <c r="C73" s="22" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>Reedbush-H reviewed</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="I73" s="19">
         <f t="shared" ca="1" si="30"/>
-        <v>Reedbush-H reviewed</v>
-      </c>
-      <c r="E73" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="I73" s="19">
-        <f t="shared" ca="1" si="29"/>
         <v>200000</v>
       </c>
       <c r="K73" s="19" t="str">
@@ -16428,55 +16232,55 @@
         <v>JPY</v>
       </c>
       <c r="L73" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>1.2096000000000002</v>
       </c>
       <c r="M73" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>19</v>
       </c>
       <c r="N73" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>P100</v>
       </c>
       <c r="O73" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="P73" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v xml:space="preserve">Xeon E5-2695v4 </v>
       </c>
       <c r="Q73" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>2</v>
       </c>
       <c r="R73" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>256</v>
       </c>
       <c r="S73" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>PFS</v>
       </c>
       <c r="T73" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>4000</v>
       </c>
       <c r="U73" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="V73" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="W73" s="14" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>13.635/</v>
       </c>
       <c r="X73" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>8640</v>
       </c>
       <c r="Y73" s="16" t="str">
@@ -16493,17 +16297,17 @@
         <v>MS Azure</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C74" s="22" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>NC6</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F74" s="13">
-        <f t="shared" ref="F74:F77" ca="1" si="31">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="F74:F77" ca="1" si="32">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>1.08</v>
       </c>
       <c r="K74" s="19" t="str">
@@ -16511,51 +16315,51 @@
         <v>USD</v>
       </c>
       <c r="L74" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.24960000000000002</v>
       </c>
       <c r="M74" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>4.37</v>
       </c>
       <c r="N74" s="14" t="str">
-        <f t="shared" ref="N74:V77" ca="1" si="32">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="N74:V77" ca="1" si="33">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>K80</v>
       </c>
       <c r="O74" s="14">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0.5</v>
       </c>
       <c r="P74" s="61" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>Xeon E5-2690v3</v>
       </c>
       <c r="Q74" s="14">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>1</v>
       </c>
       <c r="R74" s="14">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>56</v>
       </c>
       <c r="S74" s="14" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>SSD</v>
       </c>
       <c r="T74" s="14">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>380</v>
       </c>
       <c r="U74" s="14">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="V74" s="14">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0</v>
       </c>
       <c r="W74" s="14">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>0</v>
       </c>
       <c r="X74" s="14"/>
@@ -16569,14 +16373,14 @@
     </row>
     <row r="75" spans="1:29">
       <c r="C75" s="22" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>NC12</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F75" s="13">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>2.16</v>
       </c>
       <c r="K75" s="19" t="str">
@@ -16584,43 +16388,43 @@
         <v>USD</v>
       </c>
       <c r="L75" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.49920000000000003</v>
       </c>
       <c r="M75" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>8.74</v>
       </c>
       <c r="N75" s="14" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>K80</v>
       </c>
       <c r="O75" s="14">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>1</v>
       </c>
       <c r="P75" s="61" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>Xeon E5-2690v3</v>
       </c>
       <c r="Q75" s="14">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>1</v>
       </c>
       <c r="R75" s="14">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>112</v>
       </c>
       <c r="S75" s="14" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>SSD</v>
       </c>
       <c r="T75" s="14">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>680</v>
       </c>
       <c r="W75" s="14">
-        <f t="shared" ref="W75:W77" ca="1" si="33">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="W75:W77" ca="1" si="34">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>0</v>
       </c>
       <c r="X75" s="14"/>
@@ -16634,14 +16438,14 @@
     </row>
     <row r="76" spans="1:29">
       <c r="C76" s="22" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>NC24</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F76" s="13">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>4.32</v>
       </c>
       <c r="K76" s="19" t="str">
@@ -16649,43 +16453,43 @@
         <v>USD</v>
       </c>
       <c r="L76" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.99840000000000007</v>
       </c>
       <c r="M76" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>17.48</v>
       </c>
       <c r="N76" s="14" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>K80</v>
       </c>
       <c r="O76" s="14">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>2</v>
       </c>
       <c r="P76" s="61" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>Xeon E5-2690v3</v>
       </c>
       <c r="Q76" s="14">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>1</v>
       </c>
       <c r="R76" s="14">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>224</v>
       </c>
       <c r="S76" s="14" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>SSD</v>
       </c>
       <c r="T76" s="14">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>1440</v>
       </c>
       <c r="W76" s="14">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="X76" s="14"/>
@@ -16699,14 +16503,14 @@
     </row>
     <row r="77" spans="1:29">
       <c r="C77" s="22" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>NC24r</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F77" s="13">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>4.7519999999999998</v>
       </c>
       <c r="K77" s="19" t="str">
@@ -16714,43 +16518,43 @@
         <v>USD</v>
       </c>
       <c r="L77" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.99840000000000007</v>
       </c>
       <c r="M77" s="14">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>17.48</v>
       </c>
       <c r="N77" s="14" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>K80</v>
       </c>
       <c r="O77" s="14">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>2</v>
       </c>
       <c r="P77" s="61" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>Xeon E5-2690v3</v>
       </c>
       <c r="Q77" s="14">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>1</v>
       </c>
       <c r="R77" s="14">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>224</v>
       </c>
       <c r="S77" s="14" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>SSD</v>
       </c>
       <c r="T77" s="14">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>1440</v>
       </c>
       <c r="W77" s="14" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>Infiniband/</v>
       </c>
       <c r="X77" s="14"/>
@@ -16764,258 +16568,258 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="I23:J23 I25:J25 I27:J27 I29:J29 S13:S15 E23:G23 E18:J22 D26:D41 E17:F17 D10:D24 D3:D8 C3:C21 E7:G7 E9:J16 E4:J6 N16:O16 L30:O31 E3:O3 L4:O15 M16:M17 L16:L29 M18:O29 E8:H8 J8 H58:H60 L50:S69 T53:Y69 K75:T77 L74:V74 W74:Y77 I66:I73 K56:K74 L70:Y73 C30:C40 F25:G29 E34:E36 H22:H30 F30:I30 I31 F36:G36 I36 E39:G40 I39:I40 E38 F31:G31 F32:I35 F37:I37 K4:K43 M32:O49">
-    <cfRule type="expression" dxfId="61" priority="119">
+  <conditionalFormatting sqref="I23:J23 I25:J25 I27:J27 I29:J29 S13:S15 E23:G23 E18:J22 D26:D41 E17:F17 D10:D24 D3:D8 C3:C21 E7:G7 E9:J16 E4:J6 N16:O16 L30:O31 E3:O3 L4:O15 M16:M17 L16:L29 M18:O29 E8:H8 J8 H58:H60 L50:S69 T53:Y69 K75:T77 L74:V74 W74:Y77 I66:I73 K56:K74 L70:Y73 F25:G29 E34:E36 H22:H30 F30:I30 I31 F36:G36 I36 E39:G40 I39:I40 E38 F31:G31 F32:I35 F37:I37 K4:K43 M32:O49 C30:C40">
+    <cfRule type="expression" dxfId="50" priority="119">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25 I24:J24 F24:G24">
-    <cfRule type="expression" dxfId="60" priority="117">
+    <cfRule type="expression" dxfId="49" priority="117">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:J26">
-    <cfRule type="expression" dxfId="59" priority="116">
+    <cfRule type="expression" dxfId="48" priority="116">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:J28">
-    <cfRule type="expression" dxfId="58" priority="115">
+    <cfRule type="expression" dxfId="47" priority="115">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="57" priority="106">
+    <cfRule type="expression" dxfId="46" priority="106">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P15 P18:P49">
-    <cfRule type="expression" dxfId="56" priority="61">
+    <cfRule type="expression" dxfId="45" priority="61">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:X3 T4:X12 T18:V31 T13:V15 W13:X31 R3:R15 U47:X49 T47:T52 R18:R49 Y6:Y49 T32:X46">
-    <cfRule type="expression" dxfId="55" priority="59">
+    <cfRule type="expression" dxfId="44" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C23">
-    <cfRule type="expression" dxfId="54" priority="68">
+    <cfRule type="expression" dxfId="43" priority="68">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C25">
-    <cfRule type="expression" dxfId="53" priority="67">
+    <cfRule type="expression" dxfId="42" priority="67">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C27">
-    <cfRule type="expression" dxfId="52" priority="66">
+    <cfRule type="expression" dxfId="41" priority="66">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C29">
-    <cfRule type="expression" dxfId="51" priority="65">
+    <cfRule type="expression" dxfId="40" priority="65">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q15 Q18:Q49">
-    <cfRule type="expression" dxfId="50" priority="60">
+    <cfRule type="expression" dxfId="39" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S12">
-    <cfRule type="expression" dxfId="49" priority="58">
+    <cfRule type="expression" dxfId="38" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18:S49">
-    <cfRule type="expression" dxfId="48" priority="57">
+    <cfRule type="expression" dxfId="37" priority="57">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:J17 N17:O17">
-    <cfRule type="expression" dxfId="47" priority="48">
+    <cfRule type="expression" dxfId="36" priority="48">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:P17">
-    <cfRule type="expression" dxfId="46" priority="47">
+    <cfRule type="expression" dxfId="35" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16:V17 R16:R17">
-    <cfRule type="expression" dxfId="45" priority="45">
+    <cfRule type="expression" dxfId="34" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16:Q17">
-    <cfRule type="expression" dxfId="44" priority="46">
+    <cfRule type="expression" dxfId="33" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:S17">
-    <cfRule type="expression" dxfId="43" priority="44">
+    <cfRule type="expression" dxfId="32" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="42" priority="43">
+    <cfRule type="expression" dxfId="31" priority="43">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="41" priority="42">
+    <cfRule type="expression" dxfId="30" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="29" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:L49">
-    <cfRule type="expression" dxfId="39" priority="40">
+    <cfRule type="expression" dxfId="28" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="27" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="26" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="25" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="35" priority="35">
+    <cfRule type="expression" dxfId="24" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:J40">
-    <cfRule type="expression" dxfId="34" priority="34">
+    <cfRule type="expression" dxfId="23" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44 K44:K55">
-    <cfRule type="expression" dxfId="33" priority="33">
+    <cfRule type="expression" dxfId="22" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="expression" dxfId="32" priority="32">
+    <cfRule type="expression" dxfId="21" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="expression" dxfId="31" priority="31">
+    <cfRule type="expression" dxfId="20" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="19" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="29" priority="25">
+    <cfRule type="expression" dxfId="18" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="expression" dxfId="28" priority="24">
+    <cfRule type="expression" dxfId="17" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48">
-    <cfRule type="expression" dxfId="27" priority="23">
+    <cfRule type="expression" dxfId="16" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="15" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U50:Y52">
-    <cfRule type="expression" dxfId="25" priority="19">
+    <cfRule type="expression" dxfId="14" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="24" priority="16">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="expression" dxfId="23" priority="15">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="22" priority="14">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54">
-    <cfRule type="expression" dxfId="21" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="expression" dxfId="20" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63:H65">
-    <cfRule type="expression" dxfId="19" priority="11">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57 G62">
-    <cfRule type="expression" dxfId="18" priority="10">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E29">
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H40">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Comparison table updated 3.xlsx
+++ b/Comparison table updated 3.xlsx
@@ -652,12 +652,64 @@
         </r>
       </text>
     </comment>
+    <comment ref="E63" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Peter Bryzgalov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+http://images.nvidia.com/content/pdf/tesla/tesla-m60-product-brief.pdf</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F63" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Peter Bryzgalov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+https://en.wikipedia.org/wiki/List_of_Nvidia_graphics_processing_units</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="350">
   <si>
     <t>Cloud server providers with GPU</t>
     <phoneticPr fontId="2"/>
@@ -1706,295 +1758,324 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>https://azure.microsoft.com/en-us/pricing/details/virtual-machines/linux/</t>
+  </si>
+  <si>
+    <t>NC6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2690v3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RDMA capable</t>
+  </si>
+  <si>
+    <t>Infiniband</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NC6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NC12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 GPU in specification is 1/2 of K80 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x Titan X</t>
+  </si>
+  <si>
+    <t>4 x Titan X</t>
+  </si>
+  <si>
+    <t>8 x Titan X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TITAN X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GeForce GTX Titan X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2609 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NC25r</t>
+  </si>
+  <si>
+    <t>MS NC24</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.leadergpu.com</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx2 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx2 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx4 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx4 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx8 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx8 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nodes*hours limit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Max hours</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.cc.u-tokyo.ac.jp/support/application/kitei/hyou5.pdf</t>
+  </si>
+  <si>
+    <t>http://www.cc.u-tokyo.ac.jp/support/application/kitei/hyou5.pdf</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Max 2 nodes. Included (17280/2.5=)6912 node hours if 1 node is used, 3456 node hours if more than 1 node is used by a parallel job.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Included 13824 node hours if 1 node is used, 6912 node hours if 2-4 nodes are used by a parallel job.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Included 8640 node hours. 4320 node hours if a parallel job used more nodes than applied for.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H (educational)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H reviewed (educational)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H reviewed</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU gen edu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU rev</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU rev edu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Limited quantity available at this price</t>
+  </si>
+  <si>
+    <t>8-GPU x86 P40</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8-GPU x86 P100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8-GPU x86 Quadro P6000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4-GPU x86 P40</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4-GPU x86 P100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4-GPU x86 Quadro P6000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Quadro P600</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-1650 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4-GPU POWER8/10 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4-GPU POWER8/8 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2-GPU POWER8/8 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P40x4 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P40x4 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x4 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x4 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P6000x4 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P6000x4 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P6000x8 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P6000x8 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>16-GPU x86 K80 ltd.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8-GPU x86 M40 ltd.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR K80x8 x86 ltd m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR K80x8 x86 ltd w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR M40x8 ltd x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR M40x8 ltd x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LeaderTelecom</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4 x GeForce GTX 1080 ltd.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x4 ltd w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x4 ltd min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x4 ltd m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NV6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NV12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NV24</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M60</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>http://venturebeat.com/2016/08/04/microsoft-azure-releases-n-series-gpu-instances-in-preview/</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>https://azure.microsoft.com/en-us/pricing/details/virtual-machines/linux/</t>
-  </si>
-  <si>
-    <t>NC6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2690v3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RDMA capable</t>
-  </si>
-  <si>
-    <t>SSD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Infiniband</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MS NC6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MS NC12</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 GPU in specification is 1/2 of K80 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x Titan X</t>
-  </si>
-  <si>
-    <t>4 x Titan X</t>
-  </si>
-  <si>
-    <t>8 x Titan X</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TITAN X</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GeForce GTX Titan X</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2609 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://azure.microsoft.com/en-us/pricing/details/virtual-machines/linux/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MS NC25r</t>
-  </si>
-  <si>
-    <t>MS NC24</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://www.leadergpu.com</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTXTXx2 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTXTXx2 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTXTXx4 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTXTXx4 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTXTXx8 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTXTXx8 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nodes*hours limit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AG</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Max hours</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.cc.u-tokyo.ac.jp/support/application/kitei/hyou5.pdf</t>
-  </si>
-  <si>
-    <t>http://www.cc.u-tokyo.ac.jp/support/application/kitei/hyou5.pdf</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Max 2 nodes. Included (17280/2.5=)6912 node hours if 1 node is used, 3456 node hours if more than 1 node is used by a parallel job.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Included 13824 node hours if 1 node is used, 6912 node hours if 2-4 nodes are used by a parallel job.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Included 8640 node hours. 4320 node hours if a parallel job used more nodes than applied for.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H (educational)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H reviewed (educational)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H reviewed</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TU gen edu</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TU rev</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TU rev edu</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Limited quantity available at this price</t>
-  </si>
-  <si>
-    <t>8-GPU x86 P40</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8-GPU x86 P100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8-GPU x86 Quadro P6000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4-GPU x86 P40</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4-GPU x86 P100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4-GPU x86 Quadro P6000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Quadro P600</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-1650 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4-GPU POWER8/10 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4-GPU POWER8/8 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2-GPU POWER8/8 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P40x4 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P40x4 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x4 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x4 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P6000x4 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P6000x4 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P6000x8 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P6000x8 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>16-GPU x86 K80 ltd.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8-GPU x86 M40 ltd.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR K80x8 x86 ltd m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR K80x8 x86 ltd w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR M40x8 ltd x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR M40x8 ltd x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LeaderTelecom</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4 x GeForce GTX 1080 ltd.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x4 ltd w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x4 ltd min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x4 ltd m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SATA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NV6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NV12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NV24</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2380,7 +2461,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="706">
+  <cellStyleXfs count="708">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3031,6 +3112,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3222,7 +3305,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="706">
+  <cellStyles count="708">
     <cellStyle name="$Normal" xfId="356"/>
     <cellStyle name="¥ Normal" xfId="636"/>
     <cellStyle name="€ Normal" xfId="635"/>
@@ -3635,6 +3718,8 @@
     <cellStyle name="Followed Hyperlink" xfId="703" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="704" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="705" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="707" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 1 2" xfId="62"/>
     <cellStyle name="Heading 2" xfId="263" builtinId="17" customBuiltin="1"/>
@@ -3930,7 +4015,7 @@
     <cellStyle name="Style 1" xfId="55"/>
     <cellStyle name="Title" xfId="340" builtinId="15" hidden="1"/>
   </cellStyles>
-  <dxfs count="79">
+  <dxfs count="80">
     <dxf>
       <font>
         <color auto="1"/>
@@ -4800,6 +4885,17 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
@@ -5095,13 +5191,13 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:FF62"/>
+  <dimension ref="A1:FF65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="L24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
+      <selection pane="bottomRight" activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -5197,7 +5293,7 @@
       <c r="AD3" s="63"/>
       <c r="AE3" s="63"/>
       <c r="AF3" s="17" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>32</v>
@@ -5495,7 +5591,7 @@
       </c>
       <c r="AF5" s="16"/>
       <c r="AG5" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:162">
@@ -5569,7 +5665,7 @@
       </c>
       <c r="AF6" s="16"/>
       <c r="AG6" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:162">
@@ -5643,7 +5739,7 @@
       </c>
       <c r="AF7" s="16"/>
       <c r="AG7" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:162">
@@ -6968,7 +7064,7 @@
         <v>43</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C25" s="28" t="s">
         <v>16</v>
@@ -7049,7 +7145,7 @@
       </c>
       <c r="AF25" s="16"/>
       <c r="AG25" s="16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:162">
@@ -7057,7 +7153,7 @@
         <v>62</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>41</v>
@@ -7138,13 +7234,13 @@
       </c>
       <c r="AF26" s="16"/>
       <c r="AG26" s="16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:162" s="13" customFormat="1">
       <c r="A27" s="2"/>
       <c r="B27" s="22" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C27" s="28" t="s">
         <v>93</v>
@@ -7229,7 +7325,7 @@
     <row r="28" spans="1:162" s="13" customFormat="1">
       <c r="A28" s="2"/>
       <c r="B28" s="22" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>94</v>
@@ -7314,10 +7410,10 @@
     <row r="29" spans="1:162" s="13" customFormat="1">
       <c r="A29" s="2"/>
       <c r="B29" s="22" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D29" s="13">
         <v>8</v>
@@ -7396,7 +7492,7 @@
     <row r="30" spans="1:162" s="13" customFormat="1">
       <c r="A30" s="2"/>
       <c r="B30" s="22" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C30" s="28" t="s">
         <v>93</v>
@@ -7421,7 +7517,7 @@
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L30" s="5">
         <v>1</v>
@@ -7478,7 +7574,7 @@
     <row r="31" spans="1:162" s="13" customFormat="1">
       <c r="A31" s="2"/>
       <c r="B31" s="22" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C31" s="28" t="s">
         <v>35</v>
@@ -7503,7 +7599,7 @@
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L31" s="5">
         <v>1</v>
@@ -7560,10 +7656,10 @@
     <row r="32" spans="1:162" s="13" customFormat="1">
       <c r="A32" s="2"/>
       <c r="B32" s="22" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D32" s="13">
         <v>4</v>
@@ -7585,7 +7681,7 @@
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L32" s="5">
         <v>1</v>
@@ -7641,7 +7737,7 @@
     </row>
     <row r="33" spans="1:162">
       <c r="B33" s="22" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>78</v>
@@ -7725,7 +7821,7 @@
     </row>
     <row r="34" spans="1:162">
       <c r="B34" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C34" s="28" t="s">
         <v>79</v>
@@ -7802,7 +7898,7 @@
     <row r="35" spans="1:162" s="13" customFormat="1">
       <c r="A35" s="40"/>
       <c r="B35" s="41" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C35" s="42" t="s">
         <v>138</v>
@@ -8045,7 +8141,7 @@
         <v>49</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D37" s="28">
         <v>4</v>
@@ -8325,7 +8421,7 @@
     </row>
     <row r="41" spans="1:162" ht="23" customHeight="1">
       <c r="A41" s="21" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B41" s="22" t="s">
         <v>176</v>
@@ -8415,10 +8511,10 @@
     </row>
     <row r="42" spans="1:162" ht="24" customHeight="1">
       <c r="A42" s="16" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C42" s="28" t="s">
         <v>178</v>
@@ -9018,10 +9114,10 @@
     <row r="49" spans="1:33" s="13" customFormat="1">
       <c r="A49" s="2"/>
       <c r="B49" s="59" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D49" s="14">
         <v>2</v>
@@ -9104,10 +9200,10 @@
     <row r="50" spans="1:33" s="13" customFormat="1">
       <c r="A50" s="2"/>
       <c r="B50" s="59" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D50" s="14">
         <v>4</v>
@@ -9129,7 +9225,7 @@
       </c>
       <c r="J50" s="28"/>
       <c r="K50" s="28" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L50" s="28">
         <v>2</v>
@@ -9190,10 +9286,10 @@
     <row r="51" spans="1:33" s="13" customFormat="1">
       <c r="A51" s="2"/>
       <c r="B51" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="C51" s="28" t="s">
         <v>283</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>285</v>
       </c>
       <c r="D51" s="14">
         <v>8</v>
@@ -9442,15 +9538,15 @@
         <v>6912</v>
       </c>
       <c r="AG54" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:33">
       <c r="A55" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C55" s="57" t="s">
         <v>254</v>
@@ -9528,12 +9624,12 @@
         <v>13824</v>
       </c>
       <c r="AG55" s="16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="56" spans="1:33">
       <c r="B56" s="22" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C56" s="57" t="s">
         <v>254</v>
@@ -9609,12 +9705,12 @@
         <v>8640</v>
       </c>
       <c r="AG56" s="62" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="57" spans="1:33">
       <c r="B57" s="22" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C57" s="57" t="s">
         <v>254</v>
@@ -9690,7 +9786,7 @@
         <v>8640</v>
       </c>
       <c r="AG57" s="62" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:33" ht="20">
@@ -9698,7 +9794,7 @@
         <v>262</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C59" s="57" t="s">
         <v>266</v>
@@ -9723,7 +9819,7 @@
       </c>
       <c r="J59" s="14"/>
       <c r="K59" s="57" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L59" s="14">
         <v>1</v>
@@ -9748,7 +9844,7 @@
         <v>56</v>
       </c>
       <c r="S59" s="57" t="s">
-        <v>276</v>
+        <v>346</v>
       </c>
       <c r="T59" s="14">
         <v>380</v>
@@ -9757,10 +9853,11 @@
       <c r="X59" s="14"/>
       <c r="Y59" s="14"/>
       <c r="Z59" s="24">
-        <v>1.08</v>
+        <v>0.9</v>
       </c>
       <c r="AB59" s="10">
-        <v>803.52</v>
+        <f>Z59*24*31</f>
+        <v>669.6</v>
       </c>
       <c r="AC59" s="58"/>
       <c r="AE59" s="16" t="s">
@@ -9768,12 +9865,12 @@
       </c>
       <c r="AF59" s="16"/>
       <c r="AG59" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:33">
       <c r="A60" s="16" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="B60" s="22" t="s">
         <v>263</v>
@@ -9801,7 +9898,7 @@
       </c>
       <c r="J60" s="14"/>
       <c r="K60" s="57" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L60" s="14">
         <v>1</v>
@@ -9826,7 +9923,7 @@
         <v>112</v>
       </c>
       <c r="S60" s="57" t="s">
-        <v>276</v>
+        <v>346</v>
       </c>
       <c r="T60" s="14">
         <v>680</v>
@@ -9835,10 +9932,11 @@
       <c r="X60" s="14"/>
       <c r="Y60" s="14"/>
       <c r="Z60" s="24">
-        <v>2.16</v>
+        <v>1.8</v>
       </c>
       <c r="AB60" s="10">
-        <v>1607.04</v>
+        <f t="shared" ref="AB60:AB62" si="14">Z60*24*31</f>
+        <v>1339.2</v>
       </c>
       <c r="AC60" s="58"/>
       <c r="AE60" s="16" t="s">
@@ -9848,7 +9946,7 @@
     </row>
     <row r="61" spans="1:33">
       <c r="A61" s="16" t="s">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>264</v>
@@ -9876,7 +9974,7 @@
       </c>
       <c r="J61" s="14"/>
       <c r="K61" s="57" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L61" s="14">
         <v>1</v>
@@ -9901,7 +9999,7 @@
         <v>224</v>
       </c>
       <c r="S61" s="57" t="s">
-        <v>276</v>
+        <v>346</v>
       </c>
       <c r="T61" s="14">
         <v>1440</v>
@@ -9910,10 +10008,11 @@
       <c r="X61" s="14"/>
       <c r="Y61" s="14"/>
       <c r="Z61" s="24">
-        <v>4.32</v>
+        <v>3.6</v>
       </c>
       <c r="AB61" s="10">
-        <v>3214.08</v>
+        <f t="shared" si="14"/>
+        <v>2678.4</v>
       </c>
       <c r="AC61" s="58"/>
       <c r="AE61" s="16" t="s">
@@ -9948,7 +10047,7 @@
       </c>
       <c r="J62" s="14"/>
       <c r="K62" s="57" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L62" s="14">
         <v>1</v>
@@ -9973,24 +10072,25 @@
         <v>224</v>
       </c>
       <c r="S62" s="57" t="s">
-        <v>276</v>
+        <v>346</v>
       </c>
       <c r="T62" s="14">
         <v>1440</v>
       </c>
       <c r="W62" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="X62" s="14"/>
       <c r="Y62" s="14" t="str">
-        <f t="shared" ref="Y62" si="14">W62&amp;"/"&amp;X62</f>
+        <f t="shared" ref="Y62" si="15">W62&amp;"/"&amp;X62</f>
         <v>Infiniband/</v>
       </c>
       <c r="Z62" s="24">
-        <v>4.7519999999999998</v>
+        <v>3.96</v>
       </c>
       <c r="AB62" s="10">
-        <v>3535.49</v>
+        <f t="shared" si="14"/>
+        <v>2946.24</v>
       </c>
       <c r="AC62" s="58"/>
       <c r="AE62" s="16" t="s">
@@ -9998,7 +10098,196 @@
       </c>
       <c r="AF62" s="16"/>
       <c r="AG62" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33">
+      <c r="B63" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="C63" t="s">
+        <v>343</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F63" s="9">
+        <v>9.65</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K63" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="L63" s="14">
+        <v>1</v>
+      </c>
+      <c r="M63" s="14">
+        <v>6</v>
+      </c>
+      <c r="N63" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="O63" s="14">
+        <v>16</v>
+      </c>
+      <c r="P63" s="14">
+        <f t="shared" ref="P63:P65" si="16">M63*N63*O63/1000</f>
+        <v>0.24960000000000002</v>
+      </c>
+      <c r="Q63" s="14">
+        <v>2133</v>
+      </c>
+      <c r="R63">
+        <v>56</v>
+      </c>
+      <c r="S63" s="57" t="s">
+        <v>346</v>
+      </c>
+      <c r="T63">
+        <v>340</v>
+      </c>
+      <c r="Z63" s="24">
+        <v>1.24</v>
+      </c>
+      <c r="AE63" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33">
+      <c r="B64" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F64" s="9">
+        <v>9.65</v>
+      </c>
+      <c r="G64" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K64" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="L64" s="14">
+        <v>1</v>
+      </c>
+      <c r="M64" s="14">
+        <v>12</v>
+      </c>
+      <c r="N64" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="O64" s="14">
+        <v>16</v>
+      </c>
+      <c r="P64" s="14">
+        <f t="shared" si="16"/>
+        <v>0.49920000000000003</v>
+      </c>
+      <c r="Q64" s="14">
+        <v>2133</v>
+      </c>
+      <c r="R64">
+        <v>112</v>
+      </c>
+      <c r="S64" s="57" t="s">
+        <v>346</v>
+      </c>
+      <c r="T64">
+        <v>680</v>
+      </c>
+      <c r="Z64" s="24">
+        <v>2.48</v>
+      </c>
+      <c r="AE64" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31">
+      <c r="B65" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F65" s="9">
+        <v>9.65</v>
+      </c>
+      <c r="G65" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K65" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="L65" s="14">
+        <v>1</v>
+      </c>
+      <c r="M65" s="14">
+        <v>24</v>
+      </c>
+      <c r="N65" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="O65" s="14">
+        <v>16</v>
+      </c>
+      <c r="P65" s="14">
+        <f t="shared" si="16"/>
+        <v>0.99840000000000007</v>
+      </c>
+      <c r="Q65" s="14">
+        <v>2133</v>
+      </c>
+      <c r="R65">
+        <v>224</v>
+      </c>
+      <c r="S65" s="57" t="s">
+        <v>346</v>
+      </c>
+      <c r="T65">
+        <v>1440</v>
+      </c>
+      <c r="Z65" s="24">
+        <v>4.97</v>
+      </c>
+      <c r="AE65" s="16" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -10011,7 +10300,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AH37">
-    <cfRule type="colorScale" priority="73">
+    <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10023,7 +10312,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI37">
-    <cfRule type="colorScale" priority="72">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10035,7 +10324,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH38:AH39">
-    <cfRule type="colorScale" priority="68">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10047,7 +10336,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI38:AI39">
-    <cfRule type="colorScale" priority="67">
+    <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10059,7 +10348,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH38:AH39">
-    <cfRule type="colorScale" priority="66">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10071,7 +10360,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI38:AI39">
-    <cfRule type="colorScale" priority="65">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10083,32 +10372,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FG19:XFD20 FG35:XFD35 Z35 U34:Y35 T34 S34:S35 R34 Q34:Q35 P34 Z39 A17 B18:I18 A21:Q21 S21:V21 K18:V18 A22:V22 Z18:AD22 W18:W22 A12:AD12 A7:A8 A5:M6 B7:M7 B8:AD9 A36:AD36 A38:M38 N38:P39 AH36:XFD38 AH19:AJ20 AH39:AJ39 AH21:XFD34 AG36:AG39 AG18:AG24 AH5:XFD18 AE5:AG5 Q38:X38 AC38:AD38 AB39 A13:AA13 A14:AD16 P33:X33 Z33:AD34 A37:X37 Z37:AD37 Z38:AA38 N5:AD7 AG6:AG16 A10:AC11 P54:P57 Y54:Y57 AE54:AF56 AE57 AG27:AG34 L33:O35 A33:K34 A23:AD29 A30:B32 J30:AD32 AE6:AF40">
-    <cfRule type="expression" dxfId="78" priority="59">
+    <cfRule type="expression" dxfId="79" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13">
+    <cfRule type="expression" dxfId="78" priority="47">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
     <cfRule type="expression" dxfId="77" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
+  <conditionalFormatting sqref="K39:M39 Q39:X39">
     <cfRule type="expression" dxfId="76" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:M39 Q39:X39">
+  <conditionalFormatting sqref="AB38">
     <cfRule type="expression" dxfId="75" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB38">
-    <cfRule type="expression" dxfId="74" priority="43">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AH36:AH39 AH21:AH34 AH5:AH18">
-    <cfRule type="colorScale" priority="144">
+    <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10120,7 +10409,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI36:AI39 AI21:AI34 AI5:AI18">
-    <cfRule type="colorScale" priority="148">
+    <cfRule type="colorScale" priority="149">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10132,7 +10421,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH36:AH37 AH21:AH34 AH5:AH18">
-    <cfRule type="colorScale" priority="152">
+    <cfRule type="colorScale" priority="153">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10144,7 +10433,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI36:AI37 AI21:AI34 AI5:AI18">
-    <cfRule type="colorScale" priority="156">
+    <cfRule type="colorScale" priority="157">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10156,7 +10445,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ36:AJ39 AJ21:AJ34 AJ5:AJ18">
-    <cfRule type="colorScale" priority="160">
+    <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10168,7 +10457,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH21:AH34 AH5:AH18">
-    <cfRule type="colorScale" priority="164">
+    <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10180,7 +10469,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI21:AI34 AI5:AI18">
-    <cfRule type="colorScale" priority="167">
+    <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10192,12 +10481,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:Q20 S20:V20">
-    <cfRule type="expression" dxfId="73" priority="35">
+    <cfRule type="expression" dxfId="74" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH20">
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10209,7 +10498,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI20">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10221,7 +10510,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH20">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10233,7 +10522,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI20">
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10245,7 +10534,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ20">
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10257,7 +10546,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH20">
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10269,7 +10558,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI20">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10281,17 +10570,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:I19">
-    <cfRule type="expression" dxfId="72" priority="26">
+    <cfRule type="expression" dxfId="73" priority="27">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:D19 R20:R21 K19:V19">
-    <cfRule type="expression" dxfId="71" priority="27">
+    <cfRule type="expression" dxfId="72" priority="28">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH19">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10303,7 +10592,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI19">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10315,7 +10604,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH19">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10327,7 +10616,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI19">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10339,7 +10628,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ19">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10351,7 +10640,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH19">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10363,7 +10652,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI19">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10375,101 +10664,106 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41:P43">
+    <cfRule type="expression" dxfId="71" priority="26">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y17:Y22">
     <cfRule type="expression" dxfId="70" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y17:Y22">
+  <conditionalFormatting sqref="Y33">
     <cfRule type="expression" dxfId="69" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y33">
+  <conditionalFormatting sqref="Y37:Y39">
     <cfRule type="expression" dxfId="68" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y37:Y39">
+  <conditionalFormatting sqref="Y41:Y43">
     <cfRule type="expression" dxfId="67" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y41:Y43">
+  <conditionalFormatting sqref="P48">
     <cfRule type="expression" dxfId="66" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P48">
+  <conditionalFormatting sqref="Y48:Y52">
     <cfRule type="expression" dxfId="65" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y48:Y52">
+  <conditionalFormatting sqref="P46:P47">
     <cfRule type="expression" dxfId="64" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P46:P47">
+  <conditionalFormatting sqref="Y46:Y47">
     <cfRule type="expression" dxfId="63" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y46:Y47">
+  <conditionalFormatting sqref="P52">
     <cfRule type="expression" dxfId="62" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P52">
-    <cfRule type="expression" dxfId="61" priority="16">
+  <conditionalFormatting sqref="M59:P59 N60:P65">
+    <cfRule type="expression" dxfId="61" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M59:P59 N60:P62">
+  <conditionalFormatting sqref="Q59:Q65">
     <cfRule type="expression" dxfId="60" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q59:Q62">
+  <conditionalFormatting sqref="Y62">
     <cfRule type="expression" dxfId="59" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y62">
+  <conditionalFormatting sqref="E59:I62">
     <cfRule type="expression" dxfId="58" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59:I62">
+  <conditionalFormatting sqref="C49:C51">
     <cfRule type="expression" dxfId="57" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49:C51">
+  <conditionalFormatting sqref="E49:I51">
     <cfRule type="expression" dxfId="56" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:I51">
+  <conditionalFormatting sqref="P49:P50">
     <cfRule type="expression" dxfId="55" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P49:P50">
+  <conditionalFormatting sqref="P51">
     <cfRule type="expression" dxfId="54" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P51">
+  <conditionalFormatting sqref="AF57">
     <cfRule type="expression" dxfId="53" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF57">
+  <conditionalFormatting sqref="C30:I32">
     <cfRule type="expression" dxfId="52" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:I32">
+  <conditionalFormatting sqref="E63:I65">
     <cfRule type="expression" dxfId="51" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -10495,13 +10789,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:AC77"/>
+  <dimension ref="A1:AC80"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G47" sqref="G47"/>
+      <selection pane="bottomRight" activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -10595,10 +10889,10 @@
         <v>204</v>
       </c>
       <c r="X1" s="48" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Y1" s="48" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="12" customFormat="1" ht="21" thickBot="1">
@@ -10672,7 +10966,7 @@
         <v>131</v>
       </c>
       <c r="X2" s="30" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Y2" s="30" t="s">
         <v>132</v>
@@ -10790,7 +11084,7 @@
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19" t="str">
-        <f t="shared" ref="K4:K77" ca="1" si="3">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="K4:K78" ca="1" si="3">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>USD</v>
       </c>
       <c r="L4" s="14">
@@ -11756,7 +12050,7 @@
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -11837,7 +12131,7 @@
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19">
@@ -11918,7 +12212,7 @@
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -11999,7 +12293,7 @@
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19">
@@ -12404,7 +12698,7 @@
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -12485,7 +12779,7 @@
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19">
@@ -12566,7 +12860,7 @@
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -12647,7 +12941,7 @@
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19">
@@ -12728,7 +13022,7 @@
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
@@ -12809,7 +13103,7 @@
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19">
@@ -12896,7 +13190,7 @@
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -12980,7 +13274,7 @@
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="19">
@@ -13811,11 +14105,11 @@
         <v>EUR</v>
       </c>
       <c r="L41" s="14">
-        <f t="shared" ref="L41:L77" ca="1" si="21">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="L41:L80" ca="1" si="21">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!L"&amp; INDIRECT("AC"&amp;ROW()))</f>
         <v>0.43519999999999998</v>
       </c>
       <c r="M41" s="14">
-        <f t="shared" ref="M41:M77" ca="1" si="22">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="M41:M80" ca="1" si="22">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("AC"&amp;ROW()))</f>
         <v>16.456</v>
       </c>
       <c r="N41" s="14" t="str">
@@ -14020,7 +14314,7 @@
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="22" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F44" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -14094,7 +14388,7 @@
         <v>4 x GeForce GTX 1080 ltd. weekly</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="19">
@@ -14169,7 +14463,7 @@
         <v>4 x GeForce GTX 1080 ltd. monthly</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F46" s="13"/>
       <c r="H46" s="19">
@@ -15326,7 +15620,7 @@
         <v>2 x Titan X minutely</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F61" s="13">
         <f t="shared" ref="F61" ca="1" si="28">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -15401,7 +15695,7 @@
         <v>2 x Titan X  monthly</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F62" s="43"/>
       <c r="G62" s="19">
@@ -15479,7 +15773,7 @@
         <v>4 x Titan X minutely</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F63" s="43">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -15554,7 +15848,7 @@
         <v>4 x Titan X monthly</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F64" s="43"/>
       <c r="G64" s="43"/>
@@ -15623,7 +15917,7 @@
         <v>8 x Titan X minutely</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F65" s="43">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -15696,7 +15990,7 @@
         <v>8 x Titan X monthly</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H66">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -15986,10 +16280,10 @@
         <v>The University of Tokyo</v>
       </c>
       <c r="B70" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C70" s="22" t="str">
-        <f t="shared" ref="C70:C77" ca="1" si="31">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
+        <f t="shared" ref="C70:C80" ca="1" si="31">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
         <v>Reedbush-H Personal (educational)</v>
       </c>
       <c r="E70" s="22" t="s">
@@ -16069,7 +16363,7 @@
         <v>Reedbush-H (educational)</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I71" s="19">
         <f t="shared" ca="1" si="30"/>
@@ -16145,7 +16439,7 @@
         <v>Reedbush-H reviewed (educational)</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I72" s="19">
         <f t="shared" ca="1" si="30"/>
@@ -16221,7 +16515,7 @@
         <v>Reedbush-H reviewed</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I73" s="19">
         <f t="shared" ca="1" si="30"/>
@@ -16297,18 +16591,18 @@
         <v>MS Azure</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C74" s="22" t="str">
         <f t="shared" ca="1" si="31"/>
         <v>NC6</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F74" s="13">
-        <f t="shared" ref="F74:F77" ca="1" si="32">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
-        <v>1.08</v>
+        <f t="shared" ref="F74:F80" ca="1" si="32">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>0.9</v>
       </c>
       <c r="K74" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -16323,7 +16617,7 @@
         <v>4.37</v>
       </c>
       <c r="N74" s="14" t="str">
-        <f t="shared" ref="N74:V77" ca="1" si="33">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <f t="shared" ref="N74:V80" ca="1" si="33">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
         <v>K80</v>
       </c>
       <c r="O74" s="14">
@@ -16344,7 +16638,7 @@
       </c>
       <c r="S74" s="14" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>SSD</v>
+        <v>SATA</v>
       </c>
       <c r="T74" s="14">
         <f t="shared" ca="1" si="33"/>
@@ -16377,11 +16671,11 @@
         <v>NC12</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F75" s="13">
         <f t="shared" ca="1" si="32"/>
-        <v>2.16</v>
+        <v>1.8</v>
       </c>
       <c r="K75" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -16417,7 +16711,7 @@
       </c>
       <c r="S75" s="14" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>SSD</v>
+        <v>SATA</v>
       </c>
       <c r="T75" s="14">
         <f t="shared" ca="1" si="33"/>
@@ -16442,11 +16736,11 @@
         <v>NC24</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F76" s="13">
         <f t="shared" ca="1" si="32"/>
-        <v>4.32</v>
+        <v>3.6</v>
       </c>
       <c r="K76" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -16482,7 +16776,7 @@
       </c>
       <c r="S76" s="14" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>SSD</v>
+        <v>SATA</v>
       </c>
       <c r="T76" s="14">
         <f t="shared" ca="1" si="33"/>
@@ -16507,11 +16801,11 @@
         <v>NC24r</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F77" s="13">
         <f t="shared" ca="1" si="32"/>
-        <v>4.7519999999999998</v>
+        <v>3.96</v>
       </c>
       <c r="K77" s="19" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -16547,7 +16841,7 @@
       </c>
       <c r="S77" s="14" t="str">
         <f t="shared" ca="1" si="33"/>
-        <v>SSD</v>
+        <v>SATA</v>
       </c>
       <c r="T77" s="14">
         <f t="shared" ca="1" si="33"/>
@@ -16566,9 +16860,180 @@
         <v>62</v>
       </c>
     </row>
+    <row r="78" spans="1:29">
+      <c r="C78" s="22" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>NV6</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="F78" s="13">
+        <f t="shared" ca="1" si="32"/>
+        <v>1.24</v>
+      </c>
+      <c r="H78" s="13"/>
+      <c r="K78" s="19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>USD</v>
+      </c>
+      <c r="L78" s="14">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.24960000000000002</v>
+      </c>
+      <c r="M78" s="14">
+        <f t="shared" ca="1" si="22"/>
+        <v>9.65</v>
+      </c>
+      <c r="N78" s="14" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>M60</v>
+      </c>
+      <c r="O78" s="14">
+        <f t="shared" ca="1" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="P78" s="61" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>Xeon E5-2690v3</v>
+      </c>
+      <c r="Q78" s="14">
+        <f t="shared" ca="1" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="R78" s="14">
+        <f t="shared" ca="1" si="33"/>
+        <v>56</v>
+      </c>
+      <c r="S78" s="14" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>SATA</v>
+      </c>
+      <c r="T78" s="14">
+        <f t="shared" ca="1" si="33"/>
+        <v>340</v>
+      </c>
+      <c r="AC78" s="45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29">
+      <c r="C79" s="22" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>NV12</v>
+      </c>
+      <c r="E79" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="F79" s="13">
+        <f t="shared" ca="1" si="32"/>
+        <v>2.48</v>
+      </c>
+      <c r="H79" s="13"/>
+      <c r="K79" s="19" t="str">
+        <f t="shared" ref="K79:K80" ca="1" si="35">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
+        <v>USD</v>
+      </c>
+      <c r="L79" s="14">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.49920000000000003</v>
+      </c>
+      <c r="M79" s="14">
+        <f t="shared" ca="1" si="22"/>
+        <v>19.3</v>
+      </c>
+      <c r="N79" s="14" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>M60</v>
+      </c>
+      <c r="O79" s="14">
+        <f t="shared" ca="1" si="33"/>
+        <v>2</v>
+      </c>
+      <c r="P79" s="61" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>Xeon E5-2690v3</v>
+      </c>
+      <c r="Q79" s="14">
+        <f t="shared" ca="1" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="R79" s="14">
+        <f t="shared" ca="1" si="33"/>
+        <v>112</v>
+      </c>
+      <c r="S79" s="14" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>SATA</v>
+      </c>
+      <c r="T79" s="14">
+        <f t="shared" ca="1" si="33"/>
+        <v>680</v>
+      </c>
+      <c r="AC79" s="45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29">
+      <c r="C80" s="22" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>NV24</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="F80" s="13">
+        <f t="shared" ca="1" si="32"/>
+        <v>4.97</v>
+      </c>
+      <c r="H80" s="13"/>
+      <c r="K80" s="19" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>USD</v>
+      </c>
+      <c r="L80" s="14">
+        <f t="shared" ca="1" si="21"/>
+        <v>0.99840000000000007</v>
+      </c>
+      <c r="M80" s="14">
+        <f t="shared" ca="1" si="22"/>
+        <v>38.6</v>
+      </c>
+      <c r="N80" s="14" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>M60</v>
+      </c>
+      <c r="O80" s="14">
+        <f t="shared" ca="1" si="33"/>
+        <v>4</v>
+      </c>
+      <c r="P80" s="61" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>Xeon E5-2690v3</v>
+      </c>
+      <c r="Q80" s="14">
+        <f t="shared" ca="1" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="R80" s="14">
+        <f t="shared" ca="1" si="33"/>
+        <v>224</v>
+      </c>
+      <c r="S80" s="14" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v>SATA</v>
+      </c>
+      <c r="T80" s="14">
+        <f t="shared" ca="1" si="33"/>
+        <v>1440</v>
+      </c>
+      <c r="AC80" s="45">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="I23:J23 I25:J25 I27:J27 I29:J29 S13:S15 E23:G23 E18:J22 D26:D41 E17:F17 D10:D24 D3:D8 C3:C21 E7:G7 E9:J16 E4:J6 N16:O16 L30:O31 E3:O3 L4:O15 M16:M17 L16:L29 M18:O29 E8:H8 J8 H58:H60 L50:S69 T53:Y69 K75:T77 L74:V74 W74:Y77 I66:I73 K56:K74 L70:Y73 F25:G29 E34:E36 H22:H30 F30:I30 I31 F36:G36 I36 E39:G40 I39:I40 E38 F31:G31 F32:I35 F37:I37 K4:K43 M32:O49 C30:C40">
+  <conditionalFormatting sqref="I23:J23 I25:J25 I27:J27 I29:J29 S13:S15 E23:G23 E18:J22 D26:D41 E17:F17 D10:D24 D3:D8 C3:C21 E7:G7 E9:J16 E4:J6 N16:O16 L30:O31 E3:O3 L4:O15 M16:M17 L16:L29 M18:O29 E8:H8 J8 H58:H60 L50:S69 T53:Y69 L74:V74 W74:Y77 I66:I73 K56:K74 L70:Y73 F25:G29 E34:E36 H22:H30 F30:I30 I31 F36:G36 I36 E39:G40 I39:I40 E38 F31:G31 F32:I35 F37:I37 K4:K43 M32:O49 C30:C40 K75:T80">
     <cfRule type="expression" dxfId="50" priority="119">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>

--- a/Comparison table updated 3.xlsx
+++ b/Comparison table updated 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="48820" windowHeight="21580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="48820" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <author>Peter Bryzgalov</author>
   </authors>
   <commentList>
-    <comment ref="Q4" authorId="0">
+    <comment ref="C5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,8 +47,34 @@
             <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
-Performance data based on Microway data:
-https://www.microway.com/knowledge-center-articles/detailed-specifications-of-the-intel-xeon-e5-2600v4-broadwell-ep-processors/</t>
+http://images.nvidia.com/content/pdf/kepler/Tesla-K80-BoardSpec-07317-001-v05.pdf</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Peter Bryzgalov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+https://en.wikichip.org/wiki/intel/xeon_e5/e5-2686_v4
+vCPU is considered to have performance of 1 hyperthread (1/36 of 1 CPU or 1/2 of 1 core).</t>
         </r>
       </text>
     </comment>
@@ -74,34 +100,7 @@
             <charset val="128"/>
           </rPr>
           <t xml:space="preserve">
-virtual CPUs
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t>Peter Bryzgalov:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-This is approx. performance of Xeon E5-2690 v4 with 18 cores.
+1 virtual CPUs is 1/36 of 1 CPU
 </t>
         </r>
       </text>
@@ -674,7 +673,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="350">
   <si>
     <t>Cloud server providers with GPU</t>
     <phoneticPr fontId="2"/>
@@ -1066,18 +1065,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>AZ p2 K80x16 h.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AZ p2 K80x16 y.0Up</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AZ p2 K80x16 y.100Up</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>AZ p2.16xl-</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1361,684 +1348,701 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>Xeon E5-2609 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2630 v4</t>
+  </si>
+  <si>
+    <t>SSD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>setup price</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>This is the average monthly payment over the course of the Dedicated Host Reservation term. For each month, the actual monthly payment will equal the actual number of hours in that month multiplied by the hourly usage rate. The hourly usage rate is equivalent to the total average monthly payments over the term divided by the total number of hours (based on a 365 day year) over the term.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Setup price</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Currency</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Internal/External</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GPU performance (TFlops SP)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JPY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EUR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SL M60x1 2690v3 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SL K80x1 2690v3 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x2 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x2 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x2 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x8 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x8 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x8 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x Tesla P100</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>40/1</t>
+  </si>
+  <si>
+    <t>1 x Tesla P100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x Tesla P100 NVLink</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4 x Tesla P100 NVLink</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8 x Tesla P100 NVLink</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x FirePro S9300x2</t>
+  </si>
+  <si>
+    <t>2 x 4096</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x 4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x 512</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2609 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SSD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x1 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x1 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT S9300x2 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FirePro S9300x2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT S9300x2 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 NVL min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 NVL m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x4 NVL m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x8 NVL m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 NVL w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT S9300x2 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x1 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The University of Tokyo</t>
+  </si>
+  <si>
+    <t>Reedbush-H Personal (educational)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2630 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Xeon E5-2695v4 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PFS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>per hour</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>per week</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>per month (30 days)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>per year</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU personal</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS Azure</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NC12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NC24</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NC24r</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>K80</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/en-us/pricing/details/virtual-machines/linux/</t>
+  </si>
+  <si>
+    <t>NC6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2690v3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RDMA capable</t>
+  </si>
+  <si>
+    <t>Infiniband</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NC6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NC12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 GPU in specification is 1/2 of K80 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x Titan X</t>
+  </si>
+  <si>
+    <t>4 x Titan X</t>
+  </si>
+  <si>
+    <t>8 x Titan X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TITAN X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GeForce GTX Titan X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2609 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NC25r</t>
+  </si>
+  <si>
+    <t>MS NC24</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.leadergpu.com</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx2 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx2 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx4 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx4 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx8 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx8 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nodes*hours limit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Max hours</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.cc.u-tokyo.ac.jp/support/application/kitei/hyou5.pdf</t>
+  </si>
+  <si>
+    <t>Max 2 nodes. Included (17280/2.5=)6912 node hours if 1 node is used, 3456 node hours if more than 1 node is used by a parallel job.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Included 13824 node hours if 1 node is used, 6912 node hours if 2-4 nodes are used by a parallel job.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Included 8640 node hours. 4320 node hours if a parallel job used more nodes than applied for.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H (educational)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H reviewed (educational)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H reviewed</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU gen edu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU rev</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU rev edu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Limited quantity available at this price</t>
+  </si>
+  <si>
+    <t>8-GPU x86 P40</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8-GPU x86 P100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8-GPU x86 Quadro P6000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4-GPU x86 P40</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4-GPU x86 P100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4-GPU x86 Quadro P6000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Quadro P600</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-1650 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4-GPU POWER8/10 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4-GPU POWER8/8 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2-GPU POWER8/8 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P40x4 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P40x4 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x4 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x4 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P6000x4 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P6000x4 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P6000x8 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P6000x8 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>16-GPU x86 K80 ltd.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8-GPU x86 M40 ltd.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR K80x8 x86 ltd m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR K80x8 x86 ltd w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR M40x8 ltd x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR M40x8 ltd x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LeaderTelecom</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4 x GeForce GTX 1080 ltd.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x4 ltd w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x4 ltd min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x4 ltd m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NV6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NV12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NV24</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M60</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://venturebeat.com/2016/08/04/microsoft-azure-releases-n-series-gpu-instances-in-preview/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/en-us/pricing/details/virtual-machines/linux/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SATA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NV6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NV12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NV24</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.cc.u-tokyo.ac.jp/system/reedbush/reedbush_intro.html</t>
+  </si>
+  <si>
+    <t>http://www.cc.u-tokyo.ac.jp/system/reedbush/reedbush_intro.html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SP Flops/sycle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DP FLOPs/cycle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Perf. Tflops (SP)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPU performance (Tflops SP)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AH</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www-01.ibm.com/common/ssi/cgi-bin/ssialias?htmlfid=POD03117USEN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>www.nimbix.net/nimbix-cloud-demand-pricing</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x 12.3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AZ p2 dedicated h.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AZ p2 dedicated y.0Up</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AZ p2 dedicated y.100Up</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>https://en.wikichip.org/wiki/intel/xeon_e5/e5-2686_v4</t>
-  </si>
-  <si>
-    <t>Xeon E5-2609 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2630 v4</t>
-  </si>
-  <si>
-    <t>SSD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Currency</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>USD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>setup price</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/pricing/on-demand/?refid=em_22240</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>This is the average monthly payment over the course of the Dedicated Host Reservation term. For each month, the actual monthly payment will equal the actual number of hours in that month multiplied by the hourly usage rate. The hourly usage rate is equivalent to the total average monthly payments over the term divided by the total number of hours (based on a 365 day year) over the term.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Setup price</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Currency</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Internal/External</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GPU performance (TFlops SP)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>JPY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>EUR</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/dedicated-hosts/pricing/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SL M60x1 2690v3 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SL K80x1 2690v3 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Included internet traffic (monthly based payments): 10 Tb/month. Included internet traffic (weekly based payments): 2.5 Tb/week. Included internet traffic (minute/hourly based payments): 0 Gb. Additional 1Gb (not included): 0,09 &amp;euro;/Gb.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x2 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x2 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x2 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x8 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x8 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x8 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x Tesla P100</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>40/1</t>
-  </si>
-  <si>
-    <t>1 x Tesla P100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x Tesla P100 NVLink</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4 x Tesla P100 NVLink</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8 x Tesla P100 NVLink</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x FirePro S9300x2</t>
-  </si>
-  <si>
-    <t>2 x 4096</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x 4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x 512</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2609 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SSD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x1 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x1 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT S9300x2 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FirePro S9300x2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT S9300x2 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 NVL min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 NVL m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x4 NVL m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x8 NVL m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 NVL w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT S9300x2 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x1 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>The University of Tokyo</t>
-  </si>
-  <si>
-    <t>Reedbush-H Personal (educational)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2630 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Xeon E5-2695v4 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>P100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PFS</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>per hour</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>per week</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>per month (30 days)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>per year</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TU personal</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MS Azure</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NC12</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NC24</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NC24r</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>K80</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>USD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://azure.microsoft.com/en-us/pricing/details/virtual-machines/linux/</t>
-  </si>
-  <si>
-    <t>NC6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2690v3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RDMA capable</t>
-  </si>
-  <si>
-    <t>Infiniband</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MS NC6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MS NC12</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 GPU in specification is 1/2 of K80 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x Titan X</t>
-  </si>
-  <si>
-    <t>4 x Titan X</t>
-  </si>
-  <si>
-    <t>8 x Titan X</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TITAN X</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GeForce GTX Titan X</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2609 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MS NC25r</t>
-  </si>
-  <si>
-    <t>MS NC24</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://www.leadergpu.com</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTXTXx2 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTXTXx2 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTXTXx4 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTXTXx4 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTXTXx8 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTXTXx8 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nodes*hours limit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Max hours</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.cc.u-tokyo.ac.jp/support/application/kitei/hyou5.pdf</t>
-  </si>
-  <si>
-    <t>Max 2 nodes. Included (17280/2.5=)6912 node hours if 1 node is used, 3456 node hours if more than 1 node is used by a parallel job.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Included 13824 node hours if 1 node is used, 6912 node hours if 2-4 nodes are used by a parallel job.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Included 8640 node hours. 4320 node hours if a parallel job used more nodes than applied for.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H (educational)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H reviewed (educational)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H reviewed</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TU gen edu</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TU rev</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TU rev edu</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Limited quantity available at this price</t>
-  </si>
-  <si>
-    <t>8-GPU x86 P40</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8-GPU x86 P100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8-GPU x86 Quadro P6000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4-GPU x86 P40</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4-GPU x86 P100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4-GPU x86 Quadro P6000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Quadro P600</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-1650 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4-GPU POWER8/10 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4-GPU POWER8/8 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2-GPU POWER8/8 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P40x4 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P40x4 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x4 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x4 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P6000x4 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P6000x4 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P6000x8 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P6000x8 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>16-GPU x86 K80 ltd.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8-GPU x86 M40 ltd.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR K80x8 x86 ltd m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR K80x8 x86 ltd w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR M40x8 ltd x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR M40x8 ltd x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LeaderTelecom</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4 x GeForce GTX 1080 ltd.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x4 ltd w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x4 ltd min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x4 ltd m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NV6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NV12</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NV24</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>M60</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://venturebeat.com/2016/08/04/microsoft-azure-releases-n-series-gpu-instances-in-preview/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://azure.microsoft.com/en-us/pricing/details/virtual-machines/linux/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SATA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MS NV6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MS NV12</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MS NV24</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.cc.u-tokyo.ac.jp/system/reedbush/reedbush_intro.html</t>
-  </si>
-  <si>
-    <t>http://www.cc.u-tokyo.ac.jp/system/reedbush/reedbush_intro.html</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SP Flops/sycle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DP FLOPs/cycle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Perf. Tflops (SP)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Q</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CPU performance (Tflops SP)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>W</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AG</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AH</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Z</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://www-01.ibm.com/common/ssi/cgi-bin/ssialias?htmlfid=POD03117USEN</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>www.nimbix.net/nimbix-cloud-demand-pricing</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/instance-types/</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3983,7 +3987,18 @@
     <cellStyle name="Style 1" xfId="55"/>
     <cellStyle name="Title" xfId="340" builtinId="15" hidden="1"/>
   </cellStyles>
-  <dxfs count="83">
+  <dxfs count="84">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -5194,11 +5209,11 @@
   </sheetPr>
   <dimension ref="A1:FG65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -5214,7 +5229,7 @@
     <col min="9" max="9" width="18.33203125" customWidth="1"/>
     <col min="10" max="10" width="7.33203125" style="12" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="3.83203125" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" customWidth="1"/>
     <col min="13" max="13" width="8.5" customWidth="1"/>
     <col min="14" max="14" width="5.6640625" style="12" customWidth="1"/>
     <col min="15" max="16" width="14.5" style="12" customWidth="1"/>
@@ -5295,7 +5310,7 @@
       <c r="AE3" s="60"/>
       <c r="AF3" s="60"/>
       <c r="AG3" s="16" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AH3" s="1" t="s">
         <v>32</v>
@@ -5467,16 +5482,16 @@
         <v>6</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="R4" s="16" t="s">
         <v>10</v>
@@ -5497,31 +5512,31 @@
         <v>9</v>
       </c>
       <c r="X4" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Y4" s="16" t="s">
         <v>13</v>
       </c>
       <c r="Z4" s="16" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AA4" s="16" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AB4" s="24" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="AC4" s="16" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AD4" s="16" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AE4" s="16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AF4" s="16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AH4" s="16"/>
     </row>
@@ -5536,7 +5551,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="13">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>17</v>
@@ -5548,7 +5563,7 @@
         <v>2.91</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>36</v>
+        <v>344</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>21</v>
@@ -5558,7 +5573,8 @@
         <v>63</v>
       </c>
       <c r="L5" s="13">
-        <v>64</v>
+        <f>1/36*64</f>
+        <v>1.7777777777777777</v>
       </c>
       <c r="M5" s="13">
         <v>18</v>
@@ -5573,8 +5589,8 @@
         <v>32</v>
       </c>
       <c r="Q5" s="13">
-        <f>M5*N5*P5/1000/36</f>
-        <v>3.6799999999999999E-2</v>
+        <f t="shared" ref="Q5:Q7" si="0">M5*N5*P5/1000</f>
+        <v>1.3248</v>
       </c>
       <c r="R5" s="13"/>
       <c r="S5" s="13">
@@ -5595,16 +5611,16 @@
       <c r="AD5" s="10"/>
       <c r="AE5" s="10"/>
       <c r="AF5" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG5" s="15"/>
       <c r="AH5" s="15" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:163">
       <c r="A6" s="14" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>45</v>
@@ -5613,7 +5629,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>17</v>
@@ -5635,7 +5651,8 @@
         <v>22</v>
       </c>
       <c r="L6" s="13">
-        <v>32</v>
+        <f>1/36*32</f>
+        <v>0.88888888888888884</v>
       </c>
       <c r="M6" s="5">
         <v>18</v>
@@ -5650,8 +5667,8 @@
         <v>32</v>
       </c>
       <c r="Q6" s="13">
-        <f t="shared" ref="Q6:Q7" si="0">M6*N6*P6/1000/36</f>
-        <v>3.6799999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.3248</v>
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5">
@@ -5672,11 +5689,11 @@
       <c r="AD6" s="10"/>
       <c r="AE6" s="10"/>
       <c r="AF6" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG6" s="15"/>
       <c r="AH6" s="15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:163">
@@ -5690,7 +5707,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>17</v>
@@ -5712,7 +5729,8 @@
         <v>22</v>
       </c>
       <c r="L7" s="13">
-        <v>4</v>
+        <f>1/36*4</f>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M7" s="5">
         <v>18</v>
@@ -5728,7 +5746,7 @@
       </c>
       <c r="Q7" s="13">
         <f t="shared" si="0"/>
-        <v>3.6799999999999999E-2</v>
+        <v>1.3248</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5">
@@ -5749,16 +5767,16 @@
       <c r="AD7" s="10"/>
       <c r="AE7" s="10"/>
       <c r="AF7" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:163">
       <c r="A8" s="15" t="s">
-        <v>175</v>
+        <v>348</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>80</v>
@@ -5767,7 +5785,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>17</v>
@@ -5824,19 +5842,22 @@
       <c r="AD8" s="10"/>
       <c r="AE8" s="10"/>
       <c r="AF8" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG8" s="15"/>
     </row>
     <row r="9" spans="1:163">
+      <c r="A9" s="15" t="s">
+        <v>349</v>
+      </c>
       <c r="B9" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>17</v>
@@ -5893,23 +5914,23 @@
       <c r="AD9" s="23"/>
       <c r="AE9" s="23"/>
       <c r="AF9" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG9" s="15"/>
       <c r="AH9" s="15" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:163">
       <c r="A10" s="15"/>
       <c r="B10" s="21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>81</v>
@@ -5965,20 +5986,20 @@
         <v>88389</v>
       </c>
       <c r="AF10" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG10" s="15"/>
     </row>
     <row r="11" spans="1:163">
       <c r="A11" s="15"/>
       <c r="B11" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>84</v>
@@ -6034,7 +6055,7 @@
         <v>184780</v>
       </c>
       <c r="AF11" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG11" s="15"/>
     </row>
@@ -6077,7 +6098,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>28</v>
@@ -6159,11 +6180,11 @@
       <c r="AD13" s="10"/>
       <c r="AE13" s="10"/>
       <c r="AF13" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG13" s="15"/>
       <c r="AH13" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:163">
@@ -6171,7 +6192,7 @@
         <v>99</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>51</v>
@@ -6250,17 +6271,17 @@
       <c r="AD14" s="23"/>
       <c r="AE14" s="23"/>
       <c r="AF14" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG14" s="15"/>
       <c r="AH14" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:163">
       <c r="A15" s="15"/>
       <c r="B15" s="21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>68</v>
@@ -6339,11 +6360,11 @@
       <c r="AD15" s="23"/>
       <c r="AE15" s="23"/>
       <c r="AF15" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG15" s="15"/>
       <c r="AH15" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:163">
@@ -6385,10 +6406,10 @@
         <v>41</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D17" s="25">
         <v>2</v>
@@ -6461,7 +6482,7 @@
       <c r="AD17" s="36"/>
       <c r="AE17" s="36"/>
       <c r="AF17" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG17" s="15"/>
       <c r="AH17" s="15" t="s">
@@ -6470,7 +6491,7 @@
     </row>
     <row r="18" spans="1:163" s="12" customFormat="1">
       <c r="A18" s="15" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>43</v>
@@ -6482,7 +6503,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F18" s="9">
         <v>8.74</v>
@@ -6491,7 +6512,7 @@
         <v>2.91</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>21</v>
@@ -6549,7 +6570,7 @@
       <c r="AD18" s="10"/>
       <c r="AE18" s="10"/>
       <c r="AF18" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG18" s="15"/>
       <c r="AH18" s="15" t="s">
@@ -6559,10 +6580,10 @@
     <row r="19" spans="1:163" s="12" customFormat="1" ht="20">
       <c r="A19" s="32"/>
       <c r="B19" s="21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D19" s="5">
         <v>4</v>
@@ -6635,7 +6656,7 @@
       <c r="AD19" s="10"/>
       <c r="AE19" s="10"/>
       <c r="AF19" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG19" s="15"/>
       <c r="AH19" s="15" t="s">
@@ -6771,7 +6792,7 @@
     <row r="20" spans="1:163" s="12" customFormat="1" ht="20">
       <c r="A20" s="32"/>
       <c r="B20" s="21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>34</v>
@@ -6840,7 +6861,7 @@
       <c r="AD20" s="23"/>
       <c r="AE20" s="23"/>
       <c r="AF20" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG20" s="15"/>
       <c r="AH20" s="15"/>
@@ -6976,7 +6997,7 @@
         <v>87</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>34</v>
@@ -7045,13 +7066,13 @@
       <c r="AD21" s="23"/>
       <c r="AE21" s="23"/>
       <c r="AF21" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG21" s="15"/>
     </row>
     <row r="22" spans="1:163">
       <c r="A22" s="15" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="27"/>
@@ -7086,7 +7107,7 @@
       <c r="AD22" s="23"/>
       <c r="AE22" s="23"/>
       <c r="AF22" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG22" s="15"/>
     </row>
@@ -7123,7 +7144,7 @@
       <c r="AD23" s="23"/>
       <c r="AE23" s="23"/>
       <c r="AF23" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG23" s="15"/>
     </row>
@@ -7164,7 +7185,7 @@
         <v>42</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>16</v>
@@ -7244,11 +7265,11 @@
       <c r="AD25" s="23"/>
       <c r="AE25" s="23"/>
       <c r="AF25" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG25" s="15"/>
       <c r="AH25" s="15" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:163">
@@ -7256,7 +7277,7 @@
         <v>59</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>40</v>
@@ -7336,17 +7357,17 @@
       <c r="AD26" s="23"/>
       <c r="AE26" s="23"/>
       <c r="AF26" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG26" s="15"/>
       <c r="AH26" s="15" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:163" s="12" customFormat="1">
       <c r="A27" s="2"/>
       <c r="B27" s="21" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C27" s="27" t="s">
         <v>90</v>
@@ -7426,7 +7447,7 @@
       <c r="AD27" s="23"/>
       <c r="AE27" s="23"/>
       <c r="AF27" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG27" s="15"/>
       <c r="AH27" s="15"/>
@@ -7434,7 +7455,7 @@
     <row r="28" spans="1:163" s="12" customFormat="1">
       <c r="A28" s="2"/>
       <c r="B28" s="21" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C28" s="27" t="s">
         <v>91</v>
@@ -7459,7 +7480,7 @@
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L28" s="5">
         <v>2</v>
@@ -7514,7 +7535,7 @@
       <c r="AD28" s="23"/>
       <c r="AE28" s="23"/>
       <c r="AF28" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG28" s="15"/>
       <c r="AH28" s="15"/>
@@ -7522,10 +7543,10 @@
     <row r="29" spans="1:163" s="12" customFormat="1">
       <c r="A29" s="2"/>
       <c r="B29" s="21" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D29" s="12">
         <v>8</v>
@@ -7547,7 +7568,7 @@
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L29" s="5">
         <v>2</v>
@@ -7599,7 +7620,7 @@
       <c r="AD29" s="23"/>
       <c r="AE29" s="23"/>
       <c r="AF29" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG29" s="15"/>
       <c r="AH29" s="15"/>
@@ -7607,7 +7628,7 @@
     <row r="30" spans="1:163" s="12" customFormat="1">
       <c r="A30" s="2"/>
       <c r="B30" s="21" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>90</v>
@@ -7632,7 +7653,7 @@
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="8" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L30" s="5">
         <v>1</v>
@@ -7684,7 +7705,7 @@
       <c r="AD30" s="23"/>
       <c r="AE30" s="23"/>
       <c r="AF30" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG30" s="15"/>
       <c r="AH30" s="15"/>
@@ -7692,7 +7713,7 @@
     <row r="31" spans="1:163" s="12" customFormat="1">
       <c r="A31" s="2"/>
       <c r="B31" s="21" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>34</v>
@@ -7717,7 +7738,7 @@
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="8" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L31" s="5">
         <v>1</v>
@@ -7769,7 +7790,7 @@
       <c r="AD31" s="23"/>
       <c r="AE31" s="23"/>
       <c r="AF31" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG31" s="15"/>
       <c r="AH31" s="15"/>
@@ -7777,10 +7798,10 @@
     <row r="32" spans="1:163" s="12" customFormat="1">
       <c r="A32" s="2"/>
       <c r="B32" s="21" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D32" s="12">
         <v>4</v>
@@ -7802,7 +7823,7 @@
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="8" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L32" s="5">
         <v>1</v>
@@ -7854,14 +7875,14 @@
       <c r="AD32" s="23"/>
       <c r="AE32" s="23"/>
       <c r="AF32" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG32" s="15"/>
       <c r="AH32" s="15"/>
     </row>
     <row r="33" spans="1:163">
       <c r="B33" s="21" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>75</v>
@@ -7944,7 +7965,7 @@
       <c r="AD33" s="23"/>
       <c r="AE33" s="23"/>
       <c r="AF33" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG33" s="15"/>
       <c r="AH33" s="15" t="s">
@@ -7953,7 +7974,7 @@
     </row>
     <row r="34" spans="1:163">
       <c r="B34" s="21" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>76</v>
@@ -8031,17 +8052,17 @@
       <c r="AD34" s="23"/>
       <c r="AE34" s="23"/>
       <c r="AF34" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG34" s="15"/>
     </row>
     <row r="35" spans="1:163" s="12" customFormat="1">
       <c r="A35" s="38"/>
       <c r="B35" s="39" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D35" s="41">
         <v>2</v>
@@ -8116,7 +8137,7 @@
       <c r="AD35" s="42"/>
       <c r="AE35" s="42"/>
       <c r="AF35" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG35" s="15"/>
       <c r="AH35" s="15"/>
@@ -8278,7 +8299,7 @@
       <c r="AD36" s="23"/>
       <c r="AE36" s="23"/>
       <c r="AF36" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG36" s="15"/>
     </row>
@@ -8290,7 +8311,7 @@
         <v>48</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D37" s="27">
         <v>4</v>
@@ -8369,7 +8390,7 @@
         <v>815000</v>
       </c>
       <c r="AF37" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AG37" s="15"/>
     </row>
@@ -8378,7 +8399,7 @@
         <v>60</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>90</v>
@@ -8460,16 +8481,16 @@
         <v>875000</v>
       </c>
       <c r="AF38" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AG38" s="15"/>
     </row>
     <row r="39" spans="1:163">
       <c r="B39" s="21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D39" s="13">
         <v>1</v>
@@ -8546,7 +8567,7 @@
         <v>895000</v>
       </c>
       <c r="AF39" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AG39" s="15"/>
     </row>
@@ -8580,13 +8601,13 @@
     </row>
     <row r="41" spans="1:163" ht="23" customHeight="1">
       <c r="A41" s="20" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D41" s="13">
         <v>2</v>
@@ -8608,7 +8629,7 @@
       </c>
       <c r="J41" s="27"/>
       <c r="K41" s="27" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L41" s="27">
         <v>2</v>
@@ -8636,7 +8657,7 @@
         <v>32</v>
       </c>
       <c r="T41" s="27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="U41" s="27">
         <v>480</v>
@@ -8664,22 +8685,22 @@
         <v>364.45</v>
       </c>
       <c r="AF41" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AG41" s="15"/>
       <c r="AH41" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:163" ht="24" customHeight="1">
       <c r="A42" s="15" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D42" s="13">
         <v>4</v>
@@ -8701,7 +8722,7 @@
       </c>
       <c r="J42" s="27"/>
       <c r="K42" s="27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L42" s="27">
         <v>2</v>
@@ -8729,7 +8750,7 @@
         <v>64</v>
       </c>
       <c r="T42" s="27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="U42" s="27">
         <v>480</v>
@@ -8757,19 +8778,19 @@
         <v>699</v>
       </c>
       <c r="AF42" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AG42" s="15"/>
       <c r="AH42" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:163" ht="28" customHeight="1">
       <c r="B43" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="27" t="s">
         <v>169</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>172</v>
       </c>
       <c r="D43" s="13">
         <v>8</v>
@@ -8791,7 +8812,7 @@
       </c>
       <c r="J43" s="27"/>
       <c r="K43" s="27" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L43" s="27">
         <v>2</v>
@@ -8819,7 +8840,7 @@
         <v>128</v>
       </c>
       <c r="T43" s="27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="U43" s="27">
         <v>960</v>
@@ -8846,20 +8867,20 @@
         <v>2017</v>
       </c>
       <c r="AF43" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AG43" s="15"/>
       <c r="AH43" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:163" s="12" customFormat="1" ht="28" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="39" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D44" s="13">
         <v>1</v>
@@ -8881,7 +8902,7 @@
       </c>
       <c r="J44" s="40"/>
       <c r="K44" s="40" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L44" s="40">
         <v>2</v>
@@ -8909,7 +8930,7 @@
         <v>32</v>
       </c>
       <c r="T44" s="40" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="U44" s="40">
         <v>480</v>
@@ -8923,7 +8944,7 @@
         <v>1</v>
       </c>
       <c r="Z44" s="13" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AA44" s="49">
         <v>3.6</v>
@@ -8935,20 +8956,20 @@
         <v>1288.7</v>
       </c>
       <c r="AF44" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AG44" s="15"/>
       <c r="AH44" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:163" s="12" customFormat="1" ht="28" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="39" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C45" s="54" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D45" s="13">
         <v>2</v>
@@ -8970,7 +8991,7 @@
       </c>
       <c r="J45" s="40"/>
       <c r="K45" s="40" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L45" s="40">
         <v>2</v>
@@ -8998,7 +9019,7 @@
         <v>32</v>
       </c>
       <c r="T45" s="40" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="U45" s="40">
         <v>480</v>
@@ -9012,7 +9033,7 @@
         <v>1</v>
       </c>
       <c r="Z45" s="13" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AA45" s="49">
         <v>4.8</v>
@@ -9024,19 +9045,19 @@
         <v>1758.7</v>
       </c>
       <c r="AF45" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AG45" s="15"/>
       <c r="AH45" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:163">
       <c r="B46" s="21" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C46" s="54" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D46" s="13">
         <v>2</v>
@@ -9060,7 +9081,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="27" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L46" s="27">
         <v>2</v>
@@ -9088,7 +9109,7 @@
         <v>64</v>
       </c>
       <c r="T46" s="27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="U46" s="27">
         <v>960</v>
@@ -9115,19 +9136,19 @@
         <v>3145</v>
       </c>
       <c r="AF46" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AG46" s="15"/>
       <c r="AH46" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:163">
       <c r="B47" s="21" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C47" s="54" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D47" s="13">
         <v>4</v>
@@ -9151,7 +9172,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="27" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L47" s="27">
         <v>2</v>
@@ -9179,7 +9200,7 @@
         <v>64</v>
       </c>
       <c r="T47" s="27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="U47" s="27">
         <v>1000</v>
@@ -9202,19 +9223,19 @@
         <v>4362</v>
       </c>
       <c r="AF47" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AG47" s="15"/>
       <c r="AH47" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:163">
       <c r="B48" s="21" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C48" s="54" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D48" s="13">
         <v>8</v>
@@ -9238,7 +9259,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L48" s="27">
         <v>2</v>
@@ -9266,7 +9287,7 @@
         <v>128</v>
       </c>
       <c r="T48" s="27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="U48" s="27">
         <v>1000</v>
@@ -9289,20 +9310,20 @@
         <v>7133</v>
       </c>
       <c r="AF48" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AG48" s="15"/>
       <c r="AH48" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:34" s="12" customFormat="1">
       <c r="A49" s="2"/>
       <c r="B49" s="56" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D49" s="13">
         <v>2</v>
@@ -9324,7 +9345,7 @@
       </c>
       <c r="J49" s="27"/>
       <c r="K49" s="27" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L49" s="27">
         <v>2</v>
@@ -9352,7 +9373,7 @@
         <v>32</v>
       </c>
       <c r="T49" s="27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="U49" s="27">
         <v>480</v>
@@ -9378,20 +9399,20 @@
         <v>1492.7</v>
       </c>
       <c r="AF49" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AG49" s="15"/>
       <c r="AH49" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:34" s="12" customFormat="1">
       <c r="A50" s="2"/>
       <c r="B50" s="56" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D50" s="13">
         <v>4</v>
@@ -9413,7 +9434,7 @@
       </c>
       <c r="J50" s="27"/>
       <c r="K50" s="27" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L50" s="27">
         <v>2</v>
@@ -9441,7 +9462,7 @@
         <v>64</v>
       </c>
       <c r="T50" s="27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="U50" s="27">
         <v>480</v>
@@ -9467,20 +9488,20 @@
         <v>2131.4</v>
       </c>
       <c r="AF50" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AG50" s="15"/>
       <c r="AH50" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:34" s="12" customFormat="1">
       <c r="A51" s="2"/>
       <c r="B51" s="56" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D51" s="13">
         <v>8</v>
@@ -9502,7 +9523,7 @@
       </c>
       <c r="J51" s="27"/>
       <c r="K51" s="27" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L51" s="27">
         <v>2</v>
@@ -9530,7 +9551,7 @@
         <v>128</v>
       </c>
       <c r="T51" s="27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="U51" s="27">
         <v>960</v>
@@ -9556,25 +9577,25 @@
         <v>3408.81</v>
       </c>
       <c r="AF51" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AG51" s="15"/>
       <c r="AH51" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:34">
       <c r="B52" s="21" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C52" s="54" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D52" s="13">
         <v>2</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F52" s="13">
         <v>13.9</v>
@@ -9583,14 +9604,14 @@
         <v>0.86799999999999999</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J52" s="13"/>
       <c r="K52" s="54" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L52" s="13">
         <v>2</v>
@@ -9618,7 +9639,7 @@
         <v>32</v>
       </c>
       <c r="T52" s="54" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="U52" s="13">
         <v>480</v>
@@ -9645,11 +9666,11 @@
         <v>1630.18</v>
       </c>
       <c r="AF52" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AG52" s="15"/>
       <c r="AH52" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:34">
@@ -9657,13 +9678,13 @@
     </row>
     <row r="54" spans="1:34" ht="20">
       <c r="A54" s="20" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C54" s="54" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D54" s="13">
         <v>2</v>
@@ -9687,7 +9708,7 @@
         <v>1</v>
       </c>
       <c r="K54" s="54" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L54" s="13">
         <v>2</v>
@@ -9715,7 +9736,7 @@
         <v>256</v>
       </c>
       <c r="T54" s="54" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="U54" s="13">
         <v>1000</v>
@@ -9734,25 +9755,25 @@
         <v>138888.88888888888</v>
       </c>
       <c r="AF54" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AG54" s="15">
         <f>17280/2.5</f>
         <v>6912</v>
       </c>
       <c r="AH54" s="15" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:34">
       <c r="A55" s="15" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C55" s="54" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D55" s="13">
         <v>2</v>
@@ -9776,7 +9797,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="54" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L55" s="13">
         <v>2</v>
@@ -9804,7 +9825,7 @@
         <v>256</v>
       </c>
       <c r="T55" s="54" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="U55" s="13">
         <v>4000</v>
@@ -9823,22 +9844,22 @@
         <v>277777.77777777775</v>
       </c>
       <c r="AF55" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AG55" s="15">
         <f>34560/2.5</f>
         <v>13824</v>
       </c>
       <c r="AH55" s="15" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:34">
       <c r="B56" s="21" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C56" s="54" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D56" s="13">
         <v>2</v>
@@ -9862,7 +9883,7 @@
         <v>1</v>
       </c>
       <c r="K56" s="54" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L56" s="13">
         <v>2</v>
@@ -9890,7 +9911,7 @@
         <v>256</v>
       </c>
       <c r="T56" s="54" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="U56" s="13">
         <v>4000</v>
@@ -9907,22 +9928,22 @@
         <v>166666.66666666666</v>
       </c>
       <c r="AF56" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AG56" s="15">
         <f>21600/2.5</f>
         <v>8640</v>
       </c>
       <c r="AH56" s="59" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="1:34">
       <c r="B57" s="21" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C57" s="54" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D57" s="13">
         <v>2</v>
@@ -9946,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="54" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L57" s="13">
         <v>2</v>
@@ -9974,7 +9995,7 @@
         <v>256</v>
       </c>
       <c r="T57" s="54" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="U57" s="13">
         <v>4000</v>
@@ -9991,14 +10012,14 @@
         <v>200000</v>
       </c>
       <c r="AF57" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AG57" s="15">
         <f>21600/2.5</f>
         <v>8640</v>
       </c>
       <c r="AH57" s="59" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" spans="1:34">
@@ -10006,13 +10027,13 @@
     </row>
     <row r="59" spans="1:34" ht="20">
       <c r="A59" s="20" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C59" s="54" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D59" s="13">
         <v>0.5</v>
@@ -10034,7 +10055,7 @@
       </c>
       <c r="J59" s="13"/>
       <c r="K59" s="54" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L59" s="13">
         <v>1</v>
@@ -10062,7 +10083,7 @@
         <v>56</v>
       </c>
       <c r="T59" s="54" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="U59" s="13">
         <v>380</v>
@@ -10079,22 +10100,22 @@
       </c>
       <c r="AD59" s="55"/>
       <c r="AF59" s="15" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AG59" s="15"/>
       <c r="AH59" s="15" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:34">
       <c r="A60" s="15" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C60" s="54" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D60" s="13">
         <v>1</v>
@@ -10116,7 +10137,7 @@
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="54" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L60" s="13">
         <v>1</v>
@@ -10144,7 +10165,7 @@
         <v>112</v>
       </c>
       <c r="T60" s="54" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="U60" s="13">
         <v>680</v>
@@ -10161,19 +10182,19 @@
       </c>
       <c r="AD60" s="55"/>
       <c r="AF60" s="15" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AG60" s="15"/>
     </row>
     <row r="61" spans="1:34">
       <c r="A61" s="15" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C61" s="54" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D61" s="13">
         <v>2</v>
@@ -10195,7 +10216,7 @@
       </c>
       <c r="J61" s="13"/>
       <c r="K61" s="54" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L61" s="13">
         <v>1</v>
@@ -10223,7 +10244,7 @@
         <v>224</v>
       </c>
       <c r="T61" s="54" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="U61" s="13">
         <v>1440</v>
@@ -10240,16 +10261,16 @@
       </c>
       <c r="AD61" s="55"/>
       <c r="AF61" s="15" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AG61" s="15"/>
     </row>
     <row r="62" spans="1:34">
       <c r="B62" s="21" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C62" s="54" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D62" s="13">
         <v>2</v>
@@ -10271,7 +10292,7 @@
       </c>
       <c r="J62" s="13"/>
       <c r="K62" s="54" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L62" s="13">
         <v>1</v>
@@ -10299,13 +10320,13 @@
         <v>224</v>
       </c>
       <c r="T62" s="54" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="U62" s="13">
         <v>1440</v>
       </c>
       <c r="X62" s="13" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="Y62" s="13"/>
       <c r="Z62" s="13" t="str">
@@ -10321,19 +10342,19 @@
       </c>
       <c r="AD62" s="55"/>
       <c r="AF62" s="15" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AG62" s="15"/>
       <c r="AH62" s="15" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:34">
       <c r="B63" s="21" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C63" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -10354,7 +10375,7 @@
         <v>71</v>
       </c>
       <c r="K63" s="54" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L63" s="13">
         <v>1</v>
@@ -10382,7 +10403,7 @@
         <v>56</v>
       </c>
       <c r="T63" s="54" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="U63">
         <v>340</v>
@@ -10391,15 +10412,15 @@
         <v>1.24</v>
       </c>
       <c r="AF63" s="15" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:34">
       <c r="B64" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -10420,7 +10441,7 @@
         <v>71</v>
       </c>
       <c r="K64" s="54" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L64" s="13">
         <v>1</v>
@@ -10448,7 +10469,7 @@
         <v>112</v>
       </c>
       <c r="T64" s="54" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="U64">
         <v>680</v>
@@ -10457,15 +10478,15 @@
         <v>2.48</v>
       </c>
       <c r="AF64" s="15" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="2:32">
       <c r="B65" s="21" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D65">
         <v>4</v>
@@ -10486,7 +10507,7 @@
         <v>71</v>
       </c>
       <c r="K65" s="54" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L65" s="13">
         <v>1</v>
@@ -10514,7 +10535,7 @@
         <v>224</v>
       </c>
       <c r="T65" s="54" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="U65">
         <v>1440</v>
@@ -10523,7 +10544,7 @@
         <v>4.97</v>
       </c>
       <c r="AF65" s="15" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -10607,28 +10628,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FH19:XFD20 FH35:XFD35 AA35 V34:Z35 U34 T34:T35 S34 R34:R35 AA39 A17 B18:I18 A21:J21 T21:W21 A22:W22 AA18:AE22 X18:X22 A12:AE12 A7:A8 A5:M6 B7:M7 B8:O9 A36:AE36 A38:M38 N38:O39 AI36:XFD38 AI19:AK20 AI39:AK39 AI21:XFD34 AH36:AH39 AH18:AH24 AI5:XFD18 R38:Y38 AD38:AE38 AC39 A13:AB13 R33:Y33 AA33:AE34 A37:O37 AA37:AE37 AA38:AB38 N5:AH5 AH6:AH16 A10:O11 Z54:Z57 AF54:AG56 AF57 AH27:AH34 A23:AE25 A30:B32 J30:O32 AF6:AG40 R10:AD11 N6:O7 P6:P11 Q6:AE8 R9:AE9 Q9:Q11 A14:AE16 S18:W18 A26:O29 P26:AE32 A33:K34 L33:Q35 Q37:Y37 Q37:Q39">
-    <cfRule type="expression" dxfId="82" priority="71">
+  <conditionalFormatting sqref="FH19:XFD20 FH35:XFD35 AA35 V34:Z35 U34 T34:T35 S34 R34:R35 AA39 A17 B18:I18 A21:J21 T21:W21 A22:W22 AA18:AE22 X18:X22 A12:AE12 A5:M8 A36:AE36 A38:M38 N38:O39 AI36:XFD38 AI19:AK20 AI39:AK39 AI21:XFD34 AH36:AH39 AH18:AH24 AI5:XFD18 R38:Y38 AD38:AE38 AC39 A13:AB13 R33:Y33 AA33:AE34 A37:O37 AA37:AE37 AA38:AB38 AH6:AH16 A10:C11 Z54:Z57 AF54:AG56 AF57 AH27:AH34 A23:AE25 A30:B32 J30:O32 AF6:AG40 R10:AD11 Q8:AE8 R9:AE9 Q9:Q11 A14:AE16 S18:W18 A26:O29 P26:AE32 A33:K34 L33:Q35 Q37:Y37 Q37:Q39 B9:C9 D9:M11 R6:AE7 R5:AH5 Q5:Q7 N5:P11">
+    <cfRule type="expression" dxfId="83" priority="71">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC13">
-    <cfRule type="expression" dxfId="81" priority="58">
+    <cfRule type="expression" dxfId="82" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="80" priority="57">
+    <cfRule type="expression" dxfId="81" priority="57">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:M39 R39:Y39">
-    <cfRule type="expression" dxfId="79" priority="56">
+    <cfRule type="expression" dxfId="80" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC38">
-    <cfRule type="expression" dxfId="78" priority="55">
+    <cfRule type="expression" dxfId="79" priority="55">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10717,7 +10738,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:J20 T20:W20">
-    <cfRule type="expression" dxfId="77" priority="47">
+    <cfRule type="expression" dxfId="78" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10806,12 +10827,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:I19">
-    <cfRule type="expression" dxfId="76" priority="38">
+    <cfRule type="expression" dxfId="77" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:D19 S20:S21 S19:W19">
-    <cfRule type="expression" dxfId="75" priority="39">
+    <cfRule type="expression" dxfId="76" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10900,132 +10921,132 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q41:Q65">
-    <cfRule type="expression" dxfId="74" priority="37">
+    <cfRule type="expression" dxfId="75" priority="37">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z17:Z22">
-    <cfRule type="expression" dxfId="73" priority="36">
+    <cfRule type="expression" dxfId="74" priority="36">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z33">
-    <cfRule type="expression" dxfId="72" priority="35">
+    <cfRule type="expression" dxfId="73" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z37:Z39">
-    <cfRule type="expression" dxfId="71" priority="34">
+    <cfRule type="expression" dxfId="72" priority="34">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z41:Z43">
-    <cfRule type="expression" dxfId="70" priority="33">
+    <cfRule type="expression" dxfId="71" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z48:Z52">
-    <cfRule type="expression" dxfId="69" priority="31">
+    <cfRule type="expression" dxfId="70" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z46:Z47">
-    <cfRule type="expression" dxfId="68" priority="29">
+    <cfRule type="expression" dxfId="69" priority="29">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M59:O59 N60:O65">
-    <cfRule type="expression" dxfId="67" priority="22">
+    <cfRule type="expression" dxfId="68" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R59:R65">
-    <cfRule type="expression" dxfId="66" priority="21">
+    <cfRule type="expression" dxfId="67" priority="21">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z62">
-    <cfRule type="expression" dxfId="65" priority="20">
+    <cfRule type="expression" dxfId="66" priority="20">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59:I62">
-    <cfRule type="expression" dxfId="64" priority="19">
+    <cfRule type="expression" dxfId="65" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C51">
-    <cfRule type="expression" dxfId="63" priority="18">
+    <cfRule type="expression" dxfId="64" priority="18">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:I51">
-    <cfRule type="expression" dxfId="62" priority="17">
+    <cfRule type="expression" dxfId="63" priority="17">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG57">
-    <cfRule type="expression" dxfId="61" priority="14">
+    <cfRule type="expression" dxfId="62" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:I32">
-    <cfRule type="expression" dxfId="60" priority="13">
+    <cfRule type="expression" dxfId="61" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:I65">
-    <cfRule type="expression" dxfId="59" priority="12">
+    <cfRule type="expression" dxfId="60" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17:Q21">
-    <cfRule type="expression" dxfId="58" priority="11">
+    <cfRule type="expression" dxfId="59" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="expression" dxfId="57" priority="10">
+    <cfRule type="expression" dxfId="58" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:K21">
-    <cfRule type="expression" dxfId="56" priority="9">
+    <cfRule type="expression" dxfId="57" priority="9">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P37:P39">
-    <cfRule type="expression" dxfId="55" priority="8">
+    <cfRule type="expression" dxfId="56" priority="8">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44:P48">
-    <cfRule type="expression" dxfId="54" priority="7">
+    <cfRule type="expression" dxfId="55" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49:P52">
-    <cfRule type="expression" dxfId="53" priority="6">
+    <cfRule type="expression" dxfId="54" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P54">
-    <cfRule type="expression" dxfId="52" priority="5">
+    <cfRule type="expression" dxfId="53" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P55:P57">
-    <cfRule type="expression" dxfId="51" priority="4">
+    <cfRule type="expression" dxfId="52" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P59:P62">
-    <cfRule type="expression" dxfId="50" priority="3">
+    <cfRule type="expression" dxfId="51" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P63:P65">
-    <cfRule type="expression" dxfId="49" priority="2">
+    <cfRule type="expression" dxfId="50" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11048,11 +11069,11 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AC80"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F66" activePane="bottomRight" state="frozen"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B70" sqref="B70"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -11083,73 +11104,73 @@
   <sheetData>
     <row r="1" spans="1:29" s="47" customFormat="1">
       <c r="A1" s="46" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="46" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
       <c r="F1" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="N1" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="S1" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="T1" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="U1" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="V1" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="G1" s="46" t="s">
-        <v>336</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>335</v>
-      </c>
-      <c r="I1" s="46" t="s">
-        <v>334</v>
-      </c>
-      <c r="J1" s="46" t="s">
-        <v>346</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>333</v>
-      </c>
-      <c r="L1" s="46" t="s">
-        <v>331</v>
-      </c>
-      <c r="M1" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="N1" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="O1" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="P1" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q1" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="R1" s="46" t="s">
+      <c r="W1" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="X1" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="Y1" s="46" t="s">
         <v>339</v>
-      </c>
-      <c r="T1" s="46" t="s">
-        <v>340</v>
-      </c>
-      <c r="U1" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="V1" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="W1" s="46" t="s">
-        <v>345</v>
-      </c>
-      <c r="X1" s="46" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y1" s="46" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="11" customFormat="1" ht="21" thickBot="1">
@@ -11157,13 +11178,13 @@
         <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>98</v>
@@ -11181,52 +11202,52 @@
         <v>89</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N2" s="28" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O2" s="28" t="s">
         <v>97</v>
       </c>
       <c r="P2" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="S2" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="T2" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="R2" s="28" t="s">
+      <c r="U2" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="V2" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="T2" s="28" t="s">
+      <c r="W2" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="X2" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y2" s="29" t="s">
         <v>126</v>
-      </c>
-      <c r="V2" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="W2" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="X2" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y2" s="29" t="s">
-        <v>129</v>
       </c>
       <c r="Z2" s="12"/>
       <c r="AC2" s="12"/>
@@ -11245,10 +11266,10 @@
         <v>p2.16xlarge on-demand</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F3" s="18">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -11271,7 +11292,7 @@
       </c>
       <c r="M3" s="13">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("AC"&amp;ROW()))</f>
-        <v>139.84</v>
+        <v>69.92</v>
       </c>
       <c r="N3" s="13" t="str">
         <f t="shared" ref="N3:Y12" ca="1" si="2">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -11279,7 +11300,7 @@
       </c>
       <c r="O3" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P3" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11287,7 +11308,7 @@
       </c>
       <c r="Q3" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>1.7777777777777777</v>
       </c>
       <c r="R3" s="13">
         <f t="shared" ca="1" si="2"/>
@@ -11330,10 +11351,10 @@
         <v>p2.8xlarge on-demand</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F4" s="18">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -11356,7 +11377,7 @@
       </c>
       <c r="M4" s="13">
         <f t="shared" ref="M4:M9" ca="1" si="5">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW())) * INDIRECT("Sheet1!D"&amp; INDIRECT("AC"&amp;ROW()))</f>
-        <v>69.92</v>
+        <v>34.96</v>
       </c>
       <c r="N4" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11364,7 +11385,7 @@
       </c>
       <c r="O4" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P4" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11372,7 +11393,7 @@
       </c>
       <c r="Q4" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="R4" s="13">
         <f t="shared" ca="1" si="2"/>
@@ -11415,10 +11436,10 @@
         <v>p2.xlarge on-demand</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F5" s="18">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -11441,7 +11462,7 @@
       </c>
       <c r="M5" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>8.74</v>
+        <v>4.37</v>
       </c>
       <c r="N5" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11449,7 +11470,7 @@
       </c>
       <c r="O5" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P5" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11457,7 +11478,7 @@
       </c>
       <c r="Q5" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="R5" s="13">
         <f t="shared" ca="1" si="2"/>
@@ -11500,10 +11521,10 @@
         <v>p2 dedicated host On-demand</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>100</v>
+        <v>345</v>
       </c>
       <c r="F6" s="18">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -11526,7 +11547,7 @@
       </c>
       <c r="M6" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>139.84</v>
+        <v>69.92</v>
       </c>
       <c r="N6" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11534,7 +11555,7 @@
       </c>
       <c r="O6" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P6" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11585,10 +11606,10 @@
         <v>p2 dedicated host 1 year no Upfront</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>101</v>
+        <v>346</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
@@ -11614,7 +11635,7 @@
       </c>
       <c r="M7" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>139.84</v>
+        <v>69.92</v>
       </c>
       <c r="N7" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11622,7 +11643,7 @@
       </c>
       <c r="O7" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P7" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11673,10 +11694,10 @@
         <v>p2 dedicated host 1 year 100% Upfront</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>102</v>
+        <v>347</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
@@ -11699,7 +11720,7 @@
       </c>
       <c r="M8" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>139.84</v>
+        <v>69.92</v>
       </c>
       <c r="N8" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11707,7 +11728,7 @@
       </c>
       <c r="O8" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P8" s="13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -11765,7 +11786,7 @@
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
@@ -11848,7 +11869,7 @@
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F10" s="18">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -11931,7 +11952,7 @@
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
@@ -12014,7 +12035,7 @@
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
@@ -12103,7 +12124,7 @@
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F13" s="18">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -12187,7 +12208,7 @@
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F14" s="18">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -12268,7 +12289,7 @@
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F15" s="18">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -12340,7 +12361,7 @@
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
@@ -12424,7 +12445,7 @@
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18">
@@ -12508,7 +12529,7 @@
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
@@ -12592,7 +12613,7 @@
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18">
@@ -12676,7 +12697,7 @@
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -12760,7 +12781,7 @@
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18">
@@ -12844,7 +12865,7 @@
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
@@ -12928,7 +12949,7 @@
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18">
@@ -13012,7 +13033,7 @@
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
@@ -13096,7 +13117,7 @@
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18">
@@ -13180,7 +13201,7 @@
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -13264,7 +13285,7 @@
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18">
@@ -13348,7 +13369,7 @@
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -13432,7 +13453,7 @@
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18">
@@ -13522,7 +13543,7 @@
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
@@ -13606,7 +13627,7 @@
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18">
@@ -13687,7 +13708,7 @@
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
@@ -13769,7 +13790,7 @@
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="18">
@@ -13851,7 +13872,7 @@
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
@@ -13933,7 +13954,7 @@
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18">
@@ -14015,7 +14036,7 @@
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
@@ -14097,7 +14118,7 @@
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18">
@@ -14187,7 +14208,7 @@
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F38" s="18">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -14278,7 +14299,7 @@
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -14360,7 +14381,7 @@
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
@@ -14450,7 +14471,7 @@
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F41" s="12">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -14527,7 +14548,7 @@
         <v>2 x GeForce GTX 1080 weekly</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G42" s="18">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -14604,7 +14625,7 @@
         <v>2 x GeForce GTX 1080 monthly</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H43" s="18">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -14682,7 +14703,7 @@
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F44" s="12">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -14760,7 +14781,7 @@
         <v>4 x GeForce GTX 1080 ltd. weekly</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="18">
@@ -14839,7 +14860,7 @@
         <v>4 x GeForce GTX 1080 ltd. monthly</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F46" s="12"/>
       <c r="H46" s="18">
@@ -14918,7 +14939,7 @@
       </c>
       <c r="D47" s="39"/>
       <c r="E47" s="39" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F47" s="12">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -14999,7 +15020,7 @@
       </c>
       <c r="D48" s="41"/>
       <c r="E48" s="39" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F48" s="41"/>
       <c r="G48" s="18">
@@ -15080,7 +15101,7 @@
       </c>
       <c r="D49" s="41"/>
       <c r="E49" s="39" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
@@ -15160,7 +15181,7 @@
         <v>1 x Tesla P100 minutely</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F50" s="12">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -15240,7 +15261,7 @@
         <v>1 x Tesla P100 weekly</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="18">
@@ -15321,7 +15342,7 @@
         <v>1 x Tesla P100 monthly</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F52" s="12"/>
       <c r="H52" s="18">
@@ -15402,7 +15423,7 @@
       </c>
       <c r="D53" s="21"/>
       <c r="E53" s="21" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F53" s="12">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -15482,7 +15503,7 @@
         <v>2 x Tesla P100 weekly</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="18">
@@ -15563,7 +15584,7 @@
         <v>2 x Tesla P100 monthly</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F55" s="12"/>
       <c r="H55" s="18">
@@ -15644,7 +15665,7 @@
       </c>
       <c r="D56" s="39"/>
       <c r="E56" s="21" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F56" s="12">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -15727,7 +15748,7 @@
       </c>
       <c r="D57" s="41"/>
       <c r="E57" s="21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F57" s="41"/>
       <c r="G57" s="18">
@@ -15810,7 +15831,7 @@
       </c>
       <c r="D58" s="41"/>
       <c r="E58" s="21" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F58" s="41"/>
       <c r="G58" s="41"/>
@@ -15892,7 +15913,7 @@
         <v>4 x Tesla P100 NVLink monthly</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F59" s="41"/>
       <c r="G59" s="41"/>
@@ -15971,7 +15992,7 @@
         <v>8 x Tesla P100 NVLink monthly</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F60" s="41"/>
       <c r="G60" s="41"/>
@@ -16050,7 +16071,7 @@
         <v>2 x Titan X minutely</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F61" s="12">
         <f t="shared" ref="F61" ca="1" si="29">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -16129,7 +16150,7 @@
         <v>2 x Titan X  monthly</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F62" s="41"/>
       <c r="G62" s="18">
@@ -16211,7 +16232,7 @@
         <v>4 x Titan X minutely</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F63" s="41">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -16290,7 +16311,7 @@
         <v>4 x Titan X monthly</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F64" s="41"/>
       <c r="G64" s="41"/>
@@ -16363,7 +16384,7 @@
         <v>8 x Titan X minutely</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F65" s="41">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -16440,7 +16461,7 @@
         <v>8 x Titan X monthly</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H66">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -16521,7 +16542,7 @@
         <v>2 x FirePro S9300x2 minutely</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F67">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -16602,7 +16623,7 @@
         <v>2 x FirePro S9300x2 weekly</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G68" s="12">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -16674,7 +16695,7 @@
         <v>2 x FirePro S9300x2 monthly</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H69" s="12">
         <f ca="1">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -16746,17 +16767,17 @@
         <v>The University of Tokyo</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C70" s="21" t="str">
         <f t="shared" ref="C70:C80" ca="1" si="32">INDIRECT("Sheet1!" &amp; INDIRECT("R1C"&amp;COLUMN(),FALSE) &amp; INDIRECT("AC" &amp; ROW()))</f>
         <v>Reedbush-H Personal (educational)</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I70" s="18">
         <f t="shared" ca="1" si="31"/>
@@ -16836,10 +16857,10 @@
         <v>Reedbush-H (educational)</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I71" s="18">
         <f t="shared" ca="1" si="31"/>
@@ -16919,10 +16940,10 @@
         <v>Reedbush-H reviewed (educational)</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="I72" s="18">
         <f t="shared" ca="1" si="31"/>
@@ -17002,10 +17023,10 @@
         <v>Reedbush-H reviewed</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I73" s="18">
         <f t="shared" ca="1" si="31"/>
@@ -17085,14 +17106,14 @@
         <v>MS Azure</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C74" s="21" t="str">
         <f t="shared" ca="1" si="32"/>
         <v>NC6</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F74" s="12">
         <f t="shared" ref="F74:F80" ca="1" si="33">INDIRECT("Sheet1!"&amp;INDIRECT("R1C"&amp;COLUMN(),FALSE)&amp;INDIRECT("AC"&amp;ROW()))</f>
@@ -17173,7 +17194,7 @@
         <v>NC12</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F75" s="12">
         <f t="shared" ca="1" si="33"/>
@@ -17246,7 +17267,7 @@
         <v>NC24</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F76" s="12">
         <f t="shared" ca="1" si="33"/>
@@ -17319,7 +17340,7 @@
         <v>NC24r</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F77" s="12">
         <f t="shared" ca="1" si="33"/>
@@ -17392,7 +17413,7 @@
         <v>NV6</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F78" s="12">
         <f t="shared" ca="1" si="33"/>
@@ -17457,7 +17478,7 @@
         <v>NV12</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F79" s="12">
         <f t="shared" ca="1" si="33"/>
@@ -17522,7 +17543,7 @@
         <v>NV24</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F80" s="12">
         <f t="shared" ca="1" si="33"/>
@@ -17584,247 +17605,247 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="I23 I25 I27 I29 S13:S15 E23:G23 E18:I22 D26:D41 E17:F17 D10:D24 D3:D8 C3:C21 E7:G7 E9:I16 N16:O16 L30:O31 E3:I6 L4:O15 M16:M17 L16:L29 M18:O29 E8:H8 H58:H60 L50:S69 T53:Y69 L74:V74 W74:Y77 K56:K74 L70:Y73 F25:G29 E34:E36 H22:H30 F30:I30 I31 F36:G36 I36 E39:G40 I39:I40 E38 F31:G31 F32:I35 F37:I37 K4:K43 M32:O49 C30:C40 K75:T80 I66:I80 K3:O3 J3:J80">
-    <cfRule type="expression" dxfId="48" priority="119">
+    <cfRule type="expression" dxfId="49" priority="119">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25 I24 F24:G24">
-    <cfRule type="expression" dxfId="47" priority="117">
+    <cfRule type="expression" dxfId="48" priority="117">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="46" priority="116">
+    <cfRule type="expression" dxfId="47" priority="116">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="45" priority="115">
+    <cfRule type="expression" dxfId="46" priority="115">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="44" priority="106">
+    <cfRule type="expression" dxfId="45" priority="106">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P15 P18:P49">
-    <cfRule type="expression" dxfId="43" priority="61">
+    <cfRule type="expression" dxfId="44" priority="61">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:X3 T4:X12 T18:V31 T13:V15 W13:X31 R3:R15 U47:X49 T47:T52 R18:R49 Y6:Y49 T32:X46">
-    <cfRule type="expression" dxfId="42" priority="59">
+    <cfRule type="expression" dxfId="43" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C23">
-    <cfRule type="expression" dxfId="41" priority="68">
+    <cfRule type="expression" dxfId="42" priority="68">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C25">
-    <cfRule type="expression" dxfId="40" priority="67">
+    <cfRule type="expression" dxfId="41" priority="67">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C27">
-    <cfRule type="expression" dxfId="39" priority="66">
+    <cfRule type="expression" dxfId="40" priority="66">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C29">
-    <cfRule type="expression" dxfId="38" priority="65">
+    <cfRule type="expression" dxfId="39" priority="65">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q15 Q18:Q49">
-    <cfRule type="expression" dxfId="37" priority="60">
+    <cfRule type="expression" dxfId="38" priority="60">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S12">
-    <cfRule type="expression" dxfId="36" priority="58">
+    <cfRule type="expression" dxfId="37" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18:S49">
-    <cfRule type="expression" dxfId="35" priority="57">
+    <cfRule type="expression" dxfId="36" priority="57">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:I17 N17:O17">
-    <cfRule type="expression" dxfId="34" priority="48">
+    <cfRule type="expression" dxfId="35" priority="48">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:P17">
-    <cfRule type="expression" dxfId="33" priority="47">
+    <cfRule type="expression" dxfId="34" priority="47">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16:V17 R16:R17">
-    <cfRule type="expression" dxfId="32" priority="45">
+    <cfRule type="expression" dxfId="33" priority="45">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16:Q17">
-    <cfRule type="expression" dxfId="31" priority="46">
+    <cfRule type="expression" dxfId="32" priority="46">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:S17">
-    <cfRule type="expression" dxfId="30" priority="44">
+    <cfRule type="expression" dxfId="31" priority="44">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="29" priority="43">
+    <cfRule type="expression" dxfId="30" priority="43">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="28" priority="42">
+    <cfRule type="expression" dxfId="29" priority="42">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="27" priority="41">
+    <cfRule type="expression" dxfId="28" priority="41">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:L49">
-    <cfRule type="expression" dxfId="26" priority="40">
+    <cfRule type="expression" dxfId="27" priority="40">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="expression" dxfId="25" priority="39">
+    <cfRule type="expression" dxfId="26" priority="39">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="expression" dxfId="24" priority="38">
+    <cfRule type="expression" dxfId="25" priority="38">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="23" priority="35">
+    <cfRule type="expression" dxfId="24" priority="35">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44 K44:K55">
-    <cfRule type="expression" dxfId="22" priority="33">
+    <cfRule type="expression" dxfId="23" priority="33">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="expression" dxfId="21" priority="32">
+    <cfRule type="expression" dxfId="22" priority="32">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="expression" dxfId="20" priority="31">
+    <cfRule type="expression" dxfId="21" priority="31">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="19" priority="26">
+    <cfRule type="expression" dxfId="20" priority="26">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="18" priority="25">
+    <cfRule type="expression" dxfId="19" priority="25">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="expression" dxfId="17" priority="24">
+    <cfRule type="expression" dxfId="18" priority="24">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48">
-    <cfRule type="expression" dxfId="16" priority="23">
+    <cfRule type="expression" dxfId="17" priority="23">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="15" priority="22">
+    <cfRule type="expression" dxfId="16" priority="22">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U50:Y52">
-    <cfRule type="expression" dxfId="14" priority="19">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63:H65">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57 G62">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E29">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:H40">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Comparison table updated 3.xlsx
+++ b/Comparison table updated 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="48820" windowHeight="16540" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="48820" windowHeight="16540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -668,12 +668,84 @@
         </r>
       </text>
     </comment>
+    <comment ref="L67" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Peter Bryzgalov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+CPU performance note:
+For the n1 series of machine types, a virtual CPU is implemented as a single hardware hyper-thread on a 2.6 GHz Intel Xeon E5 (Sandy Bridge), 2.5 GHz Intel Xeon E5 v2 (Ivy Bridge), 2.3 GHz Intel Xeon E5 v3 (Haswell), or 2.2 GHz Intel Xeon E5 v4 (Broadwell).
+Assumption:
+CPUS considered to have 2 hyper threads per physical core.
+2.6 GHz Sandy Bridge
+2.6 * 1/2 * 8 (Flops/cycle DP) = 10.4 GFlops DP, 20.8 GFlops SP
+2.5 GHz Ivy Bridge   10   GFlops DP, 20   GFlops SP
+2.3 GHz Haswell    18.4   36.8
+2.2 Ghz Broadwell   17.6   35.2
+Mean values:    14.1   28.2
+0.0282TFlops per vCPU is used</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q67" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Peter Bryzgalov:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+CPU performance note:
+For the n1 series of machine types, a virtual CPU is implemented as a single hardware hyper-thread on a 2.6 GHz Intel Xeon E5 (Sandy Bridge), 2.5 GHz Intel Xeon E5 v2 (Ivy Bridge), 2.3 GHz Intel Xeon E5 v3 (Haswell), or 2.2 GHz Intel Xeon E5 v4 (Broadwell).
+Assumption:
+CPUS considered to have 2 hyper threads per physical core.
+2.6 GHz Sandy Bridge
+2.6 * 1/2 * 8 (Flops/cycle DP) = 10.4 GFlops DP, 20.8 GFlops SP
+2.5 GHz Ivy Bridge   10   GFlops DP, 20   GFlops SP
+2.3 GHz Haswell    18.4   36.8
+2.2 Ghz Broadwell   17.6   35.2
+Mean values:    14.1   28.2
+0.0282TFlops per vCPU is used</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="367">
   <si>
     <t>Cloud server providers with GPU</t>
     <phoneticPr fontId="2"/>
@@ -1487,198 +1559,617 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>SSD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x1 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x1 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT S9300x2 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FirePro S9300x2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT S9300x2 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 NVL min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 NVL m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x4 NVL m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x8 NVL m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 NVL w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT S9300x2 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x2 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT P100x1 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>The University of Tokyo</t>
+  </si>
+  <si>
+    <t>Reedbush-H Personal (educational)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-2630 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PFS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>per hour</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>per week</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>per month (30 days)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>per year</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU personal</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS Azure</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NC12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NC24</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NC24r</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>K80</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/en-us/pricing/details/virtual-machines/linux/</t>
+  </si>
+  <si>
+    <t>NC6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RDMA capable</t>
+  </si>
+  <si>
+    <t>Infiniband</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NC6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NC12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 GPU in specification is 1/2 of K80 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x Titan X</t>
+  </si>
+  <si>
+    <t>4 x Titan X</t>
+  </si>
+  <si>
+    <t>8 x Titan X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TITAN X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GeForce GTX Titan X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>Xeon E5-2609 v4</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>MS NC25r</t>
+  </si>
+  <si>
+    <t>MS NC24</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.leadergpu.com</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx2 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx2 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx4 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx4 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx8 min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTXTXx8 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nodes*hours limit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Max hours</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.cc.u-tokyo.ac.jp/support/application/kitei/hyou5.pdf</t>
+  </si>
+  <si>
+    <t>Max 2 nodes. Included (17280/2.5=)6912 node hours if 1 node is used, 3456 node hours if more than 1 node is used by a parallel job.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Included 13824 node hours if 1 node is used, 6912 node hours if 2-4 nodes are used by a parallel job.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Included 8640 node hours. 4320 node hours if a parallel job used more nodes than applied for.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H (educational)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H reviewed (educational)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Reedbush-H reviewed</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU gen edu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU rev</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TU rev edu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Limited quantity available at this price</t>
+  </si>
+  <si>
+    <t>8-GPU x86 P40</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8-GPU x86 P100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8-GPU x86 Quadro P6000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4-GPU x86 P40</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4-GPU x86 P100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4-GPU x86 Quadro P6000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Quadro P600</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Xeon E5-1650 v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4-GPU POWER8/10 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4-GPU POWER8/8 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2-GPU POWER8/8 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P40x4 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P40x4 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x4 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P100x4 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P6000x4 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P6000x4 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P6000x8 x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR P6000x8 x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>16-GPU x86 K80 ltd.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8-GPU x86 M40 ltd.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR K80x8 x86 ltd m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR K80x8 x86 ltd w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR M40x8 ltd x86 m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CR M40x8 ltd x86 w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LeaderTelecom</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4 x GeForce GTX 1080 ltd.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x4 ltd w.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x4 ltd min.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LT GTX1080x4 ltd m.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NV6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NV12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NV24</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M60</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://venturebeat.com/2016/08/04/microsoft-azure-releases-n-series-gpu-instances-in-preview/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SATA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NV6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NV12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MS NV24</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.cc.u-tokyo.ac.jp/system/reedbush/reedbush_intro.html</t>
+  </si>
+  <si>
+    <t>http://www.cc.u-tokyo.ac.jp/system/reedbush/reedbush_intro.html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SP Flops/sycle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DP FLOPs/cycle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Perf. Tflops (SP)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPU performance (Tflops SP)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AH</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www-01.ibm.com/common/ssi/cgi-bin/ssialias?htmlfid=POD03117USEN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>www.nimbix.net/nimbix-cloud-demand-pricing</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 x 12.3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AZ p2 dedicated h.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AZ p2 dedicated y.0Up</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AZ p2 dedicated y.100Up</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://en.wikichip.org/wiki/intel/xeon_e5/e5-2686_v4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Google</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://cloud.google.com/compute/docs/machine-types</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/products/calculator/</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/instance-types/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/en-us/pricing/details/virtual-machines/linux/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6c39m1g</t>
+  </si>
+  <si>
+    <t>6c39m1g</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>SSD</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>LT P100x1 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x1 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT S9300x2 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FirePro S9300x2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT S9300x2 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 NVL min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 NVL m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x4 NVL m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x8 NVL m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 NVL w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT S9300x2 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x2 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT P100x1 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>The University of Tokyo</t>
-  </si>
-  <si>
-    <t>Reedbush-H Personal (educational)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2630 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Xeon E5-2695v4 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>P100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PFS</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>per hour</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>per week</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>per month (30 days)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>per year</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TU personal</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MS Azure</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NC12</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NC24</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NC24r</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>K80</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>USD</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>https://azure.microsoft.com/en-us/pricing/details/virtual-machines/linux/</t>
-  </si>
-  <si>
-    <t>NC6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-2690v3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Free Outbound Traffic = 1 GB/month.  One virtual CPU performance is calculated as one real Xeon E5-2686 v4 performance devided by 18 cores * 2 Hyper-threads = 36.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RDMA capable</t>
-  </si>
-  <si>
-    <t>Infiniband</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MS NC6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MS NC12</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 GPU in specification is 1/2 of K80 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x Titan X</t>
-  </si>
-  <si>
-    <t>4 x Titan X</t>
-  </si>
-  <si>
-    <t>8 x Titan X</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TITAN X</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>GeForce GTX Titan X</t>
+    <t>12c78m2g</t>
+  </si>
+  <si>
+    <t>12c78m2g</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>24c156m4g</t>
+  </si>
+  <si>
+    <t>24c156m4g</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>32c208m4g</t>
+  </si>
+  <si>
+    <t>32c208m4g</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>64c416m8g</t>
+  </si>
+  <si>
+    <t>64c416m8g</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>For the n1 series of machine types, a virtual CPU is implemented as a single hardware hyper-thread on a 2.6 GHz Intel Xeon E5 (Sandy Bridge), 2.5 GHz Intel Xeon E5 v2 (Ivy Bridge), 2.3 GHz Intel Xeon E5 v3 (Haswell), or 2.2 GHz Intel Xeon E5 v4 (Broadwell).&lt;br&gt;
+Assumption: CPUS considered to have 2 hyper threads per physical core.&lt;br&gt;
+Mean values for DP and SP: 14.1GFlops and 28.2GFlops&lt;br&gt;
+In vCPU performance used SP value: 0.0282TFlops per vCPU.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://cloudplatform.googleblog.com/2017/02/GPUs-are-now-available-for-Google-Compute-Engine-and-Cloud-Machine-Learning.html</t>
+  </si>
+  <si>
+    <t>Xeon E5-2690 v3</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1686,363 +2177,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>MS NC25r</t>
-  </si>
-  <si>
-    <t>MS NC24</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://www.leadergpu.com</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTXTXx2 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTXTXx2 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTXTXx4 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTXTXx4 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTXTXx8 min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTXTXx8 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nodes*hours limit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Max hours</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.cc.u-tokyo.ac.jp/support/application/kitei/hyou5.pdf</t>
-  </si>
-  <si>
-    <t>Max 2 nodes. Included (17280/2.5=)6912 node hours if 1 node is used, 3456 node hours if more than 1 node is used by a parallel job.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Included 13824 node hours if 1 node is used, 6912 node hours if 2-4 nodes are used by a parallel job.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Included 8640 node hours. 4320 node hours if a parallel job used more nodes than applied for.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H (educational)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H reviewed (educational)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Reedbush-H reviewed</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TU gen edu</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TU rev</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TU rev edu</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Limited quantity available at this price</t>
-  </si>
-  <si>
-    <t>8-GPU x86 P40</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8-GPU x86 P100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8-GPU x86 Quadro P6000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4-GPU x86 P40</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4-GPU x86 P100</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4-GPU x86 Quadro P6000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Quadro P600</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Xeon E5-1650 v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4-GPU POWER8/10 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4-GPU POWER8/8 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2-GPU POWER8/8 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P40x4 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P40x4 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x4 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P100x4 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P6000x4 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P6000x4 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P6000x8 x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR P6000x8 x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>16-GPU x86 K80 ltd.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8-GPU x86 M40 ltd.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR K80x8 x86 ltd m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR K80x8 x86 ltd w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR M40x8 ltd x86 m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CR M40x8 ltd x86 w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LeaderTelecom</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4 x GeForce GTX 1080 ltd.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x4 ltd w.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x4 ltd min.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LT GTX1080x4 ltd m.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NV6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NV12</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NV24</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>M60</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://venturebeat.com/2016/08/04/microsoft-azure-releases-n-series-gpu-instances-in-preview/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://azure.microsoft.com/en-us/pricing/details/virtual-machines/linux/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SATA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MS NV6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MS NV12</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MS NV24</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.cc.u-tokyo.ac.jp/system/reedbush/reedbush_intro.html</t>
-  </si>
-  <si>
-    <t>http://www.cc.u-tokyo.ac.jp/system/reedbush/reedbush_intro.html</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SP Flops/sycle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DP FLOPs/cycle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Perf. Tflops (SP)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Q</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CPU performance (Tflops SP)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>W</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AG</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AH</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Z</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://www-01.ibm.com/common/ssi/cgi-bin/ssialias?htmlfid=POD03117USEN</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>www.nimbix.net/nimbix-cloud-demand-pricing</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2 x 12.3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AZ p2 dedicated h.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AZ p2 dedicated y.0Up</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AZ p2 dedicated y.100Up</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://en.wikichip.org/wiki/intel/xeon_e5/e5-2686_v4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/instance-types/</t>
+    <t>Xeon E5-2695 v4</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2428,7 +2563,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="715">
+  <cellStyleXfs count="743">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3155,6 +3290,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="61">
@@ -3262,15 +3425,15 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="119" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="120" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="715">
+  <cellStyles count="743">
     <cellStyle name="$Normal" xfId="356"/>
     <cellStyle name="¥ Normal" xfId="636"/>
     <cellStyle name="€ Normal" xfId="635"/>
@@ -3693,6 +3856,20 @@
     <cellStyle name="Followed Hyperlink" xfId="712" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="713" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="742" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 1 2" xfId="62"/>
     <cellStyle name="Heading 2" xfId="263" builtinId="17" customBuiltin="1"/>
@@ -3976,6 +4153,20 @@
     <cellStyle name="Hyperlink" xfId="568" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="570" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="572" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="741" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="341" builtinId="20" hidden="1"/>
     <cellStyle name="Linked Cell" xfId="344" builtinId="24" hidden="1"/>
     <cellStyle name="Neutral" xfId="594" builtinId="28"/>
@@ -3987,7 +4178,293 @@
     <cellStyle name="Style 1" xfId="55"/>
     <cellStyle name="Title" xfId="340" builtinId="15" hidden="1"/>
   </cellStyles>
-  <dxfs count="84">
+  <dxfs count="110">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEAF2F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -5207,13 +5684,13 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:FG65"/>
+  <dimension ref="A1:FG71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomRight" activeCell="K54" sqref="K54:K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -5267,50 +5744,50 @@
     <row r="3" spans="1:163" s="6" customFormat="1" ht="46" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
       <c r="S3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="60" t="s">
+      <c r="T3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60" t="s">
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60" t="s">
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
       <c r="AG3" s="16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AH3" s="1" t="s">
         <v>32</v>
@@ -5485,13 +5962,13 @@
         <v>171</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="R4" s="16" t="s">
         <v>10</v>
@@ -5521,16 +5998,16 @@
         <v>182</v>
       </c>
       <c r="AA4" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB4" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC4" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="AB4" s="24" t="s">
+      <c r="AD4" s="16" t="s">
         <v>232</v>
-      </c>
-      <c r="AC4" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="AD4" s="16" t="s">
-        <v>234</v>
       </c>
       <c r="AE4" s="16" t="s">
         <v>177</v>
@@ -5563,7 +6040,7 @@
         <v>2.91</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>21</v>
@@ -5615,7 +6092,7 @@
       </c>
       <c r="AG5" s="15"/>
       <c r="AH5" s="15" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:163">
@@ -5693,7 +6170,7 @@
       </c>
       <c r="AG6" s="15"/>
       <c r="AH6" s="15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:163">
@@ -5771,12 +6248,12 @@
       </c>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:163">
       <c r="A8" s="15" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>80</v>
@@ -5848,7 +6325,7 @@
     </row>
     <row r="9" spans="1:163">
       <c r="A9" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>112</v>
@@ -6491,7 +6968,7 @@
     </row>
     <row r="18" spans="1:163" s="12" customFormat="1">
       <c r="A18" s="15" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>43</v>
@@ -7072,7 +7549,7 @@
     </row>
     <row r="22" spans="1:163">
       <c r="A22" s="15" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="27"/>
@@ -7185,7 +7662,7 @@
         <v>42</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>16</v>
@@ -7269,7 +7746,7 @@
       </c>
       <c r="AG25" s="15"/>
       <c r="AH25" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:163">
@@ -7277,7 +7754,7 @@
         <v>59</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>40</v>
@@ -7361,13 +7838,13 @@
       </c>
       <c r="AG26" s="15"/>
       <c r="AH26" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:163" s="12" customFormat="1">
       <c r="A27" s="2"/>
       <c r="B27" s="21" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C27" s="27" t="s">
         <v>90</v>
@@ -7455,7 +7932,7 @@
     <row r="28" spans="1:163" s="12" customFormat="1">
       <c r="A28" s="2"/>
       <c r="B28" s="21" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C28" s="27" t="s">
         <v>91</v>
@@ -7543,10 +8020,10 @@
     <row r="29" spans="1:163" s="12" customFormat="1">
       <c r="A29" s="2"/>
       <c r="B29" s="21" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D29" s="12">
         <v>8</v>
@@ -7628,7 +8105,7 @@
     <row r="30" spans="1:163" s="12" customFormat="1">
       <c r="A30" s="2"/>
       <c r="B30" s="21" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>90</v>
@@ -7653,7 +8130,7 @@
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L30" s="5">
         <v>1</v>
@@ -7713,7 +8190,7 @@
     <row r="31" spans="1:163" s="12" customFormat="1">
       <c r="A31" s="2"/>
       <c r="B31" s="21" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>34</v>
@@ -7738,7 +8215,7 @@
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L31" s="5">
         <v>1</v>
@@ -7798,10 +8275,10 @@
     <row r="32" spans="1:163" s="12" customFormat="1">
       <c r="A32" s="2"/>
       <c r="B32" s="21" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D32" s="12">
         <v>4</v>
@@ -7823,7 +8300,7 @@
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L32" s="5">
         <v>1</v>
@@ -7882,7 +8359,7 @@
     </row>
     <row r="33" spans="1:163">
       <c r="B33" s="21" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>75</v>
@@ -7974,7 +8451,7 @@
     </row>
     <row r="34" spans="1:163">
       <c r="B34" s="21" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>76</v>
@@ -8059,7 +8536,7 @@
     <row r="35" spans="1:163" s="12" customFormat="1">
       <c r="A35" s="38"/>
       <c r="B35" s="39" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>131</v>
@@ -8311,7 +8788,7 @@
         <v>48</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D37" s="27">
         <v>4</v>
@@ -8601,7 +9078,7 @@
     </row>
     <row r="41" spans="1:163" ht="23" customHeight="1">
       <c r="A41" s="20" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B41" s="21" t="s">
         <v>167</v>
@@ -8694,10 +9171,10 @@
     </row>
     <row r="42" spans="1:163" ht="24" customHeight="1">
       <c r="A42" s="15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C42" s="27" t="s">
         <v>169</v>
@@ -9259,7 +9736,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L48" s="27">
         <v>2</v>
@@ -9320,10 +9797,10 @@
     <row r="49" spans="1:34" s="12" customFormat="1">
       <c r="A49" s="2"/>
       <c r="B49" s="56" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D49" s="13">
         <v>2</v>
@@ -9409,10 +9886,10 @@
     <row r="50" spans="1:34" s="12" customFormat="1">
       <c r="A50" s="2"/>
       <c r="B50" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="C50" s="27" t="s">
         <v>254</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>257</v>
       </c>
       <c r="D50" s="13">
         <v>4</v>
@@ -9434,7 +9911,7 @@
       </c>
       <c r="J50" s="27"/>
       <c r="K50" s="27" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L50" s="27">
         <v>2</v>
@@ -9498,10 +9975,10 @@
     <row r="51" spans="1:34" s="12" customFormat="1">
       <c r="A51" s="2"/>
       <c r="B51" s="56" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D51" s="13">
         <v>8</v>
@@ -9523,7 +10000,7 @@
       </c>
       <c r="J51" s="27"/>
       <c r="K51" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L51" s="27">
         <v>2</v>
@@ -9589,7 +10066,7 @@
         <v>204</v>
       </c>
       <c r="C52" s="54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D52" s="13">
         <v>2</v>
@@ -9611,7 +10088,7 @@
       </c>
       <c r="J52" s="13"/>
       <c r="K52" s="54" t="s">
-        <v>208</v>
+        <v>365</v>
       </c>
       <c r="L52" s="13">
         <v>2</v>
@@ -9639,7 +10116,7 @@
         <v>32</v>
       </c>
       <c r="T52" s="54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U52" s="13">
         <v>480</v>
@@ -9678,13 +10155,13 @@
     </row>
     <row r="54" spans="1:34" ht="20">
       <c r="A54" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B54" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="B54" s="21" t="s">
-        <v>226</v>
-      </c>
       <c r="C54" s="54" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D54" s="13">
         <v>2</v>
@@ -9708,7 +10185,7 @@
         <v>1</v>
       </c>
       <c r="K54" s="54" t="s">
-        <v>228</v>
+        <v>366</v>
       </c>
       <c r="L54" s="13">
         <v>2</v>
@@ -9736,7 +10213,7 @@
         <v>256</v>
       </c>
       <c r="T54" s="54" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U54" s="13">
         <v>1000</v>
@@ -9762,18 +10239,18 @@
         <v>6912</v>
       </c>
       <c r="AH54" s="15" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:34">
       <c r="A55" s="15" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C55" s="54" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D55" s="13">
         <v>2</v>
@@ -9797,7 +10274,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="54" t="s">
-        <v>228</v>
+        <v>366</v>
       </c>
       <c r="L55" s="13">
         <v>2</v>
@@ -9825,7 +10302,7 @@
         <v>256</v>
       </c>
       <c r="T55" s="54" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U55" s="13">
         <v>4000</v>
@@ -9851,15 +10328,15 @@
         <v>13824</v>
       </c>
       <c r="AH55" s="15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="56" spans="1:34">
       <c r="B56" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C56" s="54" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D56" s="13">
         <v>2</v>
@@ -9883,7 +10360,7 @@
         <v>1</v>
       </c>
       <c r="K56" s="54" t="s">
-        <v>228</v>
+        <v>366</v>
       </c>
       <c r="L56" s="13">
         <v>2</v>
@@ -9911,7 +10388,7 @@
         <v>256</v>
       </c>
       <c r="T56" s="54" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U56" s="13">
         <v>4000</v>
@@ -9934,16 +10411,16 @@
         <f>21600/2.5</f>
         <v>8640</v>
       </c>
-      <c r="AH56" s="59" t="s">
-        <v>273</v>
+      <c r="AH56" s="58" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="1:34">
       <c r="B57" s="21" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C57" s="54" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D57" s="13">
         <v>2</v>
@@ -9967,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="54" t="s">
-        <v>228</v>
+        <v>366</v>
       </c>
       <c r="L57" s="13">
         <v>2</v>
@@ -9995,7 +10472,7 @@
         <v>256</v>
       </c>
       <c r="T57" s="54" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U57" s="13">
         <v>4000</v>
@@ -10018,8 +10495,8 @@
         <f>21600/2.5</f>
         <v>8640</v>
       </c>
-      <c r="AH57" s="59" t="s">
-        <v>273</v>
+      <c r="AH57" s="58" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="1:34">
@@ -10027,13 +10504,13 @@
     </row>
     <row r="59" spans="1:34" ht="20">
       <c r="A59" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C59" s="54" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D59" s="13">
         <v>0.5</v>
@@ -10055,13 +10532,13 @@
       </c>
       <c r="J59" s="13"/>
       <c r="K59" s="54" t="s">
-        <v>244</v>
+        <v>364</v>
       </c>
       <c r="L59" s="13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M59" s="13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N59" s="13">
         <v>2.6</v>
@@ -10074,7 +10551,7 @@
       </c>
       <c r="Q59" s="13">
         <f t="shared" si="10"/>
-        <v>0.49920000000000003</v>
+        <v>0.99840000000000007</v>
       </c>
       <c r="R59" s="13">
         <v>2133</v>
@@ -10083,7 +10560,7 @@
         <v>56</v>
       </c>
       <c r="T59" s="54" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="U59" s="13">
         <v>380</v>
@@ -10100,22 +10577,22 @@
       </c>
       <c r="AD59" s="55"/>
       <c r="AF59" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AG59" s="15"/>
       <c r="AH59" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:34">
       <c r="A60" s="15" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C60" s="54" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D60" s="13">
         <v>1</v>
@@ -10137,7 +10614,7 @@
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="54" t="s">
-        <v>244</v>
+        <v>364</v>
       </c>
       <c r="L60" s="13">
         <v>1</v>
@@ -10165,7 +10642,7 @@
         <v>112</v>
       </c>
       <c r="T60" s="54" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="U60" s="13">
         <v>680</v>
@@ -10182,19 +10659,19 @@
       </c>
       <c r="AD60" s="55"/>
       <c r="AF60" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AG60" s="15"/>
     </row>
     <row r="61" spans="1:34">
       <c r="A61" s="15" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B61" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C61" s="54" t="s">
         <v>238</v>
-      </c>
-      <c r="C61" s="54" t="s">
-        <v>240</v>
       </c>
       <c r="D61" s="13">
         <v>2</v>
@@ -10216,13 +10693,13 @@
       </c>
       <c r="J61" s="13"/>
       <c r="K61" s="54" t="s">
-        <v>244</v>
+        <v>364</v>
       </c>
       <c r="L61" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M61" s="13">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N61" s="13">
         <v>2.6</v>
@@ -10235,7 +10712,7 @@
       </c>
       <c r="Q61" s="13">
         <f t="shared" si="10"/>
-        <v>1.9968000000000001</v>
+        <v>0.99840000000000007</v>
       </c>
       <c r="R61" s="13">
         <v>2133</v>
@@ -10244,7 +10721,7 @@
         <v>224</v>
       </c>
       <c r="T61" s="54" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="U61" s="13">
         <v>1440</v>
@@ -10261,16 +10738,16 @@
       </c>
       <c r="AD61" s="55"/>
       <c r="AF61" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AG61" s="15"/>
     </row>
     <row r="62" spans="1:34">
       <c r="B62" s="21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C62" s="54" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D62" s="13">
         <v>2</v>
@@ -10292,13 +10769,13 @@
       </c>
       <c r="J62" s="13"/>
       <c r="K62" s="54" t="s">
-        <v>244</v>
+        <v>364</v>
       </c>
       <c r="L62" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M62" s="13">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N62" s="13">
         <v>2.6</v>
@@ -10311,7 +10788,7 @@
       </c>
       <c r="Q62" s="13">
         <f t="shared" si="10"/>
-        <v>1.9968000000000001</v>
+        <v>0.99840000000000007</v>
       </c>
       <c r="R62" s="13">
         <v>2133</v>
@@ -10320,13 +10797,13 @@
         <v>224</v>
       </c>
       <c r="T62" s="54" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="U62" s="13">
         <v>1440</v>
       </c>
       <c r="X62" s="13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Y62" s="13"/>
       <c r="Z62" s="13" t="str">
@@ -10342,21 +10819,21 @@
       </c>
       <c r="AD62" s="55"/>
       <c r="AF62" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AG62" s="15"/>
       <c r="AH62" s="15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:34">
       <c r="B63" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="C63" t="s">
         <v>311</v>
       </c>
-      <c r="C63" t="s">
-        <v>314</v>
-      </c>
-      <c r="D63">
+      <c r="D63" s="13">
         <v>1</v>
       </c>
       <c r="E63" s="13" t="s">
@@ -10375,13 +10852,13 @@
         <v>71</v>
       </c>
       <c r="K63" s="54" t="s">
-        <v>244</v>
+        <v>364</v>
       </c>
       <c r="L63" s="13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M63" s="13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N63" s="13">
         <v>2.6</v>
@@ -10394,7 +10871,7 @@
       </c>
       <c r="Q63" s="13">
         <f t="shared" si="10"/>
-        <v>0.49920000000000003</v>
+        <v>0.99840000000000007</v>
       </c>
       <c r="R63" s="13">
         <v>2133</v>
@@ -10403,7 +10880,7 @@
         <v>56</v>
       </c>
       <c r="T63" s="54" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="U63">
         <v>340</v>
@@ -10412,17 +10889,17 @@
         <v>1.24</v>
       </c>
       <c r="AF63" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:34">
       <c r="B64" s="21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="D64">
+        <v>311</v>
+      </c>
+      <c r="D64" s="13">
         <v>2</v>
       </c>
       <c r="E64" s="13" t="s">
@@ -10441,7 +10918,7 @@
         <v>71</v>
       </c>
       <c r="K64" s="54" t="s">
-        <v>244</v>
+        <v>364</v>
       </c>
       <c r="L64" s="13">
         <v>1</v>
@@ -10469,7 +10946,7 @@
         <v>112</v>
       </c>
       <c r="T64" s="54" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="U64">
         <v>680</v>
@@ -10478,17 +10955,17 @@
         <v>2.48</v>
       </c>
       <c r="AF64" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
-    <row r="65" spans="2:32">
+    <row r="65" spans="1:34">
       <c r="B65" s="21" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="D65">
+        <v>311</v>
+      </c>
+      <c r="D65" s="13">
         <v>4</v>
       </c>
       <c r="E65" s="13" t="s">
@@ -10507,13 +10984,13 @@
         <v>71</v>
       </c>
       <c r="K65" s="54" t="s">
-        <v>244</v>
+        <v>364</v>
       </c>
       <c r="L65" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M65" s="13">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N65" s="13">
         <v>2.6</v>
@@ -10526,7 +11003,7 @@
       </c>
       <c r="Q65" s="13">
         <f t="shared" si="10"/>
-        <v>1.9968000000000001</v>
+        <v>0.99840000000000007</v>
       </c>
       <c r="R65" s="13">
         <v>2133</v>
@@ -10535,7 +11012,7 @@
         <v>224</v>
       </c>
       <c r="T65" s="54" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="U65">
         <v>1440</v>
@@ -10544,7 +11021,315 @@
         <v>4.97</v>
       </c>
       <c r="AF65" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34">
+      <c r="D66" s="13"/>
+    </row>
+    <row r="67" spans="1:34" ht="20" customHeight="1">
+      <c r="A67" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="C67" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="D67" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="13">
+        <v>8.74</v>
+      </c>
+      <c r="G67" s="13">
+        <v>2.91</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13">
+        <v>6</v>
+      </c>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="S67">
+        <v>39</v>
+      </c>
+      <c r="T67" t="s">
+        <v>352</v>
+      </c>
+      <c r="U67">
+        <v>375</v>
+      </c>
+      <c r="AA67" s="23">
+        <v>1.073</v>
+      </c>
+      <c r="AF67" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH67" s="60" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" ht="20" customHeight="1">
+      <c r="A68" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="C68" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="D68" s="13">
+        <v>1</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="13">
+        <v>8.74</v>
+      </c>
+      <c r="G68" s="13">
+        <v>2.91</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13">
+        <v>12</v>
+      </c>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12">
+        <v>39</v>
+      </c>
+      <c r="T68" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="U68" s="12">
+        <v>375</v>
+      </c>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
+      <c r="Y68" s="12"/>
+      <c r="AA68" s="23">
+        <v>2.0339999999999998</v>
+      </c>
+      <c r="AF68" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH68" s="60" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" ht="20" customHeight="1">
+      <c r="A69" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="C69" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="D69" s="13">
+        <v>2</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="13">
+        <v>8.74</v>
+      </c>
+      <c r="G69" s="13">
+        <v>2.91</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13">
+        <v>24</v>
+      </c>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12">
+        <v>39</v>
+      </c>
+      <c r="T69" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="U69" s="12">
+        <v>375</v>
+      </c>
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
+      <c r="Y69" s="12"/>
+      <c r="AA69" s="23">
+        <v>3.9550000000000001</v>
+      </c>
+      <c r="AF69" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH69" s="60" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" ht="20" customHeight="1">
+      <c r="B70" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="C70" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="D70" s="13">
+        <v>2</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="13">
+        <v>8.74</v>
+      </c>
+      <c r="G70" s="13">
+        <v>2.91</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13">
+        <v>32</v>
+      </c>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12">
+        <v>39</v>
+      </c>
+      <c r="T70" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="U70" s="12">
+        <v>375</v>
+      </c>
+      <c r="V70" s="12"/>
+      <c r="W70" s="12"/>
+      <c r="Y70" s="12"/>
+      <c r="AA70" s="23">
+        <v>4.3029999999999999</v>
+      </c>
+      <c r="AF70" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH70" s="60" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" ht="20" customHeight="1">
+      <c r="B71" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="C71" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="D71" s="13">
+        <v>4</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" s="13">
+        <v>8.74</v>
+      </c>
+      <c r="G71" s="13">
+        <v>2.91</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13">
+        <v>64</v>
+      </c>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12">
+        <v>39</v>
+      </c>
+      <c r="T71" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="U71" s="12">
+        <v>375</v>
+      </c>
+      <c r="V71" s="12"/>
+      <c r="W71" s="12"/>
+      <c r="Y71" s="12"/>
+      <c r="AA71" s="23">
+        <v>8.4930000000000003</v>
+      </c>
+      <c r="AF71" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH71" s="60" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -10557,7 +11342,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AI37">
-    <cfRule type="colorScale" priority="85">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10569,7 +11354,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ37">
-    <cfRule type="colorScale" priority="84">
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10581,7 +11366,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI38:AI39">
-    <cfRule type="colorScale" priority="80">
+    <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10593,7 +11378,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ38:AJ39">
-    <cfRule type="colorScale" priority="79">
+    <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10605,7 +11390,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI38:AI39">
-    <cfRule type="colorScale" priority="78">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10617,7 +11402,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ38:AJ39">
-    <cfRule type="colorScale" priority="77">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10629,32 +11414,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FH19:XFD20 FH35:XFD35 AA35 V34:Z35 U34 T34:T35 S34 R34:R35 AA39 A17 B18:I18 A21:J21 T21:W21 A22:W22 AA18:AE22 X18:X22 A12:AE12 A5:M8 A36:AE36 A38:M38 N38:O39 AI36:XFD38 AI19:AK20 AI39:AK39 AI21:XFD34 AH36:AH39 AH18:AH24 AI5:XFD18 R38:Y38 AD38:AE38 AC39 A13:AB13 R33:Y33 AA33:AE34 A37:O37 AA37:AE37 AA38:AB38 AH6:AH16 A10:C11 Z54:Z57 AF54:AG56 AF57 AH27:AH34 A23:AE25 A30:B32 J30:O32 AF6:AG40 R10:AD11 Q8:AE8 R9:AE9 Q9:Q11 A14:AE16 S18:W18 A26:O29 P26:AE32 A33:K34 L33:Q35 Q37:Y37 Q37:Q39 B9:C9 D9:M11 R6:AE7 R5:AH5 Q5:Q7 N5:P11">
-    <cfRule type="expression" dxfId="83" priority="71">
+    <cfRule type="expression" dxfId="109" priority="72">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC13">
-    <cfRule type="expression" dxfId="82" priority="58">
+    <cfRule type="expression" dxfId="108" priority="59">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="expression" dxfId="81" priority="57">
+    <cfRule type="expression" dxfId="107" priority="58">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:M39 R39:Y39">
-    <cfRule type="expression" dxfId="80" priority="56">
+    <cfRule type="expression" dxfId="106" priority="57">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC38">
-    <cfRule type="expression" dxfId="79" priority="55">
+    <cfRule type="expression" dxfId="105" priority="56">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI36:AI39 AI21:AI34 AI5:AI18">
-    <cfRule type="colorScale" priority="156">
+    <cfRule type="colorScale" priority="157">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10666,7 +11451,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ36:AJ39 AJ21:AJ34 AJ5:AJ18">
-    <cfRule type="colorScale" priority="160">
+    <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10678,7 +11463,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI36:AI37 AI21:AI34 AI5:AI18">
-    <cfRule type="colorScale" priority="164">
+    <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10690,7 +11475,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ36:AJ37 AJ21:AJ34 AJ5:AJ18">
-    <cfRule type="colorScale" priority="168">
+    <cfRule type="colorScale" priority="169">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10702,7 +11487,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK36:AK39 AK21:AK34 AK5:AK18">
-    <cfRule type="colorScale" priority="172">
+    <cfRule type="colorScale" priority="173">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10714,7 +11499,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI21:AI34 AI5:AI18">
-    <cfRule type="colorScale" priority="176">
+    <cfRule type="colorScale" priority="177">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10726,7 +11511,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ21:AJ34 AJ5:AJ18">
-    <cfRule type="colorScale" priority="179">
+    <cfRule type="colorScale" priority="180">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10738,12 +11523,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:J20 T20:W20">
-    <cfRule type="expression" dxfId="78" priority="47">
+    <cfRule type="expression" dxfId="104" priority="48">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI20">
-    <cfRule type="colorScale" priority="48">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10755,7 +11540,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ20">
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10767,7 +11552,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI20">
-    <cfRule type="colorScale" priority="50">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10779,7 +11564,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ20">
-    <cfRule type="colorScale" priority="51">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10791,7 +11576,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK20">
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10803,7 +11588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI20">
-    <cfRule type="colorScale" priority="53">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10815,7 +11600,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ20">
-    <cfRule type="colorScale" priority="54">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10827,17 +11612,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:I19">
-    <cfRule type="expressi